--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F136BF9-DFCF-41AD-BF76-6A04CD1A3C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EF571B-D38C-467C-A71B-7C22F04B5A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="38700" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook 1" sheetId="1" r:id="rId1"/>
@@ -8989,7 +8989,7 @@
     <t>cause_variables_theory_other: further describe which category the cause variable for other would fit</t>
   </si>
   <si>
-    <t>cause_variables_theory_certainty: indicates how certain the coders were with mapping cause variables to the four theoretical sources of self-efficacy</t>
+    <t>cause_variables_theory_certainty: indicates how certain the coders were with mapping cause variables to the four theoretical sources of self-efficacy (1: certain; 0: not certain)</t>
   </si>
 </sst>
 </file>
@@ -11210,7 +11210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AL17" sqref="AL17"/>
     </sheetView>
   </sheetViews>
@@ -57255,8 +57255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B6701F-34D4-40FE-B9CA-F6D05B269EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54630C4E-5818-45D2-AD6E-760FD6115ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1425" yWindow="1425" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54630C4E-5818-45D2-AD6E-760FD6115ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCE4835-CD86-4A01-BBBF-6B671CEF1D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9948" uniqueCount="2801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9923" uniqueCount="2805">
   <si>
     <t>id</t>
   </si>
@@ -7653,30 +7653,12 @@
     <t>validity_construct_discriminant_description_new</t>
   </si>
   <si>
-    <t>danger control (behavioral intention, attitudes); response efficacy</t>
-  </si>
-  <si>
     <t>computer security practices; perceived vulnerability; perceived severity; response efficacy; perceived usefulness; perceived ease of use; awareness; attitude toward computer security practices; subjective norms; perceived behavioral control</t>
   </si>
   <si>
     <t>mobile protection settings awareness; mobile information protection intention; mobile privacy concern; attitude towards information sharing; trust of mobile platform</t>
   </si>
   <si>
-    <t xml:space="preserve">intention to perform malware avoidance behaviors; vulnerability; severity; rewards; response efficacy; response cost </t>
-  </si>
-  <si>
-    <t>privacy concerns; computer anxiety; ethics; trust; risk-taking</t>
-  </si>
-  <si>
-    <t>mobile device security usage; perceived response cost; perceived threat severity; perceived threat susceptibility; protection motivation; response efficacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cues; detection; impact; intention; likelihood; response benefits; response efficacy; sanctions; social norms </t>
-  </si>
-  <si>
-    <t>avoidance behavior; vulnerability; response efficacy; protection behavior; severity</t>
-  </si>
-  <si>
     <t>perceived effectiveness; social influence; conventional coping; technological coping</t>
   </si>
   <si>
@@ -7701,18 +7683,12 @@
     <t>advertising value; brand trust; intention to use location-based advertising; privacy concerns</t>
   </si>
   <si>
-    <t>perceived detector effort requirement; perceived loss due to detector error; perceived detector usefulness; trust; threat severity; threat susceptibility</t>
-  </si>
-  <si>
     <t>perceived threat severity; perceived threat susceptibility; fear; response efficacy; protection motivation</t>
   </si>
   <si>
     <t>PLS (Table 2), AVE (Table 3): learner control; training satisfaction; training perfomance; threat severity; threat susceptibility; behavioral intention</t>
   </si>
   <si>
-    <t>learner control; training satisfaction; training perfomance; threat severity; threat susceptibility; behavioral intention</t>
-  </si>
-  <si>
     <t>CFA, EFA: religion/moral; legal/punishment; personality; subjective norms; cost of compliance; technology awareness; general information security; general information policy; information security compliance behavior</t>
   </si>
   <si>
@@ -7722,9 +7698,6 @@
     <t>Fornell-Larcker (Table 2): satisfaction with ISP and security practices; perceived usefulness of ISP; technology security awareness</t>
   </si>
   <si>
-    <t>optimism bias; perceived threat; intention</t>
-  </si>
-  <si>
     <t>AVE &gt; 0.5 (Table 3): optimism bias; perceived threat; intention</t>
   </si>
   <si>
@@ -7743,9 +7716,6 @@
     <t>PLS-SEM (Table 2), Fornell-Larcker (Table 3): threat awareness; countermeasure awareness; perceived severity; perceived vulnerability; response efficacy; response cost; desktop security behavior</t>
   </si>
   <si>
-    <t xml:space="preserve"> threat awareness; countermeasure awareness; perceived severity; perceived vulnerability; response efficacy; response cost; desktop security behavior</t>
-  </si>
-  <si>
     <t>Fornell-Larcker (Table 2), heterotrait-monotrait ratio (Table 3): perceived threat severity; perceived vulnerability; response cost; response efficacy; actual compliance; compliance intention</t>
   </si>
   <si>
@@ -7758,9 +7728,6 @@
     <t>self-anticipated satisfaction; system-specific privacy concerns; perceived privacy protection; general online privacy concerns</t>
   </si>
   <si>
-    <t>susceptibility; barriers; benefits; commitment; severity; awareness; intention continuance; cues to action</t>
-  </si>
-  <si>
     <t>perceived threat severity; perceived threat vulnerability; maladaptive rewards; fear; response efficacy; response cost; protection motivation</t>
   </si>
   <si>
@@ -7791,15 +7758,9 @@
     <t>deficient self-regulation; automatic use of unknown wireless network; routine use of unknown wireless network; social connectedness; attachment; social interaction anxiety; perceived risk</t>
   </si>
   <si>
-    <t>privacy settings use; risk perception; perceived effectiveness of privacy settings; privacy valuation</t>
-  </si>
-  <si>
     <t>factor loadings range from 0.41 to 0.93 (figure 2): severity; vulnerability; response efficacy; response cost</t>
   </si>
   <si>
-    <t>severity; vulnerability; response efficacy; response cost</t>
-  </si>
-  <si>
     <t>self-esteem</t>
   </si>
   <si>
@@ -7839,19 +7800,10 @@
     <t>psychological ownership; perceived control; intention to protect organizational data</t>
   </si>
   <si>
-    <t>transformational leadership; information security culture; general information security awareness; information security policy awareness; attitude; normative beliefs; intention</t>
-  </si>
-  <si>
     <t>PCA (factor loadings &gt; 0.6): perceived severity; perceived vulnerability; response efficacy; rewards; perceived anonymity of self; perceived anonymity of others; perceived intrusiveness</t>
   </si>
   <si>
-    <t>perceived severity; perceived vulnerability; response efficacy; rewards; perceived anonymity of self; perceived anonymity of others; perceived intrusiveness</t>
-  </si>
-  <si>
     <t>mobile phishing avoidance behavior; mobile phishing avoidance motivation; anticipated regret; gender</t>
-  </si>
-  <si>
-    <t>security awareness; security system satisfaction; severity; vulnerability; response efficacy; induction control intention; self defense intention</t>
   </si>
   <si>
     <t>validity_construct_convergent_description_new</t>
@@ -8204,9 +8156,6 @@
     <t>password compliance behavior; general security compliance behavior; general security awareness; general security orientation</t>
   </si>
   <si>
-    <t>cues; detection; impact; intention; likelihood; response benefits; response cost; response efficacy; sanctions; social norms</t>
-  </si>
-  <si>
     <t>descriptive information disclosure intention; social trust outcome expectations; customization outcome expectations; embarassment outcome expectations; information abuse outcome expectations; immediacy</t>
   </si>
   <si>
@@ -8219,9 +8168,6 @@
     <t>actual compliance; compliance intention; attitude; normative beliefs; rewards; perceived severity; perceived vulnerability; response efficacy</t>
   </si>
   <si>
-    <t>behavioral intention; perceived subjective norms; organizational commitment; attitude; perceived behavioral control; perceived controllability; perceived sanction severity; perceived sanction probability; cost-benefit analysis; perceived vulnerability; perceived threat severity; perceived response efficacy</t>
-  </si>
-  <si>
     <t>compliance knowledge of security policies; perceived vulnerability in security; attitudes towards security compliance; compliance intention regarding security policy</t>
   </si>
   <si>
@@ -8252,30 +8198,12 @@
     <t>general self-efficacy</t>
   </si>
   <si>
-    <t>technology compliance; technology compliance intention; normative beliefs; perceived usefulness of technology; perceived ease of use of technology; perceived justice of punishment; perceived fairness of reward; perceived enhancement of organizational mission achievement; perceived enhancement of personal mission achievement; satisfaction with technology; satisfaction with management interventions of technology compliance; satisfaction with technology compliance supporting higher objectives</t>
-  </si>
-  <si>
-    <t>personal information compromise; threat severity; threat vulnerability; response efficacy; response cost; trait positive affect; trait negative affect</t>
-  </si>
-  <si>
-    <t>threat severity; threat vulnerability; response efficacy; response cost; trait positive affect; trait negative affect</t>
-  </si>
-  <si>
-    <t>perceived vulnerability; perceived severity; perceived risk; trust; response efficacy; response cost; injunctive norms; descriptive norms; locus of control; protection motivation</t>
-  </si>
-  <si>
-    <t>threat severity; threat susceptibility; response efficacy; behavioral intention</t>
-  </si>
-  <si>
     <t>perceived usefulness; perceived ease of protection; compatibility; peer influence; superior influence; faciliating conditions; attitude; subjective norms; perceived behavioral control; behavioral intention</t>
   </si>
   <si>
     <t>media influence; people influence; perceived ease of use; perceived probability; perceived severity; perceived usefulness; security behavior</t>
   </si>
   <si>
-    <t>perceived vulnerability; fear of threat; perceived severity; perceived password effectiveness; perceived cost; compliance intention; actual password compliance</t>
-  </si>
-  <si>
     <t>backing up data; perceived security vulnerabilities; perceived security threats; response efficacy; prevention cost</t>
   </si>
   <si>
@@ -8286,9 +8214,6 @@
   </si>
   <si>
     <t>perceived threat severity; perceived vulnerability; response cost; response efficacy; compliance behavior; compliance intention</t>
-  </si>
-  <si>
-    <t>exposure to hacking; perceived vulnerability; fear of threat; perceived severity; perceived password effectiveness; perceived cost; compliance intention; actual password compliance</t>
   </si>
   <si>
     <t>validity_construct_discriminant_description_new: only include constructs (no methods), behavior (AE), do not include self-efficacy, response cost (singular), subjective norms (plural), behavioral intention (singular and not intent)</t>
@@ -8331,9 +8256,6 @@
     <t>square root of AVE was higher than scores in its rows and columns: perceived severity; perceived benefits; actual security behavior; security habit; perceived susceptibility; behavioral intention; perceived barriers; cues to action</t>
   </si>
   <si>
-    <t>perceived severity; perceived benefits; actual security behavior; security habit; perceived susceptibility; behavioral intention; perceived barriers; cues to action</t>
-  </si>
-  <si>
     <t>AVE &gt; 0.5: perceived severity; perceived benefits; actual security behavior; security habit; perceived susceptibility; behavioral intention; perceied barrier; cues to action</t>
   </si>
   <si>
@@ -8364,9 +8286,6 @@
     <t>Fornell-Larcker, PLS (Table 4): defense of ubiquity; intentons of compliance; metaphor of the ledger; normative beliefs; cost of non-compliance; response efficacy</t>
   </si>
   <si>
-    <t>defense of ubiquity; compliance intention; metaphor of the ledger; normative beliefs; cost of non-compliance; response efficacy</t>
-  </si>
-  <si>
     <t>factor loading in PLS &gt; 0.7, Fornell-Larcker: defense of ubiquity; intentons of compliance; metaphor of the ledger; normative beliefs; cost of non-compliance; response efficacy</t>
   </si>
   <si>
@@ -8382,9 +8301,6 @@
     <t>AVE &gt; construct’s highest squared correlation (Table 6); cross-item-loadings &gt; 0.7 (Appendix C): behavior; perceived susceptibility; perceived severity; perceived benefits; perceived barriers</t>
   </si>
   <si>
-    <t>behavior; perceived susceptibility; perceived severity; perceived benefits; perceived barriers</t>
-  </si>
-  <si>
     <t>Stone-Geisser Q-squared coefficients: &gt;0 (US Sample: behavior 0.608, ACT 0.041; Indian sample: BEH 0.365, ACT 0.025); we can conclude that they present acceptable predictive validity): behavior; perceived susceptibility; perceived severity; perceived benefits; perceived barriers</t>
   </si>
   <si>
@@ -8395,9 +8311,6 @@
   </si>
   <si>
     <t>persuasion knowledge; perceived risk; perceived benefits; reactance; perceived personalization; privacy concerns; advertisement avoidance</t>
-  </si>
-  <si>
-    <t>self-disclosure; protection motivation; privacy concerns; threat susceptibility; threat severity; assurance mechanisms efficacy; privacy assurance statement; privacy customization</t>
   </si>
   <si>
     <t>AVE &gt; inter-construct correlations (Table 4): perceived severity; rewards; perceived vulnerability; response efficacy; users' information privacy concerns; privacy protection behavior</t>
@@ -8432,9 +8345,6 @@
     <t>general technology awareness; information security reinforcement intention; information security risk perception; risk propensity; self-technical controllability</t>
   </si>
   <si>
-    <t>information security policy compliance intention; general information security awareness; information security policy awareness; attitude; normative beliefs; perceived cost of compliance; work impediment; intrinsic benefit; intrinsic cost; rewards; safety of resources; perceived benefits of compliance; sanctions; vulnerability of resources; perceived cost of non-compliance</t>
-  </si>
-  <si>
     <t>emotional response to restricted choice; information security policy compliance intention; reactance to compliance; response efficacy; resistance to influence from others; reactance toward advice and recommendations; self-determination</t>
   </si>
   <si>
@@ -8972,6 +8882,108 @@
   </si>
   <si>
     <t>secure smartphone usage; secure smartphone usage</t>
+  </si>
+  <si>
+    <t>danger control intention; danger control attitudes; response efficacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intention to perform malware avoidance behaviors; perceived vulnerability; perceived severity; rewards; response efficacy; response cost </t>
+  </si>
+  <si>
+    <t>avoidance behavior; perceived vulnerability; response efficacy; protection behavior; perceived severity</t>
+  </si>
+  <si>
+    <t>learner control; training satisfaction; training perfomance; perceived threat severity; perceived threat susceptibility; behavioral intention</t>
+  </si>
+  <si>
+    <t>optimism bias; perceived threat; protection intention</t>
+  </si>
+  <si>
+    <t>threat awareness; countermeasure awareness; perceived severity; perceived vulnerability; response efficacy; response cost; desktop security behavior</t>
+  </si>
+  <si>
+    <t>perceived susceptibility; barriers; benefits; commitment; perceived severity; awareness; intention continuance; cues to action</t>
+  </si>
+  <si>
+    <t>perceived severity; perceived vulnerability; response efficacy; response cost</t>
+  </si>
+  <si>
+    <t>personal information compromise; perceived threat severity; perceived threat vulnerability; response efficacy; response cost; trait positive affect; trait negative affect</t>
+  </si>
+  <si>
+    <t>perceived threat severity; perceived threat vulnerability; response efficacy; response cost; trait positive affect; trait negative affect</t>
+  </si>
+  <si>
+    <t>perceived threat severity; perceived threat susceptibility; response efficacy; behavioral intention</t>
+  </si>
+  <si>
+    <t>perceived severity; perceived benefits; security behavior; security habit; perceived susceptibility; behavioral intention; perceived barriers; cues to action</t>
+  </si>
+  <si>
+    <t>self-disclosure; protection motivation; privacy concerns; perceived threat susceptibility; perceived threat severity; assurance mechanisms efficacy; privacy assurance statement; privacy customization</t>
+  </si>
+  <si>
+    <t>transformational leadership; information security culture; general information security awareness; information security policy awareness; attitude; normative beliefs; intention to resist social engineering</t>
+  </si>
+  <si>
+    <t>perceived severity; perceived vulnerability; response efficacy; perceived rewards; perceived anonymity of self; perceived anonymity of others; perceived intrusiveness</t>
+  </si>
+  <si>
+    <t>security awareness; security system satisfaction; perceived severity; perceived vulnerability; response efficacy; induction control intention; self defense intention</t>
+  </si>
+  <si>
+    <t>perceived susceptibility; perceived barriers; perceived benefits; commitment; perceived severity; awareness; intention continuance; cues to action</t>
+  </si>
+  <si>
+    <t>cues to action; detection of non-compliance; impact of threat; intention to pratice information security; likelihood of threat; response benefits; response efficacy; sanctions; social norms</t>
+  </si>
+  <si>
+    <t>security behavior; perceived susceptibility; perceived severity; perceived benefits; perceived barriers</t>
+  </si>
+  <si>
+    <t>security behavior; perceived susceptibility; perceived severity; perceived benefits; perceived barriers; cues to action; general security orientation; technical controls; security familiarity</t>
+  </si>
+  <si>
+    <t>mobile device security usage; response cost; perceived threat severity; perceived threat susceptibility; protection motivation; response efficacy</t>
+  </si>
+  <si>
+    <t>behavioral intention; subjective norms; organizational commitment; attitude; perceived behavioral control; perceived controllability; perceived sanction severity; perceived sanction probability; cost-benefit analysis; perceived vulnerability; perceived threat severity; response efficacy</t>
+  </si>
+  <si>
+    <t>religion/moral; legal/punishment; personality; subjective norms; perceived cost of compliance; technology awareness; general information security; general information policy; information security compliance behavior</t>
+  </si>
+  <si>
+    <t>defense of ubiquity; compliance intention; metaphor of the ledger; normative beliefs; perceived cost of non-compliance; response efficacy</t>
+  </si>
+  <si>
+    <t>perceived vulnerability; fear of threat; perceived severity; perceived password effectiveness; perceived cost; compliance intention; password compliance</t>
+  </si>
+  <si>
+    <t>exposure to hacking; perceived vulnerability; fear of threat; perceived severity; perceived password effectiveness; perceived cost; compliance intention; password compliance</t>
+  </si>
+  <si>
+    <t>technology compliance; technology compliance intention; normative beliefs; perceived usefulness of technology; perceived ease of use; perceived justice of punishment; perceived fairness of reward; perceived enhancement of organizational mission achievement; perceived enhancement of personal mission achievement; satisfaction with technology; satisfaction with management interventions of technology compliance; satisfaction with technology compliance supporting higher objectives</t>
+  </si>
+  <si>
+    <t>privacy settings use; perceived risk; perceived effectiveness; privacy valuation</t>
+  </si>
+  <si>
+    <t>privacy settings use; preceived risk; perceived effectiveness; privacy valuation</t>
+  </si>
+  <si>
+    <t>privacy concerns; computer anxiety; ethics; perceived trust; risk-taking</t>
+  </si>
+  <si>
+    <t>perceived detector effort requirement; perceived loss due to detector error; perceived detector usefulness; perceived trust; perceived threat severity; perceived threat susceptibility</t>
+  </si>
+  <si>
+    <t>perceived detector effort requirement; perceived loss due to detector error; perceived detector usefulness; perceived trust; perceived threat severity; perceivded threat susceptibility</t>
+  </si>
+  <si>
+    <t>perceived vulnerability; perceived severity; perceived risk; perceived trust; response efficacy; response cost; injunctive norms; descriptive norms; locus of control; protection motivation</t>
+  </si>
+  <si>
+    <t>information security policy compliance intention; general information security awareness; information security policy awareness; attitude; normative beliefs; perceived cost of compliance; work impediment; intrinsic benefit; intrinsic cost; rewards; safety of resources; perceived benefits of compliance; sanctions; perceived vulnerability of resources; perceived cost of non-compliance</t>
   </si>
 </sst>
 </file>
@@ -9061,15 +9073,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9090,18 +9102,13 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -9109,18 +9116,13 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -9128,7 +9130,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -9147,18 +9148,13 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -9166,18 +9162,13 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -9185,26 +9176,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -9269,98 +9240,6 @@
     <dxf>
       <font>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -10149,6 +10028,64 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -10185,6 +10122,81 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -10808,87 +10820,87 @@
     <tableColumn id="26" xr3:uid="{DAC8F819-9B93-42D5-95FC-2B79BBE6FA34}" name="reliability_composite_studypaper" dataDxfId="71"/>
     <tableColumn id="27" xr3:uid="{42E070B1-262D-423B-ACD6-909449A671F5}" name="reliability_other_studypaper" dataDxfId="70"/>
     <tableColumn id="28" xr3:uid="{87FF4DBF-0ABD-438C-97A8-5156E13146C3}" name="validity_information_studypaper" dataDxfId="69"/>
-    <tableColumn id="29" xr3:uid="{DD2BEF4E-7541-406E-B9FF-652C420A7A4D}" name="as_outcome_variable" dataDxfId="5"/>
-    <tableColumn id="30" xr3:uid="{552BADFA-87DD-45F0-9C1E-1DC6B1B3F790}" name="cause_variables" dataDxfId="3"/>
-    <tableColumn id="31" xr3:uid="{86019C60-30AD-456F-8A43-E9ABBA2909F7}" name="cause_variables_new" dataDxfId="4"/>
-    <tableColumn id="52" xr3:uid="{40329B49-416B-407B-B75D-F87C2A6B8124}" name="cause_variables_theory" dataDxfId="68"/>
-    <tableColumn id="54" xr3:uid="{DAEFBA89-68E8-4475-BB8D-520C38A319D4}" name="cause_variables_theory_other" dataDxfId="67"/>
-    <tableColumn id="53" xr3:uid="{E4EF916A-C11D-4465-A7C5-10136D29F161}" name="cause_variables_theory_certainty" dataDxfId="66"/>
-    <tableColumn id="32" xr3:uid="{E701C720-C404-4391-B8A5-D9C68D70A2A8}" name="as_cause_variable" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{B9997837-7A9D-4A7C-AB55-42AABCFD811D}" name="outcome_variables" dataDxfId="0"/>
-    <tableColumn id="34" xr3:uid="{CFE1E853-EE6D-4F54-AF02-1C96FB97265D}" name="outcome_variables_new" dataDxfId="1"/>
-    <tableColumn id="35" xr3:uid="{983B5AC6-01CB-430A-BFE9-47FB6C8A1A57}" name="outcome_variables_theory" dataDxfId="6"/>
-    <tableColumn id="36" xr3:uid="{4E2E13CE-F550-4BBD-9D43-D4DD2B7682C5}" name="intervention" dataDxfId="65"/>
-    <tableColumn id="37" xr3:uid="{301B9B6E-3055-4BD2-A785-5A89438E360A}" name=" intervention_description" dataDxfId="64"/>
-    <tableColumn id="38" xr3:uid="{967F2D4A-B38D-4733-AEBC-87F42E6372CA}" name="intervention_description_new" dataDxfId="63"/>
-    <tableColumn id="39" xr3:uid="{4A4637C3-0C9E-4AC6-A130-EC58C54AA78E}" name="sample_size" dataDxfId="62"/>
-    <tableColumn id="40" xr3:uid="{48C1563E-C36D-42F2-BAAC-D9258D9F7DDA}" name="sample_size_new" dataDxfId="61"/>
-    <tableColumn id="41" xr3:uid="{2197BFF1-80B6-45A4-A1DF-A26AFB19143E}" name="sample_age" dataDxfId="60"/>
-    <tableColumn id="42" xr3:uid="{9AA21FE9-EEA8-4B4D-B6A4-2B73876A3B34}" name="sample_age_new" dataDxfId="59"/>
-    <tableColumn id="43" xr3:uid="{E85023DE-EC6C-479B-9F2F-0428AFA9388F}" name="sample_sex" dataDxfId="58"/>
-    <tableColumn id="44" xr3:uid="{8DA8AEE4-D2C9-4991-81B1-9411D454D320}" name="sample_sex_male" dataDxfId="57"/>
-    <tableColumn id="45" xr3:uid="{B8B5E0FC-856F-4D00-A329-B6D961D92676}" name="sample_sex_female" dataDxfId="56"/>
-    <tableColumn id="46" xr3:uid="{3A87F76B-3DA3-4A54-93FC-DC8725B0608E}" name="sample_sex_nonbinary" dataDxfId="55"/>
-    <tableColumn id="47" xr3:uid="{A6957E5C-1E57-4297-A60F-C0D160A3DC1B}" name="sample_sex_noresponse" dataDxfId="54"/>
-    <tableColumn id="48" xr3:uid="{D76BE3F9-76C1-4B9F-855B-7FDC79B8FE2F}" name="sample_profession" dataDxfId="53"/>
-    <tableColumn id="49" xr3:uid="{520B4AA4-E8B0-4EF8-B82F-78D7563ADEAE}" name="sample_profession_new" dataDxfId="52"/>
-    <tableColumn id="50" xr3:uid="{B1845F5E-B0D1-44C7-9879-A514F7AB0082}" name="sample_recruitment" dataDxfId="51"/>
-    <tableColumn id="51" xr3:uid="{19AECBA3-1C73-4E2F-8F22-A9E94D2CD5E7}" name="sample_country" dataDxfId="50"/>
+    <tableColumn id="29" xr3:uid="{DD2BEF4E-7541-406E-B9FF-652C420A7A4D}" name="as_outcome_variable" dataDxfId="68"/>
+    <tableColumn id="30" xr3:uid="{552BADFA-87DD-45F0-9C1E-1DC6B1B3F790}" name="cause_variables" dataDxfId="67"/>
+    <tableColumn id="31" xr3:uid="{86019C60-30AD-456F-8A43-E9ABBA2909F7}" name="cause_variables_new" dataDxfId="66"/>
+    <tableColumn id="52" xr3:uid="{40329B49-416B-407B-B75D-F87C2A6B8124}" name="cause_variables_theory" dataDxfId="65"/>
+    <tableColumn id="54" xr3:uid="{DAEFBA89-68E8-4475-BB8D-520C38A319D4}" name="cause_variables_theory_other" dataDxfId="64"/>
+    <tableColumn id="53" xr3:uid="{E4EF916A-C11D-4465-A7C5-10136D29F161}" name="cause_variables_theory_certainty" dataDxfId="63"/>
+    <tableColumn id="32" xr3:uid="{E701C720-C404-4391-B8A5-D9C68D70A2A8}" name="as_cause_variable" dataDxfId="62"/>
+    <tableColumn id="33" xr3:uid="{B9997837-7A9D-4A7C-AB55-42AABCFD811D}" name="outcome_variables" dataDxfId="61"/>
+    <tableColumn id="34" xr3:uid="{CFE1E853-EE6D-4F54-AF02-1C96FB97265D}" name="outcome_variables_new" dataDxfId="60"/>
+    <tableColumn id="35" xr3:uid="{983B5AC6-01CB-430A-BFE9-47FB6C8A1A57}" name="outcome_variables_theory" dataDxfId="59"/>
+    <tableColumn id="36" xr3:uid="{4E2E13CE-F550-4BBD-9D43-D4DD2B7682C5}" name="intervention" dataDxfId="58"/>
+    <tableColumn id="37" xr3:uid="{301B9B6E-3055-4BD2-A785-5A89438E360A}" name=" intervention_description" dataDxfId="57"/>
+    <tableColumn id="38" xr3:uid="{967F2D4A-B38D-4733-AEBC-87F42E6372CA}" name="intervention_description_new" dataDxfId="56"/>
+    <tableColumn id="39" xr3:uid="{4A4637C3-0C9E-4AC6-A130-EC58C54AA78E}" name="sample_size" dataDxfId="55"/>
+    <tableColumn id="40" xr3:uid="{48C1563E-C36D-42F2-BAAC-D9258D9F7DDA}" name="sample_size_new" dataDxfId="54"/>
+    <tableColumn id="41" xr3:uid="{2197BFF1-80B6-45A4-A1DF-A26AFB19143E}" name="sample_age" dataDxfId="53"/>
+    <tableColumn id="42" xr3:uid="{9AA21FE9-EEA8-4B4D-B6A4-2B73876A3B34}" name="sample_age_new" dataDxfId="52"/>
+    <tableColumn id="43" xr3:uid="{E85023DE-EC6C-479B-9F2F-0428AFA9388F}" name="sample_sex" dataDxfId="51"/>
+    <tableColumn id="44" xr3:uid="{8DA8AEE4-D2C9-4991-81B1-9411D454D320}" name="sample_sex_male" dataDxfId="50"/>
+    <tableColumn id="45" xr3:uid="{B8B5E0FC-856F-4D00-A329-B6D961D92676}" name="sample_sex_female" dataDxfId="49"/>
+    <tableColumn id="46" xr3:uid="{3A87F76B-3DA3-4A54-93FC-DC8725B0608E}" name="sample_sex_nonbinary" dataDxfId="48"/>
+    <tableColumn id="47" xr3:uid="{A6957E5C-1E57-4297-A60F-C0D160A3DC1B}" name="sample_sex_noresponse" dataDxfId="47"/>
+    <tableColumn id="48" xr3:uid="{D76BE3F9-76C1-4B9F-855B-7FDC79B8FE2F}" name="sample_profession" dataDxfId="46"/>
+    <tableColumn id="49" xr3:uid="{520B4AA4-E8B0-4EF8-B82F-78D7563ADEAE}" name="sample_profession_new" dataDxfId="45"/>
+    <tableColumn id="50" xr3:uid="{B1845F5E-B0D1-44C7-9879-A514F7AB0082}" name="sample_recruitment" dataDxfId="44"/>
+    <tableColumn id="51" xr3:uid="{19AECBA3-1C73-4E2F-8F22-A9E94D2CD5E7}" name="sample_country" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:AJ174" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:AJ174" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:AJ174" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="authors" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="year" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="scale_number" dataDxfId="44"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="scale_number_new" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="scale_development " dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="scale_authors" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="scale_changes" dataDxfId="40"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="scale_changes_new" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="scale_name" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="scale_language" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="item_number" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="factors" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="facets" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="item_list" dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="reliability_alpha" dataDxfId="32"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="reliability_alpha_new" dataDxfId="31"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="reliability_composite" dataDxfId="30"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="reliability_composite_new" dataDxfId="29"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="reliability_testretest" dataDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="reliability_splithalf" dataDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="validity_content " dataDxfId="26"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="validity_content_description " dataDxfId="25"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="validity_construct_factor" dataDxfId="24"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="validity_construct_factor_new" dataDxfId="23"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="validity_construct_factor_description" dataDxfId="22"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="validity_construct_factor_fitindices" dataDxfId="21"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="validity_construct_discriminant_type" dataDxfId="20"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="validity_construct_discriminant_description" dataDxfId="19"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="validity_construct_discriminant_description_new" dataDxfId="18"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="validity_construct_convergent_type" dataDxfId="17"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="validity_construct_convergent_description" dataDxfId="16"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="validity_construct_convergent_description_new" dataDxfId="15"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="validity_criterion_type" dataDxfId="14"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="validity_criterion_results" dataDxfId="13"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="validity_incremental" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="authors" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="year" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="scale_number" dataDxfId="37"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="scale_number_new" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="scale_development " dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="scale_authors" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="scale_changes" dataDxfId="33"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="scale_changes_new" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="scale_name" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="scale_language" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="item_number" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="factors" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="facets" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="item_list" dataDxfId="26"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="reliability_alpha" dataDxfId="25"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="reliability_alpha_new" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="reliability_composite" dataDxfId="23"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="reliability_composite_new" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="reliability_testretest" dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="reliability_splithalf" dataDxfId="20"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="validity_content " dataDxfId="19"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="validity_content_description " dataDxfId="18"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="validity_construct_factor" dataDxfId="17"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="validity_construct_factor_new" dataDxfId="16"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="validity_construct_factor_description" dataDxfId="15"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="validity_construct_factor_fitindices" dataDxfId="14"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="validity_construct_discriminant_type" dataDxfId="13"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="validity_construct_discriminant_description" dataDxfId="5"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="validity_construct_discriminant_description_new" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="validity_construct_convergent_type" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="validity_construct_convergent_description" dataDxfId="2"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="validity_construct_convergent_description_new" dataDxfId="0"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="validity_criterion_type" dataDxfId="1"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="validity_criterion_results" dataDxfId="12"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="validity_incremental" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:A24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:A24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <autoFilter ref="A1:A24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Additional Coding Information:" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Additional Coding Information:" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11193,8 +11205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD181" sqref="AD181"/>
+    <sheetView topLeftCell="AB149" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB162" sqref="AB162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11346,13 +11358,13 @@
         <v>2087</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>2686</v>
+        <v>2656</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>2728</v>
+        <v>2698</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>2729</v>
+        <v>2699</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>28</v>
@@ -11364,7 +11376,7 @@
         <v>2117</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>2672</v>
+        <v>2642</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>30</v>
@@ -11611,7 +11623,7 @@
         <v>55</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>2669</v>
+        <v>2639</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
@@ -11656,13 +11668,13 @@
         <v>1</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>2687</v>
+        <v>2657</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>2768</v>
+        <v>2738</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>2688</v>
+        <v>2658</v>
       </c>
       <c r="AH3" s="1">
         <v>1</v>
@@ -11677,7 +11689,7 @@
         <v>57</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>2741</v>
+        <v>2711</v>
       </c>
       <c r="AM3" s="1">
         <v>1</v>
@@ -11829,13 +11841,13 @@
         <v>1</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>2650</v>
+        <v>2620</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -11966,13 +11978,13 @@
         <v>1</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>2656</v>
+        <v>2626</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>2656</v>
+        <v>2626</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>2689</v>
+        <v>2659</v>
       </c>
       <c r="AH5" s="1">
         <v>0</v>
@@ -11987,7 +11999,7 @@
         <v>2120</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -12139,7 +12151,7 @@
         <v>936</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -12291,7 +12303,7 @@
         <v>936</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -12422,7 +12434,7 @@
         <v>2108</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>2690</v>
+        <v>2660</v>
       </c>
       <c r="AH8" s="1">
         <v>0</v>
@@ -12431,13 +12443,13 @@
         <v>1</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>2655</v>
+        <v>2625</v>
       </c>
       <c r="AK8" s="2" t="s">
         <v>936</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -12735,7 +12747,7 @@
         <v>1</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="AK10" s="2" t="s">
         <v>2121</v>
@@ -12887,13 +12899,13 @@
         <v>1</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>2787</v>
+        <v>2757</v>
       </c>
       <c r="AK11" s="2" t="s">
         <v>2124</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>2675</v>
+        <v>2645</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -13477,10 +13489,10 @@
         <v>176</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>2691</v>
+        <v>2661</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>2730</v>
+        <v>2700</v>
       </c>
       <c r="AH15" s="1">
         <v>0</v>
@@ -13647,7 +13659,7 @@
         <v>187</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM16" s="1">
         <v>0</v>
@@ -13778,13 +13790,13 @@
         <v>1</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>2692</v>
+        <v>2662</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>2657</v>
+        <v>2627</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>2693</v>
+        <v>2663</v>
       </c>
       <c r="AH17" s="1">
         <v>0</v>
@@ -13936,10 +13948,10 @@
         <v>208</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>2731</v>
+        <v>2701</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -13954,7 +13966,7 @@
         <v>2127</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>2676</v>
+        <v>2646</v>
       </c>
       <c r="AM18" s="1">
         <v>0</v>
@@ -14079,7 +14091,7 @@
         <v>219</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>2578</v>
+        <v>2553</v>
       </c>
       <c r="AC19" s="1">
         <v>0</v>
@@ -14243,10 +14255,10 @@
         <v>228</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>2732</v>
+        <v>2702</v>
       </c>
       <c r="AH20" s="1">
         <v>0</v>
@@ -14392,16 +14404,16 @@
         <v>1</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>2659</v>
+        <v>2629</v>
       </c>
       <c r="AE21" s="1" t="s">
         <v>2089</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>2694</v>
+        <v>2664</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>2733</v>
+        <v>2703</v>
       </c>
       <c r="AH21" s="1">
         <v>0</v>
@@ -14562,7 +14574,7 @@
         <v>2128</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -14708,13 +14720,13 @@
         <v>1</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>2788</v>
+        <v>2758</v>
       </c>
       <c r="AK23" s="2" t="s">
         <v>936</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM23" s="1">
         <v>0</v>
@@ -14866,7 +14878,7 @@
         <v>2119</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -15009,7 +15021,7 @@
         <v>2129</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>2677</v>
+        <v>2647</v>
       </c>
       <c r="AM25" s="1">
         <v>0</v>
@@ -15161,7 +15173,7 @@
         <v>282</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>2678</v>
+        <v>2648</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -15450,7 +15462,7 @@
         <v>2125</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -15730,7 +15742,7 @@
         <v>2094</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>2689</v>
+        <v>2659</v>
       </c>
       <c r="AH30" s="1">
         <v>0</v>
@@ -15745,7 +15757,7 @@
         <v>2123</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -15882,7 +15894,7 @@
         <v>329</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>2690</v>
+        <v>2660</v>
       </c>
       <c r="AH31" s="1">
         <v>0</v>
@@ -15897,7 +15909,7 @@
         <v>2131</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>2679</v>
+        <v>2649</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -16046,7 +16058,7 @@
         <v>2123</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -16189,7 +16201,7 @@
         <v>2132</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -16326,10 +16338,10 @@
         <v>2090</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>2695</v>
+        <v>2665</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>2734</v>
+        <v>2704</v>
       </c>
       <c r="AH34" s="1">
         <v>1</v>
@@ -16499,7 +16511,7 @@
         <v>2095</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -16645,13 +16657,13 @@
         <v>1</v>
       </c>
       <c r="AJ36" s="2" t="s">
-        <v>2648</v>
+        <v>2618</v>
       </c>
       <c r="AK36" s="2" t="s">
-        <v>2664</v>
+        <v>2634</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>2742</v>
+        <v>2712</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
@@ -16803,7 +16815,7 @@
         <v>2123</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -16961,7 +16973,7 @@
         <v>2095</v>
       </c>
       <c r="AL38" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM38" s="1">
         <v>0</v>
@@ -17104,7 +17116,7 @@
         <v>2095</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -17247,7 +17259,7 @@
         <v>2095</v>
       </c>
       <c r="AL40" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -17518,16 +17530,16 @@
         <v>1</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>2696</v>
+        <v>2666</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>2769</v>
+        <v>2739</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>2697</v>
+        <v>2667</v>
       </c>
       <c r="AG42" s="1" t="s">
-        <v>2735</v>
+        <v>2705</v>
       </c>
       <c r="AH42" s="1">
         <v>0</v>
@@ -17691,13 +17703,13 @@
         <v>1</v>
       </c>
       <c r="AJ43" s="2" t="s">
-        <v>2743</v>
+        <v>2713</v>
       </c>
       <c r="AK43" s="2" t="s">
-        <v>2744</v>
+        <v>2714</v>
       </c>
       <c r="AL43" s="1" t="s">
-        <v>2745</v>
+        <v>2715</v>
       </c>
       <c r="AM43" s="1">
         <v>0</v>
@@ -17846,7 +17858,7 @@
         <v>2133</v>
       </c>
       <c r="AL44" s="1" t="s">
-        <v>2746</v>
+        <v>2716</v>
       </c>
       <c r="AM44" s="1">
         <v>0</v>
@@ -17983,10 +17995,10 @@
         <v>444</v>
       </c>
       <c r="AK45" s="2" t="s">
-        <v>2777</v>
+        <v>2747</v>
       </c>
       <c r="AL45" s="1" t="s">
-        <v>2682</v>
+        <v>2652</v>
       </c>
       <c r="AM45" s="1">
         <v>0</v>
@@ -18123,13 +18135,13 @@
         <v>1</v>
       </c>
       <c r="AJ46" s="2" t="s">
-        <v>2651</v>
+        <v>2621</v>
       </c>
       <c r="AK46" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="AL46" s="1" t="s">
-        <v>2676</v>
+        <v>2646</v>
       </c>
       <c r="AM46" s="1">
         <v>0</v>
@@ -18284,7 +18296,7 @@
         <v>936</v>
       </c>
       <c r="AL47" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM47" s="1">
         <v>0</v>
@@ -18433,7 +18445,7 @@
         <v>2136</v>
       </c>
       <c r="AL48" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM48" s="1">
         <v>0</v>
@@ -18585,7 +18597,7 @@
         <v>2134</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM49" s="1">
         <v>0</v>
@@ -18734,10 +18746,10 @@
         <v>491</v>
       </c>
       <c r="AK50" s="2" t="s">
-        <v>2778</v>
+        <v>2748</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM50" s="1">
         <v>0</v>
@@ -18886,7 +18898,7 @@
         <v>2119</v>
       </c>
       <c r="AL51" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM51" s="1">
         <v>0</v>
@@ -19023,7 +19035,7 @@
         <v>2109</v>
       </c>
       <c r="AF52" s="1" t="s">
-        <v>2698</v>
+        <v>2668</v>
       </c>
       <c r="AH52" s="1">
         <v>1</v>
@@ -19038,7 +19050,7 @@
         <v>2146</v>
       </c>
       <c r="AL52" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM52" s="1">
         <v>0</v>
@@ -19330,7 +19342,7 @@
         <v>1</v>
       </c>
       <c r="AJ54" s="2" t="s">
-        <v>2789</v>
+        <v>2759</v>
       </c>
       <c r="AK54" s="2" t="s">
         <v>1582</v>
@@ -19482,7 +19494,7 @@
         <v>1</v>
       </c>
       <c r="AJ55" s="2" t="s">
-        <v>2789</v>
+        <v>2759</v>
       </c>
       <c r="AK55" s="2" t="s">
         <v>1582</v>
@@ -19768,7 +19780,7 @@
         <v>2106</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AH57" s="1">
         <v>0</v>
@@ -19783,7 +19795,7 @@
         <v>936</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM57" s="1">
         <v>0</v>
@@ -19914,13 +19926,13 @@
         <v>1</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>2699</v>
+        <v>2669</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>2700</v>
+        <v>2670</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>2698</v>
+        <v>2668</v>
       </c>
       <c r="AH58" s="1">
         <v>1</v>
@@ -20072,10 +20084,10 @@
         <v>2091</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>2701</v>
+        <v>2671</v>
       </c>
       <c r="AG59" s="1" t="s">
-        <v>2736</v>
+        <v>2706</v>
       </c>
       <c r="AH59" s="1">
         <v>0</v>
@@ -20090,7 +20102,7 @@
         <v>2137</v>
       </c>
       <c r="AL59" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -20224,7 +20236,7 @@
         <v>2092</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>2690</v>
+        <v>2660</v>
       </c>
       <c r="AH60" s="1">
         <v>0</v>
@@ -20239,7 +20251,7 @@
         <v>282</v>
       </c>
       <c r="AL60" s="1" t="s">
-        <v>2678</v>
+        <v>2648</v>
       </c>
       <c r="AM60" s="1">
         <v>0</v>
@@ -20379,7 +20391,7 @@
         <v>2138</v>
       </c>
       <c r="AL61" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM61" s="1">
         <v>0</v>
@@ -20456,7 +20468,7 @@
         <v>787</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>2670</v>
+        <v>2640</v>
       </c>
       <c r="P62" s="1">
         <v>1</v>
@@ -20501,13 +20513,13 @@
         <v>1</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>2783</v>
+        <v>2753</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>2770</v>
+        <v>2740</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>2702</v>
+        <v>2672</v>
       </c>
       <c r="AH62" s="1">
         <v>1</v>
@@ -20680,7 +20692,7 @@
         <v>2123</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -20832,7 +20844,7 @@
         <v>2106</v>
       </c>
       <c r="AL64" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -20969,13 +20981,13 @@
         <v>1</v>
       </c>
       <c r="AJ65" s="2" t="s">
-        <v>2645</v>
+        <v>2615</v>
       </c>
       <c r="AK65" s="2" t="s">
         <v>2139</v>
       </c>
       <c r="AL65" s="1" t="s">
-        <v>2747</v>
+        <v>2717</v>
       </c>
       <c r="AM65" s="1">
         <v>0</v>
@@ -21511,7 +21523,7 @@
         <v>936</v>
       </c>
       <c r="AL69" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM69" s="1">
         <v>0</v>
@@ -21642,7 +21654,7 @@
         <v>1676</v>
       </c>
       <c r="AF70" s="1" t="s">
-        <v>2703</v>
+        <v>2673</v>
       </c>
       <c r="AH70" s="1">
         <v>1</v>
@@ -21928,7 +21940,7 @@
         <v>855</v>
       </c>
       <c r="AF72" s="1" t="s">
-        <v>2704</v>
+        <v>2674</v>
       </c>
       <c r="AH72" s="1">
         <v>1</v>
@@ -21943,7 +21955,7 @@
         <v>2140</v>
       </c>
       <c r="AL72" s="1" t="s">
-        <v>2748</v>
+        <v>2718</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -22360,7 +22372,7 @@
         <v>2119</v>
       </c>
       <c r="AL75" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM75" s="1">
         <v>0</v>
@@ -22658,13 +22670,13 @@
         <v>1</v>
       </c>
       <c r="AJ77" s="2" t="s">
-        <v>2790</v>
+        <v>2760</v>
       </c>
       <c r="AK77" s="2" t="s">
-        <v>2773</v>
+        <v>2743</v>
       </c>
       <c r="AL77" s="1" t="s">
-        <v>2749</v>
+        <v>2719</v>
       </c>
       <c r="AM77" s="1">
         <v>0</v>
@@ -22795,13 +22807,13 @@
         <v>1</v>
       </c>
       <c r="AJ78" s="2" t="s">
-        <v>2790</v>
+        <v>2760</v>
       </c>
       <c r="AK78" s="2" t="s">
-        <v>2774</v>
+        <v>2744</v>
       </c>
       <c r="AL78" s="1" t="s">
-        <v>2749</v>
+        <v>2719</v>
       </c>
       <c r="AM78" s="1">
         <v>0</v>
@@ -22932,13 +22944,13 @@
         <v>1</v>
       </c>
       <c r="AJ79" s="2" t="s">
-        <v>2790</v>
+        <v>2760</v>
       </c>
       <c r="AK79" s="2" t="s">
-        <v>2775</v>
+        <v>2745</v>
       </c>
       <c r="AL79" s="1" t="s">
-        <v>2749</v>
+        <v>2719</v>
       </c>
       <c r="AM79" s="1">
         <v>0</v>
@@ -23078,13 +23090,13 @@
         <v>1</v>
       </c>
       <c r="AJ80" s="2" t="s">
-        <v>2791</v>
+        <v>2761</v>
       </c>
       <c r="AK80" s="2" t="s">
-        <v>2750</v>
+        <v>2720</v>
       </c>
       <c r="AL80" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM80" s="1">
         <v>0</v>
@@ -23230,7 +23242,7 @@
         <v>1</v>
       </c>
       <c r="AJ81" s="2" t="s">
-        <v>2649</v>
+        <v>2619</v>
       </c>
       <c r="AK81" s="2" t="s">
         <v>993</v>
@@ -23355,13 +23367,13 @@
         <v>1</v>
       </c>
       <c r="AD82" s="2" t="s">
-        <v>2658</v>
+        <v>2628</v>
       </c>
       <c r="AE82" s="1" t="s">
         <v>2093</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>2689</v>
+        <v>2659</v>
       </c>
       <c r="AH82" s="1">
         <v>0</v>
@@ -23370,7 +23382,7 @@
         <v>1</v>
       </c>
       <c r="AJ82" s="2" t="s">
-        <v>2649</v>
+        <v>2619</v>
       </c>
       <c r="AK82" s="2" t="s">
         <v>993</v>
@@ -23504,10 +23516,10 @@
         <v>2115</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>2705</v>
+        <v>2675</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>2737</v>
+        <v>2707</v>
       </c>
       <c r="AH83" s="1">
         <v>1</v>
@@ -23522,7 +23534,7 @@
         <v>911</v>
       </c>
       <c r="AL83" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM83" s="1">
         <v>0</v>
@@ -23668,7 +23680,7 @@
         <v>919</v>
       </c>
       <c r="AL84" s="1" t="s">
-        <v>2678</v>
+        <v>2648</v>
       </c>
       <c r="AM84" s="1">
         <v>0</v>
@@ -23793,7 +23805,7 @@
         <v>2116</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>2706</v>
+        <v>2676</v>
       </c>
       <c r="AH85" s="1">
         <v>0</v>
@@ -23808,7 +23820,7 @@
         <v>2141</v>
       </c>
       <c r="AL85" s="1" t="s">
-        <v>2675</v>
+        <v>2645</v>
       </c>
       <c r="AM85" s="1">
         <v>0</v>
@@ -23933,16 +23945,16 @@
         <v>1</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>2784</v>
+        <v>2754</v>
       </c>
       <c r="AE86" s="1" t="s">
         <v>2105</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>2707</v>
+        <v>2677</v>
       </c>
       <c r="AG86" s="1" t="s">
-        <v>2738</v>
+        <v>2708</v>
       </c>
       <c r="AH86" s="1">
         <v>0</v>
@@ -23957,7 +23969,7 @@
         <v>936</v>
       </c>
       <c r="AL86" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM86" s="1">
         <v>0</v>
@@ -24088,10 +24100,10 @@
         <v>943</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AG87" s="1" t="s">
-        <v>2734</v>
+        <v>2704</v>
       </c>
       <c r="AH87" s="1">
         <v>0</v>
@@ -24106,7 +24118,7 @@
         <v>936</v>
       </c>
       <c r="AL87" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM87" s="1">
         <v>0</v>
@@ -24237,16 +24249,16 @@
         <v>1</v>
       </c>
       <c r="AD88" s="2" t="s">
-        <v>2781</v>
+        <v>2751</v>
       </c>
       <c r="AE88" s="1" t="s">
-        <v>2782</v>
+        <v>2752</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>2708</v>
+        <v>2678</v>
       </c>
       <c r="AG88" s="1" t="s">
-        <v>2739</v>
+        <v>2709</v>
       </c>
       <c r="AH88" s="1">
         <v>0</v>
@@ -24389,16 +24401,16 @@
         <v>1</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>2709</v>
+        <v>2679</v>
       </c>
       <c r="AE89" s="1" t="s">
         <v>2106</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AG89" s="1" t="s">
-        <v>2731</v>
+        <v>2701</v>
       </c>
       <c r="AH89" s="1">
         <v>0</v>
@@ -24413,7 +24425,7 @@
         <v>936</v>
       </c>
       <c r="AL89" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM89" s="1">
         <v>0</v>
@@ -24562,7 +24574,7 @@
         <v>919</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>2678</v>
+        <v>2648</v>
       </c>
       <c r="AM90" s="1">
         <v>0</v>
@@ -25131,13 +25143,13 @@
         <v>1</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>2785</v>
+        <v>2755</v>
       </c>
       <c r="AE94" s="1" t="s">
-        <v>2710</v>
+        <v>2680</v>
       </c>
       <c r="AF94" s="1" t="s">
-        <v>2711</v>
+        <v>2681</v>
       </c>
       <c r="AH94" s="1">
         <v>1</v>
@@ -25277,16 +25289,16 @@
         <v>1</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>2652</v>
+        <v>2622</v>
       </c>
       <c r="AE95" s="1" t="s">
         <v>2096</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>2691</v>
+        <v>2661</v>
       </c>
       <c r="AG95" s="1" t="s">
-        <v>2737</v>
+        <v>2707</v>
       </c>
       <c r="AH95" s="1">
         <v>0</v>
@@ -25295,7 +25307,7 @@
         <v>1</v>
       </c>
       <c r="AJ95" s="2" t="s">
-        <v>2653</v>
+        <v>2623</v>
       </c>
       <c r="AK95" s="2" t="s">
         <v>2126</v>
@@ -25438,13 +25450,13 @@
         <v>1</v>
       </c>
       <c r="AJ96" s="2" t="s">
-        <v>2792</v>
+        <v>2762</v>
       </c>
       <c r="AK96" s="2" t="s">
-        <v>2780</v>
+        <v>2750</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>2691</v>
+        <v>2661</v>
       </c>
       <c r="AM96" s="1">
         <v>0</v>
@@ -25718,7 +25730,7 @@
         <v>2107</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>2712</v>
+        <v>2682</v>
       </c>
       <c r="AH98" s="1">
         <v>0</v>
@@ -25879,13 +25891,13 @@
         <v>1</v>
       </c>
       <c r="AJ99" s="2" t="s">
-        <v>2647</v>
+        <v>2617</v>
       </c>
       <c r="AK99" s="2" t="s">
         <v>2142</v>
       </c>
       <c r="AL99" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM99" s="1">
         <v>0</v>
@@ -26019,10 +26031,10 @@
         <v>943</v>
       </c>
       <c r="AF100" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AG100" s="1" t="s">
-        <v>2734</v>
+        <v>2704</v>
       </c>
       <c r="AH100" s="1">
         <v>0</v>
@@ -26174,7 +26186,7 @@
         <v>2097</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>2698</v>
+        <v>2668</v>
       </c>
       <c r="AH101" s="1">
         <v>1</v>
@@ -26329,7 +26341,7 @@
         <v>282</v>
       </c>
       <c r="AL102" s="1" t="s">
-        <v>2678</v>
+        <v>2648</v>
       </c>
       <c r="AM102" s="1">
         <v>0</v>
@@ -26466,7 +26478,7 @@
         <v>2098</v>
       </c>
       <c r="AF103" s="1" t="s">
-        <v>2713</v>
+        <v>2683</v>
       </c>
       <c r="AH103" s="1">
         <v>1</v>
@@ -26478,10 +26490,10 @@
         <v>1079</v>
       </c>
       <c r="AK103" s="2" t="s">
-        <v>2665</v>
+        <v>2635</v>
       </c>
       <c r="AL103" s="1" t="s">
-        <v>2691</v>
+        <v>2661</v>
       </c>
       <c r="AM103" s="1">
         <v>0</v>
@@ -26630,7 +26642,7 @@
         <v>2123</v>
       </c>
       <c r="AL104" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM104" s="1">
         <v>0</v>
@@ -26755,7 +26767,7 @@
         <v>1094</v>
       </c>
       <c r="AF105" s="1" t="s">
-        <v>2698</v>
+        <v>2668</v>
       </c>
       <c r="AH105" s="1">
         <v>0</v>
@@ -26904,10 +26916,10 @@
         <v>2080</v>
       </c>
       <c r="AK106" s="2" t="s">
-        <v>2660</v>
+        <v>2630</v>
       </c>
       <c r="AL106" s="1" t="s">
-        <v>2751</v>
+        <v>2721</v>
       </c>
       <c r="AM106" s="1">
         <v>0</v>
@@ -27047,13 +27059,13 @@
         <v>1</v>
       </c>
       <c r="AJ107" s="2" t="s">
-        <v>2793</v>
+        <v>2763</v>
       </c>
       <c r="AK107" s="2" t="s">
-        <v>2752</v>
+        <v>2722</v>
       </c>
       <c r="AL107" s="1" t="s">
-        <v>2679</v>
+        <v>2649</v>
       </c>
       <c r="AM107" s="1">
         <v>0</v>
@@ -27202,7 +27214,7 @@
         <v>936</v>
       </c>
       <c r="AL108" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM108" s="1">
         <v>0</v>
@@ -27637,7 +27649,7 @@
         <v>1094</v>
       </c>
       <c r="AF111" s="1" t="s">
-        <v>2698</v>
+        <v>2668</v>
       </c>
       <c r="AH111" s="1">
         <v>0</v>
@@ -27652,7 +27664,7 @@
         <v>936</v>
       </c>
       <c r="AL111" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM111" s="1">
         <v>0</v>
@@ -27792,7 +27804,7 @@
         <v>1146</v>
       </c>
       <c r="AF112" s="1" t="s">
-        <v>2703</v>
+        <v>2673</v>
       </c>
       <c r="AH112" s="1">
         <v>0</v>
@@ -27807,7 +27819,7 @@
         <v>936</v>
       </c>
       <c r="AL112" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM112" s="1">
         <v>0</v>
@@ -28245,7 +28257,7 @@
         <v>1</v>
       </c>
       <c r="AJ115" s="2" t="s">
-        <v>2654</v>
+        <v>2624</v>
       </c>
       <c r="AK115" s="2" t="s">
         <v>1582</v>
@@ -28379,7 +28391,7 @@
         <v>1169</v>
       </c>
       <c r="AF116" s="1" t="s">
-        <v>2714</v>
+        <v>2684</v>
       </c>
       <c r="AH116" s="1">
         <v>1</v>
@@ -28531,7 +28543,7 @@
         <v>2109</v>
       </c>
       <c r="AF117" s="1" t="s">
-        <v>2698</v>
+        <v>2668</v>
       </c>
       <c r="AH117" s="1">
         <v>0</v>
@@ -28546,7 +28558,7 @@
         <v>2143</v>
       </c>
       <c r="AL117" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM117" s="1">
         <v>0</v>
@@ -28683,7 +28695,7 @@
         <v>2109</v>
       </c>
       <c r="AF118" s="1" t="s">
-        <v>2698</v>
+        <v>2668</v>
       </c>
       <c r="AH118" s="1">
         <v>0</v>
@@ -28698,7 +28710,7 @@
         <v>2144</v>
       </c>
       <c r="AL118" s="1" t="s">
-        <v>2680</v>
+        <v>2650</v>
       </c>
       <c r="AM118" s="1">
         <v>0</v>
@@ -28850,7 +28862,7 @@
         <v>2145</v>
       </c>
       <c r="AL119" s="1" t="s">
-        <v>2675</v>
+        <v>2645</v>
       </c>
       <c r="AM119" s="1">
         <v>0</v>
@@ -28999,10 +29011,10 @@
         <v>2082</v>
       </c>
       <c r="AK120" s="2" t="s">
-        <v>2753</v>
+        <v>2723</v>
       </c>
       <c r="AL120" s="1" t="s">
-        <v>2754</v>
+        <v>2724</v>
       </c>
       <c r="AM120" s="1">
         <v>0</v>
@@ -29297,13 +29309,13 @@
         <v>1</v>
       </c>
       <c r="AJ122" s="2" t="s">
-        <v>2794</v>
+        <v>2764</v>
       </c>
       <c r="AK122" s="2" t="s">
         <v>2136</v>
       </c>
       <c r="AL122" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM122" s="1">
         <v>0</v>
@@ -29449,13 +29461,13 @@
         <v>1</v>
       </c>
       <c r="AJ123" s="2" t="s">
-        <v>2755</v>
+        <v>2725</v>
       </c>
       <c r="AK123" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL123" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM123" s="1">
         <v>0</v>
@@ -29580,13 +29592,13 @@
         <v>1</v>
       </c>
       <c r="AD124" s="2" t="s">
-        <v>2715</v>
+        <v>2685</v>
       </c>
       <c r="AE124" s="1" t="s">
-        <v>2715</v>
+        <v>2685</v>
       </c>
       <c r="AF124" s="1" t="s">
-        <v>2716</v>
+        <v>2686</v>
       </c>
       <c r="AH124" s="1">
         <v>0</v>
@@ -29595,13 +29607,13 @@
         <v>1</v>
       </c>
       <c r="AJ124" s="2" t="s">
-        <v>2795</v>
+        <v>2765</v>
       </c>
       <c r="AK124" s="2" t="s">
         <v>2125</v>
       </c>
       <c r="AL124" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM124" s="1">
         <v>0</v>
@@ -29753,7 +29765,7 @@
         <v>2106</v>
       </c>
       <c r="AL125" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM125" s="1">
         <v>0</v>
@@ -29899,13 +29911,13 @@
         <v>1</v>
       </c>
       <c r="AJ126" s="2" t="s">
-        <v>2646</v>
+        <v>2616</v>
       </c>
       <c r="AK126" s="2" t="s">
         <v>2109</v>
       </c>
       <c r="AL126" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM126" s="1">
         <v>0</v>
@@ -30057,7 +30069,7 @@
         <v>936</v>
       </c>
       <c r="AL127" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM127" s="1">
         <v>0</v>
@@ -30209,7 +30221,7 @@
         <v>919</v>
       </c>
       <c r="AL128" s="1" t="s">
-        <v>2678</v>
+        <v>2648</v>
       </c>
       <c r="AM128" s="1">
         <v>0</v>
@@ -30361,7 +30373,7 @@
         <v>919</v>
       </c>
       <c r="AL129" s="1" t="s">
-        <v>2678</v>
+        <v>2648</v>
       </c>
       <c r="AM129" s="1">
         <v>0</v>
@@ -30668,7 +30680,7 @@
         <v>2083</v>
       </c>
       <c r="AL131" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM131" s="1">
         <v>0</v>
@@ -30820,7 +30832,7 @@
         <v>2137</v>
       </c>
       <c r="AL132" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM132" s="1">
         <v>0</v>
@@ -30957,7 +30969,7 @@
         <v>1676</v>
       </c>
       <c r="AF133" s="1" t="s">
-        <v>2703</v>
+        <v>2673</v>
       </c>
       <c r="AH133" s="1">
         <v>1</v>
@@ -31127,7 +31139,7 @@
         <v>1437</v>
       </c>
       <c r="AO134" s="1" t="s">
-        <v>2671</v>
+        <v>2641</v>
       </c>
       <c r="AP134" s="1">
         <v>201</v>
@@ -31258,7 +31270,7 @@
         <v>2100</v>
       </c>
       <c r="AF135" s="1" t="s">
-        <v>2717</v>
+        <v>2687</v>
       </c>
       <c r="AH135" s="1">
         <v>1</v>
@@ -31416,7 +31428,7 @@
         <v>2101</v>
       </c>
       <c r="AF136" s="1" t="s">
-        <v>2718</v>
+        <v>2688</v>
       </c>
       <c r="AH136" s="1">
         <v>0</v>
@@ -31431,7 +31443,7 @@
         <v>2101</v>
       </c>
       <c r="AL136" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM136" s="1">
         <v>0</v>
@@ -31568,10 +31580,10 @@
         <v>2110</v>
       </c>
       <c r="AF137" s="1" t="s">
-        <v>2719</v>
+        <v>2689</v>
       </c>
       <c r="AG137" s="1" t="s">
-        <v>2740</v>
+        <v>2710</v>
       </c>
       <c r="AH137" s="1">
         <v>0</v>
@@ -31580,13 +31592,13 @@
         <v>1</v>
       </c>
       <c r="AJ137" s="2" t="s">
-        <v>2756</v>
+        <v>2726</v>
       </c>
       <c r="AK137" s="2" t="s">
         <v>2110</v>
       </c>
       <c r="AL137" s="1" t="s">
-        <v>2757</v>
+        <v>2727</v>
       </c>
       <c r="AM137" s="1">
         <v>0</v>
@@ -31860,7 +31872,7 @@
         <v>2102</v>
       </c>
       <c r="AF139" s="1" t="s">
-        <v>2720</v>
+        <v>2690</v>
       </c>
       <c r="AH139" s="1">
         <v>0</v>
@@ -31872,10 +31884,10 @@
         <v>1480</v>
       </c>
       <c r="AK139" s="2" t="s">
-        <v>2662</v>
+        <v>2632</v>
       </c>
       <c r="AL139" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM139" s="1">
         <v>0</v>
@@ -32003,7 +32015,7 @@
         <v>2103</v>
       </c>
       <c r="AF140" s="1" t="s">
-        <v>2721</v>
+        <v>2691</v>
       </c>
       <c r="AH140" s="1">
         <v>0</v>
@@ -32018,7 +32030,7 @@
         <v>936</v>
       </c>
       <c r="AL140" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM140" s="1">
         <v>0</v>
@@ -32155,7 +32167,7 @@
         <v>2103</v>
       </c>
       <c r="AF141" s="1" t="s">
-        <v>2721</v>
+        <v>2691</v>
       </c>
       <c r="AH141" s="1">
         <v>0</v>
@@ -32170,7 +32182,7 @@
         <v>936</v>
       </c>
       <c r="AL141" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM141" s="1">
         <v>0</v>
@@ -32307,7 +32319,7 @@
         <v>2103</v>
       </c>
       <c r="AF142" s="1" t="s">
-        <v>2721</v>
+        <v>2691</v>
       </c>
       <c r="AH142" s="1">
         <v>0</v>
@@ -32322,7 +32334,7 @@
         <v>936</v>
       </c>
       <c r="AL142" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM142" s="1">
         <v>0</v>
@@ -32611,10 +32623,10 @@
         <v>2111</v>
       </c>
       <c r="AF144" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AG144" s="1" t="s">
-        <v>2731</v>
+        <v>2701</v>
       </c>
       <c r="AH144" s="1">
         <v>0</v>
@@ -32623,13 +32635,13 @@
         <v>1</v>
       </c>
       <c r="AJ144" s="2" t="s">
-        <v>2796</v>
+        <v>2766</v>
       </c>
       <c r="AK144" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL144" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM144" s="1">
         <v>0</v>
@@ -32754,16 +32766,16 @@
         <v>1</v>
       </c>
       <c r="AD145" s="2" t="s">
-        <v>2722</v>
+        <v>2692</v>
       </c>
       <c r="AE145" s="1" t="s">
-        <v>2771</v>
+        <v>2741</v>
       </c>
       <c r="AF145" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AG145" s="1" t="s">
-        <v>2731</v>
+        <v>2701</v>
       </c>
       <c r="AH145" s="1">
         <v>0</v>
@@ -32933,7 +32945,7 @@
         <v>911</v>
       </c>
       <c r="AL146" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM146" s="1">
         <v>0</v>
@@ -33082,10 +33094,10 @@
         <v>1528</v>
       </c>
       <c r="AK147" s="2" t="s">
-        <v>2663</v>
+        <v>2633</v>
       </c>
       <c r="AL147" s="1" t="s">
-        <v>2680</v>
+        <v>2650</v>
       </c>
       <c r="AM147" s="1">
         <v>0</v>
@@ -33222,7 +33234,7 @@
         <v>2092</v>
       </c>
       <c r="AF148" s="1" t="s">
-        <v>2690</v>
+        <v>2660</v>
       </c>
       <c r="AH148" s="1">
         <v>0</v>
@@ -33374,7 +33386,7 @@
         <v>2112</v>
       </c>
       <c r="AF149" s="1" t="s">
-        <v>2723</v>
+        <v>2693</v>
       </c>
       <c r="AH149" s="1">
         <v>0</v>
@@ -33386,10 +33398,10 @@
         <v>2058</v>
       </c>
       <c r="AK149" s="2" t="s">
-        <v>2772</v>
+        <v>2742</v>
       </c>
       <c r="AL149" s="1" t="s">
-        <v>2758</v>
+        <v>2728</v>
       </c>
       <c r="AM149" s="1">
         <v>0</v>
@@ -33532,13 +33544,13 @@
         <v>1</v>
       </c>
       <c r="AJ150" s="2" t="s">
-        <v>2797</v>
+        <v>2767</v>
       </c>
       <c r="AK150" s="2" t="s">
-        <v>2759</v>
+        <v>2729</v>
       </c>
       <c r="AL150" s="1" t="s">
-        <v>2760</v>
+        <v>2730</v>
       </c>
       <c r="AM150" s="1">
         <v>0</v>
@@ -33970,13 +33982,13 @@
         <v>1</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>2724</v>
+        <v>2694</v>
       </c>
       <c r="AE153" s="1" t="s">
         <v>2109</v>
       </c>
       <c r="AF153" s="1" t="s">
-        <v>2698</v>
+        <v>2668</v>
       </c>
       <c r="AH153" s="1">
         <v>0</v>
@@ -33985,13 +33997,13 @@
         <v>1</v>
       </c>
       <c r="AJ153" s="2" t="s">
-        <v>2798</v>
+        <v>2768</v>
       </c>
       <c r="AK153" s="2" t="s">
-        <v>2776</v>
+        <v>2746</v>
       </c>
       <c r="AL153" s="1" t="s">
-        <v>2691</v>
+        <v>2661</v>
       </c>
       <c r="AM153" s="1">
         <v>0</v>
@@ -34143,7 +34155,7 @@
         <v>2149</v>
       </c>
       <c r="AL154" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM154" s="1">
         <v>0</v>
@@ -34411,13 +34423,13 @@
         <v>1589</v>
       </c>
       <c r="AE156" s="1" t="s">
-        <v>2667</v>
+        <v>2637</v>
       </c>
       <c r="AF156" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AG156" s="1" t="s">
-        <v>2731</v>
+        <v>2701</v>
       </c>
       <c r="AH156" s="1">
         <v>0</v>
@@ -34429,10 +34441,10 @@
         <v>1590</v>
       </c>
       <c r="AK156" s="2" t="s">
-        <v>2666</v>
+        <v>2636</v>
       </c>
       <c r="AL156" s="1" t="s">
-        <v>2754</v>
+        <v>2724</v>
       </c>
       <c r="AM156" s="1">
         <v>0</v>
@@ -34575,13 +34587,13 @@
         <v>1</v>
       </c>
       <c r="AJ157" s="2" t="s">
-        <v>2761</v>
+        <v>2731</v>
       </c>
       <c r="AK157" s="2" t="s">
-        <v>2761</v>
+        <v>2731</v>
       </c>
       <c r="AL157" s="1" t="s">
-        <v>2762</v>
+        <v>2732</v>
       </c>
       <c r="AM157" s="1">
         <v>0</v>
@@ -34715,10 +34727,10 @@
         <v>1603</v>
       </c>
       <c r="AE158" s="1" t="s">
-        <v>2656</v>
+        <v>2626</v>
       </c>
       <c r="AF158" s="1" t="s">
-        <v>2689</v>
+        <v>2659</v>
       </c>
       <c r="AH158" s="1">
         <v>0</v>
@@ -34885,7 +34897,7 @@
         <v>2150</v>
       </c>
       <c r="AL159" s="1" t="s">
-        <v>2676</v>
+        <v>2646</v>
       </c>
       <c r="AM159" s="1">
         <v>0</v>
@@ -35016,7 +35028,7 @@
         <v>1676</v>
       </c>
       <c r="AF160" s="1" t="s">
-        <v>2703</v>
+        <v>2673</v>
       </c>
       <c r="AH160" s="1">
         <v>0</v>
@@ -35174,7 +35186,7 @@
         <v>2123</v>
       </c>
       <c r="AL161" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM161" s="1">
         <v>0</v>
@@ -35326,7 +35338,7 @@
         <v>2151</v>
       </c>
       <c r="AL162" s="1" t="s">
-        <v>2681</v>
+        <v>2651</v>
       </c>
       <c r="AM162" s="1">
         <v>0</v>
@@ -35478,7 +35490,7 @@
         <v>919</v>
       </c>
       <c r="AL163" s="1" t="s">
-        <v>2678</v>
+        <v>2648</v>
       </c>
       <c r="AM163" s="1">
         <v>0</v>
@@ -35770,7 +35782,7 @@
         <v>936</v>
       </c>
       <c r="AL165" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM165" s="1">
         <v>0</v>
@@ -35922,7 +35934,7 @@
         <v>2119</v>
       </c>
       <c r="AL166" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM166" s="1">
         <v>0</v>
@@ -36050,13 +36062,13 @@
         <v>1</v>
       </c>
       <c r="AD167" s="2" t="s">
-        <v>2725</v>
+        <v>2695</v>
       </c>
       <c r="AE167" s="1" t="s">
         <v>2104</v>
       </c>
       <c r="AF167" s="1" t="s">
-        <v>2689</v>
+        <v>2659</v>
       </c>
       <c r="AH167" s="1">
         <v>0</v>
@@ -36071,7 +36083,7 @@
         <v>2119</v>
       </c>
       <c r="AL167" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM167" s="1">
         <v>0</v>
@@ -36208,7 +36220,7 @@
         <v>1676</v>
       </c>
       <c r="AF168" s="1" t="s">
-        <v>2689</v>
+        <v>2659</v>
       </c>
       <c r="AH168" s="1">
         <v>1</v>
@@ -36342,7 +36354,7 @@
         <v>39</v>
       </c>
       <c r="AB169" s="1" t="s">
-        <v>2579</v>
+        <v>2554</v>
       </c>
       <c r="AC169" s="1" t="s">
         <v>39</v>
@@ -36503,7 +36515,7 @@
         <v>2123</v>
       </c>
       <c r="AL170" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM170" s="1">
         <v>0</v>
@@ -36640,10 +36652,10 @@
         <v>2113</v>
       </c>
       <c r="AF171" s="1" t="s">
-        <v>2691</v>
+        <v>2661</v>
       </c>
       <c r="AG171" s="1" t="s">
-        <v>2737</v>
+        <v>2707</v>
       </c>
       <c r="AH171" s="1">
         <v>0</v>
@@ -36655,10 +36667,10 @@
         <v>1698</v>
       </c>
       <c r="AK171" s="2" t="s">
-        <v>2668</v>
+        <v>2638</v>
       </c>
       <c r="AL171" s="1" t="s">
-        <v>2763</v>
+        <v>2733</v>
       </c>
       <c r="AM171" s="1">
         <v>0</v>
@@ -36798,7 +36810,7 @@
         <v>936</v>
       </c>
       <c r="AL172" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM172" s="1">
         <v>0</v>
@@ -36950,7 +36962,7 @@
         <v>2152</v>
       </c>
       <c r="AL173" s="1" t="s">
-        <v>2683</v>
+        <v>2653</v>
       </c>
       <c r="AM173" s="1">
         <v>0</v>
@@ -37084,7 +37096,7 @@
         <v>2107</v>
       </c>
       <c r="AF174" s="1" t="s">
-        <v>2726</v>
+        <v>2696</v>
       </c>
       <c r="AH174" s="1">
         <v>1</v>
@@ -37251,7 +37263,7 @@
         <v>2119</v>
       </c>
       <c r="AL175" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM175" s="1">
         <v>0</v>
@@ -37382,16 +37394,16 @@
         <v>1</v>
       </c>
       <c r="AD176" s="2" t="s">
-        <v>2727</v>
+        <v>2697</v>
       </c>
       <c r="AE176" s="1" t="s">
         <v>2111</v>
       </c>
       <c r="AF176" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AG176" s="1" t="s">
-        <v>2731</v>
+        <v>2701</v>
       </c>
       <c r="AH176" s="1">
         <v>0</v>
@@ -37561,7 +37573,7 @@
         <v>2125</v>
       </c>
       <c r="AL177" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM177" s="1">
         <v>0</v>
@@ -37704,7 +37716,7 @@
         <v>936</v>
       </c>
       <c r="AL178" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM178" s="1">
         <v>0</v>
@@ -37850,13 +37862,13 @@
         <v>1</v>
       </c>
       <c r="AJ179" s="2" t="s">
-        <v>2764</v>
+        <v>2734</v>
       </c>
       <c r="AK179" s="2" t="s">
-        <v>2764</v>
+        <v>2734</v>
       </c>
       <c r="AL179" s="1" t="s">
-        <v>2677</v>
+        <v>2647</v>
       </c>
       <c r="AM179" s="1">
         <v>0</v>
@@ -38133,7 +38145,7 @@
         <v>2114</v>
       </c>
       <c r="AF181" s="1" t="s">
-        <v>2690</v>
+        <v>2660</v>
       </c>
       <c r="AH181" s="1">
         <v>0</v>
@@ -38291,13 +38303,13 @@
         <v>1</v>
       </c>
       <c r="AJ182" s="2" t="s">
-        <v>2799</v>
+        <v>2769</v>
       </c>
       <c r="AK182" s="2" t="s">
         <v>2125</v>
       </c>
       <c r="AL182" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM182" s="1">
         <v>0</v>
@@ -38431,13 +38443,13 @@
         <v>1782</v>
       </c>
       <c r="AE183" s="1" t="s">
-        <v>2779</v>
+        <v>2749</v>
       </c>
       <c r="AF183" s="1" t="s">
-        <v>2691</v>
+        <v>2661</v>
       </c>
       <c r="AG183" s="1" t="s">
-        <v>2737</v>
+        <v>2707</v>
       </c>
       <c r="AH183" s="1">
         <v>0</v>
@@ -38452,7 +38464,7 @@
         <v>2154</v>
       </c>
       <c r="AL183" s="1" t="s">
-        <v>2676</v>
+        <v>2646</v>
       </c>
       <c r="AM183" s="1">
         <v>0</v>
@@ -38601,10 +38613,10 @@
         <v>1789</v>
       </c>
       <c r="AK184" s="2" t="s">
-        <v>2661</v>
+        <v>2631</v>
       </c>
       <c r="AL184" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AM184" s="1">
         <v>0</v>
@@ -38741,7 +38753,7 @@
         <v>2104</v>
       </c>
       <c r="AF185" s="1" t="s">
-        <v>2689</v>
+        <v>2659</v>
       </c>
       <c r="AH185" s="1">
         <v>0</v>
@@ -38756,7 +38768,7 @@
         <v>2155</v>
       </c>
       <c r="AL185" s="1" t="s">
-        <v>2691</v>
+        <v>2661</v>
       </c>
       <c r="AM185" s="1">
         <v>1</v>
@@ -38896,10 +38908,10 @@
         <v>1810</v>
       </c>
       <c r="AF186" s="1" t="s">
-        <v>2674</v>
+        <v>2644</v>
       </c>
       <c r="AG186" s="1" t="s">
-        <v>2734</v>
+        <v>2704</v>
       </c>
       <c r="AH186" s="1">
         <v>0</v>
@@ -38914,7 +38926,7 @@
         <v>2125</v>
       </c>
       <c r="AL186" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM186" s="1">
         <v>0</v>
@@ -39060,13 +39072,13 @@
         <v>1</v>
       </c>
       <c r="AJ187" s="2" t="s">
-        <v>2800</v>
+        <v>2770</v>
       </c>
       <c r="AK187" s="2" t="s">
         <v>2137</v>
       </c>
       <c r="AL187" s="1" t="s">
-        <v>2673</v>
+        <v>2643</v>
       </c>
       <c r="AM187" s="1">
         <v>0</v>
@@ -39122,7 +39134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ174"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AC2" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -39157,7 +39171,7 @@
     <col min="35" max="35" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -39245,7 +39259,7 @@
       <c r="AC1" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>2364</v>
       </c>
       <c r="AE1" s="1" t="s">
@@ -39254,8 +39268,8 @@
       <c r="AF1" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>2432</v>
+      <c r="AG1" s="2" t="s">
+        <v>2416</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>602</v>
@@ -39267,7 +39281,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -39345,19 +39359,19 @@
         <v>5</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>2580</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>2543</v>
+        <v>2555</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>2527</v>
       </c>
       <c r="AE2" s="1">
         <v>3</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>2534</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>2543</v>
+        <v>2518</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>2527</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>39</v>
@@ -39369,7 +39383,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -39451,16 +39465,16 @@
         <v>0</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>2535</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>2365</v>
+        <v>2519</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>2771</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG3" s="8"/>
+      <c r="AG3" s="10"/>
       <c r="AH3" s="1" t="s">
         <v>39</v>
       </c>
@@ -39471,7 +39485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -39553,19 +39567,19 @@
         <v>5</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>2611</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>2612</v>
+        <v>2582</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>2583</v>
       </c>
       <c r="AE4" s="1">
         <v>5</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>2613</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>2612</v>
+        <v>2584</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>2583</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>39</v>
@@ -39577,7 +39591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -39659,14 +39673,14 @@
       <c r="AC5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD5" s="1"/>
+      <c r="AD5" s="2"/>
       <c r="AE5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG5" s="8"/>
+      <c r="AG5" s="10"/>
       <c r="AH5" s="1" t="s">
         <v>39</v>
       </c>
@@ -39677,7 +39691,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>28</v>
       </c>
@@ -39759,19 +39773,19 @@
         <v>5</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>2602</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>2603</v>
+        <v>2575</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>2790</v>
       </c>
       <c r="AE6" s="1">
         <v>5</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>2602</v>
-      </c>
-      <c r="AG6" s="8" t="s">
-        <v>2603</v>
+        <v>2575</v>
+      </c>
+      <c r="AG6" s="10" t="s">
+        <v>2576</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>39</v>
@@ -39783,7 +39797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>34</v>
       </c>
@@ -39867,19 +39881,19 @@
         <v>0</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>2536</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>2366</v>
+        <v>2520</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>2365</v>
       </c>
       <c r="AE7" s="1">
         <v>0</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>2537</v>
-      </c>
-      <c r="AG7" s="8" t="s">
-        <v>2366</v>
+        <v>2521</v>
+      </c>
+      <c r="AG7" s="10" t="s">
+        <v>2365</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>39</v>
@@ -39891,7 +39905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42</v>
       </c>
@@ -39971,14 +39985,14 @@
       <c r="AC8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD8" s="1"/>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG8" s="8"/>
+      <c r="AG8" s="10"/>
       <c r="AH8" s="1" t="s">
         <v>39</v>
       </c>
@@ -39989,7 +40003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>79</v>
       </c>
@@ -40075,10 +40089,10 @@
         <v>5</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>2538</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>2367</v>
+        <v>2522</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>2366</v>
       </c>
       <c r="AE9" s="1">
         <v>5</v>
@@ -40086,8 +40100,8 @@
       <c r="AF9" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="AG9" s="8" t="s">
-        <v>2367</v>
+      <c r="AG9" s="10" t="s">
+        <v>2366</v>
       </c>
       <c r="AH9" s="1" t="s">
         <v>39</v>
@@ -40099,7 +40113,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>86</v>
       </c>
@@ -40179,8 +40193,8 @@
       <c r="AC10" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="AD10" s="1" t="s">
-        <v>2623</v>
+      <c r="AD10" s="2" t="s">
+        <v>2593</v>
       </c>
       <c r="AE10" s="1">
         <v>3</v>
@@ -40188,8 +40202,8 @@
       <c r="AF10" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG10" s="8" t="s">
-        <v>2623</v>
+      <c r="AG10" s="10" t="s">
+        <v>2593</v>
       </c>
       <c r="AH10" s="1" t="s">
         <v>39</v>
@@ -40201,7 +40215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>95</v>
       </c>
@@ -40285,14 +40299,14 @@
       <c r="AC11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD11" s="1"/>
+      <c r="AD11" s="2"/>
       <c r="AE11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG11" s="8"/>
+      <c r="AG11" s="10"/>
       <c r="AH11" s="1" t="s">
         <v>39</v>
       </c>
@@ -40303,7 +40317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>98</v>
       </c>
@@ -40376,7 +40390,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>2440</v>
+        <v>2424</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>39</v>
@@ -40387,14 +40401,14 @@
       <c r="AC12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD12" s="1"/>
+      <c r="AD12" s="2"/>
       <c r="AE12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG12" s="8"/>
+      <c r="AG12" s="10"/>
       <c r="AH12" s="1" t="s">
         <v>39</v>
       </c>
@@ -40405,7 +40419,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>111</v>
       </c>
@@ -40487,19 +40501,19 @@
         <v>5</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>2584</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>2621</v>
+        <v>2559</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>2804</v>
       </c>
       <c r="AE13" s="1">
         <v>3</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>2585</v>
-      </c>
-      <c r="AG13" s="8" t="s">
-        <v>2621</v>
+        <v>2560</v>
+      </c>
+      <c r="AG13" s="10" t="s">
+        <v>2804</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>39</v>
@@ -40511,7 +40525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>123</v>
       </c>
@@ -40584,7 +40598,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>2441</v>
+        <v>2425</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>39</v>
@@ -40595,14 +40609,14 @@
       <c r="AC14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD14" s="1"/>
+      <c r="AD14" s="2"/>
       <c r="AE14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG14" s="8"/>
+      <c r="AG14" s="10"/>
       <c r="AH14" s="1" t="s">
         <v>39</v>
       </c>
@@ -40613,7 +40627,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>136</v>
       </c>
@@ -40699,14 +40713,14 @@
       <c r="AC15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD15" s="1"/>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG15" s="8"/>
+      <c r="AG15" s="10"/>
       <c r="AH15" s="1" t="s">
         <v>39</v>
       </c>
@@ -40717,7 +40731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>157</v>
       </c>
@@ -40803,19 +40817,19 @@
         <v>5</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>2643</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>2544</v>
+        <v>2613</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>2528</v>
       </c>
       <c r="AE16" s="1">
         <v>3</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>2644</v>
-      </c>
-      <c r="AG16" s="8" t="s">
-        <v>2544</v>
+        <v>2614</v>
+      </c>
+      <c r="AG16" s="10" t="s">
+        <v>2528</v>
       </c>
       <c r="AH16" s="1" t="s">
         <v>39</v>
@@ -40827,7 +40841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>162</v>
       </c>
@@ -40902,7 +40916,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>2442</v>
+        <v>2426</v>
       </c>
       <c r="AA17" s="1" t="s">
         <v>39</v>
@@ -40911,19 +40925,19 @@
         <v>5</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>2443</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>2368</v>
+        <v>2427</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>2772</v>
       </c>
       <c r="AE17" s="1">
         <v>4</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>2444</v>
-      </c>
-      <c r="AG17" s="8" t="s">
-        <v>2368</v>
+        <v>2428</v>
+      </c>
+      <c r="AG17" s="10" t="s">
+        <v>2772</v>
       </c>
       <c r="AH17" s="1" t="s">
         <v>39</v>
@@ -40935,7 +40949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>164</v>
       </c>
@@ -41021,19 +41035,19 @@
         <v>5</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>2445</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>2545</v>
+        <v>2429</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>2529</v>
       </c>
       <c r="AE18" s="1">
         <v>3</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>2446</v>
-      </c>
-      <c r="AG18" s="8" t="s">
-        <v>2545</v>
+        <v>2430</v>
+      </c>
+      <c r="AG18" s="10" t="s">
+        <v>2529</v>
       </c>
       <c r="AH18" s="1" t="s">
         <v>39</v>
@@ -41045,7 +41059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>173</v>
       </c>
@@ -41129,17 +41143,17 @@
         <v>5</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>2447</v>
-      </c>
-      <c r="AD19" s="1"/>
+        <v>2431</v>
+      </c>
+      <c r="AD19" s="2"/>
       <c r="AE19" s="1">
         <v>5</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>2448</v>
-      </c>
-      <c r="AG19" s="8" t="s">
-        <v>2546</v>
+        <v>2432</v>
+      </c>
+      <c r="AG19" s="10" t="s">
+        <v>2530</v>
       </c>
       <c r="AH19" s="1" t="s">
         <v>39</v>
@@ -41151,7 +41165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>174</v>
       </c>
@@ -41237,14 +41251,14 @@
       <c r="AC20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD20" s="1"/>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG20" s="8"/>
+      <c r="AG20" s="10"/>
       <c r="AH20" s="1" t="s">
         <v>39</v>
       </c>
@@ -41255,7 +41269,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>210</v>
       </c>
@@ -41337,14 +41351,14 @@
       <c r="AC21" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="AD21" s="1"/>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="1">
         <v>3</v>
       </c>
       <c r="AF21" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="AG21" s="8"/>
+      <c r="AG21" s="10"/>
       <c r="AH21" s="1" t="s">
         <v>39</v>
       </c>
@@ -41355,7 +41369,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>214</v>
       </c>
@@ -41439,14 +41453,14 @@
       <c r="AC22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD22" s="1"/>
+      <c r="AD22" s="2"/>
       <c r="AE22" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG22" s="8"/>
+      <c r="AG22" s="10"/>
       <c r="AH22" s="1" t="s">
         <v>39</v>
       </c>
@@ -41457,7 +41471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>216</v>
       </c>
@@ -41539,19 +41553,19 @@
         <v>2</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>2449</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>2369</v>
+        <v>2433</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>2800</v>
       </c>
       <c r="AE23" s="1">
         <v>2</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>2449</v>
-      </c>
-      <c r="AG23" s="8" t="s">
-        <v>2369</v>
+        <v>2433</v>
+      </c>
+      <c r="AG23" s="10" t="s">
+        <v>2800</v>
       </c>
       <c r="AH23" s="1" t="s">
         <v>39</v>
@@ -41563,7 +41577,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>219</v>
       </c>
@@ -41647,14 +41661,14 @@
       <c r="AC24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD24" s="1"/>
+      <c r="AD24" s="2"/>
       <c r="AE24" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG24" s="8"/>
+      <c r="AG24" s="10"/>
       <c r="AH24" s="1" t="s">
         <v>39</v>
       </c>
@@ -41665,7 +41679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>220</v>
       </c>
@@ -41751,17 +41765,17 @@
       <c r="AC25" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="AD25" s="1" t="s">
-        <v>2370</v>
+      <c r="AD25" s="2" t="s">
+        <v>2791</v>
       </c>
       <c r="AE25" s="1">
         <v>5</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>2450</v>
-      </c>
-      <c r="AG25" s="8" t="s">
-        <v>2370</v>
+        <v>2434</v>
+      </c>
+      <c r="AG25" s="10" t="s">
+        <v>2791</v>
       </c>
       <c r="AH25" s="1" t="s">
         <v>39</v>
@@ -41773,7 +41787,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>233</v>
       </c>
@@ -41855,14 +41869,14 @@
       <c r="AC26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD26" s="1"/>
+      <c r="AD26" s="2"/>
       <c r="AE26" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG26" s="8"/>
+      <c r="AG26" s="10"/>
       <c r="AH26" s="1" t="s">
         <v>39</v>
       </c>
@@ -41873,7 +41887,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>254</v>
       </c>
@@ -41955,14 +41969,14 @@
       <c r="AC27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD27" s="1"/>
+      <c r="AD27" s="2"/>
       <c r="AE27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG27" s="8"/>
+      <c r="AG27" s="10"/>
       <c r="AH27" s="1" t="s">
         <v>39</v>
       </c>
@@ -41973,7 +41987,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>263</v>
       </c>
@@ -42057,19 +42071,19 @@
         <v>5</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>2451</v>
-      </c>
-      <c r="AD28" s="1" t="s">
-        <v>2371</v>
+        <v>2435</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>2788</v>
       </c>
       <c r="AE28" s="1">
         <v>5</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>2452</v>
-      </c>
-      <c r="AG28" s="8" t="s">
-        <v>2547</v>
+        <v>2436</v>
+      </c>
+      <c r="AG28" s="10" t="s">
+        <v>2788</v>
       </c>
       <c r="AH28" s="1" t="s">
         <v>39</v>
@@ -42081,7 +42095,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>270</v>
       </c>
@@ -42165,19 +42179,19 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>2453</v>
-      </c>
-      <c r="AD29" s="1" t="s">
-        <v>2374</v>
+        <v>2437</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>2368</v>
       </c>
       <c r="AE29" s="1">
         <v>5</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>2454</v>
-      </c>
-      <c r="AG29" s="8" t="s">
-        <v>2374</v>
+        <v>2438</v>
+      </c>
+      <c r="AG29" s="10" t="s">
+        <v>2368</v>
       </c>
       <c r="AH29" s="1" t="s">
         <v>39</v>
@@ -42189,7 +42203,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>279</v>
       </c>
@@ -42271,8 +42285,8 @@
       <c r="AC30" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="AD30" s="1" t="s">
-        <v>2372</v>
+      <c r="AD30" s="2" t="s">
+        <v>2773</v>
       </c>
       <c r="AE30" s="1" t="s">
         <v>39</v>
@@ -42280,7 +42294,7 @@
       <c r="AF30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG30" s="8"/>
+      <c r="AG30" s="10"/>
       <c r="AH30" s="1" t="s">
         <v>39</v>
       </c>
@@ -42291,7 +42305,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>312</v>
       </c>
@@ -42375,14 +42389,14 @@
       <c r="AC31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD31" s="1"/>
+      <c r="AD31" s="2"/>
       <c r="AE31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG31" s="8"/>
+      <c r="AG31" s="10"/>
       <c r="AH31" s="1" t="s">
         <v>39</v>
       </c>
@@ -42393,7 +42407,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>346</v>
       </c>
@@ -42479,19 +42493,19 @@
         <v>5</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>2637</v>
-      </c>
-      <c r="AD32" s="1" t="s">
-        <v>2592</v>
+        <v>2607</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>2566</v>
       </c>
       <c r="AE32" s="1">
         <v>5</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>2638</v>
-      </c>
-      <c r="AG32" s="8" t="s">
-        <v>2592</v>
+        <v>2608</v>
+      </c>
+      <c r="AG32" s="10" t="s">
+        <v>2566</v>
       </c>
       <c r="AH32" s="1" t="s">
         <v>39</v>
@@ -42503,7 +42517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>352</v>
       </c>
@@ -42589,14 +42603,14 @@
       <c r="AC33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD33" s="1"/>
+      <c r="AD33" s="2"/>
       <c r="AE33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG33" s="8"/>
+      <c r="AG33" s="10"/>
       <c r="AH33" s="1" t="s">
         <v>39</v>
       </c>
@@ -42607,7 +42621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>355</v>
       </c>
@@ -42689,19 +42703,19 @@
         <v>5</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>2455</v>
-      </c>
-      <c r="AD34" s="1" t="s">
-        <v>2373</v>
+        <v>2439</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>2367</v>
       </c>
       <c r="AE34" s="1">
         <v>3</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>2456</v>
-      </c>
-      <c r="AG34" s="8" t="s">
-        <v>2373</v>
+        <v>2440</v>
+      </c>
+      <c r="AG34" s="10" t="s">
+        <v>2367</v>
       </c>
       <c r="AH34" s="1" t="s">
         <v>39</v>
@@ -42713,7 +42727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>362</v>
       </c>
@@ -42793,19 +42807,19 @@
         <v>0</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>2457</v>
-      </c>
-      <c r="AD35" s="1" t="s">
-        <v>2548</v>
+        <v>2441</v>
+      </c>
+      <c r="AD35" s="2" t="s">
+        <v>2531</v>
       </c>
       <c r="AE35" s="1">
         <v>3</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>2458</v>
-      </c>
-      <c r="AG35" s="8" t="s">
-        <v>2548</v>
+        <v>2442</v>
+      </c>
+      <c r="AG35" s="10" t="s">
+        <v>2531</v>
       </c>
       <c r="AH35" s="1" t="s">
         <v>39</v>
@@ -42817,7 +42831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>371</v>
       </c>
@@ -42899,19 +42913,19 @@
         <v>5</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>2459</v>
-      </c>
-      <c r="AD36" s="1" t="s">
-        <v>2375</v>
+        <v>2443</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>2369</v>
       </c>
       <c r="AE36" s="1">
         <v>3</v>
       </c>
       <c r="AF36" s="1" t="s">
-        <v>2460</v>
-      </c>
-      <c r="AG36" s="8" t="s">
-        <v>2375</v>
+        <v>2444</v>
+      </c>
+      <c r="AG36" s="10" t="s">
+        <v>2369</v>
       </c>
       <c r="AH36" s="1" t="s">
         <v>39</v>
@@ -42923,7 +42937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>372</v>
       </c>
@@ -43003,14 +43017,14 @@
       <c r="AC37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD37" s="1"/>
+      <c r="AD37" s="2"/>
       <c r="AE37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG37" s="8"/>
+      <c r="AG37" s="10"/>
       <c r="AH37" s="1" t="s">
         <v>39</v>
       </c>
@@ -43021,7 +43035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>372</v>
       </c>
@@ -43101,14 +43115,14 @@
       <c r="AC38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD38" s="1"/>
+      <c r="AD38" s="2"/>
       <c r="AE38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG38" s="8"/>
+      <c r="AG38" s="10"/>
       <c r="AH38" s="1" t="s">
         <v>39</v>
       </c>
@@ -43119,7 +43133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>372</v>
       </c>
@@ -43203,14 +43217,14 @@
       <c r="AC39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD39" s="1"/>
+      <c r="AD39" s="2"/>
       <c r="AE39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG39" s="8"/>
+      <c r="AG39" s="10"/>
       <c r="AH39" s="1" t="s">
         <v>39</v>
       </c>
@@ -43221,7 +43235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>405</v>
       </c>
@@ -43303,19 +43317,19 @@
         <v>5</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>2461</v>
-      </c>
-      <c r="AD40" s="1" t="s">
-        <v>2376</v>
+        <v>2445</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>2370</v>
       </c>
       <c r="AE40" s="1">
         <v>5</v>
       </c>
       <c r="AF40" s="1" t="s">
-        <v>2462</v>
-      </c>
-      <c r="AG40" s="8" t="s">
-        <v>2376</v>
+        <v>2446</v>
+      </c>
+      <c r="AG40" s="10" t="s">
+        <v>2370</v>
       </c>
       <c r="AH40" s="1" t="s">
         <v>39</v>
@@ -43327,7 +43341,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>429</v>
       </c>
@@ -43409,8 +43423,8 @@
       <c r="AC41" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="AD41" s="1" t="s">
-        <v>2377</v>
+      <c r="AD41" s="2" t="s">
+        <v>2371</v>
       </c>
       <c r="AE41" s="1">
         <v>4</v>
@@ -43418,8 +43432,8 @@
       <c r="AF41" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="AG41" s="8" t="s">
-        <v>2377</v>
+      <c r="AG41" s="10" t="s">
+        <v>2371</v>
       </c>
       <c r="AH41" s="1" t="s">
         <v>39</v>
@@ -43431,7 +43445,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>442</v>
       </c>
@@ -43515,14 +43529,14 @@
       <c r="AC42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD42" s="1"/>
+      <c r="AD42" s="2"/>
       <c r="AE42" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG42" s="8"/>
+      <c r="AG42" s="10"/>
       <c r="AH42" s="1" t="s">
         <v>39</v>
       </c>
@@ -43533,7 +43547,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>523</v>
       </c>
@@ -43619,17 +43633,17 @@
       <c r="AC43" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AD43" s="1" t="s">
-        <v>2549</v>
+      <c r="AD43" s="2" t="s">
+        <v>2532</v>
       </c>
       <c r="AE43" s="1">
         <v>2</v>
       </c>
       <c r="AF43" s="1" t="s">
-        <v>2463</v>
-      </c>
-      <c r="AG43" s="8" t="s">
-        <v>2549</v>
+        <v>2447</v>
+      </c>
+      <c r="AG43" s="10" t="s">
+        <v>2532</v>
       </c>
       <c r="AH43" s="1" t="s">
         <v>39</v>
@@ -43641,7 +43655,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>528</v>
       </c>
@@ -43723,19 +43737,19 @@
         <v>0</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>2464</v>
-      </c>
-      <c r="AD44" s="1" t="s">
-        <v>2378</v>
+        <v>2448</v>
+      </c>
+      <c r="AD44" s="2" t="s">
+        <v>2372</v>
       </c>
       <c r="AE44" s="1">
         <v>2</v>
       </c>
       <c r="AF44" s="1" t="s">
-        <v>2465</v>
-      </c>
-      <c r="AG44" s="8" t="s">
-        <v>2378</v>
+        <v>2449</v>
+      </c>
+      <c r="AG44" s="10" t="s">
+        <v>2372</v>
       </c>
       <c r="AH44" s="1" t="s">
         <v>39</v>
@@ -43747,7 +43761,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>531</v>
       </c>
@@ -43831,14 +43845,14 @@
       <c r="AC45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD45" s="1"/>
+      <c r="AD45" s="2"/>
       <c r="AE45" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG45" s="8"/>
+      <c r="AG45" s="10"/>
       <c r="AH45" s="1" t="s">
         <v>39</v>
       </c>
@@ -43849,7 +43863,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>533</v>
       </c>
@@ -43931,19 +43945,19 @@
         <v>2</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>2466</v>
-      </c>
-      <c r="AD46" s="1" t="s">
-        <v>2379</v>
+        <v>2450</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>2373</v>
       </c>
       <c r="AE46" s="1">
         <v>2</v>
       </c>
       <c r="AF46" s="1" t="s">
-        <v>2466</v>
-      </c>
-      <c r="AG46" s="8" t="s">
-        <v>2379</v>
+        <v>2450</v>
+      </c>
+      <c r="AG46" s="10" t="s">
+        <v>2373</v>
       </c>
       <c r="AH46" s="1" t="s">
         <v>39</v>
@@ -43955,7 +43969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>536</v>
       </c>
@@ -44033,14 +44047,14 @@
       <c r="AC47" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD47" s="1"/>
+      <c r="AD47" s="2"/>
       <c r="AE47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF47" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG47" s="8"/>
+      <c r="AG47" s="10"/>
       <c r="AH47" s="1" t="s">
         <v>39</v>
       </c>
@@ -44051,7 +44065,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>540</v>
       </c>
@@ -44128,7 +44142,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>2467</v>
+        <v>2451</v>
       </c>
       <c r="AA48" s="1" t="s">
         <v>39</v>
@@ -44137,19 +44151,19 @@
         <v>5</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>2468</v>
-      </c>
-      <c r="AD48" s="1" t="s">
-        <v>2380</v>
+        <v>2452</v>
+      </c>
+      <c r="AD48" s="2" t="s">
+        <v>2374</v>
       </c>
       <c r="AE48" s="1">
         <v>5</v>
       </c>
       <c r="AF48" s="1" t="s">
-        <v>2469</v>
-      </c>
-      <c r="AG48" s="8" t="s">
-        <v>2380</v>
+        <v>2453</v>
+      </c>
+      <c r="AG48" s="10" t="s">
+        <v>2374</v>
       </c>
       <c r="AH48" s="1" t="s">
         <v>39</v>
@@ -44161,7 +44175,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>550</v>
       </c>
@@ -44245,14 +44259,14 @@
       <c r="AC49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD49" s="1"/>
+      <c r="AD49" s="2"/>
       <c r="AE49" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG49" s="8"/>
+      <c r="AG49" s="10"/>
       <c r="AH49" s="1" t="s">
         <v>39</v>
       </c>
@@ -44263,7 +44277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>558</v>
       </c>
@@ -44345,19 +44359,19 @@
         <v>5</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>2470</v>
-      </c>
-      <c r="AD50" s="1" t="s">
-        <v>2550</v>
+        <v>2454</v>
+      </c>
+      <c r="AD50" s="2" t="s">
+        <v>2533</v>
       </c>
       <c r="AE50" s="1">
         <v>5</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>2471</v>
-      </c>
-      <c r="AG50" s="9" t="s">
-        <v>2550</v>
+        <v>2455</v>
+      </c>
+      <c r="AG50" s="11" t="s">
+        <v>2533</v>
       </c>
       <c r="AH50" s="1" t="s">
         <v>39</v>
@@ -44369,7 +44383,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>569</v>
       </c>
@@ -44451,10 +44465,10 @@
         <v>5</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>2604</v>
-      </c>
-      <c r="AD51" s="1" t="s">
-        <v>2605</v>
+        <v>2577</v>
+      </c>
+      <c r="AD51" s="2" t="s">
+        <v>2789</v>
       </c>
       <c r="AE51" s="1" t="s">
         <v>39</v>
@@ -44462,18 +44476,18 @@
       <c r="AF51" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG51" s="8"/>
+      <c r="AG51" s="10"/>
       <c r="AH51" s="1">
         <v>2</v>
       </c>
       <c r="AI51" s="1" t="s">
-        <v>2606</v>
+        <v>2578</v>
       </c>
       <c r="AJ51" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>573</v>
       </c>
@@ -44553,10 +44567,10 @@
         <v>5</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>2472</v>
-      </c>
-      <c r="AD52" s="1" t="s">
-        <v>2551</v>
+        <v>2456</v>
+      </c>
+      <c r="AD52" s="2" t="s">
+        <v>2534</v>
       </c>
       <c r="AE52" s="1">
         <v>5</v>
@@ -44564,8 +44578,8 @@
       <c r="AF52" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="AG52" s="8" t="s">
-        <v>2551</v>
+      <c r="AG52" s="10" t="s">
+        <v>2534</v>
       </c>
       <c r="AH52" s="1" t="s">
         <v>39</v>
@@ -44577,7 +44591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>676</v>
       </c>
@@ -44663,10 +44677,10 @@
         <v>5</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>2473</v>
-      </c>
-      <c r="AD53" s="1" t="s">
-        <v>2630</v>
+        <v>2457</v>
+      </c>
+      <c r="AD53" s="2" t="s">
+        <v>2600</v>
       </c>
       <c r="AE53" s="1" t="s">
         <v>39</v>
@@ -44674,7 +44688,7 @@
       <c r="AF53" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG53" s="8"/>
+      <c r="AG53" s="10"/>
       <c r="AH53" s="1" t="s">
         <v>39</v>
       </c>
@@ -44685,7 +44699,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>682</v>
       </c>
@@ -44767,8 +44781,8 @@
       <c r="AC54" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="AD54" s="1" t="s">
-        <v>2381</v>
+      <c r="AD54" s="2" t="s">
+        <v>2801</v>
       </c>
       <c r="AE54" s="1">
         <v>4</v>
@@ -44776,8 +44790,8 @@
       <c r="AF54" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="AG54" s="8" t="s">
-        <v>2381</v>
+      <c r="AG54" s="10" t="s">
+        <v>2802</v>
       </c>
       <c r="AH54" s="1" t="s">
         <v>39</v>
@@ -44789,7 +44803,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>690</v>
       </c>
@@ -44867,10 +44881,10 @@
         <v>5</v>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>2474</v>
-      </c>
-      <c r="AD55" s="1" t="s">
-        <v>2382</v>
+        <v>2458</v>
+      </c>
+      <c r="AD55" s="2" t="s">
+        <v>2375</v>
       </c>
       <c r="AE55" s="1" t="s">
         <v>39</v>
@@ -44878,7 +44892,7 @@
       <c r="AF55" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG55" s="8"/>
+      <c r="AG55" s="10"/>
       <c r="AH55" s="1" t="s">
         <v>39</v>
       </c>
@@ -44889,7 +44903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -44971,14 +44985,14 @@
       <c r="AC56" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD56" s="1"/>
+      <c r="AD56" s="2"/>
       <c r="AE56" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF56" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG56" s="8"/>
+      <c r="AG56" s="10"/>
       <c r="AH56" s="1" t="s">
         <v>39</v>
       </c>
@@ -44989,7 +45003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>11</v>
       </c>
@@ -45073,19 +45087,19 @@
         <v>5</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>2542</v>
-      </c>
-      <c r="AD57" s="1" t="s">
-        <v>2384</v>
+        <v>2526</v>
+      </c>
+      <c r="AD57" s="2" t="s">
+        <v>2774</v>
       </c>
       <c r="AE57" s="1" t="s">
         <v>219</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>2383</v>
-      </c>
-      <c r="AG57" s="8" t="s">
-        <v>2384</v>
+        <v>2376</v>
+      </c>
+      <c r="AG57" s="10" t="s">
+        <v>2774</v>
       </c>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1" t="s">
@@ -45095,7 +45109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>25</v>
       </c>
@@ -45173,19 +45187,19 @@
         <v>5</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>2385</v>
-      </c>
-      <c r="AD58" s="1" t="s">
-        <v>2386</v>
+        <v>2377</v>
+      </c>
+      <c r="AD58" s="2" t="s">
+        <v>2793</v>
       </c>
       <c r="AE58" s="1">
         <v>5</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>2385</v>
-      </c>
-      <c r="AG58" s="8" t="s">
-        <v>2386</v>
+        <v>2377</v>
+      </c>
+      <c r="AG58" s="10" t="s">
+        <v>2793</v>
       </c>
       <c r="AH58" s="1" t="s">
         <v>39</v>
@@ -45197,7 +45211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>36</v>
       </c>
@@ -45283,19 +45297,19 @@
         <v>5</v>
       </c>
       <c r="AC59" s="1" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AD59" s="1" t="s">
-        <v>2626</v>
+        <v>2379</v>
+      </c>
+      <c r="AD59" s="2" t="s">
+        <v>2596</v>
       </c>
       <c r="AE59" s="1">
         <v>3</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>2433</v>
-      </c>
-      <c r="AG59" s="8" t="s">
-        <v>2626</v>
+        <v>2417</v>
+      </c>
+      <c r="AG59" s="10" t="s">
+        <v>2596</v>
       </c>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1" t="s">
@@ -45305,7 +45319,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -45391,19 +45405,19 @@
         <v>5</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>2631</v>
-      </c>
-      <c r="AD60" s="1" t="s">
-        <v>2552</v>
+        <v>2601</v>
+      </c>
+      <c r="AD60" s="2" t="s">
+        <v>2792</v>
       </c>
       <c r="AE60" s="1">
         <v>5</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>2632</v>
-      </c>
-      <c r="AG60" s="8" t="s">
-        <v>2552</v>
+        <v>2602</v>
+      </c>
+      <c r="AG60" s="10" t="s">
+        <v>2792</v>
       </c>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1" t="s">
@@ -45413,7 +45427,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" ht="105" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>56</v>
       </c>
@@ -45497,19 +45511,19 @@
         <v>5</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>2631</v>
-      </c>
-      <c r="AD61" s="1" t="s">
-        <v>2552</v>
+        <v>2601</v>
+      </c>
+      <c r="AD61" s="2" t="s">
+        <v>2792</v>
       </c>
       <c r="AE61" s="1">
         <v>5</v>
       </c>
       <c r="AF61" s="1" t="s">
-        <v>2633</v>
-      </c>
-      <c r="AG61" s="8" t="s">
-        <v>2552</v>
+        <v>2603</v>
+      </c>
+      <c r="AG61" s="10" t="s">
+        <v>2792</v>
       </c>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1" t="s">
@@ -45519,7 +45533,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>56</v>
       </c>
@@ -45603,19 +45617,19 @@
         <v>5</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>2631</v>
-      </c>
-      <c r="AD62" s="1" t="s">
-        <v>2552</v>
+        <v>2601</v>
+      </c>
+      <c r="AD62" s="2" t="s">
+        <v>2792</v>
       </c>
       <c r="AE62" s="1">
         <v>5</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>2634</v>
-      </c>
-      <c r="AG62" s="8" t="s">
-        <v>2552</v>
+        <v>2604</v>
+      </c>
+      <c r="AG62" s="10" t="s">
+        <v>2792</v>
       </c>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1" t="s">
@@ -45625,7 +45639,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>56</v>
       </c>
@@ -45709,19 +45723,19 @@
         <v>5</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>2631</v>
-      </c>
-      <c r="AD63" s="1" t="s">
-        <v>2552</v>
+        <v>2601</v>
+      </c>
+      <c r="AD63" s="2" t="s">
+        <v>2792</v>
       </c>
       <c r="AE63" s="1">
         <v>5</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>2635</v>
-      </c>
-      <c r="AG63" s="8" t="s">
-        <v>2552</v>
+        <v>2605</v>
+      </c>
+      <c r="AG63" s="10" t="s">
+        <v>2792</v>
       </c>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1" t="s">
@@ -45731,7 +45745,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -45811,14 +45825,14 @@
       <c r="AC64" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD64" s="1"/>
+      <c r="AD64" s="2"/>
       <c r="AE64" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF64" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG64" s="8"/>
+      <c r="AG64" s="10"/>
       <c r="AH64" s="1" t="s">
         <v>39</v>
       </c>
@@ -45829,7 +45843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>82</v>
       </c>
@@ -45905,14 +45919,14 @@
       <c r="AC65" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD65" s="1"/>
+      <c r="AD65" s="2"/>
       <c r="AE65" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF65" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG65" s="8"/>
+      <c r="AG65" s="10"/>
       <c r="AH65" s="1" t="s">
         <v>39</v>
       </c>
@@ -45923,7 +45937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>87</v>
       </c>
@@ -46001,16 +46015,16 @@
         <v>1</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>2390</v>
-      </c>
-      <c r="AD66" s="1"/>
+        <v>2381</v>
+      </c>
+      <c r="AD66" s="2"/>
       <c r="AE66" s="1">
         <v>1</v>
       </c>
       <c r="AF66" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="AG66" s="8"/>
+      <c r="AG66" s="10"/>
       <c r="AH66" s="1" t="s">
         <v>39</v>
       </c>
@@ -46021,7 +46035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>94</v>
       </c>
@@ -46107,14 +46121,14 @@
       <c r="AC67" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD67" s="1"/>
+      <c r="AD67" s="2"/>
       <c r="AE67" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF67" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG67" s="8"/>
+      <c r="AG67" s="10"/>
       <c r="AH67" s="1" t="s">
         <v>39</v>
       </c>
@@ -46125,7 +46139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>94</v>
       </c>
@@ -46211,14 +46225,14 @@
       <c r="AC68" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD68" s="1"/>
+      <c r="AD68" s="2"/>
       <c r="AE68" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF68" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG68" s="8"/>
+      <c r="AG68" s="10"/>
       <c r="AH68" s="1" t="s">
         <v>39</v>
       </c>
@@ -46229,7 +46243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>94</v>
       </c>
@@ -46315,14 +46329,14 @@
       <c r="AC69" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD69" s="1"/>
+      <c r="AD69" s="2"/>
       <c r="AE69" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF69" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG69" s="8"/>
+      <c r="AG69" s="10"/>
       <c r="AH69" s="1" t="s">
         <v>39</v>
       </c>
@@ -46333,7 +46347,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>116</v>
       </c>
@@ -46417,14 +46431,14 @@
       <c r="AC70" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD70" s="1"/>
+      <c r="AD70" s="2"/>
       <c r="AE70" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF70" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG70" s="8"/>
+      <c r="AG70" s="10"/>
       <c r="AH70" s="1" t="s">
         <v>39</v>
       </c>
@@ -46435,7 +46449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>128</v>
       </c>
@@ -46521,19 +46535,19 @@
         <v>3</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>2389</v>
-      </c>
-      <c r="AD71" s="1" t="s">
-        <v>2388</v>
+        <v>2380</v>
+      </c>
+      <c r="AD71" s="2" t="s">
+        <v>2775</v>
       </c>
       <c r="AE71" s="1">
         <v>3</v>
       </c>
       <c r="AF71" s="1" t="s">
-        <v>2389</v>
-      </c>
-      <c r="AG71" s="8" t="s">
-        <v>2388</v>
+        <v>2380</v>
+      </c>
+      <c r="AG71" s="10" t="s">
+        <v>2775</v>
       </c>
       <c r="AH71" s="1" t="s">
         <v>39</v>
@@ -46545,7 +46559,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>129</v>
       </c>
@@ -46629,14 +46643,14 @@
       <c r="AC72" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD72" s="1"/>
+      <c r="AD72" s="2"/>
       <c r="AE72" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF72" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG72" s="8"/>
+      <c r="AG72" s="10"/>
       <c r="AH72" s="1" t="s">
         <v>39</v>
       </c>
@@ -46647,7 +46661,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>129</v>
       </c>
@@ -46731,14 +46745,14 @@
       <c r="AC73" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD73" s="1"/>
+      <c r="AD73" s="2"/>
       <c r="AE73" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF73" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG73" s="8"/>
+      <c r="AG73" s="10"/>
       <c r="AH73" s="1" t="s">
         <v>39</v>
       </c>
@@ -46749,7 +46763,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>130</v>
       </c>
@@ -46833,14 +46847,14 @@
       <c r="AC74" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD74" s="1"/>
+      <c r="AD74" s="2"/>
       <c r="AE74" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF74" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG74" s="8"/>
+      <c r="AG74" s="10"/>
       <c r="AH74" s="1" t="s">
         <v>39</v>
       </c>
@@ -46851,7 +46865,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>147</v>
       </c>
@@ -46933,14 +46947,14 @@
       <c r="AC75" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD75" s="1"/>
+      <c r="AD75" s="2"/>
       <c r="AE75" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF75" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG75" s="8"/>
+      <c r="AG75" s="10"/>
       <c r="AH75" s="1" t="s">
         <v>39</v>
       </c>
@@ -46951,7 +46965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>148</v>
       </c>
@@ -47035,8 +47049,8 @@
       <c r="AC76" s="1" t="s">
         <v>2027</v>
       </c>
-      <c r="AD76" s="1" t="s">
-        <v>2553</v>
+      <c r="AD76" s="2" t="s">
+        <v>2535</v>
       </c>
       <c r="AE76" s="1">
         <v>5</v>
@@ -47044,8 +47058,8 @@
       <c r="AF76" s="1" t="s">
         <v>2028</v>
       </c>
-      <c r="AG76" s="8" t="s">
-        <v>2553</v>
+      <c r="AG76" s="10" t="s">
+        <v>2535</v>
       </c>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1" t="s">
@@ -47055,7 +47069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>155</v>
       </c>
@@ -47137,25 +47151,25 @@
         <v>5</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>2391</v>
-      </c>
-      <c r="AD77" s="1" t="s">
-        <v>2554</v>
+        <v>2382</v>
+      </c>
+      <c r="AD77" s="2" t="s">
+        <v>2536</v>
       </c>
       <c r="AE77" s="1">
         <v>5</v>
       </c>
       <c r="AF77" s="1" t="s">
-        <v>2475</v>
-      </c>
-      <c r="AG77" s="8" t="s">
-        <v>2554</v>
+        <v>2459</v>
+      </c>
+      <c r="AG77" s="10" t="s">
+        <v>2536</v>
       </c>
       <c r="AH77" s="1"/>
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
     </row>
-    <row r="78" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>183</v>
       </c>
@@ -47235,15 +47249,15 @@
         <v>39</v>
       </c>
       <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
+      <c r="AD78" s="2"/>
       <c r="AE78" s="1">
         <v>5</v>
       </c>
       <c r="AF78" s="1" t="s">
-        <v>2476</v>
-      </c>
-      <c r="AG78" s="8" t="s">
-        <v>2555</v>
+        <v>2460</v>
+      </c>
+      <c r="AG78" s="10" t="s">
+        <v>2537</v>
       </c>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1" t="s">
@@ -47253,7 +47267,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>188</v>
       </c>
@@ -47335,14 +47349,14 @@
       <c r="AC79" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD79" s="1"/>
+      <c r="AD79" s="2"/>
       <c r="AE79" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF79" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG79" s="8"/>
+      <c r="AG79" s="10"/>
       <c r="AH79" s="1" t="s">
         <v>39</v>
       </c>
@@ -47353,7 +47367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>200</v>
       </c>
@@ -47435,19 +47449,19 @@
         <v>1</v>
       </c>
       <c r="AC80" s="1" t="s">
-        <v>2393</v>
-      </c>
-      <c r="AD80" s="1" t="s">
-        <v>2392</v>
+        <v>2384</v>
+      </c>
+      <c r="AD80" s="2" t="s">
+        <v>2383</v>
       </c>
       <c r="AE80" s="1">
         <v>3</v>
       </c>
       <c r="AF80" s="1" t="s">
-        <v>2434</v>
-      </c>
-      <c r="AG80" s="8" t="s">
-        <v>2556</v>
+        <v>2418</v>
+      </c>
+      <c r="AG80" s="10" t="s">
+        <v>2538</v>
       </c>
       <c r="AH80" s="1" t="s">
         <v>39</v>
@@ -47459,7 +47473,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>201</v>
       </c>
@@ -47539,14 +47553,14 @@
       <c r="AC81" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD81" s="1"/>
+      <c r="AD81" s="2"/>
       <c r="AE81" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF81" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG81" s="8"/>
+      <c r="AG81" s="10"/>
       <c r="AH81" s="1" t="s">
         <v>39</v>
       </c>
@@ -47557,7 +47571,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>234</v>
       </c>
@@ -47641,14 +47655,14 @@
       <c r="AC82" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD82" s="1"/>
+      <c r="AD82" s="2"/>
       <c r="AE82" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF82" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG82" s="8"/>
+      <c r="AG82" s="10"/>
       <c r="AH82" s="1" t="s">
         <v>39</v>
       </c>
@@ -47659,7 +47673,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>242</v>
       </c>
@@ -47743,19 +47757,19 @@
         <v>5</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>2394</v>
-      </c>
-      <c r="AD83" s="1" t="s">
-        <v>2395</v>
+        <v>2385</v>
+      </c>
+      <c r="AD83" s="2" t="s">
+        <v>2776</v>
       </c>
       <c r="AE83" s="1">
         <v>5</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>2477</v>
-      </c>
-      <c r="AG83" s="8" t="s">
-        <v>2557</v>
+        <v>2461</v>
+      </c>
+      <c r="AG83" s="10" t="s">
+        <v>2539</v>
       </c>
       <c r="AH83" s="1"/>
       <c r="AI83" s="1" t="s">
@@ -47765,7 +47779,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>253</v>
       </c>
@@ -47845,14 +47859,14 @@
       <c r="AC84" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD84" s="1"/>
+      <c r="AD84" s="2"/>
       <c r="AE84" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF84" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG84" s="8"/>
+      <c r="AG84" s="10"/>
       <c r="AH84" s="1" t="s">
         <v>39</v>
       </c>
@@ -47863,7 +47877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>269</v>
       </c>
@@ -47943,14 +47957,14 @@
       <c r="AC85" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD85" s="1"/>
+      <c r="AD85" s="2"/>
       <c r="AE85" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF85" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG85" s="8"/>
+      <c r="AG85" s="10"/>
       <c r="AH85" s="1" t="s">
         <v>39</v>
       </c>
@@ -47961,7 +47975,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>274</v>
       </c>
@@ -48043,19 +48057,19 @@
         <v>5</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>2581</v>
-      </c>
-      <c r="AD86" s="1" t="s">
-        <v>2582</v>
+        <v>2556</v>
+      </c>
+      <c r="AD86" s="2" t="s">
+        <v>2557</v>
       </c>
       <c r="AE86" s="1">
         <v>3</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>2583</v>
-      </c>
-      <c r="AG86" s="8" t="s">
-        <v>2582</v>
+        <v>2558</v>
+      </c>
+      <c r="AG86" s="10" t="s">
+        <v>2557</v>
       </c>
       <c r="AH86" s="1"/>
       <c r="AI86" s="1" t="s">
@@ -48065,7 +48079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>280</v>
       </c>
@@ -48147,19 +48161,19 @@
         <v>5</v>
       </c>
       <c r="AC87" s="1" t="s">
-        <v>2396</v>
-      </c>
-      <c r="AD87" s="1" t="s">
-        <v>2574</v>
+        <v>2386</v>
+      </c>
+      <c r="AD87" s="2" t="s">
+        <v>2550</v>
       </c>
       <c r="AE87" s="1">
         <v>3</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>2478</v>
-      </c>
-      <c r="AG87" s="8" t="s">
-        <v>2558</v>
+        <v>2462</v>
+      </c>
+      <c r="AG87" s="10" t="s">
+        <v>2540</v>
       </c>
       <c r="AH87" s="1"/>
       <c r="AI87" s="1" t="s">
@@ -48169,7 +48183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>301</v>
       </c>
@@ -48245,18 +48259,18 @@
         <v>5</v>
       </c>
       <c r="AC88" s="1" t="s">
-        <v>2397</v>
-      </c>
-      <c r="AD88" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AD88" s="2" t="s">
         <v>993</v>
       </c>
       <c r="AE88" s="1">
         <v>5</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>2479</v>
-      </c>
-      <c r="AG88" s="8" t="s">
+        <v>2463</v>
+      </c>
+      <c r="AG88" s="10" t="s">
         <v>993</v>
       </c>
       <c r="AH88" s="1"/>
@@ -48267,7 +48281,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>325</v>
       </c>
@@ -48353,19 +48367,19 @@
         <v>5</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>2480</v>
-      </c>
-      <c r="AD89" s="1" t="s">
-        <v>2398</v>
+        <v>2464</v>
+      </c>
+      <c r="AD89" s="2" t="s">
+        <v>2388</v>
       </c>
       <c r="AE89" s="1">
         <v>5</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>2481</v>
-      </c>
-      <c r="AG89" s="1" t="s">
-        <v>2559</v>
+        <v>2465</v>
+      </c>
+      <c r="AG89" s="2" t="s">
+        <v>2541</v>
       </c>
       <c r="AH89" s="1"/>
       <c r="AI89" s="1" t="s">
@@ -48375,7 +48389,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>335</v>
       </c>
@@ -48459,19 +48473,19 @@
         <v>5</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>2482</v>
-      </c>
-      <c r="AD90" s="1" t="s">
-        <v>2399</v>
+        <v>2466</v>
+      </c>
+      <c r="AD90" s="2" t="s">
+        <v>2389</v>
       </c>
       <c r="AE90" s="1">
         <v>5</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>2482</v>
-      </c>
-      <c r="AG90" s="1" t="s">
-        <v>2399</v>
+        <v>2466</v>
+      </c>
+      <c r="AG90" s="2" t="s">
+        <v>2389</v>
       </c>
       <c r="AH90" s="1"/>
       <c r="AI90" s="1" t="s">
@@ -48481,7 +48495,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>337</v>
       </c>
@@ -48561,19 +48575,19 @@
         <v>5</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>2483</v>
-      </c>
-      <c r="AD91" s="1" t="s">
-        <v>2400</v>
+        <v>2467</v>
+      </c>
+      <c r="AD91" s="2" t="s">
+        <v>2787</v>
       </c>
       <c r="AE91" s="1">
         <v>3</v>
       </c>
       <c r="AF91" s="1" t="s">
-        <v>2435</v>
-      </c>
-      <c r="AG91" s="1" t="s">
-        <v>2400</v>
+        <v>2419</v>
+      </c>
+      <c r="AG91" s="2" t="s">
+        <v>2777</v>
       </c>
       <c r="AH91" s="1"/>
       <c r="AI91" s="1" t="s">
@@ -48583,7 +48597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>339</v>
       </c>
@@ -48667,19 +48681,19 @@
         <v>5</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>2484</v>
-      </c>
-      <c r="AD92" s="1" t="s">
-        <v>2560</v>
+        <v>2468</v>
+      </c>
+      <c r="AD92" s="2" t="s">
+        <v>2542</v>
       </c>
       <c r="AE92" s="1">
         <v>3</v>
       </c>
       <c r="AF92" s="1" t="s">
-        <v>2485</v>
-      </c>
-      <c r="AG92" s="1" t="s">
-        <v>2560</v>
+        <v>2469</v>
+      </c>
+      <c r="AG92" s="2" t="s">
+        <v>2542</v>
       </c>
       <c r="AH92" s="1"/>
       <c r="AI92" s="1" t="s">
@@ -48689,7 +48703,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>367</v>
       </c>
@@ -48773,14 +48787,14 @@
       <c r="AC93" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD93" s="1"/>
+      <c r="AD93" s="2"/>
       <c r="AE93" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF93" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG93" s="1" t="s">
+      <c r="AG93" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH93" s="1" t="s">
@@ -48793,7 +48807,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>418</v>
       </c>
@@ -48871,14 +48885,14 @@
       <c r="AC94" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD94" s="1"/>
+      <c r="AD94" s="2"/>
       <c r="AE94" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF94" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG94" s="1" t="s">
+      <c r="AG94" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH94" s="1" t="s">
@@ -48891,7 +48905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>419</v>
       </c>
@@ -48973,14 +48987,14 @@
       <c r="AC95" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD95" s="1"/>
+      <c r="AD95" s="2"/>
       <c r="AE95" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF95" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG95" s="1" t="s">
+      <c r="AG95" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH95" s="1" t="s">
@@ -48993,7 +49007,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>465</v>
       </c>
@@ -49073,19 +49087,19 @@
         <v>5</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>2486</v>
-      </c>
-      <c r="AD96" s="1" t="s">
-        <v>2401</v>
+        <v>2470</v>
+      </c>
+      <c r="AD96" s="2" t="s">
+        <v>2390</v>
       </c>
       <c r="AE96" s="1">
         <v>5</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>2487</v>
-      </c>
-      <c r="AG96" s="1" t="s">
-        <v>2401</v>
+        <v>2471</v>
+      </c>
+      <c r="AG96" s="2" t="s">
+        <v>2390</v>
       </c>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1" t="s">
@@ -49095,7 +49109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>479</v>
       </c>
@@ -49177,14 +49191,14 @@
       <c r="AC97" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD97" s="1"/>
+      <c r="AD97" s="2"/>
       <c r="AE97" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF97" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG97" s="1" t="s">
+      <c r="AG97" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH97" s="1" t="s">
@@ -49197,7 +49211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>482</v>
       </c>
@@ -49273,19 +49287,19 @@
         <v>5</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>2488</v>
-      </c>
-      <c r="AD98" s="1" t="s">
-        <v>2402</v>
+        <v>2472</v>
+      </c>
+      <c r="AD98" s="2" t="s">
+        <v>2391</v>
       </c>
       <c r="AE98" s="1">
         <v>5</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>2489</v>
-      </c>
-      <c r="AG98" s="1" t="s">
-        <v>2561</v>
+        <v>2473</v>
+      </c>
+      <c r="AG98" s="2" t="s">
+        <v>2543</v>
       </c>
       <c r="AH98" s="1"/>
       <c r="AI98" s="1" t="s">
@@ -49295,7 +49309,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>486</v>
       </c>
@@ -49375,14 +49389,14 @@
       <c r="AC99" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD99" s="1"/>
+      <c r="AD99" s="2"/>
       <c r="AE99" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF99" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG99" s="1" t="s">
+      <c r="AG99" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH99" s="1" t="s">
@@ -49395,7 +49409,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>501</v>
       </c>
@@ -49481,8 +49495,8 @@
       <c r="AC100" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="AD100" s="1" t="s">
-        <v>2403</v>
+      <c r="AD100" s="2" t="s">
+        <v>2392</v>
       </c>
       <c r="AE100" s="1" t="s">
         <v>39</v>
@@ -49490,7 +49504,7 @@
       <c r="AF100" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG100" s="1" t="s">
+      <c r="AG100" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH100" s="1" t="s">
@@ -49503,7 +49517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>524</v>
       </c>
@@ -49585,19 +49599,19 @@
         <v>1</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>2490</v>
-      </c>
-      <c r="AD101" s="1" t="s">
-        <v>2404</v>
+        <v>2474</v>
+      </c>
+      <c r="AD101" s="2" t="s">
+        <v>2393</v>
       </c>
       <c r="AE101" s="1">
         <v>3</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>2491</v>
-      </c>
-      <c r="AG101" s="1" t="s">
-        <v>2404</v>
+        <v>2475</v>
+      </c>
+      <c r="AG101" s="2" t="s">
+        <v>2393</v>
       </c>
       <c r="AH101" s="1"/>
       <c r="AI101" s="1" t="s">
@@ -49607,7 +49621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>553</v>
       </c>
@@ -49689,14 +49703,14 @@
       <c r="AC102" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD102" s="1"/>
+      <c r="AD102" s="2"/>
       <c r="AE102" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF102" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG102" s="1" t="s">
+      <c r="AG102" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH102" s="1" t="s">
@@ -49709,7 +49723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>557</v>
       </c>
@@ -49791,19 +49805,19 @@
         <v>5</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>2607</v>
-      </c>
-      <c r="AD103" s="1" t="s">
-        <v>2625</v>
+        <v>2579</v>
+      </c>
+      <c r="AD103" s="2" t="s">
+        <v>2595</v>
       </c>
       <c r="AE103" s="1">
         <v>3</v>
       </c>
       <c r="AF103" s="1" t="s">
-        <v>2608</v>
-      </c>
-      <c r="AG103" s="1" t="s">
-        <v>2625</v>
+        <v>2580</v>
+      </c>
+      <c r="AG103" s="2" t="s">
+        <v>2595</v>
       </c>
       <c r="AH103" s="1"/>
       <c r="AI103" s="1" t="s">
@@ -49813,7 +49827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>560</v>
       </c>
@@ -49897,14 +49911,14 @@
       <c r="AC104" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD104" s="1"/>
+      <c r="AD104" s="2"/>
       <c r="AE104" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF104" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG104" s="1" t="s">
+      <c r="AG104" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH104" s="1" t="s">
@@ -49917,7 +49931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>561</v>
       </c>
@@ -50003,14 +50017,14 @@
       <c r="AC105" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD105" s="1"/>
+      <c r="AD105" s="2"/>
       <c r="AE105" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF105" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG105" s="1" t="s">
+      <c r="AG105" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH105" s="1" t="s">
@@ -50023,7 +50037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>600</v>
       </c>
@@ -50101,19 +50115,19 @@
         <v>5</v>
       </c>
       <c r="AC106" s="1" t="s">
-        <v>2492</v>
-      </c>
-      <c r="AD106" s="1" t="s">
-        <v>2627</v>
+        <v>2476</v>
+      </c>
+      <c r="AD106" s="2" t="s">
+        <v>2597</v>
       </c>
       <c r="AE106" s="1">
         <v>5</v>
       </c>
       <c r="AF106" s="1" t="s">
-        <v>2493</v>
-      </c>
-      <c r="AG106" s="1" t="s">
-        <v>2628</v>
+        <v>2477</v>
+      </c>
+      <c r="AG106" s="2" t="s">
+        <v>2598</v>
       </c>
       <c r="AH106" s="1"/>
       <c r="AI106" s="1" t="s">
@@ -50123,7 +50137,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>627</v>
       </c>
@@ -50209,19 +50223,19 @@
         <v>5</v>
       </c>
       <c r="AC107" s="1" t="s">
-        <v>2494</v>
-      </c>
-      <c r="AD107" s="1" t="s">
-        <v>2405</v>
+        <v>2478</v>
+      </c>
+      <c r="AD107" s="2" t="s">
+        <v>2394</v>
       </c>
       <c r="AE107" s="1">
         <v>5</v>
       </c>
       <c r="AF107" s="1" t="s">
-        <v>2495</v>
-      </c>
-      <c r="AG107" s="1" t="s">
-        <v>2405</v>
+        <v>2479</v>
+      </c>
+      <c r="AG107" s="2" t="s">
+        <v>2394</v>
       </c>
       <c r="AH107" s="1"/>
       <c r="AI107" s="1" t="s">
@@ -50231,7 +50245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>636</v>
       </c>
@@ -50311,19 +50325,19 @@
         <v>5</v>
       </c>
       <c r="AC108" s="1" t="s">
-        <v>2496</v>
-      </c>
-      <c r="AD108" s="1" t="s">
-        <v>2622</v>
+        <v>2480</v>
+      </c>
+      <c r="AD108" s="2" t="s">
+        <v>2592</v>
       </c>
       <c r="AE108" s="1">
         <v>3</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>2497</v>
-      </c>
-      <c r="AG108" s="1" t="s">
-        <v>2622</v>
+        <v>2481</v>
+      </c>
+      <c r="AG108" s="2" t="s">
+        <v>2592</v>
       </c>
       <c r="AH108" s="1"/>
       <c r="AI108" s="1" t="s">
@@ -50333,7 +50347,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>650</v>
       </c>
@@ -50413,15 +50427,15 @@
       <c r="AC109" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD109" s="1"/>
+      <c r="AD109" s="2"/>
       <c r="AE109" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF109" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG109" s="1" t="s">
-        <v>2386</v>
+      <c r="AG109" s="2" t="s">
+        <v>2378</v>
       </c>
       <c r="AH109" s="1" t="s">
         <v>39</v>
@@ -50433,7 +50447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>659</v>
       </c>
@@ -50511,14 +50525,14 @@
       <c r="AC110" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD110" s="1"/>
+      <c r="AD110" s="2"/>
       <c r="AE110" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF110" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG110" s="1" t="s">
+      <c r="AG110" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH110" s="1" t="s">
@@ -50531,7 +50545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>660</v>
       </c>
@@ -50615,14 +50629,14 @@
       <c r="AC111" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD111" s="1"/>
+      <c r="AD111" s="2"/>
       <c r="AE111" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF111" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG111" s="1" t="s">
+      <c r="AG111" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH111" s="1" t="s">
@@ -50635,7 +50649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>675</v>
       </c>
@@ -50712,7 +50726,7 @@
         <v>4</v>
       </c>
       <c r="Z112" s="1" t="s">
-        <v>2498</v>
+        <v>2482</v>
       </c>
       <c r="AA112" s="1" t="s">
         <v>2362</v>
@@ -50721,18 +50735,18 @@
         <v>5</v>
       </c>
       <c r="AC112" s="1" t="s">
-        <v>2499</v>
-      </c>
-      <c r="AD112" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AD112" s="2" t="s">
         <v>2082</v>
       </c>
       <c r="AE112" s="1">
         <v>5</v>
       </c>
       <c r="AF112" s="1" t="s">
-        <v>2500</v>
-      </c>
-      <c r="AG112" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="AG112" s="2" t="s">
         <v>2082</v>
       </c>
       <c r="AH112" s="1"/>
@@ -50743,7 +50757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>677</v>
       </c>
@@ -50817,19 +50831,19 @@
         <v>5</v>
       </c>
       <c r="AC113" s="1" t="s">
-        <v>2614</v>
-      </c>
-      <c r="AD113" s="1" t="s">
-        <v>2615</v>
+        <v>2585</v>
+      </c>
+      <c r="AD113" s="2" t="s">
+        <v>2586</v>
       </c>
       <c r="AE113" s="1">
         <v>2</v>
       </c>
       <c r="AF113" s="1" t="s">
-        <v>2616</v>
-      </c>
-      <c r="AG113" s="1" t="s">
-        <v>2615</v>
+        <v>2587</v>
+      </c>
+      <c r="AG113" s="2" t="s">
+        <v>2586</v>
       </c>
       <c r="AH113" s="1"/>
       <c r="AI113" s="1" t="s">
@@ -50839,7 +50853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>686</v>
       </c>
@@ -50919,19 +50933,19 @@
         <v>5</v>
       </c>
       <c r="AC114" s="1" t="s">
-        <v>2501</v>
-      </c>
-      <c r="AD114" s="1" t="s">
-        <v>2407</v>
+        <v>2485</v>
+      </c>
+      <c r="AD114" s="2" t="s">
+        <v>2396</v>
       </c>
       <c r="AE114" s="1">
         <v>5</v>
       </c>
       <c r="AF114" s="1" t="s">
-        <v>2501</v>
-      </c>
-      <c r="AG114" s="1" t="s">
-        <v>2407</v>
+        <v>2485</v>
+      </c>
+      <c r="AG114" s="2" t="s">
+        <v>2396</v>
       </c>
       <c r="AH114" s="1"/>
       <c r="AI114" s="1" t="s">
@@ -50941,7 +50955,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>687</v>
       </c>
@@ -51023,19 +51037,19 @@
         <v>5</v>
       </c>
       <c r="AC115" s="1" t="s">
-        <v>2639</v>
-      </c>
-      <c r="AD115" s="1" t="s">
-        <v>2624</v>
+        <v>2609</v>
+      </c>
+      <c r="AD115" s="2" t="s">
+        <v>2594</v>
       </c>
       <c r="AE115" s="1">
         <v>5</v>
       </c>
       <c r="AF115" s="1" t="s">
-        <v>2640</v>
-      </c>
-      <c r="AG115" s="1" t="s">
-        <v>2624</v>
+        <v>2610</v>
+      </c>
+      <c r="AG115" s="2" t="s">
+        <v>2594</v>
       </c>
       <c r="AH115" s="1"/>
       <c r="AI115" s="1" t="s">
@@ -51045,7 +51059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>688</v>
       </c>
@@ -51131,19 +51145,19 @@
         <v>5</v>
       </c>
       <c r="AC116" s="1" t="s">
-        <v>2502</v>
-      </c>
-      <c r="AD116" s="1" t="s">
-        <v>2406</v>
+        <v>2486</v>
+      </c>
+      <c r="AD116" s="2" t="s">
+        <v>2395</v>
       </c>
       <c r="AE116" s="1">
         <v>2</v>
       </c>
       <c r="AF116" s="1" t="s">
-        <v>2503</v>
-      </c>
-      <c r="AG116" s="1" t="s">
-        <v>2406</v>
+        <v>2487</v>
+      </c>
+      <c r="AG116" s="2" t="s">
+        <v>2395</v>
       </c>
       <c r="AH116" s="1"/>
       <c r="AI116" s="1" t="s">
@@ -51153,7 +51167,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>8</v>
       </c>
@@ -51237,19 +51251,19 @@
         <v>5</v>
       </c>
       <c r="AC117" s="1" t="s">
-        <v>2408</v>
-      </c>
-      <c r="AD117" s="1" t="s">
-        <v>2409</v>
+        <v>2397</v>
+      </c>
+      <c r="AD117" s="2" t="s">
+        <v>2398</v>
       </c>
       <c r="AE117" s="1">
         <v>5</v>
       </c>
       <c r="AF117" s="1" t="s">
-        <v>2408</v>
-      </c>
-      <c r="AG117" s="1" t="s">
-        <v>2409</v>
+        <v>2397</v>
+      </c>
+      <c r="AG117" s="2" t="s">
+        <v>2398</v>
       </c>
       <c r="AH117" s="1" t="s">
         <v>39</v>
@@ -51261,7 +51275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>26</v>
       </c>
@@ -51345,14 +51359,14 @@
       <c r="AC118" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD118" s="1"/>
+      <c r="AD118" s="2"/>
       <c r="AE118" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF118" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG118" s="1" t="s">
+      <c r="AG118" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH118" s="1" t="s">
@@ -51365,7 +51379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>32</v>
       </c>
@@ -51451,14 +51465,14 @@
       <c r="AC119" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD119" s="1"/>
+      <c r="AD119" s="2"/>
       <c r="AE119" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF119" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG119" s="1" t="s">
+      <c r="AG119" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH119" s="1" t="s">
@@ -51471,7 +51485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43</v>
       </c>
@@ -51553,14 +51567,14 @@
       <c r="AC120" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD120" s="1"/>
+      <c r="AD120" s="2"/>
       <c r="AE120" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF120" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG120" s="1" t="s">
+      <c r="AG120" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH120" s="1" t="s">
@@ -51573,7 +51587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43</v>
       </c>
@@ -51655,14 +51669,14 @@
       <c r="AC121" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD121" s="1"/>
+      <c r="AD121" s="2"/>
       <c r="AE121" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF121" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG121" s="1" t="s">
+      <c r="AG121" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH121" s="1" t="s">
@@ -51675,7 +51689,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>61</v>
       </c>
@@ -51761,19 +51775,19 @@
         <v>5</v>
       </c>
       <c r="AC122" s="1" t="s">
-        <v>2504</v>
-      </c>
-      <c r="AD122" s="1" t="s">
-        <v>2410</v>
+        <v>2488</v>
+      </c>
+      <c r="AD122" s="2" t="s">
+        <v>2399</v>
       </c>
       <c r="AE122" s="1">
         <v>5</v>
       </c>
       <c r="AF122" s="1" t="s">
-        <v>2641</v>
-      </c>
-      <c r="AG122" s="1" t="s">
-        <v>2642</v>
+        <v>2611</v>
+      </c>
+      <c r="AG122" s="2" t="s">
+        <v>2612</v>
       </c>
       <c r="AH122" s="1" t="s">
         <v>39</v>
@@ -51785,7 +51799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>81</v>
       </c>
@@ -51869,19 +51883,19 @@
         <v>5</v>
       </c>
       <c r="AC123" s="1" t="s">
-        <v>2505</v>
-      </c>
-      <c r="AD123" s="1" t="s">
-        <v>2411</v>
+        <v>2489</v>
+      </c>
+      <c r="AD123" s="2" t="s">
+        <v>2798</v>
       </c>
       <c r="AE123" s="1">
         <v>5</v>
       </c>
       <c r="AF123" s="1" t="s">
-        <v>2505</v>
-      </c>
-      <c r="AG123" s="1" t="s">
-        <v>2411</v>
+        <v>2489</v>
+      </c>
+      <c r="AG123" s="2" t="s">
+        <v>2799</v>
       </c>
       <c r="AH123" s="1" t="s">
         <v>39</v>
@@ -51893,7 +51907,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>83</v>
       </c>
@@ -51971,14 +51985,14 @@
       <c r="AC124" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD124" s="1"/>
+      <c r="AD124" s="2"/>
       <c r="AE124" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF124" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG124" s="1" t="s">
+      <c r="AG124" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH124" s="1" t="s">
@@ -51991,7 +52005,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>99</v>
       </c>
@@ -52065,10 +52079,10 @@
       </c>
       <c r="AB125" s="1"/>
       <c r="AC125" s="1"/>
-      <c r="AD125" s="1"/>
+      <c r="AD125" s="2"/>
       <c r="AE125" s="1"/>
       <c r="AF125" s="1"/>
-      <c r="AG125" s="1"/>
+      <c r="AG125" s="2"/>
       <c r="AH125" s="1" t="s">
         <v>39</v>
       </c>
@@ -52079,7 +52093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>133</v>
       </c>
@@ -52161,14 +52175,14 @@
       <c r="AC126" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD126" s="1"/>
+      <c r="AD126" s="2"/>
       <c r="AE126" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF126" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG126" s="1" t="s">
+      <c r="AG126" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH126" s="1" t="s">
@@ -52181,7 +52195,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>146</v>
       </c>
@@ -52265,19 +52279,19 @@
         <v>4</v>
       </c>
       <c r="AC127" s="1" t="s">
-        <v>2412</v>
-      </c>
-      <c r="AD127" s="1" t="s">
-        <v>2413</v>
+        <v>2400</v>
+      </c>
+      <c r="AD127" s="2" t="s">
+        <v>2778</v>
       </c>
       <c r="AE127" s="1">
         <v>4</v>
       </c>
       <c r="AF127" s="1" t="s">
-        <v>2412</v>
-      </c>
-      <c r="AG127" s="1" t="s">
-        <v>2413</v>
+        <v>2400</v>
+      </c>
+      <c r="AG127" s="2" t="s">
+        <v>2778</v>
       </c>
       <c r="AH127" s="1" t="s">
         <v>39</v>
@@ -52289,7 +52303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>150</v>
       </c>
@@ -52373,8 +52387,8 @@
       <c r="AC128" s="1" t="s">
         <v>1850</v>
       </c>
-      <c r="AD128" s="1" t="s">
-        <v>2414</v>
+      <c r="AD128" s="2" t="s">
+        <v>2401</v>
       </c>
       <c r="AE128" s="1">
         <v>0</v>
@@ -52382,8 +52396,8 @@
       <c r="AF128" s="1" t="s">
         <v>1851</v>
       </c>
-      <c r="AG128" s="1" t="s">
-        <v>2562</v>
+      <c r="AG128" s="2" t="s">
+        <v>2544</v>
       </c>
       <c r="AH128" s="1" t="s">
         <v>39</v>
@@ -52395,7 +52409,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" ht="165" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>166</v>
       </c>
@@ -52481,19 +52495,19 @@
         <v>5</v>
       </c>
       <c r="AC129" s="1" t="s">
-        <v>2415</v>
-      </c>
-      <c r="AD129" s="1" t="s">
-        <v>2563</v>
+        <v>2402</v>
+      </c>
+      <c r="AD129" s="2" t="s">
+        <v>2797</v>
       </c>
       <c r="AE129" s="1">
         <v>5</v>
       </c>
       <c r="AF129" s="1" t="s">
-        <v>2436</v>
-      </c>
-      <c r="AG129" s="1" t="s">
-        <v>2563</v>
+        <v>2420</v>
+      </c>
+      <c r="AG129" s="2" t="s">
+        <v>2797</v>
       </c>
       <c r="AH129" s="1" t="s">
         <v>39</v>
@@ -52505,7 +52519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>178</v>
       </c>
@@ -52583,19 +52597,19 @@
         <v>5</v>
       </c>
       <c r="AC130" s="1" t="s">
-        <v>2416</v>
-      </c>
-      <c r="AD130" s="1" t="s">
-        <v>2564</v>
+        <v>2403</v>
+      </c>
+      <c r="AD130" s="2" t="s">
+        <v>2779</v>
       </c>
       <c r="AE130" s="1">
         <v>5</v>
       </c>
       <c r="AF130" s="1" t="s">
-        <v>2437</v>
-      </c>
-      <c r="AG130" s="1" t="s">
-        <v>2564</v>
+        <v>2421</v>
+      </c>
+      <c r="AG130" s="2" t="s">
+        <v>2779</v>
       </c>
       <c r="AH130" s="1" t="s">
         <v>39</v>
@@ -52607,7 +52621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>180</v>
       </c>
@@ -52693,19 +52707,19 @@
         <v>5</v>
       </c>
       <c r="AC131" s="1" t="s">
-        <v>2506</v>
-      </c>
-      <c r="AD131" s="1" t="s">
-        <v>2565</v>
+        <v>2490</v>
+      </c>
+      <c r="AD131" s="2" t="s">
+        <v>2780</v>
       </c>
       <c r="AE131" s="1">
         <v>5</v>
       </c>
       <c r="AF131" s="1" t="s">
-        <v>2507</v>
-      </c>
-      <c r="AG131" s="1" t="s">
-        <v>2565</v>
+        <v>2491</v>
+      </c>
+      <c r="AG131" s="2" t="s">
+        <v>2780</v>
       </c>
       <c r="AH131" s="1" t="s">
         <v>39</v>
@@ -52717,7 +52731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>180</v>
       </c>
@@ -52803,19 +52817,19 @@
         <v>5</v>
       </c>
       <c r="AC132" s="1" t="s">
-        <v>2508</v>
-      </c>
-      <c r="AD132" s="1" t="s">
-        <v>2565</v>
+        <v>2492</v>
+      </c>
+      <c r="AD132" s="2" t="s">
+        <v>2780</v>
       </c>
       <c r="AE132" s="1">
         <v>5</v>
       </c>
       <c r="AF132" s="1" t="s">
-        <v>2509</v>
-      </c>
-      <c r="AG132" s="1" t="s">
-        <v>2565</v>
+        <v>2493</v>
+      </c>
+      <c r="AG132" s="2" t="s">
+        <v>2780</v>
       </c>
       <c r="AH132" s="1" t="s">
         <v>39</v>
@@ -52827,7 +52841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>180</v>
       </c>
@@ -52911,19 +52925,19 @@
         <v>5</v>
       </c>
       <c r="AC133" s="1" t="s">
-        <v>2510</v>
-      </c>
-      <c r="AD133" s="1" t="s">
-        <v>2565</v>
+        <v>2494</v>
+      </c>
+      <c r="AD133" s="2" t="s">
+        <v>2780</v>
       </c>
       <c r="AE133" s="1">
         <v>5</v>
       </c>
       <c r="AF133" s="1" t="s">
-        <v>2511</v>
-      </c>
-      <c r="AG133" s="1" t="s">
-        <v>2565</v>
+        <v>2495</v>
+      </c>
+      <c r="AG133" s="2" t="s">
+        <v>2780</v>
       </c>
       <c r="AH133" s="1" t="s">
         <v>39</v>
@@ -52935,7 +52949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>193</v>
       </c>
@@ -53019,19 +53033,19 @@
         <v>4</v>
       </c>
       <c r="AC134" s="1" t="s">
-        <v>2417</v>
-      </c>
-      <c r="AD134" s="1" t="s">
-        <v>2418</v>
+        <v>2404</v>
+      </c>
+      <c r="AD134" s="2" t="s">
+        <v>2405</v>
       </c>
       <c r="AE134" s="1">
         <v>0</v>
       </c>
       <c r="AF134" s="1" t="s">
-        <v>2438</v>
-      </c>
-      <c r="AG134" s="1" t="s">
-        <v>2418</v>
+        <v>2422</v>
+      </c>
+      <c r="AG134" s="2" t="s">
+        <v>2405</v>
       </c>
       <c r="AH134" s="1" t="s">
         <v>39</v>
@@ -53043,7 +53057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>236</v>
       </c>
@@ -53125,19 +53139,19 @@
         <v>5</v>
       </c>
       <c r="AC135" s="1" t="s">
-        <v>2586</v>
-      </c>
-      <c r="AD135" s="1" t="s">
-        <v>2609</v>
+        <v>2561</v>
+      </c>
+      <c r="AD135" s="2" t="s">
+        <v>2581</v>
       </c>
       <c r="AE135" s="1">
         <v>3</v>
       </c>
       <c r="AF135" s="1" t="s">
-        <v>2636</v>
-      </c>
-      <c r="AG135" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
+      </c>
+      <c r="AG135" s="2" t="s">
+        <v>2581</v>
       </c>
       <c r="AH135" s="1" t="s">
         <v>39</v>
@@ -53149,7 +53163,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>248</v>
       </c>
@@ -53227,14 +53241,14 @@
       <c r="AC136" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD136" s="1"/>
+      <c r="AD136" s="2"/>
       <c r="AE136" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF136" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG136" s="1" t="s">
+      <c r="AG136" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH136" s="1" t="s">
@@ -53247,7 +53261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>262</v>
       </c>
@@ -53331,19 +53345,19 @@
         <v>5</v>
       </c>
       <c r="AC137" s="1" t="s">
-        <v>2419</v>
-      </c>
-      <c r="AD137" s="1" t="s">
-        <v>2420</v>
+        <v>2406</v>
+      </c>
+      <c r="AD137" s="2" t="s">
+        <v>2407</v>
       </c>
       <c r="AE137" s="1">
         <v>5</v>
       </c>
       <c r="AF137" s="1" t="s">
-        <v>2512</v>
-      </c>
-      <c r="AG137" s="1" t="s">
-        <v>2420</v>
+        <v>2496</v>
+      </c>
+      <c r="AG137" s="2" t="s">
+        <v>2407</v>
       </c>
       <c r="AH137" s="1" t="s">
         <v>39</v>
@@ -53355,7 +53369,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>291</v>
       </c>
@@ -53439,19 +53453,19 @@
         <v>5</v>
       </c>
       <c r="AC138" s="1" t="s">
-        <v>2513</v>
-      </c>
-      <c r="AD138" s="1" t="s">
-        <v>2566</v>
+        <v>2497</v>
+      </c>
+      <c r="AD138" s="2" t="s">
+        <v>2803</v>
       </c>
       <c r="AE138" s="1">
         <v>3</v>
       </c>
       <c r="AF138" s="1" t="s">
-        <v>2514</v>
-      </c>
-      <c r="AG138" s="1" t="s">
-        <v>2566</v>
+        <v>2498</v>
+      </c>
+      <c r="AG138" s="2" t="s">
+        <v>2803</v>
       </c>
       <c r="AH138" s="1" t="s">
         <v>39</v>
@@ -53463,7 +53477,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>302</v>
       </c>
@@ -53547,19 +53561,19 @@
         <v>5</v>
       </c>
       <c r="AC139" s="1" t="s">
-        <v>2515</v>
-      </c>
-      <c r="AD139" s="1" t="s">
-        <v>2567</v>
+        <v>2499</v>
+      </c>
+      <c r="AD139" s="2" t="s">
+        <v>2781</v>
       </c>
       <c r="AE139" s="1">
         <v>5</v>
       </c>
       <c r="AF139" s="1" t="s">
-        <v>2516</v>
-      </c>
-      <c r="AG139" s="1" t="s">
-        <v>2567</v>
+        <v>2500</v>
+      </c>
+      <c r="AG139" s="2" t="s">
+        <v>2781</v>
       </c>
       <c r="AH139" s="1" t="s">
         <v>39</v>
@@ -53571,7 +53585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>303</v>
       </c>
@@ -53653,14 +53667,14 @@
       <c r="AC140" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD140" s="1"/>
+      <c r="AD140" s="2"/>
       <c r="AE140" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF140" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG140" s="1" t="s">
+      <c r="AG140" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH140" s="1" t="s">
@@ -53673,7 +53687,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>324</v>
       </c>
@@ -53757,14 +53771,14 @@
       <c r="AC141" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD141" s="1"/>
+      <c r="AD141" s="2"/>
       <c r="AE141" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF141" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG141" s="1" t="s">
+      <c r="AG141" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH141" s="1" t="s">
@@ -53777,7 +53791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>327</v>
       </c>
@@ -53855,19 +53869,19 @@
         <v>5</v>
       </c>
       <c r="AC142" s="1" t="s">
-        <v>2598</v>
-      </c>
-      <c r="AD142" s="1" t="s">
-        <v>2599</v>
+        <v>2572</v>
+      </c>
+      <c r="AD142" s="2" t="s">
+        <v>2794</v>
       </c>
       <c r="AE142" s="1">
         <v>5</v>
       </c>
       <c r="AF142" s="1" t="s">
-        <v>2600</v>
-      </c>
-      <c r="AG142" s="1" t="s">
-        <v>2599</v>
+        <v>2573</v>
+      </c>
+      <c r="AG142" s="2" t="s">
+        <v>2794</v>
       </c>
       <c r="AH142" s="1" t="s">
         <v>39</v>
@@ -53879,7 +53893,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>338</v>
       </c>
@@ -53957,19 +53971,19 @@
         <v>5</v>
       </c>
       <c r="AC143" s="1" t="s">
-        <v>2587</v>
-      </c>
-      <c r="AD143" s="1" t="s">
-        <v>2588</v>
+        <v>2562</v>
+      </c>
+      <c r="AD143" s="2" t="s">
+        <v>2782</v>
       </c>
       <c r="AE143" s="1">
         <v>3</v>
       </c>
       <c r="AF143" s="1" t="s">
-        <v>2589</v>
-      </c>
-      <c r="AG143" s="1" t="s">
-        <v>2588</v>
+        <v>2563</v>
+      </c>
+      <c r="AG143" s="2" t="s">
+        <v>2782</v>
       </c>
       <c r="AH143" s="1" t="s">
         <v>39</v>
@@ -53981,7 +53995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>342</v>
       </c>
@@ -54067,14 +54081,14 @@
       <c r="AC144" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD144" s="1"/>
+      <c r="AD144" s="2"/>
       <c r="AE144" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF144" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG144" s="1" t="s">
+      <c r="AG144" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH144" s="1" t="s">
@@ -54087,7 +54101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>347</v>
       </c>
@@ -54159,14 +54173,14 @@
       <c r="AC145" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD145" s="1"/>
+      <c r="AD145" s="2"/>
       <c r="AE145" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF145" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG145" s="1" t="s">
+      <c r="AG145" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH145" s="1" t="s">
@@ -54179,7 +54193,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="146" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>348</v>
       </c>
@@ -54263,14 +54277,14 @@
       <c r="AC146" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD146" s="1"/>
+      <c r="AD146" s="2"/>
       <c r="AE146" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF146" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG146" s="1" t="s">
+      <c r="AG146" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH146" s="1" t="s">
@@ -54283,7 +54297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>349</v>
       </c>
@@ -54369,14 +54383,14 @@
       <c r="AC147" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD147" s="1"/>
+      <c r="AD147" s="2"/>
       <c r="AE147" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF147" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG147" s="1" t="s">
+      <c r="AG147" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH147" s="1" t="s">
@@ -54389,7 +54403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>363</v>
       </c>
@@ -54475,7 +54489,7 @@
       <c r="AC148" s="1" t="s">
         <v>1909</v>
       </c>
-      <c r="AD148" s="1" t="s">
+      <c r="AD148" s="2" t="s">
         <v>1909</v>
       </c>
       <c r="AE148" s="1">
@@ -54484,7 +54498,7 @@
       <c r="AF148" s="1" t="s">
         <v>1909</v>
       </c>
-      <c r="AG148" s="1" t="s">
+      <c r="AG148" s="2" t="s">
         <v>1909</v>
       </c>
       <c r="AH148" s="1" t="s">
@@ -54497,7 +54511,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>376</v>
       </c>
@@ -54581,14 +54595,14 @@
       <c r="AC149" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD149" s="1"/>
+      <c r="AD149" s="2"/>
       <c r="AE149" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF149" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG149" s="1" t="s">
+      <c r="AG149" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH149" s="1" t="s">
@@ -54601,7 +54615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>378</v>
       </c>
@@ -54685,19 +54699,19 @@
         <v>5</v>
       </c>
       <c r="AC150" s="1" t="s">
-        <v>2590</v>
-      </c>
-      <c r="AD150" s="1" t="s">
-        <v>2629</v>
+        <v>2564</v>
+      </c>
+      <c r="AD150" s="2" t="s">
+        <v>2599</v>
       </c>
       <c r="AE150" s="1">
         <v>3</v>
       </c>
       <c r="AF150" s="1" t="s">
-        <v>2591</v>
-      </c>
-      <c r="AG150" s="1" t="s">
-        <v>2629</v>
+        <v>2565</v>
+      </c>
+      <c r="AG150" s="2" t="s">
+        <v>2599</v>
       </c>
       <c r="AH150" s="1" t="s">
         <v>39</v>
@@ -54709,7 +54723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>381</v>
       </c>
@@ -54787,19 +54801,19 @@
         <v>5</v>
       </c>
       <c r="AC151" s="1" t="s">
-        <v>2517</v>
-      </c>
-      <c r="AD151" s="1" t="s">
-        <v>2421</v>
+        <v>2501</v>
+      </c>
+      <c r="AD151" s="2" t="s">
+        <v>2408</v>
       </c>
       <c r="AE151" s="1">
         <v>5</v>
       </c>
       <c r="AF151" s="1" t="s">
-        <v>2518</v>
-      </c>
-      <c r="AG151" s="1" t="s">
-        <v>2421</v>
+        <v>2502</v>
+      </c>
+      <c r="AG151" s="2" t="s">
+        <v>2408</v>
       </c>
       <c r="AH151" s="1" t="s">
         <v>39</v>
@@ -54811,7 +54825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>384</v>
       </c>
@@ -54895,19 +54909,19 @@
         <v>5</v>
       </c>
       <c r="AC152" s="1" t="s">
-        <v>2423</v>
-      </c>
-      <c r="AD152" s="1" t="s">
-        <v>2424</v>
+        <v>2410</v>
+      </c>
+      <c r="AD152" s="2" t="s">
+        <v>2411</v>
       </c>
       <c r="AE152" s="1">
         <v>5</v>
       </c>
       <c r="AF152" s="1" t="s">
-        <v>2439</v>
-      </c>
-      <c r="AG152" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
+      </c>
+      <c r="AG152" s="2" t="s">
+        <v>2411</v>
       </c>
       <c r="AH152" s="1" t="s">
         <v>39</v>
@@ -54919,7 +54933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>400</v>
       </c>
@@ -55001,19 +55015,19 @@
         <v>5</v>
       </c>
       <c r="AC153" s="1" t="s">
-        <v>2519</v>
-      </c>
-      <c r="AD153" s="1" t="s">
-        <v>2568</v>
+        <v>2503</v>
+      </c>
+      <c r="AD153" s="2" t="s">
+        <v>2545</v>
       </c>
       <c r="AE153" s="1">
         <v>3</v>
       </c>
       <c r="AF153" s="1" t="s">
-        <v>2520</v>
-      </c>
-      <c r="AG153" s="1" t="s">
-        <v>2568</v>
+        <v>2504</v>
+      </c>
+      <c r="AG153" s="2" t="s">
+        <v>2545</v>
       </c>
       <c r="AH153" s="1" t="s">
         <v>39</v>
@@ -55025,7 +55039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>408</v>
       </c>
@@ -55111,14 +55125,14 @@
       <c r="AC154" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD154" s="1"/>
+      <c r="AD154" s="2"/>
       <c r="AE154" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF154" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG154" s="1" t="s">
+      <c r="AG154" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH154" s="1" t="s">
@@ -55131,7 +55145,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>412</v>
       </c>
@@ -55213,19 +55227,19 @@
         <v>5</v>
       </c>
       <c r="AC155" s="1" t="s">
-        <v>2601</v>
-      </c>
-      <c r="AD155" s="1" t="s">
-        <v>2569</v>
+        <v>2574</v>
+      </c>
+      <c r="AD155" s="2" t="s">
+        <v>2546</v>
       </c>
       <c r="AE155" s="1">
         <v>3</v>
       </c>
       <c r="AF155" s="1" t="s">
-        <v>2521</v>
-      </c>
-      <c r="AG155" s="1" t="s">
-        <v>2569</v>
+        <v>2505</v>
+      </c>
+      <c r="AG155" s="2" t="s">
+        <v>2546</v>
       </c>
       <c r="AH155" s="1" t="s">
         <v>39</v>
@@ -55237,7 +55251,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>430</v>
       </c>
@@ -55315,19 +55329,19 @@
         <v>5</v>
       </c>
       <c r="AC156" s="1" t="s">
-        <v>2522</v>
-      </c>
-      <c r="AD156" s="1" t="s">
-        <v>2422</v>
+        <v>2506</v>
+      </c>
+      <c r="AD156" s="2" t="s">
+        <v>2409</v>
       </c>
       <c r="AE156" s="1">
         <v>5</v>
       </c>
       <c r="AF156" s="1" t="s">
-        <v>2523</v>
-      </c>
-      <c r="AG156" s="1" t="s">
-        <v>2422</v>
+        <v>2507</v>
+      </c>
+      <c r="AG156" s="2" t="s">
+        <v>2409</v>
       </c>
       <c r="AH156" s="1" t="s">
         <v>39</v>
@@ -55339,7 +55353,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>433</v>
       </c>
@@ -55421,19 +55435,19 @@
         <v>5</v>
       </c>
       <c r="AC157" s="1" t="s">
-        <v>2539</v>
-      </c>
-      <c r="AD157" s="1" t="s">
-        <v>2610</v>
+        <v>2523</v>
+      </c>
+      <c r="AD157" s="2" t="s">
+        <v>2783</v>
       </c>
       <c r="AE157" s="1">
         <v>3</v>
       </c>
       <c r="AF157" s="1" t="s">
-        <v>2524</v>
-      </c>
-      <c r="AG157" s="1" t="s">
-        <v>2610</v>
+        <v>2508</v>
+      </c>
+      <c r="AG157" s="2" t="s">
+        <v>2783</v>
       </c>
       <c r="AH157" s="1" t="s">
         <v>39</v>
@@ -55445,7 +55459,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:36" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>438</v>
       </c>
@@ -55533,17 +55547,17 @@
       <c r="AC158" s="1" t="s">
         <v>1936</v>
       </c>
-      <c r="AD158" s="1" t="s">
-        <v>2575</v>
+      <c r="AD158" s="2" t="s">
+        <v>2796</v>
       </c>
       <c r="AE158" s="1">
         <v>5</v>
       </c>
       <c r="AF158" s="1" t="s">
-        <v>2525</v>
-      </c>
-      <c r="AG158" s="1" t="s">
-        <v>2570</v>
+        <v>2509</v>
+      </c>
+      <c r="AG158" s="2" t="s">
+        <v>2795</v>
       </c>
       <c r="AH158" s="1" t="s">
         <v>39</v>
@@ -55555,7 +55569,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>441</v>
       </c>
@@ -55613,25 +55627,25 @@
         <v>5</v>
       </c>
       <c r="AC159" s="1" t="s">
-        <v>2617</v>
-      </c>
-      <c r="AD159" s="1" t="s">
-        <v>2618</v>
+        <v>2588</v>
+      </c>
+      <c r="AD159" s="2" t="s">
+        <v>2589</v>
       </c>
       <c r="AE159" s="1">
         <v>5</v>
       </c>
       <c r="AF159" s="1" t="s">
-        <v>2619</v>
-      </c>
-      <c r="AG159" s="1" t="s">
-        <v>2618</v>
+        <v>2590</v>
+      </c>
+      <c r="AG159" s="2" t="s">
+        <v>2589</v>
       </c>
       <c r="AH159" s="1"/>
       <c r="AI159" s="1"/>
       <c r="AJ159" s="1"/>
     </row>
-    <row r="160" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>452</v>
       </c>
@@ -55717,15 +55731,15 @@
       <c r="AC160" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD160" s="1"/>
+      <c r="AD160" s="2"/>
       <c r="AE160" s="1">
         <v>5</v>
       </c>
       <c r="AF160" s="1" t="s">
-        <v>2526</v>
-      </c>
-      <c r="AG160" s="1" t="s">
-        <v>2620</v>
+        <v>2510</v>
+      </c>
+      <c r="AG160" s="2" t="s">
+        <v>2591</v>
       </c>
       <c r="AH160" s="1" t="s">
         <v>39</v>
@@ -55737,7 +55751,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>497</v>
       </c>
@@ -55819,8 +55833,8 @@
       <c r="AC161" s="1" t="s">
         <v>1941</v>
       </c>
-      <c r="AD161" s="1" t="s">
-        <v>2425</v>
+      <c r="AD161" s="2" t="s">
+        <v>2412</v>
       </c>
       <c r="AE161" s="1">
         <v>5</v>
@@ -55828,8 +55842,8 @@
       <c r="AF161" s="1" t="s">
         <v>1942</v>
       </c>
-      <c r="AG161" s="1" t="s">
-        <v>2571</v>
+      <c r="AG161" s="2" t="s">
+        <v>2547</v>
       </c>
       <c r="AH161" s="1" t="s">
         <v>39</v>
@@ -55841,7 +55855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>498</v>
       </c>
@@ -55925,19 +55939,19 @@
         <v>5</v>
       </c>
       <c r="AC162" s="1" t="s">
-        <v>2527</v>
-      </c>
-      <c r="AD162" s="1" t="s">
-        <v>2426</v>
+        <v>2511</v>
+      </c>
+      <c r="AD162" s="2" t="s">
+        <v>2413</v>
       </c>
       <c r="AE162" s="1">
         <v>5</v>
       </c>
       <c r="AF162" s="1" t="s">
-        <v>2528</v>
-      </c>
-      <c r="AG162" s="1" t="s">
-        <v>2426</v>
+        <v>2512</v>
+      </c>
+      <c r="AG162" s="2" t="s">
+        <v>2413</v>
       </c>
       <c r="AH162" s="1" t="s">
         <v>39</v>
@@ -55949,7 +55963,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>517</v>
       </c>
@@ -56035,19 +56049,19 @@
         <v>5</v>
       </c>
       <c r="AC163" s="1" t="s">
-        <v>2529</v>
-      </c>
-      <c r="AD163" s="1" t="s">
-        <v>2427</v>
+        <v>2513</v>
+      </c>
+      <c r="AD163" s="2" t="s">
+        <v>2784</v>
       </c>
       <c r="AE163" s="1">
         <v>3</v>
       </c>
       <c r="AF163" s="1" t="s">
-        <v>2530</v>
-      </c>
-      <c r="AG163" s="1" t="s">
-        <v>2427</v>
+        <v>2514</v>
+      </c>
+      <c r="AG163" s="2" t="s">
+        <v>2784</v>
       </c>
       <c r="AH163" s="1" t="s">
         <v>39</v>
@@ -56059,7 +56073,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>545</v>
       </c>
@@ -56143,15 +56157,15 @@
       <c r="AC164" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD164" s="1"/>
+      <c r="AD164" s="2"/>
       <c r="AE164" s="1">
         <v>5</v>
       </c>
       <c r="AF164" s="1" t="s">
-        <v>2597</v>
-      </c>
-      <c r="AG164" s="1" t="s">
-        <v>2593</v>
+        <v>2571</v>
+      </c>
+      <c r="AG164" s="2" t="s">
+        <v>2567</v>
       </c>
       <c r="AH164" s="1" t="s">
         <v>39</v>
@@ -56163,7 +56177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>574</v>
       </c>
@@ -56247,14 +56261,14 @@
       <c r="AC165" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD165" s="1"/>
+      <c r="AD165" s="2"/>
       <c r="AE165" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF165" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG165" s="1" t="s">
+      <c r="AG165" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH165" s="1" t="s">
@@ -56267,7 +56281,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>590</v>
       </c>
@@ -56349,19 +56363,19 @@
         <v>5</v>
       </c>
       <c r="AC166" s="1" t="s">
-        <v>2428</v>
-      </c>
-      <c r="AD166" s="1" t="s">
-        <v>2429</v>
+        <v>2414</v>
+      </c>
+      <c r="AD166" s="2" t="s">
+        <v>2785</v>
       </c>
       <c r="AE166" s="1">
         <v>5</v>
       </c>
       <c r="AF166" s="1" t="s">
-        <v>2428</v>
-      </c>
-      <c r="AG166" s="1" t="s">
-        <v>2429</v>
+        <v>2414</v>
+      </c>
+      <c r="AG166" s="2" t="s">
+        <v>2785</v>
       </c>
       <c r="AH166" s="1" t="s">
         <v>39</v>
@@ -56373,7 +56387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>626</v>
       </c>
@@ -56455,14 +56469,14 @@
       <c r="AC167" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD167" s="1"/>
+      <c r="AD167" s="2"/>
       <c r="AE167" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF167" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG167" s="1" t="s">
+      <c r="AG167" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH167" s="1" t="s">
@@ -56475,7 +56489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>628</v>
       </c>
@@ -56563,17 +56577,17 @@
       <c r="AC168" s="1" t="s">
         <v>1955</v>
       </c>
-      <c r="AD168" s="1" t="s">
-        <v>2430</v>
+      <c r="AD168" s="2" t="s">
+        <v>2415</v>
       </c>
       <c r="AE168" s="1">
         <v>3</v>
       </c>
       <c r="AF168" s="1" t="s">
-        <v>2531</v>
-      </c>
-      <c r="AG168" s="1" t="s">
-        <v>2572</v>
+        <v>2515</v>
+      </c>
+      <c r="AG168" s="2" t="s">
+        <v>2548</v>
       </c>
       <c r="AH168" s="1" t="s">
         <v>39</v>
@@ -56585,7 +56599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>640</v>
       </c>
@@ -56669,19 +56683,19 @@
         <v>5</v>
       </c>
       <c r="AC169" s="1" t="s">
-        <v>2594</v>
-      </c>
-      <c r="AD169" s="1" t="s">
-        <v>2596</v>
+        <v>2568</v>
+      </c>
+      <c r="AD169" s="2" t="s">
+        <v>2570</v>
       </c>
       <c r="AE169" s="1">
         <v>3</v>
       </c>
       <c r="AF169" s="1" t="s">
-        <v>2595</v>
-      </c>
-      <c r="AG169" s="1" t="s">
-        <v>2596</v>
+        <v>2569</v>
+      </c>
+      <c r="AG169" s="2" t="s">
+        <v>2570</v>
       </c>
       <c r="AH169" s="1" t="s">
         <v>39</v>
@@ -56693,7 +56707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>672</v>
       </c>
@@ -56777,19 +56791,19 @@
         <v>5</v>
       </c>
       <c r="AC170" s="1" t="s">
-        <v>2532</v>
-      </c>
-      <c r="AD170" s="1" t="s">
-        <v>2431</v>
+        <v>2516</v>
+      </c>
+      <c r="AD170" s="2" t="s">
+        <v>2786</v>
       </c>
       <c r="AE170" s="1">
         <v>5</v>
       </c>
       <c r="AF170" s="1" t="s">
-        <v>2533</v>
-      </c>
-      <c r="AG170" s="1" t="s">
-        <v>2431</v>
+        <v>2517</v>
+      </c>
+      <c r="AG170" s="2" t="s">
+        <v>2786</v>
       </c>
       <c r="AH170" s="1" t="s">
         <v>39</v>
@@ -56801,7 +56815,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>678</v>
       </c>
@@ -56883,19 +56897,19 @@
         <v>5</v>
       </c>
       <c r="AC171" s="1" t="s">
-        <v>2540</v>
-      </c>
-      <c r="AD171" s="1" t="s">
-        <v>2573</v>
+        <v>2524</v>
+      </c>
+      <c r="AD171" s="2" t="s">
+        <v>2549</v>
       </c>
       <c r="AE171" s="1">
         <v>2</v>
       </c>
       <c r="AF171" s="1" t="s">
-        <v>2541</v>
-      </c>
-      <c r="AG171" s="1" t="s">
-        <v>2573</v>
+        <v>2525</v>
+      </c>
+      <c r="AG171" s="2" t="s">
+        <v>2549</v>
       </c>
       <c r="AH171" s="1" t="s">
         <v>39</v>
@@ -56907,7 +56921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>684</v>
       </c>
@@ -56993,14 +57007,14 @@
       <c r="AC172" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD172" s="1"/>
+      <c r="AD172" s="2"/>
       <c r="AE172" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF172" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG172" s="1" t="s">
+      <c r="AG172" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH172" s="1" t="s">
@@ -57013,7 +57027,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>685</v>
       </c>
@@ -57099,14 +57113,14 @@
       <c r="AC173" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD173" s="1"/>
+      <c r="AD173" s="2"/>
       <c r="AE173" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF173" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG173" s="1" t="s">
+      <c r="AG173" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH173" s="1" t="s">
@@ -57119,7 +57133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>689</v>
       </c>
@@ -57205,14 +57219,14 @@
       <c r="AC174" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD174" s="1"/>
+      <c r="AD174" s="2"/>
       <c r="AE174" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF174" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG174" s="1" t="s">
+      <c r="AG174" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AH174" s="1" t="s">
@@ -57271,7 +57285,7 @@
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2685</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57296,81 +57310,81 @@
     </row>
     <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2765</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2766</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>2767</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>2118</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>2684</v>
+      <c r="A14" s="8" t="s">
+        <v>2654</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>2157</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>2175</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>2327</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>2185</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>2241</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>2323</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>2326</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>2359</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>2576</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>2577</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCE4835-CD86-4A01-BBBF-6B671CEF1D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C08F2F6-93F0-4BA5-AC3C-26EF7A867D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1425" yWindow="1425" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39135,7 +39135,7 @@
   <dimension ref="A1:AJ174"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC2" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C08F2F6-93F0-4BA5-AC3C-26EF7A867D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9AB88F-E569-4DE1-9CBA-531448373247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1425" yWindow="1425" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9923" uniqueCount="2805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9923" uniqueCount="2800">
   <si>
     <t>id</t>
   </si>
@@ -7692,9 +7692,6 @@
     <t>CFA, EFA: religion/moral; legal/punishment; personality; subjective norms; cost of compliance; technology awareness; general information security; general information policy; information security compliance behavior</t>
   </si>
   <si>
-    <t>religion/moral; legal/punishment; personality; subjective norms; cost of compliance; technology awareness; general information security; general information policy; information security compliance behavior</t>
-  </si>
-  <si>
     <t>Fornell-Larcker (Table 2): satisfaction with ISP and security practices; perceived usefulness of ISP; technology security awareness</t>
   </si>
   <si>
@@ -7801,6 +7798,9 @@
   </si>
   <si>
     <t>PCA (factor loadings &gt; 0.6): perceived severity; perceived vulnerability; response efficacy; rewards; perceived anonymity of self; perceived anonymity of others; perceived intrusiveness</t>
+  </si>
+  <si>
+    <t>perceived severity; perceived vulnerability; response efficacy; rewards; perceived anonymity of self; perceived anonymity of others; perceived intrusiveness</t>
   </si>
   <si>
     <t>mobile phishing avoidance behavior; mobile phishing avoidance motivation; anticipated regret; gender</t>
@@ -8163,9 +8163,6 @@
   </si>
   <si>
     <t>perceived vulnerability; perceived severity; fear arousal; response efficacy; response cost; subjective norms; behavioral compliance intention</t>
-  </si>
-  <si>
-    <t>actual compliance; compliance intention; attitude; normative beliefs; rewards; perceived severity; perceived vulnerability; response efficacy</t>
   </si>
   <si>
     <t>compliance knowledge of security policies; perceived vulnerability in security; attitudes towards security compliance; compliance intention regarding security policy</t>
@@ -8295,9 +8292,6 @@
     <t>EFA (loadings) (Table 2): behavior; perceived susceptibility; perceived severity; perceived benefits; perceived barriers; cues to action; general security orientation; technical controls; security familiarity</t>
   </si>
   <si>
-    <t>behavior; perceived susceptibility; perceived severity; perceived benefits; perceived barriers; cues to action; general security orientation; technical controls; security familiarity</t>
-  </si>
-  <si>
     <t>AVE &gt; construct’s highest squared correlation (Table 6); cross-item-loadings &gt; 0.7 (Appendix C): behavior; perceived susceptibility; perceived severity; perceived benefits; perceived barriers</t>
   </si>
   <si>
@@ -8370,9 +8364,6 @@
     <t>perceived usefulness; perceived threat; perceived expense; impact on the system performance; perceived barriers; perceived value; information security awareness; bring your own device information security protect intention</t>
   </si>
   <si>
-    <t>flow (challenge, feedback, autonomy, immmersion, social interaction); psychological ownership; security education, training, and awareness effectiveness; security compliance; education; gender; computer hours; tenure</t>
-  </si>
-  <si>
     <t>Comparison of AVE, Maximum Shared Squared Variance and Average Shared Variance both &lt; AVE (Table 5): behavioral intent; perceived subjective norms; organizational commitment; attitude; perceived behavioral control; perceived controllability; perceived sanction severity; perceived sanction probability; cost-benefit analysis; perceived vulnerability; perceived threat severity; perceived response efficacy</t>
   </si>
   <si>
@@ -8902,9 +8893,6 @@
     <t>threat awareness; countermeasure awareness; perceived severity; perceived vulnerability; response efficacy; response cost; desktop security behavior</t>
   </si>
   <si>
-    <t>perceived susceptibility; barriers; benefits; commitment; perceived severity; awareness; intention continuance; cues to action</t>
-  </si>
-  <si>
     <t>perceived severity; perceived vulnerability; response efficacy; response cost</t>
   </si>
   <si>
@@ -8926,9 +8914,6 @@
     <t>transformational leadership; information security culture; general information security awareness; information security policy awareness; attitude; normative beliefs; intention to resist social engineering</t>
   </si>
   <si>
-    <t>perceived severity; perceived vulnerability; response efficacy; perceived rewards; perceived anonymity of self; perceived anonymity of others; perceived intrusiveness</t>
-  </si>
-  <si>
     <t>security awareness; security system satisfaction; perceived severity; perceived vulnerability; response efficacy; induction control intention; self defense intention</t>
   </si>
   <si>
@@ -8968,22 +8953,22 @@
     <t>privacy settings use; perceived risk; perceived effectiveness; privacy valuation</t>
   </si>
   <si>
-    <t>privacy settings use; preceived risk; perceived effectiveness; privacy valuation</t>
-  </si>
-  <si>
     <t>privacy concerns; computer anxiety; ethics; perceived trust; risk-taking</t>
   </si>
   <si>
     <t>perceived detector effort requirement; perceived loss due to detector error; perceived detector usefulness; perceived trust; perceived threat severity; perceived threat susceptibility</t>
   </si>
   <si>
-    <t>perceived detector effort requirement; perceived loss due to detector error; perceived detector usefulness; perceived trust; perceived threat severity; perceivded threat susceptibility</t>
-  </si>
-  <si>
     <t>perceived vulnerability; perceived severity; perceived risk; perceived trust; response efficacy; response cost; injunctive norms; descriptive norms; locus of control; protection motivation</t>
   </si>
   <si>
     <t>information security policy compliance intention; general information security awareness; information security policy awareness; attitude; normative beliefs; perceived cost of compliance; work impediment; intrinsic benefit; intrinsic cost; rewards; safety of resources; perceived benefits of compliance; sanctions; perceived vulnerability of resources; perceived cost of non-compliance</t>
+  </si>
+  <si>
+    <t>compliance; compliance intention; attitude; normative beliefs; rewards; perceived severity; perceived vulnerability; response efficacy</t>
+  </si>
+  <si>
+    <t>flow (challenge, feedback, autonomy, immmersion, social interaction); psychological ownership; security education, training, and awareness effectiveness; security compliance intention; education; gender; computer hours; tenure</t>
   </si>
 </sst>
 </file>
@@ -11358,13 +11343,13 @@
         <v>2087</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>2656</v>
+        <v>2653</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>2699</v>
+        <v>2696</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>28</v>
@@ -11376,7 +11361,7 @@
         <v>2117</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>2642</v>
+        <v>2639</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>30</v>
@@ -11623,7 +11608,7 @@
         <v>55</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>2639</v>
+        <v>2636</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
@@ -11668,13 +11653,13 @@
         <v>1</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>2657</v>
+        <v>2654</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>2658</v>
+        <v>2655</v>
       </c>
       <c r="AH3" s="1">
         <v>1</v>
@@ -11689,7 +11674,7 @@
         <v>57</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="AM3" s="1">
         <v>1</v>
@@ -11841,13 +11826,13 @@
         <v>1</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>2620</v>
+        <v>2617</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -11978,13 +11963,13 @@
         <v>1</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>2626</v>
+        <v>2623</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>2626</v>
+        <v>2623</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="AH5" s="1">
         <v>0</v>
@@ -11999,7 +11984,7 @@
         <v>2120</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -12151,7 +12136,7 @@
         <v>936</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -12303,7 +12288,7 @@
         <v>936</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -12434,7 +12419,7 @@
         <v>2108</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
       <c r="AH8" s="1">
         <v>0</v>
@@ -12443,13 +12428,13 @@
         <v>1</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="AK8" s="2" t="s">
         <v>936</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -12747,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="AK10" s="2" t="s">
         <v>2121</v>
@@ -12899,13 +12884,13 @@
         <v>1</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
       <c r="AK11" s="2" t="s">
         <v>2124</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>2645</v>
+        <v>2642</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -13489,10 +13474,10 @@
         <v>176</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>2700</v>
+        <v>2697</v>
       </c>
       <c r="AH15" s="1">
         <v>0</v>
@@ -13659,7 +13644,7 @@
         <v>187</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM16" s="1">
         <v>0</v>
@@ -13790,13 +13775,13 @@
         <v>1</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>2662</v>
+        <v>2659</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>2627</v>
+        <v>2624</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>2663</v>
+        <v>2660</v>
       </c>
       <c r="AH17" s="1">
         <v>0</v>
@@ -13948,10 +13933,10 @@
         <v>208</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>2701</v>
+        <v>2698</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -13966,7 +13951,7 @@
         <v>2127</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>2646</v>
+        <v>2643</v>
       </c>
       <c r="AM18" s="1">
         <v>0</v>
@@ -14091,7 +14076,7 @@
         <v>219</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="AC19" s="1">
         <v>0</v>
@@ -14255,10 +14240,10 @@
         <v>228</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>2702</v>
+        <v>2699</v>
       </c>
       <c r="AH20" s="1">
         <v>0</v>
@@ -14404,16 +14389,16 @@
         <v>1</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="AE21" s="1" t="s">
         <v>2089</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>2664</v>
+        <v>2661</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>2703</v>
+        <v>2700</v>
       </c>
       <c r="AH21" s="1">
         <v>0</v>
@@ -14574,7 +14559,7 @@
         <v>2128</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -14720,13 +14705,13 @@
         <v>1</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="AK23" s="2" t="s">
         <v>936</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM23" s="1">
         <v>0</v>
@@ -14878,7 +14863,7 @@
         <v>2119</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -15021,7 +15006,7 @@
         <v>2129</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>2647</v>
+        <v>2644</v>
       </c>
       <c r="AM25" s="1">
         <v>0</v>
@@ -15173,7 +15158,7 @@
         <v>282</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>2648</v>
+        <v>2645</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -15462,7 +15447,7 @@
         <v>2125</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -15742,7 +15727,7 @@
         <v>2094</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="AH30" s="1">
         <v>0</v>
@@ -15757,7 +15742,7 @@
         <v>2123</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -15894,7 +15879,7 @@
         <v>329</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
       <c r="AH31" s="1">
         <v>0</v>
@@ -15909,7 +15894,7 @@
         <v>2131</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>2649</v>
+        <v>2646</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -16058,7 +16043,7 @@
         <v>2123</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -16201,7 +16186,7 @@
         <v>2132</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -16338,10 +16323,10 @@
         <v>2090</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>2665</v>
+        <v>2662</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>2704</v>
+        <v>2701</v>
       </c>
       <c r="AH34" s="1">
         <v>1</v>
@@ -16511,7 +16496,7 @@
         <v>2095</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -16657,13 +16642,13 @@
         <v>1</v>
       </c>
       <c r="AJ36" s="2" t="s">
-        <v>2618</v>
+        <v>2615</v>
       </c>
       <c r="AK36" s="2" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
@@ -16815,7 +16800,7 @@
         <v>2123</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -16973,7 +16958,7 @@
         <v>2095</v>
       </c>
       <c r="AL38" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM38" s="1">
         <v>0</v>
@@ -17116,7 +17101,7 @@
         <v>2095</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -17259,7 +17244,7 @@
         <v>2095</v>
       </c>
       <c r="AL40" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -17530,16 +17515,16 @@
         <v>1</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>2666</v>
+        <v>2663</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>2739</v>
+        <v>2736</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="AG42" s="1" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
       <c r="AH42" s="1">
         <v>0</v>
@@ -17703,13 +17688,13 @@
         <v>1</v>
       </c>
       <c r="AJ43" s="2" t="s">
-        <v>2713</v>
+        <v>2710</v>
       </c>
       <c r="AK43" s="2" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="AL43" s="1" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
       <c r="AM43" s="1">
         <v>0</v>
@@ -17858,7 +17843,7 @@
         <v>2133</v>
       </c>
       <c r="AL44" s="1" t="s">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="AM44" s="1">
         <v>0</v>
@@ -17995,10 +17980,10 @@
         <v>444</v>
       </c>
       <c r="AK45" s="2" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="AL45" s="1" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="AM45" s="1">
         <v>0</v>
@@ -18135,13 +18120,13 @@
         <v>1</v>
       </c>
       <c r="AJ46" s="2" t="s">
-        <v>2621</v>
+        <v>2618</v>
       </c>
       <c r="AK46" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="AL46" s="1" t="s">
-        <v>2646</v>
+        <v>2643</v>
       </c>
       <c r="AM46" s="1">
         <v>0</v>
@@ -18296,7 +18281,7 @@
         <v>936</v>
       </c>
       <c r="AL47" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM47" s="1">
         <v>0</v>
@@ -18445,7 +18430,7 @@
         <v>2136</v>
       </c>
       <c r="AL48" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM48" s="1">
         <v>0</v>
@@ -18597,7 +18582,7 @@
         <v>2134</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM49" s="1">
         <v>0</v>
@@ -18746,10 +18731,10 @@
         <v>491</v>
       </c>
       <c r="AK50" s="2" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM50" s="1">
         <v>0</v>
@@ -18898,7 +18883,7 @@
         <v>2119</v>
       </c>
       <c r="AL51" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM51" s="1">
         <v>0</v>
@@ -19035,7 +19020,7 @@
         <v>2109</v>
       </c>
       <c r="AF52" s="1" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="AH52" s="1">
         <v>1</v>
@@ -19050,7 +19035,7 @@
         <v>2146</v>
       </c>
       <c r="AL52" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM52" s="1">
         <v>0</v>
@@ -19342,7 +19327,7 @@
         <v>1</v>
       </c>
       <c r="AJ54" s="2" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="AK54" s="2" t="s">
         <v>1582</v>
@@ -19494,7 +19479,7 @@
         <v>1</v>
       </c>
       <c r="AJ55" s="2" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="AK55" s="2" t="s">
         <v>1582</v>
@@ -19780,7 +19765,7 @@
         <v>2106</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AH57" s="1">
         <v>0</v>
@@ -19795,7 +19780,7 @@
         <v>936</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM57" s="1">
         <v>0</v>
@@ -19926,13 +19911,13 @@
         <v>1</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>2669</v>
+        <v>2666</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>2670</v>
+        <v>2667</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="AH58" s="1">
         <v>1</v>
@@ -20084,10 +20069,10 @@
         <v>2091</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>2671</v>
+        <v>2668</v>
       </c>
       <c r="AG59" s="1" t="s">
-        <v>2706</v>
+        <v>2703</v>
       </c>
       <c r="AH59" s="1">
         <v>0</v>
@@ -20102,7 +20087,7 @@
         <v>2137</v>
       </c>
       <c r="AL59" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -20236,7 +20221,7 @@
         <v>2092</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
       <c r="AH60" s="1">
         <v>0</v>
@@ -20251,7 +20236,7 @@
         <v>282</v>
       </c>
       <c r="AL60" s="1" t="s">
-        <v>2648</v>
+        <v>2645</v>
       </c>
       <c r="AM60" s="1">
         <v>0</v>
@@ -20391,7 +20376,7 @@
         <v>2138</v>
       </c>
       <c r="AL61" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM61" s="1">
         <v>0</v>
@@ -20468,7 +20453,7 @@
         <v>787</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>2640</v>
+        <v>2637</v>
       </c>
       <c r="P62" s="1">
         <v>1</v>
@@ -20513,13 +20498,13 @@
         <v>1</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="AH62" s="1">
         <v>1</v>
@@ -20692,7 +20677,7 @@
         <v>2123</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -20844,7 +20829,7 @@
         <v>2106</v>
       </c>
       <c r="AL64" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -20981,13 +20966,13 @@
         <v>1</v>
       </c>
       <c r="AJ65" s="2" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="AK65" s="2" t="s">
         <v>2139</v>
       </c>
       <c r="AL65" s="1" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="AM65" s="1">
         <v>0</v>
@@ -21523,7 +21508,7 @@
         <v>936</v>
       </c>
       <c r="AL69" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM69" s="1">
         <v>0</v>
@@ -21654,7 +21639,7 @@
         <v>1676</v>
       </c>
       <c r="AF70" s="1" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="AH70" s="1">
         <v>1</v>
@@ -21940,7 +21925,7 @@
         <v>855</v>
       </c>
       <c r="AF72" s="1" t="s">
-        <v>2674</v>
+        <v>2671</v>
       </c>
       <c r="AH72" s="1">
         <v>1</v>
@@ -21955,7 +21940,7 @@
         <v>2140</v>
       </c>
       <c r="AL72" s="1" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -22372,7 +22357,7 @@
         <v>2119</v>
       </c>
       <c r="AL75" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM75" s="1">
         <v>0</v>
@@ -22670,13 +22655,13 @@
         <v>1</v>
       </c>
       <c r="AJ77" s="2" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="AK77" s="2" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="AL77" s="1" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="AM77" s="1">
         <v>0</v>
@@ -22807,13 +22792,13 @@
         <v>1</v>
       </c>
       <c r="AJ78" s="2" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="AK78" s="2" t="s">
-        <v>2744</v>
+        <v>2741</v>
       </c>
       <c r="AL78" s="1" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="AM78" s="1">
         <v>0</v>
@@ -22944,13 +22929,13 @@
         <v>1</v>
       </c>
       <c r="AJ79" s="2" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="AK79" s="2" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="AL79" s="1" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="AM79" s="1">
         <v>0</v>
@@ -23090,13 +23075,13 @@
         <v>1</v>
       </c>
       <c r="AJ80" s="2" t="s">
-        <v>2761</v>
+        <v>2758</v>
       </c>
       <c r="AK80" s="2" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="AL80" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM80" s="1">
         <v>0</v>
@@ -23242,7 +23227,7 @@
         <v>1</v>
       </c>
       <c r="AJ81" s="2" t="s">
-        <v>2619</v>
+        <v>2616</v>
       </c>
       <c r="AK81" s="2" t="s">
         <v>993</v>
@@ -23367,13 +23352,13 @@
         <v>1</v>
       </c>
       <c r="AD82" s="2" t="s">
-        <v>2628</v>
+        <v>2625</v>
       </c>
       <c r="AE82" s="1" t="s">
         <v>2093</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="AH82" s="1">
         <v>0</v>
@@ -23382,7 +23367,7 @@
         <v>1</v>
       </c>
       <c r="AJ82" s="2" t="s">
-        <v>2619</v>
+        <v>2616</v>
       </c>
       <c r="AK82" s="2" t="s">
         <v>993</v>
@@ -23516,10 +23501,10 @@
         <v>2115</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>2675</v>
+        <v>2672</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>2707</v>
+        <v>2704</v>
       </c>
       <c r="AH83" s="1">
         <v>1</v>
@@ -23534,7 +23519,7 @@
         <v>911</v>
       </c>
       <c r="AL83" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM83" s="1">
         <v>0</v>
@@ -23680,7 +23665,7 @@
         <v>919</v>
       </c>
       <c r="AL84" s="1" t="s">
-        <v>2648</v>
+        <v>2645</v>
       </c>
       <c r="AM84" s="1">
         <v>0</v>
@@ -23805,7 +23790,7 @@
         <v>2116</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>2676</v>
+        <v>2673</v>
       </c>
       <c r="AH85" s="1">
         <v>0</v>
@@ -23820,7 +23805,7 @@
         <v>2141</v>
       </c>
       <c r="AL85" s="1" t="s">
-        <v>2645</v>
+        <v>2642</v>
       </c>
       <c r="AM85" s="1">
         <v>0</v>
@@ -23945,16 +23930,16 @@
         <v>1</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="AE86" s="1" t="s">
         <v>2105</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="AG86" s="1" t="s">
-        <v>2708</v>
+        <v>2705</v>
       </c>
       <c r="AH86" s="1">
         <v>0</v>
@@ -23969,7 +23954,7 @@
         <v>936</v>
       </c>
       <c r="AL86" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM86" s="1">
         <v>0</v>
@@ -24100,10 +24085,10 @@
         <v>943</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AG87" s="1" t="s">
-        <v>2704</v>
+        <v>2701</v>
       </c>
       <c r="AH87" s="1">
         <v>0</v>
@@ -24118,7 +24103,7 @@
         <v>936</v>
       </c>
       <c r="AL87" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM87" s="1">
         <v>0</v>
@@ -24249,16 +24234,16 @@
         <v>1</v>
       </c>
       <c r="AD88" s="2" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
       <c r="AE88" s="1" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>2678</v>
+        <v>2675</v>
       </c>
       <c r="AG88" s="1" t="s">
-        <v>2709</v>
+        <v>2706</v>
       </c>
       <c r="AH88" s="1">
         <v>0</v>
@@ -24401,16 +24386,16 @@
         <v>1</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="AE89" s="1" t="s">
         <v>2106</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AG89" s="1" t="s">
-        <v>2701</v>
+        <v>2698</v>
       </c>
       <c r="AH89" s="1">
         <v>0</v>
@@ -24425,7 +24410,7 @@
         <v>936</v>
       </c>
       <c r="AL89" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM89" s="1">
         <v>0</v>
@@ -24574,7 +24559,7 @@
         <v>919</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>2648</v>
+        <v>2645</v>
       </c>
       <c r="AM90" s="1">
         <v>0</v>
@@ -25143,13 +25128,13 @@
         <v>1</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="AE94" s="1" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
       <c r="AF94" s="1" t="s">
-        <v>2681</v>
+        <v>2678</v>
       </c>
       <c r="AH94" s="1">
         <v>1</v>
@@ -25289,16 +25274,16 @@
         <v>1</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>2622</v>
+        <v>2619</v>
       </c>
       <c r="AE95" s="1" t="s">
         <v>2096</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="AG95" s="1" t="s">
-        <v>2707</v>
+        <v>2704</v>
       </c>
       <c r="AH95" s="1">
         <v>0</v>
@@ -25307,7 +25292,7 @@
         <v>1</v>
       </c>
       <c r="AJ95" s="2" t="s">
-        <v>2623</v>
+        <v>2620</v>
       </c>
       <c r="AK95" s="2" t="s">
         <v>2126</v>
@@ -25450,13 +25435,13 @@
         <v>1</v>
       </c>
       <c r="AJ96" s="2" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="AK96" s="2" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="AM96" s="1">
         <v>0</v>
@@ -25730,7 +25715,7 @@
         <v>2107</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>2682</v>
+        <v>2679</v>
       </c>
       <c r="AH98" s="1">
         <v>0</v>
@@ -25891,13 +25876,13 @@
         <v>1</v>
       </c>
       <c r="AJ99" s="2" t="s">
-        <v>2617</v>
+        <v>2614</v>
       </c>
       <c r="AK99" s="2" t="s">
         <v>2142</v>
       </c>
       <c r="AL99" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM99" s="1">
         <v>0</v>
@@ -26031,10 +26016,10 @@
         <v>943</v>
       </c>
       <c r="AF100" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AG100" s="1" t="s">
-        <v>2704</v>
+        <v>2701</v>
       </c>
       <c r="AH100" s="1">
         <v>0</v>
@@ -26186,7 +26171,7 @@
         <v>2097</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="AH101" s="1">
         <v>1</v>
@@ -26341,7 +26326,7 @@
         <v>282</v>
       </c>
       <c r="AL102" s="1" t="s">
-        <v>2648</v>
+        <v>2645</v>
       </c>
       <c r="AM102" s="1">
         <v>0</v>
@@ -26478,7 +26463,7 @@
         <v>2098</v>
       </c>
       <c r="AF103" s="1" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="AH103" s="1">
         <v>1</v>
@@ -26490,10 +26475,10 @@
         <v>1079</v>
       </c>
       <c r="AK103" s="2" t="s">
-        <v>2635</v>
+        <v>2632</v>
       </c>
       <c r="AL103" s="1" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="AM103" s="1">
         <v>0</v>
@@ -26642,7 +26627,7 @@
         <v>2123</v>
       </c>
       <c r="AL104" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM104" s="1">
         <v>0</v>
@@ -26767,7 +26752,7 @@
         <v>1094</v>
       </c>
       <c r="AF105" s="1" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="AH105" s="1">
         <v>0</v>
@@ -26916,10 +26901,10 @@
         <v>2080</v>
       </c>
       <c r="AK106" s="2" t="s">
-        <v>2630</v>
+        <v>2627</v>
       </c>
       <c r="AL106" s="1" t="s">
-        <v>2721</v>
+        <v>2718</v>
       </c>
       <c r="AM106" s="1">
         <v>0</v>
@@ -27059,13 +27044,13 @@
         <v>1</v>
       </c>
       <c r="AJ107" s="2" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="AK107" s="2" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="AL107" s="1" t="s">
-        <v>2649</v>
+        <v>2646</v>
       </c>
       <c r="AM107" s="1">
         <v>0</v>
@@ -27214,7 +27199,7 @@
         <v>936</v>
       </c>
       <c r="AL108" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM108" s="1">
         <v>0</v>
@@ -27649,7 +27634,7 @@
         <v>1094</v>
       </c>
       <c r="AF111" s="1" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="AH111" s="1">
         <v>0</v>
@@ -27664,7 +27649,7 @@
         <v>936</v>
       </c>
       <c r="AL111" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM111" s="1">
         <v>0</v>
@@ -27804,7 +27789,7 @@
         <v>1146</v>
       </c>
       <c r="AF112" s="1" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="AH112" s="1">
         <v>0</v>
@@ -27819,7 +27804,7 @@
         <v>936</v>
       </c>
       <c r="AL112" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM112" s="1">
         <v>0</v>
@@ -28257,7 +28242,7 @@
         <v>1</v>
       </c>
       <c r="AJ115" s="2" t="s">
-        <v>2624</v>
+        <v>2621</v>
       </c>
       <c r="AK115" s="2" t="s">
         <v>1582</v>
@@ -28391,7 +28376,7 @@
         <v>1169</v>
       </c>
       <c r="AF116" s="1" t="s">
-        <v>2684</v>
+        <v>2681</v>
       </c>
       <c r="AH116" s="1">
         <v>1</v>
@@ -28543,7 +28528,7 @@
         <v>2109</v>
       </c>
       <c r="AF117" s="1" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="AH117" s="1">
         <v>0</v>
@@ -28558,7 +28543,7 @@
         <v>2143</v>
       </c>
       <c r="AL117" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM117" s="1">
         <v>0</v>
@@ -28695,7 +28680,7 @@
         <v>2109</v>
       </c>
       <c r="AF118" s="1" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="AH118" s="1">
         <v>0</v>
@@ -28710,7 +28695,7 @@
         <v>2144</v>
       </c>
       <c r="AL118" s="1" t="s">
-        <v>2650</v>
+        <v>2647</v>
       </c>
       <c r="AM118" s="1">
         <v>0</v>
@@ -28862,7 +28847,7 @@
         <v>2145</v>
       </c>
       <c r="AL119" s="1" t="s">
-        <v>2645</v>
+        <v>2642</v>
       </c>
       <c r="AM119" s="1">
         <v>0</v>
@@ -29011,10 +28996,10 @@
         <v>2082</v>
       </c>
       <c r="AK120" s="2" t="s">
-        <v>2723</v>
+        <v>2720</v>
       </c>
       <c r="AL120" s="1" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="AM120" s="1">
         <v>0</v>
@@ -29309,13 +29294,13 @@
         <v>1</v>
       </c>
       <c r="AJ122" s="2" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="AK122" s="2" t="s">
         <v>2136</v>
       </c>
       <c r="AL122" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM122" s="1">
         <v>0</v>
@@ -29461,13 +29446,13 @@
         <v>1</v>
       </c>
       <c r="AJ123" s="2" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
       <c r="AK123" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL123" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM123" s="1">
         <v>0</v>
@@ -29592,13 +29577,13 @@
         <v>1</v>
       </c>
       <c r="AD124" s="2" t="s">
-        <v>2685</v>
+        <v>2682</v>
       </c>
       <c r="AE124" s="1" t="s">
-        <v>2685</v>
+        <v>2682</v>
       </c>
       <c r="AF124" s="1" t="s">
-        <v>2686</v>
+        <v>2683</v>
       </c>
       <c r="AH124" s="1">
         <v>0</v>
@@ -29607,13 +29592,13 @@
         <v>1</v>
       </c>
       <c r="AJ124" s="2" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="AK124" s="2" t="s">
         <v>2125</v>
       </c>
       <c r="AL124" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM124" s="1">
         <v>0</v>
@@ -29765,7 +29750,7 @@
         <v>2106</v>
       </c>
       <c r="AL125" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM125" s="1">
         <v>0</v>
@@ -29911,13 +29896,13 @@
         <v>1</v>
       </c>
       <c r="AJ126" s="2" t="s">
-        <v>2616</v>
+        <v>2613</v>
       </c>
       <c r="AK126" s="2" t="s">
         <v>2109</v>
       </c>
       <c r="AL126" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM126" s="1">
         <v>0</v>
@@ -30069,7 +30054,7 @@
         <v>936</v>
       </c>
       <c r="AL127" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM127" s="1">
         <v>0</v>
@@ -30221,7 +30206,7 @@
         <v>919</v>
       </c>
       <c r="AL128" s="1" t="s">
-        <v>2648</v>
+        <v>2645</v>
       </c>
       <c r="AM128" s="1">
         <v>0</v>
@@ -30373,7 +30358,7 @@
         <v>919</v>
       </c>
       <c r="AL129" s="1" t="s">
-        <v>2648</v>
+        <v>2645</v>
       </c>
       <c r="AM129" s="1">
         <v>0</v>
@@ -30680,7 +30665,7 @@
         <v>2083</v>
       </c>
       <c r="AL131" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM131" s="1">
         <v>0</v>
@@ -30832,7 +30817,7 @@
         <v>2137</v>
       </c>
       <c r="AL132" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM132" s="1">
         <v>0</v>
@@ -30969,7 +30954,7 @@
         <v>1676</v>
       </c>
       <c r="AF133" s="1" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="AH133" s="1">
         <v>1</v>
@@ -31139,7 +31124,7 @@
         <v>1437</v>
       </c>
       <c r="AO134" s="1" t="s">
-        <v>2641</v>
+        <v>2638</v>
       </c>
       <c r="AP134" s="1">
         <v>201</v>
@@ -31270,7 +31255,7 @@
         <v>2100</v>
       </c>
       <c r="AF135" s="1" t="s">
-        <v>2687</v>
+        <v>2684</v>
       </c>
       <c r="AH135" s="1">
         <v>1</v>
@@ -31428,7 +31413,7 @@
         <v>2101</v>
       </c>
       <c r="AF136" s="1" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
       <c r="AH136" s="1">
         <v>0</v>
@@ -31443,7 +31428,7 @@
         <v>2101</v>
       </c>
       <c r="AL136" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM136" s="1">
         <v>0</v>
@@ -31580,10 +31565,10 @@
         <v>2110</v>
       </c>
       <c r="AF137" s="1" t="s">
-        <v>2689</v>
+        <v>2686</v>
       </c>
       <c r="AG137" s="1" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
       <c r="AH137" s="1">
         <v>0</v>
@@ -31592,13 +31577,13 @@
         <v>1</v>
       </c>
       <c r="AJ137" s="2" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
       <c r="AK137" s="2" t="s">
         <v>2110</v>
       </c>
       <c r="AL137" s="1" t="s">
-        <v>2727</v>
+        <v>2724</v>
       </c>
       <c r="AM137" s="1">
         <v>0</v>
@@ -31872,7 +31857,7 @@
         <v>2102</v>
       </c>
       <c r="AF139" s="1" t="s">
-        <v>2690</v>
+        <v>2687</v>
       </c>
       <c r="AH139" s="1">
         <v>0</v>
@@ -31884,10 +31869,10 @@
         <v>1480</v>
       </c>
       <c r="AK139" s="2" t="s">
-        <v>2632</v>
+        <v>2629</v>
       </c>
       <c r="AL139" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM139" s="1">
         <v>0</v>
@@ -32015,7 +32000,7 @@
         <v>2103</v>
       </c>
       <c r="AF140" s="1" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="AH140" s="1">
         <v>0</v>
@@ -32030,7 +32015,7 @@
         <v>936</v>
       </c>
       <c r="AL140" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM140" s="1">
         <v>0</v>
@@ -32167,7 +32152,7 @@
         <v>2103</v>
       </c>
       <c r="AF141" s="1" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="AH141" s="1">
         <v>0</v>
@@ -32182,7 +32167,7 @@
         <v>936</v>
       </c>
       <c r="AL141" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM141" s="1">
         <v>0</v>
@@ -32319,7 +32304,7 @@
         <v>2103</v>
       </c>
       <c r="AF142" s="1" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="AH142" s="1">
         <v>0</v>
@@ -32334,7 +32319,7 @@
         <v>936</v>
       </c>
       <c r="AL142" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM142" s="1">
         <v>0</v>
@@ -32623,10 +32608,10 @@
         <v>2111</v>
       </c>
       <c r="AF144" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AG144" s="1" t="s">
-        <v>2701</v>
+        <v>2698</v>
       </c>
       <c r="AH144" s="1">
         <v>0</v>
@@ -32635,13 +32620,13 @@
         <v>1</v>
       </c>
       <c r="AJ144" s="2" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="AK144" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL144" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM144" s="1">
         <v>0</v>
@@ -32766,16 +32751,16 @@
         <v>1</v>
       </c>
       <c r="AD145" s="2" t="s">
-        <v>2692</v>
+        <v>2689</v>
       </c>
       <c r="AE145" s="1" t="s">
-        <v>2741</v>
+        <v>2738</v>
       </c>
       <c r="AF145" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AG145" s="1" t="s">
-        <v>2701</v>
+        <v>2698</v>
       </c>
       <c r="AH145" s="1">
         <v>0</v>
@@ -32945,7 +32930,7 @@
         <v>911</v>
       </c>
       <c r="AL146" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM146" s="1">
         <v>0</v>
@@ -33094,10 +33079,10 @@
         <v>1528</v>
       </c>
       <c r="AK147" s="2" t="s">
-        <v>2633</v>
+        <v>2630</v>
       </c>
       <c r="AL147" s="1" t="s">
-        <v>2650</v>
+        <v>2647</v>
       </c>
       <c r="AM147" s="1">
         <v>0</v>
@@ -33234,7 +33219,7 @@
         <v>2092</v>
       </c>
       <c r="AF148" s="1" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
       <c r="AH148" s="1">
         <v>0</v>
@@ -33386,7 +33371,7 @@
         <v>2112</v>
       </c>
       <c r="AF149" s="1" t="s">
-        <v>2693</v>
+        <v>2690</v>
       </c>
       <c r="AH149" s="1">
         <v>0</v>
@@ -33398,10 +33383,10 @@
         <v>2058</v>
       </c>
       <c r="AK149" s="2" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="AL149" s="1" t="s">
-        <v>2728</v>
+        <v>2725</v>
       </c>
       <c r="AM149" s="1">
         <v>0</v>
@@ -33544,13 +33529,13 @@
         <v>1</v>
       </c>
       <c r="AJ150" s="2" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="AK150" s="2" t="s">
-        <v>2729</v>
+        <v>2726</v>
       </c>
       <c r="AL150" s="1" t="s">
-        <v>2730</v>
+        <v>2727</v>
       </c>
       <c r="AM150" s="1">
         <v>0</v>
@@ -33982,13 +33967,13 @@
         <v>1</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="AE153" s="1" t="s">
         <v>2109</v>
       </c>
       <c r="AF153" s="1" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="AH153" s="1">
         <v>0</v>
@@ -33997,13 +33982,13 @@
         <v>1</v>
       </c>
       <c r="AJ153" s="2" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
       <c r="AK153" s="2" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
       <c r="AL153" s="1" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="AM153" s="1">
         <v>0</v>
@@ -34155,7 +34140,7 @@
         <v>2149</v>
       </c>
       <c r="AL154" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM154" s="1">
         <v>0</v>
@@ -34423,13 +34408,13 @@
         <v>1589</v>
       </c>
       <c r="AE156" s="1" t="s">
-        <v>2637</v>
+        <v>2634</v>
       </c>
       <c r="AF156" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AG156" s="1" t="s">
-        <v>2701</v>
+        <v>2698</v>
       </c>
       <c r="AH156" s="1">
         <v>0</v>
@@ -34441,10 +34426,10 @@
         <v>1590</v>
       </c>
       <c r="AK156" s="2" t="s">
-        <v>2636</v>
+        <v>2633</v>
       </c>
       <c r="AL156" s="1" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="AM156" s="1">
         <v>0</v>
@@ -34587,13 +34572,13 @@
         <v>1</v>
       </c>
       <c r="AJ157" s="2" t="s">
-        <v>2731</v>
+        <v>2728</v>
       </c>
       <c r="AK157" s="2" t="s">
-        <v>2731</v>
+        <v>2728</v>
       </c>
       <c r="AL157" s="1" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="AM157" s="1">
         <v>0</v>
@@ -34727,10 +34712,10 @@
         <v>1603</v>
       </c>
       <c r="AE158" s="1" t="s">
-        <v>2626</v>
+        <v>2623</v>
       </c>
       <c r="AF158" s="1" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="AH158" s="1">
         <v>0</v>
@@ -34897,7 +34882,7 @@
         <v>2150</v>
       </c>
       <c r="AL159" s="1" t="s">
-        <v>2646</v>
+        <v>2643</v>
       </c>
       <c r="AM159" s="1">
         <v>0</v>
@@ -35028,7 +35013,7 @@
         <v>1676</v>
       </c>
       <c r="AF160" s="1" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="AH160" s="1">
         <v>0</v>
@@ -35186,7 +35171,7 @@
         <v>2123</v>
       </c>
       <c r="AL161" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM161" s="1">
         <v>0</v>
@@ -35338,7 +35323,7 @@
         <v>2151</v>
       </c>
       <c r="AL162" s="1" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
       <c r="AM162" s="1">
         <v>0</v>
@@ -35490,7 +35475,7 @@
         <v>919</v>
       </c>
       <c r="AL163" s="1" t="s">
-        <v>2648</v>
+        <v>2645</v>
       </c>
       <c r="AM163" s="1">
         <v>0</v>
@@ -35782,7 +35767,7 @@
         <v>936</v>
       </c>
       <c r="AL165" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM165" s="1">
         <v>0</v>
@@ -35934,7 +35919,7 @@
         <v>2119</v>
       </c>
       <c r="AL166" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM166" s="1">
         <v>0</v>
@@ -36062,13 +36047,13 @@
         <v>1</v>
       </c>
       <c r="AD167" s="2" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
       <c r="AE167" s="1" t="s">
         <v>2104</v>
       </c>
       <c r="AF167" s="1" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="AH167" s="1">
         <v>0</v>
@@ -36083,7 +36068,7 @@
         <v>2119</v>
       </c>
       <c r="AL167" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM167" s="1">
         <v>0</v>
@@ -36220,7 +36205,7 @@
         <v>1676</v>
       </c>
       <c r="AF168" s="1" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="AH168" s="1">
         <v>1</v>
@@ -36354,7 +36339,7 @@
         <v>39</v>
       </c>
       <c r="AB169" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="AC169" s="1" t="s">
         <v>39</v>
@@ -36515,7 +36500,7 @@
         <v>2123</v>
       </c>
       <c r="AL170" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM170" s="1">
         <v>0</v>
@@ -36652,10 +36637,10 @@
         <v>2113</v>
       </c>
       <c r="AF171" s="1" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="AG171" s="1" t="s">
-        <v>2707</v>
+        <v>2704</v>
       </c>
       <c r="AH171" s="1">
         <v>0</v>
@@ -36667,10 +36652,10 @@
         <v>1698</v>
       </c>
       <c r="AK171" s="2" t="s">
-        <v>2638</v>
+        <v>2635</v>
       </c>
       <c r="AL171" s="1" t="s">
-        <v>2733</v>
+        <v>2730</v>
       </c>
       <c r="AM171" s="1">
         <v>0</v>
@@ -36810,7 +36795,7 @@
         <v>936</v>
       </c>
       <c r="AL172" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM172" s="1">
         <v>0</v>
@@ -36962,7 +36947,7 @@
         <v>2152</v>
       </c>
       <c r="AL173" s="1" t="s">
-        <v>2653</v>
+        <v>2650</v>
       </c>
       <c r="AM173" s="1">
         <v>0</v>
@@ -37096,7 +37081,7 @@
         <v>2107</v>
       </c>
       <c r="AF174" s="1" t="s">
-        <v>2696</v>
+        <v>2693</v>
       </c>
       <c r="AH174" s="1">
         <v>1</v>
@@ -37263,7 +37248,7 @@
         <v>2119</v>
       </c>
       <c r="AL175" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM175" s="1">
         <v>0</v>
@@ -37394,16 +37379,16 @@
         <v>1</v>
       </c>
       <c r="AD176" s="2" t="s">
-        <v>2697</v>
+        <v>2694</v>
       </c>
       <c r="AE176" s="1" t="s">
         <v>2111</v>
       </c>
       <c r="AF176" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AG176" s="1" t="s">
-        <v>2701</v>
+        <v>2698</v>
       </c>
       <c r="AH176" s="1">
         <v>0</v>
@@ -37573,7 +37558,7 @@
         <v>2125</v>
       </c>
       <c r="AL177" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM177" s="1">
         <v>0</v>
@@ -37716,7 +37701,7 @@
         <v>936</v>
       </c>
       <c r="AL178" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM178" s="1">
         <v>0</v>
@@ -37862,13 +37847,13 @@
         <v>1</v>
       </c>
       <c r="AJ179" s="2" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="AK179" s="2" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="AL179" s="1" t="s">
-        <v>2647</v>
+        <v>2644</v>
       </c>
       <c r="AM179" s="1">
         <v>0</v>
@@ -38145,7 +38130,7 @@
         <v>2114</v>
       </c>
       <c r="AF181" s="1" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
       <c r="AH181" s="1">
         <v>0</v>
@@ -38303,13 +38288,13 @@
         <v>1</v>
       </c>
       <c r="AJ182" s="2" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="AK182" s="2" t="s">
         <v>2125</v>
       </c>
       <c r="AL182" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM182" s="1">
         <v>0</v>
@@ -38443,13 +38428,13 @@
         <v>1782</v>
       </c>
       <c r="AE183" s="1" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
       <c r="AF183" s="1" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="AG183" s="1" t="s">
-        <v>2707</v>
+        <v>2704</v>
       </c>
       <c r="AH183" s="1">
         <v>0</v>
@@ -38464,7 +38449,7 @@
         <v>2154</v>
       </c>
       <c r="AL183" s="1" t="s">
-        <v>2646</v>
+        <v>2643</v>
       </c>
       <c r="AM183" s="1">
         <v>0</v>
@@ -38613,10 +38598,10 @@
         <v>1789</v>
       </c>
       <c r="AK184" s="2" t="s">
-        <v>2631</v>
+        <v>2628</v>
       </c>
       <c r="AL184" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AM184" s="1">
         <v>0</v>
@@ -38753,7 +38738,7 @@
         <v>2104</v>
       </c>
       <c r="AF185" s="1" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="AH185" s="1">
         <v>0</v>
@@ -38768,7 +38753,7 @@
         <v>2155</v>
       </c>
       <c r="AL185" s="1" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="AM185" s="1">
         <v>1</v>
@@ -38908,10 +38893,10 @@
         <v>1810</v>
       </c>
       <c r="AF186" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AG186" s="1" t="s">
-        <v>2704</v>
+        <v>2701</v>
       </c>
       <c r="AH186" s="1">
         <v>0</v>
@@ -38926,7 +38911,7 @@
         <v>2125</v>
       </c>
       <c r="AL186" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM186" s="1">
         <v>0</v>
@@ -39072,13 +39057,13 @@
         <v>1</v>
       </c>
       <c r="AJ187" s="2" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="AK187" s="2" t="s">
         <v>2137</v>
       </c>
       <c r="AL187" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AM187" s="1">
         <v>0</v>
@@ -39134,8 +39119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC2" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" topLeftCell="AC52" workbookViewId="0">
+      <selection activeCell="AG54" sqref="AG54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39359,7 +39344,7 @@
         <v>5</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>2527</v>
@@ -39468,7 +39453,7 @@
         <v>2519</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1" t="s">
@@ -39567,19 +39552,19 @@
         <v>5</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="AE4" s="1">
         <v>5</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="AG4" s="10" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>39</v>
@@ -39773,19 +39758,19 @@
         <v>5</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>2790</v>
+        <v>2785</v>
       </c>
       <c r="AE6" s="1">
         <v>5</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>2576</v>
+        <v>2785</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>39</v>
@@ -40194,7 +40179,7 @@
         <v>641</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="AE10" s="1">
         <v>3</v>
@@ -40203,7 +40188,7 @@
         <v>642</v>
       </c>
       <c r="AG10" s="10" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="AH10" s="1" t="s">
         <v>39</v>
@@ -40501,19 +40486,19 @@
         <v>5</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>2804</v>
+        <v>2797</v>
       </c>
       <c r="AE13" s="1">
         <v>3</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="AG13" s="10" t="s">
-        <v>2804</v>
+        <v>2797</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>39</v>
@@ -40817,7 +40802,7 @@
         <v>5</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="AD16" s="2" t="s">
         <v>2528</v>
@@ -40826,7 +40811,7 @@
         <v>3</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="AG16" s="10" t="s">
         <v>2528</v>
@@ -40928,7 +40913,7 @@
         <v>2427</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="AE17" s="1">
         <v>4</v>
@@ -40937,7 +40922,7 @@
         <v>2428</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="AH17" s="1" t="s">
         <v>39</v>
@@ -41556,7 +41541,7 @@
         <v>2433</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>2800</v>
+        <v>2794</v>
       </c>
       <c r="AE23" s="1">
         <v>2</v>
@@ -41565,7 +41550,7 @@
         <v>2433</v>
       </c>
       <c r="AG23" s="10" t="s">
-        <v>2800</v>
+        <v>2794</v>
       </c>
       <c r="AH23" s="1" t="s">
         <v>39</v>
@@ -41766,7 +41751,7 @@
         <v>695</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>2791</v>
+        <v>2786</v>
       </c>
       <c r="AE25" s="1">
         <v>5</v>
@@ -41775,7 +41760,7 @@
         <v>2434</v>
       </c>
       <c r="AG25" s="10" t="s">
-        <v>2791</v>
+        <v>2786</v>
       </c>
       <c r="AH25" s="1" t="s">
         <v>39</v>
@@ -42074,7 +42059,7 @@
         <v>2435</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>2788</v>
+        <v>2783</v>
       </c>
       <c r="AE28" s="1">
         <v>5</v>
@@ -42083,7 +42068,7 @@
         <v>2436</v>
       </c>
       <c r="AG28" s="10" t="s">
-        <v>2788</v>
+        <v>2783</v>
       </c>
       <c r="AH28" s="1" t="s">
         <v>39</v>
@@ -42286,7 +42271,7 @@
         <v>709</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="AE30" s="1" t="s">
         <v>39</v>
@@ -42493,19 +42478,19 @@
         <v>5</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>2607</v>
+        <v>2604</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="AE32" s="1">
         <v>5</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="AG32" s="10" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="AH32" s="1" t="s">
         <v>39</v>
@@ -44465,10 +44450,10 @@
         <v>5</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>2789</v>
+        <v>2784</v>
       </c>
       <c r="AE51" s="1" t="s">
         <v>39</v>
@@ -44481,13 +44466,13 @@
         <v>2</v>
       </c>
       <c r="AI51" s="1" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="AJ51" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>573</v>
       </c>
@@ -44570,7 +44555,7 @@
         <v>2456</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>2534</v>
+        <v>2798</v>
       </c>
       <c r="AE52" s="1">
         <v>5</v>
@@ -44579,7 +44564,7 @@
         <v>768</v>
       </c>
       <c r="AG52" s="10" t="s">
-        <v>2534</v>
+        <v>2798</v>
       </c>
       <c r="AH52" s="1" t="s">
         <v>39</v>
@@ -44591,7 +44576,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>676</v>
       </c>
@@ -44680,7 +44665,7 @@
         <v>2457</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>2600</v>
+        <v>2799</v>
       </c>
       <c r="AE53" s="1" t="s">
         <v>39</v>
@@ -44782,7 +44767,7 @@
         <v>773</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>2801</v>
+        <v>2795</v>
       </c>
       <c r="AE54" s="1">
         <v>4</v>
@@ -44791,7 +44776,7 @@
         <v>774</v>
       </c>
       <c r="AG54" s="10" t="s">
-        <v>2802</v>
+        <v>2795</v>
       </c>
       <c r="AH54" s="1" t="s">
         <v>39</v>
@@ -45090,7 +45075,7 @@
         <v>2526</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="AE57" s="1" t="s">
         <v>219</v>
@@ -45099,7 +45084,7 @@
         <v>2376</v>
       </c>
       <c r="AG57" s="10" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1" t="s">
@@ -45190,7 +45175,7 @@
         <v>2377</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>2793</v>
+        <v>2788</v>
       </c>
       <c r="AE58" s="1">
         <v>5</v>
@@ -45199,7 +45184,7 @@
         <v>2377</v>
       </c>
       <c r="AG58" s="10" t="s">
-        <v>2793</v>
+        <v>2788</v>
       </c>
       <c r="AH58" s="1" t="s">
         <v>39</v>
@@ -45297,10 +45282,10 @@
         <v>5</v>
       </c>
       <c r="AC59" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="AE59" s="1">
         <v>3</v>
@@ -45309,7 +45294,7 @@
         <v>2417</v>
       </c>
       <c r="AG59" s="10" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1" t="s">
@@ -45405,19 +45390,19 @@
         <v>5</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>2601</v>
+        <v>2598</v>
       </c>
       <c r="AD60" s="2" t="s">
-        <v>2792</v>
+        <v>2787</v>
       </c>
       <c r="AE60" s="1">
         <v>5</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>2602</v>
+        <v>2599</v>
       </c>
       <c r="AG60" s="10" t="s">
-        <v>2792</v>
+        <v>2787</v>
       </c>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1" t="s">
@@ -45511,19 +45496,19 @@
         <v>5</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>2601</v>
+        <v>2598</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>2792</v>
+        <v>2787</v>
       </c>
       <c r="AE61" s="1">
         <v>5</v>
       </c>
       <c r="AF61" s="1" t="s">
-        <v>2603</v>
+        <v>2600</v>
       </c>
       <c r="AG61" s="10" t="s">
-        <v>2792</v>
+        <v>2787</v>
       </c>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1" t="s">
@@ -45617,19 +45602,19 @@
         <v>5</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>2601</v>
+        <v>2598</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>2792</v>
+        <v>2787</v>
       </c>
       <c r="AE62" s="1">
         <v>5</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>2604</v>
+        <v>2601</v>
       </c>
       <c r="AG62" s="10" t="s">
-        <v>2792</v>
+        <v>2787</v>
       </c>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1" t="s">
@@ -45723,19 +45708,19 @@
         <v>5</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>2601</v>
+        <v>2598</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>2792</v>
+        <v>2787</v>
       </c>
       <c r="AE63" s="1">
         <v>5</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>2605</v>
+        <v>2602</v>
       </c>
       <c r="AG63" s="10" t="s">
-        <v>2792</v>
+        <v>2787</v>
       </c>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1" t="s">
@@ -46015,7 +46000,7 @@
         <v>1</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="1">
@@ -46535,19 +46520,19 @@
         <v>3</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="AD71" s="2" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="AE71" s="1">
         <v>3</v>
       </c>
       <c r="AF71" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="AG71" s="10" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="AH71" s="1" t="s">
         <v>39</v>
@@ -47050,7 +47035,7 @@
         <v>2027</v>
       </c>
       <c r="AD76" s="2" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="AE76" s="1">
         <v>5</v>
@@ -47059,7 +47044,7 @@
         <v>2028</v>
       </c>
       <c r="AG76" s="10" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1" t="s">
@@ -47151,10 +47136,10 @@
         <v>5</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="AD77" s="2" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="AE77" s="1">
         <v>5</v>
@@ -47163,7 +47148,7 @@
         <v>2459</v>
       </c>
       <c r="AG77" s="10" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="AH77" s="1"/>
       <c r="AI77" s="1"/>
@@ -47257,7 +47242,7 @@
         <v>2460</v>
       </c>
       <c r="AG78" s="10" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1" t="s">
@@ -47449,10 +47434,10 @@
         <v>1</v>
       </c>
       <c r="AC80" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="AD80" s="2" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="AE80" s="1">
         <v>3</v>
@@ -47461,7 +47446,7 @@
         <v>2418</v>
       </c>
       <c r="AG80" s="10" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="AH80" s="1" t="s">
         <v>39</v>
@@ -47757,10 +47742,10 @@
         <v>5</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="AD83" s="2" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="AE83" s="1">
         <v>5</v>
@@ -47769,7 +47754,7 @@
         <v>2461</v>
       </c>
       <c r="AG83" s="10" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="AH83" s="1"/>
       <c r="AI83" s="1" t="s">
@@ -48057,19 +48042,19 @@
         <v>5</v>
       </c>
       <c r="AC86" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="AD86" s="2" t="s">
         <v>2556</v>
-      </c>
-      <c r="AD86" s="2" t="s">
-        <v>2557</v>
       </c>
       <c r="AE86" s="1">
         <v>3</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="AG86" s="10" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="AH86" s="1"/>
       <c r="AI86" s="1" t="s">
@@ -48161,10 +48146,10 @@
         <v>5</v>
       </c>
       <c r="AC87" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="AD87" s="2" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="AE87" s="1">
         <v>3</v>
@@ -48173,7 +48158,7 @@
         <v>2462</v>
       </c>
       <c r="AG87" s="10" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="AH87" s="1"/>
       <c r="AI87" s="1" t="s">
@@ -48259,7 +48244,7 @@
         <v>5</v>
       </c>
       <c r="AC88" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="AD88" s="2" t="s">
         <v>993</v>
@@ -48370,7 +48355,7 @@
         <v>2464</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="AE89" s="1">
         <v>5</v>
@@ -48379,7 +48364,7 @@
         <v>2465</v>
       </c>
       <c r="AG89" s="2" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="AH89" s="1"/>
       <c r="AI89" s="1" t="s">
@@ -48476,7 +48461,7 @@
         <v>2466</v>
       </c>
       <c r="AD90" s="2" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="AE90" s="1">
         <v>5</v>
@@ -48485,7 +48470,7 @@
         <v>2466</v>
       </c>
       <c r="AG90" s="2" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="AH90" s="1"/>
       <c r="AI90" s="1" t="s">
@@ -48578,7 +48563,7 @@
         <v>2467</v>
       </c>
       <c r="AD91" s="2" t="s">
-        <v>2787</v>
+        <v>2782</v>
       </c>
       <c r="AE91" s="1">
         <v>3</v>
@@ -48587,7 +48572,7 @@
         <v>2419</v>
       </c>
       <c r="AG91" s="2" t="s">
-        <v>2777</v>
+        <v>2782</v>
       </c>
       <c r="AH91" s="1"/>
       <c r="AI91" s="1" t="s">
@@ -48684,7 +48669,7 @@
         <v>2468</v>
       </c>
       <c r="AD92" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="AE92" s="1">
         <v>3</v>
@@ -48693,7 +48678,7 @@
         <v>2469</v>
       </c>
       <c r="AG92" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="AH92" s="1"/>
       <c r="AI92" s="1" t="s">
@@ -49090,7 +49075,7 @@
         <v>2470</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="AE96" s="1">
         <v>5</v>
@@ -49099,7 +49084,7 @@
         <v>2471</v>
       </c>
       <c r="AG96" s="2" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1" t="s">
@@ -49290,7 +49275,7 @@
         <v>2472</v>
       </c>
       <c r="AD98" s="2" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="AE98" s="1">
         <v>5</v>
@@ -49299,7 +49284,7 @@
         <v>2473</v>
       </c>
       <c r="AG98" s="2" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="AH98" s="1"/>
       <c r="AI98" s="1" t="s">
@@ -49496,7 +49481,7 @@
         <v>1337</v>
       </c>
       <c r="AD100" s="2" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="AE100" s="1" t="s">
         <v>39</v>
@@ -49602,7 +49587,7 @@
         <v>2474</v>
       </c>
       <c r="AD101" s="2" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="AE101" s="1">
         <v>3</v>
@@ -49611,7 +49596,7 @@
         <v>2475</v>
       </c>
       <c r="AG101" s="2" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="AH101" s="1"/>
       <c r="AI101" s="1" t="s">
@@ -49805,19 +49790,19 @@
         <v>5</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="AD103" s="2" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="AE103" s="1">
         <v>3</v>
       </c>
       <c r="AF103" s="1" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="AG103" s="2" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="AH103" s="1"/>
       <c r="AI103" s="1" t="s">
@@ -50118,7 +50103,7 @@
         <v>2476</v>
       </c>
       <c r="AD106" s="2" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="AE106" s="1">
         <v>5</v>
@@ -50127,7 +50112,7 @@
         <v>2477</v>
       </c>
       <c r="AG106" s="2" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="AH106" s="1"/>
       <c r="AI106" s="1" t="s">
@@ -50226,7 +50211,7 @@
         <v>2478</v>
       </c>
       <c r="AD107" s="2" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="AE107" s="1">
         <v>5</v>
@@ -50235,7 +50220,7 @@
         <v>2479</v>
       </c>
       <c r="AG107" s="2" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="AH107" s="1"/>
       <c r="AI107" s="1" t="s">
@@ -50328,7 +50313,7 @@
         <v>2480</v>
       </c>
       <c r="AD108" s="2" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="AE108" s="1">
         <v>3</v>
@@ -50337,7 +50322,7 @@
         <v>2481</v>
       </c>
       <c r="AG108" s="2" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="AH108" s="1"/>
       <c r="AI108" s="1" t="s">
@@ -50435,7 +50420,7 @@
         <v>39</v>
       </c>
       <c r="AG109" s="2" t="s">
-        <v>2378</v>
+        <v>2788</v>
       </c>
       <c r="AH109" s="1" t="s">
         <v>39</v>
@@ -50831,19 +50816,19 @@
         <v>5</v>
       </c>
       <c r="AC113" s="1" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="AD113" s="2" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="AE113" s="1">
         <v>2</v>
       </c>
       <c r="AF113" s="1" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="AG113" s="2" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="AH113" s="1"/>
       <c r="AI113" s="1" t="s">
@@ -50936,7 +50921,7 @@
         <v>2485</v>
       </c>
       <c r="AD114" s="2" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="AE114" s="1">
         <v>5</v>
@@ -50945,7 +50930,7 @@
         <v>2485</v>
       </c>
       <c r="AG114" s="2" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="AH114" s="1"/>
       <c r="AI114" s="1" t="s">
@@ -51037,19 +51022,19 @@
         <v>5</v>
       </c>
       <c r="AC115" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AD115" s="2" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="AE115" s="1">
         <v>5</v>
       </c>
       <c r="AF115" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AG115" s="2" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="AH115" s="1"/>
       <c r="AI115" s="1" t="s">
@@ -51148,7 +51133,7 @@
         <v>2486</v>
       </c>
       <c r="AD116" s="2" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="AE116" s="1">
         <v>2</v>
@@ -51157,7 +51142,7 @@
         <v>2487</v>
       </c>
       <c r="AG116" s="2" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="AH116" s="1"/>
       <c r="AI116" s="1" t="s">
@@ -51251,19 +51236,19 @@
         <v>5</v>
       </c>
       <c r="AC117" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="AD117" s="2" t="s">
         <v>2397</v>
-      </c>
-      <c r="AD117" s="2" t="s">
-        <v>2398</v>
       </c>
       <c r="AE117" s="1">
         <v>5</v>
       </c>
       <c r="AF117" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="AG117" s="2" t="s">
         <v>2397</v>
-      </c>
-      <c r="AG117" s="2" t="s">
-        <v>2398</v>
       </c>
       <c r="AH117" s="1" t="s">
         <v>39</v>
@@ -51778,16 +51763,16 @@
         <v>2488</v>
       </c>
       <c r="AD122" s="2" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="AE122" s="1">
         <v>5</v>
       </c>
       <c r="AF122" s="1" t="s">
-        <v>2611</v>
+        <v>2608</v>
       </c>
       <c r="AG122" s="2" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="AH122" s="1" t="s">
         <v>39</v>
@@ -51886,7 +51871,7 @@
         <v>2489</v>
       </c>
       <c r="AD123" s="2" t="s">
-        <v>2798</v>
+        <v>2793</v>
       </c>
       <c r="AE123" s="1">
         <v>5</v>
@@ -51895,7 +51880,7 @@
         <v>2489</v>
       </c>
       <c r="AG123" s="2" t="s">
-        <v>2799</v>
+        <v>2793</v>
       </c>
       <c r="AH123" s="1" t="s">
         <v>39</v>
@@ -52279,19 +52264,19 @@
         <v>4</v>
       </c>
       <c r="AC127" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="AD127" s="2" t="s">
-        <v>2778</v>
+        <v>2774</v>
       </c>
       <c r="AE127" s="1">
         <v>4</v>
       </c>
       <c r="AF127" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="AG127" s="2" t="s">
-        <v>2778</v>
+        <v>2774</v>
       </c>
       <c r="AH127" s="1" t="s">
         <v>39</v>
@@ -52388,7 +52373,7 @@
         <v>1850</v>
       </c>
       <c r="AD128" s="2" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="AE128" s="1">
         <v>0</v>
@@ -52397,7 +52382,7 @@
         <v>1851</v>
       </c>
       <c r="AG128" s="2" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="AH128" s="1" t="s">
         <v>39</v>
@@ -52495,10 +52480,10 @@
         <v>5</v>
       </c>
       <c r="AC129" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="AD129" s="2" t="s">
-        <v>2797</v>
+        <v>2792</v>
       </c>
       <c r="AE129" s="1">
         <v>5</v>
@@ -52507,7 +52492,7 @@
         <v>2420</v>
       </c>
       <c r="AG129" s="2" t="s">
-        <v>2797</v>
+        <v>2792</v>
       </c>
       <c r="AH129" s="1" t="s">
         <v>39</v>
@@ -52597,10 +52582,10 @@
         <v>5</v>
       </c>
       <c r="AC130" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="AD130" s="2" t="s">
-        <v>2779</v>
+        <v>2775</v>
       </c>
       <c r="AE130" s="1">
         <v>5</v>
@@ -52609,7 +52594,7 @@
         <v>2421</v>
       </c>
       <c r="AG130" s="2" t="s">
-        <v>2779</v>
+        <v>2775</v>
       </c>
       <c r="AH130" s="1" t="s">
         <v>39</v>
@@ -52710,7 +52695,7 @@
         <v>2490</v>
       </c>
       <c r="AD131" s="2" t="s">
-        <v>2780</v>
+        <v>2776</v>
       </c>
       <c r="AE131" s="1">
         <v>5</v>
@@ -52719,7 +52704,7 @@
         <v>2491</v>
       </c>
       <c r="AG131" s="2" t="s">
-        <v>2780</v>
+        <v>2776</v>
       </c>
       <c r="AH131" s="1" t="s">
         <v>39</v>
@@ -52820,7 +52805,7 @@
         <v>2492</v>
       </c>
       <c r="AD132" s="2" t="s">
-        <v>2780</v>
+        <v>2776</v>
       </c>
       <c r="AE132" s="1">
         <v>5</v>
@@ -52829,7 +52814,7 @@
         <v>2493</v>
       </c>
       <c r="AG132" s="2" t="s">
-        <v>2780</v>
+        <v>2776</v>
       </c>
       <c r="AH132" s="1" t="s">
         <v>39</v>
@@ -52928,7 +52913,7 @@
         <v>2494</v>
       </c>
       <c r="AD133" s="2" t="s">
-        <v>2780</v>
+        <v>2776</v>
       </c>
       <c r="AE133" s="1">
         <v>5</v>
@@ -52937,7 +52922,7 @@
         <v>2495</v>
       </c>
       <c r="AG133" s="2" t="s">
-        <v>2780</v>
+        <v>2776</v>
       </c>
       <c r="AH133" s="1" t="s">
         <v>39</v>
@@ -53033,10 +53018,10 @@
         <v>4</v>
       </c>
       <c r="AC134" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="AD134" s="2" t="s">
         <v>2404</v>
-      </c>
-      <c r="AD134" s="2" t="s">
-        <v>2405</v>
       </c>
       <c r="AE134" s="1">
         <v>0</v>
@@ -53045,7 +53030,7 @@
         <v>2422</v>
       </c>
       <c r="AG134" s="2" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="AH134" s="1" t="s">
         <v>39</v>
@@ -53139,19 +53124,19 @@
         <v>5</v>
       </c>
       <c r="AC135" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="AD135" s="2" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="AE135" s="1">
         <v>3</v>
       </c>
       <c r="AF135" s="1" t="s">
-        <v>2606</v>
+        <v>2603</v>
       </c>
       <c r="AG135" s="2" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="AH135" s="1" t="s">
         <v>39</v>
@@ -53345,10 +53330,10 @@
         <v>5</v>
       </c>
       <c r="AC137" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="AD137" s="2" t="s">
         <v>2406</v>
-      </c>
-      <c r="AD137" s="2" t="s">
-        <v>2407</v>
       </c>
       <c r="AE137" s="1">
         <v>5</v>
@@ -53357,7 +53342,7 @@
         <v>2496</v>
       </c>
       <c r="AG137" s="2" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="AH137" s="1" t="s">
         <v>39</v>
@@ -53456,7 +53441,7 @@
         <v>2497</v>
       </c>
       <c r="AD138" s="2" t="s">
-        <v>2803</v>
+        <v>2796</v>
       </c>
       <c r="AE138" s="1">
         <v>3</v>
@@ -53465,7 +53450,7 @@
         <v>2498</v>
       </c>
       <c r="AG138" s="2" t="s">
-        <v>2803</v>
+        <v>2796</v>
       </c>
       <c r="AH138" s="1" t="s">
         <v>39</v>
@@ -53564,7 +53549,7 @@
         <v>2499</v>
       </c>
       <c r="AD139" s="2" t="s">
-        <v>2781</v>
+        <v>2777</v>
       </c>
       <c r="AE139" s="1">
         <v>5</v>
@@ -53573,7 +53558,7 @@
         <v>2500</v>
       </c>
       <c r="AG139" s="2" t="s">
-        <v>2781</v>
+        <v>2777</v>
       </c>
       <c r="AH139" s="1" t="s">
         <v>39</v>
@@ -53869,19 +53854,19 @@
         <v>5</v>
       </c>
       <c r="AC142" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="AD142" s="2" t="s">
-        <v>2794</v>
+        <v>2789</v>
       </c>
       <c r="AE142" s="1">
         <v>5</v>
       </c>
       <c r="AF142" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="AG142" s="2" t="s">
-        <v>2794</v>
+        <v>2789</v>
       </c>
       <c r="AH142" s="1" t="s">
         <v>39</v>
@@ -53971,19 +53956,19 @@
         <v>5</v>
       </c>
       <c r="AC143" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="AD143" s="2" t="s">
-        <v>2782</v>
+        <v>2778</v>
       </c>
       <c r="AE143" s="1">
         <v>3</v>
       </c>
       <c r="AF143" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="AG143" s="2" t="s">
-        <v>2782</v>
+        <v>2778</v>
       </c>
       <c r="AH143" s="1" t="s">
         <v>39</v>
@@ -54699,19 +54684,19 @@
         <v>5</v>
       </c>
       <c r="AC150" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="AD150" s="2" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="AE150" s="1">
         <v>3</v>
       </c>
       <c r="AF150" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="AG150" s="2" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="AH150" s="1" t="s">
         <v>39</v>
@@ -54804,7 +54789,7 @@
         <v>2501</v>
       </c>
       <c r="AD151" s="2" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="AE151" s="1">
         <v>5</v>
@@ -54813,7 +54798,7 @@
         <v>2502</v>
       </c>
       <c r="AG151" s="2" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="AH151" s="1" t="s">
         <v>39</v>
@@ -54909,10 +54894,10 @@
         <v>5</v>
       </c>
       <c r="AC152" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="AD152" s="2" t="s">
         <v>2410</v>
-      </c>
-      <c r="AD152" s="2" t="s">
-        <v>2411</v>
       </c>
       <c r="AE152" s="1">
         <v>5</v>
@@ -54921,7 +54906,7 @@
         <v>2423</v>
       </c>
       <c r="AG152" s="2" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="AH152" s="1" t="s">
         <v>39</v>
@@ -55018,7 +55003,7 @@
         <v>2503</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="AE153" s="1">
         <v>3</v>
@@ -55027,7 +55012,7 @@
         <v>2504</v>
       </c>
       <c r="AG153" s="2" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="AH153" s="1" t="s">
         <v>39</v>
@@ -55227,10 +55212,10 @@
         <v>5</v>
       </c>
       <c r="AC155" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="AD155" s="2" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="AE155" s="1">
         <v>3</v>
@@ -55239,7 +55224,7 @@
         <v>2505</v>
       </c>
       <c r="AG155" s="2" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="AH155" s="1" t="s">
         <v>39</v>
@@ -55332,7 +55317,7 @@
         <v>2506</v>
       </c>
       <c r="AD156" s="2" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="AE156" s="1">
         <v>5</v>
@@ -55341,7 +55326,7 @@
         <v>2507</v>
       </c>
       <c r="AG156" s="2" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="AH156" s="1" t="s">
         <v>39</v>
@@ -55438,7 +55423,7 @@
         <v>2523</v>
       </c>
       <c r="AD157" s="2" t="s">
-        <v>2783</v>
+        <v>2779</v>
       </c>
       <c r="AE157" s="1">
         <v>3</v>
@@ -55447,7 +55432,7 @@
         <v>2508</v>
       </c>
       <c r="AG157" s="2" t="s">
-        <v>2783</v>
+        <v>2779</v>
       </c>
       <c r="AH157" s="1" t="s">
         <v>39</v>
@@ -55548,7 +55533,7 @@
         <v>1936</v>
       </c>
       <c r="AD158" s="2" t="s">
-        <v>2796</v>
+        <v>2791</v>
       </c>
       <c r="AE158" s="1">
         <v>5</v>
@@ -55557,7 +55542,7 @@
         <v>2509</v>
       </c>
       <c r="AG158" s="2" t="s">
-        <v>2795</v>
+        <v>2790</v>
       </c>
       <c r="AH158" s="1" t="s">
         <v>39</v>
@@ -55627,19 +55612,19 @@
         <v>5</v>
       </c>
       <c r="AC159" s="1" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="AD159" s="2" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="AE159" s="1">
         <v>5</v>
       </c>
       <c r="AF159" s="1" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="AG159" s="2" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="AH159" s="1"/>
       <c r="AI159" s="1"/>
@@ -55739,7 +55724,7 @@
         <v>2510</v>
       </c>
       <c r="AG160" s="2" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="AH160" s="1" t="s">
         <v>39</v>
@@ -55834,7 +55819,7 @@
         <v>1941</v>
       </c>
       <c r="AD161" s="2" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="AE161" s="1">
         <v>5</v>
@@ -55843,7 +55828,7 @@
         <v>1942</v>
       </c>
       <c r="AG161" s="2" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="AH161" s="1" t="s">
         <v>39</v>
@@ -55942,7 +55927,7 @@
         <v>2511</v>
       </c>
       <c r="AD162" s="2" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="AE162" s="1">
         <v>5</v>
@@ -55951,7 +55936,7 @@
         <v>2512</v>
       </c>
       <c r="AG162" s="2" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="AH162" s="1" t="s">
         <v>39</v>
@@ -56052,7 +56037,7 @@
         <v>2513</v>
       </c>
       <c r="AD163" s="2" t="s">
-        <v>2784</v>
+        <v>2780</v>
       </c>
       <c r="AE163" s="1">
         <v>3</v>
@@ -56061,7 +56046,7 @@
         <v>2514</v>
       </c>
       <c r="AG163" s="2" t="s">
-        <v>2784</v>
+        <v>2780</v>
       </c>
       <c r="AH163" s="1" t="s">
         <v>39</v>
@@ -56162,10 +56147,10 @@
         <v>5</v>
       </c>
       <c r="AF164" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="AG164" s="2" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="AH164" s="1" t="s">
         <v>39</v>
@@ -56363,19 +56348,19 @@
         <v>5</v>
       </c>
       <c r="AC166" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="AD166" s="2" t="s">
         <v>2414</v>
-      </c>
-      <c r="AD166" s="2" t="s">
-        <v>2785</v>
       </c>
       <c r="AE166" s="1">
         <v>5</v>
       </c>
       <c r="AF166" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="AG166" s="2" t="s">
         <v>2414</v>
-      </c>
-      <c r="AG166" s="2" t="s">
-        <v>2785</v>
       </c>
       <c r="AH166" s="1" t="s">
         <v>39</v>
@@ -56587,7 +56572,7 @@
         <v>2515</v>
       </c>
       <c r="AG168" s="2" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="AH168" s="1" t="s">
         <v>39</v>
@@ -56683,19 +56668,19 @@
         <v>5</v>
       </c>
       <c r="AC169" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="AD169" s="2" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="AE169" s="1">
         <v>3</v>
       </c>
       <c r="AF169" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="AG169" s="2" t="s">
         <v>2569</v>
-      </c>
-      <c r="AG169" s="2" t="s">
-        <v>2570</v>
       </c>
       <c r="AH169" s="1" t="s">
         <v>39</v>
@@ -56794,7 +56779,7 @@
         <v>2516</v>
       </c>
       <c r="AD170" s="2" t="s">
-        <v>2786</v>
+        <v>2781</v>
       </c>
       <c r="AE170" s="1">
         <v>5</v>
@@ -56803,7 +56788,7 @@
         <v>2517</v>
       </c>
       <c r="AG170" s="2" t="s">
-        <v>2786</v>
+        <v>2781</v>
       </c>
       <c r="AH170" s="1" t="s">
         <v>39</v>
@@ -56900,7 +56885,7 @@
         <v>2524</v>
       </c>
       <c r="AD171" s="2" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="AE171" s="1">
         <v>2</v>
@@ -56909,7 +56894,7 @@
         <v>2525</v>
       </c>
       <c r="AG171" s="2" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="AH171" s="1" t="s">
         <v>39</v>
@@ -57285,7 +57270,7 @@
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2655</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57310,17 +57295,17 @@
     </row>
     <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2736</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>2737</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57330,7 +57315,7 @@
     </row>
     <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>2654</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57375,12 +57360,12 @@
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9AB88F-E569-4DE1-9CBA-531448373247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6A78FD-BE7F-4FB7-90F4-D0A053895F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9923" uniqueCount="2800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9923" uniqueCount="2802">
   <si>
     <t>id</t>
   </si>
@@ -7662,30 +7662,18 @@
     <t>perceived effectiveness; social influence; conventional coping; technological coping</t>
   </si>
   <si>
-    <t>management support; perceived trust; user's compliance behavior</t>
-  </si>
-  <si>
     <t>normative beliefs; existing non-compliant habitual behavior; compliance intention; continuation of non-compliant behavior</t>
   </si>
   <si>
     <t>government intrusion concern; privacy concern-information collection</t>
   </si>
   <si>
-    <t>past performance; locus of control; security intention (existing); security intentions (future)</t>
-  </si>
-  <si>
-    <t>information security awareness; information security organization policy; information security experience and involvement; attitude; subjective norms; perceived behavioral control; threat appraisal; information security conscious care behavior</t>
-  </si>
-  <si>
     <t>electronic device usage; information assurance awareness</t>
   </si>
   <si>
     <t>advertising value; brand trust; intention to use location-based advertising; privacy concerns</t>
   </si>
   <si>
-    <t>perceived threat severity; perceived threat susceptibility; fear; response efficacy; protection motivation</t>
-  </si>
-  <si>
     <t>PLS (Table 2), AVE (Table 3): learner control; training satisfaction; training perfomance; threat severity; threat susceptibility; behavioral intention</t>
   </si>
   <si>
@@ -7704,9 +7692,6 @@
     <t>PLS-SEM (Table A1), Fornell-Larcker (Table A2): sharing preferences; subjective norm; privacy risk awareness; privacy behavior</t>
   </si>
   <si>
-    <t>security attitude; social motivation</t>
-  </si>
-  <si>
     <t>Heterotrait-Monotrait ratio &lt; 0.85 (Table 3 in Appendix): security attitude; social motivation</t>
   </si>
   <si>
@@ -7723,9 +7708,6 @@
   </si>
   <si>
     <t>self-anticipated satisfaction; system-specific privacy concerns; perceived privacy protection; general online privacy concerns</t>
-  </si>
-  <si>
-    <t>perceived threat severity; perceived threat vulnerability; maladaptive rewards; fear; response efficacy; response cost; protection motivation</t>
   </si>
   <si>
     <t>security compliance burnout; difficult access to security requirements; high security skills requirements; security compliance overload; security exposure; organisational security resources</t>
@@ -8144,30 +8126,12 @@
     <t>PLS item loadings &gt; cross-loadings by at least 0.2 (Table 2), Fornell-Larcker (Table 4): learner control; training satisfaction; training perfomance; threat severity; threat susceptibility; behavioral intention</t>
   </si>
   <si>
-    <t>attitude; behavioral intention; descriptive norms; perceived severity; perceived vulnerability; response cost; response efficacy; subjective norms; social support</t>
-  </si>
-  <si>
-    <t>attitude; norms; specification; monitoring and evaluation; rewards; sanctions; senior management support</t>
-  </si>
-  <si>
-    <t>attitude; information security awareness; compliance intention; normative beliefs</t>
-  </si>
-  <si>
     <t>password compliance behavior; general security compliance behavior; general security awareness; general security orientation</t>
   </si>
   <si>
-    <t>descriptive information disclosure intention; social trust outcome expectations; customization outcome expectations; embarassment outcome expectations; information abuse outcome expectations; immediacy</t>
-  </si>
-  <si>
-    <t>perceived controllability; behavioral intention; perceived behavioral control</t>
-  </si>
-  <si>
     <t>perceived vulnerability; perceived severity; fear arousal; response efficacy; response cost; subjective norms; behavioral compliance intention</t>
   </si>
   <si>
-    <t>compliance knowledge of security policies; perceived vulnerability in security; attitudes towards security compliance; compliance intention regarding security policy</t>
-  </si>
-  <si>
     <t>sharing preferences; subjective norms; privacy risk awareness; privacy behavior</t>
   </si>
   <si>
@@ -8180,9 +8144,6 @@
     <t>threat awareness; perceived severity; perceived vulnerability; response efficacy; response cost; countermeasure awareness; desktop security behavior</t>
   </si>
   <si>
-    <t>perceived threat severity; perceived vulnerability; response cost; response efficacy; compliance intention; compliance behavior</t>
-  </si>
-  <si>
     <t>innovativeness; general privacy concern; perceived usefulness; perceived convenience; perceived vulnerability; perceived severity; coping efficacy; intention to disclose usage patterns; intention to disclose personal identifiers; intention to disclose biographical information; intention to disclose usage context; intention to disclose feedback information</t>
   </si>
   <si>
@@ -8205,12 +8166,6 @@
   </si>
   <si>
     <t>mobile phishing avoidance behavior; mobile phishing avoidance motivation; anticipated regret</t>
-  </si>
-  <si>
-    <t>moral obligation; subjective norms; attitude toward computer security behavior; computer security behavioral intention; perceived threat severity; perceived threat vulnerability; response efficacy; security policy; organizational norms</t>
-  </si>
-  <si>
-    <t>perceived threat severity; perceived vulnerability; response cost; response efficacy; compliance behavior; compliance intention</t>
   </si>
   <si>
     <t>validity_construct_discriminant_description_new: only include constructs (no methods), behavior (AE), do not include self-efficacy, response cost (singular), subjective norms (plural), behavioral intention (singular and not intent)</t>
@@ -8262,9 +8217,6 @@
     <t>Average Variance Extracted (AVE) value &gt;0.5: perceived usefulness; perceived threat; perceived expense; impact on the system performance; perceived barriers; perceived value; information security awareness; bring your own device information security protect intention</t>
   </si>
   <si>
-    <t>faciliating conditions; satisfaction; perceived usefulness; habit; continuous privacy policy compliance intention</t>
-  </si>
-  <si>
     <t>privacy protection behavior; information privacy concerns; perceived severity; perceived vulnerability; response efficacy; rewards</t>
   </si>
   <si>
@@ -8308,9 +8260,6 @@
   </si>
   <si>
     <t>AVE &gt; inter-construct correlations (Table 4): perceived severity; rewards; perceived vulnerability; response efficacy; users' information privacy concerns; privacy protection behavior</t>
-  </si>
-  <si>
-    <t>perceived severity; rewards; perceived vulnerability; response efficacy; users' information privacy concerns; privacy protection behavior</t>
   </si>
   <si>
     <t>item's standardized loadings &gt; 0.50 and sig. (Table 3): perceived severity; rewards; perceived vulnerability; response efficacy; users' information privacy concerns; privacy protection behavior</t>
@@ -8342,9 +8291,6 @@
     <t>emotional response to restricted choice; information security policy compliance intention; reactance to compliance; response efficacy; resistance to influence from others; reactance toward advice and recommendations; self-determination</t>
   </si>
   <si>
-    <t>information security technologies awareness; anti-malware protection; social bond theory</t>
-  </si>
-  <si>
     <t>informational support; emotional support; personal health information disclosure intention; health information privacy concerns; perceived severity; perceived vulnerability; response efficacy</t>
   </si>
   <si>
@@ -8875,18 +8821,12 @@
     <t>secure smartphone usage; secure smartphone usage</t>
   </si>
   <si>
-    <t>danger control intention; danger control attitudes; response efficacy</t>
-  </si>
-  <si>
     <t xml:space="preserve">intention to perform malware avoidance behaviors; perceived vulnerability; perceived severity; rewards; response efficacy; response cost </t>
   </si>
   <si>
     <t>avoidance behavior; perceived vulnerability; response efficacy; protection behavior; perceived severity</t>
   </si>
   <si>
-    <t>learner control; training satisfaction; training perfomance; perceived threat severity; perceived threat susceptibility; behavioral intention</t>
-  </si>
-  <si>
     <t>optimism bias; perceived threat; protection intention</t>
   </si>
   <si>
@@ -8896,21 +8836,9 @@
     <t>perceived severity; perceived vulnerability; response efficacy; response cost</t>
   </si>
   <si>
-    <t>personal information compromise; perceived threat severity; perceived threat vulnerability; response efficacy; response cost; trait positive affect; trait negative affect</t>
-  </si>
-  <si>
-    <t>perceived threat severity; perceived threat vulnerability; response efficacy; response cost; trait positive affect; trait negative affect</t>
-  </si>
-  <si>
-    <t>perceived threat severity; perceived threat susceptibility; response efficacy; behavioral intention</t>
-  </si>
-  <si>
     <t>perceived severity; perceived benefits; security behavior; security habit; perceived susceptibility; behavioral intention; perceived barriers; cues to action</t>
   </si>
   <si>
-    <t>self-disclosure; protection motivation; privacy concerns; perceived threat susceptibility; perceived threat severity; assurance mechanisms efficacy; privacy assurance statement; privacy customization</t>
-  </si>
-  <si>
     <t>transformational leadership; information security culture; general information security awareness; information security policy awareness; attitude; normative beliefs; intention to resist social engineering</t>
   </si>
   <si>
@@ -8929,12 +8857,6 @@
     <t>security behavior; perceived susceptibility; perceived severity; perceived benefits; perceived barriers; cues to action; general security orientation; technical controls; security familiarity</t>
   </si>
   <si>
-    <t>mobile device security usage; response cost; perceived threat severity; perceived threat susceptibility; protection motivation; response efficacy</t>
-  </si>
-  <si>
-    <t>behavioral intention; subjective norms; organizational commitment; attitude; perceived behavioral control; perceived controllability; perceived sanction severity; perceived sanction probability; cost-benefit analysis; perceived vulnerability; perceived threat severity; response efficacy</t>
-  </si>
-  <si>
     <t>religion/moral; legal/punishment; personality; subjective norms; perceived cost of compliance; technology awareness; general information security; general information policy; information security compliance behavior</t>
   </si>
   <si>
@@ -8953,22 +8875,106 @@
     <t>privacy settings use; perceived risk; perceived effectiveness; privacy valuation</t>
   </si>
   <si>
-    <t>privacy concerns; computer anxiety; ethics; perceived trust; risk-taking</t>
-  </si>
-  <si>
-    <t>perceived detector effort requirement; perceived loss due to detector error; perceived detector usefulness; perceived trust; perceived threat severity; perceived threat susceptibility</t>
-  </si>
-  <si>
     <t>perceived vulnerability; perceived severity; perceived risk; perceived trust; response efficacy; response cost; injunctive norms; descriptive norms; locus of control; protection motivation</t>
   </si>
   <si>
-    <t>information security policy compliance intention; general information security awareness; information security policy awareness; attitude; normative beliefs; perceived cost of compliance; work impediment; intrinsic benefit; intrinsic cost; rewards; safety of resources; perceived benefits of compliance; sanctions; perceived vulnerability of resources; perceived cost of non-compliance</t>
-  </si>
-  <si>
-    <t>compliance; compliance intention; attitude; normative beliefs; rewards; perceived severity; perceived vulnerability; response efficacy</t>
-  </si>
-  <si>
-    <t>flow (challenge, feedback, autonomy, immmersion, social interaction); psychological ownership; security education, training, and awareness effectiveness; security compliance intention; education; gender; computer hours; tenure</t>
+    <t>security attitude; security intention; descriptive norms; perceived severity; perceived vulnerability; response cost; response efficacy; subjective norms; social support</t>
+  </si>
+  <si>
+    <t>perceived severity; perceived vulnerability; response cost; response efficacy; compliance behavior; compliance intention</t>
+  </si>
+  <si>
+    <t>perceived severity; perceived vulnerability; maladaptive rewards; fear; response efficacy; response cost; protection motivation</t>
+  </si>
+  <si>
+    <t>personal information compromise; perceived severity; perceived vulnerability; response efficacy; response cost; trait positive affect; trait negative affect</t>
+  </si>
+  <si>
+    <t>perceived severity; perceived vulnerability; response efficacy; response cost; trait positive affect; trait negative affect</t>
+  </si>
+  <si>
+    <t>moral obligation; subjective norms; attitude toward computer security behavior; computer security behavioral intention; perceived severity; perceived vulnerability; response efficacy; security policy; organizational norms</t>
+  </si>
+  <si>
+    <t>mobile device security usage; response cost; perceived severity; perceived susceptibility; protection motivation; response efficacy</t>
+  </si>
+  <si>
+    <t>perceived severity; perceived susceptibility; fear; response efficacy; protection motivation</t>
+  </si>
+  <si>
+    <t>perceived severity; perceived susceptibility; response efficacy; behavioral intention</t>
+  </si>
+  <si>
+    <t>self-disclosure; protection motivation; privacy concerns; perceived susceptibility; perceived severity; assurance mechanisms efficacy; privacy assurance statement; privacy customization</t>
+  </si>
+  <si>
+    <t>danger control intention; danger control attitude; response efficacy</t>
+  </si>
+  <si>
+    <t>perceived severity; rewards; perceived vulnerability; response efficacy; information privacy concerns; privacy protection behavior</t>
+  </si>
+  <si>
+    <t>mobile protection settings awareness; mobile information protection intention; mobile privacy concerns; attitude toward information sharing; trust of mobile platform</t>
+  </si>
+  <si>
+    <t>information security technologies awareness; anti-malware protection; social bond theory (attachment, commitment, involvement, personal beliefs)</t>
+  </si>
+  <si>
+    <t>information security policy compliance intention; general information security awareness; information security policy awareness; attitude toward compliance; normative beliefs; perceived cost of compliance; work impediment; intrinsic benefit; intrinsic cost; rewards; safety of resources; perceived benefits of compliance; sanctions; perceived vulnerability of resources; perceived cost of non-compliance</t>
+  </si>
+  <si>
+    <t>information security attitude; information security norms; specification of information security policies and procedures; monitoring and evaluation; rewards; sanctions; senior management support</t>
+  </si>
+  <si>
+    <t>privacy concerns; computer anxiety; ethics; trust in technology; risk-taking</t>
+  </si>
+  <si>
+    <t>perceived severity; perceived vulnerability; response cost; response efficacy; compliance intention; compliance behavior</t>
+  </si>
+  <si>
+    <t>management support; perceived trust in information security policies; user's compliance behavior</t>
+  </si>
+  <si>
+    <t>attitude toward information security policy compliance; information security awareness; compliance intention; normative beliefs</t>
+  </si>
+  <si>
+    <t>faciliating conditions; satisfaction with prior compliance; perceived usefulness; habit to continue compliance; continuous privacy policy compliance intention</t>
+  </si>
+  <si>
+    <t>descriptive information disclosure intention; social trust outcome expectations; customization outcome expectations; embarassment outcome expectations; information abuse outcome expectations; personalized social cues of immediacy</t>
+  </si>
+  <si>
+    <t>government intrusion concerns; information collection privacy concerns</t>
+  </si>
+  <si>
+    <t>past performance (technical and security ability); locus of control; security intention (existing); security intention (future)</t>
+  </si>
+  <si>
+    <t>perceived controllability; intention to follow information security policy-directed behaviors; perceived behavioral control</t>
+  </si>
+  <si>
+    <t>information security awareness; information security organization policy; information security experience and involvement; attitude toward information security; subjective norms; perceived behavioral control; threat appraisal; information security conscious care behavior</t>
+  </si>
+  <si>
+    <t>compliance; compliance intention; attitude toward information security policy compliance; normative beliefs; rewards; perceived severity; perceived vulnerability; response efficacy</t>
+  </si>
+  <si>
+    <t>flow (challenge, feedback, autonomy, immmersion, social interaction); psychological ownership; security education, training, and awareness effectiveness; security compliance intention; education; gender; computer hours; employment tenure</t>
+  </si>
+  <si>
+    <t>perceived detector effort requirement; perceived loss due to detector error; perceived detector usefulness; trust in technology; perceived severity; perceived susceptibility</t>
+  </si>
+  <si>
+    <t>learner control; training satisfaction; training perfomance; perceived severity; perceived susceptibility; behavioral intention to comply with information security best practices</t>
+  </si>
+  <si>
+    <t>religion/moral; legal consequences/punishment; personality (big five); subjective norms; perceived cost of (non-)compliance; technology awareness; general information security; general information policy; information security compliance behavior</t>
+  </si>
+  <si>
+    <t>intention to perform information security policy-related behavior; subjective norms; organizational commitment; attitude toward compliance; perceived behavioral control; perceived controllability; perceived sanction severity; perceived sanction probability; cost-benefit analysis of compliance behavior; perceived vulnerability; perceived severity; response efficacy</t>
+  </si>
+  <si>
+    <t>compliance knowledge of security policies; perceived vulnerability in security; attitude toward security compliance; intention to comply with security policy</t>
   </si>
 </sst>
 </file>
@@ -9075,7 +9081,47 @@
   <dxfs count="99">
     <dxf>
       <font>
-        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -9089,7 +9135,20 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -9167,47 +9226,7 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -9221,20 +9240,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -10868,24 +10874,24 @@
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="validity_construct_factor_description" dataDxfId="15"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="validity_construct_factor_fitindices" dataDxfId="14"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="validity_construct_discriminant_type" dataDxfId="13"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="validity_construct_discriminant_description" dataDxfId="5"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="validity_construct_discriminant_description_new" dataDxfId="3"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="validity_construct_convergent_type" dataDxfId="4"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="validity_construct_convergent_description" dataDxfId="2"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="validity_construct_convergent_description_new" dataDxfId="0"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="validity_criterion_type" dataDxfId="1"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="validity_criterion_results" dataDxfId="12"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="validity_incremental" dataDxfId="11"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="validity_construct_discriminant_description" dataDxfId="12"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="validity_construct_discriminant_description_new" dataDxfId="11"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="validity_construct_convergent_type" dataDxfId="10"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="validity_construct_convergent_description" dataDxfId="9"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="validity_construct_convergent_description_new" dataDxfId="8"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="validity_criterion_type" dataDxfId="7"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="validity_criterion_results" dataDxfId="6"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="validity_incremental" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:A24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:A24" totalsRowShown="0" headerRowDxfId="4" dataDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="1">
   <autoFilter ref="A1:A24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Additional Coding Information:" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Additional Coding Information:" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11343,13 +11349,13 @@
         <v>2087</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>2653</v>
+        <v>2635</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>2695</v>
+        <v>2677</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>2696</v>
+        <v>2678</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>28</v>
@@ -11361,7 +11367,7 @@
         <v>2117</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>2639</v>
+        <v>2621</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>30</v>
@@ -11608,7 +11614,7 @@
         <v>55</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>2636</v>
+        <v>2618</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
@@ -11653,13 +11659,13 @@
         <v>1</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>2654</v>
+        <v>2636</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>2735</v>
+        <v>2717</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>2655</v>
+        <v>2637</v>
       </c>
       <c r="AH3" s="1">
         <v>1</v>
@@ -11674,7 +11680,7 @@
         <v>57</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>2708</v>
+        <v>2690</v>
       </c>
       <c r="AM3" s="1">
         <v>1</v>
@@ -11826,13 +11832,13 @@
         <v>1</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>2617</v>
+        <v>2599</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -11963,13 +11969,13 @@
         <v>1</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>2623</v>
+        <v>2605</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>2623</v>
+        <v>2605</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>2656</v>
+        <v>2638</v>
       </c>
       <c r="AH5" s="1">
         <v>0</v>
@@ -11984,7 +11990,7 @@
         <v>2120</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -12136,7 +12142,7 @@
         <v>936</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -12288,7 +12294,7 @@
         <v>936</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -12419,7 +12425,7 @@
         <v>2108</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>2657</v>
+        <v>2639</v>
       </c>
       <c r="AH8" s="1">
         <v>0</v>
@@ -12428,13 +12434,13 @@
         <v>1</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>2622</v>
+        <v>2604</v>
       </c>
       <c r="AK8" s="2" t="s">
         <v>936</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -12732,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>2753</v>
+        <v>2735</v>
       </c>
       <c r="AK10" s="2" t="s">
         <v>2121</v>
@@ -12884,13 +12890,13 @@
         <v>1</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>2754</v>
+        <v>2736</v>
       </c>
       <c r="AK11" s="2" t="s">
         <v>2124</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>2642</v>
+        <v>2624</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -13474,10 +13480,10 @@
         <v>176</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>2658</v>
+        <v>2640</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>2697</v>
+        <v>2679</v>
       </c>
       <c r="AH15" s="1">
         <v>0</v>
@@ -13644,7 +13650,7 @@
         <v>187</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM16" s="1">
         <v>0</v>
@@ -13775,13 +13781,13 @@
         <v>1</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>2659</v>
+        <v>2641</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>2624</v>
+        <v>2606</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>2660</v>
+        <v>2642</v>
       </c>
       <c r="AH17" s="1">
         <v>0</v>
@@ -13933,10 +13939,10 @@
         <v>208</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>2698</v>
+        <v>2680</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -13951,7 +13957,7 @@
         <v>2127</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>2643</v>
+        <v>2625</v>
       </c>
       <c r="AM18" s="1">
         <v>0</v>
@@ -14076,7 +14082,7 @@
         <v>219</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>2552</v>
+        <v>2537</v>
       </c>
       <c r="AC19" s="1">
         <v>0</v>
@@ -14240,10 +14246,10 @@
         <v>228</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>2699</v>
+        <v>2681</v>
       </c>
       <c r="AH20" s="1">
         <v>0</v>
@@ -14389,16 +14395,16 @@
         <v>1</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>2626</v>
+        <v>2608</v>
       </c>
       <c r="AE21" s="1" t="s">
         <v>2089</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>2661</v>
+        <v>2643</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>2700</v>
+        <v>2682</v>
       </c>
       <c r="AH21" s="1">
         <v>0</v>
@@ -14559,7 +14565,7 @@
         <v>2128</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -14705,13 +14711,13 @@
         <v>1</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>2755</v>
+        <v>2737</v>
       </c>
       <c r="AK23" s="2" t="s">
         <v>936</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM23" s="1">
         <v>0</v>
@@ -14863,7 +14869,7 @@
         <v>2119</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -15006,7 +15012,7 @@
         <v>2129</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>2644</v>
+        <v>2626</v>
       </c>
       <c r="AM25" s="1">
         <v>0</v>
@@ -15158,7 +15164,7 @@
         <v>282</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>2645</v>
+        <v>2627</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -15447,7 +15453,7 @@
         <v>2125</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -15727,7 +15733,7 @@
         <v>2094</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>2656</v>
+        <v>2638</v>
       </c>
       <c r="AH30" s="1">
         <v>0</v>
@@ -15742,7 +15748,7 @@
         <v>2123</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -15879,7 +15885,7 @@
         <v>329</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>2657</v>
+        <v>2639</v>
       </c>
       <c r="AH31" s="1">
         <v>0</v>
@@ -15894,7 +15900,7 @@
         <v>2131</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>2646</v>
+        <v>2628</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -16043,7 +16049,7 @@
         <v>2123</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -16186,7 +16192,7 @@
         <v>2132</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -16323,10 +16329,10 @@
         <v>2090</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>2662</v>
+        <v>2644</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>2701</v>
+        <v>2683</v>
       </c>
       <c r="AH34" s="1">
         <v>1</v>
@@ -16496,7 +16502,7 @@
         <v>2095</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -16642,13 +16648,13 @@
         <v>1</v>
       </c>
       <c r="AJ36" s="2" t="s">
-        <v>2615</v>
+        <v>2597</v>
       </c>
       <c r="AK36" s="2" t="s">
-        <v>2631</v>
+        <v>2613</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>2709</v>
+        <v>2691</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
@@ -16800,7 +16806,7 @@
         <v>2123</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -16958,7 +16964,7 @@
         <v>2095</v>
       </c>
       <c r="AL38" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM38" s="1">
         <v>0</v>
@@ -17101,7 +17107,7 @@
         <v>2095</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -17244,7 +17250,7 @@
         <v>2095</v>
       </c>
       <c r="AL40" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -17515,16 +17521,16 @@
         <v>1</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>2663</v>
+        <v>2645</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>2736</v>
+        <v>2718</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>2664</v>
+        <v>2646</v>
       </c>
       <c r="AG42" s="1" t="s">
-        <v>2702</v>
+        <v>2684</v>
       </c>
       <c r="AH42" s="1">
         <v>0</v>
@@ -17688,13 +17694,13 @@
         <v>1</v>
       </c>
       <c r="AJ43" s="2" t="s">
-        <v>2710</v>
+        <v>2692</v>
       </c>
       <c r="AK43" s="2" t="s">
-        <v>2711</v>
+        <v>2693</v>
       </c>
       <c r="AL43" s="1" t="s">
-        <v>2712</v>
+        <v>2694</v>
       </c>
       <c r="AM43" s="1">
         <v>0</v>
@@ -17843,7 +17849,7 @@
         <v>2133</v>
       </c>
       <c r="AL44" s="1" t="s">
-        <v>2713</v>
+        <v>2695</v>
       </c>
       <c r="AM44" s="1">
         <v>0</v>
@@ -17980,10 +17986,10 @@
         <v>444</v>
       </c>
       <c r="AK45" s="2" t="s">
-        <v>2744</v>
+        <v>2726</v>
       </c>
       <c r="AL45" s="1" t="s">
-        <v>2649</v>
+        <v>2631</v>
       </c>
       <c r="AM45" s="1">
         <v>0</v>
@@ -18120,13 +18126,13 @@
         <v>1</v>
       </c>
       <c r="AJ46" s="2" t="s">
-        <v>2618</v>
+        <v>2600</v>
       </c>
       <c r="AK46" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="AL46" s="1" t="s">
-        <v>2643</v>
+        <v>2625</v>
       </c>
       <c r="AM46" s="1">
         <v>0</v>
@@ -18281,7 +18287,7 @@
         <v>936</v>
       </c>
       <c r="AL47" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM47" s="1">
         <v>0</v>
@@ -18430,7 +18436,7 @@
         <v>2136</v>
       </c>
       <c r="AL48" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM48" s="1">
         <v>0</v>
@@ -18582,7 +18588,7 @@
         <v>2134</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM49" s="1">
         <v>0</v>
@@ -18731,10 +18737,10 @@
         <v>491</v>
       </c>
       <c r="AK50" s="2" t="s">
-        <v>2745</v>
+        <v>2727</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM50" s="1">
         <v>0</v>
@@ -18883,7 +18889,7 @@
         <v>2119</v>
       </c>
       <c r="AL51" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM51" s="1">
         <v>0</v>
@@ -19020,7 +19026,7 @@
         <v>2109</v>
       </c>
       <c r="AF52" s="1" t="s">
-        <v>2665</v>
+        <v>2647</v>
       </c>
       <c r="AH52" s="1">
         <v>1</v>
@@ -19035,7 +19041,7 @@
         <v>2146</v>
       </c>
       <c r="AL52" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM52" s="1">
         <v>0</v>
@@ -19327,7 +19333,7 @@
         <v>1</v>
       </c>
       <c r="AJ54" s="2" t="s">
-        <v>2756</v>
+        <v>2738</v>
       </c>
       <c r="AK54" s="2" t="s">
         <v>1582</v>
@@ -19479,7 +19485,7 @@
         <v>1</v>
       </c>
       <c r="AJ55" s="2" t="s">
-        <v>2756</v>
+        <v>2738</v>
       </c>
       <c r="AK55" s="2" t="s">
         <v>1582</v>
@@ -19765,7 +19771,7 @@
         <v>2106</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AH57" s="1">
         <v>0</v>
@@ -19780,7 +19786,7 @@
         <v>936</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM57" s="1">
         <v>0</v>
@@ -19911,13 +19917,13 @@
         <v>1</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>2666</v>
+        <v>2648</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>2667</v>
+        <v>2649</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>2665</v>
+        <v>2647</v>
       </c>
       <c r="AH58" s="1">
         <v>1</v>
@@ -20069,10 +20075,10 @@
         <v>2091</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>2668</v>
+        <v>2650</v>
       </c>
       <c r="AG59" s="1" t="s">
-        <v>2703</v>
+        <v>2685</v>
       </c>
       <c r="AH59" s="1">
         <v>0</v>
@@ -20087,7 +20093,7 @@
         <v>2137</v>
       </c>
       <c r="AL59" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -20221,7 +20227,7 @@
         <v>2092</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>2657</v>
+        <v>2639</v>
       </c>
       <c r="AH60" s="1">
         <v>0</v>
@@ -20236,7 +20242,7 @@
         <v>282</v>
       </c>
       <c r="AL60" s="1" t="s">
-        <v>2645</v>
+        <v>2627</v>
       </c>
       <c r="AM60" s="1">
         <v>0</v>
@@ -20376,7 +20382,7 @@
         <v>2138</v>
       </c>
       <c r="AL61" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM61" s="1">
         <v>0</v>
@@ -20453,7 +20459,7 @@
         <v>787</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>2637</v>
+        <v>2619</v>
       </c>
       <c r="P62" s="1">
         <v>1</v>
@@ -20498,13 +20504,13 @@
         <v>1</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>2750</v>
+        <v>2732</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>2737</v>
+        <v>2719</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>2669</v>
+        <v>2651</v>
       </c>
       <c r="AH62" s="1">
         <v>1</v>
@@ -20677,7 +20683,7 @@
         <v>2123</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -20829,7 +20835,7 @@
         <v>2106</v>
       </c>
       <c r="AL64" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -20966,13 +20972,13 @@
         <v>1</v>
       </c>
       <c r="AJ65" s="2" t="s">
-        <v>2612</v>
+        <v>2594</v>
       </c>
       <c r="AK65" s="2" t="s">
         <v>2139</v>
       </c>
       <c r="AL65" s="1" t="s">
-        <v>2714</v>
+        <v>2696</v>
       </c>
       <c r="AM65" s="1">
         <v>0</v>
@@ -21508,7 +21514,7 @@
         <v>936</v>
       </c>
       <c r="AL69" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM69" s="1">
         <v>0</v>
@@ -21639,7 +21645,7 @@
         <v>1676</v>
       </c>
       <c r="AF70" s="1" t="s">
-        <v>2670</v>
+        <v>2652</v>
       </c>
       <c r="AH70" s="1">
         <v>1</v>
@@ -21925,7 +21931,7 @@
         <v>855</v>
       </c>
       <c r="AF72" s="1" t="s">
-        <v>2671</v>
+        <v>2653</v>
       </c>
       <c r="AH72" s="1">
         <v>1</v>
@@ -21940,7 +21946,7 @@
         <v>2140</v>
       </c>
       <c r="AL72" s="1" t="s">
-        <v>2715</v>
+        <v>2697</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -22357,7 +22363,7 @@
         <v>2119</v>
       </c>
       <c r="AL75" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM75" s="1">
         <v>0</v>
@@ -22655,13 +22661,13 @@
         <v>1</v>
       </c>
       <c r="AJ77" s="2" t="s">
-        <v>2757</v>
+        <v>2739</v>
       </c>
       <c r="AK77" s="2" t="s">
-        <v>2740</v>
+        <v>2722</v>
       </c>
       <c r="AL77" s="1" t="s">
-        <v>2716</v>
+        <v>2698</v>
       </c>
       <c r="AM77" s="1">
         <v>0</v>
@@ -22792,13 +22798,13 @@
         <v>1</v>
       </c>
       <c r="AJ78" s="2" t="s">
-        <v>2757</v>
+        <v>2739</v>
       </c>
       <c r="AK78" s="2" t="s">
-        <v>2741</v>
+        <v>2723</v>
       </c>
       <c r="AL78" s="1" t="s">
-        <v>2716</v>
+        <v>2698</v>
       </c>
       <c r="AM78" s="1">
         <v>0</v>
@@ -22929,13 +22935,13 @@
         <v>1</v>
       </c>
       <c r="AJ79" s="2" t="s">
-        <v>2757</v>
+        <v>2739</v>
       </c>
       <c r="AK79" s="2" t="s">
-        <v>2742</v>
+        <v>2724</v>
       </c>
       <c r="AL79" s="1" t="s">
-        <v>2716</v>
+        <v>2698</v>
       </c>
       <c r="AM79" s="1">
         <v>0</v>
@@ -23075,13 +23081,13 @@
         <v>1</v>
       </c>
       <c r="AJ80" s="2" t="s">
-        <v>2758</v>
+        <v>2740</v>
       </c>
       <c r="AK80" s="2" t="s">
-        <v>2717</v>
+        <v>2699</v>
       </c>
       <c r="AL80" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM80" s="1">
         <v>0</v>
@@ -23227,7 +23233,7 @@
         <v>1</v>
       </c>
       <c r="AJ81" s="2" t="s">
-        <v>2616</v>
+        <v>2598</v>
       </c>
       <c r="AK81" s="2" t="s">
         <v>993</v>
@@ -23352,13 +23358,13 @@
         <v>1</v>
       </c>
       <c r="AD82" s="2" t="s">
-        <v>2625</v>
+        <v>2607</v>
       </c>
       <c r="AE82" s="1" t="s">
         <v>2093</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>2656</v>
+        <v>2638</v>
       </c>
       <c r="AH82" s="1">
         <v>0</v>
@@ -23367,7 +23373,7 @@
         <v>1</v>
       </c>
       <c r="AJ82" s="2" t="s">
-        <v>2616</v>
+        <v>2598</v>
       </c>
       <c r="AK82" s="2" t="s">
         <v>993</v>
@@ -23501,10 +23507,10 @@
         <v>2115</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>2672</v>
+        <v>2654</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>2704</v>
+        <v>2686</v>
       </c>
       <c r="AH83" s="1">
         <v>1</v>
@@ -23519,7 +23525,7 @@
         <v>911</v>
       </c>
       <c r="AL83" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM83" s="1">
         <v>0</v>
@@ -23665,7 +23671,7 @@
         <v>919</v>
       </c>
       <c r="AL84" s="1" t="s">
-        <v>2645</v>
+        <v>2627</v>
       </c>
       <c r="AM84" s="1">
         <v>0</v>
@@ -23790,7 +23796,7 @@
         <v>2116</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>2673</v>
+        <v>2655</v>
       </c>
       <c r="AH85" s="1">
         <v>0</v>
@@ -23805,7 +23811,7 @@
         <v>2141</v>
       </c>
       <c r="AL85" s="1" t="s">
-        <v>2642</v>
+        <v>2624</v>
       </c>
       <c r="AM85" s="1">
         <v>0</v>
@@ -23930,16 +23936,16 @@
         <v>1</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>2751</v>
+        <v>2733</v>
       </c>
       <c r="AE86" s="1" t="s">
         <v>2105</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>2674</v>
+        <v>2656</v>
       </c>
       <c r="AG86" s="1" t="s">
-        <v>2705</v>
+        <v>2687</v>
       </c>
       <c r="AH86" s="1">
         <v>0</v>
@@ -23954,7 +23960,7 @@
         <v>936</v>
       </c>
       <c r="AL86" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM86" s="1">
         <v>0</v>
@@ -24085,10 +24091,10 @@
         <v>943</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AG87" s="1" t="s">
-        <v>2701</v>
+        <v>2683</v>
       </c>
       <c r="AH87" s="1">
         <v>0</v>
@@ -24103,7 +24109,7 @@
         <v>936</v>
       </c>
       <c r="AL87" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM87" s="1">
         <v>0</v>
@@ -24234,16 +24240,16 @@
         <v>1</v>
       </c>
       <c r="AD88" s="2" t="s">
-        <v>2748</v>
+        <v>2730</v>
       </c>
       <c r="AE88" s="1" t="s">
-        <v>2749</v>
+        <v>2731</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>2675</v>
+        <v>2657</v>
       </c>
       <c r="AG88" s="1" t="s">
-        <v>2706</v>
+        <v>2688</v>
       </c>
       <c r="AH88" s="1">
         <v>0</v>
@@ -24386,16 +24392,16 @@
         <v>1</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>2676</v>
+        <v>2658</v>
       </c>
       <c r="AE89" s="1" t="s">
         <v>2106</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AG89" s="1" t="s">
-        <v>2698</v>
+        <v>2680</v>
       </c>
       <c r="AH89" s="1">
         <v>0</v>
@@ -24410,7 +24416,7 @@
         <v>936</v>
       </c>
       <c r="AL89" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM89" s="1">
         <v>0</v>
@@ -24559,7 +24565,7 @@
         <v>919</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>2645</v>
+        <v>2627</v>
       </c>
       <c r="AM90" s="1">
         <v>0</v>
@@ -25128,13 +25134,13 @@
         <v>1</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>2752</v>
+        <v>2734</v>
       </c>
       <c r="AE94" s="1" t="s">
-        <v>2677</v>
+        <v>2659</v>
       </c>
       <c r="AF94" s="1" t="s">
-        <v>2678</v>
+        <v>2660</v>
       </c>
       <c r="AH94" s="1">
         <v>1</v>
@@ -25274,16 +25280,16 @@
         <v>1</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>2619</v>
+        <v>2601</v>
       </c>
       <c r="AE95" s="1" t="s">
         <v>2096</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>2658</v>
+        <v>2640</v>
       </c>
       <c r="AG95" s="1" t="s">
-        <v>2704</v>
+        <v>2686</v>
       </c>
       <c r="AH95" s="1">
         <v>0</v>
@@ -25292,7 +25298,7 @@
         <v>1</v>
       </c>
       <c r="AJ95" s="2" t="s">
-        <v>2620</v>
+        <v>2602</v>
       </c>
       <c r="AK95" s="2" t="s">
         <v>2126</v>
@@ -25435,13 +25441,13 @@
         <v>1</v>
       </c>
       <c r="AJ96" s="2" t="s">
-        <v>2759</v>
+        <v>2741</v>
       </c>
       <c r="AK96" s="2" t="s">
-        <v>2747</v>
+        <v>2729</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>2658</v>
+        <v>2640</v>
       </c>
       <c r="AM96" s="1">
         <v>0</v>
@@ -25715,7 +25721,7 @@
         <v>2107</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>2679</v>
+        <v>2661</v>
       </c>
       <c r="AH98" s="1">
         <v>0</v>
@@ -25876,13 +25882,13 @@
         <v>1</v>
       </c>
       <c r="AJ99" s="2" t="s">
-        <v>2614</v>
+        <v>2596</v>
       </c>
       <c r="AK99" s="2" t="s">
         <v>2142</v>
       </c>
       <c r="AL99" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM99" s="1">
         <v>0</v>
@@ -26016,10 +26022,10 @@
         <v>943</v>
       </c>
       <c r="AF100" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AG100" s="1" t="s">
-        <v>2701</v>
+        <v>2683</v>
       </c>
       <c r="AH100" s="1">
         <v>0</v>
@@ -26171,7 +26177,7 @@
         <v>2097</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>2665</v>
+        <v>2647</v>
       </c>
       <c r="AH101" s="1">
         <v>1</v>
@@ -26326,7 +26332,7 @@
         <v>282</v>
       </c>
       <c r="AL102" s="1" t="s">
-        <v>2645</v>
+        <v>2627</v>
       </c>
       <c r="AM102" s="1">
         <v>0</v>
@@ -26463,7 +26469,7 @@
         <v>2098</v>
       </c>
       <c r="AF103" s="1" t="s">
-        <v>2680</v>
+        <v>2662</v>
       </c>
       <c r="AH103" s="1">
         <v>1</v>
@@ -26475,10 +26481,10 @@
         <v>1079</v>
       </c>
       <c r="AK103" s="2" t="s">
-        <v>2632</v>
+        <v>2614</v>
       </c>
       <c r="AL103" s="1" t="s">
-        <v>2658</v>
+        <v>2640</v>
       </c>
       <c r="AM103" s="1">
         <v>0</v>
@@ -26627,7 +26633,7 @@
         <v>2123</v>
       </c>
       <c r="AL104" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM104" s="1">
         <v>0</v>
@@ -26752,7 +26758,7 @@
         <v>1094</v>
       </c>
       <c r="AF105" s="1" t="s">
-        <v>2665</v>
+        <v>2647</v>
       </c>
       <c r="AH105" s="1">
         <v>0</v>
@@ -26901,10 +26907,10 @@
         <v>2080</v>
       </c>
       <c r="AK106" s="2" t="s">
-        <v>2627</v>
+        <v>2609</v>
       </c>
       <c r="AL106" s="1" t="s">
-        <v>2718</v>
+        <v>2700</v>
       </c>
       <c r="AM106" s="1">
         <v>0</v>
@@ -27044,13 +27050,13 @@
         <v>1</v>
       </c>
       <c r="AJ107" s="2" t="s">
-        <v>2760</v>
+        <v>2742</v>
       </c>
       <c r="AK107" s="2" t="s">
-        <v>2719</v>
+        <v>2701</v>
       </c>
       <c r="AL107" s="1" t="s">
-        <v>2646</v>
+        <v>2628</v>
       </c>
       <c r="AM107" s="1">
         <v>0</v>
@@ -27199,7 +27205,7 @@
         <v>936</v>
       </c>
       <c r="AL108" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM108" s="1">
         <v>0</v>
@@ -27634,7 +27640,7 @@
         <v>1094</v>
       </c>
       <c r="AF111" s="1" t="s">
-        <v>2665</v>
+        <v>2647</v>
       </c>
       <c r="AH111" s="1">
         <v>0</v>
@@ -27649,7 +27655,7 @@
         <v>936</v>
       </c>
       <c r="AL111" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM111" s="1">
         <v>0</v>
@@ -27789,7 +27795,7 @@
         <v>1146</v>
       </c>
       <c r="AF112" s="1" t="s">
-        <v>2670</v>
+        <v>2652</v>
       </c>
       <c r="AH112" s="1">
         <v>0</v>
@@ -27804,7 +27810,7 @@
         <v>936</v>
       </c>
       <c r="AL112" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM112" s="1">
         <v>0</v>
@@ -28242,7 +28248,7 @@
         <v>1</v>
       </c>
       <c r="AJ115" s="2" t="s">
-        <v>2621</v>
+        <v>2603</v>
       </c>
       <c r="AK115" s="2" t="s">
         <v>1582</v>
@@ -28376,7 +28382,7 @@
         <v>1169</v>
       </c>
       <c r="AF116" s="1" t="s">
-        <v>2681</v>
+        <v>2663</v>
       </c>
       <c r="AH116" s="1">
         <v>1</v>
@@ -28528,7 +28534,7 @@
         <v>2109</v>
       </c>
       <c r="AF117" s="1" t="s">
-        <v>2665</v>
+        <v>2647</v>
       </c>
       <c r="AH117" s="1">
         <v>0</v>
@@ -28543,7 +28549,7 @@
         <v>2143</v>
       </c>
       <c r="AL117" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM117" s="1">
         <v>0</v>
@@ -28680,7 +28686,7 @@
         <v>2109</v>
       </c>
       <c r="AF118" s="1" t="s">
-        <v>2665</v>
+        <v>2647</v>
       </c>
       <c r="AH118" s="1">
         <v>0</v>
@@ -28695,7 +28701,7 @@
         <v>2144</v>
       </c>
       <c r="AL118" s="1" t="s">
-        <v>2647</v>
+        <v>2629</v>
       </c>
       <c r="AM118" s="1">
         <v>0</v>
@@ -28847,7 +28853,7 @@
         <v>2145</v>
       </c>
       <c r="AL119" s="1" t="s">
-        <v>2642</v>
+        <v>2624</v>
       </c>
       <c r="AM119" s="1">
         <v>0</v>
@@ -28996,10 +29002,10 @@
         <v>2082</v>
       </c>
       <c r="AK120" s="2" t="s">
-        <v>2720</v>
+        <v>2702</v>
       </c>
       <c r="AL120" s="1" t="s">
-        <v>2721</v>
+        <v>2703</v>
       </c>
       <c r="AM120" s="1">
         <v>0</v>
@@ -29294,13 +29300,13 @@
         <v>1</v>
       </c>
       <c r="AJ122" s="2" t="s">
-        <v>2761</v>
+        <v>2743</v>
       </c>
       <c r="AK122" s="2" t="s">
         <v>2136</v>
       </c>
       <c r="AL122" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM122" s="1">
         <v>0</v>
@@ -29446,13 +29452,13 @@
         <v>1</v>
       </c>
       <c r="AJ123" s="2" t="s">
-        <v>2722</v>
+        <v>2704</v>
       </c>
       <c r="AK123" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL123" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM123" s="1">
         <v>0</v>
@@ -29577,13 +29583,13 @@
         <v>1</v>
       </c>
       <c r="AD124" s="2" t="s">
-        <v>2682</v>
+        <v>2664</v>
       </c>
       <c r="AE124" s="1" t="s">
-        <v>2682</v>
+        <v>2664</v>
       </c>
       <c r="AF124" s="1" t="s">
-        <v>2683</v>
+        <v>2665</v>
       </c>
       <c r="AH124" s="1">
         <v>0</v>
@@ -29592,13 +29598,13 @@
         <v>1</v>
       </c>
       <c r="AJ124" s="2" t="s">
-        <v>2762</v>
+        <v>2744</v>
       </c>
       <c r="AK124" s="2" t="s">
         <v>2125</v>
       </c>
       <c r="AL124" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM124" s="1">
         <v>0</v>
@@ -29750,7 +29756,7 @@
         <v>2106</v>
       </c>
       <c r="AL125" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM125" s="1">
         <v>0</v>
@@ -29896,13 +29902,13 @@
         <v>1</v>
       </c>
       <c r="AJ126" s="2" t="s">
-        <v>2613</v>
+        <v>2595</v>
       </c>
       <c r="AK126" s="2" t="s">
         <v>2109</v>
       </c>
       <c r="AL126" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM126" s="1">
         <v>0</v>
@@ -30054,7 +30060,7 @@
         <v>936</v>
       </c>
       <c r="AL127" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM127" s="1">
         <v>0</v>
@@ -30206,7 +30212,7 @@
         <v>919</v>
       </c>
       <c r="AL128" s="1" t="s">
-        <v>2645</v>
+        <v>2627</v>
       </c>
       <c r="AM128" s="1">
         <v>0</v>
@@ -30358,7 +30364,7 @@
         <v>919</v>
       </c>
       <c r="AL129" s="1" t="s">
-        <v>2645</v>
+        <v>2627</v>
       </c>
       <c r="AM129" s="1">
         <v>0</v>
@@ -30665,7 +30671,7 @@
         <v>2083</v>
       </c>
       <c r="AL131" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM131" s="1">
         <v>0</v>
@@ -30817,7 +30823,7 @@
         <v>2137</v>
       </c>
       <c r="AL132" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM132" s="1">
         <v>0</v>
@@ -30954,7 +30960,7 @@
         <v>1676</v>
       </c>
       <c r="AF133" s="1" t="s">
-        <v>2670</v>
+        <v>2652</v>
       </c>
       <c r="AH133" s="1">
         <v>1</v>
@@ -31124,7 +31130,7 @@
         <v>1437</v>
       </c>
       <c r="AO134" s="1" t="s">
-        <v>2638</v>
+        <v>2620</v>
       </c>
       <c r="AP134" s="1">
         <v>201</v>
@@ -31255,7 +31261,7 @@
         <v>2100</v>
       </c>
       <c r="AF135" s="1" t="s">
-        <v>2684</v>
+        <v>2666</v>
       </c>
       <c r="AH135" s="1">
         <v>1</v>
@@ -31413,7 +31419,7 @@
         <v>2101</v>
       </c>
       <c r="AF136" s="1" t="s">
-        <v>2685</v>
+        <v>2667</v>
       </c>
       <c r="AH136" s="1">
         <v>0</v>
@@ -31428,7 +31434,7 @@
         <v>2101</v>
       </c>
       <c r="AL136" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM136" s="1">
         <v>0</v>
@@ -31565,10 +31571,10 @@
         <v>2110</v>
       </c>
       <c r="AF137" s="1" t="s">
-        <v>2686</v>
+        <v>2668</v>
       </c>
       <c r="AG137" s="1" t="s">
-        <v>2707</v>
+        <v>2689</v>
       </c>
       <c r="AH137" s="1">
         <v>0</v>
@@ -31577,13 +31583,13 @@
         <v>1</v>
       </c>
       <c r="AJ137" s="2" t="s">
-        <v>2723</v>
+        <v>2705</v>
       </c>
       <c r="AK137" s="2" t="s">
         <v>2110</v>
       </c>
       <c r="AL137" s="1" t="s">
-        <v>2724</v>
+        <v>2706</v>
       </c>
       <c r="AM137" s="1">
         <v>0</v>
@@ -31857,7 +31863,7 @@
         <v>2102</v>
       </c>
       <c r="AF139" s="1" t="s">
-        <v>2687</v>
+        <v>2669</v>
       </c>
       <c r="AH139" s="1">
         <v>0</v>
@@ -31869,10 +31875,10 @@
         <v>1480</v>
       </c>
       <c r="AK139" s="2" t="s">
-        <v>2629</v>
+        <v>2611</v>
       </c>
       <c r="AL139" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM139" s="1">
         <v>0</v>
@@ -32000,7 +32006,7 @@
         <v>2103</v>
       </c>
       <c r="AF140" s="1" t="s">
-        <v>2688</v>
+        <v>2670</v>
       </c>
       <c r="AH140" s="1">
         <v>0</v>
@@ -32015,7 +32021,7 @@
         <v>936</v>
       </c>
       <c r="AL140" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM140" s="1">
         <v>0</v>
@@ -32152,7 +32158,7 @@
         <v>2103</v>
       </c>
       <c r="AF141" s="1" t="s">
-        <v>2688</v>
+        <v>2670</v>
       </c>
       <c r="AH141" s="1">
         <v>0</v>
@@ -32167,7 +32173,7 @@
         <v>936</v>
       </c>
       <c r="AL141" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM141" s="1">
         <v>0</v>
@@ -32304,7 +32310,7 @@
         <v>2103</v>
       </c>
       <c r="AF142" s="1" t="s">
-        <v>2688</v>
+        <v>2670</v>
       </c>
       <c r="AH142" s="1">
         <v>0</v>
@@ -32319,7 +32325,7 @@
         <v>936</v>
       </c>
       <c r="AL142" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM142" s="1">
         <v>0</v>
@@ -32608,10 +32614,10 @@
         <v>2111</v>
       </c>
       <c r="AF144" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AG144" s="1" t="s">
-        <v>2698</v>
+        <v>2680</v>
       </c>
       <c r="AH144" s="1">
         <v>0</v>
@@ -32620,13 +32626,13 @@
         <v>1</v>
       </c>
       <c r="AJ144" s="2" t="s">
-        <v>2763</v>
+        <v>2745</v>
       </c>
       <c r="AK144" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL144" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM144" s="1">
         <v>0</v>
@@ -32751,16 +32757,16 @@
         <v>1</v>
       </c>
       <c r="AD145" s="2" t="s">
-        <v>2689</v>
+        <v>2671</v>
       </c>
       <c r="AE145" s="1" t="s">
-        <v>2738</v>
+        <v>2720</v>
       </c>
       <c r="AF145" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AG145" s="1" t="s">
-        <v>2698</v>
+        <v>2680</v>
       </c>
       <c r="AH145" s="1">
         <v>0</v>
@@ -32930,7 +32936,7 @@
         <v>911</v>
       </c>
       <c r="AL146" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM146" s="1">
         <v>0</v>
@@ -33079,10 +33085,10 @@
         <v>1528</v>
       </c>
       <c r="AK147" s="2" t="s">
-        <v>2630</v>
+        <v>2612</v>
       </c>
       <c r="AL147" s="1" t="s">
-        <v>2647</v>
+        <v>2629</v>
       </c>
       <c r="AM147" s="1">
         <v>0</v>
@@ -33219,7 +33225,7 @@
         <v>2092</v>
       </c>
       <c r="AF148" s="1" t="s">
-        <v>2657</v>
+        <v>2639</v>
       </c>
       <c r="AH148" s="1">
         <v>0</v>
@@ -33371,7 +33377,7 @@
         <v>2112</v>
       </c>
       <c r="AF149" s="1" t="s">
-        <v>2690</v>
+        <v>2672</v>
       </c>
       <c r="AH149" s="1">
         <v>0</v>
@@ -33383,10 +33389,10 @@
         <v>2058</v>
       </c>
       <c r="AK149" s="2" t="s">
-        <v>2739</v>
+        <v>2721</v>
       </c>
       <c r="AL149" s="1" t="s">
-        <v>2725</v>
+        <v>2707</v>
       </c>
       <c r="AM149" s="1">
         <v>0</v>
@@ -33529,13 +33535,13 @@
         <v>1</v>
       </c>
       <c r="AJ150" s="2" t="s">
-        <v>2764</v>
+        <v>2746</v>
       </c>
       <c r="AK150" s="2" t="s">
-        <v>2726</v>
+        <v>2708</v>
       </c>
       <c r="AL150" s="1" t="s">
-        <v>2727</v>
+        <v>2709</v>
       </c>
       <c r="AM150" s="1">
         <v>0</v>
@@ -33967,13 +33973,13 @@
         <v>1</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>2691</v>
+        <v>2673</v>
       </c>
       <c r="AE153" s="1" t="s">
         <v>2109</v>
       </c>
       <c r="AF153" s="1" t="s">
-        <v>2665</v>
+        <v>2647</v>
       </c>
       <c r="AH153" s="1">
         <v>0</v>
@@ -33982,13 +33988,13 @@
         <v>1</v>
       </c>
       <c r="AJ153" s="2" t="s">
-        <v>2765</v>
+        <v>2747</v>
       </c>
       <c r="AK153" s="2" t="s">
-        <v>2743</v>
+        <v>2725</v>
       </c>
       <c r="AL153" s="1" t="s">
-        <v>2658</v>
+        <v>2640</v>
       </c>
       <c r="AM153" s="1">
         <v>0</v>
@@ -34140,7 +34146,7 @@
         <v>2149</v>
       </c>
       <c r="AL154" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM154" s="1">
         <v>0</v>
@@ -34408,13 +34414,13 @@
         <v>1589</v>
       </c>
       <c r="AE156" s="1" t="s">
-        <v>2634</v>
+        <v>2616</v>
       </c>
       <c r="AF156" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AG156" s="1" t="s">
-        <v>2698</v>
+        <v>2680</v>
       </c>
       <c r="AH156" s="1">
         <v>0</v>
@@ -34426,10 +34432,10 @@
         <v>1590</v>
       </c>
       <c r="AK156" s="2" t="s">
-        <v>2633</v>
+        <v>2615</v>
       </c>
       <c r="AL156" s="1" t="s">
-        <v>2721</v>
+        <v>2703</v>
       </c>
       <c r="AM156" s="1">
         <v>0</v>
@@ -34572,13 +34578,13 @@
         <v>1</v>
       </c>
       <c r="AJ157" s="2" t="s">
-        <v>2728</v>
+        <v>2710</v>
       </c>
       <c r="AK157" s="2" t="s">
-        <v>2728</v>
+        <v>2710</v>
       </c>
       <c r="AL157" s="1" t="s">
-        <v>2729</v>
+        <v>2711</v>
       </c>
       <c r="AM157" s="1">
         <v>0</v>
@@ -34712,10 +34718,10 @@
         <v>1603</v>
       </c>
       <c r="AE158" s="1" t="s">
-        <v>2623</v>
+        <v>2605</v>
       </c>
       <c r="AF158" s="1" t="s">
-        <v>2656</v>
+        <v>2638</v>
       </c>
       <c r="AH158" s="1">
         <v>0</v>
@@ -34882,7 +34888,7 @@
         <v>2150</v>
       </c>
       <c r="AL159" s="1" t="s">
-        <v>2643</v>
+        <v>2625</v>
       </c>
       <c r="AM159" s="1">
         <v>0</v>
@@ -35013,7 +35019,7 @@
         <v>1676</v>
       </c>
       <c r="AF160" s="1" t="s">
-        <v>2670</v>
+        <v>2652</v>
       </c>
       <c r="AH160" s="1">
         <v>0</v>
@@ -35171,7 +35177,7 @@
         <v>2123</v>
       </c>
       <c r="AL161" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM161" s="1">
         <v>0</v>
@@ -35323,7 +35329,7 @@
         <v>2151</v>
       </c>
       <c r="AL162" s="1" t="s">
-        <v>2648</v>
+        <v>2630</v>
       </c>
       <c r="AM162" s="1">
         <v>0</v>
@@ -35475,7 +35481,7 @@
         <v>919</v>
       </c>
       <c r="AL163" s="1" t="s">
-        <v>2645</v>
+        <v>2627</v>
       </c>
       <c r="AM163" s="1">
         <v>0</v>
@@ -35767,7 +35773,7 @@
         <v>936</v>
       </c>
       <c r="AL165" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM165" s="1">
         <v>0</v>
@@ -35919,7 +35925,7 @@
         <v>2119</v>
       </c>
       <c r="AL166" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM166" s="1">
         <v>0</v>
@@ -36047,13 +36053,13 @@
         <v>1</v>
       </c>
       <c r="AD167" s="2" t="s">
-        <v>2692</v>
+        <v>2674</v>
       </c>
       <c r="AE167" s="1" t="s">
         <v>2104</v>
       </c>
       <c r="AF167" s="1" t="s">
-        <v>2656</v>
+        <v>2638</v>
       </c>
       <c r="AH167" s="1">
         <v>0</v>
@@ -36068,7 +36074,7 @@
         <v>2119</v>
       </c>
       <c r="AL167" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM167" s="1">
         <v>0</v>
@@ -36205,7 +36211,7 @@
         <v>1676</v>
       </c>
       <c r="AF168" s="1" t="s">
-        <v>2656</v>
+        <v>2638</v>
       </c>
       <c r="AH168" s="1">
         <v>1</v>
@@ -36339,7 +36345,7 @@
         <v>39</v>
       </c>
       <c r="AB169" s="1" t="s">
-        <v>2553</v>
+        <v>2538</v>
       </c>
       <c r="AC169" s="1" t="s">
         <v>39</v>
@@ -36500,7 +36506,7 @@
         <v>2123</v>
       </c>
       <c r="AL170" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM170" s="1">
         <v>0</v>
@@ -36637,10 +36643,10 @@
         <v>2113</v>
       </c>
       <c r="AF171" s="1" t="s">
-        <v>2658</v>
+        <v>2640</v>
       </c>
       <c r="AG171" s="1" t="s">
-        <v>2704</v>
+        <v>2686</v>
       </c>
       <c r="AH171" s="1">
         <v>0</v>
@@ -36652,10 +36658,10 @@
         <v>1698</v>
       </c>
       <c r="AK171" s="2" t="s">
-        <v>2635</v>
+        <v>2617</v>
       </c>
       <c r="AL171" s="1" t="s">
-        <v>2730</v>
+        <v>2712</v>
       </c>
       <c r="AM171" s="1">
         <v>0</v>
@@ -36795,7 +36801,7 @@
         <v>936</v>
       </c>
       <c r="AL172" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM172" s="1">
         <v>0</v>
@@ -36947,7 +36953,7 @@
         <v>2152</v>
       </c>
       <c r="AL173" s="1" t="s">
-        <v>2650</v>
+        <v>2632</v>
       </c>
       <c r="AM173" s="1">
         <v>0</v>
@@ -37081,7 +37087,7 @@
         <v>2107</v>
       </c>
       <c r="AF174" s="1" t="s">
-        <v>2693</v>
+        <v>2675</v>
       </c>
       <c r="AH174" s="1">
         <v>1</v>
@@ -37248,7 +37254,7 @@
         <v>2119</v>
       </c>
       <c r="AL175" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM175" s="1">
         <v>0</v>
@@ -37379,16 +37385,16 @@
         <v>1</v>
       </c>
       <c r="AD176" s="2" t="s">
-        <v>2694</v>
+        <v>2676</v>
       </c>
       <c r="AE176" s="1" t="s">
         <v>2111</v>
       </c>
       <c r="AF176" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AG176" s="1" t="s">
-        <v>2698</v>
+        <v>2680</v>
       </c>
       <c r="AH176" s="1">
         <v>0</v>
@@ -37558,7 +37564,7 @@
         <v>2125</v>
       </c>
       <c r="AL177" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM177" s="1">
         <v>0</v>
@@ -37701,7 +37707,7 @@
         <v>936</v>
       </c>
       <c r="AL178" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM178" s="1">
         <v>0</v>
@@ -37847,13 +37853,13 @@
         <v>1</v>
       </c>
       <c r="AJ179" s="2" t="s">
-        <v>2731</v>
+        <v>2713</v>
       </c>
       <c r="AK179" s="2" t="s">
-        <v>2731</v>
+        <v>2713</v>
       </c>
       <c r="AL179" s="1" t="s">
-        <v>2644</v>
+        <v>2626</v>
       </c>
       <c r="AM179" s="1">
         <v>0</v>
@@ -38130,7 +38136,7 @@
         <v>2114</v>
       </c>
       <c r="AF181" s="1" t="s">
-        <v>2657</v>
+        <v>2639</v>
       </c>
       <c r="AH181" s="1">
         <v>0</v>
@@ -38288,13 +38294,13 @@
         <v>1</v>
       </c>
       <c r="AJ182" s="2" t="s">
-        <v>2766</v>
+        <v>2748</v>
       </c>
       <c r="AK182" s="2" t="s">
         <v>2125</v>
       </c>
       <c r="AL182" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM182" s="1">
         <v>0</v>
@@ -38428,13 +38434,13 @@
         <v>1782</v>
       </c>
       <c r="AE183" s="1" t="s">
-        <v>2746</v>
+        <v>2728</v>
       </c>
       <c r="AF183" s="1" t="s">
-        <v>2658</v>
+        <v>2640</v>
       </c>
       <c r="AG183" s="1" t="s">
-        <v>2704</v>
+        <v>2686</v>
       </c>
       <c r="AH183" s="1">
         <v>0</v>
@@ -38449,7 +38455,7 @@
         <v>2154</v>
       </c>
       <c r="AL183" s="1" t="s">
-        <v>2643</v>
+        <v>2625</v>
       </c>
       <c r="AM183" s="1">
         <v>0</v>
@@ -38598,10 +38604,10 @@
         <v>1789</v>
       </c>
       <c r="AK184" s="2" t="s">
-        <v>2628</v>
+        <v>2610</v>
       </c>
       <c r="AL184" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AM184" s="1">
         <v>0</v>
@@ -38738,7 +38744,7 @@
         <v>2104</v>
       </c>
       <c r="AF185" s="1" t="s">
-        <v>2656</v>
+        <v>2638</v>
       </c>
       <c r="AH185" s="1">
         <v>0</v>
@@ -38753,7 +38759,7 @@
         <v>2155</v>
       </c>
       <c r="AL185" s="1" t="s">
-        <v>2658</v>
+        <v>2640</v>
       </c>
       <c r="AM185" s="1">
         <v>1</v>
@@ -38893,10 +38899,10 @@
         <v>1810</v>
       </c>
       <c r="AF186" s="1" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="AG186" s="1" t="s">
-        <v>2701</v>
+        <v>2683</v>
       </c>
       <c r="AH186" s="1">
         <v>0</v>
@@ -38911,7 +38917,7 @@
         <v>2125</v>
       </c>
       <c r="AL186" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM186" s="1">
         <v>0</v>
@@ -39057,13 +39063,13 @@
         <v>1</v>
       </c>
       <c r="AJ187" s="2" t="s">
-        <v>2767</v>
+        <v>2749</v>
       </c>
       <c r="AK187" s="2" t="s">
         <v>2137</v>
       </c>
       <c r="AL187" s="1" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="AM187" s="1">
         <v>0</v>
@@ -39119,8 +39125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC52" workbookViewId="0">
-      <selection activeCell="AG54" sqref="AG54"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD83" sqref="AD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39254,7 +39261,7 @@
         <v>601</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>2416</v>
+        <v>2410</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>602</v>
@@ -39344,19 +39351,19 @@
         <v>5</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>2554</v>
+        <v>2539</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>2527</v>
+        <v>2769</v>
       </c>
       <c r="AE2" s="1">
         <v>3</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>2527</v>
+        <v>2769</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>39</v>
@@ -39450,10 +39457,10 @@
         <v>0</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>2768</v>
+        <v>2779</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1" t="s">
@@ -39470,7 +39477,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -39552,19 +39559,19 @@
         <v>5</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>2580</v>
+        <v>2564</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>2581</v>
+        <v>2780</v>
       </c>
       <c r="AE4" s="1">
         <v>5</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>2582</v>
+        <v>2565</v>
       </c>
       <c r="AG4" s="10" t="s">
-        <v>2581</v>
+        <v>2780</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>39</v>
@@ -39758,19 +39765,19 @@
         <v>5</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>2574</v>
+        <v>2558</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>2785</v>
+        <v>2761</v>
       </c>
       <c r="AE6" s="1">
         <v>5</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>2574</v>
+        <v>2558</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>2785</v>
+        <v>2761</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>39</v>
@@ -39866,7 +39873,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>2520</v>
+        <v>2514</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>2365</v>
@@ -39875,7 +39882,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>2521</v>
+        <v>2515</v>
       </c>
       <c r="AG7" s="10" t="s">
         <v>2365</v>
@@ -40074,10 +40081,10 @@
         <v>5</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>2522</v>
+        <v>2516</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>2366</v>
+        <v>2781</v>
       </c>
       <c r="AE9" s="1">
         <v>5</v>
@@ -40098,7 +40105,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>86</v>
       </c>
@@ -40179,7 +40186,7 @@
         <v>641</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>2591</v>
+        <v>2782</v>
       </c>
       <c r="AE10" s="1">
         <v>3</v>
@@ -40188,7 +40195,7 @@
         <v>642</v>
       </c>
       <c r="AG10" s="10" t="s">
-        <v>2591</v>
+        <v>2782</v>
       </c>
       <c r="AH10" s="1" t="s">
         <v>39</v>
@@ -40375,7 +40382,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>2424</v>
+        <v>2418</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>39</v>
@@ -40404,7 +40411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>111</v>
       </c>
@@ -40486,19 +40493,19 @@
         <v>5</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>2558</v>
+        <v>2543</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>2797</v>
+        <v>2783</v>
       </c>
       <c r="AE13" s="1">
         <v>3</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>2559</v>
+        <v>2544</v>
       </c>
       <c r="AG13" s="10" t="s">
-        <v>2797</v>
+        <v>2783</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>39</v>
@@ -40583,7 +40590,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>2425</v>
+        <v>2419</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>39</v>
@@ -40716,7 +40723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>157</v>
       </c>
@@ -40802,19 +40809,19 @@
         <v>5</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>2610</v>
+        <v>2592</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>2528</v>
+        <v>2784</v>
       </c>
       <c r="AE16" s="1">
         <v>3</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>2611</v>
-      </c>
-      <c r="AG16" s="10" t="s">
-        <v>2528</v>
+        <v>2593</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>2784</v>
       </c>
       <c r="AH16" s="1" t="s">
         <v>39</v>
@@ -40901,7 +40908,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>2426</v>
+        <v>2420</v>
       </c>
       <c r="AA17" s="1" t="s">
         <v>39</v>
@@ -40910,19 +40917,19 @@
         <v>5</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>2427</v>
+        <v>2421</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>2769</v>
+        <v>2750</v>
       </c>
       <c r="AE17" s="1">
         <v>4</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>2428</v>
+        <v>2422</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>2769</v>
+        <v>2750</v>
       </c>
       <c r="AH17" s="1" t="s">
         <v>39</v>
@@ -40934,7 +40941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>164</v>
       </c>
@@ -41020,19 +41027,19 @@
         <v>5</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>2429</v>
+        <v>2423</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>2529</v>
+        <v>2788</v>
       </c>
       <c r="AE18" s="1">
         <v>3</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>2430</v>
-      </c>
-      <c r="AG18" s="10" t="s">
-        <v>2529</v>
+        <v>2424</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>2788</v>
       </c>
       <c r="AH18" s="1" t="s">
         <v>39</v>
@@ -41128,17 +41135,17 @@
         <v>5</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>2431</v>
+        <v>2425</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="1">
         <v>5</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>2432</v>
+        <v>2426</v>
       </c>
       <c r="AG19" s="10" t="s">
-        <v>2530</v>
+        <v>2521</v>
       </c>
       <c r="AH19" s="1" t="s">
         <v>39</v>
@@ -41538,19 +41545,19 @@
         <v>2</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>2433</v>
+        <v>2427</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>2794</v>
+        <v>2785</v>
       </c>
       <c r="AE23" s="1">
         <v>2</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>2433</v>
-      </c>
-      <c r="AG23" s="10" t="s">
-        <v>2794</v>
+        <v>2427</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>2785</v>
       </c>
       <c r="AH23" s="1" t="s">
         <v>39</v>
@@ -41664,7 +41671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>220</v>
       </c>
@@ -41751,16 +41758,16 @@
         <v>695</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>2786</v>
+        <v>2775</v>
       </c>
       <c r="AE25" s="1">
         <v>5</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>2434</v>
-      </c>
-      <c r="AG25" s="10" t="s">
-        <v>2786</v>
+        <v>2428</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>2775</v>
       </c>
       <c r="AH25" s="1" t="s">
         <v>39</v>
@@ -42056,19 +42063,19 @@
         <v>5</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>2435</v>
+        <v>2429</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>2783</v>
+        <v>2759</v>
       </c>
       <c r="AE28" s="1">
         <v>5</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>2436</v>
+        <v>2430</v>
       </c>
       <c r="AG28" s="10" t="s">
-        <v>2783</v>
+        <v>2759</v>
       </c>
       <c r="AH28" s="1" t="s">
         <v>39</v>
@@ -42080,7 +42087,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>270</v>
       </c>
@@ -42164,19 +42171,19 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>2437</v>
+        <v>2431</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>2368</v>
+        <v>2787</v>
       </c>
       <c r="AE29" s="1">
         <v>5</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>2438</v>
-      </c>
-      <c r="AG29" s="10" t="s">
-        <v>2368</v>
+        <v>2432</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>2787</v>
       </c>
       <c r="AH29" s="1" t="s">
         <v>39</v>
@@ -42271,7 +42278,7 @@
         <v>709</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>2770</v>
+        <v>2751</v>
       </c>
       <c r="AE30" s="1" t="s">
         <v>39</v>
@@ -42392,7 +42399,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>346</v>
       </c>
@@ -42478,19 +42485,19 @@
         <v>5</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>2604</v>
+        <v>2586</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>2565</v>
+        <v>2789</v>
       </c>
       <c r="AE32" s="1">
         <v>5</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>2605</v>
-      </c>
-      <c r="AG32" s="10" t="s">
-        <v>2565</v>
+        <v>2587</v>
+      </c>
+      <c r="AG32" s="2" t="s">
+        <v>2789</v>
       </c>
       <c r="AH32" s="1" t="s">
         <v>39</v>
@@ -42688,7 +42695,7 @@
         <v>5</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>2439</v>
+        <v>2433</v>
       </c>
       <c r="AD34" s="2" t="s">
         <v>2367</v>
@@ -42697,7 +42704,7 @@
         <v>3</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>2440</v>
+        <v>2434</v>
       </c>
       <c r="AG34" s="10" t="s">
         <v>2367</v>
@@ -42712,7 +42719,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>362</v>
       </c>
@@ -42792,19 +42799,19 @@
         <v>0</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>2441</v>
+        <v>2435</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>2531</v>
+        <v>2790</v>
       </c>
       <c r="AE35" s="1">
         <v>3</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>2442</v>
-      </c>
-      <c r="AG35" s="10" t="s">
-        <v>2531</v>
+        <v>2436</v>
+      </c>
+      <c r="AG35" s="2" t="s">
+        <v>2790</v>
       </c>
       <c r="AH35" s="1" t="s">
         <v>39</v>
@@ -42898,19 +42905,19 @@
         <v>5</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>2443</v>
+        <v>2437</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="AE36" s="1">
         <v>3</v>
       </c>
       <c r="AF36" s="1" t="s">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="AG36" s="10" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="AH36" s="1" t="s">
         <v>39</v>
@@ -43302,19 +43309,19 @@
         <v>5</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>2445</v>
+        <v>2439</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>2370</v>
+        <v>2791</v>
       </c>
       <c r="AE40" s="1">
         <v>5</v>
       </c>
       <c r="AF40" s="1" t="s">
-        <v>2446</v>
+        <v>2440</v>
       </c>
       <c r="AG40" s="10" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="AH40" s="1" t="s">
         <v>39</v>
@@ -43326,7 +43333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>429</v>
       </c>
@@ -43409,7 +43416,7 @@
         <v>735</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>2371</v>
+        <v>2792</v>
       </c>
       <c r="AE41" s="1">
         <v>4</v>
@@ -43417,8 +43424,8 @@
       <c r="AF41" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="AG41" s="10" t="s">
-        <v>2371</v>
+      <c r="AG41" s="2" t="s">
+        <v>2792</v>
       </c>
       <c r="AH41" s="1" t="s">
         <v>39</v>
@@ -43532,7 +43539,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>523</v>
       </c>
@@ -43619,16 +43626,16 @@
         <v>741</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>2532</v>
+        <v>2793</v>
       </c>
       <c r="AE43" s="1">
         <v>2</v>
       </c>
       <c r="AF43" s="1" t="s">
-        <v>2447</v>
-      </c>
-      <c r="AG43" s="10" t="s">
-        <v>2532</v>
+        <v>2441</v>
+      </c>
+      <c r="AG43" s="2" t="s">
+        <v>2793</v>
       </c>
       <c r="AH43" s="1" t="s">
         <v>39</v>
@@ -43722,19 +43729,19 @@
         <v>0</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>2448</v>
+        <v>2442</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>2372</v>
+        <v>2794</v>
       </c>
       <c r="AE44" s="1">
         <v>2</v>
       </c>
       <c r="AF44" s="1" t="s">
-        <v>2449</v>
-      </c>
-      <c r="AG44" s="10" t="s">
-        <v>2372</v>
+        <v>2443</v>
+      </c>
+      <c r="AG44" s="2" t="s">
+        <v>2794</v>
       </c>
       <c r="AH44" s="1" t="s">
         <v>39</v>
@@ -43930,19 +43937,19 @@
         <v>2</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>2450</v>
+        <v>2444</v>
       </c>
       <c r="AD46" s="2" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="AE46" s="1">
         <v>2</v>
       </c>
       <c r="AF46" s="1" t="s">
-        <v>2450</v>
+        <v>2444</v>
       </c>
       <c r="AG46" s="10" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="AH46" s="1" t="s">
         <v>39</v>
@@ -44127,7 +44134,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>2451</v>
+        <v>2445</v>
       </c>
       <c r="AA48" s="1" t="s">
         <v>39</v>
@@ -44136,19 +44143,19 @@
         <v>5</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>2452</v>
+        <v>2446</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="AE48" s="1">
         <v>5</v>
       </c>
       <c r="AF48" s="1" t="s">
-        <v>2453</v>
+        <v>2447</v>
       </c>
       <c r="AG48" s="10" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="AH48" s="1" t="s">
         <v>39</v>
@@ -44344,19 +44351,19 @@
         <v>5</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>2454</v>
+        <v>2448</v>
       </c>
       <c r="AD50" s="2" t="s">
-        <v>2533</v>
+        <v>2522</v>
       </c>
       <c r="AE50" s="1">
         <v>5</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>2455</v>
+        <v>2449</v>
       </c>
       <c r="AG50" s="11" t="s">
-        <v>2533</v>
+        <v>2522</v>
       </c>
       <c r="AH50" s="1" t="s">
         <v>39</v>
@@ -44450,10 +44457,10 @@
         <v>5</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>2575</v>
+        <v>2559</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>2784</v>
+        <v>2760</v>
       </c>
       <c r="AE51" s="1" t="s">
         <v>39</v>
@@ -44466,13 +44473,13 @@
         <v>2</v>
       </c>
       <c r="AI51" s="1" t="s">
-        <v>2576</v>
+        <v>2560</v>
       </c>
       <c r="AJ51" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>573</v>
       </c>
@@ -44552,10 +44559,10 @@
         <v>5</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>2456</v>
+        <v>2450</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="AE52" s="1">
         <v>5</v>
@@ -44563,8 +44570,8 @@
       <c r="AF52" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="AG52" s="10" t="s">
-        <v>2798</v>
+      <c r="AG52" s="2" t="s">
+        <v>2795</v>
       </c>
       <c r="AH52" s="1" t="s">
         <v>39</v>
@@ -44662,10 +44669,10 @@
         <v>5</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>2457</v>
+        <v>2451</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="AE53" s="1" t="s">
         <v>39</v>
@@ -44767,7 +44774,7 @@
         <v>773</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
       <c r="AE54" s="1">
         <v>4</v>
@@ -44775,8 +44782,8 @@
       <c r="AF54" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="AG54" s="10" t="s">
-        <v>2795</v>
+      <c r="AG54" s="2" t="s">
+        <v>2797</v>
       </c>
       <c r="AH54" s="1" t="s">
         <v>39</v>
@@ -44866,10 +44873,10 @@
         <v>5</v>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>2458</v>
+        <v>2452</v>
       </c>
       <c r="AD55" s="2" t="s">
-        <v>2375</v>
+        <v>2776</v>
       </c>
       <c r="AE55" s="1" t="s">
         <v>39</v>
@@ -44988,7 +44995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>11</v>
       </c>
@@ -45072,19 +45079,19 @@
         <v>5</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>2526</v>
+        <v>2520</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>2771</v>
+        <v>2798</v>
       </c>
       <c r="AE57" s="1" t="s">
         <v>219</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>2376</v>
-      </c>
-      <c r="AG57" s="10" t="s">
-        <v>2771</v>
+        <v>2372</v>
+      </c>
+      <c r="AG57" s="2" t="s">
+        <v>2798</v>
       </c>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1" t="s">
@@ -45094,7 +45101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>25</v>
       </c>
@@ -45172,19 +45179,19 @@
         <v>5</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>2788</v>
+        <v>2799</v>
       </c>
       <c r="AE58" s="1">
         <v>5</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>2377</v>
-      </c>
-      <c r="AG58" s="10" t="s">
-        <v>2788</v>
+        <v>2373</v>
+      </c>
+      <c r="AG58" s="2" t="s">
+        <v>2799</v>
       </c>
       <c r="AH58" s="1" t="s">
         <v>39</v>
@@ -45282,19 +45289,19 @@
         <v>5</v>
       </c>
       <c r="AC59" s="1" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>2594</v>
+        <v>2576</v>
       </c>
       <c r="AE59" s="1">
         <v>3</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>2417</v>
+        <v>2411</v>
       </c>
       <c r="AG59" s="10" t="s">
-        <v>2594</v>
+        <v>2576</v>
       </c>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1" t="s">
@@ -45304,7 +45311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -45390,19 +45397,19 @@
         <v>5</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>2598</v>
+        <v>2580</v>
       </c>
       <c r="AD60" s="2" t="s">
-        <v>2787</v>
+        <v>2800</v>
       </c>
       <c r="AE60" s="1">
         <v>5</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>2599</v>
-      </c>
-      <c r="AG60" s="10" t="s">
-        <v>2787</v>
+        <v>2581</v>
+      </c>
+      <c r="AG60" s="2" t="s">
+        <v>2800</v>
       </c>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1" t="s">
@@ -45412,7 +45419,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>56</v>
       </c>
@@ -45496,19 +45503,19 @@
         <v>5</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>2598</v>
+        <v>2580</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>2787</v>
+        <v>2800</v>
       </c>
       <c r="AE61" s="1">
         <v>5</v>
       </c>
       <c r="AF61" s="1" t="s">
-        <v>2600</v>
-      </c>
-      <c r="AG61" s="10" t="s">
-        <v>2787</v>
+        <v>2582</v>
+      </c>
+      <c r="AG61" s="2" t="s">
+        <v>2800</v>
       </c>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1" t="s">
@@ -45518,7 +45525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>56</v>
       </c>
@@ -45602,19 +45609,19 @@
         <v>5</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>2598</v>
+        <v>2580</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>2787</v>
+        <v>2800</v>
       </c>
       <c r="AE62" s="1">
         <v>5</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>2601</v>
-      </c>
-      <c r="AG62" s="10" t="s">
-        <v>2787</v>
+        <v>2583</v>
+      </c>
+      <c r="AG62" s="2" t="s">
+        <v>2800</v>
       </c>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1" t="s">
@@ -45624,7 +45631,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>56</v>
       </c>
@@ -45708,19 +45715,19 @@
         <v>5</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>2598</v>
+        <v>2580</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>2787</v>
+        <v>2800</v>
       </c>
       <c r="AE63" s="1">
         <v>5</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>2602</v>
-      </c>
-      <c r="AG63" s="10" t="s">
-        <v>2787</v>
+        <v>2584</v>
+      </c>
+      <c r="AG63" s="2" t="s">
+        <v>2800</v>
       </c>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1" t="s">
@@ -46000,7 +46007,7 @@
         <v>1</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="1">
@@ -46520,19 +46527,19 @@
         <v>3</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="AD71" s="2" t="s">
-        <v>2772</v>
+        <v>2752</v>
       </c>
       <c r="AE71" s="1">
         <v>3</v>
       </c>
       <c r="AF71" s="1" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="AG71" s="10" t="s">
-        <v>2772</v>
+        <v>2752</v>
       </c>
       <c r="AH71" s="1" t="s">
         <v>39</v>
@@ -47035,7 +47042,7 @@
         <v>2027</v>
       </c>
       <c r="AD76" s="2" t="s">
-        <v>2534</v>
+        <v>2801</v>
       </c>
       <c r="AE76" s="1">
         <v>5</v>
@@ -47043,8 +47050,8 @@
       <c r="AF76" s="1" t="s">
         <v>2028</v>
       </c>
-      <c r="AG76" s="10" t="s">
-        <v>2534</v>
+      <c r="AG76" s="2" t="s">
+        <v>2801</v>
       </c>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1" t="s">
@@ -47136,19 +47143,19 @@
         <v>5</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="AD77" s="2" t="s">
-        <v>2535</v>
+        <v>2523</v>
       </c>
       <c r="AE77" s="1">
         <v>5</v>
       </c>
       <c r="AF77" s="1" t="s">
-        <v>2459</v>
+        <v>2453</v>
       </c>
       <c r="AG77" s="10" t="s">
-        <v>2535</v>
+        <v>2523</v>
       </c>
       <c r="AH77" s="1"/>
       <c r="AI77" s="1"/>
@@ -47239,10 +47246,10 @@
         <v>5</v>
       </c>
       <c r="AF78" s="1" t="s">
-        <v>2460</v>
+        <v>2454</v>
       </c>
       <c r="AG78" s="10" t="s">
-        <v>2536</v>
+        <v>2524</v>
       </c>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1" t="s">
@@ -47434,19 +47441,19 @@
         <v>1</v>
       </c>
       <c r="AC80" s="1" t="s">
-        <v>2383</v>
+        <v>2378</v>
       </c>
       <c r="AD80" s="2" t="s">
-        <v>2382</v>
+        <v>2525</v>
       </c>
       <c r="AE80" s="1">
         <v>3</v>
       </c>
       <c r="AF80" s="1" t="s">
-        <v>2418</v>
+        <v>2412</v>
       </c>
       <c r="AG80" s="10" t="s">
-        <v>2537</v>
+        <v>2525</v>
       </c>
       <c r="AH80" s="1" t="s">
         <v>39</v>
@@ -47742,19 +47749,19 @@
         <v>5</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>2384</v>
+        <v>2379</v>
       </c>
       <c r="AD83" s="2" t="s">
-        <v>2773</v>
+        <v>2753</v>
       </c>
       <c r="AE83" s="1">
         <v>5</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>2461</v>
+        <v>2455</v>
       </c>
       <c r="AG83" s="10" t="s">
-        <v>2538</v>
+        <v>2526</v>
       </c>
       <c r="AH83" s="1"/>
       <c r="AI83" s="1" t="s">
@@ -48042,19 +48049,19 @@
         <v>5</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>2555</v>
+        <v>2540</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>2556</v>
+        <v>2541</v>
       </c>
       <c r="AE86" s="1">
         <v>3</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>2557</v>
+        <v>2542</v>
       </c>
       <c r="AG86" s="10" t="s">
-        <v>2556</v>
+        <v>2541</v>
       </c>
       <c r="AH86" s="1"/>
       <c r="AI86" s="1" t="s">
@@ -48146,19 +48153,19 @@
         <v>5</v>
       </c>
       <c r="AC87" s="1" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
       <c r="AD87" s="2" t="s">
-        <v>2549</v>
+        <v>2770</v>
       </c>
       <c r="AE87" s="1">
         <v>3</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>2462</v>
+        <v>2456</v>
       </c>
       <c r="AG87" s="10" t="s">
-        <v>2539</v>
+        <v>2786</v>
       </c>
       <c r="AH87" s="1"/>
       <c r="AI87" s="1" t="s">
@@ -48244,7 +48251,7 @@
         <v>5</v>
       </c>
       <c r="AC88" s="1" t="s">
-        <v>2386</v>
+        <v>2381</v>
       </c>
       <c r="AD88" s="2" t="s">
         <v>993</v>
@@ -48253,7 +48260,7 @@
         <v>5</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>2463</v>
+        <v>2457</v>
       </c>
       <c r="AG88" s="10" t="s">
         <v>993</v>
@@ -48352,19 +48359,19 @@
         <v>5</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>2464</v>
+        <v>2458</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>2387</v>
+        <v>2382</v>
       </c>
       <c r="AE89" s="1">
         <v>5</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>2465</v>
+        <v>2459</v>
       </c>
       <c r="AG89" s="2" t="s">
-        <v>2540</v>
+        <v>2527</v>
       </c>
       <c r="AH89" s="1"/>
       <c r="AI89" s="1" t="s">
@@ -48458,19 +48465,19 @@
         <v>5</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>2466</v>
+        <v>2460</v>
       </c>
       <c r="AD90" s="2" t="s">
-        <v>2388</v>
+        <v>2383</v>
       </c>
       <c r="AE90" s="1">
         <v>5</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>2466</v>
+        <v>2460</v>
       </c>
       <c r="AG90" s="2" t="s">
-        <v>2388</v>
+        <v>2383</v>
       </c>
       <c r="AH90" s="1"/>
       <c r="AI90" s="1" t="s">
@@ -48560,19 +48567,19 @@
         <v>5</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>2467</v>
+        <v>2461</v>
       </c>
       <c r="AD91" s="2" t="s">
-        <v>2782</v>
+        <v>2758</v>
       </c>
       <c r="AE91" s="1">
         <v>3</v>
       </c>
       <c r="AF91" s="1" t="s">
-        <v>2419</v>
+        <v>2413</v>
       </c>
       <c r="AG91" s="2" t="s">
-        <v>2782</v>
+        <v>2758</v>
       </c>
       <c r="AH91" s="1"/>
       <c r="AI91" s="1" t="s">
@@ -48666,19 +48673,19 @@
         <v>5</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>2468</v>
+        <v>2462</v>
       </c>
       <c r="AD92" s="2" t="s">
-        <v>2541</v>
+        <v>2528</v>
       </c>
       <c r="AE92" s="1">
         <v>3</v>
       </c>
       <c r="AF92" s="1" t="s">
-        <v>2469</v>
+        <v>2463</v>
       </c>
       <c r="AG92" s="2" t="s">
-        <v>2541</v>
+        <v>2528</v>
       </c>
       <c r="AH92" s="1"/>
       <c r="AI92" s="1" t="s">
@@ -49072,19 +49079,19 @@
         <v>5</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>2470</v>
+        <v>2464</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>2389</v>
+        <v>2771</v>
       </c>
       <c r="AE96" s="1">
         <v>5</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
       <c r="AG96" s="2" t="s">
-        <v>2389</v>
+        <v>2771</v>
       </c>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1" t="s">
@@ -49272,19 +49279,19 @@
         <v>5</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>2472</v>
+        <v>2466</v>
       </c>
       <c r="AD98" s="2" t="s">
-        <v>2390</v>
+        <v>2384</v>
       </c>
       <c r="AE98" s="1">
         <v>5</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>2473</v>
+        <v>2467</v>
       </c>
       <c r="AG98" s="2" t="s">
-        <v>2542</v>
+        <v>2529</v>
       </c>
       <c r="AH98" s="1"/>
       <c r="AI98" s="1" t="s">
@@ -49481,7 +49488,7 @@
         <v>1337</v>
       </c>
       <c r="AD100" s="2" t="s">
-        <v>2391</v>
+        <v>2385</v>
       </c>
       <c r="AE100" s="1" t="s">
         <v>39</v>
@@ -49584,19 +49591,19 @@
         <v>1</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
       <c r="AD101" s="2" t="s">
-        <v>2392</v>
+        <v>2386</v>
       </c>
       <c r="AE101" s="1">
         <v>3</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>2475</v>
+        <v>2469</v>
       </c>
       <c r="AG101" s="2" t="s">
-        <v>2392</v>
+        <v>2386</v>
       </c>
       <c r="AH101" s="1"/>
       <c r="AI101" s="1" t="s">
@@ -49790,19 +49797,19 @@
         <v>5</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>2577</v>
+        <v>2561</v>
       </c>
       <c r="AD103" s="2" t="s">
-        <v>2593</v>
+        <v>2575</v>
       </c>
       <c r="AE103" s="1">
         <v>3</v>
       </c>
       <c r="AF103" s="1" t="s">
-        <v>2578</v>
+        <v>2562</v>
       </c>
       <c r="AG103" s="2" t="s">
-        <v>2593</v>
+        <v>2575</v>
       </c>
       <c r="AH103" s="1"/>
       <c r="AI103" s="1" t="s">
@@ -50100,19 +50107,19 @@
         <v>5</v>
       </c>
       <c r="AC106" s="1" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
       <c r="AD106" s="2" t="s">
-        <v>2595</v>
+        <v>2577</v>
       </c>
       <c r="AE106" s="1">
         <v>5</v>
       </c>
       <c r="AF106" s="1" t="s">
-        <v>2477</v>
+        <v>2471</v>
       </c>
       <c r="AG106" s="2" t="s">
-        <v>2596</v>
+        <v>2578</v>
       </c>
       <c r="AH106" s="1"/>
       <c r="AI106" s="1" t="s">
@@ -50208,19 +50215,19 @@
         <v>5</v>
       </c>
       <c r="AC107" s="1" t="s">
-        <v>2478</v>
+        <v>2472</v>
       </c>
       <c r="AD107" s="2" t="s">
-        <v>2393</v>
+        <v>2387</v>
       </c>
       <c r="AE107" s="1">
         <v>5</v>
       </c>
       <c r="AF107" s="1" t="s">
-        <v>2479</v>
+        <v>2473</v>
       </c>
       <c r="AG107" s="2" t="s">
-        <v>2393</v>
+        <v>2387</v>
       </c>
       <c r="AH107" s="1"/>
       <c r="AI107" s="1" t="s">
@@ -50310,19 +50317,19 @@
         <v>5</v>
       </c>
       <c r="AC108" s="1" t="s">
-        <v>2480</v>
+        <v>2474</v>
       </c>
       <c r="AD108" s="2" t="s">
-        <v>2590</v>
+        <v>2573</v>
       </c>
       <c r="AE108" s="1">
         <v>3</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>2481</v>
+        <v>2475</v>
       </c>
       <c r="AG108" s="2" t="s">
-        <v>2590</v>
+        <v>2573</v>
       </c>
       <c r="AH108" s="1"/>
       <c r="AI108" s="1" t="s">
@@ -50420,7 +50427,7 @@
         <v>39</v>
       </c>
       <c r="AG109" s="2" t="s">
-        <v>2788</v>
+        <v>2762</v>
       </c>
       <c r="AH109" s="1" t="s">
         <v>39</v>
@@ -50711,7 +50718,7 @@
         <v>4</v>
       </c>
       <c r="Z112" s="1" t="s">
-        <v>2482</v>
+        <v>2476</v>
       </c>
       <c r="AA112" s="1" t="s">
         <v>2362</v>
@@ -50720,7 +50727,7 @@
         <v>5</v>
       </c>
       <c r="AC112" s="1" t="s">
-        <v>2483</v>
+        <v>2477</v>
       </c>
       <c r="AD112" s="2" t="s">
         <v>2082</v>
@@ -50729,7 +50736,7 @@
         <v>5</v>
       </c>
       <c r="AF112" s="1" t="s">
-        <v>2484</v>
+        <v>2478</v>
       </c>
       <c r="AG112" s="2" t="s">
         <v>2082</v>
@@ -50816,19 +50823,19 @@
         <v>5</v>
       </c>
       <c r="AC113" s="1" t="s">
-        <v>2583</v>
+        <v>2566</v>
       </c>
       <c r="AD113" s="2" t="s">
-        <v>2584</v>
+        <v>2567</v>
       </c>
       <c r="AE113" s="1">
         <v>2</v>
       </c>
       <c r="AF113" s="1" t="s">
-        <v>2585</v>
+        <v>2568</v>
       </c>
       <c r="AG113" s="2" t="s">
-        <v>2584</v>
+        <v>2567</v>
       </c>
       <c r="AH113" s="1"/>
       <c r="AI113" s="1" t="s">
@@ -50918,19 +50925,19 @@
         <v>5</v>
       </c>
       <c r="AC114" s="1" t="s">
-        <v>2485</v>
+        <v>2479</v>
       </c>
       <c r="AD114" s="2" t="s">
-        <v>2395</v>
+        <v>2389</v>
       </c>
       <c r="AE114" s="1">
         <v>5</v>
       </c>
       <c r="AF114" s="1" t="s">
-        <v>2485</v>
+        <v>2479</v>
       </c>
       <c r="AG114" s="2" t="s">
-        <v>2395</v>
+        <v>2389</v>
       </c>
       <c r="AH114" s="1"/>
       <c r="AI114" s="1" t="s">
@@ -51022,19 +51029,19 @@
         <v>5</v>
       </c>
       <c r="AC115" s="1" t="s">
-        <v>2606</v>
+        <v>2588</v>
       </c>
       <c r="AD115" s="2" t="s">
-        <v>2592</v>
+        <v>2574</v>
       </c>
       <c r="AE115" s="1">
         <v>5</v>
       </c>
       <c r="AF115" s="1" t="s">
-        <v>2607</v>
+        <v>2589</v>
       </c>
       <c r="AG115" s="2" t="s">
-        <v>2592</v>
+        <v>2574</v>
       </c>
       <c r="AH115" s="1"/>
       <c r="AI115" s="1" t="s">
@@ -51130,19 +51137,19 @@
         <v>5</v>
       </c>
       <c r="AC116" s="1" t="s">
-        <v>2486</v>
+        <v>2480</v>
       </c>
       <c r="AD116" s="2" t="s">
-        <v>2394</v>
+        <v>2388</v>
       </c>
       <c r="AE116" s="1">
         <v>2</v>
       </c>
       <c r="AF116" s="1" t="s">
-        <v>2487</v>
+        <v>2481</v>
       </c>
       <c r="AG116" s="2" t="s">
-        <v>2394</v>
+        <v>2388</v>
       </c>
       <c r="AH116" s="1"/>
       <c r="AI116" s="1" t="s">
@@ -51236,19 +51243,19 @@
         <v>5</v>
       </c>
       <c r="AC117" s="1" t="s">
-        <v>2396</v>
+        <v>2390</v>
       </c>
       <c r="AD117" s="2" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="AE117" s="1">
         <v>5</v>
       </c>
       <c r="AF117" s="1" t="s">
-        <v>2396</v>
+        <v>2390</v>
       </c>
       <c r="AG117" s="2" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="AH117" s="1" t="s">
         <v>39</v>
@@ -51760,19 +51767,19 @@
         <v>5</v>
       </c>
       <c r="AC122" s="1" t="s">
-        <v>2488</v>
+        <v>2482</v>
       </c>
       <c r="AD122" s="2" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="AE122" s="1">
         <v>5</v>
       </c>
       <c r="AF122" s="1" t="s">
-        <v>2608</v>
+        <v>2590</v>
       </c>
       <c r="AG122" s="2" t="s">
-        <v>2609</v>
+        <v>2591</v>
       </c>
       <c r="AH122" s="1" t="s">
         <v>39</v>
@@ -51868,19 +51875,19 @@
         <v>5</v>
       </c>
       <c r="AC123" s="1" t="s">
-        <v>2489</v>
+        <v>2483</v>
       </c>
       <c r="AD123" s="2" t="s">
-        <v>2793</v>
+        <v>2767</v>
       </c>
       <c r="AE123" s="1">
         <v>5</v>
       </c>
       <c r="AF123" s="1" t="s">
-        <v>2489</v>
+        <v>2483</v>
       </c>
       <c r="AG123" s="2" t="s">
-        <v>2793</v>
+        <v>2767</v>
       </c>
       <c r="AH123" s="1" t="s">
         <v>39</v>
@@ -52264,19 +52271,19 @@
         <v>4</v>
       </c>
       <c r="AC127" s="1" t="s">
-        <v>2399</v>
+        <v>2393</v>
       </c>
       <c r="AD127" s="2" t="s">
-        <v>2774</v>
+        <v>2754</v>
       </c>
       <c r="AE127" s="1">
         <v>4</v>
       </c>
       <c r="AF127" s="1" t="s">
-        <v>2399</v>
+        <v>2393</v>
       </c>
       <c r="AG127" s="2" t="s">
-        <v>2774</v>
+        <v>2754</v>
       </c>
       <c r="AH127" s="1" t="s">
         <v>39</v>
@@ -52373,7 +52380,7 @@
         <v>1850</v>
       </c>
       <c r="AD128" s="2" t="s">
-        <v>2400</v>
+        <v>2394</v>
       </c>
       <c r="AE128" s="1">
         <v>0</v>
@@ -52382,7 +52389,7 @@
         <v>1851</v>
       </c>
       <c r="AG128" s="2" t="s">
-        <v>2543</v>
+        <v>2530</v>
       </c>
       <c r="AH128" s="1" t="s">
         <v>39</v>
@@ -52480,19 +52487,19 @@
         <v>5</v>
       </c>
       <c r="AC129" s="1" t="s">
-        <v>2401</v>
+        <v>2395</v>
       </c>
       <c r="AD129" s="2" t="s">
-        <v>2792</v>
+        <v>2766</v>
       </c>
       <c r="AE129" s="1">
         <v>5</v>
       </c>
       <c r="AF129" s="1" t="s">
-        <v>2420</v>
+        <v>2414</v>
       </c>
       <c r="AG129" s="2" t="s">
-        <v>2792</v>
+        <v>2766</v>
       </c>
       <c r="AH129" s="1" t="s">
         <v>39</v>
@@ -52582,19 +52589,19 @@
         <v>5</v>
       </c>
       <c r="AC130" s="1" t="s">
-        <v>2402</v>
+        <v>2396</v>
       </c>
       <c r="AD130" s="2" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="AE130" s="1">
         <v>5</v>
       </c>
       <c r="AF130" s="1" t="s">
-        <v>2421</v>
+        <v>2415</v>
       </c>
       <c r="AG130" s="2" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="AH130" s="1" t="s">
         <v>39</v>
@@ -52692,19 +52699,19 @@
         <v>5</v>
       </c>
       <c r="AC131" s="1" t="s">
-        <v>2490</v>
+        <v>2484</v>
       </c>
       <c r="AD131" s="2" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="AE131" s="1">
         <v>5</v>
       </c>
       <c r="AF131" s="1" t="s">
-        <v>2491</v>
+        <v>2485</v>
       </c>
       <c r="AG131" s="2" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="AH131" s="1" t="s">
         <v>39</v>
@@ -52802,19 +52809,19 @@
         <v>5</v>
       </c>
       <c r="AC132" s="1" t="s">
-        <v>2492</v>
+        <v>2486</v>
       </c>
       <c r="AD132" s="2" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="AE132" s="1">
         <v>5</v>
       </c>
       <c r="AF132" s="1" t="s">
-        <v>2493</v>
+        <v>2487</v>
       </c>
       <c r="AG132" s="2" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="AH132" s="1" t="s">
         <v>39</v>
@@ -52910,19 +52917,19 @@
         <v>5</v>
       </c>
       <c r="AC133" s="1" t="s">
-        <v>2494</v>
+        <v>2488</v>
       </c>
       <c r="AD133" s="2" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="AE133" s="1">
         <v>5</v>
       </c>
       <c r="AF133" s="1" t="s">
-        <v>2495</v>
+        <v>2489</v>
       </c>
       <c r="AG133" s="2" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="AH133" s="1" t="s">
         <v>39</v>
@@ -53018,19 +53025,19 @@
         <v>4</v>
       </c>
       <c r="AC134" s="1" t="s">
-        <v>2403</v>
+        <v>2397</v>
       </c>
       <c r="AD134" s="2" t="s">
-        <v>2404</v>
+        <v>2398</v>
       </c>
       <c r="AE134" s="1">
         <v>0</v>
       </c>
       <c r="AF134" s="1" t="s">
-        <v>2422</v>
+        <v>2416</v>
       </c>
       <c r="AG134" s="2" t="s">
-        <v>2404</v>
+        <v>2398</v>
       </c>
       <c r="AH134" s="1" t="s">
         <v>39</v>
@@ -53124,19 +53131,19 @@
         <v>5</v>
       </c>
       <c r="AC135" s="1" t="s">
-        <v>2560</v>
+        <v>2545</v>
       </c>
       <c r="AD135" s="2" t="s">
-        <v>2579</v>
+        <v>2563</v>
       </c>
       <c r="AE135" s="1">
         <v>3</v>
       </c>
       <c r="AF135" s="1" t="s">
-        <v>2603</v>
+        <v>2585</v>
       </c>
       <c r="AG135" s="2" t="s">
-        <v>2579</v>
+        <v>2563</v>
       </c>
       <c r="AH135" s="1" t="s">
         <v>39</v>
@@ -53330,19 +53337,19 @@
         <v>5</v>
       </c>
       <c r="AC137" s="1" t="s">
-        <v>2405</v>
+        <v>2399</v>
       </c>
       <c r="AD137" s="2" t="s">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="AE137" s="1">
         <v>5</v>
       </c>
       <c r="AF137" s="1" t="s">
-        <v>2496</v>
+        <v>2490</v>
       </c>
       <c r="AG137" s="2" t="s">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="AH137" s="1" t="s">
         <v>39</v>
@@ -53438,19 +53445,19 @@
         <v>5</v>
       </c>
       <c r="AC138" s="1" t="s">
-        <v>2497</v>
+        <v>2491</v>
       </c>
       <c r="AD138" s="2" t="s">
-        <v>2796</v>
+        <v>2768</v>
       </c>
       <c r="AE138" s="1">
         <v>3</v>
       </c>
       <c r="AF138" s="1" t="s">
-        <v>2498</v>
+        <v>2492</v>
       </c>
       <c r="AG138" s="2" t="s">
-        <v>2796</v>
+        <v>2768</v>
       </c>
       <c r="AH138" s="1" t="s">
         <v>39</v>
@@ -53546,7 +53553,7 @@
         <v>5</v>
       </c>
       <c r="AC139" s="1" t="s">
-        <v>2499</v>
+        <v>2493</v>
       </c>
       <c r="AD139" s="2" t="s">
         <v>2777</v>
@@ -53555,7 +53562,7 @@
         <v>5</v>
       </c>
       <c r="AF139" s="1" t="s">
-        <v>2500</v>
+        <v>2494</v>
       </c>
       <c r="AG139" s="2" t="s">
         <v>2777</v>
@@ -53854,19 +53861,19 @@
         <v>5</v>
       </c>
       <c r="AC142" s="1" t="s">
-        <v>2571</v>
+        <v>2555</v>
       </c>
       <c r="AD142" s="2" t="s">
-        <v>2789</v>
+        <v>2763</v>
       </c>
       <c r="AE142" s="1">
         <v>5</v>
       </c>
       <c r="AF142" s="1" t="s">
-        <v>2572</v>
+        <v>2556</v>
       </c>
       <c r="AG142" s="2" t="s">
-        <v>2789</v>
+        <v>2763</v>
       </c>
       <c r="AH142" s="1" t="s">
         <v>39</v>
@@ -53956,19 +53963,19 @@
         <v>5</v>
       </c>
       <c r="AC143" s="1" t="s">
-        <v>2561</v>
+        <v>2546</v>
       </c>
       <c r="AD143" s="2" t="s">
-        <v>2778</v>
+        <v>2755</v>
       </c>
       <c r="AE143" s="1">
         <v>3</v>
       </c>
       <c r="AF143" s="1" t="s">
-        <v>2562</v>
+        <v>2547</v>
       </c>
       <c r="AG143" s="2" t="s">
-        <v>2778</v>
+        <v>2755</v>
       </c>
       <c r="AH143" s="1" t="s">
         <v>39</v>
@@ -54684,19 +54691,19 @@
         <v>5</v>
       </c>
       <c r="AC150" s="1" t="s">
-        <v>2563</v>
+        <v>2548</v>
       </c>
       <c r="AD150" s="2" t="s">
-        <v>2597</v>
+        <v>2579</v>
       </c>
       <c r="AE150" s="1">
         <v>3</v>
       </c>
       <c r="AF150" s="1" t="s">
-        <v>2564</v>
+        <v>2549</v>
       </c>
       <c r="AG150" s="2" t="s">
-        <v>2597</v>
+        <v>2579</v>
       </c>
       <c r="AH150" s="1" t="s">
         <v>39</v>
@@ -54786,19 +54793,19 @@
         <v>5</v>
       </c>
       <c r="AC151" s="1" t="s">
-        <v>2501</v>
+        <v>2495</v>
       </c>
       <c r="AD151" s="2" t="s">
-        <v>2407</v>
+        <v>2401</v>
       </c>
       <c r="AE151" s="1">
         <v>5</v>
       </c>
       <c r="AF151" s="1" t="s">
-        <v>2502</v>
+        <v>2496</v>
       </c>
       <c r="AG151" s="2" t="s">
-        <v>2407</v>
+        <v>2401</v>
       </c>
       <c r="AH151" s="1" t="s">
         <v>39</v>
@@ -54894,19 +54901,19 @@
         <v>5</v>
       </c>
       <c r="AC152" s="1" t="s">
-        <v>2409</v>
+        <v>2403</v>
       </c>
       <c r="AD152" s="2" t="s">
-        <v>2410</v>
+        <v>2404</v>
       </c>
       <c r="AE152" s="1">
         <v>5</v>
       </c>
       <c r="AF152" s="1" t="s">
-        <v>2423</v>
+        <v>2417</v>
       </c>
       <c r="AG152" s="2" t="s">
-        <v>2410</v>
+        <v>2404</v>
       </c>
       <c r="AH152" s="1" t="s">
         <v>39</v>
@@ -55000,19 +55007,19 @@
         <v>5</v>
       </c>
       <c r="AC153" s="1" t="s">
-        <v>2503</v>
+        <v>2497</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>2544</v>
+        <v>2531</v>
       </c>
       <c r="AE153" s="1">
         <v>3</v>
       </c>
       <c r="AF153" s="1" t="s">
-        <v>2504</v>
+        <v>2498</v>
       </c>
       <c r="AG153" s="2" t="s">
-        <v>2544</v>
+        <v>2531</v>
       </c>
       <c r="AH153" s="1" t="s">
         <v>39</v>
@@ -55212,19 +55219,19 @@
         <v>5</v>
       </c>
       <c r="AC155" s="1" t="s">
-        <v>2573</v>
+        <v>2557</v>
       </c>
       <c r="AD155" s="2" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="AE155" s="1">
         <v>3</v>
       </c>
       <c r="AF155" s="1" t="s">
-        <v>2505</v>
+        <v>2499</v>
       </c>
       <c r="AG155" s="2" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="AH155" s="1" t="s">
         <v>39</v>
@@ -55314,19 +55321,19 @@
         <v>5</v>
       </c>
       <c r="AC156" s="1" t="s">
-        <v>2506</v>
+        <v>2500</v>
       </c>
       <c r="AD156" s="2" t="s">
-        <v>2408</v>
+        <v>2402</v>
       </c>
       <c r="AE156" s="1">
         <v>5</v>
       </c>
       <c r="AF156" s="1" t="s">
-        <v>2507</v>
+        <v>2501</v>
       </c>
       <c r="AG156" s="2" t="s">
-        <v>2408</v>
+        <v>2402</v>
       </c>
       <c r="AH156" s="1" t="s">
         <v>39</v>
@@ -55420,19 +55427,19 @@
         <v>5</v>
       </c>
       <c r="AC157" s="1" t="s">
-        <v>2523</v>
+        <v>2517</v>
       </c>
       <c r="AD157" s="2" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="AE157" s="1">
         <v>3</v>
       </c>
       <c r="AF157" s="1" t="s">
-        <v>2508</v>
+        <v>2502</v>
       </c>
       <c r="AG157" s="2" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="AH157" s="1" t="s">
         <v>39</v>
@@ -55533,16 +55540,16 @@
         <v>1936</v>
       </c>
       <c r="AD158" s="2" t="s">
-        <v>2791</v>
+        <v>2765</v>
       </c>
       <c r="AE158" s="1">
         <v>5</v>
       </c>
       <c r="AF158" s="1" t="s">
-        <v>2509</v>
+        <v>2503</v>
       </c>
       <c r="AG158" s="2" t="s">
-        <v>2790</v>
+        <v>2764</v>
       </c>
       <c r="AH158" s="1" t="s">
         <v>39</v>
@@ -55612,19 +55619,19 @@
         <v>5</v>
       </c>
       <c r="AC159" s="1" t="s">
-        <v>2586</v>
+        <v>2569</v>
       </c>
       <c r="AD159" s="2" t="s">
-        <v>2587</v>
+        <v>2570</v>
       </c>
       <c r="AE159" s="1">
         <v>5</v>
       </c>
       <c r="AF159" s="1" t="s">
-        <v>2588</v>
+        <v>2571</v>
       </c>
       <c r="AG159" s="2" t="s">
-        <v>2587</v>
+        <v>2570</v>
       </c>
       <c r="AH159" s="1"/>
       <c r="AI159" s="1"/>
@@ -55721,10 +55728,10 @@
         <v>5</v>
       </c>
       <c r="AF160" s="1" t="s">
-        <v>2510</v>
+        <v>2504</v>
       </c>
       <c r="AG160" s="2" t="s">
-        <v>2589</v>
+        <v>2572</v>
       </c>
       <c r="AH160" s="1" t="s">
         <v>39</v>
@@ -55819,7 +55826,7 @@
         <v>1941</v>
       </c>
       <c r="AD161" s="2" t="s">
-        <v>2411</v>
+        <v>2405</v>
       </c>
       <c r="AE161" s="1">
         <v>5</v>
@@ -55828,7 +55835,7 @@
         <v>1942</v>
       </c>
       <c r="AG161" s="2" t="s">
-        <v>2546</v>
+        <v>2533</v>
       </c>
       <c r="AH161" s="1" t="s">
         <v>39</v>
@@ -55924,19 +55931,19 @@
         <v>5</v>
       </c>
       <c r="AC162" s="1" t="s">
-        <v>2511</v>
+        <v>2505</v>
       </c>
       <c r="AD162" s="2" t="s">
-        <v>2412</v>
+        <v>2406</v>
       </c>
       <c r="AE162" s="1">
         <v>5</v>
       </c>
       <c r="AF162" s="1" t="s">
-        <v>2512</v>
+        <v>2506</v>
       </c>
       <c r="AG162" s="2" t="s">
-        <v>2412</v>
+        <v>2406</v>
       </c>
       <c r="AH162" s="1" t="s">
         <v>39</v>
@@ -56034,19 +56041,19 @@
         <v>5</v>
       </c>
       <c r="AC163" s="1" t="s">
-        <v>2513</v>
+        <v>2507</v>
       </c>
       <c r="AD163" s="2" t="s">
-        <v>2780</v>
+        <v>2756</v>
       </c>
       <c r="AE163" s="1">
         <v>3</v>
       </c>
       <c r="AF163" s="1" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="AG163" s="2" t="s">
-        <v>2780</v>
+        <v>2756</v>
       </c>
       <c r="AH163" s="1" t="s">
         <v>39</v>
@@ -56147,10 +56154,10 @@
         <v>5</v>
       </c>
       <c r="AF164" s="1" t="s">
-        <v>2570</v>
+        <v>2554</v>
       </c>
       <c r="AG164" s="2" t="s">
-        <v>2566</v>
+        <v>2550</v>
       </c>
       <c r="AH164" s="1" t="s">
         <v>39</v>
@@ -56348,19 +56355,19 @@
         <v>5</v>
       </c>
       <c r="AC166" s="1" t="s">
-        <v>2413</v>
+        <v>2407</v>
       </c>
       <c r="AD166" s="2" t="s">
-        <v>2414</v>
+        <v>2408</v>
       </c>
       <c r="AE166" s="1">
         <v>5</v>
       </c>
       <c r="AF166" s="1" t="s">
-        <v>2413</v>
+        <v>2407</v>
       </c>
       <c r="AG166" s="2" t="s">
-        <v>2414</v>
+        <v>2408</v>
       </c>
       <c r="AH166" s="1" t="s">
         <v>39</v>
@@ -56563,16 +56570,16 @@
         <v>1955</v>
       </c>
       <c r="AD168" s="2" t="s">
-        <v>2415</v>
+        <v>2409</v>
       </c>
       <c r="AE168" s="1">
         <v>3</v>
       </c>
       <c r="AF168" s="1" t="s">
-        <v>2515</v>
+        <v>2509</v>
       </c>
       <c r="AG168" s="2" t="s">
-        <v>2547</v>
+        <v>2534</v>
       </c>
       <c r="AH168" s="1" t="s">
         <v>39</v>
@@ -56668,19 +56675,19 @@
         <v>5</v>
       </c>
       <c r="AC169" s="1" t="s">
-        <v>2567</v>
+        <v>2551</v>
       </c>
       <c r="AD169" s="2" t="s">
-        <v>2569</v>
+        <v>2553</v>
       </c>
       <c r="AE169" s="1">
         <v>3</v>
       </c>
       <c r="AF169" s="1" t="s">
-        <v>2568</v>
+        <v>2552</v>
       </c>
       <c r="AG169" s="2" t="s">
-        <v>2569</v>
+        <v>2553</v>
       </c>
       <c r="AH169" s="1" t="s">
         <v>39</v>
@@ -56776,19 +56783,19 @@
         <v>5</v>
       </c>
       <c r="AC170" s="1" t="s">
-        <v>2516</v>
+        <v>2510</v>
       </c>
       <c r="AD170" s="2" t="s">
-        <v>2781</v>
+        <v>2757</v>
       </c>
       <c r="AE170" s="1">
         <v>5</v>
       </c>
       <c r="AF170" s="1" t="s">
-        <v>2517</v>
+        <v>2511</v>
       </c>
       <c r="AG170" s="2" t="s">
-        <v>2781</v>
+        <v>2757</v>
       </c>
       <c r="AH170" s="1" t="s">
         <v>39</v>
@@ -56882,19 +56889,19 @@
         <v>5</v>
       </c>
       <c r="AC171" s="1" t="s">
-        <v>2524</v>
+        <v>2518</v>
       </c>
       <c r="AD171" s="2" t="s">
-        <v>2548</v>
+        <v>2774</v>
       </c>
       <c r="AE171" s="1">
         <v>2</v>
       </c>
       <c r="AF171" s="1" t="s">
-        <v>2525</v>
+        <v>2519</v>
       </c>
       <c r="AG171" s="2" t="s">
-        <v>2548</v>
+        <v>2774</v>
       </c>
       <c r="AH171" s="1" t="s">
         <v>39</v>
@@ -57270,7 +57277,7 @@
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2652</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57295,17 +57302,17 @@
     </row>
     <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2732</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2733</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>2734</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57315,7 +57322,7 @@
     </row>
     <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>2651</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57360,12 +57367,12 @@
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>2550</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>2551</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6A78FD-BE7F-4FB7-90F4-D0A053895F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB67781-92F8-4C33-9647-0EEE455238EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="1770" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7704,12 +7704,6 @@
     <t xml:space="preserve">PLS-SEM item loadings, Fornell-Larcker (Table 3, 4): compliance intentions </t>
   </si>
   <si>
-    <t xml:space="preserve">innovativeness; general privacy concern; perceived usefulness; perceived convenience; perceived vulnerability; perceived severity; coping efficacy; intention to disclose usage patterns; intention to disclose personal identifiers; intention to disclose biographical information; intention to disclose usage context; intention to disclose feedback information </t>
-  </si>
-  <si>
-    <t>self-anticipated satisfaction; system-specific privacy concerns; perceived privacy protection; general online privacy concerns</t>
-  </si>
-  <si>
     <t>security compliance burnout; difficult access to security requirements; high security skills requirements; security compliance overload; security exposure; organisational security resources</t>
   </si>
   <si>
@@ -7719,24 +7713,15 @@
     <t>security intentions; security behavior; psychological ownership</t>
   </si>
   <si>
-    <t>anticipated regret; perceived vulnerability; perceived severity; response cost; response efficacy; security intentions</t>
-  </si>
-  <si>
     <t>positive emotions; information security awareness; protection-motivated behaviors</t>
   </si>
   <si>
-    <t>habit; impulse; privacy disclosure; privacy invasion experiences; privacy concerns</t>
-  </si>
-  <si>
     <t>factor loadings, AVE, and composite reliability as 0.7 &gt; 0.5 &gt; 0.7: perceived usefulness; subjective norms; information security system quality</t>
   </si>
   <si>
     <t>perceived usefulness; subjective norms; information security system quality</t>
   </si>
   <si>
-    <t>deficient self-regulation; automatic use of unknown wireless network; routine use of unknown wireless network; social connectedness; attachment; social interaction anxiety; perceived risk</t>
-  </si>
-  <si>
     <t>factor loadings range from 0.41 to 0.93 (figure 2): severity; vulnerability; response efficacy; response cost</t>
   </si>
   <si>
@@ -7752,25 +7737,16 @@
     <t>factor loadings (Appendix I): privacy; behavioral intention; technology faciliation; autonomy; perceived severity; perceived vulnerability</t>
   </si>
   <si>
-    <t>privacy; behavioral intention; technology faciliation; autonomy; perceived severity; perceived vulnerability</t>
-  </si>
-  <si>
     <t>Fornell-Larcker (Table 4): perceived vulnerability; perceived severity; privacy behavior</t>
   </si>
   <si>
     <t>perceived vulnerability; perceived severity; privacy behavior</t>
   </si>
   <si>
-    <t>attitude towards privacy protection; privacy intention</t>
-  </si>
-  <si>
     <t>information privacy concerns; perceived severity; perceived vulnerability; response efficacy; rewards</t>
   </si>
   <si>
     <t xml:space="preserve">Fornell-Larcker (Table 1), correlation &lt; 0.90 (Table 1), PLS factor-loadings &gt; cross-loading: supervisor-subordinate guanxi; organizational commitment; perceived effectiveness; perceived threat; perceived cost; compliance behavior </t>
-  </si>
-  <si>
-    <t xml:space="preserve">supervisor-subordinate guanxi; organizational commitment; perceived effectiveness; perceived threat; perceived cost; compliance behavior </t>
   </si>
   <si>
     <t>perceived security vulnerabilities; perceived security threats; response efficacy; prevention cost; backing up data</t>
@@ -8144,9 +8120,6 @@
     <t>threat awareness; perceived severity; perceived vulnerability; response efficacy; response cost; countermeasure awareness; desktop security behavior</t>
   </si>
   <si>
-    <t>innovativeness; general privacy concern; perceived usefulness; perceived convenience; perceived vulnerability; perceived severity; coping efficacy; intention to disclose usage patterns; intention to disclose personal identifiers; intention to disclose biographical information; intention to disclose usage context; intention to disclose feedback information</t>
-  </si>
-  <si>
     <t>leadership; trusting beliefs; information security issues awareness; information security policy awareness; understanding of resource vulnerability; compliance intention</t>
   </si>
   <si>
@@ -8154,9 +8127,6 @@
   </si>
   <si>
     <t>general self-efficacy</t>
-  </si>
-  <si>
-    <t>perceived usefulness; perceived ease of protection; compatibility; peer influence; superior influence; faciliating conditions; attitude; subjective norms; perceived behavioral control; behavioral intention</t>
   </si>
   <si>
     <t>media influence; people influence; perceived ease of use; perceived probability; perceived severity; perceived usefulness; security behavior</t>
@@ -8190,9 +8160,6 @@
     <t>AVE &gt;0.5 (Table 2), Fornell-Larcker: perceived severity; perceived vulnerability; response efficacy; response cost; attitudes towards compliance; subjective norm; behavioral intentions</t>
   </si>
   <si>
-    <t>perceived severity; perceived vulnerability; response efficacy; response cost; attitudes towards compliance; subjective norms; behavioral intention</t>
-  </si>
-  <si>
     <t>AVE &gt;0.5 (Table 2): perceived severity; perceived vulnerability; response efficacy; response cost; attitudes towards compliance; subjective norm; behavioral intentions</t>
   </si>
   <si>
@@ -8254,9 +8221,6 @@
   </si>
   <si>
     <t>AVE &gt; 0.5 (Table 1): intention to protect EMR privacy; cues to action; perceived barriers; perceived benefits; perceived severity; perceived susceptibility</t>
-  </si>
-  <si>
-    <t>persuasion knowledge; perceived risk; perceived benefits; reactance; perceived personalization; privacy concerns; advertisement avoidance</t>
   </si>
   <si>
     <t>AVE &gt; inter-construct correlations (Table 4): perceived severity; rewards; perceived vulnerability; response efficacy; users' information privacy concerns; privacy protection behavior</t>
@@ -8343,9 +8307,6 @@
     <t>item loadings &gt; 0.6 (Appendix 2), AVE &gt; 0.5 (Table 3): social interaction anxiety; attachment; automatic use of unknown wireless network; social connectedness; deficient self-regulation; privacy risk; routine use of unknown wireless network</t>
   </si>
   <si>
-    <t>social interaction anxiety; attachment; automatic use of unknown wireless network; social connectedness; deficient self-regulation; privacy risk; routine use of unknown wireless network</t>
-  </si>
-  <si>
     <t>Fornell–Larcker criterion (AVE &gt; highest squared correlation between that construct and each of the other constructs) (Table 3): attitude; norms; specification; monitoring and evaluation; rewards; sanctions; senior management support</t>
   </si>
   <si>
@@ -8836,18 +8797,12 @@
     <t>perceived severity; perceived vulnerability; response efficacy; response cost</t>
   </si>
   <si>
-    <t>perceived severity; perceived benefits; security behavior; security habit; perceived susceptibility; behavioral intention; perceived barriers; cues to action</t>
-  </si>
-  <si>
     <t>transformational leadership; information security culture; general information security awareness; information security policy awareness; attitude; normative beliefs; intention to resist social engineering</t>
   </si>
   <si>
     <t>security awareness; security system satisfaction; perceived severity; perceived vulnerability; response efficacy; induction control intention; self defense intention</t>
   </si>
   <si>
-    <t>perceived susceptibility; perceived barriers; perceived benefits; commitment; perceived severity; awareness; intention continuance; cues to action</t>
-  </si>
-  <si>
     <t>cues to action; detection of non-compliance; impact of threat; intention to pratice information security; likelihood of threat; response benefits; response efficacy; sanctions; social norms</t>
   </si>
   <si>
@@ -8872,12 +8827,6 @@
     <t>technology compliance; technology compliance intention; normative beliefs; perceived usefulness of technology; perceived ease of use; perceived justice of punishment; perceived fairness of reward; perceived enhancement of organizational mission achievement; perceived enhancement of personal mission achievement; satisfaction with technology; satisfaction with management interventions of technology compliance; satisfaction with technology compliance supporting higher objectives</t>
   </si>
   <si>
-    <t>privacy settings use; perceived risk; perceived effectiveness; privacy valuation</t>
-  </si>
-  <si>
-    <t>perceived vulnerability; perceived severity; perceived risk; perceived trust; response efficacy; response cost; injunctive norms; descriptive norms; locus of control; protection motivation</t>
-  </si>
-  <si>
     <t>security attitude; security intention; descriptive norms; perceived severity; perceived vulnerability; response cost; response efficacy; subjective norms; social support</t>
   </si>
   <si>
@@ -8902,9 +8851,6 @@
     <t>perceived severity; perceived susceptibility; fear; response efficacy; protection motivation</t>
   </si>
   <si>
-    <t>perceived severity; perceived susceptibility; response efficacy; behavioral intention</t>
-  </si>
-  <si>
     <t>self-disclosure; protection motivation; privacy concerns; perceived susceptibility; perceived severity; assurance mechanisms efficacy; privacy assurance statement; privacy customization</t>
   </si>
   <si>
@@ -8975,6 +8921,60 @@
   </si>
   <si>
     <t>compliance knowledge of security policies; perceived vulnerability in security; attitude toward security compliance; intention to comply with security policy</t>
+  </si>
+  <si>
+    <t>perceived severity; perceived vulnerability; response efficacy; response cost; attitude toward compliance; subjective norms; behavioral intention to comply with information systems security policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personal innovativeness; general privacy concerns; perceived usefulness; perceived convenience; perceived vulnerability; perceived severity; coping efficacy; intention to disclose usage patterns; intention to disclose personal identifiers; intention to disclose biographical information; intention to disclose usage context; intention to disclose feedback information </t>
+  </si>
+  <si>
+    <t>self-anticipated satisfaction with system; system-specific privacy concerns; perceived privacy protection; general online privacy concerns</t>
+  </si>
+  <si>
+    <t>perceived susceptibility; perceived barriers; perceived benefits; organizational commitment; perceived severity; awareness of policies; intention to continue to comply with information security policies; cues to action</t>
+  </si>
+  <si>
+    <t>anticipated regret; perceived vulnerability; perceived severity; response cost; response efficacy; security intention</t>
+  </si>
+  <si>
+    <t>information security behavior; behavioral intention to practice information security; perceived vulnerability; perceived severity; response efficacy; response cost; subjective norms; security habit</t>
+  </si>
+  <si>
+    <t>habit of self-disclosure; impulse of self-disclosure; privacy disclosure; privacy invasion experiences; privacy concerns</t>
+  </si>
+  <si>
+    <t>deficient self-regulation; automatic use of unknown wireless network; routine use of unknown wireless network; social connectedness; attachment to online presence; social interaction anxiety; perceived information privacy risk</t>
+  </si>
+  <si>
+    <t>social interaction anxiety; attachment  to online presence; automatic use of unknown wireless network; social connectedness; deficient self-regulation; perceived information privacy risk; routine use of unknown wireless network</t>
+  </si>
+  <si>
+    <t>privacy settings use; perceived risks of sharing information; perceived effectiveness of privacy settings; privacy valuation</t>
+  </si>
+  <si>
+    <t>privacy beliefs; behavioral intention to select application for privacy; technology faciliation; autonomy; perceived severity; perceived vulnerability</t>
+  </si>
+  <si>
+    <t>persuasion knowledge; perceived risk of privacy infringement; perceived benefits; reactance; perceived personalization; privacy concerns; advertisement avoidance</t>
+  </si>
+  <si>
+    <t>perceived vulnerability; perceived severity; perceived risk of online banking; trust in online banking; response efficacy; response cost; injunctive norms; descriptive norms; locus of control; protection motivation</t>
+  </si>
+  <si>
+    <t>perceived severity; perceived susceptibility; response efficacy; behavioral intention to adopt recommended security actions</t>
+  </si>
+  <si>
+    <t>perceived severity; perceived benefits; security behavior; security habit; perceived susceptibility; intention to practice security behaviors; perceived barriers; cues to action</t>
+  </si>
+  <si>
+    <t>attitude toward privacy protection; privacy intention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supervisor-subordinate guanxi; organizational commitment; perceived effectiveness on information security policy compliance behavior; perceived threat; perceived cost; compliance behavior </t>
+  </si>
+  <si>
+    <t>perceived usefulness of protecting privacy; perceived ease of protection; compatibility of protection and values, needs, or experiences; peer influence; superior influence; faciliating conditions; attitude toward privacy measures; subjective norms; perceived behavioral control; behavioral intention to protect privacy of electronic medical records</t>
   </si>
 </sst>
 </file>
@@ -11349,13 +11349,13 @@
         <v>2087</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>2635</v>
+        <v>2622</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>2677</v>
+        <v>2664</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>2678</v>
+        <v>2665</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>28</v>
@@ -11367,7 +11367,7 @@
         <v>2117</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>2621</v>
+        <v>2608</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>30</v>
@@ -11614,7 +11614,7 @@
         <v>55</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>2618</v>
+        <v>2605</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
@@ -11659,13 +11659,13 @@
         <v>1</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>2636</v>
+        <v>2623</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>2717</v>
+        <v>2704</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>2637</v>
+        <v>2624</v>
       </c>
       <c r="AH3" s="1">
         <v>1</v>
@@ -11680,7 +11680,7 @@
         <v>57</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>2690</v>
+        <v>2677</v>
       </c>
       <c r="AM3" s="1">
         <v>1</v>
@@ -11832,13 +11832,13 @@
         <v>1</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>2599</v>
+        <v>2586</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -11969,13 +11969,13 @@
         <v>1</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>2605</v>
+        <v>2592</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>2605</v>
+        <v>2592</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>2638</v>
+        <v>2625</v>
       </c>
       <c r="AH5" s="1">
         <v>0</v>
@@ -11990,7 +11990,7 @@
         <v>2120</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -12142,7 +12142,7 @@
         <v>936</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -12294,7 +12294,7 @@
         <v>936</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -12425,7 +12425,7 @@
         <v>2108</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>2639</v>
+        <v>2626</v>
       </c>
       <c r="AH8" s="1">
         <v>0</v>
@@ -12434,13 +12434,13 @@
         <v>1</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>2604</v>
+        <v>2591</v>
       </c>
       <c r="AK8" s="2" t="s">
         <v>936</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>2735</v>
+        <v>2722</v>
       </c>
       <c r="AK10" s="2" t="s">
         <v>2121</v>
@@ -12890,13 +12890,13 @@
         <v>1</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>2736</v>
+        <v>2723</v>
       </c>
       <c r="AK11" s="2" t="s">
         <v>2124</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>2624</v>
+        <v>2611</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -13480,10 +13480,10 @@
         <v>176</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>2640</v>
+        <v>2627</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>2679</v>
+        <v>2666</v>
       </c>
       <c r="AH15" s="1">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>187</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM16" s="1">
         <v>0</v>
@@ -13781,13 +13781,13 @@
         <v>1</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>2641</v>
+        <v>2628</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>2606</v>
+        <v>2593</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>2642</v>
+        <v>2629</v>
       </c>
       <c r="AH17" s="1">
         <v>0</v>
@@ -13939,10 +13939,10 @@
         <v>208</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>2680</v>
+        <v>2667</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -13957,7 +13957,7 @@
         <v>2127</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>2625</v>
+        <v>2612</v>
       </c>
       <c r="AM18" s="1">
         <v>0</v>
@@ -14082,7 +14082,7 @@
         <v>219</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>2537</v>
+        <v>2527</v>
       </c>
       <c r="AC19" s="1">
         <v>0</v>
@@ -14246,10 +14246,10 @@
         <v>228</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>2681</v>
+        <v>2668</v>
       </c>
       <c r="AH20" s="1">
         <v>0</v>
@@ -14395,16 +14395,16 @@
         <v>1</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>2608</v>
+        <v>2595</v>
       </c>
       <c r="AE21" s="1" t="s">
         <v>2089</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>2643</v>
+        <v>2630</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>2682</v>
+        <v>2669</v>
       </c>
       <c r="AH21" s="1">
         <v>0</v>
@@ -14565,7 +14565,7 @@
         <v>2128</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -14711,13 +14711,13 @@
         <v>1</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>2737</v>
+        <v>2724</v>
       </c>
       <c r="AK23" s="2" t="s">
         <v>936</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM23" s="1">
         <v>0</v>
@@ -14869,7 +14869,7 @@
         <v>2119</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -15012,7 +15012,7 @@
         <v>2129</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>2626</v>
+        <v>2613</v>
       </c>
       <c r="AM25" s="1">
         <v>0</v>
@@ -15164,7 +15164,7 @@
         <v>282</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>2627</v>
+        <v>2614</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -15453,7 +15453,7 @@
         <v>2125</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -15733,7 +15733,7 @@
         <v>2094</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>2638</v>
+        <v>2625</v>
       </c>
       <c r="AH30" s="1">
         <v>0</v>
@@ -15748,7 +15748,7 @@
         <v>2123</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -15885,7 +15885,7 @@
         <v>329</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>2639</v>
+        <v>2626</v>
       </c>
       <c r="AH31" s="1">
         <v>0</v>
@@ -15900,7 +15900,7 @@
         <v>2131</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>2628</v>
+        <v>2615</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -16049,7 +16049,7 @@
         <v>2123</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -16192,7 +16192,7 @@
         <v>2132</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -16329,10 +16329,10 @@
         <v>2090</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>2644</v>
+        <v>2631</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>2683</v>
+        <v>2670</v>
       </c>
       <c r="AH34" s="1">
         <v>1</v>
@@ -16502,7 +16502,7 @@
         <v>2095</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -16648,13 +16648,13 @@
         <v>1</v>
       </c>
       <c r="AJ36" s="2" t="s">
-        <v>2597</v>
+        <v>2584</v>
       </c>
       <c r="AK36" s="2" t="s">
-        <v>2613</v>
+        <v>2600</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>2691</v>
+        <v>2678</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
@@ -16806,7 +16806,7 @@
         <v>2123</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -16964,7 +16964,7 @@
         <v>2095</v>
       </c>
       <c r="AL38" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM38" s="1">
         <v>0</v>
@@ -17107,7 +17107,7 @@
         <v>2095</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -17250,7 +17250,7 @@
         <v>2095</v>
       </c>
       <c r="AL40" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -17521,16 +17521,16 @@
         <v>1</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>2645</v>
+        <v>2632</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>2718</v>
+        <v>2705</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>2646</v>
+        <v>2633</v>
       </c>
       <c r="AG42" s="1" t="s">
-        <v>2684</v>
+        <v>2671</v>
       </c>
       <c r="AH42" s="1">
         <v>0</v>
@@ -17694,13 +17694,13 @@
         <v>1</v>
       </c>
       <c r="AJ43" s="2" t="s">
-        <v>2692</v>
+        <v>2679</v>
       </c>
       <c r="AK43" s="2" t="s">
-        <v>2693</v>
+        <v>2680</v>
       </c>
       <c r="AL43" s="1" t="s">
-        <v>2694</v>
+        <v>2681</v>
       </c>
       <c r="AM43" s="1">
         <v>0</v>
@@ -17849,7 +17849,7 @@
         <v>2133</v>
       </c>
       <c r="AL44" s="1" t="s">
-        <v>2695</v>
+        <v>2682</v>
       </c>
       <c r="AM44" s="1">
         <v>0</v>
@@ -17986,10 +17986,10 @@
         <v>444</v>
       </c>
       <c r="AK45" s="2" t="s">
-        <v>2726</v>
+        <v>2713</v>
       </c>
       <c r="AL45" s="1" t="s">
-        <v>2631</v>
+        <v>2618</v>
       </c>
       <c r="AM45" s="1">
         <v>0</v>
@@ -18126,13 +18126,13 @@
         <v>1</v>
       </c>
       <c r="AJ46" s="2" t="s">
-        <v>2600</v>
+        <v>2587</v>
       </c>
       <c r="AK46" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="AL46" s="1" t="s">
-        <v>2625</v>
+        <v>2612</v>
       </c>
       <c r="AM46" s="1">
         <v>0</v>
@@ -18287,7 +18287,7 @@
         <v>936</v>
       </c>
       <c r="AL47" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM47" s="1">
         <v>0</v>
@@ -18436,7 +18436,7 @@
         <v>2136</v>
       </c>
       <c r="AL48" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM48" s="1">
         <v>0</v>
@@ -18588,7 +18588,7 @@
         <v>2134</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM49" s="1">
         <v>0</v>
@@ -18737,10 +18737,10 @@
         <v>491</v>
       </c>
       <c r="AK50" s="2" t="s">
-        <v>2727</v>
+        <v>2714</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM50" s="1">
         <v>0</v>
@@ -18889,7 +18889,7 @@
         <v>2119</v>
       </c>
       <c r="AL51" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM51" s="1">
         <v>0</v>
@@ -19026,7 +19026,7 @@
         <v>2109</v>
       </c>
       <c r="AF52" s="1" t="s">
-        <v>2647</v>
+        <v>2634</v>
       </c>
       <c r="AH52" s="1">
         <v>1</v>
@@ -19041,7 +19041,7 @@
         <v>2146</v>
       </c>
       <c r="AL52" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM52" s="1">
         <v>0</v>
@@ -19333,7 +19333,7 @@
         <v>1</v>
       </c>
       <c r="AJ54" s="2" t="s">
-        <v>2738</v>
+        <v>2725</v>
       </c>
       <c r="AK54" s="2" t="s">
         <v>1582</v>
@@ -19485,7 +19485,7 @@
         <v>1</v>
       </c>
       <c r="AJ55" s="2" t="s">
-        <v>2738</v>
+        <v>2725</v>
       </c>
       <c r="AK55" s="2" t="s">
         <v>1582</v>
@@ -19771,7 +19771,7 @@
         <v>2106</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AH57" s="1">
         <v>0</v>
@@ -19786,7 +19786,7 @@
         <v>936</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM57" s="1">
         <v>0</v>
@@ -19917,13 +19917,13 @@
         <v>1</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>2648</v>
+        <v>2635</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>2649</v>
+        <v>2636</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>2647</v>
+        <v>2634</v>
       </c>
       <c r="AH58" s="1">
         <v>1</v>
@@ -20075,10 +20075,10 @@
         <v>2091</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>2650</v>
+        <v>2637</v>
       </c>
       <c r="AG59" s="1" t="s">
-        <v>2685</v>
+        <v>2672</v>
       </c>
       <c r="AH59" s="1">
         <v>0</v>
@@ -20093,7 +20093,7 @@
         <v>2137</v>
       </c>
       <c r="AL59" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -20227,7 +20227,7 @@
         <v>2092</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>2639</v>
+        <v>2626</v>
       </c>
       <c r="AH60" s="1">
         <v>0</v>
@@ -20242,7 +20242,7 @@
         <v>282</v>
       </c>
       <c r="AL60" s="1" t="s">
-        <v>2627</v>
+        <v>2614</v>
       </c>
       <c r="AM60" s="1">
         <v>0</v>
@@ -20382,7 +20382,7 @@
         <v>2138</v>
       </c>
       <c r="AL61" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM61" s="1">
         <v>0</v>
@@ -20459,7 +20459,7 @@
         <v>787</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>2619</v>
+        <v>2606</v>
       </c>
       <c r="P62" s="1">
         <v>1</v>
@@ -20504,13 +20504,13 @@
         <v>1</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>2732</v>
+        <v>2719</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>2719</v>
+        <v>2706</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>2651</v>
+        <v>2638</v>
       </c>
       <c r="AH62" s="1">
         <v>1</v>
@@ -20683,7 +20683,7 @@
         <v>2123</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -20835,7 +20835,7 @@
         <v>2106</v>
       </c>
       <c r="AL64" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -20972,13 +20972,13 @@
         <v>1</v>
       </c>
       <c r="AJ65" s="2" t="s">
-        <v>2594</v>
+        <v>2581</v>
       </c>
       <c r="AK65" s="2" t="s">
         <v>2139</v>
       </c>
       <c r="AL65" s="1" t="s">
-        <v>2696</v>
+        <v>2683</v>
       </c>
       <c r="AM65" s="1">
         <v>0</v>
@@ -21514,7 +21514,7 @@
         <v>936</v>
       </c>
       <c r="AL69" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM69" s="1">
         <v>0</v>
@@ -21645,7 +21645,7 @@
         <v>1676</v>
       </c>
       <c r="AF70" s="1" t="s">
-        <v>2652</v>
+        <v>2639</v>
       </c>
       <c r="AH70" s="1">
         <v>1</v>
@@ -21931,7 +21931,7 @@
         <v>855</v>
       </c>
       <c r="AF72" s="1" t="s">
-        <v>2653</v>
+        <v>2640</v>
       </c>
       <c r="AH72" s="1">
         <v>1</v>
@@ -21946,7 +21946,7 @@
         <v>2140</v>
       </c>
       <c r="AL72" s="1" t="s">
-        <v>2697</v>
+        <v>2684</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -22363,7 +22363,7 @@
         <v>2119</v>
       </c>
       <c r="AL75" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM75" s="1">
         <v>0</v>
@@ -22661,13 +22661,13 @@
         <v>1</v>
       </c>
       <c r="AJ77" s="2" t="s">
-        <v>2739</v>
+        <v>2726</v>
       </c>
       <c r="AK77" s="2" t="s">
-        <v>2722</v>
+        <v>2709</v>
       </c>
       <c r="AL77" s="1" t="s">
-        <v>2698</v>
+        <v>2685</v>
       </c>
       <c r="AM77" s="1">
         <v>0</v>
@@ -22798,13 +22798,13 @@
         <v>1</v>
       </c>
       <c r="AJ78" s="2" t="s">
-        <v>2739</v>
+        <v>2726</v>
       </c>
       <c r="AK78" s="2" t="s">
-        <v>2723</v>
+        <v>2710</v>
       </c>
       <c r="AL78" s="1" t="s">
-        <v>2698</v>
+        <v>2685</v>
       </c>
       <c r="AM78" s="1">
         <v>0</v>
@@ -22935,13 +22935,13 @@
         <v>1</v>
       </c>
       <c r="AJ79" s="2" t="s">
-        <v>2739</v>
+        <v>2726</v>
       </c>
       <c r="AK79" s="2" t="s">
-        <v>2724</v>
+        <v>2711</v>
       </c>
       <c r="AL79" s="1" t="s">
-        <v>2698</v>
+        <v>2685</v>
       </c>
       <c r="AM79" s="1">
         <v>0</v>
@@ -23081,13 +23081,13 @@
         <v>1</v>
       </c>
       <c r="AJ80" s="2" t="s">
-        <v>2740</v>
+        <v>2727</v>
       </c>
       <c r="AK80" s="2" t="s">
-        <v>2699</v>
+        <v>2686</v>
       </c>
       <c r="AL80" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM80" s="1">
         <v>0</v>
@@ -23233,7 +23233,7 @@
         <v>1</v>
       </c>
       <c r="AJ81" s="2" t="s">
-        <v>2598</v>
+        <v>2585</v>
       </c>
       <c r="AK81" s="2" t="s">
         <v>993</v>
@@ -23358,13 +23358,13 @@
         <v>1</v>
       </c>
       <c r="AD82" s="2" t="s">
-        <v>2607</v>
+        <v>2594</v>
       </c>
       <c r="AE82" s="1" t="s">
         <v>2093</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>2638</v>
+        <v>2625</v>
       </c>
       <c r="AH82" s="1">
         <v>0</v>
@@ -23373,7 +23373,7 @@
         <v>1</v>
       </c>
       <c r="AJ82" s="2" t="s">
-        <v>2598</v>
+        <v>2585</v>
       </c>
       <c r="AK82" s="2" t="s">
         <v>993</v>
@@ -23507,10 +23507,10 @@
         <v>2115</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>2654</v>
+        <v>2641</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>2686</v>
+        <v>2673</v>
       </c>
       <c r="AH83" s="1">
         <v>1</v>
@@ -23525,7 +23525,7 @@
         <v>911</v>
       </c>
       <c r="AL83" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM83" s="1">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>919</v>
       </c>
       <c r="AL84" s="1" t="s">
-        <v>2627</v>
+        <v>2614</v>
       </c>
       <c r="AM84" s="1">
         <v>0</v>
@@ -23796,7 +23796,7 @@
         <v>2116</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>2655</v>
+        <v>2642</v>
       </c>
       <c r="AH85" s="1">
         <v>0</v>
@@ -23811,7 +23811,7 @@
         <v>2141</v>
       </c>
       <c r="AL85" s="1" t="s">
-        <v>2624</v>
+        <v>2611</v>
       </c>
       <c r="AM85" s="1">
         <v>0</v>
@@ -23936,16 +23936,16 @@
         <v>1</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>2733</v>
+        <v>2720</v>
       </c>
       <c r="AE86" s="1" t="s">
         <v>2105</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>2656</v>
+        <v>2643</v>
       </c>
       <c r="AG86" s="1" t="s">
-        <v>2687</v>
+        <v>2674</v>
       </c>
       <c r="AH86" s="1">
         <v>0</v>
@@ -23960,7 +23960,7 @@
         <v>936</v>
       </c>
       <c r="AL86" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM86" s="1">
         <v>0</v>
@@ -24091,10 +24091,10 @@
         <v>943</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AG87" s="1" t="s">
-        <v>2683</v>
+        <v>2670</v>
       </c>
       <c r="AH87" s="1">
         <v>0</v>
@@ -24109,7 +24109,7 @@
         <v>936</v>
       </c>
       <c r="AL87" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM87" s="1">
         <v>0</v>
@@ -24240,16 +24240,16 @@
         <v>1</v>
       </c>
       <c r="AD88" s="2" t="s">
-        <v>2730</v>
+        <v>2717</v>
       </c>
       <c r="AE88" s="1" t="s">
-        <v>2731</v>
+        <v>2718</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>2657</v>
+        <v>2644</v>
       </c>
       <c r="AG88" s="1" t="s">
-        <v>2688</v>
+        <v>2675</v>
       </c>
       <c r="AH88" s="1">
         <v>0</v>
@@ -24392,16 +24392,16 @@
         <v>1</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>2658</v>
+        <v>2645</v>
       </c>
       <c r="AE89" s="1" t="s">
         <v>2106</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AG89" s="1" t="s">
-        <v>2680</v>
+        <v>2667</v>
       </c>
       <c r="AH89" s="1">
         <v>0</v>
@@ -24416,7 +24416,7 @@
         <v>936</v>
       </c>
       <c r="AL89" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM89" s="1">
         <v>0</v>
@@ -24565,7 +24565,7 @@
         <v>919</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>2627</v>
+        <v>2614</v>
       </c>
       <c r="AM90" s="1">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>1</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>2734</v>
+        <v>2721</v>
       </c>
       <c r="AE94" s="1" t="s">
-        <v>2659</v>
+        <v>2646</v>
       </c>
       <c r="AF94" s="1" t="s">
-        <v>2660</v>
+        <v>2647</v>
       </c>
       <c r="AH94" s="1">
         <v>1</v>
@@ -25280,16 +25280,16 @@
         <v>1</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>2601</v>
+        <v>2588</v>
       </c>
       <c r="AE95" s="1" t="s">
         <v>2096</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>2640</v>
+        <v>2627</v>
       </c>
       <c r="AG95" s="1" t="s">
-        <v>2686</v>
+        <v>2673</v>
       </c>
       <c r="AH95" s="1">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>1</v>
       </c>
       <c r="AJ95" s="2" t="s">
-        <v>2602</v>
+        <v>2589</v>
       </c>
       <c r="AK95" s="2" t="s">
         <v>2126</v>
@@ -25441,13 +25441,13 @@
         <v>1</v>
       </c>
       <c r="AJ96" s="2" t="s">
-        <v>2741</v>
+        <v>2728</v>
       </c>
       <c r="AK96" s="2" t="s">
-        <v>2729</v>
+        <v>2716</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>2640</v>
+        <v>2627</v>
       </c>
       <c r="AM96" s="1">
         <v>0</v>
@@ -25721,7 +25721,7 @@
         <v>2107</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>2661</v>
+        <v>2648</v>
       </c>
       <c r="AH98" s="1">
         <v>0</v>
@@ -25882,13 +25882,13 @@
         <v>1</v>
       </c>
       <c r="AJ99" s="2" t="s">
-        <v>2596</v>
+        <v>2583</v>
       </c>
       <c r="AK99" s="2" t="s">
         <v>2142</v>
       </c>
       <c r="AL99" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM99" s="1">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         <v>943</v>
       </c>
       <c r="AF100" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AG100" s="1" t="s">
-        <v>2683</v>
+        <v>2670</v>
       </c>
       <c r="AH100" s="1">
         <v>0</v>
@@ -26177,7 +26177,7 @@
         <v>2097</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>2647</v>
+        <v>2634</v>
       </c>
       <c r="AH101" s="1">
         <v>1</v>
@@ -26332,7 +26332,7 @@
         <v>282</v>
       </c>
       <c r="AL102" s="1" t="s">
-        <v>2627</v>
+        <v>2614</v>
       </c>
       <c r="AM102" s="1">
         <v>0</v>
@@ -26469,7 +26469,7 @@
         <v>2098</v>
       </c>
       <c r="AF103" s="1" t="s">
-        <v>2662</v>
+        <v>2649</v>
       </c>
       <c r="AH103" s="1">
         <v>1</v>
@@ -26481,10 +26481,10 @@
         <v>1079</v>
       </c>
       <c r="AK103" s="2" t="s">
-        <v>2614</v>
+        <v>2601</v>
       </c>
       <c r="AL103" s="1" t="s">
-        <v>2640</v>
+        <v>2627</v>
       </c>
       <c r="AM103" s="1">
         <v>0</v>
@@ -26633,7 +26633,7 @@
         <v>2123</v>
       </c>
       <c r="AL104" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM104" s="1">
         <v>0</v>
@@ -26758,7 +26758,7 @@
         <v>1094</v>
       </c>
       <c r="AF105" s="1" t="s">
-        <v>2647</v>
+        <v>2634</v>
       </c>
       <c r="AH105" s="1">
         <v>0</v>
@@ -26907,10 +26907,10 @@
         <v>2080</v>
       </c>
       <c r="AK106" s="2" t="s">
-        <v>2609</v>
+        <v>2596</v>
       </c>
       <c r="AL106" s="1" t="s">
-        <v>2700</v>
+        <v>2687</v>
       </c>
       <c r="AM106" s="1">
         <v>0</v>
@@ -27050,13 +27050,13 @@
         <v>1</v>
       </c>
       <c r="AJ107" s="2" t="s">
-        <v>2742</v>
+        <v>2729</v>
       </c>
       <c r="AK107" s="2" t="s">
-        <v>2701</v>
+        <v>2688</v>
       </c>
       <c r="AL107" s="1" t="s">
-        <v>2628</v>
+        <v>2615</v>
       </c>
       <c r="AM107" s="1">
         <v>0</v>
@@ -27205,7 +27205,7 @@
         <v>936</v>
       </c>
       <c r="AL108" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM108" s="1">
         <v>0</v>
@@ -27640,7 +27640,7 @@
         <v>1094</v>
       </c>
       <c r="AF111" s="1" t="s">
-        <v>2647</v>
+        <v>2634</v>
       </c>
       <c r="AH111" s="1">
         <v>0</v>
@@ -27655,7 +27655,7 @@
         <v>936</v>
       </c>
       <c r="AL111" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM111" s="1">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>1146</v>
       </c>
       <c r="AF112" s="1" t="s">
-        <v>2652</v>
+        <v>2639</v>
       </c>
       <c r="AH112" s="1">
         <v>0</v>
@@ -27810,7 +27810,7 @@
         <v>936</v>
       </c>
       <c r="AL112" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM112" s="1">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>1</v>
       </c>
       <c r="AJ115" s="2" t="s">
-        <v>2603</v>
+        <v>2590</v>
       </c>
       <c r="AK115" s="2" t="s">
         <v>1582</v>
@@ -28382,7 +28382,7 @@
         <v>1169</v>
       </c>
       <c r="AF116" s="1" t="s">
-        <v>2663</v>
+        <v>2650</v>
       </c>
       <c r="AH116" s="1">
         <v>1</v>
@@ -28534,7 +28534,7 @@
         <v>2109</v>
       </c>
       <c r="AF117" s="1" t="s">
-        <v>2647</v>
+        <v>2634</v>
       </c>
       <c r="AH117" s="1">
         <v>0</v>
@@ -28549,7 +28549,7 @@
         <v>2143</v>
       </c>
       <c r="AL117" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM117" s="1">
         <v>0</v>
@@ -28686,7 +28686,7 @@
         <v>2109</v>
       </c>
       <c r="AF118" s="1" t="s">
-        <v>2647</v>
+        <v>2634</v>
       </c>
       <c r="AH118" s="1">
         <v>0</v>
@@ -28701,7 +28701,7 @@
         <v>2144</v>
       </c>
       <c r="AL118" s="1" t="s">
-        <v>2629</v>
+        <v>2616</v>
       </c>
       <c r="AM118" s="1">
         <v>0</v>
@@ -28853,7 +28853,7 @@
         <v>2145</v>
       </c>
       <c r="AL119" s="1" t="s">
-        <v>2624</v>
+        <v>2611</v>
       </c>
       <c r="AM119" s="1">
         <v>0</v>
@@ -29002,10 +29002,10 @@
         <v>2082</v>
       </c>
       <c r="AK120" s="2" t="s">
-        <v>2702</v>
+        <v>2689</v>
       </c>
       <c r="AL120" s="1" t="s">
-        <v>2703</v>
+        <v>2690</v>
       </c>
       <c r="AM120" s="1">
         <v>0</v>
@@ -29300,13 +29300,13 @@
         <v>1</v>
       </c>
       <c r="AJ122" s="2" t="s">
-        <v>2743</v>
+        <v>2730</v>
       </c>
       <c r="AK122" s="2" t="s">
         <v>2136</v>
       </c>
       <c r="AL122" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM122" s="1">
         <v>0</v>
@@ -29452,13 +29452,13 @@
         <v>1</v>
       </c>
       <c r="AJ123" s="2" t="s">
-        <v>2704</v>
+        <v>2691</v>
       </c>
       <c r="AK123" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL123" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM123" s="1">
         <v>0</v>
@@ -29583,13 +29583,13 @@
         <v>1</v>
       </c>
       <c r="AD124" s="2" t="s">
-        <v>2664</v>
+        <v>2651</v>
       </c>
       <c r="AE124" s="1" t="s">
-        <v>2664</v>
+        <v>2651</v>
       </c>
       <c r="AF124" s="1" t="s">
-        <v>2665</v>
+        <v>2652</v>
       </c>
       <c r="AH124" s="1">
         <v>0</v>
@@ -29598,13 +29598,13 @@
         <v>1</v>
       </c>
       <c r="AJ124" s="2" t="s">
-        <v>2744</v>
+        <v>2731</v>
       </c>
       <c r="AK124" s="2" t="s">
         <v>2125</v>
       </c>
       <c r="AL124" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM124" s="1">
         <v>0</v>
@@ -29756,7 +29756,7 @@
         <v>2106</v>
       </c>
       <c r="AL125" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM125" s="1">
         <v>0</v>
@@ -29902,13 +29902,13 @@
         <v>1</v>
       </c>
       <c r="AJ126" s="2" t="s">
-        <v>2595</v>
+        <v>2582</v>
       </c>
       <c r="AK126" s="2" t="s">
         <v>2109</v>
       </c>
       <c r="AL126" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM126" s="1">
         <v>0</v>
@@ -30060,7 +30060,7 @@
         <v>936</v>
       </c>
       <c r="AL127" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM127" s="1">
         <v>0</v>
@@ -30212,7 +30212,7 @@
         <v>919</v>
       </c>
       <c r="AL128" s="1" t="s">
-        <v>2627</v>
+        <v>2614</v>
       </c>
       <c r="AM128" s="1">
         <v>0</v>
@@ -30364,7 +30364,7 @@
         <v>919</v>
       </c>
       <c r="AL129" s="1" t="s">
-        <v>2627</v>
+        <v>2614</v>
       </c>
       <c r="AM129" s="1">
         <v>0</v>
@@ -30671,7 +30671,7 @@
         <v>2083</v>
       </c>
       <c r="AL131" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM131" s="1">
         <v>0</v>
@@ -30823,7 +30823,7 @@
         <v>2137</v>
       </c>
       <c r="AL132" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM132" s="1">
         <v>0</v>
@@ -30960,7 +30960,7 @@
         <v>1676</v>
       </c>
       <c r="AF133" s="1" t="s">
-        <v>2652</v>
+        <v>2639</v>
       </c>
       <c r="AH133" s="1">
         <v>1</v>
@@ -31130,7 +31130,7 @@
         <v>1437</v>
       </c>
       <c r="AO134" s="1" t="s">
-        <v>2620</v>
+        <v>2607</v>
       </c>
       <c r="AP134" s="1">
         <v>201</v>
@@ -31261,7 +31261,7 @@
         <v>2100</v>
       </c>
       <c r="AF135" s="1" t="s">
-        <v>2666</v>
+        <v>2653</v>
       </c>
       <c r="AH135" s="1">
         <v>1</v>
@@ -31419,7 +31419,7 @@
         <v>2101</v>
       </c>
       <c r="AF136" s="1" t="s">
-        <v>2667</v>
+        <v>2654</v>
       </c>
       <c r="AH136" s="1">
         <v>0</v>
@@ -31434,7 +31434,7 @@
         <v>2101</v>
       </c>
       <c r="AL136" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM136" s="1">
         <v>0</v>
@@ -31571,10 +31571,10 @@
         <v>2110</v>
       </c>
       <c r="AF137" s="1" t="s">
-        <v>2668</v>
+        <v>2655</v>
       </c>
       <c r="AG137" s="1" t="s">
-        <v>2689</v>
+        <v>2676</v>
       </c>
       <c r="AH137" s="1">
         <v>0</v>
@@ -31583,13 +31583,13 @@
         <v>1</v>
       </c>
       <c r="AJ137" s="2" t="s">
-        <v>2705</v>
+        <v>2692</v>
       </c>
       <c r="AK137" s="2" t="s">
         <v>2110</v>
       </c>
       <c r="AL137" s="1" t="s">
-        <v>2706</v>
+        <v>2693</v>
       </c>
       <c r="AM137" s="1">
         <v>0</v>
@@ -31863,7 +31863,7 @@
         <v>2102</v>
       </c>
       <c r="AF139" s="1" t="s">
-        <v>2669</v>
+        <v>2656</v>
       </c>
       <c r="AH139" s="1">
         <v>0</v>
@@ -31875,10 +31875,10 @@
         <v>1480</v>
       </c>
       <c r="AK139" s="2" t="s">
-        <v>2611</v>
+        <v>2598</v>
       </c>
       <c r="AL139" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM139" s="1">
         <v>0</v>
@@ -32006,7 +32006,7 @@
         <v>2103</v>
       </c>
       <c r="AF140" s="1" t="s">
-        <v>2670</v>
+        <v>2657</v>
       </c>
       <c r="AH140" s="1">
         <v>0</v>
@@ -32021,7 +32021,7 @@
         <v>936</v>
       </c>
       <c r="AL140" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM140" s="1">
         <v>0</v>
@@ -32158,7 +32158,7 @@
         <v>2103</v>
       </c>
       <c r="AF141" s="1" t="s">
-        <v>2670</v>
+        <v>2657</v>
       </c>
       <c r="AH141" s="1">
         <v>0</v>
@@ -32173,7 +32173,7 @@
         <v>936</v>
       </c>
       <c r="AL141" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM141" s="1">
         <v>0</v>
@@ -32310,7 +32310,7 @@
         <v>2103</v>
       </c>
       <c r="AF142" s="1" t="s">
-        <v>2670</v>
+        <v>2657</v>
       </c>
       <c r="AH142" s="1">
         <v>0</v>
@@ -32325,7 +32325,7 @@
         <v>936</v>
       </c>
       <c r="AL142" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM142" s="1">
         <v>0</v>
@@ -32614,10 +32614,10 @@
         <v>2111</v>
       </c>
       <c r="AF144" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AG144" s="1" t="s">
-        <v>2680</v>
+        <v>2667</v>
       </c>
       <c r="AH144" s="1">
         <v>0</v>
@@ -32626,13 +32626,13 @@
         <v>1</v>
       </c>
       <c r="AJ144" s="2" t="s">
-        <v>2745</v>
+        <v>2732</v>
       </c>
       <c r="AK144" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL144" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM144" s="1">
         <v>0</v>
@@ -32757,16 +32757,16 @@
         <v>1</v>
       </c>
       <c r="AD145" s="2" t="s">
-        <v>2671</v>
+        <v>2658</v>
       </c>
       <c r="AE145" s="1" t="s">
-        <v>2720</v>
+        <v>2707</v>
       </c>
       <c r="AF145" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AG145" s="1" t="s">
-        <v>2680</v>
+        <v>2667</v>
       </c>
       <c r="AH145" s="1">
         <v>0</v>
@@ -32936,7 +32936,7 @@
         <v>911</v>
       </c>
       <c r="AL146" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM146" s="1">
         <v>0</v>
@@ -33085,10 +33085,10 @@
         <v>1528</v>
       </c>
       <c r="AK147" s="2" t="s">
-        <v>2612</v>
+        <v>2599</v>
       </c>
       <c r="AL147" s="1" t="s">
-        <v>2629</v>
+        <v>2616</v>
       </c>
       <c r="AM147" s="1">
         <v>0</v>
@@ -33225,7 +33225,7 @@
         <v>2092</v>
       </c>
       <c r="AF148" s="1" t="s">
-        <v>2639</v>
+        <v>2626</v>
       </c>
       <c r="AH148" s="1">
         <v>0</v>
@@ -33377,7 +33377,7 @@
         <v>2112</v>
       </c>
       <c r="AF149" s="1" t="s">
-        <v>2672</v>
+        <v>2659</v>
       </c>
       <c r="AH149" s="1">
         <v>0</v>
@@ -33389,10 +33389,10 @@
         <v>2058</v>
       </c>
       <c r="AK149" s="2" t="s">
-        <v>2721</v>
+        <v>2708</v>
       </c>
       <c r="AL149" s="1" t="s">
-        <v>2707</v>
+        <v>2694</v>
       </c>
       <c r="AM149" s="1">
         <v>0</v>
@@ -33535,13 +33535,13 @@
         <v>1</v>
       </c>
       <c r="AJ150" s="2" t="s">
-        <v>2746</v>
+        <v>2733</v>
       </c>
       <c r="AK150" s="2" t="s">
-        <v>2708</v>
+        <v>2695</v>
       </c>
       <c r="AL150" s="1" t="s">
-        <v>2709</v>
+        <v>2696</v>
       </c>
       <c r="AM150" s="1">
         <v>0</v>
@@ -33973,13 +33973,13 @@
         <v>1</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>2673</v>
+        <v>2660</v>
       </c>
       <c r="AE153" s="1" t="s">
         <v>2109</v>
       </c>
       <c r="AF153" s="1" t="s">
-        <v>2647</v>
+        <v>2634</v>
       </c>
       <c r="AH153" s="1">
         <v>0</v>
@@ -33988,13 +33988,13 @@
         <v>1</v>
       </c>
       <c r="AJ153" s="2" t="s">
-        <v>2747</v>
+        <v>2734</v>
       </c>
       <c r="AK153" s="2" t="s">
-        <v>2725</v>
+        <v>2712</v>
       </c>
       <c r="AL153" s="1" t="s">
-        <v>2640</v>
+        <v>2627</v>
       </c>
       <c r="AM153" s="1">
         <v>0</v>
@@ -34146,7 +34146,7 @@
         <v>2149</v>
       </c>
       <c r="AL154" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM154" s="1">
         <v>0</v>
@@ -34414,13 +34414,13 @@
         <v>1589</v>
       </c>
       <c r="AE156" s="1" t="s">
-        <v>2616</v>
+        <v>2603</v>
       </c>
       <c r="AF156" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AG156" s="1" t="s">
-        <v>2680</v>
+        <v>2667</v>
       </c>
       <c r="AH156" s="1">
         <v>0</v>
@@ -34432,10 +34432,10 @@
         <v>1590</v>
       </c>
       <c r="AK156" s="2" t="s">
-        <v>2615</v>
+        <v>2602</v>
       </c>
       <c r="AL156" s="1" t="s">
-        <v>2703</v>
+        <v>2690</v>
       </c>
       <c r="AM156" s="1">
         <v>0</v>
@@ -34578,13 +34578,13 @@
         <v>1</v>
       </c>
       <c r="AJ157" s="2" t="s">
-        <v>2710</v>
+        <v>2697</v>
       </c>
       <c r="AK157" s="2" t="s">
-        <v>2710</v>
+        <v>2697</v>
       </c>
       <c r="AL157" s="1" t="s">
-        <v>2711</v>
+        <v>2698</v>
       </c>
       <c r="AM157" s="1">
         <v>0</v>
@@ -34718,10 +34718,10 @@
         <v>1603</v>
       </c>
       <c r="AE158" s="1" t="s">
-        <v>2605</v>
+        <v>2592</v>
       </c>
       <c r="AF158" s="1" t="s">
-        <v>2638</v>
+        <v>2625</v>
       </c>
       <c r="AH158" s="1">
         <v>0</v>
@@ -34888,7 +34888,7 @@
         <v>2150</v>
       </c>
       <c r="AL159" s="1" t="s">
-        <v>2625</v>
+        <v>2612</v>
       </c>
       <c r="AM159" s="1">
         <v>0</v>
@@ -35019,7 +35019,7 @@
         <v>1676</v>
       </c>
       <c r="AF160" s="1" t="s">
-        <v>2652</v>
+        <v>2639</v>
       </c>
       <c r="AH160" s="1">
         <v>0</v>
@@ -35177,7 +35177,7 @@
         <v>2123</v>
       </c>
       <c r="AL161" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM161" s="1">
         <v>0</v>
@@ -35329,7 +35329,7 @@
         <v>2151</v>
       </c>
       <c r="AL162" s="1" t="s">
-        <v>2630</v>
+        <v>2617</v>
       </c>
       <c r="AM162" s="1">
         <v>0</v>
@@ -35481,7 +35481,7 @@
         <v>919</v>
       </c>
       <c r="AL163" s="1" t="s">
-        <v>2627</v>
+        <v>2614</v>
       </c>
       <c r="AM163" s="1">
         <v>0</v>
@@ -35773,7 +35773,7 @@
         <v>936</v>
       </c>
       <c r="AL165" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM165" s="1">
         <v>0</v>
@@ -35925,7 +35925,7 @@
         <v>2119</v>
       </c>
       <c r="AL166" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM166" s="1">
         <v>0</v>
@@ -36053,13 +36053,13 @@
         <v>1</v>
       </c>
       <c r="AD167" s="2" t="s">
-        <v>2674</v>
+        <v>2661</v>
       </c>
       <c r="AE167" s="1" t="s">
         <v>2104</v>
       </c>
       <c r="AF167" s="1" t="s">
-        <v>2638</v>
+        <v>2625</v>
       </c>
       <c r="AH167" s="1">
         <v>0</v>
@@ -36074,7 +36074,7 @@
         <v>2119</v>
       </c>
       <c r="AL167" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM167" s="1">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>1676</v>
       </c>
       <c r="AF168" s="1" t="s">
-        <v>2638</v>
+        <v>2625</v>
       </c>
       <c r="AH168" s="1">
         <v>1</v>
@@ -36345,7 +36345,7 @@
         <v>39</v>
       </c>
       <c r="AB169" s="1" t="s">
-        <v>2538</v>
+        <v>2528</v>
       </c>
       <c r="AC169" s="1" t="s">
         <v>39</v>
@@ -36506,7 +36506,7 @@
         <v>2123</v>
       </c>
       <c r="AL170" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM170" s="1">
         <v>0</v>
@@ -36643,10 +36643,10 @@
         <v>2113</v>
       </c>
       <c r="AF171" s="1" t="s">
-        <v>2640</v>
+        <v>2627</v>
       </c>
       <c r="AG171" s="1" t="s">
-        <v>2686</v>
+        <v>2673</v>
       </c>
       <c r="AH171" s="1">
         <v>0</v>
@@ -36658,10 +36658,10 @@
         <v>1698</v>
       </c>
       <c r="AK171" s="2" t="s">
-        <v>2617</v>
+        <v>2604</v>
       </c>
       <c r="AL171" s="1" t="s">
-        <v>2712</v>
+        <v>2699</v>
       </c>
       <c r="AM171" s="1">
         <v>0</v>
@@ -36801,7 +36801,7 @@
         <v>936</v>
       </c>
       <c r="AL172" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM172" s="1">
         <v>0</v>
@@ -36953,7 +36953,7 @@
         <v>2152</v>
       </c>
       <c r="AL173" s="1" t="s">
-        <v>2632</v>
+        <v>2619</v>
       </c>
       <c r="AM173" s="1">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>2107</v>
       </c>
       <c r="AF174" s="1" t="s">
-        <v>2675</v>
+        <v>2662</v>
       </c>
       <c r="AH174" s="1">
         <v>1</v>
@@ -37254,7 +37254,7 @@
         <v>2119</v>
       </c>
       <c r="AL175" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AM175" s="1">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>1</v>
       </c>
       <c r="AD176" s="2" t="s">
-        <v>2676</v>
+        <v>2663</v>
       </c>
       <c r="AE176" s="1" t="s">
         <v>2111</v>
       </c>
       <c r="AF176" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AG176" s="1" t="s">
-        <v>2680</v>
+        <v>2667</v>
       </c>
       <c r="AH176" s="1">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>2125</v>
       </c>
       <c r="AL177" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM177" s="1">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>936</v>
       </c>
       <c r="AL178" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM178" s="1">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>1</v>
       </c>
       <c r="AJ179" s="2" t="s">
-        <v>2713</v>
+        <v>2700</v>
       </c>
       <c r="AK179" s="2" t="s">
-        <v>2713</v>
+        <v>2700</v>
       </c>
       <c r="AL179" s="1" t="s">
-        <v>2626</v>
+        <v>2613</v>
       </c>
       <c r="AM179" s="1">
         <v>0</v>
@@ -38136,7 +38136,7 @@
         <v>2114</v>
       </c>
       <c r="AF181" s="1" t="s">
-        <v>2639</v>
+        <v>2626</v>
       </c>
       <c r="AH181" s="1">
         <v>0</v>
@@ -38294,13 +38294,13 @@
         <v>1</v>
       </c>
       <c r="AJ182" s="2" t="s">
-        <v>2748</v>
+        <v>2735</v>
       </c>
       <c r="AK182" s="2" t="s">
         <v>2125</v>
       </c>
       <c r="AL182" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM182" s="1">
         <v>0</v>
@@ -38434,13 +38434,13 @@
         <v>1782</v>
       </c>
       <c r="AE183" s="1" t="s">
-        <v>2728</v>
+        <v>2715</v>
       </c>
       <c r="AF183" s="1" t="s">
-        <v>2640</v>
+        <v>2627</v>
       </c>
       <c r="AG183" s="1" t="s">
-        <v>2686</v>
+        <v>2673</v>
       </c>
       <c r="AH183" s="1">
         <v>0</v>
@@ -38455,7 +38455,7 @@
         <v>2154</v>
       </c>
       <c r="AL183" s="1" t="s">
-        <v>2625</v>
+        <v>2612</v>
       </c>
       <c r="AM183" s="1">
         <v>0</v>
@@ -38604,10 +38604,10 @@
         <v>1789</v>
       </c>
       <c r="AK184" s="2" t="s">
+        <v>2597</v>
+      </c>
+      <c r="AL184" s="1" t="s">
         <v>2610</v>
-      </c>
-      <c r="AL184" s="1" t="s">
-        <v>2623</v>
       </c>
       <c r="AM184" s="1">
         <v>0</v>
@@ -38744,7 +38744,7 @@
         <v>2104</v>
       </c>
       <c r="AF185" s="1" t="s">
-        <v>2638</v>
+        <v>2625</v>
       </c>
       <c r="AH185" s="1">
         <v>0</v>
@@ -38759,7 +38759,7 @@
         <v>2155</v>
       </c>
       <c r="AL185" s="1" t="s">
-        <v>2640</v>
+        <v>2627</v>
       </c>
       <c r="AM185" s="1">
         <v>1</v>
@@ -38899,10 +38899,10 @@
         <v>1810</v>
       </c>
       <c r="AF186" s="1" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="AG186" s="1" t="s">
-        <v>2683</v>
+        <v>2670</v>
       </c>
       <c r="AH186" s="1">
         <v>0</v>
@@ -38917,7 +38917,7 @@
         <v>2125</v>
       </c>
       <c r="AL186" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM186" s="1">
         <v>0</v>
@@ -39063,13 +39063,13 @@
         <v>1</v>
       </c>
       <c r="AJ187" s="2" t="s">
-        <v>2749</v>
+        <v>2736</v>
       </c>
       <c r="AK187" s="2" t="s">
         <v>2137</v>
       </c>
       <c r="AL187" s="1" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="AM187" s="1">
         <v>0</v>
@@ -39125,9 +39125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD83" sqref="AD83"/>
+      <selection pane="topRight" activeCell="AD155" sqref="AD155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39261,7 +39261,7 @@
         <v>601</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>2410</v>
+        <v>2402</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>602</v>
@@ -39351,19 +39351,19 @@
         <v>5</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>2539</v>
+        <v>2529</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>2769</v>
+        <v>2752</v>
       </c>
       <c r="AE2" s="1">
         <v>3</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>2512</v>
+        <v>2504</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>2769</v>
+        <v>2752</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>39</v>
@@ -39457,10 +39457,10 @@
         <v>0</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>2513</v>
+        <v>2505</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>2779</v>
+        <v>2761</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1" t="s">
@@ -39559,19 +39559,19 @@
         <v>5</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>2564</v>
+        <v>2552</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>2780</v>
+        <v>2762</v>
       </c>
       <c r="AE4" s="1">
         <v>5</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>2565</v>
+        <v>2553</v>
       </c>
       <c r="AG4" s="10" t="s">
-        <v>2780</v>
+        <v>2762</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>39</v>
@@ -39765,19 +39765,19 @@
         <v>5</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>2558</v>
+        <v>2547</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>2761</v>
+        <v>2746</v>
       </c>
       <c r="AE6" s="1">
         <v>5</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>2558</v>
+        <v>2547</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>2761</v>
+        <v>2746</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>39</v>
@@ -39873,7 +39873,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>2514</v>
+        <v>2506</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>2365</v>
@@ -39882,7 +39882,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>2515</v>
+        <v>2507</v>
       </c>
       <c r="AG7" s="10" t="s">
         <v>2365</v>
@@ -40081,10 +40081,10 @@
         <v>5</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>2516</v>
+        <v>2508</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>2781</v>
+        <v>2763</v>
       </c>
       <c r="AE9" s="1">
         <v>5</v>
@@ -40186,7 +40186,7 @@
         <v>641</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>2782</v>
+        <v>2764</v>
       </c>
       <c r="AE10" s="1">
         <v>3</v>
@@ -40195,7 +40195,7 @@
         <v>642</v>
       </c>
       <c r="AG10" s="10" t="s">
-        <v>2782</v>
+        <v>2764</v>
       </c>
       <c r="AH10" s="1" t="s">
         <v>39</v>
@@ -40382,7 +40382,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>2418</v>
+        <v>2410</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>39</v>
@@ -40493,19 +40493,19 @@
         <v>5</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>2543</v>
+        <v>2532</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>2783</v>
+        <v>2765</v>
       </c>
       <c r="AE13" s="1">
         <v>3</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>2544</v>
+        <v>2533</v>
       </c>
       <c r="AG13" s="10" t="s">
-        <v>2783</v>
+        <v>2765</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>39</v>
@@ -40590,7 +40590,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>2419</v>
+        <v>2411</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>39</v>
@@ -40809,19 +40809,19 @@
         <v>5</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>2592</v>
+        <v>2579</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>2784</v>
+        <v>2766</v>
       </c>
       <c r="AE16" s="1">
         <v>3</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>2593</v>
+        <v>2580</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>2784</v>
+        <v>2766</v>
       </c>
       <c r="AH16" s="1" t="s">
         <v>39</v>
@@ -40908,7 +40908,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>2420</v>
+        <v>2412</v>
       </c>
       <c r="AA17" s="1" t="s">
         <v>39</v>
@@ -40917,19 +40917,19 @@
         <v>5</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>2421</v>
+        <v>2413</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>2750</v>
+        <v>2737</v>
       </c>
       <c r="AE17" s="1">
         <v>4</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>2422</v>
+        <v>2414</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>2750</v>
+        <v>2737</v>
       </c>
       <c r="AH17" s="1" t="s">
         <v>39</v>
@@ -41027,19 +41027,19 @@
         <v>5</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>2423</v>
+        <v>2415</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>2788</v>
+        <v>2770</v>
       </c>
       <c r="AE18" s="1">
         <v>3</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>2424</v>
+        <v>2416</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>2788</v>
+        <v>2770</v>
       </c>
       <c r="AH18" s="1" t="s">
         <v>39</v>
@@ -41135,17 +41135,17 @@
         <v>5</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>2425</v>
+        <v>2417</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="1">
         <v>5</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>2426</v>
+        <v>2418</v>
       </c>
       <c r="AG19" s="10" t="s">
-        <v>2521</v>
+        <v>2513</v>
       </c>
       <c r="AH19" s="1" t="s">
         <v>39</v>
@@ -41545,19 +41545,19 @@
         <v>2</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>2427</v>
+        <v>2419</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>2785</v>
+        <v>2767</v>
       </c>
       <c r="AE23" s="1">
         <v>2</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>2427</v>
+        <v>2419</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>2785</v>
+        <v>2767</v>
       </c>
       <c r="AH23" s="1" t="s">
         <v>39</v>
@@ -41758,16 +41758,16 @@
         <v>695</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>2775</v>
+        <v>2758</v>
       </c>
       <c r="AE25" s="1">
         <v>5</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>2428</v>
+        <v>2420</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>2775</v>
+        <v>2758</v>
       </c>
       <c r="AH25" s="1" t="s">
         <v>39</v>
@@ -42063,19 +42063,19 @@
         <v>5</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>2429</v>
+        <v>2421</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>2759</v>
+        <v>2744</v>
       </c>
       <c r="AE28" s="1">
         <v>5</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>2430</v>
+        <v>2422</v>
       </c>
       <c r="AG28" s="10" t="s">
-        <v>2759</v>
+        <v>2744</v>
       </c>
       <c r="AH28" s="1" t="s">
         <v>39</v>
@@ -42171,19 +42171,19 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>2431</v>
+        <v>2423</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>2787</v>
+        <v>2769</v>
       </c>
       <c r="AE29" s="1">
         <v>5</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>2432</v>
+        <v>2424</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>2787</v>
+        <v>2769</v>
       </c>
       <c r="AH29" s="1" t="s">
         <v>39</v>
@@ -42278,7 +42278,7 @@
         <v>709</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>2751</v>
+        <v>2738</v>
       </c>
       <c r="AE30" s="1" t="s">
         <v>39</v>
@@ -42485,19 +42485,19 @@
         <v>5</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>2586</v>
+        <v>2574</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>2789</v>
+        <v>2771</v>
       </c>
       <c r="AE32" s="1">
         <v>5</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>2587</v>
+        <v>2575</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>2789</v>
+        <v>2771</v>
       </c>
       <c r="AH32" s="1" t="s">
         <v>39</v>
@@ -42695,7 +42695,7 @@
         <v>5</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>2433</v>
+        <v>2425</v>
       </c>
       <c r="AD34" s="2" t="s">
         <v>2367</v>
@@ -42704,7 +42704,7 @@
         <v>3</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>2434</v>
+        <v>2426</v>
       </c>
       <c r="AG34" s="10" t="s">
         <v>2367</v>
@@ -42799,19 +42799,19 @@
         <v>0</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>2435</v>
+        <v>2427</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>2790</v>
+        <v>2772</v>
       </c>
       <c r="AE35" s="1">
         <v>3</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>2436</v>
+        <v>2428</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>2790</v>
+        <v>2772</v>
       </c>
       <c r="AH35" s="1" t="s">
         <v>39</v>
@@ -42905,7 +42905,7 @@
         <v>5</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>2437</v>
+        <v>2429</v>
       </c>
       <c r="AD36" s="2" t="s">
         <v>2368</v>
@@ -42914,7 +42914,7 @@
         <v>3</v>
       </c>
       <c r="AF36" s="1" t="s">
-        <v>2438</v>
+        <v>2430</v>
       </c>
       <c r="AG36" s="10" t="s">
         <v>2368</v>
@@ -43309,16 +43309,16 @@
         <v>5</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>2439</v>
+        <v>2431</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>2791</v>
+        <v>2773</v>
       </c>
       <c r="AE40" s="1">
         <v>5</v>
       </c>
       <c r="AF40" s="1" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
       <c r="AG40" s="10" t="s">
         <v>2369</v>
@@ -43416,7 +43416,7 @@
         <v>735</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>2792</v>
+        <v>2774</v>
       </c>
       <c r="AE41" s="1">
         <v>4</v>
@@ -43425,7 +43425,7 @@
         <v>735</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>2792</v>
+        <v>2774</v>
       </c>
       <c r="AH41" s="1" t="s">
         <v>39</v>
@@ -43626,16 +43626,16 @@
         <v>741</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>2793</v>
+        <v>2775</v>
       </c>
       <c r="AE43" s="1">
         <v>2</v>
       </c>
       <c r="AF43" s="1" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>2793</v>
+        <v>2775</v>
       </c>
       <c r="AH43" s="1" t="s">
         <v>39</v>
@@ -43729,19 +43729,19 @@
         <v>0</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>2794</v>
+        <v>2776</v>
       </c>
       <c r="AE44" s="1">
         <v>2</v>
       </c>
       <c r="AF44" s="1" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>2794</v>
+        <v>2776</v>
       </c>
       <c r="AH44" s="1" t="s">
         <v>39</v>
@@ -43937,7 +43937,7 @@
         <v>2</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="AD46" s="2" t="s">
         <v>2370</v>
@@ -43946,7 +43946,7 @@
         <v>2</v>
       </c>
       <c r="AF46" s="1" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="AG46" s="10" t="s">
         <v>2370</v>
@@ -44134,7 +44134,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="AA48" s="1" t="s">
         <v>39</v>
@@ -44143,7 +44143,7 @@
         <v>5</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
       <c r="AD48" s="2" t="s">
         <v>2371</v>
@@ -44152,7 +44152,7 @@
         <v>5</v>
       </c>
       <c r="AF48" s="1" t="s">
-        <v>2447</v>
+        <v>2439</v>
       </c>
       <c r="AG48" s="10" t="s">
         <v>2371</v>
@@ -44351,19 +44351,19 @@
         <v>5</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>2448</v>
+        <v>2440</v>
       </c>
       <c r="AD50" s="2" t="s">
-        <v>2522</v>
+        <v>2514</v>
       </c>
       <c r="AE50" s="1">
         <v>5</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>2449</v>
+        <v>2441</v>
       </c>
       <c r="AG50" s="11" t="s">
-        <v>2522</v>
+        <v>2514</v>
       </c>
       <c r="AH50" s="1" t="s">
         <v>39</v>
@@ -44457,10 +44457,10 @@
         <v>5</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>2559</v>
+        <v>2548</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>2760</v>
+        <v>2745</v>
       </c>
       <c r="AE51" s="1" t="s">
         <v>39</v>
@@ -44473,7 +44473,7 @@
         <v>2</v>
       </c>
       <c r="AI51" s="1" t="s">
-        <v>2560</v>
+        <v>2549</v>
       </c>
       <c r="AJ51" s="1" t="s">
         <v>39</v>
@@ -44559,10 +44559,10 @@
         <v>5</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>2450</v>
+        <v>2442</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>2795</v>
+        <v>2777</v>
       </c>
       <c r="AE52" s="1">
         <v>5</v>
@@ -44571,7 +44571,7 @@
         <v>768</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>2795</v>
+        <v>2777</v>
       </c>
       <c r="AH52" s="1" t="s">
         <v>39</v>
@@ -44669,10 +44669,10 @@
         <v>5</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>2451</v>
+        <v>2443</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>2796</v>
+        <v>2778</v>
       </c>
       <c r="AE53" s="1" t="s">
         <v>39</v>
@@ -44774,7 +44774,7 @@
         <v>773</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>2797</v>
+        <v>2779</v>
       </c>
       <c r="AE54" s="1">
         <v>4</v>
@@ -44783,7 +44783,7 @@
         <v>774</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>2797</v>
+        <v>2779</v>
       </c>
       <c r="AH54" s="1" t="s">
         <v>39</v>
@@ -44873,10 +44873,10 @@
         <v>5</v>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>2452</v>
+        <v>2444</v>
       </c>
       <c r="AD55" s="2" t="s">
-        <v>2776</v>
+        <v>2759</v>
       </c>
       <c r="AE55" s="1" t="s">
         <v>39</v>
@@ -45079,10 +45079,10 @@
         <v>5</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>2798</v>
+        <v>2780</v>
       </c>
       <c r="AE57" s="1" t="s">
         <v>219</v>
@@ -45091,7 +45091,7 @@
         <v>2372</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>2798</v>
+        <v>2780</v>
       </c>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1" t="s">
@@ -45182,7 +45182,7 @@
         <v>2373</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>2799</v>
+        <v>2781</v>
       </c>
       <c r="AE58" s="1">
         <v>5</v>
@@ -45191,7 +45191,7 @@
         <v>2373</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>2799</v>
+        <v>2781</v>
       </c>
       <c r="AH58" s="1" t="s">
         <v>39</v>
@@ -45292,16 +45292,16 @@
         <v>2374</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>2576</v>
+        <v>2564</v>
       </c>
       <c r="AE59" s="1">
         <v>3</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>2411</v>
+        <v>2403</v>
       </c>
       <c r="AG59" s="10" t="s">
-        <v>2576</v>
+        <v>2564</v>
       </c>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1" t="s">
@@ -45397,19 +45397,19 @@
         <v>5</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>2580</v>
+        <v>2568</v>
       </c>
       <c r="AD60" s="2" t="s">
-        <v>2800</v>
+        <v>2782</v>
       </c>
       <c r="AE60" s="1">
         <v>5</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>2581</v>
+        <v>2569</v>
       </c>
       <c r="AG60" s="2" t="s">
-        <v>2800</v>
+        <v>2782</v>
       </c>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1" t="s">
@@ -45503,19 +45503,19 @@
         <v>5</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>2580</v>
+        <v>2568</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>2800</v>
+        <v>2782</v>
       </c>
       <c r="AE61" s="1">
         <v>5</v>
       </c>
       <c r="AF61" s="1" t="s">
-        <v>2582</v>
+        <v>2570</v>
       </c>
       <c r="AG61" s="2" t="s">
-        <v>2800</v>
+        <v>2782</v>
       </c>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1" t="s">
@@ -45609,19 +45609,19 @@
         <v>5</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>2580</v>
+        <v>2568</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>2800</v>
+        <v>2782</v>
       </c>
       <c r="AE62" s="1">
         <v>5</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>2583</v>
+        <v>2571</v>
       </c>
       <c r="AG62" s="2" t="s">
-        <v>2800</v>
+        <v>2782</v>
       </c>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1" t="s">
@@ -45715,19 +45715,19 @@
         <v>5</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>2580</v>
+        <v>2568</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>2800</v>
+        <v>2782</v>
       </c>
       <c r="AE63" s="1">
         <v>5</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>2584</v>
+        <v>2572</v>
       </c>
       <c r="AG63" s="2" t="s">
-        <v>2800</v>
+        <v>2782</v>
       </c>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1" t="s">
@@ -46530,7 +46530,7 @@
         <v>2375</v>
       </c>
       <c r="AD71" s="2" t="s">
-        <v>2752</v>
+        <v>2739</v>
       </c>
       <c r="AE71" s="1">
         <v>3</v>
@@ -46539,7 +46539,7 @@
         <v>2375</v>
       </c>
       <c r="AG71" s="10" t="s">
-        <v>2752</v>
+        <v>2739</v>
       </c>
       <c r="AH71" s="1" t="s">
         <v>39</v>
@@ -47042,7 +47042,7 @@
         <v>2027</v>
       </c>
       <c r="AD76" s="2" t="s">
-        <v>2801</v>
+        <v>2783</v>
       </c>
       <c r="AE76" s="1">
         <v>5</v>
@@ -47051,7 +47051,7 @@
         <v>2028</v>
       </c>
       <c r="AG76" s="2" t="s">
-        <v>2801</v>
+        <v>2783</v>
       </c>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1" t="s">
@@ -47146,16 +47146,16 @@
         <v>2377</v>
       </c>
       <c r="AD77" s="2" t="s">
-        <v>2523</v>
+        <v>2515</v>
       </c>
       <c r="AE77" s="1">
         <v>5</v>
       </c>
       <c r="AF77" s="1" t="s">
-        <v>2453</v>
+        <v>2445</v>
       </c>
       <c r="AG77" s="10" t="s">
-        <v>2523</v>
+        <v>2515</v>
       </c>
       <c r="AH77" s="1"/>
       <c r="AI77" s="1"/>
@@ -47246,10 +47246,10 @@
         <v>5</v>
       </c>
       <c r="AF78" s="1" t="s">
-        <v>2454</v>
+        <v>2446</v>
       </c>
       <c r="AG78" s="10" t="s">
-        <v>2524</v>
+        <v>2516</v>
       </c>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1" t="s">
@@ -47444,16 +47444,16 @@
         <v>2378</v>
       </c>
       <c r="AD80" s="2" t="s">
-        <v>2525</v>
+        <v>2517</v>
       </c>
       <c r="AE80" s="1">
         <v>3</v>
       </c>
       <c r="AF80" s="1" t="s">
-        <v>2412</v>
+        <v>2404</v>
       </c>
       <c r="AG80" s="10" t="s">
-        <v>2525</v>
+        <v>2517</v>
       </c>
       <c r="AH80" s="1" t="s">
         <v>39</v>
@@ -47752,16 +47752,16 @@
         <v>2379</v>
       </c>
       <c r="AD83" s="2" t="s">
-        <v>2753</v>
+        <v>2740</v>
       </c>
       <c r="AE83" s="1">
         <v>5</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>2455</v>
+        <v>2447</v>
       </c>
       <c r="AG83" s="10" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
       <c r="AH83" s="1"/>
       <c r="AI83" s="1" t="s">
@@ -47967,7 +47967,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>274</v>
       </c>
@@ -48049,19 +48049,19 @@
         <v>5</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>2540</v>
+        <v>2530</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>2541</v>
+        <v>2784</v>
       </c>
       <c r="AE86" s="1">
         <v>3</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>2542</v>
-      </c>
-      <c r="AG86" s="10" t="s">
-        <v>2541</v>
+        <v>2531</v>
+      </c>
+      <c r="AG86" s="2" t="s">
+        <v>2784</v>
       </c>
       <c r="AH86" s="1"/>
       <c r="AI86" s="1" t="s">
@@ -48156,16 +48156,16 @@
         <v>2380</v>
       </c>
       <c r="AD87" s="2" t="s">
-        <v>2770</v>
+        <v>2753</v>
       </c>
       <c r="AE87" s="1">
         <v>3</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>2456</v>
+        <v>2448</v>
       </c>
       <c r="AG87" s="10" t="s">
-        <v>2786</v>
+        <v>2768</v>
       </c>
       <c r="AH87" s="1"/>
       <c r="AI87" s="1" t="s">
@@ -48260,7 +48260,7 @@
         <v>5</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>2457</v>
+        <v>2449</v>
       </c>
       <c r="AG88" s="10" t="s">
         <v>993</v>
@@ -48359,19 +48359,19 @@
         <v>5</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>2458</v>
+        <v>2450</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>2382</v>
+        <v>2785</v>
       </c>
       <c r="AE89" s="1">
         <v>5</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>2459</v>
+        <v>2451</v>
       </c>
       <c r="AG89" s="2" t="s">
-        <v>2527</v>
+        <v>2785</v>
       </c>
       <c r="AH89" s="1"/>
       <c r="AI89" s="1" t="s">
@@ -48465,19 +48465,19 @@
         <v>5</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>2460</v>
+        <v>2452</v>
       </c>
       <c r="AD90" s="2" t="s">
-        <v>2383</v>
+        <v>2786</v>
       </c>
       <c r="AE90" s="1">
         <v>5</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>2460</v>
+        <v>2452</v>
       </c>
       <c r="AG90" s="2" t="s">
-        <v>2383</v>
+        <v>2786</v>
       </c>
       <c r="AH90" s="1"/>
       <c r="AI90" s="1" t="s">
@@ -48487,7 +48487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>337</v>
       </c>
@@ -48567,19 +48567,19 @@
         <v>5</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>2461</v>
+        <v>2453</v>
       </c>
       <c r="AD91" s="2" t="s">
-        <v>2758</v>
+        <v>2787</v>
       </c>
       <c r="AE91" s="1">
         <v>3</v>
       </c>
       <c r="AF91" s="1" t="s">
-        <v>2413</v>
+        <v>2405</v>
       </c>
       <c r="AG91" s="2" t="s">
-        <v>2758</v>
+        <v>2787</v>
       </c>
       <c r="AH91" s="1"/>
       <c r="AI91" s="1" t="s">
@@ -48673,19 +48673,19 @@
         <v>5</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>2462</v>
+        <v>2454</v>
       </c>
       <c r="AD92" s="2" t="s">
-        <v>2528</v>
+        <v>2519</v>
       </c>
       <c r="AE92" s="1">
         <v>3</v>
       </c>
       <c r="AF92" s="1" t="s">
-        <v>2463</v>
+        <v>2455</v>
       </c>
       <c r="AG92" s="2" t="s">
-        <v>2528</v>
+        <v>2519</v>
       </c>
       <c r="AH92" s="1"/>
       <c r="AI92" s="1" t="s">
@@ -49079,19 +49079,19 @@
         <v>5</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>2464</v>
+        <v>2456</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>2771</v>
+        <v>2754</v>
       </c>
       <c r="AE96" s="1">
         <v>5</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>2465</v>
+        <v>2457</v>
       </c>
       <c r="AG96" s="2" t="s">
-        <v>2771</v>
+        <v>2754</v>
       </c>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1" t="s">
@@ -49279,19 +49279,19 @@
         <v>5</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>2466</v>
+        <v>2458</v>
       </c>
       <c r="AD98" s="2" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="AE98" s="1">
         <v>5</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>2467</v>
+        <v>2459</v>
       </c>
       <c r="AG98" s="2" t="s">
-        <v>2529</v>
+        <v>2520</v>
       </c>
       <c r="AH98" s="1"/>
       <c r="AI98" s="1" t="s">
@@ -49488,7 +49488,7 @@
         <v>1337</v>
       </c>
       <c r="AD100" s="2" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="AE100" s="1" t="s">
         <v>39</v>
@@ -49591,19 +49591,19 @@
         <v>1</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>2468</v>
+        <v>2460</v>
       </c>
       <c r="AD101" s="2" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="AE101" s="1">
         <v>3</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>2469</v>
+        <v>2461</v>
       </c>
       <c r="AG101" s="2" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="AH101" s="1"/>
       <c r="AI101" s="1" t="s">
@@ -49797,19 +49797,19 @@
         <v>5</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>2561</v>
+        <v>2550</v>
       </c>
       <c r="AD103" s="2" t="s">
-        <v>2575</v>
+        <v>2563</v>
       </c>
       <c r="AE103" s="1">
         <v>3</v>
       </c>
       <c r="AF103" s="1" t="s">
-        <v>2562</v>
+        <v>2551</v>
       </c>
       <c r="AG103" s="2" t="s">
-        <v>2575</v>
+        <v>2563</v>
       </c>
       <c r="AH103" s="1"/>
       <c r="AI103" s="1" t="s">
@@ -50107,19 +50107,19 @@
         <v>5</v>
       </c>
       <c r="AC106" s="1" t="s">
-        <v>2470</v>
+        <v>2462</v>
       </c>
       <c r="AD106" s="2" t="s">
-        <v>2577</v>
+        <v>2565</v>
       </c>
       <c r="AE106" s="1">
         <v>5</v>
       </c>
       <c r="AF106" s="1" t="s">
-        <v>2471</v>
+        <v>2463</v>
       </c>
       <c r="AG106" s="2" t="s">
-        <v>2578</v>
+        <v>2566</v>
       </c>
       <c r="AH106" s="1"/>
       <c r="AI106" s="1" t="s">
@@ -50215,19 +50215,19 @@
         <v>5</v>
       </c>
       <c r="AC107" s="1" t="s">
-        <v>2472</v>
+        <v>2464</v>
       </c>
       <c r="AD107" s="2" t="s">
-        <v>2387</v>
+        <v>2788</v>
       </c>
       <c r="AE107" s="1">
         <v>5</v>
       </c>
       <c r="AF107" s="1" t="s">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="AG107" s="2" t="s">
-        <v>2387</v>
+        <v>2788</v>
       </c>
       <c r="AH107" s="1"/>
       <c r="AI107" s="1" t="s">
@@ -50317,19 +50317,19 @@
         <v>5</v>
       </c>
       <c r="AC108" s="1" t="s">
-        <v>2474</v>
+        <v>2466</v>
       </c>
       <c r="AD108" s="2" t="s">
-        <v>2573</v>
+        <v>2561</v>
       </c>
       <c r="AE108" s="1">
         <v>3</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>2475</v>
+        <v>2467</v>
       </c>
       <c r="AG108" s="2" t="s">
-        <v>2573</v>
+        <v>2561</v>
       </c>
       <c r="AH108" s="1"/>
       <c r="AI108" s="1" t="s">
@@ -50427,7 +50427,7 @@
         <v>39</v>
       </c>
       <c r="AG109" s="2" t="s">
-        <v>2762</v>
+        <v>2747</v>
       </c>
       <c r="AH109" s="1" t="s">
         <v>39</v>
@@ -50718,7 +50718,7 @@
         <v>4</v>
       </c>
       <c r="Z112" s="1" t="s">
-        <v>2476</v>
+        <v>2468</v>
       </c>
       <c r="AA112" s="1" t="s">
         <v>2362</v>
@@ -50727,7 +50727,7 @@
         <v>5</v>
       </c>
       <c r="AC112" s="1" t="s">
-        <v>2477</v>
+        <v>2469</v>
       </c>
       <c r="AD112" s="2" t="s">
         <v>2082</v>
@@ -50736,7 +50736,7 @@
         <v>5</v>
       </c>
       <c r="AF112" s="1" t="s">
-        <v>2478</v>
+        <v>2470</v>
       </c>
       <c r="AG112" s="2" t="s">
         <v>2082</v>
@@ -50749,7 +50749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>677</v>
       </c>
@@ -50823,19 +50823,19 @@
         <v>5</v>
       </c>
       <c r="AC113" s="1" t="s">
-        <v>2566</v>
+        <v>2554</v>
       </c>
       <c r="AD113" s="2" t="s">
-        <v>2567</v>
+        <v>2789</v>
       </c>
       <c r="AE113" s="1">
         <v>2</v>
       </c>
       <c r="AF113" s="1" t="s">
-        <v>2568</v>
+        <v>2556</v>
       </c>
       <c r="AG113" s="2" t="s">
-        <v>2567</v>
+        <v>2555</v>
       </c>
       <c r="AH113" s="1"/>
       <c r="AI113" s="1" t="s">
@@ -50845,7 +50845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>686</v>
       </c>
@@ -50925,19 +50925,19 @@
         <v>5</v>
       </c>
       <c r="AC114" s="1" t="s">
-        <v>2479</v>
+        <v>2471</v>
       </c>
       <c r="AD114" s="2" t="s">
-        <v>2389</v>
+        <v>2790</v>
       </c>
       <c r="AE114" s="1">
         <v>5</v>
       </c>
       <c r="AF114" s="1" t="s">
-        <v>2479</v>
+        <v>2471</v>
       </c>
       <c r="AG114" s="2" t="s">
-        <v>2389</v>
+        <v>2790</v>
       </c>
       <c r="AH114" s="1"/>
       <c r="AI114" s="1" t="s">
@@ -51029,19 +51029,19 @@
         <v>5</v>
       </c>
       <c r="AC115" s="1" t="s">
-        <v>2588</v>
+        <v>2576</v>
       </c>
       <c r="AD115" s="2" t="s">
-        <v>2574</v>
+        <v>2562</v>
       </c>
       <c r="AE115" s="1">
         <v>5</v>
       </c>
       <c r="AF115" s="1" t="s">
-        <v>2589</v>
+        <v>2577</v>
       </c>
       <c r="AG115" s="2" t="s">
-        <v>2574</v>
+        <v>2562</v>
       </c>
       <c r="AH115" s="1"/>
       <c r="AI115" s="1" t="s">
@@ -51137,19 +51137,19 @@
         <v>5</v>
       </c>
       <c r="AC116" s="1" t="s">
-        <v>2480</v>
+        <v>2472</v>
       </c>
       <c r="AD116" s="2" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="AE116" s="1">
         <v>2</v>
       </c>
       <c r="AF116" s="1" t="s">
-        <v>2481</v>
+        <v>2473</v>
       </c>
       <c r="AG116" s="2" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="AH116" s="1"/>
       <c r="AI116" s="1" t="s">
@@ -51243,19 +51243,19 @@
         <v>5</v>
       </c>
       <c r="AC117" s="1" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
       <c r="AD117" s="2" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="AE117" s="1">
         <v>5</v>
       </c>
       <c r="AF117" s="1" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
       <c r="AG117" s="2" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="AH117" s="1" t="s">
         <v>39</v>
@@ -51767,19 +51767,19 @@
         <v>5</v>
       </c>
       <c r="AC122" s="1" t="s">
-        <v>2482</v>
+        <v>2474</v>
       </c>
       <c r="AD122" s="2" t="s">
-        <v>2392</v>
+        <v>2791</v>
       </c>
       <c r="AE122" s="1">
         <v>5</v>
       </c>
       <c r="AF122" s="1" t="s">
-        <v>2590</v>
+        <v>2578</v>
       </c>
       <c r="AG122" s="2" t="s">
-        <v>2591</v>
+        <v>2792</v>
       </c>
       <c r="AH122" s="1" t="s">
         <v>39</v>
@@ -51791,7 +51791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>81</v>
       </c>
@@ -51875,19 +51875,19 @@
         <v>5</v>
       </c>
       <c r="AC123" s="1" t="s">
-        <v>2483</v>
+        <v>2475</v>
       </c>
       <c r="AD123" s="2" t="s">
-        <v>2767</v>
+        <v>2793</v>
       </c>
       <c r="AE123" s="1">
         <v>5</v>
       </c>
       <c r="AF123" s="1" t="s">
-        <v>2483</v>
+        <v>2475</v>
       </c>
       <c r="AG123" s="2" t="s">
-        <v>2767</v>
+        <v>2793</v>
       </c>
       <c r="AH123" s="1" t="s">
         <v>39</v>
@@ -52271,19 +52271,19 @@
         <v>4</v>
       </c>
       <c r="AC127" s="1" t="s">
-        <v>2393</v>
+        <v>2388</v>
       </c>
       <c r="AD127" s="2" t="s">
-        <v>2754</v>
+        <v>2741</v>
       </c>
       <c r="AE127" s="1">
         <v>4</v>
       </c>
       <c r="AF127" s="1" t="s">
-        <v>2393</v>
+        <v>2388</v>
       </c>
       <c r="AG127" s="2" t="s">
-        <v>2754</v>
+        <v>2741</v>
       </c>
       <c r="AH127" s="1" t="s">
         <v>39</v>
@@ -52380,7 +52380,7 @@
         <v>1850</v>
       </c>
       <c r="AD128" s="2" t="s">
-        <v>2394</v>
+        <v>2389</v>
       </c>
       <c r="AE128" s="1">
         <v>0</v>
@@ -52389,7 +52389,7 @@
         <v>1851</v>
       </c>
       <c r="AG128" s="2" t="s">
-        <v>2530</v>
+        <v>2521</v>
       </c>
       <c r="AH128" s="1" t="s">
         <v>39</v>
@@ -52487,19 +52487,19 @@
         <v>5</v>
       </c>
       <c r="AC129" s="1" t="s">
-        <v>2395</v>
+        <v>2390</v>
       </c>
       <c r="AD129" s="2" t="s">
-        <v>2766</v>
+        <v>2751</v>
       </c>
       <c r="AE129" s="1">
         <v>5</v>
       </c>
       <c r="AF129" s="1" t="s">
-        <v>2414</v>
+        <v>2406</v>
       </c>
       <c r="AG129" s="2" t="s">
-        <v>2766</v>
+        <v>2751</v>
       </c>
       <c r="AH129" s="1" t="s">
         <v>39</v>
@@ -52589,19 +52589,19 @@
         <v>5</v>
       </c>
       <c r="AC130" s="1" t="s">
-        <v>2396</v>
+        <v>2391</v>
       </c>
       <c r="AD130" s="2" t="s">
-        <v>2772</v>
+        <v>2755</v>
       </c>
       <c r="AE130" s="1">
         <v>5</v>
       </c>
       <c r="AF130" s="1" t="s">
-        <v>2415</v>
+        <v>2407</v>
       </c>
       <c r="AG130" s="2" t="s">
-        <v>2772</v>
+        <v>2755</v>
       </c>
       <c r="AH130" s="1" t="s">
         <v>39</v>
@@ -52699,19 +52699,19 @@
         <v>5</v>
       </c>
       <c r="AC131" s="1" t="s">
-        <v>2484</v>
+        <v>2476</v>
       </c>
       <c r="AD131" s="2" t="s">
-        <v>2773</v>
+        <v>2756</v>
       </c>
       <c r="AE131" s="1">
         <v>5</v>
       </c>
       <c r="AF131" s="1" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
       <c r="AG131" s="2" t="s">
-        <v>2773</v>
+        <v>2756</v>
       </c>
       <c r="AH131" s="1" t="s">
         <v>39</v>
@@ -52809,19 +52809,19 @@
         <v>5</v>
       </c>
       <c r="AC132" s="1" t="s">
-        <v>2486</v>
+        <v>2478</v>
       </c>
       <c r="AD132" s="2" t="s">
-        <v>2773</v>
+        <v>2756</v>
       </c>
       <c r="AE132" s="1">
         <v>5</v>
       </c>
       <c r="AF132" s="1" t="s">
-        <v>2487</v>
+        <v>2479</v>
       </c>
       <c r="AG132" s="2" t="s">
-        <v>2773</v>
+        <v>2756</v>
       </c>
       <c r="AH132" s="1" t="s">
         <v>39</v>
@@ -52917,19 +52917,19 @@
         <v>5</v>
       </c>
       <c r="AC133" s="1" t="s">
-        <v>2488</v>
+        <v>2480</v>
       </c>
       <c r="AD133" s="2" t="s">
-        <v>2773</v>
+        <v>2756</v>
       </c>
       <c r="AE133" s="1">
         <v>5</v>
       </c>
       <c r="AF133" s="1" t="s">
-        <v>2489</v>
+        <v>2481</v>
       </c>
       <c r="AG133" s="2" t="s">
-        <v>2773</v>
+        <v>2756</v>
       </c>
       <c r="AH133" s="1" t="s">
         <v>39</v>
@@ -52941,7 +52941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>193</v>
       </c>
@@ -53025,19 +53025,19 @@
         <v>4</v>
       </c>
       <c r="AC134" s="1" t="s">
-        <v>2397</v>
+        <v>2392</v>
       </c>
       <c r="AD134" s="2" t="s">
-        <v>2398</v>
+        <v>2794</v>
       </c>
       <c r="AE134" s="1">
         <v>0</v>
       </c>
       <c r="AF134" s="1" t="s">
-        <v>2416</v>
+        <v>2408</v>
       </c>
       <c r="AG134" s="2" t="s">
-        <v>2398</v>
+        <v>2794</v>
       </c>
       <c r="AH134" s="1" t="s">
         <v>39</v>
@@ -53049,7 +53049,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>236</v>
       </c>
@@ -53131,19 +53131,19 @@
         <v>5</v>
       </c>
       <c r="AC135" s="1" t="s">
-        <v>2545</v>
+        <v>2534</v>
       </c>
       <c r="AD135" s="2" t="s">
-        <v>2563</v>
+        <v>2795</v>
       </c>
       <c r="AE135" s="1">
         <v>3</v>
       </c>
       <c r="AF135" s="1" t="s">
-        <v>2585</v>
+        <v>2573</v>
       </c>
       <c r="AG135" s="2" t="s">
-        <v>2563</v>
+        <v>2795</v>
       </c>
       <c r="AH135" s="1" t="s">
         <v>39</v>
@@ -53337,19 +53337,19 @@
         <v>5</v>
       </c>
       <c r="AC137" s="1" t="s">
-        <v>2399</v>
+        <v>2393</v>
       </c>
       <c r="AD137" s="2" t="s">
-        <v>2400</v>
+        <v>2394</v>
       </c>
       <c r="AE137" s="1">
         <v>5</v>
       </c>
       <c r="AF137" s="1" t="s">
-        <v>2490</v>
+        <v>2482</v>
       </c>
       <c r="AG137" s="2" t="s">
-        <v>2400</v>
+        <v>2394</v>
       </c>
       <c r="AH137" s="1" t="s">
         <v>39</v>
@@ -53361,7 +53361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>291</v>
       </c>
@@ -53445,19 +53445,19 @@
         <v>5</v>
       </c>
       <c r="AC138" s="1" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="AD138" s="2" t="s">
-        <v>2768</v>
+        <v>2796</v>
       </c>
       <c r="AE138" s="1">
         <v>3</v>
       </c>
       <c r="AF138" s="1" t="s">
-        <v>2492</v>
+        <v>2484</v>
       </c>
       <c r="AG138" s="2" t="s">
-        <v>2768</v>
+        <v>2796</v>
       </c>
       <c r="AH138" s="1" t="s">
         <v>39</v>
@@ -53553,19 +53553,19 @@
         <v>5</v>
       </c>
       <c r="AC139" s="1" t="s">
-        <v>2493</v>
+        <v>2485</v>
       </c>
       <c r="AD139" s="2" t="s">
-        <v>2777</v>
+        <v>2797</v>
       </c>
       <c r="AE139" s="1">
         <v>5</v>
       </c>
       <c r="AF139" s="1" t="s">
-        <v>2494</v>
+        <v>2486</v>
       </c>
       <c r="AG139" s="2" t="s">
-        <v>2777</v>
+        <v>2797</v>
       </c>
       <c r="AH139" s="1" t="s">
         <v>39</v>
@@ -53861,19 +53861,19 @@
         <v>5</v>
       </c>
       <c r="AC142" s="1" t="s">
-        <v>2555</v>
+        <v>2544</v>
       </c>
       <c r="AD142" s="2" t="s">
-        <v>2763</v>
+        <v>2748</v>
       </c>
       <c r="AE142" s="1">
         <v>5</v>
       </c>
       <c r="AF142" s="1" t="s">
-        <v>2556</v>
+        <v>2545</v>
       </c>
       <c r="AG142" s="2" t="s">
-        <v>2763</v>
+        <v>2748</v>
       </c>
       <c r="AH142" s="1" t="s">
         <v>39</v>
@@ -53963,19 +53963,19 @@
         <v>5</v>
       </c>
       <c r="AC143" s="1" t="s">
-        <v>2546</v>
+        <v>2535</v>
       </c>
       <c r="AD143" s="2" t="s">
-        <v>2755</v>
+        <v>2798</v>
       </c>
       <c r="AE143" s="1">
         <v>3</v>
       </c>
       <c r="AF143" s="1" t="s">
-        <v>2547</v>
+        <v>2536</v>
       </c>
       <c r="AG143" s="2" t="s">
-        <v>2755</v>
+        <v>2798</v>
       </c>
       <c r="AH143" s="1" t="s">
         <v>39</v>
@@ -54691,19 +54691,19 @@
         <v>5</v>
       </c>
       <c r="AC150" s="1" t="s">
-        <v>2548</v>
+        <v>2537</v>
       </c>
       <c r="AD150" s="2" t="s">
-        <v>2579</v>
+        <v>2567</v>
       </c>
       <c r="AE150" s="1">
         <v>3</v>
       </c>
       <c r="AF150" s="1" t="s">
-        <v>2549</v>
+        <v>2538</v>
       </c>
       <c r="AG150" s="2" t="s">
-        <v>2579</v>
+        <v>2567</v>
       </c>
       <c r="AH150" s="1" t="s">
         <v>39</v>
@@ -54793,19 +54793,19 @@
         <v>5</v>
       </c>
       <c r="AC151" s="1" t="s">
-        <v>2495</v>
+        <v>2487</v>
       </c>
       <c r="AD151" s="2" t="s">
-        <v>2401</v>
+        <v>2799</v>
       </c>
       <c r="AE151" s="1">
         <v>5</v>
       </c>
       <c r="AF151" s="1" t="s">
-        <v>2496</v>
+        <v>2488</v>
       </c>
       <c r="AG151" s="2" t="s">
-        <v>2401</v>
+        <v>2799</v>
       </c>
       <c r="AH151" s="1" t="s">
         <v>39</v>
@@ -54817,7 +54817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>384</v>
       </c>
@@ -54901,19 +54901,19 @@
         <v>5</v>
       </c>
       <c r="AC152" s="1" t="s">
-        <v>2403</v>
+        <v>2396</v>
       </c>
       <c r="AD152" s="2" t="s">
-        <v>2404</v>
+        <v>2800</v>
       </c>
       <c r="AE152" s="1">
         <v>5</v>
       </c>
       <c r="AF152" s="1" t="s">
-        <v>2417</v>
+        <v>2409</v>
       </c>
       <c r="AG152" s="2" t="s">
-        <v>2404</v>
+        <v>2800</v>
       </c>
       <c r="AH152" s="1" t="s">
         <v>39</v>
@@ -54925,7 +54925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="120" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>400</v>
       </c>
@@ -55007,19 +55007,19 @@
         <v>5</v>
       </c>
       <c r="AC153" s="1" t="s">
-        <v>2497</v>
+        <v>2489</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>2531</v>
+        <v>2801</v>
       </c>
       <c r="AE153" s="1">
         <v>3</v>
       </c>
       <c r="AF153" s="1" t="s">
-        <v>2498</v>
+        <v>2490</v>
       </c>
       <c r="AG153" s="2" t="s">
-        <v>2531</v>
+        <v>2801</v>
       </c>
       <c r="AH153" s="1" t="s">
         <v>39</v>
@@ -55219,19 +55219,19 @@
         <v>5</v>
       </c>
       <c r="AC155" s="1" t="s">
-        <v>2557</v>
+        <v>2546</v>
       </c>
       <c r="AD155" s="2" t="s">
-        <v>2532</v>
+        <v>2522</v>
       </c>
       <c r="AE155" s="1">
         <v>3</v>
       </c>
       <c r="AF155" s="1" t="s">
-        <v>2499</v>
+        <v>2491</v>
       </c>
       <c r="AG155" s="2" t="s">
-        <v>2532</v>
+        <v>2522</v>
       </c>
       <c r="AH155" s="1" t="s">
         <v>39</v>
@@ -55321,19 +55321,19 @@
         <v>5</v>
       </c>
       <c r="AC156" s="1" t="s">
-        <v>2500</v>
+        <v>2492</v>
       </c>
       <c r="AD156" s="2" t="s">
-        <v>2402</v>
+        <v>2395</v>
       </c>
       <c r="AE156" s="1">
         <v>5</v>
       </c>
       <c r="AF156" s="1" t="s">
-        <v>2501</v>
+        <v>2493</v>
       </c>
       <c r="AG156" s="2" t="s">
-        <v>2402</v>
+        <v>2395</v>
       </c>
       <c r="AH156" s="1" t="s">
         <v>39</v>
@@ -55427,19 +55427,19 @@
         <v>5</v>
       </c>
       <c r="AC157" s="1" t="s">
-        <v>2517</v>
+        <v>2509</v>
       </c>
       <c r="AD157" s="2" t="s">
-        <v>2778</v>
+        <v>2760</v>
       </c>
       <c r="AE157" s="1">
         <v>3</v>
       </c>
       <c r="AF157" s="1" t="s">
-        <v>2502</v>
+        <v>2494</v>
       </c>
       <c r="AG157" s="2" t="s">
-        <v>2778</v>
+        <v>2760</v>
       </c>
       <c r="AH157" s="1" t="s">
         <v>39</v>
@@ -55540,16 +55540,16 @@
         <v>1936</v>
       </c>
       <c r="AD158" s="2" t="s">
-        <v>2765</v>
+        <v>2750</v>
       </c>
       <c r="AE158" s="1">
         <v>5</v>
       </c>
       <c r="AF158" s="1" t="s">
-        <v>2503</v>
+        <v>2495</v>
       </c>
       <c r="AG158" s="2" t="s">
-        <v>2764</v>
+        <v>2749</v>
       </c>
       <c r="AH158" s="1" t="s">
         <v>39</v>
@@ -55619,19 +55619,19 @@
         <v>5</v>
       </c>
       <c r="AC159" s="1" t="s">
-        <v>2569</v>
+        <v>2557</v>
       </c>
       <c r="AD159" s="2" t="s">
-        <v>2570</v>
+        <v>2558</v>
       </c>
       <c r="AE159" s="1">
         <v>5</v>
       </c>
       <c r="AF159" s="1" t="s">
-        <v>2571</v>
+        <v>2559</v>
       </c>
       <c r="AG159" s="2" t="s">
-        <v>2570</v>
+        <v>2558</v>
       </c>
       <c r="AH159" s="1"/>
       <c r="AI159" s="1"/>
@@ -55728,10 +55728,10 @@
         <v>5</v>
       </c>
       <c r="AF160" s="1" t="s">
-        <v>2504</v>
+        <v>2496</v>
       </c>
       <c r="AG160" s="2" t="s">
-        <v>2572</v>
+        <v>2560</v>
       </c>
       <c r="AH160" s="1" t="s">
         <v>39</v>
@@ -55826,7 +55826,7 @@
         <v>1941</v>
       </c>
       <c r="AD161" s="2" t="s">
-        <v>2405</v>
+        <v>2397</v>
       </c>
       <c r="AE161" s="1">
         <v>5</v>
@@ -55835,7 +55835,7 @@
         <v>1942</v>
       </c>
       <c r="AG161" s="2" t="s">
-        <v>2533</v>
+        <v>2523</v>
       </c>
       <c r="AH161" s="1" t="s">
         <v>39</v>
@@ -55931,19 +55931,19 @@
         <v>5</v>
       </c>
       <c r="AC162" s="1" t="s">
-        <v>2505</v>
+        <v>2497</v>
       </c>
       <c r="AD162" s="2" t="s">
-        <v>2406</v>
+        <v>2398</v>
       </c>
       <c r="AE162" s="1">
         <v>5</v>
       </c>
       <c r="AF162" s="1" t="s">
-        <v>2506</v>
+        <v>2498</v>
       </c>
       <c r="AG162" s="2" t="s">
-        <v>2406</v>
+        <v>2398</v>
       </c>
       <c r="AH162" s="1" t="s">
         <v>39</v>
@@ -56041,19 +56041,19 @@
         <v>5</v>
       </c>
       <c r="AC163" s="1" t="s">
-        <v>2507</v>
+        <v>2499</v>
       </c>
       <c r="AD163" s="2" t="s">
-        <v>2756</v>
+        <v>2742</v>
       </c>
       <c r="AE163" s="1">
         <v>3</v>
       </c>
       <c r="AF163" s="1" t="s">
-        <v>2508</v>
+        <v>2500</v>
       </c>
       <c r="AG163" s="2" t="s">
-        <v>2756</v>
+        <v>2742</v>
       </c>
       <c r="AH163" s="1" t="s">
         <v>39</v>
@@ -56154,10 +56154,10 @@
         <v>5</v>
       </c>
       <c r="AF164" s="1" t="s">
-        <v>2554</v>
+        <v>2543</v>
       </c>
       <c r="AG164" s="2" t="s">
-        <v>2550</v>
+        <v>2539</v>
       </c>
       <c r="AH164" s="1" t="s">
         <v>39</v>
@@ -56355,19 +56355,19 @@
         <v>5</v>
       </c>
       <c r="AC166" s="1" t="s">
-        <v>2407</v>
+        <v>2399</v>
       </c>
       <c r="AD166" s="2" t="s">
-        <v>2408</v>
+        <v>2400</v>
       </c>
       <c r="AE166" s="1">
         <v>5</v>
       </c>
       <c r="AF166" s="1" t="s">
-        <v>2407</v>
+        <v>2399</v>
       </c>
       <c r="AG166" s="2" t="s">
-        <v>2408</v>
+        <v>2400</v>
       </c>
       <c r="AH166" s="1" t="s">
         <v>39</v>
@@ -56570,16 +56570,16 @@
         <v>1955</v>
       </c>
       <c r="AD168" s="2" t="s">
-        <v>2409</v>
+        <v>2401</v>
       </c>
       <c r="AE168" s="1">
         <v>3</v>
       </c>
       <c r="AF168" s="1" t="s">
-        <v>2509</v>
+        <v>2501</v>
       </c>
       <c r="AG168" s="2" t="s">
-        <v>2534</v>
+        <v>2524</v>
       </c>
       <c r="AH168" s="1" t="s">
         <v>39</v>
@@ -56675,19 +56675,19 @@
         <v>5</v>
       </c>
       <c r="AC169" s="1" t="s">
-        <v>2551</v>
+        <v>2540</v>
       </c>
       <c r="AD169" s="2" t="s">
-        <v>2553</v>
+        <v>2542</v>
       </c>
       <c r="AE169" s="1">
         <v>3</v>
       </c>
       <c r="AF169" s="1" t="s">
-        <v>2552</v>
+        <v>2541</v>
       </c>
       <c r="AG169" s="2" t="s">
-        <v>2553</v>
+        <v>2542</v>
       </c>
       <c r="AH169" s="1" t="s">
         <v>39</v>
@@ -56783,19 +56783,19 @@
         <v>5</v>
       </c>
       <c r="AC170" s="1" t="s">
-        <v>2510</v>
+        <v>2502</v>
       </c>
       <c r="AD170" s="2" t="s">
-        <v>2757</v>
+        <v>2743</v>
       </c>
       <c r="AE170" s="1">
         <v>5</v>
       </c>
       <c r="AF170" s="1" t="s">
-        <v>2511</v>
+        <v>2503</v>
       </c>
       <c r="AG170" s="2" t="s">
-        <v>2757</v>
+        <v>2743</v>
       </c>
       <c r="AH170" s="1" t="s">
         <v>39</v>
@@ -56889,19 +56889,19 @@
         <v>5</v>
       </c>
       <c r="AC171" s="1" t="s">
-        <v>2518</v>
+        <v>2510</v>
       </c>
       <c r="AD171" s="2" t="s">
-        <v>2774</v>
+        <v>2757</v>
       </c>
       <c r="AE171" s="1">
         <v>2</v>
       </c>
       <c r="AF171" s="1" t="s">
-        <v>2519</v>
+        <v>2511</v>
       </c>
       <c r="AG171" s="2" t="s">
-        <v>2774</v>
+        <v>2757</v>
       </c>
       <c r="AH171" s="1" t="s">
         <v>39</v>
@@ -57277,7 +57277,7 @@
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2634</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57302,17 +57302,17 @@
     </row>
     <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2714</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2715</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>2716</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57322,7 +57322,7 @@
     </row>
     <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>2633</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57367,12 +57367,12 @@
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>2535</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>2536</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB67781-92F8-4C33-9647-0EEE455238EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6555C97-49A2-4241-994F-E82839EB5DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="1770" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9923" uniqueCount="2802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9922" uniqueCount="2801">
   <si>
     <t>id</t>
   </si>
@@ -8111,9 +8111,6 @@
     <t>sharing preferences; subjective norms; privacy risk awareness; privacy behavior</t>
   </si>
   <si>
-    <t>avoidance motivation; avoidance behavior; privacy; behavioral intention; mastery experience; vicarious experience; emotional state; verbal persuasion</t>
-  </si>
-  <si>
     <t>security attitude; social support</t>
   </si>
   <si>
@@ -8127,9 +8124,6 @@
   </si>
   <si>
     <t>general self-efficacy</t>
-  </si>
-  <si>
-    <t>media influence; people influence; perceived ease of use; perceived probability; perceived severity; perceived usefulness; security behavior</t>
   </si>
   <si>
     <t>backing up data; perceived security vulnerabilities; perceived security threats; response efficacy; prevention cost</t>
@@ -8193,9 +8187,6 @@
     <t>AVE &gt; 0.5 (Table 2): information disclosure intent; information privacy concerns; perceived effectiveness; purchasing intent; social influence</t>
   </si>
   <si>
-    <t>information disclosure intention; information privacy concerns; perceived effectiveness; purchasing intention; social influence</t>
-  </si>
-  <si>
     <t>CR &gt; 0.6; AVE &gt; 0.5 (Table 2): privacy protection behaviour; information privacy concerns; perceived severity; perceived vulnerability; response efficacy; rewards</t>
   </si>
   <si>
@@ -8797,9 +8788,6 @@
     <t>perceived severity; perceived vulnerability; response efficacy; response cost</t>
   </si>
   <si>
-    <t>transformational leadership; information security culture; general information security awareness; information security policy awareness; attitude; normative beliefs; intention to resist social engineering</t>
-  </si>
-  <si>
     <t>security awareness; security system satisfaction; perceived severity; perceived vulnerability; response efficacy; induction control intention; self defense intention</t>
   </si>
   <si>
@@ -8812,9 +8800,6 @@
     <t>security behavior; perceived susceptibility; perceived severity; perceived benefits; perceived barriers; cues to action; general security orientation; technical controls; security familiarity</t>
   </si>
   <si>
-    <t>religion/moral; legal/punishment; personality; subjective norms; perceived cost of compliance; technology awareness; general information security; general information policy; information security compliance behavior</t>
-  </si>
-  <si>
     <t>defense of ubiquity; compliance intention; metaphor of the ledger; normative beliefs; perceived cost of non-compliance; response efficacy</t>
   </si>
   <si>
@@ -8975,6 +8960,18 @@
   </si>
   <si>
     <t>perceived usefulness of protecting privacy; perceived ease of protection; compatibility of protection and values, needs, or experiences; peer influence; superior influence; faciliating conditions; attitude toward privacy measures; subjective norms; perceived behavioral control; behavioral intention to protect privacy of electronic medical records</t>
+  </si>
+  <si>
+    <t>media influence; people influence; perceived ease of use; perceived probability of security breach or risk; perceived severity; perceived usefulness of security technology for job performance; security behavior</t>
+  </si>
+  <si>
+    <t>transformational leadership; information security culture; general information security awareness; information security policy awareness; attitude toward resisting social engineering; normative beliefs; intention to resist social engineering</t>
+  </si>
+  <si>
+    <t>information disclosure intention; information privacy concerns; perceived effectiveness of website security; purchasing intention; social influence</t>
+  </si>
+  <si>
+    <t>avoidance motivation; avoidance behavior; privacy; behavioral intention to protect; mastery experience; vicarious experience; emotional state; verbal persuasion</t>
   </si>
 </sst>
 </file>
@@ -11349,13 +11346,13 @@
         <v>2087</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>2622</v>
+        <v>2619</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>2664</v>
+        <v>2661</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>2665</v>
+        <v>2662</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>28</v>
@@ -11367,7 +11364,7 @@
         <v>2117</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>30</v>
@@ -11614,7 +11611,7 @@
         <v>55</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>2605</v>
+        <v>2602</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
@@ -11659,13 +11656,13 @@
         <v>1</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>2623</v>
+        <v>2620</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>2704</v>
+        <v>2701</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>2624</v>
+        <v>2621</v>
       </c>
       <c r="AH3" s="1">
         <v>1</v>
@@ -11680,7 +11677,7 @@
         <v>57</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="AM3" s="1">
         <v>1</v>
@@ -11832,13 +11829,13 @@
         <v>1</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>2586</v>
+        <v>2583</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -11969,13 +11966,13 @@
         <v>1</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>2592</v>
+        <v>2589</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>2592</v>
+        <v>2589</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="AH5" s="1">
         <v>0</v>
@@ -11990,7 +11987,7 @@
         <v>2120</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -12142,7 +12139,7 @@
         <v>936</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -12294,7 +12291,7 @@
         <v>936</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -12425,7 +12422,7 @@
         <v>2108</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>2626</v>
+        <v>2623</v>
       </c>
       <c r="AH8" s="1">
         <v>0</v>
@@ -12434,13 +12431,13 @@
         <v>1</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>2591</v>
+        <v>2588</v>
       </c>
       <c r="AK8" s="2" t="s">
         <v>936</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -12738,7 +12735,7 @@
         <v>1</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="AK10" s="2" t="s">
         <v>2121</v>
@@ -12890,13 +12887,13 @@
         <v>1</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>2723</v>
+        <v>2720</v>
       </c>
       <c r="AK11" s="2" t="s">
         <v>2124</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>2611</v>
+        <v>2608</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -13480,10 +13477,10 @@
         <v>176</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>2627</v>
+        <v>2624</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>2666</v>
+        <v>2663</v>
       </c>
       <c r="AH15" s="1">
         <v>0</v>
@@ -13650,7 +13647,7 @@
         <v>187</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM16" s="1">
         <v>0</v>
@@ -13781,13 +13778,13 @@
         <v>1</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>2628</v>
+        <v>2625</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>2593</v>
+        <v>2590</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="AH17" s="1">
         <v>0</v>
@@ -13939,10 +13936,10 @@
         <v>208</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -13957,7 +13954,7 @@
         <v>2127</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="AM18" s="1">
         <v>0</v>
@@ -14082,7 +14079,7 @@
         <v>219</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="AC19" s="1">
         <v>0</v>
@@ -14246,10 +14243,10 @@
         <v>228</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="AH20" s="1">
         <v>0</v>
@@ -14395,16 +14392,16 @@
         <v>1</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>2595</v>
+        <v>2592</v>
       </c>
       <c r="AE21" s="1" t="s">
         <v>2089</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>2630</v>
+        <v>2627</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>2669</v>
+        <v>2666</v>
       </c>
       <c r="AH21" s="1">
         <v>0</v>
@@ -14565,7 +14562,7 @@
         <v>2128</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -14711,13 +14708,13 @@
         <v>1</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="AK23" s="2" t="s">
         <v>936</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM23" s="1">
         <v>0</v>
@@ -14869,7 +14866,7 @@
         <v>2119</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -15012,7 +15009,7 @@
         <v>2129</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="AM25" s="1">
         <v>0</v>
@@ -15164,7 +15161,7 @@
         <v>282</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -15453,7 +15450,7 @@
         <v>2125</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -15733,7 +15730,7 @@
         <v>2094</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="AH30" s="1">
         <v>0</v>
@@ -15748,7 +15745,7 @@
         <v>2123</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -15885,7 +15882,7 @@
         <v>329</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>2626</v>
+        <v>2623</v>
       </c>
       <c r="AH31" s="1">
         <v>0</v>
@@ -15900,7 +15897,7 @@
         <v>2131</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -16049,7 +16046,7 @@
         <v>2123</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -16192,7 +16189,7 @@
         <v>2132</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -16329,10 +16326,10 @@
         <v>2090</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>2631</v>
+        <v>2628</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>2670</v>
+        <v>2667</v>
       </c>
       <c r="AH34" s="1">
         <v>1</v>
@@ -16502,7 +16499,7 @@
         <v>2095</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -16648,13 +16645,13 @@
         <v>1</v>
       </c>
       <c r="AJ36" s="2" t="s">
-        <v>2584</v>
+        <v>2581</v>
       </c>
       <c r="AK36" s="2" t="s">
-        <v>2600</v>
+        <v>2597</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>2678</v>
+        <v>2675</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
@@ -16806,7 +16803,7 @@
         <v>2123</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -16964,7 +16961,7 @@
         <v>2095</v>
       </c>
       <c r="AL38" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM38" s="1">
         <v>0</v>
@@ -17107,7 +17104,7 @@
         <v>2095</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -17250,7 +17247,7 @@
         <v>2095</v>
       </c>
       <c r="AL40" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -17521,16 +17518,16 @@
         <v>1</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>2632</v>
+        <v>2629</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>2633</v>
+        <v>2630</v>
       </c>
       <c r="AG42" s="1" t="s">
-        <v>2671</v>
+        <v>2668</v>
       </c>
       <c r="AH42" s="1">
         <v>0</v>
@@ -17694,13 +17691,13 @@
         <v>1</v>
       </c>
       <c r="AJ43" s="2" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="AK43" s="2" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
       <c r="AL43" s="1" t="s">
-        <v>2681</v>
+        <v>2678</v>
       </c>
       <c r="AM43" s="1">
         <v>0</v>
@@ -17849,7 +17846,7 @@
         <v>2133</v>
       </c>
       <c r="AL44" s="1" t="s">
-        <v>2682</v>
+        <v>2679</v>
       </c>
       <c r="AM44" s="1">
         <v>0</v>
@@ -17986,10 +17983,10 @@
         <v>444</v>
       </c>
       <c r="AK45" s="2" t="s">
-        <v>2713</v>
+        <v>2710</v>
       </c>
       <c r="AL45" s="1" t="s">
-        <v>2618</v>
+        <v>2615</v>
       </c>
       <c r="AM45" s="1">
         <v>0</v>
@@ -18126,13 +18123,13 @@
         <v>1</v>
       </c>
       <c r="AJ46" s="2" t="s">
-        <v>2587</v>
+        <v>2584</v>
       </c>
       <c r="AK46" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="AL46" s="1" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="AM46" s="1">
         <v>0</v>
@@ -18287,7 +18284,7 @@
         <v>936</v>
       </c>
       <c r="AL47" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM47" s="1">
         <v>0</v>
@@ -18436,7 +18433,7 @@
         <v>2136</v>
       </c>
       <c r="AL48" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM48" s="1">
         <v>0</v>
@@ -18588,7 +18585,7 @@
         <v>2134</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM49" s="1">
         <v>0</v>
@@ -18737,10 +18734,10 @@
         <v>491</v>
       </c>
       <c r="AK50" s="2" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM50" s="1">
         <v>0</v>
@@ -18889,7 +18886,7 @@
         <v>2119</v>
       </c>
       <c r="AL51" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM51" s="1">
         <v>0</v>
@@ -19026,7 +19023,7 @@
         <v>2109</v>
       </c>
       <c r="AF52" s="1" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
       <c r="AH52" s="1">
         <v>1</v>
@@ -19041,7 +19038,7 @@
         <v>2146</v>
       </c>
       <c r="AL52" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM52" s="1">
         <v>0</v>
@@ -19333,7 +19330,7 @@
         <v>1</v>
       </c>
       <c r="AJ54" s="2" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
       <c r="AK54" s="2" t="s">
         <v>1582</v>
@@ -19485,7 +19482,7 @@
         <v>1</v>
       </c>
       <c r="AJ55" s="2" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
       <c r="AK55" s="2" t="s">
         <v>1582</v>
@@ -19771,7 +19768,7 @@
         <v>2106</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AH57" s="1">
         <v>0</v>
@@ -19786,7 +19783,7 @@
         <v>936</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM57" s="1">
         <v>0</v>
@@ -19917,13 +19914,13 @@
         <v>1</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>2635</v>
+        <v>2632</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>2636</v>
+        <v>2633</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
       <c r="AH58" s="1">
         <v>1</v>
@@ -20075,10 +20072,10 @@
         <v>2091</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>2637</v>
+        <v>2634</v>
       </c>
       <c r="AG59" s="1" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="AH59" s="1">
         <v>0</v>
@@ -20093,7 +20090,7 @@
         <v>2137</v>
       </c>
       <c r="AL59" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -20227,7 +20224,7 @@
         <v>2092</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>2626</v>
+        <v>2623</v>
       </c>
       <c r="AH60" s="1">
         <v>0</v>
@@ -20242,7 +20239,7 @@
         <v>282</v>
       </c>
       <c r="AL60" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="AM60" s="1">
         <v>0</v>
@@ -20382,7 +20379,7 @@
         <v>2138</v>
       </c>
       <c r="AL61" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM61" s="1">
         <v>0</v>
@@ -20459,7 +20456,7 @@
         <v>787</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>2606</v>
+        <v>2603</v>
       </c>
       <c r="P62" s="1">
         <v>1</v>
@@ -20504,13 +20501,13 @@
         <v>1</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>2706</v>
+        <v>2703</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>2638</v>
+        <v>2635</v>
       </c>
       <c r="AH62" s="1">
         <v>1</v>
@@ -20683,7 +20680,7 @@
         <v>2123</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -20835,7 +20832,7 @@
         <v>2106</v>
       </c>
       <c r="AL64" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -20972,13 +20969,13 @@
         <v>1</v>
       </c>
       <c r="AJ65" s="2" t="s">
-        <v>2581</v>
+        <v>2578</v>
       </c>
       <c r="AK65" s="2" t="s">
         <v>2139</v>
       </c>
       <c r="AL65" s="1" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="AM65" s="1">
         <v>0</v>
@@ -21514,7 +21511,7 @@
         <v>936</v>
       </c>
       <c r="AL69" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM69" s="1">
         <v>0</v>
@@ -21645,7 +21642,7 @@
         <v>1676</v>
       </c>
       <c r="AF70" s="1" t="s">
-        <v>2639</v>
+        <v>2636</v>
       </c>
       <c r="AH70" s="1">
         <v>1</v>
@@ -21931,7 +21928,7 @@
         <v>855</v>
       </c>
       <c r="AF72" s="1" t="s">
-        <v>2640</v>
+        <v>2637</v>
       </c>
       <c r="AH72" s="1">
         <v>1</v>
@@ -21946,7 +21943,7 @@
         <v>2140</v>
       </c>
       <c r="AL72" s="1" t="s">
-        <v>2684</v>
+        <v>2681</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -22363,7 +22360,7 @@
         <v>2119</v>
       </c>
       <c r="AL75" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM75" s="1">
         <v>0</v>
@@ -22661,13 +22658,13 @@
         <v>1</v>
       </c>
       <c r="AJ77" s="2" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
       <c r="AK77" s="2" t="s">
-        <v>2709</v>
+        <v>2706</v>
       </c>
       <c r="AL77" s="1" t="s">
-        <v>2685</v>
+        <v>2682</v>
       </c>
       <c r="AM77" s="1">
         <v>0</v>
@@ -22798,13 +22795,13 @@
         <v>1</v>
       </c>
       <c r="AJ78" s="2" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
       <c r="AK78" s="2" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
       <c r="AL78" s="1" t="s">
-        <v>2685</v>
+        <v>2682</v>
       </c>
       <c r="AM78" s="1">
         <v>0</v>
@@ -22935,13 +22932,13 @@
         <v>1</v>
       </c>
       <c r="AJ79" s="2" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
       <c r="AK79" s="2" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="AL79" s="1" t="s">
-        <v>2685</v>
+        <v>2682</v>
       </c>
       <c r="AM79" s="1">
         <v>0</v>
@@ -23081,13 +23078,13 @@
         <v>1</v>
       </c>
       <c r="AJ80" s="2" t="s">
-        <v>2727</v>
+        <v>2724</v>
       </c>
       <c r="AK80" s="2" t="s">
-        <v>2686</v>
+        <v>2683</v>
       </c>
       <c r="AL80" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM80" s="1">
         <v>0</v>
@@ -23233,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AJ81" s="2" t="s">
-        <v>2585</v>
+        <v>2582</v>
       </c>
       <c r="AK81" s="2" t="s">
         <v>993</v>
@@ -23358,13 +23355,13 @@
         <v>1</v>
       </c>
       <c r="AD82" s="2" t="s">
-        <v>2594</v>
+        <v>2591</v>
       </c>
       <c r="AE82" s="1" t="s">
         <v>2093</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="AH82" s="1">
         <v>0</v>
@@ -23373,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AJ82" s="2" t="s">
-        <v>2585</v>
+        <v>2582</v>
       </c>
       <c r="AK82" s="2" t="s">
         <v>993</v>
@@ -23507,10 +23504,10 @@
         <v>2115</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>2641</v>
+        <v>2638</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="AH83" s="1">
         <v>1</v>
@@ -23525,7 +23522,7 @@
         <v>911</v>
       </c>
       <c r="AL83" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM83" s="1">
         <v>0</v>
@@ -23671,7 +23668,7 @@
         <v>919</v>
       </c>
       <c r="AL84" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="AM84" s="1">
         <v>0</v>
@@ -23796,7 +23793,7 @@
         <v>2116</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>2642</v>
+        <v>2639</v>
       </c>
       <c r="AH85" s="1">
         <v>0</v>
@@ -23811,7 +23808,7 @@
         <v>2141</v>
       </c>
       <c r="AL85" s="1" t="s">
-        <v>2611</v>
+        <v>2608</v>
       </c>
       <c r="AM85" s="1">
         <v>0</v>
@@ -23936,16 +23933,16 @@
         <v>1</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="AE86" s="1" t="s">
         <v>2105</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="AG86" s="1" t="s">
-        <v>2674</v>
+        <v>2671</v>
       </c>
       <c r="AH86" s="1">
         <v>0</v>
@@ -23960,7 +23957,7 @@
         <v>936</v>
       </c>
       <c r="AL86" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM86" s="1">
         <v>0</v>
@@ -24091,10 +24088,10 @@
         <v>943</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AG87" s="1" t="s">
-        <v>2670</v>
+        <v>2667</v>
       </c>
       <c r="AH87" s="1">
         <v>0</v>
@@ -24109,7 +24106,7 @@
         <v>936</v>
       </c>
       <c r="AL87" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM87" s="1">
         <v>0</v>
@@ -24240,16 +24237,16 @@
         <v>1</v>
       </c>
       <c r="AD88" s="2" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="AE88" s="1" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AG88" s="1" t="s">
-        <v>2675</v>
+        <v>2672</v>
       </c>
       <c r="AH88" s="1">
         <v>0</v>
@@ -24392,16 +24389,16 @@
         <v>1</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>2645</v>
+        <v>2642</v>
       </c>
       <c r="AE89" s="1" t="s">
         <v>2106</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AG89" s="1" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="AH89" s="1">
         <v>0</v>
@@ -24416,7 +24413,7 @@
         <v>936</v>
       </c>
       <c r="AL89" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM89" s="1">
         <v>0</v>
@@ -24565,7 +24562,7 @@
         <v>919</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="AM90" s="1">
         <v>0</v>
@@ -25134,13 +25131,13 @@
         <v>1</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>2721</v>
+        <v>2718</v>
       </c>
       <c r="AE94" s="1" t="s">
-        <v>2646</v>
+        <v>2643</v>
       </c>
       <c r="AF94" s="1" t="s">
-        <v>2647</v>
+        <v>2644</v>
       </c>
       <c r="AH94" s="1">
         <v>1</v>
@@ -25280,16 +25277,16 @@
         <v>1</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>2588</v>
+        <v>2585</v>
       </c>
       <c r="AE95" s="1" t="s">
         <v>2096</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>2627</v>
+        <v>2624</v>
       </c>
       <c r="AG95" s="1" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="AH95" s="1">
         <v>0</v>
@@ -25298,7 +25295,7 @@
         <v>1</v>
       </c>
       <c r="AJ95" s="2" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
       <c r="AK95" s="2" t="s">
         <v>2126</v>
@@ -25441,13 +25438,13 @@
         <v>1</v>
       </c>
       <c r="AJ96" s="2" t="s">
-        <v>2728</v>
+        <v>2725</v>
       </c>
       <c r="AK96" s="2" t="s">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>2627</v>
+        <v>2624</v>
       </c>
       <c r="AM96" s="1">
         <v>0</v>
@@ -25721,7 +25718,7 @@
         <v>2107</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>2648</v>
+        <v>2645</v>
       </c>
       <c r="AH98" s="1">
         <v>0</v>
@@ -25882,13 +25879,13 @@
         <v>1</v>
       </c>
       <c r="AJ99" s="2" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="AK99" s="2" t="s">
         <v>2142</v>
       </c>
       <c r="AL99" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM99" s="1">
         <v>0</v>
@@ -26022,10 +26019,10 @@
         <v>943</v>
       </c>
       <c r="AF100" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AG100" s="1" t="s">
-        <v>2670</v>
+        <v>2667</v>
       </c>
       <c r="AH100" s="1">
         <v>0</v>
@@ -26177,7 +26174,7 @@
         <v>2097</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
       <c r="AH101" s="1">
         <v>1</v>
@@ -26332,7 +26329,7 @@
         <v>282</v>
       </c>
       <c r="AL102" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="AM102" s="1">
         <v>0</v>
@@ -26469,7 +26466,7 @@
         <v>2098</v>
       </c>
       <c r="AF103" s="1" t="s">
-        <v>2649</v>
+        <v>2646</v>
       </c>
       <c r="AH103" s="1">
         <v>1</v>
@@ -26481,10 +26478,10 @@
         <v>1079</v>
       </c>
       <c r="AK103" s="2" t="s">
-        <v>2601</v>
+        <v>2598</v>
       </c>
       <c r="AL103" s="1" t="s">
-        <v>2627</v>
+        <v>2624</v>
       </c>
       <c r="AM103" s="1">
         <v>0</v>
@@ -26633,7 +26630,7 @@
         <v>2123</v>
       </c>
       <c r="AL104" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM104" s="1">
         <v>0</v>
@@ -26758,7 +26755,7 @@
         <v>1094</v>
       </c>
       <c r="AF105" s="1" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
       <c r="AH105" s="1">
         <v>0</v>
@@ -26907,10 +26904,10 @@
         <v>2080</v>
       </c>
       <c r="AK106" s="2" t="s">
-        <v>2596</v>
+        <v>2593</v>
       </c>
       <c r="AL106" s="1" t="s">
-        <v>2687</v>
+        <v>2684</v>
       </c>
       <c r="AM106" s="1">
         <v>0</v>
@@ -27050,13 +27047,13 @@
         <v>1</v>
       </c>
       <c r="AJ107" s="2" t="s">
-        <v>2729</v>
+        <v>2726</v>
       </c>
       <c r="AK107" s="2" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
       <c r="AL107" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="AM107" s="1">
         <v>0</v>
@@ -27205,7 +27202,7 @@
         <v>936</v>
       </c>
       <c r="AL108" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM108" s="1">
         <v>0</v>
@@ -27640,7 +27637,7 @@
         <v>1094</v>
       </c>
       <c r="AF111" s="1" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
       <c r="AH111" s="1">
         <v>0</v>
@@ -27655,7 +27652,7 @@
         <v>936</v>
       </c>
       <c r="AL111" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM111" s="1">
         <v>0</v>
@@ -27795,7 +27792,7 @@
         <v>1146</v>
       </c>
       <c r="AF112" s="1" t="s">
-        <v>2639</v>
+        <v>2636</v>
       </c>
       <c r="AH112" s="1">
         <v>0</v>
@@ -27810,7 +27807,7 @@
         <v>936</v>
       </c>
       <c r="AL112" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM112" s="1">
         <v>0</v>
@@ -28248,7 +28245,7 @@
         <v>1</v>
       </c>
       <c r="AJ115" s="2" t="s">
-        <v>2590</v>
+        <v>2587</v>
       </c>
       <c r="AK115" s="2" t="s">
         <v>1582</v>
@@ -28382,7 +28379,7 @@
         <v>1169</v>
       </c>
       <c r="AF116" s="1" t="s">
-        <v>2650</v>
+        <v>2647</v>
       </c>
       <c r="AH116" s="1">
         <v>1</v>
@@ -28534,7 +28531,7 @@
         <v>2109</v>
       </c>
       <c r="AF117" s="1" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
       <c r="AH117" s="1">
         <v>0</v>
@@ -28549,7 +28546,7 @@
         <v>2143</v>
       </c>
       <c r="AL117" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM117" s="1">
         <v>0</v>
@@ -28686,7 +28683,7 @@
         <v>2109</v>
       </c>
       <c r="AF118" s="1" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
       <c r="AH118" s="1">
         <v>0</v>
@@ -28701,7 +28698,7 @@
         <v>2144</v>
       </c>
       <c r="AL118" s="1" t="s">
-        <v>2616</v>
+        <v>2613</v>
       </c>
       <c r="AM118" s="1">
         <v>0</v>
@@ -28853,7 +28850,7 @@
         <v>2145</v>
       </c>
       <c r="AL119" s="1" t="s">
-        <v>2611</v>
+        <v>2608</v>
       </c>
       <c r="AM119" s="1">
         <v>0</v>
@@ -29002,10 +28999,10 @@
         <v>2082</v>
       </c>
       <c r="AK120" s="2" t="s">
-        <v>2689</v>
+        <v>2686</v>
       </c>
       <c r="AL120" s="1" t="s">
-        <v>2690</v>
+        <v>2687</v>
       </c>
       <c r="AM120" s="1">
         <v>0</v>
@@ -29300,13 +29297,13 @@
         <v>1</v>
       </c>
       <c r="AJ122" s="2" t="s">
-        <v>2730</v>
+        <v>2727</v>
       </c>
       <c r="AK122" s="2" t="s">
         <v>2136</v>
       </c>
       <c r="AL122" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM122" s="1">
         <v>0</v>
@@ -29452,13 +29449,13 @@
         <v>1</v>
       </c>
       <c r="AJ123" s="2" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="AK123" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL123" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM123" s="1">
         <v>0</v>
@@ -29583,13 +29580,13 @@
         <v>1</v>
       </c>
       <c r="AD124" s="2" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
       <c r="AE124" s="1" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
       <c r="AF124" s="1" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="AH124" s="1">
         <v>0</v>
@@ -29598,13 +29595,13 @@
         <v>1</v>
       </c>
       <c r="AJ124" s="2" t="s">
-        <v>2731</v>
+        <v>2728</v>
       </c>
       <c r="AK124" s="2" t="s">
         <v>2125</v>
       </c>
       <c r="AL124" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM124" s="1">
         <v>0</v>
@@ -29756,7 +29753,7 @@
         <v>2106</v>
       </c>
       <c r="AL125" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM125" s="1">
         <v>0</v>
@@ -29902,13 +29899,13 @@
         <v>1</v>
       </c>
       <c r="AJ126" s="2" t="s">
-        <v>2582</v>
+        <v>2579</v>
       </c>
       <c r="AK126" s="2" t="s">
         <v>2109</v>
       </c>
       <c r="AL126" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM126" s="1">
         <v>0</v>
@@ -30060,7 +30057,7 @@
         <v>936</v>
       </c>
       <c r="AL127" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM127" s="1">
         <v>0</v>
@@ -30212,7 +30209,7 @@
         <v>919</v>
       </c>
       <c r="AL128" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="AM128" s="1">
         <v>0</v>
@@ -30364,7 +30361,7 @@
         <v>919</v>
       </c>
       <c r="AL129" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="AM129" s="1">
         <v>0</v>
@@ -30671,7 +30668,7 @@
         <v>2083</v>
       </c>
       <c r="AL131" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM131" s="1">
         <v>0</v>
@@ -30823,7 +30820,7 @@
         <v>2137</v>
       </c>
       <c r="AL132" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM132" s="1">
         <v>0</v>
@@ -30960,7 +30957,7 @@
         <v>1676</v>
       </c>
       <c r="AF133" s="1" t="s">
-        <v>2639</v>
+        <v>2636</v>
       </c>
       <c r="AH133" s="1">
         <v>1</v>
@@ -31130,7 +31127,7 @@
         <v>1437</v>
       </c>
       <c r="AO134" s="1" t="s">
-        <v>2607</v>
+        <v>2604</v>
       </c>
       <c r="AP134" s="1">
         <v>201</v>
@@ -31261,7 +31258,7 @@
         <v>2100</v>
       </c>
       <c r="AF135" s="1" t="s">
-        <v>2653</v>
+        <v>2650</v>
       </c>
       <c r="AH135" s="1">
         <v>1</v>
@@ -31419,7 +31416,7 @@
         <v>2101</v>
       </c>
       <c r="AF136" s="1" t="s">
-        <v>2654</v>
+        <v>2651</v>
       </c>
       <c r="AH136" s="1">
         <v>0</v>
@@ -31434,7 +31431,7 @@
         <v>2101</v>
       </c>
       <c r="AL136" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM136" s="1">
         <v>0</v>
@@ -31571,10 +31568,10 @@
         <v>2110</v>
       </c>
       <c r="AF137" s="1" t="s">
-        <v>2655</v>
+        <v>2652</v>
       </c>
       <c r="AG137" s="1" t="s">
-        <v>2676</v>
+        <v>2673</v>
       </c>
       <c r="AH137" s="1">
         <v>0</v>
@@ -31583,13 +31580,13 @@
         <v>1</v>
       </c>
       <c r="AJ137" s="2" t="s">
-        <v>2692</v>
+        <v>2689</v>
       </c>
       <c r="AK137" s="2" t="s">
         <v>2110</v>
       </c>
       <c r="AL137" s="1" t="s">
-        <v>2693</v>
+        <v>2690</v>
       </c>
       <c r="AM137" s="1">
         <v>0</v>
@@ -31863,7 +31860,7 @@
         <v>2102</v>
       </c>
       <c r="AF139" s="1" t="s">
-        <v>2656</v>
+        <v>2653</v>
       </c>
       <c r="AH139" s="1">
         <v>0</v>
@@ -31875,10 +31872,10 @@
         <v>1480</v>
       </c>
       <c r="AK139" s="2" t="s">
-        <v>2598</v>
+        <v>2595</v>
       </c>
       <c r="AL139" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM139" s="1">
         <v>0</v>
@@ -32006,7 +32003,7 @@
         <v>2103</v>
       </c>
       <c r="AF140" s="1" t="s">
-        <v>2657</v>
+        <v>2654</v>
       </c>
       <c r="AH140" s="1">
         <v>0</v>
@@ -32021,7 +32018,7 @@
         <v>936</v>
       </c>
       <c r="AL140" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM140" s="1">
         <v>0</v>
@@ -32158,7 +32155,7 @@
         <v>2103</v>
       </c>
       <c r="AF141" s="1" t="s">
-        <v>2657</v>
+        <v>2654</v>
       </c>
       <c r="AH141" s="1">
         <v>0</v>
@@ -32173,7 +32170,7 @@
         <v>936</v>
       </c>
       <c r="AL141" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM141" s="1">
         <v>0</v>
@@ -32310,7 +32307,7 @@
         <v>2103</v>
       </c>
       <c r="AF142" s="1" t="s">
-        <v>2657</v>
+        <v>2654</v>
       </c>
       <c r="AH142" s="1">
         <v>0</v>
@@ -32325,7 +32322,7 @@
         <v>936</v>
       </c>
       <c r="AL142" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM142" s="1">
         <v>0</v>
@@ -32614,10 +32611,10 @@
         <v>2111</v>
       </c>
       <c r="AF144" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AG144" s="1" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="AH144" s="1">
         <v>0</v>
@@ -32626,13 +32623,13 @@
         <v>1</v>
       </c>
       <c r="AJ144" s="2" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="AK144" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL144" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM144" s="1">
         <v>0</v>
@@ -32757,16 +32754,16 @@
         <v>1</v>
       </c>
       <c r="AD145" s="2" t="s">
-        <v>2658</v>
+        <v>2655</v>
       </c>
       <c r="AE145" s="1" t="s">
-        <v>2707</v>
+        <v>2704</v>
       </c>
       <c r="AF145" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AG145" s="1" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="AH145" s="1">
         <v>0</v>
@@ -32936,7 +32933,7 @@
         <v>911</v>
       </c>
       <c r="AL146" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM146" s="1">
         <v>0</v>
@@ -33085,10 +33082,10 @@
         <v>1528</v>
       </c>
       <c r="AK147" s="2" t="s">
-        <v>2599</v>
+        <v>2596</v>
       </c>
       <c r="AL147" s="1" t="s">
-        <v>2616</v>
+        <v>2613</v>
       </c>
       <c r="AM147" s="1">
         <v>0</v>
@@ -33225,7 +33222,7 @@
         <v>2092</v>
       </c>
       <c r="AF148" s="1" t="s">
-        <v>2626</v>
+        <v>2623</v>
       </c>
       <c r="AH148" s="1">
         <v>0</v>
@@ -33377,7 +33374,7 @@
         <v>2112</v>
       </c>
       <c r="AF149" s="1" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="AH149" s="1">
         <v>0</v>
@@ -33389,10 +33386,10 @@
         <v>2058</v>
       </c>
       <c r="AK149" s="2" t="s">
-        <v>2708</v>
+        <v>2705</v>
       </c>
       <c r="AL149" s="1" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="AM149" s="1">
         <v>0</v>
@@ -33535,13 +33532,13 @@
         <v>1</v>
       </c>
       <c r="AJ150" s="2" t="s">
-        <v>2733</v>
+        <v>2730</v>
       </c>
       <c r="AK150" s="2" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
       <c r="AL150" s="1" t="s">
-        <v>2696</v>
+        <v>2693</v>
       </c>
       <c r="AM150" s="1">
         <v>0</v>
@@ -33973,13 +33970,13 @@
         <v>1</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
       <c r="AE153" s="1" t="s">
         <v>2109</v>
       </c>
       <c r="AF153" s="1" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
       <c r="AH153" s="1">
         <v>0</v>
@@ -33988,13 +33985,13 @@
         <v>1</v>
       </c>
       <c r="AJ153" s="2" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="AK153" s="2" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="AL153" s="1" t="s">
-        <v>2627</v>
+        <v>2624</v>
       </c>
       <c r="AM153" s="1">
         <v>0</v>
@@ -34146,7 +34143,7 @@
         <v>2149</v>
       </c>
       <c r="AL154" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM154" s="1">
         <v>0</v>
@@ -34414,13 +34411,13 @@
         <v>1589</v>
       </c>
       <c r="AE156" s="1" t="s">
-        <v>2603</v>
+        <v>2600</v>
       </c>
       <c r="AF156" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AG156" s="1" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="AH156" s="1">
         <v>0</v>
@@ -34432,10 +34429,10 @@
         <v>1590</v>
       </c>
       <c r="AK156" s="2" t="s">
-        <v>2602</v>
+        <v>2599</v>
       </c>
       <c r="AL156" s="1" t="s">
-        <v>2690</v>
+        <v>2687</v>
       </c>
       <c r="AM156" s="1">
         <v>0</v>
@@ -34578,13 +34575,13 @@
         <v>1</v>
       </c>
       <c r="AJ157" s="2" t="s">
-        <v>2697</v>
+        <v>2694</v>
       </c>
       <c r="AK157" s="2" t="s">
-        <v>2697</v>
+        <v>2694</v>
       </c>
       <c r="AL157" s="1" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="AM157" s="1">
         <v>0</v>
@@ -34718,10 +34715,10 @@
         <v>1603</v>
       </c>
       <c r="AE158" s="1" t="s">
-        <v>2592</v>
+        <v>2589</v>
       </c>
       <c r="AF158" s="1" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="AH158" s="1">
         <v>0</v>
@@ -34888,7 +34885,7 @@
         <v>2150</v>
       </c>
       <c r="AL159" s="1" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="AM159" s="1">
         <v>0</v>
@@ -35019,7 +35016,7 @@
         <v>1676</v>
       </c>
       <c r="AF160" s="1" t="s">
-        <v>2639</v>
+        <v>2636</v>
       </c>
       <c r="AH160" s="1">
         <v>0</v>
@@ -35177,7 +35174,7 @@
         <v>2123</v>
       </c>
       <c r="AL161" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM161" s="1">
         <v>0</v>
@@ -35329,7 +35326,7 @@
         <v>2151</v>
       </c>
       <c r="AL162" s="1" t="s">
-        <v>2617</v>
+        <v>2614</v>
       </c>
       <c r="AM162" s="1">
         <v>0</v>
@@ -35481,7 +35478,7 @@
         <v>919</v>
       </c>
       <c r="AL163" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="AM163" s="1">
         <v>0</v>
@@ -35773,7 +35770,7 @@
         <v>936</v>
       </c>
       <c r="AL165" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM165" s="1">
         <v>0</v>
@@ -35925,7 +35922,7 @@
         <v>2119</v>
       </c>
       <c r="AL166" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM166" s="1">
         <v>0</v>
@@ -36053,13 +36050,13 @@
         <v>1</v>
       </c>
       <c r="AD167" s="2" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="AE167" s="1" t="s">
         <v>2104</v>
       </c>
       <c r="AF167" s="1" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="AH167" s="1">
         <v>0</v>
@@ -36074,7 +36071,7 @@
         <v>2119</v>
       </c>
       <c r="AL167" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM167" s="1">
         <v>0</v>
@@ -36211,7 +36208,7 @@
         <v>1676</v>
       </c>
       <c r="AF168" s="1" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="AH168" s="1">
         <v>1</v>
@@ -36345,7 +36342,7 @@
         <v>39</v>
       </c>
       <c r="AB169" s="1" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="AC169" s="1" t="s">
         <v>39</v>
@@ -36506,7 +36503,7 @@
         <v>2123</v>
       </c>
       <c r="AL170" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM170" s="1">
         <v>0</v>
@@ -36643,10 +36640,10 @@
         <v>2113</v>
       </c>
       <c r="AF171" s="1" t="s">
-        <v>2627</v>
+        <v>2624</v>
       </c>
       <c r="AG171" s="1" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="AH171" s="1">
         <v>0</v>
@@ -36658,10 +36655,10 @@
         <v>1698</v>
       </c>
       <c r="AK171" s="2" t="s">
-        <v>2604</v>
+        <v>2601</v>
       </c>
       <c r="AL171" s="1" t="s">
-        <v>2699</v>
+        <v>2696</v>
       </c>
       <c r="AM171" s="1">
         <v>0</v>
@@ -36801,7 +36798,7 @@
         <v>936</v>
       </c>
       <c r="AL172" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM172" s="1">
         <v>0</v>
@@ -36953,7 +36950,7 @@
         <v>2152</v>
       </c>
       <c r="AL173" s="1" t="s">
-        <v>2619</v>
+        <v>2616</v>
       </c>
       <c r="AM173" s="1">
         <v>0</v>
@@ -37087,7 +37084,7 @@
         <v>2107</v>
       </c>
       <c r="AF174" s="1" t="s">
-        <v>2662</v>
+        <v>2659</v>
       </c>
       <c r="AH174" s="1">
         <v>1</v>
@@ -37254,7 +37251,7 @@
         <v>2119</v>
       </c>
       <c r="AL175" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM175" s="1">
         <v>0</v>
@@ -37385,16 +37382,16 @@
         <v>1</v>
       </c>
       <c r="AD176" s="2" t="s">
-        <v>2663</v>
+        <v>2660</v>
       </c>
       <c r="AE176" s="1" t="s">
         <v>2111</v>
       </c>
       <c r="AF176" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AG176" s="1" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="AH176" s="1">
         <v>0</v>
@@ -37564,7 +37561,7 @@
         <v>2125</v>
       </c>
       <c r="AL177" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM177" s="1">
         <v>0</v>
@@ -37707,7 +37704,7 @@
         <v>936</v>
       </c>
       <c r="AL178" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM178" s="1">
         <v>0</v>
@@ -37853,13 +37850,13 @@
         <v>1</v>
       </c>
       <c r="AJ179" s="2" t="s">
-        <v>2700</v>
+        <v>2697</v>
       </c>
       <c r="AK179" s="2" t="s">
-        <v>2700</v>
+        <v>2697</v>
       </c>
       <c r="AL179" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="AM179" s="1">
         <v>0</v>
@@ -38136,7 +38133,7 @@
         <v>2114</v>
       </c>
       <c r="AF181" s="1" t="s">
-        <v>2626</v>
+        <v>2623</v>
       </c>
       <c r="AH181" s="1">
         <v>0</v>
@@ -38294,13 +38291,13 @@
         <v>1</v>
       </c>
       <c r="AJ182" s="2" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="AK182" s="2" t="s">
         <v>2125</v>
       </c>
       <c r="AL182" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM182" s="1">
         <v>0</v>
@@ -38434,13 +38431,13 @@
         <v>1782</v>
       </c>
       <c r="AE183" s="1" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
       <c r="AF183" s="1" t="s">
-        <v>2627</v>
+        <v>2624</v>
       </c>
       <c r="AG183" s="1" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="AH183" s="1">
         <v>0</v>
@@ -38455,7 +38452,7 @@
         <v>2154</v>
       </c>
       <c r="AL183" s="1" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="AM183" s="1">
         <v>0</v>
@@ -38604,10 +38601,10 @@
         <v>1789</v>
       </c>
       <c r="AK184" s="2" t="s">
-        <v>2597</v>
+        <v>2594</v>
       </c>
       <c r="AL184" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AM184" s="1">
         <v>0</v>
@@ -38744,7 +38741,7 @@
         <v>2104</v>
       </c>
       <c r="AF185" s="1" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="AH185" s="1">
         <v>0</v>
@@ -38759,7 +38756,7 @@
         <v>2155</v>
       </c>
       <c r="AL185" s="1" t="s">
-        <v>2627</v>
+        <v>2624</v>
       </c>
       <c r="AM185" s="1">
         <v>1</v>
@@ -38899,10 +38896,10 @@
         <v>1810</v>
       </c>
       <c r="AF186" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="AG186" s="1" t="s">
-        <v>2670</v>
+        <v>2667</v>
       </c>
       <c r="AH186" s="1">
         <v>0</v>
@@ -38917,7 +38914,7 @@
         <v>2125</v>
       </c>
       <c r="AL186" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM186" s="1">
         <v>0</v>
@@ -39063,13 +39060,13 @@
         <v>1</v>
       </c>
       <c r="AJ187" s="2" t="s">
-        <v>2736</v>
+        <v>2733</v>
       </c>
       <c r="AK187" s="2" t="s">
         <v>2137</v>
       </c>
       <c r="AL187" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="AM187" s="1">
         <v>0</v>
@@ -39125,9 +39122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD155" sqref="AD155"/>
+      <selection pane="topRight" activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39351,10 +39348,10 @@
         <v>5</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>2752</v>
+        <v>2747</v>
       </c>
       <c r="AE2" s="1">
         <v>3</v>
@@ -39363,7 +39360,7 @@
         <v>2504</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>2752</v>
+        <v>2747</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>39</v>
@@ -39460,7 +39457,7 @@
         <v>2505</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>2761</v>
+        <v>2756</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1" t="s">
@@ -39559,19 +39556,19 @@
         <v>5</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>2762</v>
+        <v>2757</v>
       </c>
       <c r="AE4" s="1">
         <v>5</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
       <c r="AG4" s="10" t="s">
-        <v>2762</v>
+        <v>2757</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>39</v>
@@ -39765,19 +39762,19 @@
         <v>5</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>2746</v>
+        <v>2742</v>
       </c>
       <c r="AE6" s="1">
         <v>5</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>2746</v>
+        <v>2742</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>39</v>
@@ -40084,7 +40081,7 @@
         <v>2508</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>2763</v>
+        <v>2758</v>
       </c>
       <c r="AE9" s="1">
         <v>5</v>
@@ -40186,7 +40183,7 @@
         <v>641</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>2764</v>
+        <v>2759</v>
       </c>
       <c r="AE10" s="1">
         <v>3</v>
@@ -40195,7 +40192,7 @@
         <v>642</v>
       </c>
       <c r="AG10" s="10" t="s">
-        <v>2764</v>
+        <v>2759</v>
       </c>
       <c r="AH10" s="1" t="s">
         <v>39</v>
@@ -40493,19 +40490,19 @@
         <v>5</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>2765</v>
+        <v>2760</v>
       </c>
       <c r="AE13" s="1">
         <v>3</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="AG13" s="10" t="s">
-        <v>2765</v>
+        <v>2760</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>39</v>
@@ -40809,19 +40806,19 @@
         <v>5</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>2766</v>
+        <v>2761</v>
       </c>
       <c r="AE16" s="1">
         <v>3</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>2766</v>
+        <v>2761</v>
       </c>
       <c r="AH16" s="1" t="s">
         <v>39</v>
@@ -40920,7 +40917,7 @@
         <v>2413</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>2737</v>
+        <v>2734</v>
       </c>
       <c r="AE17" s="1">
         <v>4</v>
@@ -40929,7 +40926,7 @@
         <v>2414</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>2737</v>
+        <v>2734</v>
       </c>
       <c r="AH17" s="1" t="s">
         <v>39</v>
@@ -41030,7 +41027,7 @@
         <v>2415</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>2770</v>
+        <v>2765</v>
       </c>
       <c r="AE18" s="1">
         <v>3</v>
@@ -41039,7 +41036,7 @@
         <v>2416</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>2770</v>
+        <v>2765</v>
       </c>
       <c r="AH18" s="1" t="s">
         <v>39</v>
@@ -41548,7 +41545,7 @@
         <v>2419</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>2767</v>
+        <v>2762</v>
       </c>
       <c r="AE23" s="1">
         <v>2</v>
@@ -41557,7 +41554,7 @@
         <v>2419</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>2767</v>
+        <v>2762</v>
       </c>
       <c r="AH23" s="1" t="s">
         <v>39</v>
@@ -41758,7 +41755,7 @@
         <v>695</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>2758</v>
+        <v>2753</v>
       </c>
       <c r="AE25" s="1">
         <v>5</v>
@@ -41767,7 +41764,7 @@
         <v>2420</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>2758</v>
+        <v>2753</v>
       </c>
       <c r="AH25" s="1" t="s">
         <v>39</v>
@@ -42066,7 +42063,7 @@
         <v>2421</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>2744</v>
+        <v>2740</v>
       </c>
       <c r="AE28" s="1">
         <v>5</v>
@@ -42075,7 +42072,7 @@
         <v>2422</v>
       </c>
       <c r="AG28" s="10" t="s">
-        <v>2744</v>
+        <v>2740</v>
       </c>
       <c r="AH28" s="1" t="s">
         <v>39</v>
@@ -42174,7 +42171,7 @@
         <v>2423</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>2769</v>
+        <v>2764</v>
       </c>
       <c r="AE29" s="1">
         <v>5</v>
@@ -42183,7 +42180,7 @@
         <v>2424</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>2769</v>
+        <v>2764</v>
       </c>
       <c r="AH29" s="1" t="s">
         <v>39</v>
@@ -42278,7 +42275,7 @@
         <v>709</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
       <c r="AE30" s="1" t="s">
         <v>39</v>
@@ -42485,19 +42482,19 @@
         <v>5</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>2771</v>
+        <v>2766</v>
       </c>
       <c r="AE32" s="1">
         <v>5</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>2575</v>
+        <v>2572</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>2771</v>
+        <v>2766</v>
       </c>
       <c r="AH32" s="1" t="s">
         <v>39</v>
@@ -42802,7 +42799,7 @@
         <v>2427</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>2772</v>
+        <v>2767</v>
       </c>
       <c r="AE35" s="1">
         <v>3</v>
@@ -42811,7 +42808,7 @@
         <v>2428</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>2772</v>
+        <v>2767</v>
       </c>
       <c r="AH35" s="1" t="s">
         <v>39</v>
@@ -43312,7 +43309,7 @@
         <v>2431</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>2773</v>
+        <v>2768</v>
       </c>
       <c r="AE40" s="1">
         <v>5</v>
@@ -43416,7 +43413,7 @@
         <v>735</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>2774</v>
+        <v>2769</v>
       </c>
       <c r="AE41" s="1">
         <v>4</v>
@@ -43425,7 +43422,7 @@
         <v>735</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>2774</v>
+        <v>2769</v>
       </c>
       <c r="AH41" s="1" t="s">
         <v>39</v>
@@ -43626,7 +43623,7 @@
         <v>741</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>2775</v>
+        <v>2770</v>
       </c>
       <c r="AE43" s="1">
         <v>2</v>
@@ -43635,7 +43632,7 @@
         <v>2433</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>2775</v>
+        <v>2770</v>
       </c>
       <c r="AH43" s="1" t="s">
         <v>39</v>
@@ -43732,7 +43729,7 @@
         <v>2434</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>2776</v>
+        <v>2771</v>
       </c>
       <c r="AE44" s="1">
         <v>2</v>
@@ -43741,7 +43738,7 @@
         <v>2435</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>2776</v>
+        <v>2771</v>
       </c>
       <c r="AH44" s="1" t="s">
         <v>39</v>
@@ -44457,10 +44454,10 @@
         <v>5</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>2745</v>
+        <v>2741</v>
       </c>
       <c r="AE51" s="1" t="s">
         <v>39</v>
@@ -44473,7 +44470,7 @@
         <v>2</v>
       </c>
       <c r="AI51" s="1" t="s">
-        <v>2549</v>
+        <v>2546</v>
       </c>
       <c r="AJ51" s="1" t="s">
         <v>39</v>
@@ -44562,7 +44559,7 @@
         <v>2442</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>2777</v>
+        <v>2772</v>
       </c>
       <c r="AE52" s="1">
         <v>5</v>
@@ -44571,7 +44568,7 @@
         <v>768</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>2777</v>
+        <v>2772</v>
       </c>
       <c r="AH52" s="1" t="s">
         <v>39</v>
@@ -44672,7 +44669,7 @@
         <v>2443</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>2778</v>
+        <v>2773</v>
       </c>
       <c r="AE53" s="1" t="s">
         <v>39</v>
@@ -44774,7 +44771,7 @@
         <v>773</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>2779</v>
+        <v>2774</v>
       </c>
       <c r="AE54" s="1">
         <v>4</v>
@@ -44783,7 +44780,7 @@
         <v>774</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>2779</v>
+        <v>2774</v>
       </c>
       <c r="AH54" s="1" t="s">
         <v>39</v>
@@ -44876,7 +44873,7 @@
         <v>2444</v>
       </c>
       <c r="AD55" s="2" t="s">
-        <v>2759</v>
+        <v>2754</v>
       </c>
       <c r="AE55" s="1" t="s">
         <v>39</v>
@@ -45082,7 +45079,7 @@
         <v>2512</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>2780</v>
+        <v>2775</v>
       </c>
       <c r="AE57" s="1" t="s">
         <v>219</v>
@@ -45091,7 +45088,7 @@
         <v>2372</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>2780</v>
+        <v>2775</v>
       </c>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1" t="s">
@@ -45182,7 +45179,7 @@
         <v>2373</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>2781</v>
+        <v>2776</v>
       </c>
       <c r="AE58" s="1">
         <v>5</v>
@@ -45191,7 +45188,7 @@
         <v>2373</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>2781</v>
+        <v>2776</v>
       </c>
       <c r="AH58" s="1" t="s">
         <v>39</v>
@@ -45292,7 +45289,7 @@
         <v>2374</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="AE59" s="1">
         <v>3</v>
@@ -45301,7 +45298,7 @@
         <v>2403</v>
       </c>
       <c r="AG59" s="10" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1" t="s">
@@ -45397,19 +45394,19 @@
         <v>5</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="AD60" s="2" t="s">
-        <v>2782</v>
+        <v>2777</v>
       </c>
       <c r="AE60" s="1">
         <v>5</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="AG60" s="2" t="s">
-        <v>2782</v>
+        <v>2777</v>
       </c>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1" t="s">
@@ -45503,19 +45500,19 @@
         <v>5</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>2782</v>
+        <v>2777</v>
       </c>
       <c r="AE61" s="1">
         <v>5</v>
       </c>
       <c r="AF61" s="1" t="s">
-        <v>2570</v>
+        <v>2567</v>
       </c>
       <c r="AG61" s="2" t="s">
-        <v>2782</v>
+        <v>2777</v>
       </c>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1" t="s">
@@ -45609,19 +45606,19 @@
         <v>5</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>2782</v>
+        <v>2777</v>
       </c>
       <c r="AE62" s="1">
         <v>5</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>2571</v>
+        <v>2568</v>
       </c>
       <c r="AG62" s="2" t="s">
-        <v>2782</v>
+        <v>2777</v>
       </c>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1" t="s">
@@ -45715,19 +45712,19 @@
         <v>5</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>2782</v>
+        <v>2777</v>
       </c>
       <c r="AE63" s="1">
         <v>5</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="AG63" s="2" t="s">
-        <v>2782</v>
+        <v>2777</v>
       </c>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1" t="s">
@@ -46530,7 +46527,7 @@
         <v>2375</v>
       </c>
       <c r="AD71" s="2" t="s">
-        <v>2739</v>
+        <v>2736</v>
       </c>
       <c r="AE71" s="1">
         <v>3</v>
@@ -46539,7 +46536,7 @@
         <v>2375</v>
       </c>
       <c r="AG71" s="10" t="s">
-        <v>2739</v>
+        <v>2736</v>
       </c>
       <c r="AH71" s="1" t="s">
         <v>39</v>
@@ -47042,7 +47039,7 @@
         <v>2027</v>
       </c>
       <c r="AD76" s="2" t="s">
-        <v>2783</v>
+        <v>2778</v>
       </c>
       <c r="AE76" s="1">
         <v>5</v>
@@ -47051,7 +47048,7 @@
         <v>2028</v>
       </c>
       <c r="AG76" s="2" t="s">
-        <v>2783</v>
+        <v>2778</v>
       </c>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1" t="s">
@@ -47249,7 +47246,7 @@
         <v>2446</v>
       </c>
       <c r="AG78" s="10" t="s">
-        <v>2516</v>
+        <v>2800</v>
       </c>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1" t="s">
@@ -47444,7 +47441,7 @@
         <v>2378</v>
       </c>
       <c r="AD80" s="2" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="AE80" s="1">
         <v>3</v>
@@ -47453,7 +47450,7 @@
         <v>2404</v>
       </c>
       <c r="AG80" s="10" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="AH80" s="1" t="s">
         <v>39</v>
@@ -47752,7 +47749,7 @@
         <v>2379</v>
       </c>
       <c r="AD83" s="2" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="AE83" s="1">
         <v>5</v>
@@ -47761,7 +47758,7 @@
         <v>2447</v>
       </c>
       <c r="AG83" s="10" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="AH83" s="1"/>
       <c r="AI83" s="1" t="s">
@@ -48049,19 +48046,19 @@
         <v>5</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>2784</v>
+        <v>2779</v>
       </c>
       <c r="AE86" s="1">
         <v>3</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="AG86" s="2" t="s">
-        <v>2784</v>
+        <v>2779</v>
       </c>
       <c r="AH86" s="1"/>
       <c r="AI86" s="1" t="s">
@@ -48156,7 +48153,7 @@
         <v>2380</v>
       </c>
       <c r="AD87" s="2" t="s">
-        <v>2753</v>
+        <v>2748</v>
       </c>
       <c r="AE87" s="1">
         <v>3</v>
@@ -48165,7 +48162,7 @@
         <v>2448</v>
       </c>
       <c r="AG87" s="10" t="s">
-        <v>2768</v>
+        <v>2763</v>
       </c>
       <c r="AH87" s="1"/>
       <c r="AI87" s="1" t="s">
@@ -48362,7 +48359,7 @@
         <v>2450</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>2785</v>
+        <v>2780</v>
       </c>
       <c r="AE89" s="1">
         <v>5</v>
@@ -48371,7 +48368,7 @@
         <v>2451</v>
       </c>
       <c r="AG89" s="2" t="s">
-        <v>2785</v>
+        <v>2780</v>
       </c>
       <c r="AH89" s="1"/>
       <c r="AI89" s="1" t="s">
@@ -48468,7 +48465,7 @@
         <v>2452</v>
       </c>
       <c r="AD90" s="2" t="s">
-        <v>2786</v>
+        <v>2781</v>
       </c>
       <c r="AE90" s="1">
         <v>5</v>
@@ -48477,7 +48474,7 @@
         <v>2452</v>
       </c>
       <c r="AG90" s="2" t="s">
-        <v>2786</v>
+        <v>2781</v>
       </c>
       <c r="AH90" s="1"/>
       <c r="AI90" s="1" t="s">
@@ -48570,7 +48567,7 @@
         <v>2453</v>
       </c>
       <c r="AD91" s="2" t="s">
-        <v>2787</v>
+        <v>2782</v>
       </c>
       <c r="AE91" s="1">
         <v>3</v>
@@ -48579,7 +48576,7 @@
         <v>2405</v>
       </c>
       <c r="AG91" s="2" t="s">
-        <v>2787</v>
+        <v>2782</v>
       </c>
       <c r="AH91" s="1"/>
       <c r="AI91" s="1" t="s">
@@ -48676,7 +48673,7 @@
         <v>2454</v>
       </c>
       <c r="AD92" s="2" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="AE92" s="1">
         <v>3</v>
@@ -48685,7 +48682,7 @@
         <v>2455</v>
       </c>
       <c r="AG92" s="2" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="AH92" s="1"/>
       <c r="AI92" s="1" t="s">
@@ -49082,7 +49079,7 @@
         <v>2456</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>2754</v>
+        <v>2749</v>
       </c>
       <c r="AE96" s="1">
         <v>5</v>
@@ -49091,7 +49088,7 @@
         <v>2457</v>
       </c>
       <c r="AG96" s="2" t="s">
-        <v>2754</v>
+        <v>2749</v>
       </c>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1" t="s">
@@ -49291,7 +49288,7 @@
         <v>2459</v>
       </c>
       <c r="AG98" s="2" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="AH98" s="1"/>
       <c r="AI98" s="1" t="s">
@@ -49797,19 +49794,19 @@
         <v>5</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>2550</v>
+        <v>2547</v>
       </c>
       <c r="AD103" s="2" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="AE103" s="1">
         <v>3</v>
       </c>
       <c r="AF103" s="1" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="AG103" s="2" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="AH103" s="1"/>
       <c r="AI103" s="1" t="s">
@@ -50110,7 +50107,7 @@
         <v>2462</v>
       </c>
       <c r="AD106" s="2" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
       <c r="AE106" s="1">
         <v>5</v>
@@ -50119,7 +50116,7 @@
         <v>2463</v>
       </c>
       <c r="AG106" s="2" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="AH106" s="1"/>
       <c r="AI106" s="1" t="s">
@@ -50218,7 +50215,7 @@
         <v>2464</v>
       </c>
       <c r="AD107" s="2" t="s">
-        <v>2788</v>
+        <v>2783</v>
       </c>
       <c r="AE107" s="1">
         <v>5</v>
@@ -50227,7 +50224,7 @@
         <v>2465</v>
       </c>
       <c r="AG107" s="2" t="s">
-        <v>2788</v>
+        <v>2783</v>
       </c>
       <c r="AH107" s="1"/>
       <c r="AI107" s="1" t="s">
@@ -50320,7 +50317,7 @@
         <v>2466</v>
       </c>
       <c r="AD108" s="2" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="AE108" s="1">
         <v>3</v>
@@ -50329,7 +50326,7 @@
         <v>2467</v>
       </c>
       <c r="AG108" s="2" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="AH108" s="1"/>
       <c r="AI108" s="1" t="s">
@@ -50339,7 +50336,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>650</v>
       </c>
@@ -50426,9 +50423,7 @@
       <c r="AF109" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG109" s="2" t="s">
-        <v>2747</v>
-      </c>
+      <c r="AG109" s="2"/>
       <c r="AH109" s="1" t="s">
         <v>39</v>
       </c>
@@ -50823,19 +50818,19 @@
         <v>5</v>
       </c>
       <c r="AC113" s="1" t="s">
-        <v>2554</v>
+        <v>2551</v>
       </c>
       <c r="AD113" s="2" t="s">
-        <v>2789</v>
+        <v>2784</v>
       </c>
       <c r="AE113" s="1">
         <v>2</v>
       </c>
       <c r="AF113" s="1" t="s">
-        <v>2556</v>
+        <v>2553</v>
       </c>
       <c r="AG113" s="2" t="s">
-        <v>2555</v>
+        <v>2552</v>
       </c>
       <c r="AH113" s="1"/>
       <c r="AI113" s="1" t="s">
@@ -50928,7 +50923,7 @@
         <v>2471</v>
       </c>
       <c r="AD114" s="2" t="s">
-        <v>2790</v>
+        <v>2785</v>
       </c>
       <c r="AE114" s="1">
         <v>5</v>
@@ -50937,7 +50932,7 @@
         <v>2471</v>
       </c>
       <c r="AG114" s="2" t="s">
-        <v>2790</v>
+        <v>2785</v>
       </c>
       <c r="AH114" s="1"/>
       <c r="AI114" s="1" t="s">
@@ -51029,19 +51024,19 @@
         <v>5</v>
       </c>
       <c r="AC115" s="1" t="s">
-        <v>2576</v>
+        <v>2573</v>
       </c>
       <c r="AD115" s="2" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="AE115" s="1">
         <v>5</v>
       </c>
       <c r="AF115" s="1" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="AG115" s="2" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="AH115" s="1"/>
       <c r="AI115" s="1" t="s">
@@ -51770,16 +51765,16 @@
         <v>2474</v>
       </c>
       <c r="AD122" s="2" t="s">
-        <v>2791</v>
+        <v>2786</v>
       </c>
       <c r="AE122" s="1">
         <v>5</v>
       </c>
       <c r="AF122" s="1" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="AG122" s="2" t="s">
-        <v>2792</v>
+        <v>2787</v>
       </c>
       <c r="AH122" s="1" t="s">
         <v>39</v>
@@ -51878,7 +51873,7 @@
         <v>2475</v>
       </c>
       <c r="AD123" s="2" t="s">
-        <v>2793</v>
+        <v>2788</v>
       </c>
       <c r="AE123" s="1">
         <v>5</v>
@@ -51887,7 +51882,7 @@
         <v>2475</v>
       </c>
       <c r="AG123" s="2" t="s">
-        <v>2793</v>
+        <v>2788</v>
       </c>
       <c r="AH123" s="1" t="s">
         <v>39</v>
@@ -52274,7 +52269,7 @@
         <v>2388</v>
       </c>
       <c r="AD127" s="2" t="s">
-        <v>2741</v>
+        <v>2738</v>
       </c>
       <c r="AE127" s="1">
         <v>4</v>
@@ -52283,7 +52278,7 @@
         <v>2388</v>
       </c>
       <c r="AG127" s="2" t="s">
-        <v>2741</v>
+        <v>2738</v>
       </c>
       <c r="AH127" s="1" t="s">
         <v>39</v>
@@ -52389,7 +52384,7 @@
         <v>1851</v>
       </c>
       <c r="AG128" s="2" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="AH128" s="1" t="s">
         <v>39</v>
@@ -52490,7 +52485,7 @@
         <v>2390</v>
       </c>
       <c r="AD129" s="2" t="s">
-        <v>2751</v>
+        <v>2746</v>
       </c>
       <c r="AE129" s="1">
         <v>5</v>
@@ -52499,7 +52494,7 @@
         <v>2406</v>
       </c>
       <c r="AG129" s="2" t="s">
-        <v>2751</v>
+        <v>2746</v>
       </c>
       <c r="AH129" s="1" t="s">
         <v>39</v>
@@ -52592,7 +52587,7 @@
         <v>2391</v>
       </c>
       <c r="AD130" s="2" t="s">
-        <v>2755</v>
+        <v>2750</v>
       </c>
       <c r="AE130" s="1">
         <v>5</v>
@@ -52601,7 +52596,7 @@
         <v>2407</v>
       </c>
       <c r="AG130" s="2" t="s">
-        <v>2755</v>
+        <v>2750</v>
       </c>
       <c r="AH130" s="1" t="s">
         <v>39</v>
@@ -52702,7 +52697,7 @@
         <v>2476</v>
       </c>
       <c r="AD131" s="2" t="s">
-        <v>2756</v>
+        <v>2751</v>
       </c>
       <c r="AE131" s="1">
         <v>5</v>
@@ -52711,7 +52706,7 @@
         <v>2477</v>
       </c>
       <c r="AG131" s="2" t="s">
-        <v>2756</v>
+        <v>2751</v>
       </c>
       <c r="AH131" s="1" t="s">
         <v>39</v>
@@ -52812,7 +52807,7 @@
         <v>2478</v>
       </c>
       <c r="AD132" s="2" t="s">
-        <v>2756</v>
+        <v>2751</v>
       </c>
       <c r="AE132" s="1">
         <v>5</v>
@@ -52821,7 +52816,7 @@
         <v>2479</v>
       </c>
       <c r="AG132" s="2" t="s">
-        <v>2756</v>
+        <v>2751</v>
       </c>
       <c r="AH132" s="1" t="s">
         <v>39</v>
@@ -52920,7 +52915,7 @@
         <v>2480</v>
       </c>
       <c r="AD133" s="2" t="s">
-        <v>2756</v>
+        <v>2751</v>
       </c>
       <c r="AE133" s="1">
         <v>5</v>
@@ -52929,7 +52924,7 @@
         <v>2481</v>
       </c>
       <c r="AG133" s="2" t="s">
-        <v>2756</v>
+        <v>2751</v>
       </c>
       <c r="AH133" s="1" t="s">
         <v>39</v>
@@ -53028,7 +53023,7 @@
         <v>2392</v>
       </c>
       <c r="AD134" s="2" t="s">
-        <v>2794</v>
+        <v>2789</v>
       </c>
       <c r="AE134" s="1">
         <v>0</v>
@@ -53037,7 +53032,7 @@
         <v>2408</v>
       </c>
       <c r="AG134" s="2" t="s">
-        <v>2794</v>
+        <v>2789</v>
       </c>
       <c r="AH134" s="1" t="s">
         <v>39</v>
@@ -53131,19 +53126,19 @@
         <v>5</v>
       </c>
       <c r="AC135" s="1" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="AD135" s="2" t="s">
-        <v>2795</v>
+        <v>2790</v>
       </c>
       <c r="AE135" s="1">
         <v>3</v>
       </c>
       <c r="AF135" s="1" t="s">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="AG135" s="2" t="s">
-        <v>2795</v>
+        <v>2790</v>
       </c>
       <c r="AH135" s="1" t="s">
         <v>39</v>
@@ -53448,7 +53443,7 @@
         <v>2483</v>
       </c>
       <c r="AD138" s="2" t="s">
-        <v>2796</v>
+        <v>2791</v>
       </c>
       <c r="AE138" s="1">
         <v>3</v>
@@ -53457,7 +53452,7 @@
         <v>2484</v>
       </c>
       <c r="AG138" s="2" t="s">
-        <v>2796</v>
+        <v>2791</v>
       </c>
       <c r="AH138" s="1" t="s">
         <v>39</v>
@@ -53556,7 +53551,7 @@
         <v>2485</v>
       </c>
       <c r="AD139" s="2" t="s">
-        <v>2797</v>
+        <v>2792</v>
       </c>
       <c r="AE139" s="1">
         <v>5</v>
@@ -53565,7 +53560,7 @@
         <v>2486</v>
       </c>
       <c r="AG139" s="2" t="s">
-        <v>2797</v>
+        <v>2792</v>
       </c>
       <c r="AH139" s="1" t="s">
         <v>39</v>
@@ -53861,19 +53856,19 @@
         <v>5</v>
       </c>
       <c r="AC142" s="1" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="AD142" s="2" t="s">
-        <v>2748</v>
+        <v>2743</v>
       </c>
       <c r="AE142" s="1">
         <v>5</v>
       </c>
       <c r="AF142" s="1" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
       <c r="AG142" s="2" t="s">
-        <v>2748</v>
+        <v>2743</v>
       </c>
       <c r="AH142" s="1" t="s">
         <v>39</v>
@@ -53963,19 +53958,19 @@
         <v>5</v>
       </c>
       <c r="AC143" s="1" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="AD143" s="2" t="s">
-        <v>2798</v>
+        <v>2793</v>
       </c>
       <c r="AE143" s="1">
         <v>3</v>
       </c>
       <c r="AF143" s="1" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="AG143" s="2" t="s">
-        <v>2798</v>
+        <v>2793</v>
       </c>
       <c r="AH143" s="1" t="s">
         <v>39</v>
@@ -54691,19 +54686,19 @@
         <v>5</v>
       </c>
       <c r="AC150" s="1" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="AD150" s="2" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="AE150" s="1">
         <v>3</v>
       </c>
       <c r="AF150" s="1" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="AG150" s="2" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="AH150" s="1" t="s">
         <v>39</v>
@@ -54796,7 +54791,7 @@
         <v>2487</v>
       </c>
       <c r="AD151" s="2" t="s">
-        <v>2799</v>
+        <v>2794</v>
       </c>
       <c r="AE151" s="1">
         <v>5</v>
@@ -54805,7 +54800,7 @@
         <v>2488</v>
       </c>
       <c r="AG151" s="2" t="s">
-        <v>2799</v>
+        <v>2794</v>
       </c>
       <c r="AH151" s="1" t="s">
         <v>39</v>
@@ -54904,7 +54899,7 @@
         <v>2396</v>
       </c>
       <c r="AD152" s="2" t="s">
-        <v>2800</v>
+        <v>2795</v>
       </c>
       <c r="AE152" s="1">
         <v>5</v>
@@ -54913,7 +54908,7 @@
         <v>2409</v>
       </c>
       <c r="AG152" s="2" t="s">
-        <v>2800</v>
+        <v>2795</v>
       </c>
       <c r="AH152" s="1" t="s">
         <v>39</v>
@@ -55010,7 +55005,7 @@
         <v>2489</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>2801</v>
+        <v>2796</v>
       </c>
       <c r="AE153" s="1">
         <v>3</v>
@@ -55019,7 +55014,7 @@
         <v>2490</v>
       </c>
       <c r="AG153" s="2" t="s">
-        <v>2801</v>
+        <v>2796</v>
       </c>
       <c r="AH153" s="1" t="s">
         <v>39</v>
@@ -55137,7 +55132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>412</v>
       </c>
@@ -55219,10 +55214,10 @@
         <v>5</v>
       </c>
       <c r="AC155" s="1" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="AD155" s="2" t="s">
-        <v>2522</v>
+        <v>2797</v>
       </c>
       <c r="AE155" s="1">
         <v>3</v>
@@ -55231,7 +55226,7 @@
         <v>2491</v>
       </c>
       <c r="AG155" s="2" t="s">
-        <v>2522</v>
+        <v>2797</v>
       </c>
       <c r="AH155" s="1" t="s">
         <v>39</v>
@@ -55345,7 +55340,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>433</v>
       </c>
@@ -55430,7 +55425,7 @@
         <v>2509</v>
       </c>
       <c r="AD157" s="2" t="s">
-        <v>2760</v>
+        <v>2755</v>
       </c>
       <c r="AE157" s="1">
         <v>3</v>
@@ -55439,7 +55434,7 @@
         <v>2494</v>
       </c>
       <c r="AG157" s="2" t="s">
-        <v>2760</v>
+        <v>2755</v>
       </c>
       <c r="AH157" s="1" t="s">
         <v>39</v>
@@ -55540,7 +55535,7 @@
         <v>1936</v>
       </c>
       <c r="AD158" s="2" t="s">
-        <v>2750</v>
+        <v>2745</v>
       </c>
       <c r="AE158" s="1">
         <v>5</v>
@@ -55549,7 +55544,7 @@
         <v>2495</v>
       </c>
       <c r="AG158" s="2" t="s">
-        <v>2749</v>
+        <v>2744</v>
       </c>
       <c r="AH158" s="1" t="s">
         <v>39</v>
@@ -55619,19 +55614,19 @@
         <v>5</v>
       </c>
       <c r="AC159" s="1" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="AD159" s="2" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
       <c r="AE159" s="1">
         <v>5</v>
       </c>
       <c r="AF159" s="1" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="AG159" s="2" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
       <c r="AH159" s="1"/>
       <c r="AI159" s="1"/>
@@ -55731,7 +55726,7 @@
         <v>2496</v>
       </c>
       <c r="AG160" s="2" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="AH160" s="1" t="s">
         <v>39</v>
@@ -55835,7 +55830,7 @@
         <v>1942</v>
       </c>
       <c r="AG161" s="2" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="AH161" s="1" t="s">
         <v>39</v>
@@ -56044,7 +56039,7 @@
         <v>2499</v>
       </c>
       <c r="AD163" s="2" t="s">
-        <v>2742</v>
+        <v>2798</v>
       </c>
       <c r="AE163" s="1">
         <v>3</v>
@@ -56053,7 +56048,7 @@
         <v>2500</v>
       </c>
       <c r="AG163" s="2" t="s">
-        <v>2742</v>
+        <v>2798</v>
       </c>
       <c r="AH163" s="1" t="s">
         <v>39</v>
@@ -56154,10 +56149,10 @@
         <v>5</v>
       </c>
       <c r="AF164" s="1" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="AG164" s="2" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="AH164" s="1" t="s">
         <v>39</v>
@@ -56579,7 +56574,7 @@
         <v>2501</v>
       </c>
       <c r="AG168" s="2" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="AH168" s="1" t="s">
         <v>39</v>
@@ -56591,7 +56586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>640</v>
       </c>
@@ -56675,19 +56670,19 @@
         <v>5</v>
       </c>
       <c r="AC169" s="1" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="AD169" s="2" t="s">
-        <v>2542</v>
+        <v>2799</v>
       </c>
       <c r="AE169" s="1">
         <v>3</v>
       </c>
       <c r="AF169" s="1" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="AG169" s="2" t="s">
-        <v>2542</v>
+        <v>2799</v>
       </c>
       <c r="AH169" s="1" t="s">
         <v>39</v>
@@ -56786,7 +56781,7 @@
         <v>2502</v>
       </c>
       <c r="AD170" s="2" t="s">
-        <v>2743</v>
+        <v>2739</v>
       </c>
       <c r="AE170" s="1">
         <v>5</v>
@@ -56795,7 +56790,7 @@
         <v>2503</v>
       </c>
       <c r="AG170" s="2" t="s">
-        <v>2743</v>
+        <v>2739</v>
       </c>
       <c r="AH170" s="1" t="s">
         <v>39</v>
@@ -56892,7 +56887,7 @@
         <v>2510</v>
       </c>
       <c r="AD171" s="2" t="s">
-        <v>2757</v>
+        <v>2752</v>
       </c>
       <c r="AE171" s="1">
         <v>2</v>
@@ -56901,7 +56896,7 @@
         <v>2511</v>
       </c>
       <c r="AG171" s="2" t="s">
-        <v>2757</v>
+        <v>2752</v>
       </c>
       <c r="AH171" s="1" t="s">
         <v>39</v>
@@ -57277,7 +57272,7 @@
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2621</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57302,17 +57297,17 @@
     </row>
     <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2701</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2702</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>2703</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57322,7 +57317,7 @@
     </row>
     <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>2620</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57367,12 +57362,12 @@
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6555C97-49A2-4241-994F-E82839EB5DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658F78C3-D91B-42AE-8AC0-FDFA65012189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="1770" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9922" uniqueCount="2801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9922" uniqueCount="2800">
   <si>
     <t>id</t>
   </si>
@@ -7653,21 +7653,9 @@
     <t>validity_construct_discriminant_description_new</t>
   </si>
   <si>
-    <t>computer security practices; perceived vulnerability; perceived severity; response efficacy; perceived usefulness; perceived ease of use; awareness; attitude toward computer security practices; subjective norms; perceived behavioral control</t>
-  </si>
-  <si>
-    <t>mobile protection settings awareness; mobile information protection intention; mobile privacy concern; attitude towards information sharing; trust of mobile platform</t>
-  </si>
-  <si>
-    <t>perceived effectiveness; social influence; conventional coping; technological coping</t>
-  </si>
-  <si>
     <t>normative beliefs; existing non-compliant habitual behavior; compliance intention; continuation of non-compliant behavior</t>
   </si>
   <si>
-    <t>government intrusion concern; privacy concern-information collection</t>
-  </si>
-  <si>
     <t>electronic device usage; information assurance awareness</t>
   </si>
   <si>
@@ -7710,16 +7698,10 @@
     <t>situational privacy concerns; peer influence; general privacy concerns</t>
   </si>
   <si>
-    <t>security intentions; security behavior; psychological ownership</t>
-  </si>
-  <si>
     <t>positive emotions; information security awareness; protection-motivated behaviors</t>
   </si>
   <si>
     <t>factor loadings, AVE, and composite reliability as 0.7 &gt; 0.5 &gt; 0.7: perceived usefulness; subjective norms; information security system quality</t>
-  </si>
-  <si>
-    <t>perceived usefulness; subjective norms; information security system quality</t>
   </si>
   <si>
     <t>factor loadings range from 0.41 to 0.93 (figure 2): severity; vulnerability; response efficacy; response cost</t>
@@ -8223,9 +8205,6 @@
     <t>CFA (Table 2), Fornell-Larcker (Table 3): information security behavior; behavioral intention; perceived vulnerability; perceived severity; response efficacy; response costs; subjective norm; security habit</t>
   </si>
   <si>
-    <t>information security behavior; behavioral intention; perceived vulnerability; perceived severity; response efficacy; response cost; subjective norms; security habit</t>
-  </si>
-  <si>
     <t>CFA (Table 2), t-values &gt;1.96, factor loadings &gt;0.80: security behaviors; behavioral intention; perceived vulnerability; perceived severity; response efficacy; response costs; subjective norm; security habit</t>
   </si>
   <si>
@@ -8233,9 +8212,6 @@
 perceived susceptibility; perceived severity; perceived benefits; perceived barriers; cues to action; perceived working experience; user's compliance behavior</t>
   </si>
   <si>
-    <t>perceived susceptibility; perceived severity; perceived benefits; perceived barriers; cues to action; perceived working experience; user's compliance behavior</t>
-  </si>
-  <si>
     <t>factor loadings &gt; 0.5, CR &gt; 0.7, AVE &gt; 0.5:
 perceived susceptibility; perceived severity; perceived benefits; perceived barriers; cues to action; perceived working experience; user's compliance behavior</t>
   </si>
@@ -8262,9 +8238,6 @@
 </t>
   </si>
   <si>
-    <t>perceived usefulness; perceived threat; perceived expense; impact on the system performance; perceived barriers; perceived value; information security awareness; bring your own device information security protect intention</t>
-  </si>
-  <si>
     <t>Comparison of AVE, Maximum Shared Squared Variance and Average Shared Variance both &lt; AVE (Table 5): behavioral intent; perceived subjective norms; organizational commitment; attitude; perceived behavioral control; perceived controllability; perceived sanction severity; perceived sanction probability; cost-benefit analysis; perceived vulnerability; perceived threat severity; perceived response efficacy</t>
   </si>
   <si>
@@ -8869,9 +8842,6 @@
     <t>attitude toward information security policy compliance; information security awareness; compliance intention; normative beliefs</t>
   </si>
   <si>
-    <t>faciliating conditions; satisfaction with prior compliance; perceived usefulness; habit to continue compliance; continuous privacy policy compliance intention</t>
-  </si>
-  <si>
     <t>descriptive information disclosure intention; social trust outcome expectations; customization outcome expectations; embarassment outcome expectations; information abuse outcome expectations; personalized social cues of immediacy</t>
   </si>
   <si>
@@ -8887,9 +8857,6 @@
     <t>information security awareness; information security organization policy; information security experience and involvement; attitude toward information security; subjective norms; perceived behavioral control; threat appraisal; information security conscious care behavior</t>
   </si>
   <si>
-    <t>compliance; compliance intention; attitude toward information security policy compliance; normative beliefs; rewards; perceived severity; perceived vulnerability; response efficacy</t>
-  </si>
-  <si>
     <t>flow (challenge, feedback, autonomy, immmersion, social interaction); psychological ownership; security education, training, and awareness effectiveness; security compliance intention; education; gender; computer hours; employment tenure</t>
   </si>
   <si>
@@ -8932,18 +8899,12 @@
     <t>deficient self-regulation; automatic use of unknown wireless network; routine use of unknown wireless network; social connectedness; attachment to online presence; social interaction anxiety; perceived information privacy risk</t>
   </si>
   <si>
-    <t>social interaction anxiety; attachment  to online presence; automatic use of unknown wireless network; social connectedness; deficient self-regulation; perceived information privacy risk; routine use of unknown wireless network</t>
-  </si>
-  <si>
     <t>privacy settings use; perceived risks of sharing information; perceived effectiveness of privacy settings; privacy valuation</t>
   </si>
   <si>
     <t>privacy beliefs; behavioral intention to select application for privacy; technology faciliation; autonomy; perceived severity; perceived vulnerability</t>
   </si>
   <si>
-    <t>persuasion knowledge; perceived risk of privacy infringement; perceived benefits; reactance; perceived personalization; privacy concerns; advertisement avoidance</t>
-  </si>
-  <si>
     <t>perceived vulnerability; perceived severity; perceived risk of online banking; trust in online banking; response efficacy; response cost; injunctive norms; descriptive norms; locus of control; protection motivation</t>
   </si>
   <si>
@@ -8972,6 +8933,42 @@
   </si>
   <si>
     <t>avoidance motivation; avoidance behavior; privacy; behavioral intention to protect; mastery experience; vicarious experience; emotional state; verbal persuasion</t>
+  </si>
+  <si>
+    <t>social interaction anxiety; attachment to online presence; automatic use of unknown wireless network; social connectedness; deficient self-regulation; perceived information privacy risk; routine use of unknown wireless network</t>
+  </si>
+  <si>
+    <t>compliance behavior; compliance intention; attitude toward information security policy compliance; normative beliefs; rewards; perceived severity; perceived vulnerability; response efficacy</t>
+  </si>
+  <si>
+    <t>perceived effectiveness of coping; social influence; conventional coping; technological coping</t>
+  </si>
+  <si>
+    <t>computer security practices; perceived vulnerability; perceived severity; response efficacy; perceived usefulness of computer security practices; perceived ease of use; awareness; attitude toward computer security practices; subjective norms; perceived behavioral control</t>
+  </si>
+  <si>
+    <t>faciliating conditions; satisfaction with prior compliance; perceived usefulness of compliance; habit to continue compliance; continuous privacy policy compliance intention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personal innovativeness; general privacy concerns; perceived usefulness of system; perceived convenience; perceived vulnerability; perceived severity; coping efficacy; intention to disclose usage patterns; intention to disclose personal identifiers; intention to disclose biographical information; intention to disclose usage context; intention to disclose feedback information </t>
+  </si>
+  <si>
+    <t>perceived usefulness of information security; subjective norms; information security system quality</t>
+  </si>
+  <si>
+    <t>perceived usefulness of information security protection; perceived threat; perceived expense; impact on the system performance; perceived barriers; perceived value; information security awareness; bring your own device information security protect intention</t>
+  </si>
+  <si>
+    <t>persuasion knowledge; perceived risk of privacy infringement; perceived benefits; reactance to persuasion; perceived personalization; privacy concerns; advertisement avoidance</t>
+  </si>
+  <si>
+    <t>security intention; security behavior; psychological ownership</t>
+  </si>
+  <si>
+    <t>management support; perceived trust in information security policies; compliance behavior</t>
+  </si>
+  <si>
+    <t>perceived susceptibility; perceived severity; perceived benefits; perceived barriers; cues to action; perceived working experience; compliance behavior</t>
   </si>
 </sst>
 </file>
@@ -11346,13 +11343,13 @@
         <v>2087</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>2619</v>
+        <v>2610</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>2661</v>
+        <v>2652</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>2662</v>
+        <v>2653</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>28</v>
@@ -11364,7 +11361,7 @@
         <v>2117</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>2605</v>
+        <v>2596</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>30</v>
@@ -11611,7 +11608,7 @@
         <v>55</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>2602</v>
+        <v>2593</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
@@ -11656,13 +11653,13 @@
         <v>1</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>2620</v>
+        <v>2611</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>2701</v>
+        <v>2692</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>2621</v>
+        <v>2612</v>
       </c>
       <c r="AH3" s="1">
         <v>1</v>
@@ -11677,7 +11674,7 @@
         <v>57</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>2674</v>
+        <v>2665</v>
       </c>
       <c r="AM3" s="1">
         <v>1</v>
@@ -11829,13 +11826,13 @@
         <v>1</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>2583</v>
+        <v>2574</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -11966,13 +11963,13 @@
         <v>1</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>2589</v>
+        <v>2580</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>2589</v>
+        <v>2580</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>2622</v>
+        <v>2613</v>
       </c>
       <c r="AH5" s="1">
         <v>0</v>
@@ -11987,7 +11984,7 @@
         <v>2120</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -12139,7 +12136,7 @@
         <v>936</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -12291,7 +12288,7 @@
         <v>936</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -12422,7 +12419,7 @@
         <v>2108</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>2623</v>
+        <v>2614</v>
       </c>
       <c r="AH8" s="1">
         <v>0</v>
@@ -12431,13 +12428,13 @@
         <v>1</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>2588</v>
+        <v>2579</v>
       </c>
       <c r="AK8" s="2" t="s">
         <v>936</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -12735,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>2719</v>
+        <v>2710</v>
       </c>
       <c r="AK10" s="2" t="s">
         <v>2121</v>
@@ -12887,13 +12884,13 @@
         <v>1</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>2720</v>
+        <v>2711</v>
       </c>
       <c r="AK11" s="2" t="s">
         <v>2124</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>2608</v>
+        <v>2599</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -13477,10 +13474,10 @@
         <v>176</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>2624</v>
+        <v>2615</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>2663</v>
+        <v>2654</v>
       </c>
       <c r="AH15" s="1">
         <v>0</v>
@@ -13647,7 +13644,7 @@
         <v>187</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM16" s="1">
         <v>0</v>
@@ -13778,13 +13775,13 @@
         <v>1</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>2625</v>
+        <v>2616</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>2590</v>
+        <v>2581</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>2626</v>
+        <v>2617</v>
       </c>
       <c r="AH17" s="1">
         <v>0</v>
@@ -13936,10 +13933,10 @@
         <v>208</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>2664</v>
+        <v>2655</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -13954,7 +13951,7 @@
         <v>2127</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>2609</v>
+        <v>2600</v>
       </c>
       <c r="AM18" s="1">
         <v>0</v>
@@ -14079,7 +14076,7 @@
         <v>219</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>2525</v>
+        <v>2519</v>
       </c>
       <c r="AC19" s="1">
         <v>0</v>
@@ -14243,10 +14240,10 @@
         <v>228</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>2665</v>
+        <v>2656</v>
       </c>
       <c r="AH20" s="1">
         <v>0</v>
@@ -14392,16 +14389,16 @@
         <v>1</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>2592</v>
+        <v>2583</v>
       </c>
       <c r="AE21" s="1" t="s">
         <v>2089</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>2627</v>
+        <v>2618</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>2666</v>
+        <v>2657</v>
       </c>
       <c r="AH21" s="1">
         <v>0</v>
@@ -14562,7 +14559,7 @@
         <v>2128</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -14708,13 +14705,13 @@
         <v>1</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>2721</v>
+        <v>2712</v>
       </c>
       <c r="AK23" s="2" t="s">
         <v>936</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM23" s="1">
         <v>0</v>
@@ -14866,7 +14863,7 @@
         <v>2119</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -15009,7 +15006,7 @@
         <v>2129</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>2610</v>
+        <v>2601</v>
       </c>
       <c r="AM25" s="1">
         <v>0</v>
@@ -15161,7 +15158,7 @@
         <v>282</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>2611</v>
+        <v>2602</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -15450,7 +15447,7 @@
         <v>2125</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -15730,7 +15727,7 @@
         <v>2094</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>2622</v>
+        <v>2613</v>
       </c>
       <c r="AH30" s="1">
         <v>0</v>
@@ -15745,7 +15742,7 @@
         <v>2123</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -15882,7 +15879,7 @@
         <v>329</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>2623</v>
+        <v>2614</v>
       </c>
       <c r="AH31" s="1">
         <v>0</v>
@@ -15897,7 +15894,7 @@
         <v>2131</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>2612</v>
+        <v>2603</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -16046,7 +16043,7 @@
         <v>2123</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -16189,7 +16186,7 @@
         <v>2132</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -16326,10 +16323,10 @@
         <v>2090</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>2628</v>
+        <v>2619</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>2667</v>
+        <v>2658</v>
       </c>
       <c r="AH34" s="1">
         <v>1</v>
@@ -16499,7 +16496,7 @@
         <v>2095</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -16645,13 +16642,13 @@
         <v>1</v>
       </c>
       <c r="AJ36" s="2" t="s">
-        <v>2581</v>
+        <v>2572</v>
       </c>
       <c r="AK36" s="2" t="s">
-        <v>2597</v>
+        <v>2588</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>2675</v>
+        <v>2666</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
@@ -16803,7 +16800,7 @@
         <v>2123</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -16961,7 +16958,7 @@
         <v>2095</v>
       </c>
       <c r="AL38" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM38" s="1">
         <v>0</v>
@@ -17104,7 +17101,7 @@
         <v>2095</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -17247,7 +17244,7 @@
         <v>2095</v>
       </c>
       <c r="AL40" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -17518,16 +17515,16 @@
         <v>1</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>2629</v>
+        <v>2620</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>2702</v>
+        <v>2693</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>2630</v>
+        <v>2621</v>
       </c>
       <c r="AG42" s="1" t="s">
-        <v>2668</v>
+        <v>2659</v>
       </c>
       <c r="AH42" s="1">
         <v>0</v>
@@ -17691,13 +17688,13 @@
         <v>1</v>
       </c>
       <c r="AJ43" s="2" t="s">
-        <v>2676</v>
+        <v>2667</v>
       </c>
       <c r="AK43" s="2" t="s">
-        <v>2677</v>
+        <v>2668</v>
       </c>
       <c r="AL43" s="1" t="s">
-        <v>2678</v>
+        <v>2669</v>
       </c>
       <c r="AM43" s="1">
         <v>0</v>
@@ -17846,7 +17843,7 @@
         <v>2133</v>
       </c>
       <c r="AL44" s="1" t="s">
-        <v>2679</v>
+        <v>2670</v>
       </c>
       <c r="AM44" s="1">
         <v>0</v>
@@ -17983,10 +17980,10 @@
         <v>444</v>
       </c>
       <c r="AK45" s="2" t="s">
-        <v>2710</v>
+        <v>2701</v>
       </c>
       <c r="AL45" s="1" t="s">
-        <v>2615</v>
+        <v>2606</v>
       </c>
       <c r="AM45" s="1">
         <v>0</v>
@@ -18123,13 +18120,13 @@
         <v>1</v>
       </c>
       <c r="AJ46" s="2" t="s">
-        <v>2584</v>
+        <v>2575</v>
       </c>
       <c r="AK46" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="AL46" s="1" t="s">
-        <v>2609</v>
+        <v>2600</v>
       </c>
       <c r="AM46" s="1">
         <v>0</v>
@@ -18284,7 +18281,7 @@
         <v>936</v>
       </c>
       <c r="AL47" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM47" s="1">
         <v>0</v>
@@ -18433,7 +18430,7 @@
         <v>2136</v>
       </c>
       <c r="AL48" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM48" s="1">
         <v>0</v>
@@ -18585,7 +18582,7 @@
         <v>2134</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM49" s="1">
         <v>0</v>
@@ -18734,10 +18731,10 @@
         <v>491</v>
       </c>
       <c r="AK50" s="2" t="s">
-        <v>2711</v>
+        <v>2702</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM50" s="1">
         <v>0</v>
@@ -18886,7 +18883,7 @@
         <v>2119</v>
       </c>
       <c r="AL51" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM51" s="1">
         <v>0</v>
@@ -19023,7 +19020,7 @@
         <v>2109</v>
       </c>
       <c r="AF52" s="1" t="s">
-        <v>2631</v>
+        <v>2622</v>
       </c>
       <c r="AH52" s="1">
         <v>1</v>
@@ -19038,7 +19035,7 @@
         <v>2146</v>
       </c>
       <c r="AL52" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM52" s="1">
         <v>0</v>
@@ -19330,7 +19327,7 @@
         <v>1</v>
       </c>
       <c r="AJ54" s="2" t="s">
-        <v>2722</v>
+        <v>2713</v>
       </c>
       <c r="AK54" s="2" t="s">
         <v>1582</v>
@@ -19482,7 +19479,7 @@
         <v>1</v>
       </c>
       <c r="AJ55" s="2" t="s">
-        <v>2722</v>
+        <v>2713</v>
       </c>
       <c r="AK55" s="2" t="s">
         <v>1582</v>
@@ -19768,7 +19765,7 @@
         <v>2106</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AH57" s="1">
         <v>0</v>
@@ -19783,7 +19780,7 @@
         <v>936</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM57" s="1">
         <v>0</v>
@@ -19914,13 +19911,13 @@
         <v>1</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>2632</v>
+        <v>2623</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>2633</v>
+        <v>2624</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>2631</v>
+        <v>2622</v>
       </c>
       <c r="AH58" s="1">
         <v>1</v>
@@ -20072,10 +20069,10 @@
         <v>2091</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>2634</v>
+        <v>2625</v>
       </c>
       <c r="AG59" s="1" t="s">
-        <v>2669</v>
+        <v>2660</v>
       </c>
       <c r="AH59" s="1">
         <v>0</v>
@@ -20090,7 +20087,7 @@
         <v>2137</v>
       </c>
       <c r="AL59" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -20224,7 +20221,7 @@
         <v>2092</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>2623</v>
+        <v>2614</v>
       </c>
       <c r="AH60" s="1">
         <v>0</v>
@@ -20239,7 +20236,7 @@
         <v>282</v>
       </c>
       <c r="AL60" s="1" t="s">
-        <v>2611</v>
+        <v>2602</v>
       </c>
       <c r="AM60" s="1">
         <v>0</v>
@@ -20379,7 +20376,7 @@
         <v>2138</v>
       </c>
       <c r="AL61" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM61" s="1">
         <v>0</v>
@@ -20456,7 +20453,7 @@
         <v>787</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>2603</v>
+        <v>2594</v>
       </c>
       <c r="P62" s="1">
         <v>1</v>
@@ -20501,13 +20498,13 @@
         <v>1</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>2716</v>
+        <v>2707</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>2703</v>
+        <v>2694</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>2635</v>
+        <v>2626</v>
       </c>
       <c r="AH62" s="1">
         <v>1</v>
@@ -20680,7 +20677,7 @@
         <v>2123</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -20832,7 +20829,7 @@
         <v>2106</v>
       </c>
       <c r="AL64" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -20969,13 +20966,13 @@
         <v>1</v>
       </c>
       <c r="AJ65" s="2" t="s">
-        <v>2578</v>
+        <v>2569</v>
       </c>
       <c r="AK65" s="2" t="s">
         <v>2139</v>
       </c>
       <c r="AL65" s="1" t="s">
-        <v>2680</v>
+        <v>2671</v>
       </c>
       <c r="AM65" s="1">
         <v>0</v>
@@ -21511,7 +21508,7 @@
         <v>936</v>
       </c>
       <c r="AL69" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM69" s="1">
         <v>0</v>
@@ -21642,7 +21639,7 @@
         <v>1676</v>
       </c>
       <c r="AF70" s="1" t="s">
-        <v>2636</v>
+        <v>2627</v>
       </c>
       <c r="AH70" s="1">
         <v>1</v>
@@ -21928,7 +21925,7 @@
         <v>855</v>
       </c>
       <c r="AF72" s="1" t="s">
-        <v>2637</v>
+        <v>2628</v>
       </c>
       <c r="AH72" s="1">
         <v>1</v>
@@ -21943,7 +21940,7 @@
         <v>2140</v>
       </c>
       <c r="AL72" s="1" t="s">
-        <v>2681</v>
+        <v>2672</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -22360,7 +22357,7 @@
         <v>2119</v>
       </c>
       <c r="AL75" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM75" s="1">
         <v>0</v>
@@ -22658,13 +22655,13 @@
         <v>1</v>
       </c>
       <c r="AJ77" s="2" t="s">
-        <v>2723</v>
+        <v>2714</v>
       </c>
       <c r="AK77" s="2" t="s">
-        <v>2706</v>
+        <v>2697</v>
       </c>
       <c r="AL77" s="1" t="s">
-        <v>2682</v>
+        <v>2673</v>
       </c>
       <c r="AM77" s="1">
         <v>0</v>
@@ -22795,13 +22792,13 @@
         <v>1</v>
       </c>
       <c r="AJ78" s="2" t="s">
-        <v>2723</v>
+        <v>2714</v>
       </c>
       <c r="AK78" s="2" t="s">
-        <v>2707</v>
+        <v>2698</v>
       </c>
       <c r="AL78" s="1" t="s">
-        <v>2682</v>
+        <v>2673</v>
       </c>
       <c r="AM78" s="1">
         <v>0</v>
@@ -22932,13 +22929,13 @@
         <v>1</v>
       </c>
       <c r="AJ79" s="2" t="s">
-        <v>2723</v>
+        <v>2714</v>
       </c>
       <c r="AK79" s="2" t="s">
-        <v>2708</v>
+        <v>2699</v>
       </c>
       <c r="AL79" s="1" t="s">
-        <v>2682</v>
+        <v>2673</v>
       </c>
       <c r="AM79" s="1">
         <v>0</v>
@@ -23078,13 +23075,13 @@
         <v>1</v>
       </c>
       <c r="AJ80" s="2" t="s">
-        <v>2724</v>
+        <v>2715</v>
       </c>
       <c r="AK80" s="2" t="s">
-        <v>2683</v>
+        <v>2674</v>
       </c>
       <c r="AL80" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM80" s="1">
         <v>0</v>
@@ -23230,7 +23227,7 @@
         <v>1</v>
       </c>
       <c r="AJ81" s="2" t="s">
-        <v>2582</v>
+        <v>2573</v>
       </c>
       <c r="AK81" s="2" t="s">
         <v>993</v>
@@ -23355,13 +23352,13 @@
         <v>1</v>
       </c>
       <c r="AD82" s="2" t="s">
-        <v>2591</v>
+        <v>2582</v>
       </c>
       <c r="AE82" s="1" t="s">
         <v>2093</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>2622</v>
+        <v>2613</v>
       </c>
       <c r="AH82" s="1">
         <v>0</v>
@@ -23370,7 +23367,7 @@
         <v>1</v>
       </c>
       <c r="AJ82" s="2" t="s">
-        <v>2582</v>
+        <v>2573</v>
       </c>
       <c r="AK82" s="2" t="s">
         <v>993</v>
@@ -23504,10 +23501,10 @@
         <v>2115</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>2638</v>
+        <v>2629</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>2670</v>
+        <v>2661</v>
       </c>
       <c r="AH83" s="1">
         <v>1</v>
@@ -23522,7 +23519,7 @@
         <v>911</v>
       </c>
       <c r="AL83" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM83" s="1">
         <v>0</v>
@@ -23668,7 +23665,7 @@
         <v>919</v>
       </c>
       <c r="AL84" s="1" t="s">
-        <v>2611</v>
+        <v>2602</v>
       </c>
       <c r="AM84" s="1">
         <v>0</v>
@@ -23793,7 +23790,7 @@
         <v>2116</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>2639</v>
+        <v>2630</v>
       </c>
       <c r="AH85" s="1">
         <v>0</v>
@@ -23808,7 +23805,7 @@
         <v>2141</v>
       </c>
       <c r="AL85" s="1" t="s">
-        <v>2608</v>
+        <v>2599</v>
       </c>
       <c r="AM85" s="1">
         <v>0</v>
@@ -23933,16 +23930,16 @@
         <v>1</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>2717</v>
+        <v>2708</v>
       </c>
       <c r="AE86" s="1" t="s">
         <v>2105</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>2640</v>
+        <v>2631</v>
       </c>
       <c r="AG86" s="1" t="s">
-        <v>2671</v>
+        <v>2662</v>
       </c>
       <c r="AH86" s="1">
         <v>0</v>
@@ -23957,7 +23954,7 @@
         <v>936</v>
       </c>
       <c r="AL86" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM86" s="1">
         <v>0</v>
@@ -24088,10 +24085,10 @@
         <v>943</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AG87" s="1" t="s">
-        <v>2667</v>
+        <v>2658</v>
       </c>
       <c r="AH87" s="1">
         <v>0</v>
@@ -24106,7 +24103,7 @@
         <v>936</v>
       </c>
       <c r="AL87" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM87" s="1">
         <v>0</v>
@@ -24237,16 +24234,16 @@
         <v>1</v>
       </c>
       <c r="AD88" s="2" t="s">
-        <v>2714</v>
+        <v>2705</v>
       </c>
       <c r="AE88" s="1" t="s">
-        <v>2715</v>
+        <v>2706</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>2641</v>
+        <v>2632</v>
       </c>
       <c r="AG88" s="1" t="s">
-        <v>2672</v>
+        <v>2663</v>
       </c>
       <c r="AH88" s="1">
         <v>0</v>
@@ -24389,16 +24386,16 @@
         <v>1</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>2642</v>
+        <v>2633</v>
       </c>
       <c r="AE89" s="1" t="s">
         <v>2106</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AG89" s="1" t="s">
-        <v>2664</v>
+        <v>2655</v>
       </c>
       <c r="AH89" s="1">
         <v>0</v>
@@ -24413,7 +24410,7 @@
         <v>936</v>
       </c>
       <c r="AL89" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM89" s="1">
         <v>0</v>
@@ -24562,7 +24559,7 @@
         <v>919</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>2611</v>
+        <v>2602</v>
       </c>
       <c r="AM90" s="1">
         <v>0</v>
@@ -25131,13 +25128,13 @@
         <v>1</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>2718</v>
+        <v>2709</v>
       </c>
       <c r="AE94" s="1" t="s">
-        <v>2643</v>
+        <v>2634</v>
       </c>
       <c r="AF94" s="1" t="s">
-        <v>2644</v>
+        <v>2635</v>
       </c>
       <c r="AH94" s="1">
         <v>1</v>
@@ -25277,16 +25274,16 @@
         <v>1</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>2585</v>
+        <v>2576</v>
       </c>
       <c r="AE95" s="1" t="s">
         <v>2096</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>2624</v>
+        <v>2615</v>
       </c>
       <c r="AG95" s="1" t="s">
-        <v>2670</v>
+        <v>2661</v>
       </c>
       <c r="AH95" s="1">
         <v>0</v>
@@ -25295,7 +25292,7 @@
         <v>1</v>
       </c>
       <c r="AJ95" s="2" t="s">
-        <v>2586</v>
+        <v>2577</v>
       </c>
       <c r="AK95" s="2" t="s">
         <v>2126</v>
@@ -25438,13 +25435,13 @@
         <v>1</v>
       </c>
       <c r="AJ96" s="2" t="s">
-        <v>2725</v>
+        <v>2716</v>
       </c>
       <c r="AK96" s="2" t="s">
-        <v>2713</v>
+        <v>2704</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>2624</v>
+        <v>2615</v>
       </c>
       <c r="AM96" s="1">
         <v>0</v>
@@ -25718,7 +25715,7 @@
         <v>2107</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>2645</v>
+        <v>2636</v>
       </c>
       <c r="AH98" s="1">
         <v>0</v>
@@ -25879,13 +25876,13 @@
         <v>1</v>
       </c>
       <c r="AJ99" s="2" t="s">
-        <v>2580</v>
+        <v>2571</v>
       </c>
       <c r="AK99" s="2" t="s">
         <v>2142</v>
       </c>
       <c r="AL99" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM99" s="1">
         <v>0</v>
@@ -26019,10 +26016,10 @@
         <v>943</v>
       </c>
       <c r="AF100" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AG100" s="1" t="s">
-        <v>2667</v>
+        <v>2658</v>
       </c>
       <c r="AH100" s="1">
         <v>0</v>
@@ -26174,7 +26171,7 @@
         <v>2097</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>2631</v>
+        <v>2622</v>
       </c>
       <c r="AH101" s="1">
         <v>1</v>
@@ -26329,7 +26326,7 @@
         <v>282</v>
       </c>
       <c r="AL102" s="1" t="s">
-        <v>2611</v>
+        <v>2602</v>
       </c>
       <c r="AM102" s="1">
         <v>0</v>
@@ -26466,7 +26463,7 @@
         <v>2098</v>
       </c>
       <c r="AF103" s="1" t="s">
-        <v>2646</v>
+        <v>2637</v>
       </c>
       <c r="AH103" s="1">
         <v>1</v>
@@ -26478,10 +26475,10 @@
         <v>1079</v>
       </c>
       <c r="AK103" s="2" t="s">
-        <v>2598</v>
+        <v>2589</v>
       </c>
       <c r="AL103" s="1" t="s">
-        <v>2624</v>
+        <v>2615</v>
       </c>
       <c r="AM103" s="1">
         <v>0</v>
@@ -26630,7 +26627,7 @@
         <v>2123</v>
       </c>
       <c r="AL104" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM104" s="1">
         <v>0</v>
@@ -26755,7 +26752,7 @@
         <v>1094</v>
       </c>
       <c r="AF105" s="1" t="s">
-        <v>2631</v>
+        <v>2622</v>
       </c>
       <c r="AH105" s="1">
         <v>0</v>
@@ -26904,10 +26901,10 @@
         <v>2080</v>
       </c>
       <c r="AK106" s="2" t="s">
-        <v>2593</v>
+        <v>2584</v>
       </c>
       <c r="AL106" s="1" t="s">
-        <v>2684</v>
+        <v>2675</v>
       </c>
       <c r="AM106" s="1">
         <v>0</v>
@@ -27047,13 +27044,13 @@
         <v>1</v>
       </c>
       <c r="AJ107" s="2" t="s">
-        <v>2726</v>
+        <v>2717</v>
       </c>
       <c r="AK107" s="2" t="s">
-        <v>2685</v>
+        <v>2676</v>
       </c>
       <c r="AL107" s="1" t="s">
-        <v>2612</v>
+        <v>2603</v>
       </c>
       <c r="AM107" s="1">
         <v>0</v>
@@ -27202,7 +27199,7 @@
         <v>936</v>
       </c>
       <c r="AL108" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM108" s="1">
         <v>0</v>
@@ -27637,7 +27634,7 @@
         <v>1094</v>
       </c>
       <c r="AF111" s="1" t="s">
-        <v>2631</v>
+        <v>2622</v>
       </c>
       <c r="AH111" s="1">
         <v>0</v>
@@ -27652,7 +27649,7 @@
         <v>936</v>
       </c>
       <c r="AL111" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM111" s="1">
         <v>0</v>
@@ -27792,7 +27789,7 @@
         <v>1146</v>
       </c>
       <c r="AF112" s="1" t="s">
-        <v>2636</v>
+        <v>2627</v>
       </c>
       <c r="AH112" s="1">
         <v>0</v>
@@ -27807,7 +27804,7 @@
         <v>936</v>
       </c>
       <c r="AL112" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM112" s="1">
         <v>0</v>
@@ -28245,7 +28242,7 @@
         <v>1</v>
       </c>
       <c r="AJ115" s="2" t="s">
-        <v>2587</v>
+        <v>2578</v>
       </c>
       <c r="AK115" s="2" t="s">
         <v>1582</v>
@@ -28379,7 +28376,7 @@
         <v>1169</v>
       </c>
       <c r="AF116" s="1" t="s">
-        <v>2647</v>
+        <v>2638</v>
       </c>
       <c r="AH116" s="1">
         <v>1</v>
@@ -28531,7 +28528,7 @@
         <v>2109</v>
       </c>
       <c r="AF117" s="1" t="s">
-        <v>2631</v>
+        <v>2622</v>
       </c>
       <c r="AH117" s="1">
         <v>0</v>
@@ -28546,7 +28543,7 @@
         <v>2143</v>
       </c>
       <c r="AL117" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM117" s="1">
         <v>0</v>
@@ -28683,7 +28680,7 @@
         <v>2109</v>
       </c>
       <c r="AF118" s="1" t="s">
-        <v>2631</v>
+        <v>2622</v>
       </c>
       <c r="AH118" s="1">
         <v>0</v>
@@ -28698,7 +28695,7 @@
         <v>2144</v>
       </c>
       <c r="AL118" s="1" t="s">
-        <v>2613</v>
+        <v>2604</v>
       </c>
       <c r="AM118" s="1">
         <v>0</v>
@@ -28850,7 +28847,7 @@
         <v>2145</v>
       </c>
       <c r="AL119" s="1" t="s">
-        <v>2608</v>
+        <v>2599</v>
       </c>
       <c r="AM119" s="1">
         <v>0</v>
@@ -28999,10 +28996,10 @@
         <v>2082</v>
       </c>
       <c r="AK120" s="2" t="s">
-        <v>2686</v>
+        <v>2677</v>
       </c>
       <c r="AL120" s="1" t="s">
-        <v>2687</v>
+        <v>2678</v>
       </c>
       <c r="AM120" s="1">
         <v>0</v>
@@ -29297,13 +29294,13 @@
         <v>1</v>
       </c>
       <c r="AJ122" s="2" t="s">
-        <v>2727</v>
+        <v>2718</v>
       </c>
       <c r="AK122" s="2" t="s">
         <v>2136</v>
       </c>
       <c r="AL122" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM122" s="1">
         <v>0</v>
@@ -29449,13 +29446,13 @@
         <v>1</v>
       </c>
       <c r="AJ123" s="2" t="s">
-        <v>2688</v>
+        <v>2679</v>
       </c>
       <c r="AK123" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL123" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM123" s="1">
         <v>0</v>
@@ -29580,13 +29577,13 @@
         <v>1</v>
       </c>
       <c r="AD124" s="2" t="s">
-        <v>2648</v>
+        <v>2639</v>
       </c>
       <c r="AE124" s="1" t="s">
-        <v>2648</v>
+        <v>2639</v>
       </c>
       <c r="AF124" s="1" t="s">
-        <v>2649</v>
+        <v>2640</v>
       </c>
       <c r="AH124" s="1">
         <v>0</v>
@@ -29595,13 +29592,13 @@
         <v>1</v>
       </c>
       <c r="AJ124" s="2" t="s">
-        <v>2728</v>
+        <v>2719</v>
       </c>
       <c r="AK124" s="2" t="s">
         <v>2125</v>
       </c>
       <c r="AL124" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM124" s="1">
         <v>0</v>
@@ -29753,7 +29750,7 @@
         <v>2106</v>
       </c>
       <c r="AL125" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM125" s="1">
         <v>0</v>
@@ -29899,13 +29896,13 @@
         <v>1</v>
       </c>
       <c r="AJ126" s="2" t="s">
-        <v>2579</v>
+        <v>2570</v>
       </c>
       <c r="AK126" s="2" t="s">
         <v>2109</v>
       </c>
       <c r="AL126" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM126" s="1">
         <v>0</v>
@@ -30057,7 +30054,7 @@
         <v>936</v>
       </c>
       <c r="AL127" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM127" s="1">
         <v>0</v>
@@ -30209,7 +30206,7 @@
         <v>919</v>
       </c>
       <c r="AL128" s="1" t="s">
-        <v>2611</v>
+        <v>2602</v>
       </c>
       <c r="AM128" s="1">
         <v>0</v>
@@ -30361,7 +30358,7 @@
         <v>919</v>
       </c>
       <c r="AL129" s="1" t="s">
-        <v>2611</v>
+        <v>2602</v>
       </c>
       <c r="AM129" s="1">
         <v>0</v>
@@ -30668,7 +30665,7 @@
         <v>2083</v>
       </c>
       <c r="AL131" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM131" s="1">
         <v>0</v>
@@ -30820,7 +30817,7 @@
         <v>2137</v>
       </c>
       <c r="AL132" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM132" s="1">
         <v>0</v>
@@ -30957,7 +30954,7 @@
         <v>1676</v>
       </c>
       <c r="AF133" s="1" t="s">
-        <v>2636</v>
+        <v>2627</v>
       </c>
       <c r="AH133" s="1">
         <v>1</v>
@@ -31127,7 +31124,7 @@
         <v>1437</v>
       </c>
       <c r="AO134" s="1" t="s">
-        <v>2604</v>
+        <v>2595</v>
       </c>
       <c r="AP134" s="1">
         <v>201</v>
@@ -31258,7 +31255,7 @@
         <v>2100</v>
       </c>
       <c r="AF135" s="1" t="s">
-        <v>2650</v>
+        <v>2641</v>
       </c>
       <c r="AH135" s="1">
         <v>1</v>
@@ -31416,7 +31413,7 @@
         <v>2101</v>
       </c>
       <c r="AF136" s="1" t="s">
-        <v>2651</v>
+        <v>2642</v>
       </c>
       <c r="AH136" s="1">
         <v>0</v>
@@ -31431,7 +31428,7 @@
         <v>2101</v>
       </c>
       <c r="AL136" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM136" s="1">
         <v>0</v>
@@ -31568,10 +31565,10 @@
         <v>2110</v>
       </c>
       <c r="AF137" s="1" t="s">
-        <v>2652</v>
+        <v>2643</v>
       </c>
       <c r="AG137" s="1" t="s">
-        <v>2673</v>
+        <v>2664</v>
       </c>
       <c r="AH137" s="1">
         <v>0</v>
@@ -31580,13 +31577,13 @@
         <v>1</v>
       </c>
       <c r="AJ137" s="2" t="s">
-        <v>2689</v>
+        <v>2680</v>
       </c>
       <c r="AK137" s="2" t="s">
         <v>2110</v>
       </c>
       <c r="AL137" s="1" t="s">
-        <v>2690</v>
+        <v>2681</v>
       </c>
       <c r="AM137" s="1">
         <v>0</v>
@@ -31860,7 +31857,7 @@
         <v>2102</v>
       </c>
       <c r="AF139" s="1" t="s">
-        <v>2653</v>
+        <v>2644</v>
       </c>
       <c r="AH139" s="1">
         <v>0</v>
@@ -31872,10 +31869,10 @@
         <v>1480</v>
       </c>
       <c r="AK139" s="2" t="s">
-        <v>2595</v>
+        <v>2586</v>
       </c>
       <c r="AL139" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM139" s="1">
         <v>0</v>
@@ -32003,7 +32000,7 @@
         <v>2103</v>
       </c>
       <c r="AF140" s="1" t="s">
-        <v>2654</v>
+        <v>2645</v>
       </c>
       <c r="AH140" s="1">
         <v>0</v>
@@ -32018,7 +32015,7 @@
         <v>936</v>
       </c>
       <c r="AL140" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM140" s="1">
         <v>0</v>
@@ -32155,7 +32152,7 @@
         <v>2103</v>
       </c>
       <c r="AF141" s="1" t="s">
-        <v>2654</v>
+        <v>2645</v>
       </c>
       <c r="AH141" s="1">
         <v>0</v>
@@ -32170,7 +32167,7 @@
         <v>936</v>
       </c>
       <c r="AL141" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM141" s="1">
         <v>0</v>
@@ -32307,7 +32304,7 @@
         <v>2103</v>
       </c>
       <c r="AF142" s="1" t="s">
-        <v>2654</v>
+        <v>2645</v>
       </c>
       <c r="AH142" s="1">
         <v>0</v>
@@ -32322,7 +32319,7 @@
         <v>936</v>
       </c>
       <c r="AL142" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM142" s="1">
         <v>0</v>
@@ -32611,10 +32608,10 @@
         <v>2111</v>
       </c>
       <c r="AF144" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AG144" s="1" t="s">
-        <v>2664</v>
+        <v>2655</v>
       </c>
       <c r="AH144" s="1">
         <v>0</v>
@@ -32623,13 +32620,13 @@
         <v>1</v>
       </c>
       <c r="AJ144" s="2" t="s">
-        <v>2729</v>
+        <v>2720</v>
       </c>
       <c r="AK144" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL144" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM144" s="1">
         <v>0</v>
@@ -32754,16 +32751,16 @@
         <v>1</v>
       </c>
       <c r="AD145" s="2" t="s">
+        <v>2646</v>
+      </c>
+      <c r="AE145" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="AF145" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="AG145" s="1" t="s">
         <v>2655</v>
-      </c>
-      <c r="AE145" s="1" t="s">
-        <v>2704</v>
-      </c>
-      <c r="AF145" s="1" t="s">
-        <v>2607</v>
-      </c>
-      <c r="AG145" s="1" t="s">
-        <v>2664</v>
       </c>
       <c r="AH145" s="1">
         <v>0</v>
@@ -32933,7 +32930,7 @@
         <v>911</v>
       </c>
       <c r="AL146" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM146" s="1">
         <v>0</v>
@@ -33082,10 +33079,10 @@
         <v>1528</v>
       </c>
       <c r="AK147" s="2" t="s">
-        <v>2596</v>
+        <v>2587</v>
       </c>
       <c r="AL147" s="1" t="s">
-        <v>2613</v>
+        <v>2604</v>
       </c>
       <c r="AM147" s="1">
         <v>0</v>
@@ -33222,7 +33219,7 @@
         <v>2092</v>
       </c>
       <c r="AF148" s="1" t="s">
-        <v>2623</v>
+        <v>2614</v>
       </c>
       <c r="AH148" s="1">
         <v>0</v>
@@ -33374,7 +33371,7 @@
         <v>2112</v>
       </c>
       <c r="AF149" s="1" t="s">
-        <v>2656</v>
+        <v>2647</v>
       </c>
       <c r="AH149" s="1">
         <v>0</v>
@@ -33386,10 +33383,10 @@
         <v>2058</v>
       </c>
       <c r="AK149" s="2" t="s">
-        <v>2705</v>
+        <v>2696</v>
       </c>
       <c r="AL149" s="1" t="s">
-        <v>2691</v>
+        <v>2682</v>
       </c>
       <c r="AM149" s="1">
         <v>0</v>
@@ -33532,13 +33529,13 @@
         <v>1</v>
       </c>
       <c r="AJ150" s="2" t="s">
-        <v>2730</v>
+        <v>2721</v>
       </c>
       <c r="AK150" s="2" t="s">
-        <v>2692</v>
+        <v>2683</v>
       </c>
       <c r="AL150" s="1" t="s">
-        <v>2693</v>
+        <v>2684</v>
       </c>
       <c r="AM150" s="1">
         <v>0</v>
@@ -33970,13 +33967,13 @@
         <v>1</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>2657</v>
+        <v>2648</v>
       </c>
       <c r="AE153" s="1" t="s">
         <v>2109</v>
       </c>
       <c r="AF153" s="1" t="s">
-        <v>2631</v>
+        <v>2622</v>
       </c>
       <c r="AH153" s="1">
         <v>0</v>
@@ -33985,13 +33982,13 @@
         <v>1</v>
       </c>
       <c r="AJ153" s="2" t="s">
-        <v>2731</v>
+        <v>2722</v>
       </c>
       <c r="AK153" s="2" t="s">
-        <v>2709</v>
+        <v>2700</v>
       </c>
       <c r="AL153" s="1" t="s">
-        <v>2624</v>
+        <v>2615</v>
       </c>
       <c r="AM153" s="1">
         <v>0</v>
@@ -34143,7 +34140,7 @@
         <v>2149</v>
       </c>
       <c r="AL154" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM154" s="1">
         <v>0</v>
@@ -34411,13 +34408,13 @@
         <v>1589</v>
       </c>
       <c r="AE156" s="1" t="s">
-        <v>2600</v>
+        <v>2591</v>
       </c>
       <c r="AF156" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AG156" s="1" t="s">
-        <v>2664</v>
+        <v>2655</v>
       </c>
       <c r="AH156" s="1">
         <v>0</v>
@@ -34429,10 +34426,10 @@
         <v>1590</v>
       </c>
       <c r="AK156" s="2" t="s">
-        <v>2599</v>
+        <v>2590</v>
       </c>
       <c r="AL156" s="1" t="s">
-        <v>2687</v>
+        <v>2678</v>
       </c>
       <c r="AM156" s="1">
         <v>0</v>
@@ -34575,13 +34572,13 @@
         <v>1</v>
       </c>
       <c r="AJ157" s="2" t="s">
-        <v>2694</v>
+        <v>2685</v>
       </c>
       <c r="AK157" s="2" t="s">
-        <v>2694</v>
+        <v>2685</v>
       </c>
       <c r="AL157" s="1" t="s">
-        <v>2695</v>
+        <v>2686</v>
       </c>
       <c r="AM157" s="1">
         <v>0</v>
@@ -34715,10 +34712,10 @@
         <v>1603</v>
       </c>
       <c r="AE158" s="1" t="s">
-        <v>2589</v>
+        <v>2580</v>
       </c>
       <c r="AF158" s="1" t="s">
-        <v>2622</v>
+        <v>2613</v>
       </c>
       <c r="AH158" s="1">
         <v>0</v>
@@ -34885,7 +34882,7 @@
         <v>2150</v>
       </c>
       <c r="AL159" s="1" t="s">
-        <v>2609</v>
+        <v>2600</v>
       </c>
       <c r="AM159" s="1">
         <v>0</v>
@@ -35016,7 +35013,7 @@
         <v>1676</v>
       </c>
       <c r="AF160" s="1" t="s">
-        <v>2636</v>
+        <v>2627</v>
       </c>
       <c r="AH160" s="1">
         <v>0</v>
@@ -35174,7 +35171,7 @@
         <v>2123</v>
       </c>
       <c r="AL161" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM161" s="1">
         <v>0</v>
@@ -35326,7 +35323,7 @@
         <v>2151</v>
       </c>
       <c r="AL162" s="1" t="s">
-        <v>2614</v>
+        <v>2605</v>
       </c>
       <c r="AM162" s="1">
         <v>0</v>
@@ -35478,7 +35475,7 @@
         <v>919</v>
       </c>
       <c r="AL163" s="1" t="s">
-        <v>2611</v>
+        <v>2602</v>
       </c>
       <c r="AM163" s="1">
         <v>0</v>
@@ -35770,7 +35767,7 @@
         <v>936</v>
       </c>
       <c r="AL165" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM165" s="1">
         <v>0</v>
@@ -35922,7 +35919,7 @@
         <v>2119</v>
       </c>
       <c r="AL166" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM166" s="1">
         <v>0</v>
@@ -36050,13 +36047,13 @@
         <v>1</v>
       </c>
       <c r="AD167" s="2" t="s">
-        <v>2658</v>
+        <v>2649</v>
       </c>
       <c r="AE167" s="1" t="s">
         <v>2104</v>
       </c>
       <c r="AF167" s="1" t="s">
-        <v>2622</v>
+        <v>2613</v>
       </c>
       <c r="AH167" s="1">
         <v>0</v>
@@ -36071,7 +36068,7 @@
         <v>2119</v>
       </c>
       <c r="AL167" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM167" s="1">
         <v>0</v>
@@ -36208,7 +36205,7 @@
         <v>1676</v>
       </c>
       <c r="AF168" s="1" t="s">
-        <v>2622</v>
+        <v>2613</v>
       </c>
       <c r="AH168" s="1">
         <v>1</v>
@@ -36342,7 +36339,7 @@
         <v>39</v>
       </c>
       <c r="AB169" s="1" t="s">
-        <v>2526</v>
+        <v>2520</v>
       </c>
       <c r="AC169" s="1" t="s">
         <v>39</v>
@@ -36503,7 +36500,7 @@
         <v>2123</v>
       </c>
       <c r="AL170" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM170" s="1">
         <v>0</v>
@@ -36640,10 +36637,10 @@
         <v>2113</v>
       </c>
       <c r="AF171" s="1" t="s">
-        <v>2624</v>
+        <v>2615</v>
       </c>
       <c r="AG171" s="1" t="s">
-        <v>2670</v>
+        <v>2661</v>
       </c>
       <c r="AH171" s="1">
         <v>0</v>
@@ -36655,10 +36652,10 @@
         <v>1698</v>
       </c>
       <c r="AK171" s="2" t="s">
-        <v>2601</v>
+        <v>2592</v>
       </c>
       <c r="AL171" s="1" t="s">
-        <v>2696</v>
+        <v>2687</v>
       </c>
       <c r="AM171" s="1">
         <v>0</v>
@@ -36798,7 +36795,7 @@
         <v>936</v>
       </c>
       <c r="AL172" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM172" s="1">
         <v>0</v>
@@ -36950,7 +36947,7 @@
         <v>2152</v>
       </c>
       <c r="AL173" s="1" t="s">
-        <v>2616</v>
+        <v>2607</v>
       </c>
       <c r="AM173" s="1">
         <v>0</v>
@@ -37084,7 +37081,7 @@
         <v>2107</v>
       </c>
       <c r="AF174" s="1" t="s">
-        <v>2659</v>
+        <v>2650</v>
       </c>
       <c r="AH174" s="1">
         <v>1</v>
@@ -37251,7 +37248,7 @@
         <v>2119</v>
       </c>
       <c r="AL175" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM175" s="1">
         <v>0</v>
@@ -37382,16 +37379,16 @@
         <v>1</v>
       </c>
       <c r="AD176" s="2" t="s">
-        <v>2660</v>
+        <v>2651</v>
       </c>
       <c r="AE176" s="1" t="s">
         <v>2111</v>
       </c>
       <c r="AF176" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AG176" s="1" t="s">
-        <v>2664</v>
+        <v>2655</v>
       </c>
       <c r="AH176" s="1">
         <v>0</v>
@@ -37561,7 +37558,7 @@
         <v>2125</v>
       </c>
       <c r="AL177" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM177" s="1">
         <v>0</v>
@@ -37704,7 +37701,7 @@
         <v>936</v>
       </c>
       <c r="AL178" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM178" s="1">
         <v>0</v>
@@ -37850,13 +37847,13 @@
         <v>1</v>
       </c>
       <c r="AJ179" s="2" t="s">
-        <v>2697</v>
+        <v>2688</v>
       </c>
       <c r="AK179" s="2" t="s">
-        <v>2697</v>
+        <v>2688</v>
       </c>
       <c r="AL179" s="1" t="s">
-        <v>2610</v>
+        <v>2601</v>
       </c>
       <c r="AM179" s="1">
         <v>0</v>
@@ -38133,7 +38130,7 @@
         <v>2114</v>
       </c>
       <c r="AF181" s="1" t="s">
-        <v>2623</v>
+        <v>2614</v>
       </c>
       <c r="AH181" s="1">
         <v>0</v>
@@ -38291,13 +38288,13 @@
         <v>1</v>
       </c>
       <c r="AJ182" s="2" t="s">
-        <v>2732</v>
+        <v>2723</v>
       </c>
       <c r="AK182" s="2" t="s">
         <v>2125</v>
       </c>
       <c r="AL182" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM182" s="1">
         <v>0</v>
@@ -38431,13 +38428,13 @@
         <v>1782</v>
       </c>
       <c r="AE183" s="1" t="s">
-        <v>2712</v>
+        <v>2703</v>
       </c>
       <c r="AF183" s="1" t="s">
-        <v>2624</v>
+        <v>2615</v>
       </c>
       <c r="AG183" s="1" t="s">
-        <v>2670</v>
+        <v>2661</v>
       </c>
       <c r="AH183" s="1">
         <v>0</v>
@@ -38452,7 +38449,7 @@
         <v>2154</v>
       </c>
       <c r="AL183" s="1" t="s">
-        <v>2609</v>
+        <v>2600</v>
       </c>
       <c r="AM183" s="1">
         <v>0</v>
@@ -38601,10 +38598,10 @@
         <v>1789</v>
       </c>
       <c r="AK184" s="2" t="s">
-        <v>2594</v>
+        <v>2585</v>
       </c>
       <c r="AL184" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AM184" s="1">
         <v>0</v>
@@ -38741,7 +38738,7 @@
         <v>2104</v>
       </c>
       <c r="AF185" s="1" t="s">
-        <v>2622</v>
+        <v>2613</v>
       </c>
       <c r="AH185" s="1">
         <v>0</v>
@@ -38756,7 +38753,7 @@
         <v>2155</v>
       </c>
       <c r="AL185" s="1" t="s">
-        <v>2624</v>
+        <v>2615</v>
       </c>
       <c r="AM185" s="1">
         <v>1</v>
@@ -38896,10 +38893,10 @@
         <v>1810</v>
       </c>
       <c r="AF186" s="1" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="AG186" s="1" t="s">
-        <v>2667</v>
+        <v>2658</v>
       </c>
       <c r="AH186" s="1">
         <v>0</v>
@@ -38914,7 +38911,7 @@
         <v>2125</v>
       </c>
       <c r="AL186" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM186" s="1">
         <v>0</v>
@@ -39060,13 +39057,13 @@
         <v>1</v>
       </c>
       <c r="AJ187" s="2" t="s">
-        <v>2733</v>
+        <v>2724</v>
       </c>
       <c r="AK187" s="2" t="s">
         <v>2137</v>
       </c>
       <c r="AL187" s="1" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="AM187" s="1">
         <v>0</v>
@@ -39122,9 +39119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD19" sqref="AD19"/>
+      <selection pane="topRight" activeCell="AE148" sqref="AE148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39258,7 +39255,7 @@
         <v>601</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>2402</v>
+        <v>2396</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>602</v>
@@ -39348,19 +39345,19 @@
         <v>5</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>2527</v>
+        <v>2521</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>2747</v>
+        <v>2738</v>
       </c>
       <c r="AE2" s="1">
         <v>3</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>2504</v>
+        <v>2498</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>2747</v>
+        <v>2738</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>39</v>
@@ -39454,10 +39451,10 @@
         <v>0</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>2505</v>
+        <v>2499</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>2756</v>
+        <v>2747</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1" t="s">
@@ -39556,19 +39553,19 @@
         <v>5</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>2549</v>
+        <v>2543</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>2757</v>
+        <v>2748</v>
       </c>
       <c r="AE4" s="1">
         <v>5</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>2550</v>
+        <v>2544</v>
       </c>
       <c r="AG4" s="10" t="s">
-        <v>2757</v>
+        <v>2748</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>39</v>
@@ -39762,19 +39759,19 @@
         <v>5</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>2544</v>
+        <v>2538</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>2742</v>
+        <v>2733</v>
       </c>
       <c r="AE6" s="1">
         <v>5</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>2544</v>
+        <v>2538</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>2742</v>
+        <v>2733</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>39</v>
@@ -39786,7 +39783,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>34</v>
       </c>
@@ -39870,19 +39867,19 @@
         <v>0</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>2506</v>
+        <v>2500</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>2365</v>
+        <v>2791</v>
       </c>
       <c r="AE7" s="1">
         <v>0</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>2507</v>
-      </c>
-      <c r="AG7" s="10" t="s">
-        <v>2365</v>
+        <v>2501</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>2791</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>39</v>
@@ -40078,10 +40075,10 @@
         <v>5</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>2508</v>
+        <v>2502</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>2758</v>
+        <v>2749</v>
       </c>
       <c r="AE9" s="1">
         <v>5</v>
@@ -40089,8 +40086,8 @@
       <c r="AF9" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="AG9" s="10" t="s">
-        <v>2366</v>
+      <c r="AG9" s="2" t="s">
+        <v>2749</v>
       </c>
       <c r="AH9" s="1" t="s">
         <v>39</v>
@@ -40183,7 +40180,7 @@
         <v>641</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>2759</v>
+        <v>2750</v>
       </c>
       <c r="AE10" s="1">
         <v>3</v>
@@ -40192,7 +40189,7 @@
         <v>642</v>
       </c>
       <c r="AG10" s="10" t="s">
-        <v>2759</v>
+        <v>2750</v>
       </c>
       <c r="AH10" s="1" t="s">
         <v>39</v>
@@ -40379,7 +40376,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>2410</v>
+        <v>2404</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>39</v>
@@ -40490,19 +40487,19 @@
         <v>5</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>2530</v>
+        <v>2524</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>2760</v>
+        <v>2751</v>
       </c>
       <c r="AE13" s="1">
         <v>3</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>2531</v>
+        <v>2525</v>
       </c>
       <c r="AG13" s="10" t="s">
-        <v>2760</v>
+        <v>2751</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>39</v>
@@ -40587,7 +40584,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>2411</v>
+        <v>2405</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>39</v>
@@ -40806,19 +40803,19 @@
         <v>5</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>2576</v>
+        <v>2567</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>2761</v>
+        <v>2752</v>
       </c>
       <c r="AE16" s="1">
         <v>3</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>2577</v>
+        <v>2568</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>2761</v>
+        <v>2752</v>
       </c>
       <c r="AH16" s="1" t="s">
         <v>39</v>
@@ -40905,7 +40902,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>2412</v>
+        <v>2406</v>
       </c>
       <c r="AA17" s="1" t="s">
         <v>39</v>
@@ -40914,19 +40911,19 @@
         <v>5</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>2413</v>
+        <v>2407</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>2734</v>
+        <v>2725</v>
       </c>
       <c r="AE17" s="1">
         <v>4</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>2414</v>
+        <v>2408</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>2734</v>
+        <v>2725</v>
       </c>
       <c r="AH17" s="1" t="s">
         <v>39</v>
@@ -41024,19 +41021,19 @@
         <v>5</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>2415</v>
+        <v>2409</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>2765</v>
+        <v>2756</v>
       </c>
       <c r="AE18" s="1">
         <v>3</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>2416</v>
+        <v>2410</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>2765</v>
+        <v>2756</v>
       </c>
       <c r="AH18" s="1" t="s">
         <v>39</v>
@@ -41132,17 +41129,17 @@
         <v>5</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>2417</v>
+        <v>2411</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="1">
         <v>5</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>2418</v>
+        <v>2412</v>
       </c>
       <c r="AG19" s="10" t="s">
-        <v>2513</v>
+        <v>2507</v>
       </c>
       <c r="AH19" s="1" t="s">
         <v>39</v>
@@ -41542,19 +41539,19 @@
         <v>2</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>2419</v>
+        <v>2413</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>2762</v>
+        <v>2753</v>
       </c>
       <c r="AE23" s="1">
         <v>2</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>2419</v>
+        <v>2413</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>2762</v>
+        <v>2753</v>
       </c>
       <c r="AH23" s="1" t="s">
         <v>39</v>
@@ -41755,16 +41752,16 @@
         <v>695</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>2753</v>
+        <v>2744</v>
       </c>
       <c r="AE25" s="1">
         <v>5</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>2420</v>
+        <v>2414</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>2753</v>
+        <v>2744</v>
       </c>
       <c r="AH25" s="1" t="s">
         <v>39</v>
@@ -42060,19 +42057,19 @@
         <v>5</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>2421</v>
+        <v>2415</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>2740</v>
+        <v>2731</v>
       </c>
       <c r="AE28" s="1">
         <v>5</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>2422</v>
+        <v>2416</v>
       </c>
       <c r="AG28" s="10" t="s">
-        <v>2740</v>
+        <v>2731</v>
       </c>
       <c r="AH28" s="1" t="s">
         <v>39</v>
@@ -42168,19 +42165,19 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>2423</v>
+        <v>2417</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>2764</v>
+        <v>2798</v>
       </c>
       <c r="AE29" s="1">
         <v>5</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>2424</v>
+        <v>2418</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>2764</v>
+        <v>2755</v>
       </c>
       <c r="AH29" s="1" t="s">
         <v>39</v>
@@ -42275,7 +42272,7 @@
         <v>709</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>2735</v>
+        <v>2726</v>
       </c>
       <c r="AE30" s="1" t="s">
         <v>39</v>
@@ -42482,19 +42479,19 @@
         <v>5</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>2571</v>
+        <v>2562</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>2766</v>
+        <v>2792</v>
       </c>
       <c r="AE32" s="1">
         <v>5</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>2572</v>
+        <v>2563</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>2766</v>
+        <v>2792</v>
       </c>
       <c r="AH32" s="1" t="s">
         <v>39</v>
@@ -42610,7 +42607,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>355</v>
       </c>
@@ -42692,19 +42689,19 @@
         <v>5</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>2425</v>
+        <v>2419</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>2367</v>
+        <v>2790</v>
       </c>
       <c r="AE34" s="1">
         <v>3</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>2426</v>
+        <v>2420</v>
       </c>
       <c r="AG34" s="10" t="s">
-        <v>2367</v>
+        <v>2790</v>
       </c>
       <c r="AH34" s="1" t="s">
         <v>39</v>
@@ -42796,19 +42793,19 @@
         <v>0</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>2427</v>
+        <v>2421</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>2767</v>
+        <v>2757</v>
       </c>
       <c r="AE35" s="1">
         <v>3</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>2428</v>
+        <v>2422</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>2767</v>
+        <v>2757</v>
       </c>
       <c r="AH35" s="1" t="s">
         <v>39</v>
@@ -42902,19 +42899,19 @@
         <v>5</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>2429</v>
+        <v>2423</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="AE36" s="1">
         <v>3</v>
       </c>
       <c r="AF36" s="1" t="s">
-        <v>2430</v>
+        <v>2424</v>
       </c>
       <c r="AG36" s="10" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="AH36" s="1" t="s">
         <v>39</v>
@@ -43306,19 +43303,19 @@
         <v>5</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>2431</v>
+        <v>2425</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>2768</v>
+        <v>2758</v>
       </c>
       <c r="AE40" s="1">
         <v>5</v>
       </c>
       <c r="AF40" s="1" t="s">
-        <v>2432</v>
-      </c>
-      <c r="AG40" s="10" t="s">
-        <v>2369</v>
+        <v>2426</v>
+      </c>
+      <c r="AG40" s="2" t="s">
+        <v>2758</v>
       </c>
       <c r="AH40" s="1" t="s">
         <v>39</v>
@@ -43413,7 +43410,7 @@
         <v>735</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>2769</v>
+        <v>2759</v>
       </c>
       <c r="AE41" s="1">
         <v>4</v>
@@ -43422,7 +43419,7 @@
         <v>735</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>2769</v>
+        <v>2759</v>
       </c>
       <c r="AH41" s="1" t="s">
         <v>39</v>
@@ -43623,16 +43620,16 @@
         <v>741</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>2770</v>
+        <v>2760</v>
       </c>
       <c r="AE43" s="1">
         <v>2</v>
       </c>
       <c r="AF43" s="1" t="s">
-        <v>2433</v>
+        <v>2427</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>2770</v>
+        <v>2760</v>
       </c>
       <c r="AH43" s="1" t="s">
         <v>39</v>
@@ -43726,19 +43723,19 @@
         <v>0</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>2434</v>
+        <v>2428</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>2771</v>
+        <v>2761</v>
       </c>
       <c r="AE44" s="1">
         <v>2</v>
       </c>
       <c r="AF44" s="1" t="s">
-        <v>2435</v>
+        <v>2429</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>2771</v>
+        <v>2761</v>
       </c>
       <c r="AH44" s="1" t="s">
         <v>39</v>
@@ -43934,19 +43931,19 @@
         <v>2</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>2436</v>
+        <v>2430</v>
       </c>
       <c r="AD46" s="2" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="AE46" s="1">
         <v>2</v>
       </c>
       <c r="AF46" s="1" t="s">
-        <v>2436</v>
+        <v>2430</v>
       </c>
       <c r="AG46" s="10" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="AH46" s="1" t="s">
         <v>39</v>
@@ -44131,7 +44128,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>2437</v>
+        <v>2431</v>
       </c>
       <c r="AA48" s="1" t="s">
         <v>39</v>
@@ -44140,19 +44137,19 @@
         <v>5</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>2438</v>
+        <v>2432</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="AE48" s="1">
         <v>5</v>
       </c>
       <c r="AF48" s="1" t="s">
-        <v>2439</v>
+        <v>2433</v>
       </c>
       <c r="AG48" s="10" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="AH48" s="1" t="s">
         <v>39</v>
@@ -44348,19 +44345,19 @@
         <v>5</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>2440</v>
+        <v>2434</v>
       </c>
       <c r="AD50" s="2" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="AE50" s="1">
         <v>5</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>2441</v>
+        <v>2435</v>
       </c>
       <c r="AG50" s="11" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="AH50" s="1" t="s">
         <v>39</v>
@@ -44454,10 +44451,10 @@
         <v>5</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>2545</v>
+        <v>2539</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>2741</v>
+        <v>2732</v>
       </c>
       <c r="AE51" s="1" t="s">
         <v>39</v>
@@ -44470,13 +44467,13 @@
         <v>2</v>
       </c>
       <c r="AI51" s="1" t="s">
-        <v>2546</v>
+        <v>2540</v>
       </c>
       <c r="AJ51" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>573</v>
       </c>
@@ -44556,10 +44553,10 @@
         <v>5</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>2442</v>
+        <v>2436</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>2772</v>
+        <v>2789</v>
       </c>
       <c r="AE52" s="1">
         <v>5</v>
@@ -44568,7 +44565,7 @@
         <v>768</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>2772</v>
+        <v>2789</v>
       </c>
       <c r="AH52" s="1" t="s">
         <v>39</v>
@@ -44666,10 +44663,10 @@
         <v>5</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>2443</v>
+        <v>2437</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>2773</v>
+        <v>2762</v>
       </c>
       <c r="AE53" s="1" t="s">
         <v>39</v>
@@ -44771,7 +44768,7 @@
         <v>773</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>2774</v>
+        <v>2763</v>
       </c>
       <c r="AE54" s="1">
         <v>4</v>
@@ -44780,7 +44777,7 @@
         <v>774</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>2774</v>
+        <v>2763</v>
       </c>
       <c r="AH54" s="1" t="s">
         <v>39</v>
@@ -44870,10 +44867,10 @@
         <v>5</v>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="AD55" s="2" t="s">
-        <v>2754</v>
+        <v>2745</v>
       </c>
       <c r="AE55" s="1" t="s">
         <v>39</v>
@@ -45076,19 +45073,19 @@
         <v>5</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>2512</v>
+        <v>2506</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>2775</v>
+        <v>2764</v>
       </c>
       <c r="AE57" s="1" t="s">
         <v>219</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>2775</v>
+        <v>2764</v>
       </c>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1" t="s">
@@ -45176,19 +45173,19 @@
         <v>5</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>2776</v>
+        <v>2765</v>
       </c>
       <c r="AE58" s="1">
         <v>5</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>2776</v>
+        <v>2765</v>
       </c>
       <c r="AH58" s="1" t="s">
         <v>39</v>
@@ -45286,19 +45283,19 @@
         <v>5</v>
       </c>
       <c r="AC59" s="1" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>2561</v>
+        <v>2553</v>
       </c>
       <c r="AE59" s="1">
         <v>3</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>2403</v>
+        <v>2397</v>
       </c>
       <c r="AG59" s="10" t="s">
-        <v>2561</v>
+        <v>2553</v>
       </c>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1" t="s">
@@ -45394,19 +45391,19 @@
         <v>5</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>2565</v>
+        <v>2556</v>
       </c>
       <c r="AD60" s="2" t="s">
-        <v>2777</v>
+        <v>2766</v>
       </c>
       <c r="AE60" s="1">
         <v>5</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>2566</v>
+        <v>2557</v>
       </c>
       <c r="AG60" s="2" t="s">
-        <v>2777</v>
+        <v>2766</v>
       </c>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1" t="s">
@@ -45500,19 +45497,19 @@
         <v>5</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>2565</v>
+        <v>2556</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>2777</v>
+        <v>2766</v>
       </c>
       <c r="AE61" s="1">
         <v>5</v>
       </c>
       <c r="AF61" s="1" t="s">
-        <v>2567</v>
+        <v>2558</v>
       </c>
       <c r="AG61" s="2" t="s">
-        <v>2777</v>
+        <v>2766</v>
       </c>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1" t="s">
@@ -45606,19 +45603,19 @@
         <v>5</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>2565</v>
+        <v>2556</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>2777</v>
+        <v>2766</v>
       </c>
       <c r="AE62" s="1">
         <v>5</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>2568</v>
+        <v>2559</v>
       </c>
       <c r="AG62" s="2" t="s">
-        <v>2777</v>
+        <v>2766</v>
       </c>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1" t="s">
@@ -45712,19 +45709,19 @@
         <v>5</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>2565</v>
+        <v>2556</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>2777</v>
+        <v>2766</v>
       </c>
       <c r="AE63" s="1">
         <v>5</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>2569</v>
+        <v>2560</v>
       </c>
       <c r="AG63" s="2" t="s">
-        <v>2777</v>
+        <v>2766</v>
       </c>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1" t="s">
@@ -46004,7 +46001,7 @@
         <v>1</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="1">
@@ -46524,19 +46521,19 @@
         <v>3</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="AD71" s="2" t="s">
-        <v>2736</v>
+        <v>2727</v>
       </c>
       <c r="AE71" s="1">
         <v>3</v>
       </c>
       <c r="AF71" s="1" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="AG71" s="10" t="s">
-        <v>2736</v>
+        <v>2727</v>
       </c>
       <c r="AH71" s="1" t="s">
         <v>39</v>
@@ -47039,7 +47036,7 @@
         <v>2027</v>
       </c>
       <c r="AD76" s="2" t="s">
-        <v>2778</v>
+        <v>2767</v>
       </c>
       <c r="AE76" s="1">
         <v>5</v>
@@ -47048,7 +47045,7 @@
         <v>2028</v>
       </c>
       <c r="AG76" s="2" t="s">
-        <v>2778</v>
+        <v>2767</v>
       </c>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1" t="s">
@@ -47140,19 +47137,19 @@
         <v>5</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="AD77" s="2" t="s">
-        <v>2515</v>
+        <v>2509</v>
       </c>
       <c r="AE77" s="1">
         <v>5</v>
       </c>
       <c r="AF77" s="1" t="s">
-        <v>2445</v>
+        <v>2439</v>
       </c>
       <c r="AG77" s="10" t="s">
-        <v>2515</v>
+        <v>2509</v>
       </c>
       <c r="AH77" s="1"/>
       <c r="AI77" s="1"/>
@@ -47243,10 +47240,10 @@
         <v>5</v>
       </c>
       <c r="AF78" s="1" t="s">
-        <v>2446</v>
+        <v>2440</v>
       </c>
       <c r="AG78" s="10" t="s">
-        <v>2800</v>
+        <v>2787</v>
       </c>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1" t="s">
@@ -47438,19 +47435,19 @@
         <v>1</v>
       </c>
       <c r="AC80" s="1" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="AD80" s="2" t="s">
-        <v>2516</v>
+        <v>2510</v>
       </c>
       <c r="AE80" s="1">
         <v>3</v>
       </c>
       <c r="AF80" s="1" t="s">
-        <v>2404</v>
+        <v>2398</v>
       </c>
       <c r="AG80" s="10" t="s">
-        <v>2516</v>
+        <v>2510</v>
       </c>
       <c r="AH80" s="1" t="s">
         <v>39</v>
@@ -47746,19 +47743,19 @@
         <v>5</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="AD83" s="2" t="s">
-        <v>2737</v>
+        <v>2728</v>
       </c>
       <c r="AE83" s="1">
         <v>5</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>2447</v>
+        <v>2441</v>
       </c>
       <c r="AG83" s="10" t="s">
-        <v>2517</v>
+        <v>2511</v>
       </c>
       <c r="AH83" s="1"/>
       <c r="AI83" s="1" t="s">
@@ -48046,19 +48043,19 @@
         <v>5</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>2528</v>
+        <v>2522</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>2779</v>
+        <v>2768</v>
       </c>
       <c r="AE86" s="1">
         <v>3</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>2529</v>
+        <v>2523</v>
       </c>
       <c r="AG86" s="2" t="s">
-        <v>2779</v>
+        <v>2768</v>
       </c>
       <c r="AH86" s="1"/>
       <c r="AI86" s="1" t="s">
@@ -48150,19 +48147,19 @@
         <v>5</v>
       </c>
       <c r="AC87" s="1" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
       <c r="AD87" s="2" t="s">
-        <v>2748</v>
+        <v>2739</v>
       </c>
       <c r="AE87" s="1">
         <v>3</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>2448</v>
+        <v>2442</v>
       </c>
       <c r="AG87" s="10" t="s">
-        <v>2763</v>
+        <v>2754</v>
       </c>
       <c r="AH87" s="1"/>
       <c r="AI87" s="1" t="s">
@@ -48248,7 +48245,7 @@
         <v>5</v>
       </c>
       <c r="AC88" s="1" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="AD88" s="2" t="s">
         <v>993</v>
@@ -48257,7 +48254,7 @@
         <v>5</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>2449</v>
+        <v>2443</v>
       </c>
       <c r="AG88" s="10" t="s">
         <v>993</v>
@@ -48356,19 +48353,19 @@
         <v>5</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>2450</v>
+        <v>2444</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>2780</v>
+        <v>2793</v>
       </c>
       <c r="AE89" s="1">
         <v>5</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>2451</v>
+        <v>2445</v>
       </c>
       <c r="AG89" s="2" t="s">
-        <v>2780</v>
+        <v>2769</v>
       </c>
       <c r="AH89" s="1"/>
       <c r="AI89" s="1" t="s">
@@ -48462,19 +48459,19 @@
         <v>5</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>2452</v>
+        <v>2446</v>
       </c>
       <c r="AD90" s="2" t="s">
-        <v>2781</v>
+        <v>2770</v>
       </c>
       <c r="AE90" s="1">
         <v>5</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>2452</v>
+        <v>2446</v>
       </c>
       <c r="AG90" s="2" t="s">
-        <v>2781</v>
+        <v>2770</v>
       </c>
       <c r="AH90" s="1"/>
       <c r="AI90" s="1" t="s">
@@ -48564,19 +48561,19 @@
         <v>5</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>2453</v>
+        <v>2447</v>
       </c>
       <c r="AD91" s="2" t="s">
-        <v>2782</v>
+        <v>2771</v>
       </c>
       <c r="AE91" s="1">
         <v>3</v>
       </c>
       <c r="AF91" s="1" t="s">
-        <v>2405</v>
+        <v>2399</v>
       </c>
       <c r="AG91" s="2" t="s">
-        <v>2782</v>
+        <v>2771</v>
       </c>
       <c r="AH91" s="1"/>
       <c r="AI91" s="1" t="s">
@@ -48670,19 +48667,19 @@
         <v>5</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>2454</v>
+        <v>2448</v>
       </c>
       <c r="AD92" s="2" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="AE92" s="1">
         <v>3</v>
       </c>
       <c r="AF92" s="1" t="s">
-        <v>2455</v>
+        <v>2449</v>
       </c>
       <c r="AG92" s="2" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="AH92" s="1"/>
       <c r="AI92" s="1" t="s">
@@ -49076,19 +49073,19 @@
         <v>5</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>2456</v>
+        <v>2450</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>2749</v>
+        <v>2740</v>
       </c>
       <c r="AE96" s="1">
         <v>5</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>2457</v>
+        <v>2451</v>
       </c>
       <c r="AG96" s="2" t="s">
-        <v>2749</v>
+        <v>2740</v>
       </c>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1" t="s">
@@ -49276,19 +49273,19 @@
         <v>5</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>2458</v>
+        <v>2452</v>
       </c>
       <c r="AD98" s="2" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
       <c r="AE98" s="1">
         <v>5</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>2459</v>
+        <v>2453</v>
       </c>
       <c r="AG98" s="2" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="AH98" s="1"/>
       <c r="AI98" s="1" t="s">
@@ -49485,7 +49482,7 @@
         <v>1337</v>
       </c>
       <c r="AD100" s="2" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
       <c r="AE100" s="1" t="s">
         <v>39</v>
@@ -49588,19 +49585,19 @@
         <v>1</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>2460</v>
+        <v>2454</v>
       </c>
       <c r="AD101" s="2" t="s">
-        <v>2384</v>
+        <v>2797</v>
       </c>
       <c r="AE101" s="1">
         <v>3</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>2461</v>
+        <v>2455</v>
       </c>
       <c r="AG101" s="2" t="s">
-        <v>2384</v>
+        <v>2797</v>
       </c>
       <c r="AH101" s="1"/>
       <c r="AI101" s="1" t="s">
@@ -49794,19 +49791,19 @@
         <v>5</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>2547</v>
+        <v>2541</v>
       </c>
       <c r="AD103" s="2" t="s">
-        <v>2560</v>
+        <v>2552</v>
       </c>
       <c r="AE103" s="1">
         <v>3</v>
       </c>
       <c r="AF103" s="1" t="s">
-        <v>2548</v>
+        <v>2542</v>
       </c>
       <c r="AG103" s="2" t="s">
-        <v>2560</v>
+        <v>2552</v>
       </c>
       <c r="AH103" s="1"/>
       <c r="AI103" s="1" t="s">
@@ -50104,19 +50101,19 @@
         <v>5</v>
       </c>
       <c r="AC106" s="1" t="s">
-        <v>2462</v>
+        <v>2456</v>
       </c>
       <c r="AD106" s="2" t="s">
-        <v>2562</v>
+        <v>2554</v>
       </c>
       <c r="AE106" s="1">
         <v>5</v>
       </c>
       <c r="AF106" s="1" t="s">
-        <v>2463</v>
+        <v>2457</v>
       </c>
       <c r="AG106" s="2" t="s">
-        <v>2563</v>
+        <v>2555</v>
       </c>
       <c r="AH106" s="1"/>
       <c r="AI106" s="1" t="s">
@@ -50212,19 +50209,19 @@
         <v>5</v>
       </c>
       <c r="AC107" s="1" t="s">
-        <v>2464</v>
+        <v>2458</v>
       </c>
       <c r="AD107" s="2" t="s">
-        <v>2783</v>
+        <v>2772</v>
       </c>
       <c r="AE107" s="1">
         <v>5</v>
       </c>
       <c r="AF107" s="1" t="s">
-        <v>2465</v>
+        <v>2459</v>
       </c>
       <c r="AG107" s="2" t="s">
-        <v>2783</v>
+        <v>2772</v>
       </c>
       <c r="AH107" s="1"/>
       <c r="AI107" s="1" t="s">
@@ -50314,19 +50311,19 @@
         <v>5</v>
       </c>
       <c r="AC108" s="1" t="s">
-        <v>2466</v>
+        <v>2460</v>
       </c>
       <c r="AD108" s="2" t="s">
-        <v>2558</v>
+        <v>2550</v>
       </c>
       <c r="AE108" s="1">
         <v>3</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>2467</v>
+        <v>2461</v>
       </c>
       <c r="AG108" s="2" t="s">
-        <v>2558</v>
+        <v>2550</v>
       </c>
       <c r="AH108" s="1"/>
       <c r="AI108" s="1" t="s">
@@ -50713,7 +50710,7 @@
         <v>4</v>
       </c>
       <c r="Z112" s="1" t="s">
-        <v>2468</v>
+        <v>2462</v>
       </c>
       <c r="AA112" s="1" t="s">
         <v>2362</v>
@@ -50722,7 +50719,7 @@
         <v>5</v>
       </c>
       <c r="AC112" s="1" t="s">
-        <v>2469</v>
+        <v>2463</v>
       </c>
       <c r="AD112" s="2" t="s">
         <v>2082</v>
@@ -50731,7 +50728,7 @@
         <v>5</v>
       </c>
       <c r="AF112" s="1" t="s">
-        <v>2470</v>
+        <v>2464</v>
       </c>
       <c r="AG112" s="2" t="s">
         <v>2082</v>
@@ -50818,19 +50815,19 @@
         <v>5</v>
       </c>
       <c r="AC113" s="1" t="s">
-        <v>2551</v>
+        <v>2545</v>
       </c>
       <c r="AD113" s="2" t="s">
-        <v>2784</v>
+        <v>2773</v>
       </c>
       <c r="AE113" s="1">
         <v>2</v>
       </c>
       <c r="AF113" s="1" t="s">
-        <v>2553</v>
+        <v>2546</v>
       </c>
       <c r="AG113" s="2" t="s">
-        <v>2552</v>
+        <v>2773</v>
       </c>
       <c r="AH113" s="1"/>
       <c r="AI113" s="1" t="s">
@@ -50920,19 +50917,19 @@
         <v>5</v>
       </c>
       <c r="AC114" s="1" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
       <c r="AD114" s="2" t="s">
-        <v>2785</v>
+        <v>2774</v>
       </c>
       <c r="AE114" s="1">
         <v>5</v>
       </c>
       <c r="AF114" s="1" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
       <c r="AG114" s="2" t="s">
-        <v>2785</v>
+        <v>2774</v>
       </c>
       <c r="AH114" s="1"/>
       <c r="AI114" s="1" t="s">
@@ -51024,19 +51021,19 @@
         <v>5</v>
       </c>
       <c r="AC115" s="1" t="s">
-        <v>2573</v>
+        <v>2564</v>
       </c>
       <c r="AD115" s="2" t="s">
-        <v>2559</v>
+        <v>2551</v>
       </c>
       <c r="AE115" s="1">
         <v>5</v>
       </c>
       <c r="AF115" s="1" t="s">
-        <v>2574</v>
+        <v>2565</v>
       </c>
       <c r="AG115" s="2" t="s">
-        <v>2559</v>
+        <v>2551</v>
       </c>
       <c r="AH115" s="1"/>
       <c r="AI115" s="1" t="s">
@@ -51132,19 +51129,19 @@
         <v>5</v>
       </c>
       <c r="AC116" s="1" t="s">
-        <v>2472</v>
+        <v>2466</v>
       </c>
       <c r="AD116" s="2" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
       <c r="AE116" s="1">
         <v>2</v>
       </c>
       <c r="AF116" s="1" t="s">
-        <v>2473</v>
+        <v>2467</v>
       </c>
       <c r="AG116" s="2" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
       <c r="AH116" s="1"/>
       <c r="AI116" s="1" t="s">
@@ -51154,7 +51151,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>8</v>
       </c>
@@ -51238,19 +51235,19 @@
         <v>5</v>
       </c>
       <c r="AC117" s="1" t="s">
-        <v>2386</v>
+        <v>2381</v>
       </c>
       <c r="AD117" s="2" t="s">
-        <v>2387</v>
+        <v>2794</v>
       </c>
       <c r="AE117" s="1">
         <v>5</v>
       </c>
       <c r="AF117" s="1" t="s">
-        <v>2386</v>
+        <v>2381</v>
       </c>
       <c r="AG117" s="2" t="s">
-        <v>2387</v>
+        <v>2794</v>
       </c>
       <c r="AH117" s="1" t="s">
         <v>39</v>
@@ -51762,19 +51759,19 @@
         <v>5</v>
       </c>
       <c r="AC122" s="1" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
       <c r="AD122" s="2" t="s">
-        <v>2786</v>
+        <v>2775</v>
       </c>
       <c r="AE122" s="1">
         <v>5</v>
       </c>
       <c r="AF122" s="1" t="s">
-        <v>2575</v>
+        <v>2566</v>
       </c>
       <c r="AG122" s="2" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="AH122" s="1" t="s">
         <v>39</v>
@@ -51870,19 +51867,19 @@
         <v>5</v>
       </c>
       <c r="AC123" s="1" t="s">
-        <v>2475</v>
+        <v>2469</v>
       </c>
       <c r="AD123" s="2" t="s">
-        <v>2788</v>
+        <v>2776</v>
       </c>
       <c r="AE123" s="1">
         <v>5</v>
       </c>
       <c r="AF123" s="1" t="s">
-        <v>2475</v>
+        <v>2469</v>
       </c>
       <c r="AG123" s="2" t="s">
-        <v>2788</v>
+        <v>2776</v>
       </c>
       <c r="AH123" s="1" t="s">
         <v>39</v>
@@ -52266,19 +52263,19 @@
         <v>4</v>
       </c>
       <c r="AC127" s="1" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="AD127" s="2" t="s">
-        <v>2738</v>
+        <v>2729</v>
       </c>
       <c r="AE127" s="1">
         <v>4</v>
       </c>
       <c r="AF127" s="1" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="AG127" s="2" t="s">
-        <v>2738</v>
+        <v>2729</v>
       </c>
       <c r="AH127" s="1" t="s">
         <v>39</v>
@@ -52375,7 +52372,7 @@
         <v>1850</v>
       </c>
       <c r="AD128" s="2" t="s">
-        <v>2389</v>
+        <v>2383</v>
       </c>
       <c r="AE128" s="1">
         <v>0</v>
@@ -52384,7 +52381,7 @@
         <v>1851</v>
       </c>
       <c r="AG128" s="2" t="s">
-        <v>2520</v>
+        <v>2514</v>
       </c>
       <c r="AH128" s="1" t="s">
         <v>39</v>
@@ -52482,19 +52479,19 @@
         <v>5</v>
       </c>
       <c r="AC129" s="1" t="s">
-        <v>2390</v>
+        <v>2384</v>
       </c>
       <c r="AD129" s="2" t="s">
-        <v>2746</v>
+        <v>2737</v>
       </c>
       <c r="AE129" s="1">
         <v>5</v>
       </c>
       <c r="AF129" s="1" t="s">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="AG129" s="2" t="s">
-        <v>2746</v>
+        <v>2737</v>
       </c>
       <c r="AH129" s="1" t="s">
         <v>39</v>
@@ -52584,19 +52581,19 @@
         <v>5</v>
       </c>
       <c r="AC130" s="1" t="s">
-        <v>2391</v>
+        <v>2385</v>
       </c>
       <c r="AD130" s="2" t="s">
-        <v>2750</v>
+        <v>2741</v>
       </c>
       <c r="AE130" s="1">
         <v>5</v>
       </c>
       <c r="AF130" s="1" t="s">
-        <v>2407</v>
+        <v>2401</v>
       </c>
       <c r="AG130" s="2" t="s">
-        <v>2750</v>
+        <v>2741</v>
       </c>
       <c r="AH130" s="1" t="s">
         <v>39</v>
@@ -52694,19 +52691,19 @@
         <v>5</v>
       </c>
       <c r="AC131" s="1" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
       <c r="AD131" s="2" t="s">
-        <v>2751</v>
+        <v>2742</v>
       </c>
       <c r="AE131" s="1">
         <v>5</v>
       </c>
       <c r="AF131" s="1" t="s">
-        <v>2477</v>
+        <v>2471</v>
       </c>
       <c r="AG131" s="2" t="s">
-        <v>2751</v>
+        <v>2742</v>
       </c>
       <c r="AH131" s="1" t="s">
         <v>39</v>
@@ -52804,19 +52801,19 @@
         <v>5</v>
       </c>
       <c r="AC132" s="1" t="s">
-        <v>2478</v>
+        <v>2472</v>
       </c>
       <c r="AD132" s="2" t="s">
-        <v>2751</v>
+        <v>2742</v>
       </c>
       <c r="AE132" s="1">
         <v>5</v>
       </c>
       <c r="AF132" s="1" t="s">
-        <v>2479</v>
+        <v>2473</v>
       </c>
       <c r="AG132" s="2" t="s">
-        <v>2751</v>
+        <v>2742</v>
       </c>
       <c r="AH132" s="1" t="s">
         <v>39</v>
@@ -52912,19 +52909,19 @@
         <v>5</v>
       </c>
       <c r="AC133" s="1" t="s">
-        <v>2480</v>
+        <v>2474</v>
       </c>
       <c r="AD133" s="2" t="s">
-        <v>2751</v>
+        <v>2742</v>
       </c>
       <c r="AE133" s="1">
         <v>5</v>
       </c>
       <c r="AF133" s="1" t="s">
-        <v>2481</v>
+        <v>2475</v>
       </c>
       <c r="AG133" s="2" t="s">
-        <v>2751</v>
+        <v>2742</v>
       </c>
       <c r="AH133" s="1" t="s">
         <v>39</v>
@@ -53020,19 +53017,19 @@
         <v>4</v>
       </c>
       <c r="AC134" s="1" t="s">
-        <v>2392</v>
+        <v>2386</v>
       </c>
       <c r="AD134" s="2" t="s">
-        <v>2789</v>
+        <v>2777</v>
       </c>
       <c r="AE134" s="1">
         <v>0</v>
       </c>
       <c r="AF134" s="1" t="s">
-        <v>2408</v>
+        <v>2402</v>
       </c>
       <c r="AG134" s="2" t="s">
-        <v>2789</v>
+        <v>2777</v>
       </c>
       <c r="AH134" s="1" t="s">
         <v>39</v>
@@ -53126,19 +53123,19 @@
         <v>5</v>
       </c>
       <c r="AC135" s="1" t="s">
-        <v>2532</v>
+        <v>2526</v>
       </c>
       <c r="AD135" s="2" t="s">
-        <v>2790</v>
+        <v>2796</v>
       </c>
       <c r="AE135" s="1">
         <v>3</v>
       </c>
       <c r="AF135" s="1" t="s">
-        <v>2570</v>
+        <v>2561</v>
       </c>
       <c r="AG135" s="2" t="s">
-        <v>2790</v>
+        <v>2796</v>
       </c>
       <c r="AH135" s="1" t="s">
         <v>39</v>
@@ -53332,19 +53329,19 @@
         <v>5</v>
       </c>
       <c r="AC137" s="1" t="s">
-        <v>2393</v>
+        <v>2387</v>
       </c>
       <c r="AD137" s="2" t="s">
-        <v>2394</v>
+        <v>2388</v>
       </c>
       <c r="AE137" s="1">
         <v>5</v>
       </c>
       <c r="AF137" s="1" t="s">
-        <v>2482</v>
+        <v>2476</v>
       </c>
       <c r="AG137" s="2" t="s">
-        <v>2394</v>
+        <v>2388</v>
       </c>
       <c r="AH137" s="1" t="s">
         <v>39</v>
@@ -53440,19 +53437,19 @@
         <v>5</v>
       </c>
       <c r="AC138" s="1" t="s">
-        <v>2483</v>
+        <v>2477</v>
       </c>
       <c r="AD138" s="2" t="s">
-        <v>2791</v>
+        <v>2778</v>
       </c>
       <c r="AE138" s="1">
         <v>3</v>
       </c>
       <c r="AF138" s="1" t="s">
-        <v>2484</v>
+        <v>2478</v>
       </c>
       <c r="AG138" s="2" t="s">
-        <v>2791</v>
+        <v>2778</v>
       </c>
       <c r="AH138" s="1" t="s">
         <v>39</v>
@@ -53548,19 +53545,19 @@
         <v>5</v>
       </c>
       <c r="AC139" s="1" t="s">
-        <v>2485</v>
+        <v>2479</v>
       </c>
       <c r="AD139" s="2" t="s">
-        <v>2792</v>
+        <v>2779</v>
       </c>
       <c r="AE139" s="1">
         <v>5</v>
       </c>
       <c r="AF139" s="1" t="s">
-        <v>2486</v>
+        <v>2480</v>
       </c>
       <c r="AG139" s="2" t="s">
-        <v>2792</v>
+        <v>2779</v>
       </c>
       <c r="AH139" s="1" t="s">
         <v>39</v>
@@ -53856,19 +53853,19 @@
         <v>5</v>
       </c>
       <c r="AC142" s="1" t="s">
-        <v>2541</v>
+        <v>2535</v>
       </c>
       <c r="AD142" s="2" t="s">
-        <v>2743</v>
+        <v>2734</v>
       </c>
       <c r="AE142" s="1">
         <v>5</v>
       </c>
       <c r="AF142" s="1" t="s">
-        <v>2542</v>
+        <v>2536</v>
       </c>
       <c r="AG142" s="2" t="s">
-        <v>2743</v>
+        <v>2734</v>
       </c>
       <c r="AH142" s="1" t="s">
         <v>39</v>
@@ -53958,19 +53955,19 @@
         <v>5</v>
       </c>
       <c r="AC143" s="1" t="s">
-        <v>2533</v>
+        <v>2527</v>
       </c>
       <c r="AD143" s="2" t="s">
-        <v>2793</v>
+        <v>2780</v>
       </c>
       <c r="AE143" s="1">
         <v>3</v>
       </c>
       <c r="AF143" s="1" t="s">
-        <v>2534</v>
+        <v>2528</v>
       </c>
       <c r="AG143" s="2" t="s">
-        <v>2793</v>
+        <v>2780</v>
       </c>
       <c r="AH143" s="1" t="s">
         <v>39</v>
@@ -54602,7 +54599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>378</v>
       </c>
@@ -54686,19 +54683,19 @@
         <v>5</v>
       </c>
       <c r="AC150" s="1" t="s">
-        <v>2535</v>
+        <v>2529</v>
       </c>
       <c r="AD150" s="2" t="s">
-        <v>2564</v>
+        <v>2795</v>
       </c>
       <c r="AE150" s="1">
         <v>3</v>
       </c>
       <c r="AF150" s="1" t="s">
-        <v>2536</v>
+        <v>2530</v>
       </c>
       <c r="AG150" s="2" t="s">
-        <v>2564</v>
+        <v>2795</v>
       </c>
       <c r="AH150" s="1" t="s">
         <v>39</v>
@@ -54788,19 +54785,19 @@
         <v>5</v>
       </c>
       <c r="AC151" s="1" t="s">
-        <v>2487</v>
+        <v>2481</v>
       </c>
       <c r="AD151" s="2" t="s">
-        <v>2794</v>
+        <v>2781</v>
       </c>
       <c r="AE151" s="1">
         <v>5</v>
       </c>
       <c r="AF151" s="1" t="s">
-        <v>2488</v>
+        <v>2482</v>
       </c>
       <c r="AG151" s="2" t="s">
-        <v>2794</v>
+        <v>2781</v>
       </c>
       <c r="AH151" s="1" t="s">
         <v>39</v>
@@ -54896,19 +54893,19 @@
         <v>5</v>
       </c>
       <c r="AC152" s="1" t="s">
-        <v>2396</v>
+        <v>2390</v>
       </c>
       <c r="AD152" s="2" t="s">
-        <v>2795</v>
+        <v>2782</v>
       </c>
       <c r="AE152" s="1">
         <v>5</v>
       </c>
       <c r="AF152" s="1" t="s">
-        <v>2409</v>
+        <v>2403</v>
       </c>
       <c r="AG152" s="2" t="s">
-        <v>2795</v>
+        <v>2782</v>
       </c>
       <c r="AH152" s="1" t="s">
         <v>39</v>
@@ -55002,19 +54999,19 @@
         <v>5</v>
       </c>
       <c r="AC153" s="1" t="s">
-        <v>2489</v>
+        <v>2483</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>2796</v>
+        <v>2783</v>
       </c>
       <c r="AE153" s="1">
         <v>3</v>
       </c>
       <c r="AF153" s="1" t="s">
-        <v>2490</v>
+        <v>2484</v>
       </c>
       <c r="AG153" s="2" t="s">
-        <v>2796</v>
+        <v>2783</v>
       </c>
       <c r="AH153" s="1" t="s">
         <v>39</v>
@@ -55214,19 +55211,19 @@
         <v>5</v>
       </c>
       <c r="AC155" s="1" t="s">
-        <v>2543</v>
+        <v>2537</v>
       </c>
       <c r="AD155" s="2" t="s">
-        <v>2797</v>
+        <v>2784</v>
       </c>
       <c r="AE155" s="1">
         <v>3</v>
       </c>
       <c r="AF155" s="1" t="s">
-        <v>2491</v>
+        <v>2485</v>
       </c>
       <c r="AG155" s="2" t="s">
-        <v>2797</v>
+        <v>2784</v>
       </c>
       <c r="AH155" s="1" t="s">
         <v>39</v>
@@ -55316,19 +55313,19 @@
         <v>5</v>
       </c>
       <c r="AC156" s="1" t="s">
-        <v>2492</v>
+        <v>2486</v>
       </c>
       <c r="AD156" s="2" t="s">
-        <v>2395</v>
+        <v>2389</v>
       </c>
       <c r="AE156" s="1">
         <v>5</v>
       </c>
       <c r="AF156" s="1" t="s">
-        <v>2493</v>
+        <v>2487</v>
       </c>
       <c r="AG156" s="2" t="s">
-        <v>2395</v>
+        <v>2389</v>
       </c>
       <c r="AH156" s="1" t="s">
         <v>39</v>
@@ -55422,19 +55419,19 @@
         <v>5</v>
       </c>
       <c r="AC157" s="1" t="s">
-        <v>2509</v>
+        <v>2503</v>
       </c>
       <c r="AD157" s="2" t="s">
-        <v>2755</v>
+        <v>2746</v>
       </c>
       <c r="AE157" s="1">
         <v>3</v>
       </c>
       <c r="AF157" s="1" t="s">
-        <v>2494</v>
+        <v>2488</v>
       </c>
       <c r="AG157" s="2" t="s">
-        <v>2755</v>
+        <v>2746</v>
       </c>
       <c r="AH157" s="1" t="s">
         <v>39</v>
@@ -55535,16 +55532,16 @@
         <v>1936</v>
       </c>
       <c r="AD158" s="2" t="s">
-        <v>2745</v>
+        <v>2736</v>
       </c>
       <c r="AE158" s="1">
         <v>5</v>
       </c>
       <c r="AF158" s="1" t="s">
-        <v>2495</v>
+        <v>2489</v>
       </c>
       <c r="AG158" s="2" t="s">
-        <v>2744</v>
+        <v>2735</v>
       </c>
       <c r="AH158" s="1" t="s">
         <v>39</v>
@@ -55614,19 +55611,19 @@
         <v>5</v>
       </c>
       <c r="AC159" s="1" t="s">
-        <v>2554</v>
+        <v>2547</v>
       </c>
       <c r="AD159" s="2" t="s">
-        <v>2555</v>
+        <v>2799</v>
       </c>
       <c r="AE159" s="1">
         <v>5</v>
       </c>
       <c r="AF159" s="1" t="s">
-        <v>2556</v>
+        <v>2548</v>
       </c>
       <c r="AG159" s="2" t="s">
-        <v>2555</v>
+        <v>2799</v>
       </c>
       <c r="AH159" s="1"/>
       <c r="AI159" s="1"/>
@@ -55723,10 +55720,10 @@
         <v>5</v>
       </c>
       <c r="AF160" s="1" t="s">
-        <v>2496</v>
+        <v>2490</v>
       </c>
       <c r="AG160" s="2" t="s">
-        <v>2557</v>
+        <v>2549</v>
       </c>
       <c r="AH160" s="1" t="s">
         <v>39</v>
@@ -55821,7 +55818,7 @@
         <v>1941</v>
       </c>
       <c r="AD161" s="2" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="AE161" s="1">
         <v>5</v>
@@ -55830,7 +55827,7 @@
         <v>1942</v>
       </c>
       <c r="AG161" s="2" t="s">
-        <v>2521</v>
+        <v>2515</v>
       </c>
       <c r="AH161" s="1" t="s">
         <v>39</v>
@@ -55926,19 +55923,19 @@
         <v>5</v>
       </c>
       <c r="AC162" s="1" t="s">
-        <v>2497</v>
+        <v>2491</v>
       </c>
       <c r="AD162" s="2" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="AE162" s="1">
         <v>5</v>
       </c>
       <c r="AF162" s="1" t="s">
-        <v>2498</v>
+        <v>2492</v>
       </c>
       <c r="AG162" s="2" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="AH162" s="1" t="s">
         <v>39</v>
@@ -56036,19 +56033,19 @@
         <v>5</v>
       </c>
       <c r="AC163" s="1" t="s">
-        <v>2499</v>
+        <v>2493</v>
       </c>
       <c r="AD163" s="2" t="s">
-        <v>2798</v>
+        <v>2785</v>
       </c>
       <c r="AE163" s="1">
         <v>3</v>
       </c>
       <c r="AF163" s="1" t="s">
-        <v>2500</v>
+        <v>2494</v>
       </c>
       <c r="AG163" s="2" t="s">
-        <v>2798</v>
+        <v>2785</v>
       </c>
       <c r="AH163" s="1" t="s">
         <v>39</v>
@@ -56149,10 +56146,10 @@
         <v>5</v>
       </c>
       <c r="AF164" s="1" t="s">
-        <v>2540</v>
+        <v>2534</v>
       </c>
       <c r="AG164" s="2" t="s">
-        <v>2537</v>
+        <v>2531</v>
       </c>
       <c r="AH164" s="1" t="s">
         <v>39</v>
@@ -56350,19 +56347,19 @@
         <v>5</v>
       </c>
       <c r="AC166" s="1" t="s">
-        <v>2399</v>
+        <v>2393</v>
       </c>
       <c r="AD166" s="2" t="s">
-        <v>2400</v>
+        <v>2394</v>
       </c>
       <c r="AE166" s="1">
         <v>5</v>
       </c>
       <c r="AF166" s="1" t="s">
-        <v>2399</v>
+        <v>2393</v>
       </c>
       <c r="AG166" s="2" t="s">
-        <v>2400</v>
+        <v>2394</v>
       </c>
       <c r="AH166" s="1" t="s">
         <v>39</v>
@@ -56565,16 +56562,16 @@
         <v>1955</v>
       </c>
       <c r="AD168" s="2" t="s">
-        <v>2401</v>
+        <v>2395</v>
       </c>
       <c r="AE168" s="1">
         <v>3</v>
       </c>
       <c r="AF168" s="1" t="s">
-        <v>2501</v>
+        <v>2495</v>
       </c>
       <c r="AG168" s="2" t="s">
-        <v>2522</v>
+        <v>2516</v>
       </c>
       <c r="AH168" s="1" t="s">
         <v>39</v>
@@ -56670,19 +56667,19 @@
         <v>5</v>
       </c>
       <c r="AC169" s="1" t="s">
-        <v>2538</v>
+        <v>2532</v>
       </c>
       <c r="AD169" s="2" t="s">
-        <v>2799</v>
+        <v>2786</v>
       </c>
       <c r="AE169" s="1">
         <v>3</v>
       </c>
       <c r="AF169" s="1" t="s">
-        <v>2539</v>
+        <v>2533</v>
       </c>
       <c r="AG169" s="2" t="s">
-        <v>2799</v>
+        <v>2786</v>
       </c>
       <c r="AH169" s="1" t="s">
         <v>39</v>
@@ -56778,19 +56775,19 @@
         <v>5</v>
       </c>
       <c r="AC170" s="1" t="s">
-        <v>2502</v>
+        <v>2496</v>
       </c>
       <c r="AD170" s="2" t="s">
-        <v>2739</v>
+        <v>2730</v>
       </c>
       <c r="AE170" s="1">
         <v>5</v>
       </c>
       <c r="AF170" s="1" t="s">
-        <v>2503</v>
+        <v>2497</v>
       </c>
       <c r="AG170" s="2" t="s">
-        <v>2739</v>
+        <v>2730</v>
       </c>
       <c r="AH170" s="1" t="s">
         <v>39</v>
@@ -56884,19 +56881,19 @@
         <v>5</v>
       </c>
       <c r="AC171" s="1" t="s">
-        <v>2510</v>
+        <v>2504</v>
       </c>
       <c r="AD171" s="2" t="s">
-        <v>2752</v>
+        <v>2743</v>
       </c>
       <c r="AE171" s="1">
         <v>2</v>
       </c>
       <c r="AF171" s="1" t="s">
-        <v>2511</v>
+        <v>2505</v>
       </c>
       <c r="AG171" s="2" t="s">
-        <v>2752</v>
+        <v>2743</v>
       </c>
       <c r="AH171" s="1" t="s">
         <v>39</v>
@@ -57272,7 +57269,7 @@
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2618</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57297,17 +57294,17 @@
     </row>
     <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2698</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2699</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>2700</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57317,7 +57314,7 @@
     </row>
     <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>2617</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57362,12 +57359,12 @@
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>2523</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>2524</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658F78C3-D91B-42AE-8AC0-FDFA65012189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC10C1F-0429-4218-85BD-D55C27E85289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="1770" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9922" uniqueCount="2800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9922" uniqueCount="2797">
   <si>
     <t>id</t>
   </si>
@@ -8234,10 +8234,6 @@
     <t>perceived severity; perceived vulnerability; response efficacy; government social media participation; information security behavior</t>
   </si>
   <si>
-    <t xml:space="preserve">perceived severity; perceived vulnerability; response efficacy; government social media participation; information security behavior
-</t>
-  </si>
-  <si>
     <t>Comparison of AVE, Maximum Shared Squared Variance and Average Shared Variance both &lt; AVE (Table 5): behavioral intent; perceived subjective norms; organizational commitment; attitude; perceived behavioral control; perceived controllability; perceived sanction severity; perceived sanction probability; cost-benefit analysis; perceived vulnerability; perceived threat severity; perceived response efficacy</t>
   </si>
   <si>
@@ -8836,9 +8832,6 @@
     <t>perceived severity; perceived vulnerability; response cost; response efficacy; compliance intention; compliance behavior</t>
   </si>
   <si>
-    <t>management support; perceived trust in information security policies; user's compliance behavior</t>
-  </si>
-  <si>
     <t>attitude toward information security policy compliance; information security awareness; compliance intention; normative beliefs</t>
   </si>
   <si>
@@ -8876,9 +8869,6 @@
   </si>
   <si>
     <t>perceived severity; perceived vulnerability; response efficacy; response cost; attitude toward compliance; subjective norms; behavioral intention to comply with information systems security policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personal innovativeness; general privacy concerns; perceived usefulness; perceived convenience; perceived vulnerability; perceived severity; coping efficacy; intention to disclose usage patterns; intention to disclose personal identifiers; intention to disclose biographical information; intention to disclose usage context; intention to disclose feedback information </t>
   </si>
   <si>
     <t>self-anticipated satisfaction with system; system-specific privacy concerns; perceived privacy protection; general online privacy concerns</t>
@@ -11343,13 +11333,13 @@
         <v>2087</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>2652</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>2653</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>28</v>
@@ -11361,7 +11351,7 @@
         <v>2117</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>30</v>
@@ -11608,7 +11598,7 @@
         <v>55</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
@@ -11653,13 +11643,13 @@
         <v>1</v>
       </c>
       <c r="AD3" s="2" t="s">
+        <v>2610</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="AF3" s="1" t="s">
         <v>2611</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>2692</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>2612</v>
       </c>
       <c r="AH3" s="1">
         <v>1</v>
@@ -11674,7 +11664,7 @@
         <v>57</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="AM3" s="1">
         <v>1</v>
@@ -11826,13 +11816,13 @@
         <v>1</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -11963,13 +11953,13 @@
         <v>1</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="AH5" s="1">
         <v>0</v>
@@ -11984,7 +11974,7 @@
         <v>2120</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -12136,7 +12126,7 @@
         <v>936</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -12288,7 +12278,7 @@
         <v>936</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -12419,7 +12409,7 @@
         <v>2108</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="AH8" s="1">
         <v>0</v>
@@ -12428,13 +12418,13 @@
         <v>1</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="AK8" s="2" t="s">
         <v>936</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -12732,7 +12722,7 @@
         <v>1</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="AK10" s="2" t="s">
         <v>2121</v>
@@ -12884,13 +12874,13 @@
         <v>1</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="AK11" s="2" t="s">
         <v>2124</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -13474,10 +13464,10 @@
         <v>176</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="AH15" s="1">
         <v>0</v>
@@ -13644,7 +13634,7 @@
         <v>187</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM16" s="1">
         <v>0</v>
@@ -13775,13 +13765,13 @@
         <v>1</v>
       </c>
       <c r="AD17" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="AF17" s="1" t="s">
         <v>2616</v>
-      </c>
-      <c r="AE17" s="1" t="s">
-        <v>2581</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>2617</v>
       </c>
       <c r="AH17" s="1">
         <v>0</v>
@@ -13933,10 +13923,10 @@
         <v>208</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -13951,7 +13941,7 @@
         <v>2127</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="AM18" s="1">
         <v>0</v>
@@ -14240,10 +14230,10 @@
         <v>228</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="AH20" s="1">
         <v>0</v>
@@ -14389,16 +14379,16 @@
         <v>1</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="AE21" s="1" t="s">
         <v>2089</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="AH21" s="1">
         <v>0</v>
@@ -14559,7 +14549,7 @@
         <v>2128</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -14705,13 +14695,13 @@
         <v>1</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="AK23" s="2" t="s">
         <v>936</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM23" s="1">
         <v>0</v>
@@ -14863,7 +14853,7 @@
         <v>2119</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -15006,7 +14996,7 @@
         <v>2129</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="AM25" s="1">
         <v>0</v>
@@ -15158,7 +15148,7 @@
         <v>282</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -15447,7 +15437,7 @@
         <v>2125</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -15727,7 +15717,7 @@
         <v>2094</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="AH30" s="1">
         <v>0</v>
@@ -15742,7 +15732,7 @@
         <v>2123</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -15879,7 +15869,7 @@
         <v>329</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="AH31" s="1">
         <v>0</v>
@@ -15894,7 +15884,7 @@
         <v>2131</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -16043,7 +16033,7 @@
         <v>2123</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -16186,7 +16176,7 @@
         <v>2132</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -16323,10 +16313,10 @@
         <v>2090</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="AH34" s="1">
         <v>1</v>
@@ -16496,7 +16486,7 @@
         <v>2095</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -16642,13 +16632,13 @@
         <v>1</v>
       </c>
       <c r="AJ36" s="2" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="AK36" s="2" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
@@ -16800,7 +16790,7 @@
         <v>2123</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -16958,7 +16948,7 @@
         <v>2095</v>
       </c>
       <c r="AL38" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM38" s="1">
         <v>0</v>
@@ -17101,7 +17091,7 @@
         <v>2095</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -17244,7 +17234,7 @@
         <v>2095</v>
       </c>
       <c r="AL40" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -17515,16 +17505,16 @@
         <v>1</v>
       </c>
       <c r="AD42" s="2" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="AF42" s="1" t="s">
         <v>2620</v>
       </c>
-      <c r="AE42" s="1" t="s">
-        <v>2693</v>
-      </c>
-      <c r="AF42" s="1" t="s">
-        <v>2621</v>
-      </c>
       <c r="AG42" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="AH42" s="1">
         <v>0</v>
@@ -17688,13 +17678,13 @@
         <v>1</v>
       </c>
       <c r="AJ43" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="AK43" s="2" t="s">
         <v>2667</v>
       </c>
-      <c r="AK43" s="2" t="s">
+      <c r="AL43" s="1" t="s">
         <v>2668</v>
-      </c>
-      <c r="AL43" s="1" t="s">
-        <v>2669</v>
       </c>
       <c r="AM43" s="1">
         <v>0</v>
@@ -17843,7 +17833,7 @@
         <v>2133</v>
       </c>
       <c r="AL44" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="AM44" s="1">
         <v>0</v>
@@ -17980,10 +17970,10 @@
         <v>444</v>
       </c>
       <c r="AK45" s="2" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="AL45" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="AM45" s="1">
         <v>0</v>
@@ -18120,13 +18110,13 @@
         <v>1</v>
       </c>
       <c r="AJ46" s="2" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="AK46" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="AL46" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="AM46" s="1">
         <v>0</v>
@@ -18281,7 +18271,7 @@
         <v>936</v>
       </c>
       <c r="AL47" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM47" s="1">
         <v>0</v>
@@ -18430,7 +18420,7 @@
         <v>2136</v>
       </c>
       <c r="AL48" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM48" s="1">
         <v>0</v>
@@ -18582,7 +18572,7 @@
         <v>2134</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM49" s="1">
         <v>0</v>
@@ -18731,10 +18721,10 @@
         <v>491</v>
       </c>
       <c r="AK50" s="2" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM50" s="1">
         <v>0</v>
@@ -18883,7 +18873,7 @@
         <v>2119</v>
       </c>
       <c r="AL51" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM51" s="1">
         <v>0</v>
@@ -19020,7 +19010,7 @@
         <v>2109</v>
       </c>
       <c r="AF52" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="AH52" s="1">
         <v>1</v>
@@ -19035,7 +19025,7 @@
         <v>2146</v>
       </c>
       <c r="AL52" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM52" s="1">
         <v>0</v>
@@ -19327,7 +19317,7 @@
         <v>1</v>
       </c>
       <c r="AJ54" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="AK54" s="2" t="s">
         <v>1582</v>
@@ -19479,7 +19469,7 @@
         <v>1</v>
       </c>
       <c r="AJ55" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="AK55" s="2" t="s">
         <v>1582</v>
@@ -19765,7 +19755,7 @@
         <v>2106</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AH57" s="1">
         <v>0</v>
@@ -19780,7 +19770,7 @@
         <v>936</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM57" s="1">
         <v>0</v>
@@ -19911,13 +19901,13 @@
         <v>1</v>
       </c>
       <c r="AD58" s="2" t="s">
+        <v>2622</v>
+      </c>
+      <c r="AE58" s="1" t="s">
         <v>2623</v>
       </c>
-      <c r="AE58" s="1" t="s">
-        <v>2624</v>
-      </c>
       <c r="AF58" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="AH58" s="1">
         <v>1</v>
@@ -20069,10 +20059,10 @@
         <v>2091</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="AG59" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="AH59" s="1">
         <v>0</v>
@@ -20087,7 +20077,7 @@
         <v>2137</v>
       </c>
       <c r="AL59" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -20221,7 +20211,7 @@
         <v>2092</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="AH60" s="1">
         <v>0</v>
@@ -20236,7 +20226,7 @@
         <v>282</v>
       </c>
       <c r="AL60" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="AM60" s="1">
         <v>0</v>
@@ -20376,7 +20366,7 @@
         <v>2138</v>
       </c>
       <c r="AL61" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM61" s="1">
         <v>0</v>
@@ -20453,7 +20443,7 @@
         <v>787</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="P62" s="1">
         <v>1</v>
@@ -20498,13 +20488,13 @@
         <v>1</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="AH62" s="1">
         <v>1</v>
@@ -20677,7 +20667,7 @@
         <v>2123</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -20829,7 +20819,7 @@
         <v>2106</v>
       </c>
       <c r="AL64" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -20966,13 +20956,13 @@
         <v>1</v>
       </c>
       <c r="AJ65" s="2" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="AK65" s="2" t="s">
         <v>2139</v>
       </c>
       <c r="AL65" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="AM65" s="1">
         <v>0</v>
@@ -21508,7 +21498,7 @@
         <v>936</v>
       </c>
       <c r="AL69" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM69" s="1">
         <v>0</v>
@@ -21639,7 +21629,7 @@
         <v>1676</v>
       </c>
       <c r="AF70" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="AH70" s="1">
         <v>1</v>
@@ -21925,7 +21915,7 @@
         <v>855</v>
       </c>
       <c r="AF72" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="AH72" s="1">
         <v>1</v>
@@ -21940,7 +21930,7 @@
         <v>2140</v>
       </c>
       <c r="AL72" s="1" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -22357,7 +22347,7 @@
         <v>2119</v>
       </c>
       <c r="AL75" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM75" s="1">
         <v>0</v>
@@ -22655,13 +22645,13 @@
         <v>1</v>
       </c>
       <c r="AJ77" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="AK77" s="2" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="AL77" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="AM77" s="1">
         <v>0</v>
@@ -22792,13 +22782,13 @@
         <v>1</v>
       </c>
       <c r="AJ78" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="AK78" s="2" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="AL78" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="AM78" s="1">
         <v>0</v>
@@ -22929,13 +22919,13 @@
         <v>1</v>
       </c>
       <c r="AJ79" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="AK79" s="2" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="AL79" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="AM79" s="1">
         <v>0</v>
@@ -23075,13 +23065,13 @@
         <v>1</v>
       </c>
       <c r="AJ80" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="AK80" s="2" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="AL80" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM80" s="1">
         <v>0</v>
@@ -23227,7 +23217,7 @@
         <v>1</v>
       </c>
       <c r="AJ81" s="2" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="AK81" s="2" t="s">
         <v>993</v>
@@ -23352,13 +23342,13 @@
         <v>1</v>
       </c>
       <c r="AD82" s="2" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="AE82" s="1" t="s">
         <v>2093</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="AH82" s="1">
         <v>0</v>
@@ -23367,7 +23357,7 @@
         <v>1</v>
       </c>
       <c r="AJ82" s="2" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="AK82" s="2" t="s">
         <v>993</v>
@@ -23501,10 +23491,10 @@
         <v>2115</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="AH83" s="1">
         <v>1</v>
@@ -23519,7 +23509,7 @@
         <v>911</v>
       </c>
       <c r="AL83" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM83" s="1">
         <v>0</v>
@@ -23665,7 +23655,7 @@
         <v>919</v>
       </c>
       <c r="AL84" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="AM84" s="1">
         <v>0</v>
@@ -23790,7 +23780,7 @@
         <v>2116</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="AH85" s="1">
         <v>0</v>
@@ -23805,7 +23795,7 @@
         <v>2141</v>
       </c>
       <c r="AL85" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="AM85" s="1">
         <v>0</v>
@@ -23930,16 +23920,16 @@
         <v>1</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="AE86" s="1" t="s">
         <v>2105</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="AG86" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="AH86" s="1">
         <v>0</v>
@@ -23954,7 +23944,7 @@
         <v>936</v>
       </c>
       <c r="AL86" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM86" s="1">
         <v>0</v>
@@ -24085,10 +24075,10 @@
         <v>943</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AG87" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="AH87" s="1">
         <v>0</v>
@@ -24103,7 +24093,7 @@
         <v>936</v>
       </c>
       <c r="AL87" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM87" s="1">
         <v>0</v>
@@ -24234,16 +24224,16 @@
         <v>1</v>
       </c>
       <c r="AD88" s="2" t="s">
+        <v>2704</v>
+      </c>
+      <c r="AE88" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="AE88" s="1" t="s">
-        <v>2706</v>
-      </c>
       <c r="AF88" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="AG88" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="AH88" s="1">
         <v>0</v>
@@ -24386,16 +24376,16 @@
         <v>1</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="AE89" s="1" t="s">
         <v>2106</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AG89" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="AH89" s="1">
         <v>0</v>
@@ -24410,7 +24400,7 @@
         <v>936</v>
       </c>
       <c r="AL89" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM89" s="1">
         <v>0</v>
@@ -24559,7 +24549,7 @@
         <v>919</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="AM90" s="1">
         <v>0</v>
@@ -25128,13 +25118,13 @@
         <v>1</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="AE94" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="AF94" s="1" t="s">
         <v>2634</v>
-      </c>
-      <c r="AF94" s="1" t="s">
-        <v>2635</v>
       </c>
       <c r="AH94" s="1">
         <v>1</v>
@@ -25274,16 +25264,16 @@
         <v>1</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="AE95" s="1" t="s">
         <v>2096</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="AG95" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="AH95" s="1">
         <v>0</v>
@@ -25292,7 +25282,7 @@
         <v>1</v>
       </c>
       <c r="AJ95" s="2" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="AK95" s="2" t="s">
         <v>2126</v>
@@ -25435,13 +25425,13 @@
         <v>1</v>
       </c>
       <c r="AJ96" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="AK96" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="AM96" s="1">
         <v>0</v>
@@ -25715,7 +25705,7 @@
         <v>2107</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="AH98" s="1">
         <v>0</v>
@@ -25876,13 +25866,13 @@
         <v>1</v>
       </c>
       <c r="AJ99" s="2" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="AK99" s="2" t="s">
         <v>2142</v>
       </c>
       <c r="AL99" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM99" s="1">
         <v>0</v>
@@ -26016,10 +26006,10 @@
         <v>943</v>
       </c>
       <c r="AF100" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AG100" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="AH100" s="1">
         <v>0</v>
@@ -26171,7 +26161,7 @@
         <v>2097</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="AH101" s="1">
         <v>1</v>
@@ -26326,7 +26316,7 @@
         <v>282</v>
       </c>
       <c r="AL102" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="AM102" s="1">
         <v>0</v>
@@ -26463,7 +26453,7 @@
         <v>2098</v>
       </c>
       <c r="AF103" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="AH103" s="1">
         <v>1</v>
@@ -26475,10 +26465,10 @@
         <v>1079</v>
       </c>
       <c r="AK103" s="2" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="AL103" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="AM103" s="1">
         <v>0</v>
@@ -26627,7 +26617,7 @@
         <v>2123</v>
       </c>
       <c r="AL104" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM104" s="1">
         <v>0</v>
@@ -26752,7 +26742,7 @@
         <v>1094</v>
       </c>
       <c r="AF105" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="AH105" s="1">
         <v>0</v>
@@ -26901,10 +26891,10 @@
         <v>2080</v>
       </c>
       <c r="AK106" s="2" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="AL106" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="AM106" s="1">
         <v>0</v>
@@ -27044,13 +27034,13 @@
         <v>1</v>
       </c>
       <c r="AJ107" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="AK107" s="2" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="AL107" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="AM107" s="1">
         <v>0</v>
@@ -27199,7 +27189,7 @@
         <v>936</v>
       </c>
       <c r="AL108" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM108" s="1">
         <v>0</v>
@@ -27634,7 +27624,7 @@
         <v>1094</v>
       </c>
       <c r="AF111" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="AH111" s="1">
         <v>0</v>
@@ -27649,7 +27639,7 @@
         <v>936</v>
       </c>
       <c r="AL111" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM111" s="1">
         <v>0</v>
@@ -27789,7 +27779,7 @@
         <v>1146</v>
       </c>
       <c r="AF112" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="AH112" s="1">
         <v>0</v>
@@ -27804,7 +27794,7 @@
         <v>936</v>
       </c>
       <c r="AL112" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM112" s="1">
         <v>0</v>
@@ -28242,7 +28232,7 @@
         <v>1</v>
       </c>
       <c r="AJ115" s="2" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="AK115" s="2" t="s">
         <v>1582</v>
@@ -28376,7 +28366,7 @@
         <v>1169</v>
       </c>
       <c r="AF116" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="AH116" s="1">
         <v>1</v>
@@ -28528,7 +28518,7 @@
         <v>2109</v>
       </c>
       <c r="AF117" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="AH117" s="1">
         <v>0</v>
@@ -28543,7 +28533,7 @@
         <v>2143</v>
       </c>
       <c r="AL117" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM117" s="1">
         <v>0</v>
@@ -28680,7 +28670,7 @@
         <v>2109</v>
       </c>
       <c r="AF118" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="AH118" s="1">
         <v>0</v>
@@ -28695,7 +28685,7 @@
         <v>2144</v>
       </c>
       <c r="AL118" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="AM118" s="1">
         <v>0</v>
@@ -28847,7 +28837,7 @@
         <v>2145</v>
       </c>
       <c r="AL119" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="AM119" s="1">
         <v>0</v>
@@ -28996,10 +28986,10 @@
         <v>2082</v>
       </c>
       <c r="AK120" s="2" t="s">
+        <v>2676</v>
+      </c>
+      <c r="AL120" s="1" t="s">
         <v>2677</v>
-      </c>
-      <c r="AL120" s="1" t="s">
-        <v>2678</v>
       </c>
       <c r="AM120" s="1">
         <v>0</v>
@@ -29294,13 +29284,13 @@
         <v>1</v>
       </c>
       <c r="AJ122" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="AK122" s="2" t="s">
         <v>2136</v>
       </c>
       <c r="AL122" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM122" s="1">
         <v>0</v>
@@ -29446,13 +29436,13 @@
         <v>1</v>
       </c>
       <c r="AJ123" s="2" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="AK123" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL123" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM123" s="1">
         <v>0</v>
@@ -29577,14 +29567,14 @@
         <v>1</v>
       </c>
       <c r="AD124" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="AE124" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="AF124" s="1" t="s">
         <v>2639</v>
       </c>
-      <c r="AE124" s="1" t="s">
-        <v>2639</v>
-      </c>
-      <c r="AF124" s="1" t="s">
-        <v>2640</v>
-      </c>
       <c r="AH124" s="1">
         <v>0</v>
       </c>
@@ -29592,13 +29582,13 @@
         <v>1</v>
       </c>
       <c r="AJ124" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="AK124" s="2" t="s">
         <v>2125</v>
       </c>
       <c r="AL124" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM124" s="1">
         <v>0</v>
@@ -29750,7 +29740,7 @@
         <v>2106</v>
       </c>
       <c r="AL125" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM125" s="1">
         <v>0</v>
@@ -29896,13 +29886,13 @@
         <v>1</v>
       </c>
       <c r="AJ126" s="2" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="AK126" s="2" t="s">
         <v>2109</v>
       </c>
       <c r="AL126" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM126" s="1">
         <v>0</v>
@@ -30054,7 +30044,7 @@
         <v>936</v>
       </c>
       <c r="AL127" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM127" s="1">
         <v>0</v>
@@ -30206,7 +30196,7 @@
         <v>919</v>
       </c>
       <c r="AL128" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="AM128" s="1">
         <v>0</v>
@@ -30358,7 +30348,7 @@
         <v>919</v>
       </c>
       <c r="AL129" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="AM129" s="1">
         <v>0</v>
@@ -30665,7 +30655,7 @@
         <v>2083</v>
       </c>
       <c r="AL131" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM131" s="1">
         <v>0</v>
@@ -30817,7 +30807,7 @@
         <v>2137</v>
       </c>
       <c r="AL132" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM132" s="1">
         <v>0</v>
@@ -30954,7 +30944,7 @@
         <v>1676</v>
       </c>
       <c r="AF133" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="AH133" s="1">
         <v>1</v>
@@ -31124,7 +31114,7 @@
         <v>1437</v>
       </c>
       <c r="AO134" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="AP134" s="1">
         <v>201</v>
@@ -31255,7 +31245,7 @@
         <v>2100</v>
       </c>
       <c r="AF135" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="AH135" s="1">
         <v>1</v>
@@ -31413,7 +31403,7 @@
         <v>2101</v>
       </c>
       <c r="AF136" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="AH136" s="1">
         <v>0</v>
@@ -31428,7 +31418,7 @@
         <v>2101</v>
       </c>
       <c r="AL136" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM136" s="1">
         <v>0</v>
@@ -31565,10 +31555,10 @@
         <v>2110</v>
       </c>
       <c r="AF137" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="AG137" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="AH137" s="1">
         <v>0</v>
@@ -31577,13 +31567,13 @@
         <v>1</v>
       </c>
       <c r="AJ137" s="2" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="AK137" s="2" t="s">
         <v>2110</v>
       </c>
       <c r="AL137" s="1" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="AM137" s="1">
         <v>0</v>
@@ -31857,7 +31847,7 @@
         <v>2102</v>
       </c>
       <c r="AF139" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="AH139" s="1">
         <v>0</v>
@@ -31869,10 +31859,10 @@
         <v>1480</v>
       </c>
       <c r="AK139" s="2" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="AL139" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM139" s="1">
         <v>0</v>
@@ -32000,7 +31990,7 @@
         <v>2103</v>
       </c>
       <c r="AF140" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="AH140" s="1">
         <v>0</v>
@@ -32015,7 +32005,7 @@
         <v>936</v>
       </c>
       <c r="AL140" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM140" s="1">
         <v>0</v>
@@ -32152,7 +32142,7 @@
         <v>2103</v>
       </c>
       <c r="AF141" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="AH141" s="1">
         <v>0</v>
@@ -32167,7 +32157,7 @@
         <v>936</v>
       </c>
       <c r="AL141" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM141" s="1">
         <v>0</v>
@@ -32304,7 +32294,7 @@
         <v>2103</v>
       </c>
       <c r="AF142" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="AH142" s="1">
         <v>0</v>
@@ -32319,7 +32309,7 @@
         <v>936</v>
       </c>
       <c r="AL142" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM142" s="1">
         <v>0</v>
@@ -32608,10 +32598,10 @@
         <v>2111</v>
       </c>
       <c r="AF144" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AG144" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="AH144" s="1">
         <v>0</v>
@@ -32620,13 +32610,13 @@
         <v>1</v>
       </c>
       <c r="AJ144" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="AK144" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="AL144" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM144" s="1">
         <v>0</v>
@@ -32751,16 +32741,16 @@
         <v>1</v>
       </c>
       <c r="AD145" s="2" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="AE145" s="1" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="AF145" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AG145" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="AH145" s="1">
         <v>0</v>
@@ -32930,7 +32920,7 @@
         <v>911</v>
       </c>
       <c r="AL146" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM146" s="1">
         <v>0</v>
@@ -33079,10 +33069,10 @@
         <v>1528</v>
       </c>
       <c r="AK147" s="2" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="AL147" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="AM147" s="1">
         <v>0</v>
@@ -33219,7 +33209,7 @@
         <v>2092</v>
       </c>
       <c r="AF148" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="AH148" s="1">
         <v>0</v>
@@ -33371,7 +33361,7 @@
         <v>2112</v>
       </c>
       <c r="AF149" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="AH149" s="1">
         <v>0</v>
@@ -33383,10 +33373,10 @@
         <v>2058</v>
       </c>
       <c r="AK149" s="2" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="AL149" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="AM149" s="1">
         <v>0</v>
@@ -33529,13 +33519,13 @@
         <v>1</v>
       </c>
       <c r="AJ150" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="AK150" s="2" t="s">
+        <v>2682</v>
+      </c>
+      <c r="AL150" s="1" t="s">
         <v>2683</v>
-      </c>
-      <c r="AL150" s="1" t="s">
-        <v>2684</v>
       </c>
       <c r="AM150" s="1">
         <v>0</v>
@@ -33967,13 +33957,13 @@
         <v>1</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="AE153" s="1" t="s">
         <v>2109</v>
       </c>
       <c r="AF153" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="AH153" s="1">
         <v>0</v>
@@ -33982,13 +33972,13 @@
         <v>1</v>
       </c>
       <c r="AJ153" s="2" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="AK153" s="2" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="AL153" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="AM153" s="1">
         <v>0</v>
@@ -34140,7 +34130,7 @@
         <v>2149</v>
       </c>
       <c r="AL154" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM154" s="1">
         <v>0</v>
@@ -34408,13 +34398,13 @@
         <v>1589</v>
       </c>
       <c r="AE156" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="AF156" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AG156" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="AH156" s="1">
         <v>0</v>
@@ -34426,10 +34416,10 @@
         <v>1590</v>
       </c>
       <c r="AK156" s="2" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="AL156" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="AM156" s="1">
         <v>0</v>
@@ -34572,13 +34562,13 @@
         <v>1</v>
       </c>
       <c r="AJ157" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="AK157" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="AL157" s="1" t="s">
         <v>2685</v>
-      </c>
-      <c r="AK157" s="2" t="s">
-        <v>2685</v>
-      </c>
-      <c r="AL157" s="1" t="s">
-        <v>2686</v>
       </c>
       <c r="AM157" s="1">
         <v>0</v>
@@ -34712,10 +34702,10 @@
         <v>1603</v>
       </c>
       <c r="AE158" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="AF158" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="AH158" s="1">
         <v>0</v>
@@ -34882,7 +34872,7 @@
         <v>2150</v>
       </c>
       <c r="AL159" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="AM159" s="1">
         <v>0</v>
@@ -35013,7 +35003,7 @@
         <v>1676</v>
       </c>
       <c r="AF160" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="AH160" s="1">
         <v>0</v>
@@ -35171,7 +35161,7 @@
         <v>2123</v>
       </c>
       <c r="AL161" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM161" s="1">
         <v>0</v>
@@ -35323,7 +35313,7 @@
         <v>2151</v>
       </c>
       <c r="AL162" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="AM162" s="1">
         <v>0</v>
@@ -35475,7 +35465,7 @@
         <v>919</v>
       </c>
       <c r="AL163" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="AM163" s="1">
         <v>0</v>
@@ -35767,7 +35757,7 @@
         <v>936</v>
       </c>
       <c r="AL165" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM165" s="1">
         <v>0</v>
@@ -35919,7 +35909,7 @@
         <v>2119</v>
       </c>
       <c r="AL166" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM166" s="1">
         <v>0</v>
@@ -36047,13 +36037,13 @@
         <v>1</v>
       </c>
       <c r="AD167" s="2" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="AE167" s="1" t="s">
         <v>2104</v>
       </c>
       <c r="AF167" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="AH167" s="1">
         <v>0</v>
@@ -36068,7 +36058,7 @@
         <v>2119</v>
       </c>
       <c r="AL167" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM167" s="1">
         <v>0</v>
@@ -36205,7 +36195,7 @@
         <v>1676</v>
       </c>
       <c r="AF168" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="AH168" s="1">
         <v>1</v>
@@ -36500,7 +36490,7 @@
         <v>2123</v>
       </c>
       <c r="AL170" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM170" s="1">
         <v>0</v>
@@ -36637,10 +36627,10 @@
         <v>2113</v>
       </c>
       <c r="AF171" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="AG171" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="AH171" s="1">
         <v>0</v>
@@ -36652,10 +36642,10 @@
         <v>1698</v>
       </c>
       <c r="AK171" s="2" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="AL171" s="1" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="AM171" s="1">
         <v>0</v>
@@ -36795,7 +36785,7 @@
         <v>936</v>
       </c>
       <c r="AL172" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM172" s="1">
         <v>0</v>
@@ -36947,7 +36937,7 @@
         <v>2152</v>
       </c>
       <c r="AL173" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="AM173" s="1">
         <v>0</v>
@@ -37081,7 +37071,7 @@
         <v>2107</v>
       </c>
       <c r="AF174" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="AH174" s="1">
         <v>1</v>
@@ -37248,7 +37238,7 @@
         <v>2119</v>
       </c>
       <c r="AL175" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM175" s="1">
         <v>0</v>
@@ -37379,16 +37369,16 @@
         <v>1</v>
       </c>
       <c r="AD176" s="2" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="AE176" s="1" t="s">
         <v>2111</v>
       </c>
       <c r="AF176" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AG176" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="AH176" s="1">
         <v>0</v>
@@ -37558,7 +37548,7 @@
         <v>2125</v>
       </c>
       <c r="AL177" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM177" s="1">
         <v>0</v>
@@ -37701,7 +37691,7 @@
         <v>936</v>
       </c>
       <c r="AL178" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM178" s="1">
         <v>0</v>
@@ -37847,13 +37837,13 @@
         <v>1</v>
       </c>
       <c r="AJ179" s="2" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="AK179" s="2" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="AL179" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="AM179" s="1">
         <v>0</v>
@@ -38130,7 +38120,7 @@
         <v>2114</v>
       </c>
       <c r="AF181" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="AH181" s="1">
         <v>0</v>
@@ -38288,13 +38278,13 @@
         <v>1</v>
       </c>
       <c r="AJ182" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="AK182" s="2" t="s">
         <v>2125</v>
       </c>
       <c r="AL182" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM182" s="1">
         <v>0</v>
@@ -38428,13 +38418,13 @@
         <v>1782</v>
       </c>
       <c r="AE183" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="AF183" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="AG183" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="AH183" s="1">
         <v>0</v>
@@ -38449,7 +38439,7 @@
         <v>2154</v>
       </c>
       <c r="AL183" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="AM183" s="1">
         <v>0</v>
@@ -38598,10 +38588,10 @@
         <v>1789</v>
       </c>
       <c r="AK184" s="2" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="AL184" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AM184" s="1">
         <v>0</v>
@@ -38738,7 +38728,7 @@
         <v>2104</v>
       </c>
       <c r="AF185" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="AH185" s="1">
         <v>0</v>
@@ -38753,7 +38743,7 @@
         <v>2155</v>
       </c>
       <c r="AL185" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="AM185" s="1">
         <v>1</v>
@@ -38893,10 +38883,10 @@
         <v>1810</v>
       </c>
       <c r="AF186" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AG186" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="AH186" s="1">
         <v>0</v>
@@ -38911,7 +38901,7 @@
         <v>2125</v>
       </c>
       <c r="AL186" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM186" s="1">
         <v>0</v>
@@ -39057,13 +39047,13 @@
         <v>1</v>
       </c>
       <c r="AJ187" s="2" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="AK187" s="2" t="s">
         <v>2137</v>
       </c>
       <c r="AL187" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AM187" s="1">
         <v>0</v>
@@ -39119,9 +39109,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE148" sqref="AE148"/>
+      <selection pane="topRight" activeCell="AG98" sqref="AG98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39348,7 +39338,7 @@
         <v>2521</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="AE2" s="1">
         <v>3</v>
@@ -39357,7 +39347,7 @@
         <v>2498</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>39</v>
@@ -39454,7 +39444,7 @@
         <v>2499</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1" t="s">
@@ -39556,7 +39546,7 @@
         <v>2543</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="AE4" s="1">
         <v>5</v>
@@ -39565,7 +39555,7 @@
         <v>2544</v>
       </c>
       <c r="AG4" s="10" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>39</v>
@@ -39762,7 +39752,7 @@
         <v>2538</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="AE6" s="1">
         <v>5</v>
@@ -39771,7 +39761,7 @@
         <v>2538</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>39</v>
@@ -39870,7 +39860,7 @@
         <v>2500</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="AE7" s="1">
         <v>0</v>
@@ -39879,7 +39869,7 @@
         <v>2501</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>39</v>
@@ -40078,7 +40068,7 @@
         <v>2502</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="AE9" s="1">
         <v>5</v>
@@ -40087,7 +40077,7 @@
         <v>638</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="AH9" s="1" t="s">
         <v>39</v>
@@ -40180,7 +40170,7 @@
         <v>641</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="AE10" s="1">
         <v>3</v>
@@ -40189,7 +40179,7 @@
         <v>642</v>
       </c>
       <c r="AG10" s="10" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="AH10" s="1" t="s">
         <v>39</v>
@@ -40490,7 +40480,7 @@
         <v>2524</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="AE13" s="1">
         <v>3</v>
@@ -40499,7 +40489,7 @@
         <v>2525</v>
       </c>
       <c r="AG13" s="10" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>39</v>
@@ -40803,19 +40793,19 @@
         <v>5</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="AE16" s="1">
         <v>3</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="AH16" s="1" t="s">
         <v>39</v>
@@ -40914,7 +40904,7 @@
         <v>2407</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="AE17" s="1">
         <v>4</v>
@@ -40923,7 +40913,7 @@
         <v>2408</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="AH17" s="1" t="s">
         <v>39</v>
@@ -41024,7 +41014,7 @@
         <v>2409</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="AE18" s="1">
         <v>3</v>
@@ -41033,7 +41023,7 @@
         <v>2410</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="AH18" s="1" t="s">
         <v>39</v>
@@ -41542,7 +41532,7 @@
         <v>2413</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="AE23" s="1">
         <v>2</v>
@@ -41551,7 +41541,7 @@
         <v>2413</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="AH23" s="1" t="s">
         <v>39</v>
@@ -41752,7 +41742,7 @@
         <v>695</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="AE25" s="1">
         <v>5</v>
@@ -41761,7 +41751,7 @@
         <v>2414</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="AH25" s="1" t="s">
         <v>39</v>
@@ -42060,7 +42050,7 @@
         <v>2415</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="AE28" s="1">
         <v>5</v>
@@ -42069,7 +42059,7 @@
         <v>2416</v>
       </c>
       <c r="AG28" s="10" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="AH28" s="1" t="s">
         <v>39</v>
@@ -42168,7 +42158,7 @@
         <v>2417</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="AE29" s="1">
         <v>5</v>
@@ -42177,7 +42167,7 @@
         <v>2418</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>2755</v>
+        <v>2795</v>
       </c>
       <c r="AH29" s="1" t="s">
         <v>39</v>
@@ -42272,7 +42262,7 @@
         <v>709</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="AE30" s="1" t="s">
         <v>39</v>
@@ -42479,19 +42469,19 @@
         <v>5</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="AE32" s="1">
         <v>5</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="AH32" s="1" t="s">
         <v>39</v>
@@ -42692,7 +42682,7 @@
         <v>2419</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="AE34" s="1">
         <v>3</v>
@@ -42701,7 +42691,7 @@
         <v>2420</v>
       </c>
       <c r="AG34" s="10" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="AH34" s="1" t="s">
         <v>39</v>
@@ -42796,7 +42786,7 @@
         <v>2421</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="AE35" s="1">
         <v>3</v>
@@ -42805,7 +42795,7 @@
         <v>2422</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="AH35" s="1" t="s">
         <v>39</v>
@@ -43306,7 +43296,7 @@
         <v>2425</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="AE40" s="1">
         <v>5</v>
@@ -43315,7 +43305,7 @@
         <v>2426</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="AH40" s="1" t="s">
         <v>39</v>
@@ -43410,7 +43400,7 @@
         <v>735</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="AE41" s="1">
         <v>4</v>
@@ -43419,7 +43409,7 @@
         <v>735</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="AH41" s="1" t="s">
         <v>39</v>
@@ -43620,7 +43610,7 @@
         <v>741</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="AE43" s="1">
         <v>2</v>
@@ -43629,7 +43619,7 @@
         <v>2427</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="AH43" s="1" t="s">
         <v>39</v>
@@ -43726,7 +43716,7 @@
         <v>2428</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="AE44" s="1">
         <v>2</v>
@@ -43735,7 +43725,7 @@
         <v>2429</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="AH44" s="1" t="s">
         <v>39</v>
@@ -44454,7 +44444,7 @@
         <v>2539</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="AE51" s="1" t="s">
         <v>39</v>
@@ -44556,7 +44546,7 @@
         <v>2436</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="AE52" s="1">
         <v>5</v>
@@ -44565,7 +44555,7 @@
         <v>768</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="AH52" s="1" t="s">
         <v>39</v>
@@ -44666,7 +44656,7 @@
         <v>2437</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="AE53" s="1" t="s">
         <v>39</v>
@@ -44768,7 +44758,7 @@
         <v>773</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="AE54" s="1">
         <v>4</v>
@@ -44777,7 +44767,7 @@
         <v>774</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="AH54" s="1" t="s">
         <v>39</v>
@@ -44870,7 +44860,7 @@
         <v>2438</v>
       </c>
       <c r="AD55" s="2" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="AE55" s="1" t="s">
         <v>39</v>
@@ -45076,7 +45066,7 @@
         <v>2506</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="AE57" s="1" t="s">
         <v>219</v>
@@ -45085,7 +45075,7 @@
         <v>2368</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1" t="s">
@@ -45176,7 +45166,7 @@
         <v>2369</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="AE58" s="1">
         <v>5</v>
@@ -45185,7 +45175,7 @@
         <v>2369</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="AH58" s="1" t="s">
         <v>39</v>
@@ -45391,19 +45381,19 @@
         <v>5</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="AD60" s="2" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="AE60" s="1">
         <v>5</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="AG60" s="2" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1" t="s">
@@ -45497,19 +45487,19 @@
         <v>5</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="AE61" s="1">
         <v>5</v>
       </c>
       <c r="AF61" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="AG61" s="2" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1" t="s">
@@ -45603,19 +45593,19 @@
         <v>5</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="AE62" s="1">
         <v>5</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="AG62" s="2" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1" t="s">
@@ -45709,19 +45699,19 @@
         <v>5</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="AE63" s="1">
         <v>5</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="AG63" s="2" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1" t="s">
@@ -46524,7 +46514,7 @@
         <v>2371</v>
       </c>
       <c r="AD71" s="2" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="AE71" s="1">
         <v>3</v>
@@ -46533,7 +46523,7 @@
         <v>2371</v>
       </c>
       <c r="AG71" s="10" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="AH71" s="1" t="s">
         <v>39</v>
@@ -47036,7 +47026,7 @@
         <v>2027</v>
       </c>
       <c r="AD76" s="2" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="AE76" s="1">
         <v>5</v>
@@ -47045,7 +47035,7 @@
         <v>2028</v>
       </c>
       <c r="AG76" s="2" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1" t="s">
@@ -47243,7 +47233,7 @@
         <v>2440</v>
       </c>
       <c r="AG78" s="10" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1" t="s">
@@ -47746,7 +47736,7 @@
         <v>2375</v>
       </c>
       <c r="AD83" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AE83" s="1">
         <v>5</v>
@@ -48046,7 +48036,7 @@
         <v>2522</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="AE86" s="1">
         <v>3</v>
@@ -48055,7 +48045,7 @@
         <v>2523</v>
       </c>
       <c r="AG86" s="2" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="AH86" s="1"/>
       <c r="AI86" s="1" t="s">
@@ -48150,7 +48140,7 @@
         <v>2376</v>
       </c>
       <c r="AD87" s="2" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="AE87" s="1">
         <v>3</v>
@@ -48159,7 +48149,7 @@
         <v>2442</v>
       </c>
       <c r="AG87" s="10" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="AH87" s="1"/>
       <c r="AI87" s="1" t="s">
@@ -48267,7 +48257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="120" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>325</v>
       </c>
@@ -48356,7 +48346,7 @@
         <v>2444</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="AE89" s="1">
         <v>5</v>
@@ -48365,7 +48355,7 @@
         <v>2445</v>
       </c>
       <c r="AG89" s="2" t="s">
-        <v>2769</v>
+        <v>2790</v>
       </c>
       <c r="AH89" s="1"/>
       <c r="AI89" s="1" t="s">
@@ -48462,7 +48452,7 @@
         <v>2446</v>
       </c>
       <c r="AD90" s="2" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="AE90" s="1">
         <v>5</v>
@@ -48471,7 +48461,7 @@
         <v>2446</v>
       </c>
       <c r="AG90" s="2" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="AH90" s="1"/>
       <c r="AI90" s="1" t="s">
@@ -48564,7 +48554,7 @@
         <v>2447</v>
       </c>
       <c r="AD91" s="2" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="AE91" s="1">
         <v>3</v>
@@ -48573,7 +48563,7 @@
         <v>2399</v>
       </c>
       <c r="AG91" s="2" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="AH91" s="1"/>
       <c r="AI91" s="1" t="s">
@@ -49076,7 +49066,7 @@
         <v>2450</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="AE96" s="1">
         <v>5</v>
@@ -49085,7 +49075,7 @@
         <v>2451</v>
       </c>
       <c r="AG96" s="2" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1" t="s">
@@ -49588,7 +49578,7 @@
         <v>2454</v>
       </c>
       <c r="AD101" s="2" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="AE101" s="1">
         <v>3</v>
@@ -49597,7 +49587,7 @@
         <v>2455</v>
       </c>
       <c r="AG101" s="2" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="AH101" s="1"/>
       <c r="AI101" s="1" t="s">
@@ -50023,7 +50013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>600</v>
       </c>
@@ -50113,7 +50103,7 @@
         <v>2457</v>
       </c>
       <c r="AG106" s="2" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="AH106" s="1"/>
       <c r="AI106" s="1" t="s">
@@ -50212,7 +50202,7 @@
         <v>2458</v>
       </c>
       <c r="AD107" s="2" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="AE107" s="1">
         <v>5</v>
@@ -50221,7 +50211,7 @@
         <v>2459</v>
       </c>
       <c r="AG107" s="2" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="AH107" s="1"/>
       <c r="AI107" s="1" t="s">
@@ -50818,7 +50808,7 @@
         <v>2545</v>
       </c>
       <c r="AD113" s="2" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="AE113" s="1">
         <v>2</v>
@@ -50827,7 +50817,7 @@
         <v>2546</v>
       </c>
       <c r="AG113" s="2" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="AH113" s="1"/>
       <c r="AI113" s="1" t="s">
@@ -50920,7 +50910,7 @@
         <v>2465</v>
       </c>
       <c r="AD114" s="2" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="AE114" s="1">
         <v>5</v>
@@ -50929,7 +50919,7 @@
         <v>2465</v>
       </c>
       <c r="AG114" s="2" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="AH114" s="1"/>
       <c r="AI114" s="1" t="s">
@@ -51021,7 +51011,7 @@
         <v>5</v>
       </c>
       <c r="AC115" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="AD115" s="2" t="s">
         <v>2551</v>
@@ -51030,7 +51020,7 @@
         <v>5</v>
       </c>
       <c r="AF115" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="AG115" s="2" t="s">
         <v>2551</v>
@@ -51238,7 +51228,7 @@
         <v>2381</v>
       </c>
       <c r="AD117" s="2" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="AE117" s="1">
         <v>5</v>
@@ -51247,7 +51237,7 @@
         <v>2381</v>
       </c>
       <c r="AG117" s="2" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="AH117" s="1" t="s">
         <v>39</v>
@@ -51762,16 +51752,16 @@
         <v>2468</v>
       </c>
       <c r="AD122" s="2" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="AE122" s="1">
         <v>5</v>
       </c>
       <c r="AF122" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="AG122" s="2" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="AH122" s="1" t="s">
         <v>39</v>
@@ -51870,7 +51860,7 @@
         <v>2469</v>
       </c>
       <c r="AD123" s="2" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="AE123" s="1">
         <v>5</v>
@@ -51879,7 +51869,7 @@
         <v>2469</v>
       </c>
       <c r="AG123" s="2" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="AH123" s="1" t="s">
         <v>39</v>
@@ -52266,7 +52256,7 @@
         <v>2382</v>
       </c>
       <c r="AD127" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="AE127" s="1">
         <v>4</v>
@@ -52275,7 +52265,7 @@
         <v>2382</v>
       </c>
       <c r="AG127" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="AH127" s="1" t="s">
         <v>39</v>
@@ -52482,7 +52472,7 @@
         <v>2384</v>
       </c>
       <c r="AD129" s="2" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="AE129" s="1">
         <v>5</v>
@@ -52491,7 +52481,7 @@
         <v>2400</v>
       </c>
       <c r="AG129" s="2" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="AH129" s="1" t="s">
         <v>39</v>
@@ -52584,7 +52574,7 @@
         <v>2385</v>
       </c>
       <c r="AD130" s="2" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="AE130" s="1">
         <v>5</v>
@@ -52593,7 +52583,7 @@
         <v>2401</v>
       </c>
       <c r="AG130" s="2" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="AH130" s="1" t="s">
         <v>39</v>
@@ -52694,7 +52684,7 @@
         <v>2470</v>
       </c>
       <c r="AD131" s="2" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AE131" s="1">
         <v>5</v>
@@ -52703,7 +52693,7 @@
         <v>2471</v>
       </c>
       <c r="AG131" s="2" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AH131" s="1" t="s">
         <v>39</v>
@@ -52804,7 +52794,7 @@
         <v>2472</v>
       </c>
       <c r="AD132" s="2" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AE132" s="1">
         <v>5</v>
@@ -52813,7 +52803,7 @@
         <v>2473</v>
       </c>
       <c r="AG132" s="2" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AH132" s="1" t="s">
         <v>39</v>
@@ -52912,7 +52902,7 @@
         <v>2474</v>
       </c>
       <c r="AD133" s="2" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AE133" s="1">
         <v>5</v>
@@ -52921,7 +52911,7 @@
         <v>2475</v>
       </c>
       <c r="AG133" s="2" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AH133" s="1" t="s">
         <v>39</v>
@@ -53020,7 +53010,7 @@
         <v>2386</v>
       </c>
       <c r="AD134" s="2" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="AE134" s="1">
         <v>0</v>
@@ -53029,7 +53019,7 @@
         <v>2402</v>
       </c>
       <c r="AG134" s="2" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="AH134" s="1" t="s">
         <v>39</v>
@@ -53126,16 +53116,16 @@
         <v>2526</v>
       </c>
       <c r="AD135" s="2" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="AE135" s="1">
         <v>3</v>
       </c>
       <c r="AF135" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="AG135" s="2" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="AH135" s="1" t="s">
         <v>39</v>
@@ -53440,7 +53430,7 @@
         <v>2477</v>
       </c>
       <c r="AD138" s="2" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="AE138" s="1">
         <v>3</v>
@@ -53449,7 +53439,7 @@
         <v>2478</v>
       </c>
       <c r="AG138" s="2" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="AH138" s="1" t="s">
         <v>39</v>
@@ -53548,7 +53538,7 @@
         <v>2479</v>
       </c>
       <c r="AD139" s="2" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="AE139" s="1">
         <v>5</v>
@@ -53557,7 +53547,7 @@
         <v>2480</v>
       </c>
       <c r="AG139" s="2" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="AH139" s="1" t="s">
         <v>39</v>
@@ -53856,7 +53846,7 @@
         <v>2535</v>
       </c>
       <c r="AD142" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="AE142" s="1">
         <v>5</v>
@@ -53865,7 +53855,7 @@
         <v>2536</v>
       </c>
       <c r="AG142" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="AH142" s="1" t="s">
         <v>39</v>
@@ -53958,7 +53948,7 @@
         <v>2527</v>
       </c>
       <c r="AD143" s="2" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="AE143" s="1">
         <v>3</v>
@@ -53967,7 +53957,7 @@
         <v>2528</v>
       </c>
       <c r="AG143" s="2" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="AH143" s="1" t="s">
         <v>39</v>
@@ -54686,7 +54676,7 @@
         <v>2529</v>
       </c>
       <c r="AD150" s="2" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="AE150" s="1">
         <v>3</v>
@@ -54695,7 +54685,7 @@
         <v>2530</v>
       </c>
       <c r="AG150" s="2" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="AH150" s="1" t="s">
         <v>39</v>
@@ -54788,7 +54778,7 @@
         <v>2481</v>
       </c>
       <c r="AD151" s="2" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="AE151" s="1">
         <v>5</v>
@@ -54797,7 +54787,7 @@
         <v>2482</v>
       </c>
       <c r="AG151" s="2" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="AH151" s="1" t="s">
         <v>39</v>
@@ -54896,7 +54886,7 @@
         <v>2390</v>
       </c>
       <c r="AD152" s="2" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="AE152" s="1">
         <v>5</v>
@@ -54905,7 +54895,7 @@
         <v>2403</v>
       </c>
       <c r="AG152" s="2" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="AH152" s="1" t="s">
         <v>39</v>
@@ -55002,7 +54992,7 @@
         <v>2483</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="AE153" s="1">
         <v>3</v>
@@ -55011,7 +55001,7 @@
         <v>2484</v>
       </c>
       <c r="AG153" s="2" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="AH153" s="1" t="s">
         <v>39</v>
@@ -55214,7 +55204,7 @@
         <v>2537</v>
       </c>
       <c r="AD155" s="2" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="AE155" s="1">
         <v>3</v>
@@ -55223,7 +55213,7 @@
         <v>2485</v>
       </c>
       <c r="AG155" s="2" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="AH155" s="1" t="s">
         <v>39</v>
@@ -55422,7 +55412,7 @@
         <v>2503</v>
       </c>
       <c r="AD157" s="2" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="AE157" s="1">
         <v>3</v>
@@ -55431,7 +55421,7 @@
         <v>2488</v>
       </c>
       <c r="AG157" s="2" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="AH157" s="1" t="s">
         <v>39</v>
@@ -55532,7 +55522,7 @@
         <v>1936</v>
       </c>
       <c r="AD158" s="2" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="AE158" s="1">
         <v>5</v>
@@ -55541,7 +55531,7 @@
         <v>2489</v>
       </c>
       <c r="AG158" s="2" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="AH158" s="1" t="s">
         <v>39</v>
@@ -55614,7 +55604,7 @@
         <v>2547</v>
       </c>
       <c r="AD159" s="2" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="AE159" s="1">
         <v>5</v>
@@ -55623,7 +55613,7 @@
         <v>2548</v>
       </c>
       <c r="AG159" s="2" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="AH159" s="1"/>
       <c r="AI159" s="1"/>
@@ -56036,7 +56026,7 @@
         <v>2493</v>
       </c>
       <c r="AD163" s="2" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="AE163" s="1">
         <v>3</v>
@@ -56045,7 +56035,7 @@
         <v>2494</v>
       </c>
       <c r="AG163" s="2" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="AH163" s="1" t="s">
         <v>39</v>
@@ -56670,7 +56660,7 @@
         <v>2532</v>
       </c>
       <c r="AD169" s="2" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="AE169" s="1">
         <v>3</v>
@@ -56679,7 +56669,7 @@
         <v>2533</v>
       </c>
       <c r="AG169" s="2" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="AH169" s="1" t="s">
         <v>39</v>
@@ -56778,7 +56768,7 @@
         <v>2496</v>
       </c>
       <c r="AD170" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="AE170" s="1">
         <v>5</v>
@@ -56787,7 +56777,7 @@
         <v>2497</v>
       </c>
       <c r="AG170" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="AH170" s="1" t="s">
         <v>39</v>
@@ -56884,7 +56874,7 @@
         <v>2504</v>
       </c>
       <c r="AD171" s="2" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="AE171" s="1">
         <v>2</v>
@@ -56893,7 +56883,7 @@
         <v>2505</v>
       </c>
       <c r="AG171" s="2" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="AH171" s="1" t="s">
         <v>39</v>
@@ -57269,7 +57259,7 @@
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57294,17 +57284,17 @@
     </row>
     <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57314,7 +57304,7 @@
     </row>
     <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC10C1F-0429-4218-85BD-D55C27E85289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E184943-7DD8-4BF6-B5CD-9CEF44375E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="1770" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8772,12 +8772,6 @@
     <t>defense of ubiquity; compliance intention; metaphor of the ledger; normative beliefs; perceived cost of non-compliance; response efficacy</t>
   </si>
   <si>
-    <t>perceived vulnerability; fear of threat; perceived severity; perceived password effectiveness; perceived cost; compliance intention; password compliance</t>
-  </si>
-  <si>
-    <t>exposure to hacking; perceived vulnerability; fear of threat; perceived severity; perceived password effectiveness; perceived cost; compliance intention; password compliance</t>
-  </si>
-  <si>
     <t>technology compliance; technology compliance intention; normative beliefs; perceived usefulness of technology; perceived ease of use; perceived justice of punishment; perceived fairness of reward; perceived enhancement of organizational mission achievement; perceived enhancement of personal mission achievement; satisfaction with technology; satisfaction with management interventions of technology compliance; satisfaction with technology compliance supporting higher objectives</t>
   </si>
   <si>
@@ -8959,6 +8953,12 @@
   </si>
   <si>
     <t>perceived susceptibility; perceived severity; perceived benefits; perceived barriers; cues to action; perceived working experience; compliance behavior</t>
+  </si>
+  <si>
+    <t>perceived vulnerability; fear of threat; perceived severity; perceived password effectiveness; perceived cost; compliance intention; password compliance behavior</t>
+  </si>
+  <si>
+    <t>exposure to hacking; perceived vulnerability; fear of threat; perceived severity; perceived password effectiveness; perceived cost; compliance intention; password compliance behavior</t>
   </si>
 </sst>
 </file>
@@ -39109,9 +39109,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG98" sqref="AG98"/>
+      <selection pane="topRight" activeCell="AE158" sqref="AE158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39338,7 +39338,7 @@
         <v>2521</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="AE2" s="1">
         <v>3</v>
@@ -39347,7 +39347,7 @@
         <v>2498</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>39</v>
@@ -39444,7 +39444,7 @@
         <v>2499</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1" t="s">
@@ -39546,7 +39546,7 @@
         <v>2543</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="AE4" s="1">
         <v>5</v>
@@ -39555,7 +39555,7 @@
         <v>2544</v>
       </c>
       <c r="AG4" s="10" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>39</v>
@@ -39860,7 +39860,7 @@
         <v>2500</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="AE7" s="1">
         <v>0</v>
@@ -39869,7 +39869,7 @@
         <v>2501</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>39</v>
@@ -40068,7 +40068,7 @@
         <v>2502</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="AE9" s="1">
         <v>5</v>
@@ -40077,7 +40077,7 @@
         <v>638</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="AH9" s="1" t="s">
         <v>39</v>
@@ -40170,7 +40170,7 @@
         <v>641</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="AE10" s="1">
         <v>3</v>
@@ -40179,7 +40179,7 @@
         <v>642</v>
       </c>
       <c r="AG10" s="10" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="AH10" s="1" t="s">
         <v>39</v>
@@ -40480,7 +40480,7 @@
         <v>2524</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="AE13" s="1">
         <v>3</v>
@@ -40489,7 +40489,7 @@
         <v>2525</v>
       </c>
       <c r="AG13" s="10" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>39</v>
@@ -40796,7 +40796,7 @@
         <v>2566</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="AE16" s="1">
         <v>3</v>
@@ -40805,7 +40805,7 @@
         <v>2567</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="AH16" s="1" t="s">
         <v>39</v>
@@ -41014,7 +41014,7 @@
         <v>2409</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="AE18" s="1">
         <v>3</v>
@@ -41023,7 +41023,7 @@
         <v>2410</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="AH18" s="1" t="s">
         <v>39</v>
@@ -41532,7 +41532,7 @@
         <v>2413</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="AE23" s="1">
         <v>2</v>
@@ -41541,7 +41541,7 @@
         <v>2413</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="AH23" s="1" t="s">
         <v>39</v>
@@ -41742,7 +41742,7 @@
         <v>695</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="AE25" s="1">
         <v>5</v>
@@ -41751,7 +41751,7 @@
         <v>2414</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="AH25" s="1" t="s">
         <v>39</v>
@@ -42158,7 +42158,7 @@
         <v>2417</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="AE29" s="1">
         <v>5</v>
@@ -42167,7 +42167,7 @@
         <v>2418</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="AH29" s="1" t="s">
         <v>39</v>
@@ -42472,7 +42472,7 @@
         <v>2561</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="AE32" s="1">
         <v>5</v>
@@ -42481,7 +42481,7 @@
         <v>2562</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="AH32" s="1" t="s">
         <v>39</v>
@@ -42682,7 +42682,7 @@
         <v>2419</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="AE34" s="1">
         <v>3</v>
@@ -42691,7 +42691,7 @@
         <v>2420</v>
       </c>
       <c r="AG34" s="10" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="AH34" s="1" t="s">
         <v>39</v>
@@ -42786,7 +42786,7 @@
         <v>2421</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="AE35" s="1">
         <v>3</v>
@@ -42795,7 +42795,7 @@
         <v>2422</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="AH35" s="1" t="s">
         <v>39</v>
@@ -43296,7 +43296,7 @@
         <v>2425</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="AE40" s="1">
         <v>5</v>
@@ -43305,7 +43305,7 @@
         <v>2426</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="AH40" s="1" t="s">
         <v>39</v>
@@ -43400,7 +43400,7 @@
         <v>735</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="AE41" s="1">
         <v>4</v>
@@ -43409,7 +43409,7 @@
         <v>735</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="AH41" s="1" t="s">
         <v>39</v>
@@ -43610,7 +43610,7 @@
         <v>741</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="AE43" s="1">
         <v>2</v>
@@ -43619,7 +43619,7 @@
         <v>2427</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="AH43" s="1" t="s">
         <v>39</v>
@@ -43716,7 +43716,7 @@
         <v>2428</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="AE44" s="1">
         <v>2</v>
@@ -43725,7 +43725,7 @@
         <v>2429</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="AH44" s="1" t="s">
         <v>39</v>
@@ -44546,7 +44546,7 @@
         <v>2436</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="AE52" s="1">
         <v>5</v>
@@ -44555,7 +44555,7 @@
         <v>768</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="AH52" s="1" t="s">
         <v>39</v>
@@ -44656,7 +44656,7 @@
         <v>2437</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="AE53" s="1" t="s">
         <v>39</v>
@@ -44758,7 +44758,7 @@
         <v>773</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="AE54" s="1">
         <v>4</v>
@@ -44767,7 +44767,7 @@
         <v>774</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="AH54" s="1" t="s">
         <v>39</v>
@@ -44860,7 +44860,7 @@
         <v>2438</v>
       </c>
       <c r="AD55" s="2" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="AE55" s="1" t="s">
         <v>39</v>
@@ -45066,7 +45066,7 @@
         <v>2506</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="AE57" s="1" t="s">
         <v>219</v>
@@ -45075,7 +45075,7 @@
         <v>2368</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1" t="s">
@@ -45166,7 +45166,7 @@
         <v>2369</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="AE58" s="1">
         <v>5</v>
@@ -45175,7 +45175,7 @@
         <v>2369</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="AH58" s="1" t="s">
         <v>39</v>
@@ -45384,7 +45384,7 @@
         <v>2555</v>
       </c>
       <c r="AD60" s="2" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="AE60" s="1">
         <v>5</v>
@@ -45393,7 +45393,7 @@
         <v>2556</v>
       </c>
       <c r="AG60" s="2" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1" t="s">
@@ -45490,7 +45490,7 @@
         <v>2555</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="AE61" s="1">
         <v>5</v>
@@ -45499,7 +45499,7 @@
         <v>2557</v>
       </c>
       <c r="AG61" s="2" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1" t="s">
@@ -45596,7 +45596,7 @@
         <v>2555</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="AE62" s="1">
         <v>5</v>
@@ -45605,7 +45605,7 @@
         <v>2558</v>
       </c>
       <c r="AG62" s="2" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1" t="s">
@@ -45702,7 +45702,7 @@
         <v>2555</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="AE63" s="1">
         <v>5</v>
@@ -45711,7 +45711,7 @@
         <v>2559</v>
       </c>
       <c r="AG63" s="2" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1" t="s">
@@ -47026,7 +47026,7 @@
         <v>2027</v>
       </c>
       <c r="AD76" s="2" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="AE76" s="1">
         <v>5</v>
@@ -47035,7 +47035,7 @@
         <v>2028</v>
       </c>
       <c r="AG76" s="2" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1" t="s">
@@ -47233,7 +47233,7 @@
         <v>2440</v>
       </c>
       <c r="AG78" s="10" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1" t="s">
@@ -48036,7 +48036,7 @@
         <v>2522</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="AE86" s="1">
         <v>3</v>
@@ -48045,7 +48045,7 @@
         <v>2523</v>
       </c>
       <c r="AG86" s="2" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="AH86" s="1"/>
       <c r="AI86" s="1" t="s">
@@ -48140,7 +48140,7 @@
         <v>2376</v>
       </c>
       <c r="AD87" s="2" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="AE87" s="1">
         <v>3</v>
@@ -48149,7 +48149,7 @@
         <v>2442</v>
       </c>
       <c r="AG87" s="10" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="AH87" s="1"/>
       <c r="AI87" s="1" t="s">
@@ -48346,7 +48346,7 @@
         <v>2444</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="AE89" s="1">
         <v>5</v>
@@ -48355,7 +48355,7 @@
         <v>2445</v>
       </c>
       <c r="AG89" s="2" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="AH89" s="1"/>
       <c r="AI89" s="1" t="s">
@@ -48452,7 +48452,7 @@
         <v>2446</v>
       </c>
       <c r="AD90" s="2" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="AE90" s="1">
         <v>5</v>
@@ -48461,7 +48461,7 @@
         <v>2446</v>
       </c>
       <c r="AG90" s="2" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="AH90" s="1"/>
       <c r="AI90" s="1" t="s">
@@ -48554,7 +48554,7 @@
         <v>2447</v>
       </c>
       <c r="AD91" s="2" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="AE91" s="1">
         <v>3</v>
@@ -48563,7 +48563,7 @@
         <v>2399</v>
       </c>
       <c r="AG91" s="2" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="AH91" s="1"/>
       <c r="AI91" s="1" t="s">
@@ -49066,7 +49066,7 @@
         <v>2450</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="AE96" s="1">
         <v>5</v>
@@ -49075,7 +49075,7 @@
         <v>2451</v>
       </c>
       <c r="AG96" s="2" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1" t="s">
@@ -49578,7 +49578,7 @@
         <v>2454</v>
       </c>
       <c r="AD101" s="2" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="AE101" s="1">
         <v>3</v>
@@ -49587,7 +49587,7 @@
         <v>2455</v>
       </c>
       <c r="AG101" s="2" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="AH101" s="1"/>
       <c r="AI101" s="1" t="s">
@@ -50202,7 +50202,7 @@
         <v>2458</v>
       </c>
       <c r="AD107" s="2" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="AE107" s="1">
         <v>5</v>
@@ -50211,7 +50211,7 @@
         <v>2459</v>
       </c>
       <c r="AG107" s="2" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="AH107" s="1"/>
       <c r="AI107" s="1" t="s">
@@ -50808,7 +50808,7 @@
         <v>2545</v>
       </c>
       <c r="AD113" s="2" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="AE113" s="1">
         <v>2</v>
@@ -50817,7 +50817,7 @@
         <v>2546</v>
       </c>
       <c r="AG113" s="2" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="AH113" s="1"/>
       <c r="AI113" s="1" t="s">
@@ -50910,7 +50910,7 @@
         <v>2465</v>
       </c>
       <c r="AD114" s="2" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="AE114" s="1">
         <v>5</v>
@@ -50919,7 +50919,7 @@
         <v>2465</v>
       </c>
       <c r="AG114" s="2" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="AH114" s="1"/>
       <c r="AI114" s="1" t="s">
@@ -51228,7 +51228,7 @@
         <v>2381</v>
       </c>
       <c r="AD117" s="2" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="AE117" s="1">
         <v>5</v>
@@ -51237,7 +51237,7 @@
         <v>2381</v>
       </c>
       <c r="AG117" s="2" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="AH117" s="1" t="s">
         <v>39</v>
@@ -51752,7 +51752,7 @@
         <v>2468</v>
       </c>
       <c r="AD122" s="2" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="AE122" s="1">
         <v>5</v>
@@ -51761,7 +51761,7 @@
         <v>2565</v>
       </c>
       <c r="AG122" s="2" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
       <c r="AH122" s="1" t="s">
         <v>39</v>
@@ -51860,7 +51860,7 @@
         <v>2469</v>
       </c>
       <c r="AD123" s="2" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="AE123" s="1">
         <v>5</v>
@@ -51869,7 +51869,7 @@
         <v>2469</v>
       </c>
       <c r="AG123" s="2" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="AH123" s="1" t="s">
         <v>39</v>
@@ -52472,7 +52472,7 @@
         <v>2384</v>
       </c>
       <c r="AD129" s="2" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="AE129" s="1">
         <v>5</v>
@@ -52481,7 +52481,7 @@
         <v>2400</v>
       </c>
       <c r="AG129" s="2" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="AH129" s="1" t="s">
         <v>39</v>
@@ -52574,7 +52574,7 @@
         <v>2385</v>
       </c>
       <c r="AD130" s="2" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="AE130" s="1">
         <v>5</v>
@@ -52583,7 +52583,7 @@
         <v>2401</v>
       </c>
       <c r="AG130" s="2" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="AH130" s="1" t="s">
         <v>39</v>
@@ -52684,7 +52684,7 @@
         <v>2470</v>
       </c>
       <c r="AD131" s="2" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="AE131" s="1">
         <v>5</v>
@@ -52693,7 +52693,7 @@
         <v>2471</v>
       </c>
       <c r="AG131" s="2" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="AH131" s="1" t="s">
         <v>39</v>
@@ -52794,7 +52794,7 @@
         <v>2472</v>
       </c>
       <c r="AD132" s="2" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="AE132" s="1">
         <v>5</v>
@@ -52803,7 +52803,7 @@
         <v>2473</v>
       </c>
       <c r="AG132" s="2" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="AH132" s="1" t="s">
         <v>39</v>
@@ -52902,7 +52902,7 @@
         <v>2474</v>
       </c>
       <c r="AD133" s="2" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="AE133" s="1">
         <v>5</v>
@@ -52911,7 +52911,7 @@
         <v>2475</v>
       </c>
       <c r="AG133" s="2" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="AH133" s="1" t="s">
         <v>39</v>
@@ -53010,7 +53010,7 @@
         <v>2386</v>
       </c>
       <c r="AD134" s="2" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="AE134" s="1">
         <v>0</v>
@@ -53019,7 +53019,7 @@
         <v>2402</v>
       </c>
       <c r="AG134" s="2" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="AH134" s="1" t="s">
         <v>39</v>
@@ -53116,7 +53116,7 @@
         <v>2526</v>
       </c>
       <c r="AD135" s="2" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="AE135" s="1">
         <v>3</v>
@@ -53125,7 +53125,7 @@
         <v>2560</v>
       </c>
       <c r="AG135" s="2" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="AH135" s="1" t="s">
         <v>39</v>
@@ -53430,7 +53430,7 @@
         <v>2477</v>
       </c>
       <c r="AD138" s="2" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="AE138" s="1">
         <v>3</v>
@@ -53439,7 +53439,7 @@
         <v>2478</v>
       </c>
       <c r="AG138" s="2" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="AH138" s="1" t="s">
         <v>39</v>
@@ -53538,7 +53538,7 @@
         <v>2479</v>
       </c>
       <c r="AD139" s="2" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="AE139" s="1">
         <v>5</v>
@@ -53547,7 +53547,7 @@
         <v>2480</v>
       </c>
       <c r="AG139" s="2" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="AH139" s="1" t="s">
         <v>39</v>
@@ -53948,7 +53948,7 @@
         <v>2527</v>
       </c>
       <c r="AD143" s="2" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="AE143" s="1">
         <v>3</v>
@@ -53957,7 +53957,7 @@
         <v>2528</v>
       </c>
       <c r="AG143" s="2" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="AH143" s="1" t="s">
         <v>39</v>
@@ -54676,7 +54676,7 @@
         <v>2529</v>
       </c>
       <c r="AD150" s="2" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="AE150" s="1">
         <v>3</v>
@@ -54685,7 +54685,7 @@
         <v>2530</v>
       </c>
       <c r="AG150" s="2" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="AH150" s="1" t="s">
         <v>39</v>
@@ -54778,7 +54778,7 @@
         <v>2481</v>
       </c>
       <c r="AD151" s="2" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="AE151" s="1">
         <v>5</v>
@@ -54787,7 +54787,7 @@
         <v>2482</v>
       </c>
       <c r="AG151" s="2" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="AH151" s="1" t="s">
         <v>39</v>
@@ -54886,7 +54886,7 @@
         <v>2390</v>
       </c>
       <c r="AD152" s="2" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="AE152" s="1">
         <v>5</v>
@@ -54895,7 +54895,7 @@
         <v>2403</v>
       </c>
       <c r="AG152" s="2" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="AH152" s="1" t="s">
         <v>39</v>
@@ -54992,7 +54992,7 @@
         <v>2483</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="AE153" s="1">
         <v>3</v>
@@ -55001,7 +55001,7 @@
         <v>2484</v>
       </c>
       <c r="AG153" s="2" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="AH153" s="1" t="s">
         <v>39</v>
@@ -55204,7 +55204,7 @@
         <v>2537</v>
       </c>
       <c r="AD155" s="2" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="AE155" s="1">
         <v>3</v>
@@ -55213,7 +55213,7 @@
         <v>2485</v>
       </c>
       <c r="AG155" s="2" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="AH155" s="1" t="s">
         <v>39</v>
@@ -55412,7 +55412,7 @@
         <v>2503</v>
       </c>
       <c r="AD157" s="2" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="AE157" s="1">
         <v>3</v>
@@ -55421,7 +55421,7 @@
         <v>2488</v>
       </c>
       <c r="AG157" s="2" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="AH157" s="1" t="s">
         <v>39</v>
@@ -55522,7 +55522,7 @@
         <v>1936</v>
       </c>
       <c r="AD158" s="2" t="s">
-        <v>2735</v>
+        <v>2796</v>
       </c>
       <c r="AE158" s="1">
         <v>5</v>
@@ -55531,7 +55531,7 @@
         <v>2489</v>
       </c>
       <c r="AG158" s="2" t="s">
-        <v>2734</v>
+        <v>2795</v>
       </c>
       <c r="AH158" s="1" t="s">
         <v>39</v>
@@ -55604,7 +55604,7 @@
         <v>2547</v>
       </c>
       <c r="AD159" s="2" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="AE159" s="1">
         <v>5</v>
@@ -55613,7 +55613,7 @@
         <v>2548</v>
       </c>
       <c r="AG159" s="2" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="AH159" s="1"/>
       <c r="AI159" s="1"/>
@@ -56026,7 +56026,7 @@
         <v>2493</v>
       </c>
       <c r="AD163" s="2" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="AE163" s="1">
         <v>3</v>
@@ -56035,7 +56035,7 @@
         <v>2494</v>
       </c>
       <c r="AG163" s="2" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="AH163" s="1" t="s">
         <v>39</v>
@@ -56660,7 +56660,7 @@
         <v>2532</v>
       </c>
       <c r="AD169" s="2" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="AE169" s="1">
         <v>3</v>
@@ -56669,7 +56669,7 @@
         <v>2533</v>
       </c>
       <c r="AG169" s="2" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="AH169" s="1" t="s">
         <v>39</v>
@@ -56874,7 +56874,7 @@
         <v>2504</v>
       </c>
       <c r="AD171" s="2" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="AE171" s="1">
         <v>2</v>
@@ -56883,7 +56883,7 @@
         <v>2505</v>
       </c>
       <c r="AG171" s="2" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="AH171" s="1" t="s">
         <v>39</v>

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E184943-7DD8-4BF6-B5CD-9CEF44375E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2C05E4-BE62-4E68-B20C-52685286B9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="1770" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39109,9 +39109,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE158" sqref="AE158"/>
+      <selection pane="topRight" activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2C05E4-BE62-4E68-B20C-52685286B9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE071C7-44C5-48A1-BBD5-49BCD5CDFA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9922" uniqueCount="2797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9923" uniqueCount="2796">
   <si>
     <t>id</t>
   </si>
@@ -8608,9 +8608,6 @@
   </si>
   <si>
     <t>interest in cybersecurity activities; performance within the cybersecurity competition; satisfaction within the cybersecurity competition; effectiveness of competitions at recruiting individuals into the cybersecurity workforce; job satisfaction in cybersecurity; perceived fit within cybersecurity organizations</t>
-  </si>
-  <si>
-    <t>other; behavior; other; other; other; other</t>
   </si>
   <si>
     <t>other; behavior; other; other; other</t>
@@ -11180,65 +11177,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB187"/>
   <sheetViews>
-    <sheetView topLeftCell="AB149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB162" sqref="AB162"/>
+    <sheetView tabSelected="1" topLeftCell="AK127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL138" sqref="AL138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="6.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="1"/>
+    <col min="2" max="2" width="16.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="1"/>
+    <col min="5" max="5" width="6.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="6.26953125" style="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="1"/>
-    <col min="17" max="17" width="16.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.54296875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" style="1"/>
+    <col min="17" max="17" width="16.26953125" style="1" customWidth="1"/>
     <col min="18" max="18" width="13" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="28.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="30.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.26953125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7265625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.26953125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="28.54296875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="30.81640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="33" style="1" customWidth="1"/>
-    <col min="27" max="27" width="28.5703125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="63.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="28.54296875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="63.81640625" style="1" customWidth="1"/>
     <col min="29" max="29" width="22" style="1" customWidth="1"/>
-    <col min="30" max="30" width="63.28515625" style="2" customWidth="1"/>
-    <col min="31" max="31" width="31.7109375" style="1" customWidth="1"/>
-    <col min="32" max="34" width="21.28515625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="19.140625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="58.28515625" style="2" customWidth="1"/>
-    <col min="37" max="37" width="41.28515625" style="2" customWidth="1"/>
-    <col min="38" max="38" width="39.42578125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="63.26953125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="31.7265625" style="1" customWidth="1"/>
+    <col min="32" max="34" width="21.26953125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="19.1796875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="58.26953125" style="2" customWidth="1"/>
+    <col min="37" max="37" width="41.26953125" style="2" customWidth="1"/>
+    <col min="38" max="38" width="39.453125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="14.26953125" style="1" customWidth="1"/>
     <col min="40" max="40" width="26" style="1" customWidth="1"/>
     <col min="41" max="41" width="29" style="1" customWidth="1"/>
-    <col min="42" max="42" width="13.7109375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="17.42578125" style="1" customWidth="1"/>
-    <col min="44" max="44" width="35.140625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="17.28515625" style="6" customWidth="1"/>
-    <col min="46" max="46" width="30.28515625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="13.7265625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="17.453125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="35.1796875" style="1" customWidth="1"/>
+    <col min="45" max="45" width="17.26953125" style="6" customWidth="1"/>
+    <col min="46" max="46" width="30.26953125" style="1" customWidth="1"/>
     <col min="47" max="48" width="20" style="1" customWidth="1"/>
-    <col min="49" max="49" width="21.85546875" style="1" customWidth="1"/>
-    <col min="50" max="50" width="23.28515625" style="1" customWidth="1"/>
-    <col min="51" max="51" width="21.140625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="21.81640625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="23.26953125" style="1" customWidth="1"/>
+    <col min="51" max="51" width="21.1796875" style="1" customWidth="1"/>
     <col min="52" max="52" width="24" style="1" customWidth="1"/>
-    <col min="53" max="53" width="19.42578125" style="1" customWidth="1"/>
+    <col min="53" max="53" width="19.453125" style="1" customWidth="1"/>
     <col min="54" max="54" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11402,7 +11399,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -11554,7 +11551,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -11646,7 +11643,7 @@
         <v>2610</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>2611</v>
@@ -11712,7 +11709,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -11864,7 +11861,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -12016,7 +12013,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>28</v>
       </c>
@@ -12168,7 +12165,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>34</v>
       </c>
@@ -12314,7 +12311,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>42</v>
       </c>
@@ -12466,7 +12463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>79</v>
       </c>
@@ -12618,7 +12615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>86</v>
       </c>
@@ -12722,7 +12719,7 @@
         <v>1</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="AK10" s="2" t="s">
         <v>2121</v>
@@ -12770,7 +12767,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>95</v>
       </c>
@@ -12874,7 +12871,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="AK11" s="2" t="s">
         <v>2124</v>
@@ -12913,7 +12910,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>98</v>
       </c>
@@ -13065,7 +13062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>111</v>
       </c>
@@ -13217,7 +13214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>123</v>
       </c>
@@ -13369,7 +13366,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>124</v>
       </c>
@@ -13524,7 +13521,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>136</v>
       </c>
@@ -13676,7 +13673,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:54" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>157</v>
       </c>
@@ -13828,7 +13825,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>162</v>
       </c>
@@ -13983,7 +13980,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>164</v>
       </c>
@@ -14135,7 +14132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>173</v>
       </c>
@@ -14290,7 +14287,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>174</v>
       </c>
@@ -14445,7 +14442,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>210</v>
       </c>
@@ -14591,7 +14588,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>214</v>
       </c>
@@ -14695,7 +14692,7 @@
         <v>1</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="AK23" s="2" t="s">
         <v>936</v>
@@ -14743,7 +14740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>216</v>
       </c>
@@ -14886,7 +14883,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>219</v>
       </c>
@@ -15038,7 +15035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>220</v>
       </c>
@@ -15175,7 +15172,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>233</v>
       </c>
@@ -15327,7 +15324,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>254</v>
       </c>
@@ -15479,7 +15476,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>263</v>
       </c>
@@ -15622,7 +15619,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>270</v>
       </c>
@@ -15774,7 +15771,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>279</v>
       </c>
@@ -15923,7 +15920,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>312</v>
       </c>
@@ -16066,7 +16063,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>346</v>
       </c>
@@ -16218,7 +16215,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>352</v>
       </c>
@@ -16376,7 +16373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>355</v>
       </c>
@@ -16528,7 +16525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:54" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>362</v>
       </c>
@@ -16680,7 +16677,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>371</v>
       </c>
@@ -16838,7 +16835,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>372</v>
       </c>
@@ -16981,7 +16978,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>372</v>
       </c>
@@ -17124,7 +17121,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>372</v>
       </c>
@@ -17276,7 +17273,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>390</v>
       </c>
@@ -17416,7 +17413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>405</v>
       </c>
@@ -17508,7 +17505,7 @@
         <v>2619</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="AF42" s="1" t="s">
         <v>2620</v>
@@ -17574,7 +17571,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:54" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>429</v>
       </c>
@@ -17726,7 +17723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>442</v>
       </c>
@@ -17866,7 +17863,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>523</v>
       </c>
@@ -17970,7 +17967,7 @@
         <v>444</v>
       </c>
       <c r="AK45" s="2" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="AL45" s="1" t="s">
         <v>2605</v>
@@ -18006,7 +18003,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>527</v>
       </c>
@@ -18161,7 +18158,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>528</v>
       </c>
@@ -18310,7 +18307,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>531</v>
       </c>
@@ -18462,7 +18459,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>533</v>
       </c>
@@ -18614,7 +18611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>536</v>
       </c>
@@ -18721,7 +18718,7 @@
         <v>491</v>
       </c>
       <c r="AK50" s="2" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="AL50" s="1" t="s">
         <v>2597</v>
@@ -18763,7 +18760,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>540</v>
       </c>
@@ -18915,7 +18912,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>550</v>
       </c>
@@ -19061,7 +19058,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>558</v>
       </c>
@@ -19213,7 +19210,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>569</v>
       </c>
@@ -19317,7 +19314,7 @@
         <v>1</v>
       </c>
       <c r="AJ54" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="AK54" s="2" t="s">
         <v>1582</v>
@@ -19365,7 +19362,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>569</v>
       </c>
@@ -19469,7 +19466,7 @@
         <v>1</v>
       </c>
       <c r="AJ55" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="AK55" s="2" t="s">
         <v>1582</v>
@@ -19517,7 +19514,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>573</v>
       </c>
@@ -19669,7 +19666,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>612</v>
       </c>
@@ -19757,6 +19754,9 @@
       <c r="AF57" s="1" t="s">
         <v>2597</v>
       </c>
+      <c r="AG57" s="1" t="s">
+        <v>2654</v>
+      </c>
       <c r="AH57" s="1">
         <v>0</v>
       </c>
@@ -19812,7 +19812,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>676</v>
       </c>
@@ -19964,7 +19964,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="59" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>682</v>
       </c>
@@ -20116,7 +20116,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>690</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -20399,7 +20399,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="62" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -20488,10 +20488,10 @@
         <v>1</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="AF62" s="1" t="s">
         <v>2625</v>
@@ -20557,7 +20557,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>25</v>
       </c>
@@ -20709,7 +20709,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>36</v>
       </c>
@@ -20852,7 +20852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:54" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:54" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>56</v>
       </c>
@@ -21001,7 +21001,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>56</v>
       </c>
@@ -21132,7 +21132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>56</v>
       </c>
@@ -21263,7 +21263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>56</v>
       </c>
@@ -21394,7 +21394,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>62</v>
       </c>
@@ -21540,7 +21540,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>82</v>
       </c>
@@ -21671,7 +21671,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>87</v>
       </c>
@@ -21820,7 +21820,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:54" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:54" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>94</v>
       </c>
@@ -21960,7 +21960,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>94</v>
       </c>
@@ -22100,7 +22100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>94</v>
       </c>
@@ -22240,7 +22240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>116</v>
       </c>
@@ -22389,7 +22389,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>128</v>
       </c>
@@ -22541,7 +22541,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="77" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>129</v>
       </c>
@@ -22645,10 +22645,10 @@
         <v>1</v>
       </c>
       <c r="AJ77" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="AK77" s="2" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="AL77" s="1" t="s">
         <v>2672</v>
@@ -22678,7 +22678,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="78" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>129</v>
       </c>
@@ -22782,10 +22782,10 @@
         <v>1</v>
       </c>
       <c r="AJ78" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="AK78" s="2" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="AL78" s="1" t="s">
         <v>2672</v>
@@ -22815,7 +22815,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>130</v>
       </c>
@@ -22919,10 +22919,10 @@
         <v>1</v>
       </c>
       <c r="AJ79" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="AK79" s="2" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="AL79" s="1" t="s">
         <v>2672</v>
@@ -22964,7 +22964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>147</v>
       </c>
@@ -23065,7 +23065,7 @@
         <v>1</v>
       </c>
       <c r="AJ80" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="AK80" s="2" t="s">
         <v>2673</v>
@@ -23113,7 +23113,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>148</v>
       </c>
@@ -23253,7 +23253,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>148</v>
       </c>
@@ -23399,7 +23399,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>155</v>
       </c>
@@ -23545,7 +23545,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>183</v>
       </c>
@@ -23688,7 +23688,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="85" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>188</v>
       </c>
@@ -23831,7 +23831,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>200</v>
       </c>
@@ -23920,7 +23920,7 @@
         <v>1</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="AE86" s="1" t="s">
         <v>2105</v>
@@ -23983,7 +23983,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="87" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>201</v>
       </c>
@@ -24135,7 +24135,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>234</v>
       </c>
@@ -24224,10 +24224,10 @@
         <v>1</v>
       </c>
       <c r="AD88" s="2" t="s">
+        <v>2703</v>
+      </c>
+      <c r="AE88" s="1" t="s">
         <v>2704</v>
-      </c>
-      <c r="AE88" s="1" t="s">
-        <v>2705</v>
       </c>
       <c r="AF88" s="1" t="s">
         <v>2631</v>
@@ -24287,7 +24287,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>242</v>
       </c>
@@ -24439,7 +24439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>253</v>
       </c>
@@ -24591,7 +24591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>269</v>
       </c>
@@ -24731,7 +24731,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>274</v>
       </c>
@@ -24883,7 +24883,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="93" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>280</v>
       </c>
@@ -25032,7 +25032,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="94" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>301</v>
       </c>
@@ -25118,7 +25118,7 @@
         <v>1</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="AE94" s="1" t="s">
         <v>2633</v>
@@ -25175,7 +25175,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="95" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>325</v>
       </c>
@@ -25324,7 +25324,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="96" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>335</v>
       </c>
@@ -25425,10 +25425,10 @@
         <v>1</v>
       </c>
       <c r="AJ96" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="AK96" s="2" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="AL96" s="1" t="s">
         <v>2614</v>
@@ -25461,7 +25461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>337</v>
       </c>
@@ -25610,7 +25610,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="98" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>339</v>
       </c>
@@ -25762,7 +25762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>367</v>
       </c>
@@ -25911,7 +25911,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>418</v>
       </c>
@@ -26066,7 +26066,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>419</v>
       </c>
@@ -26212,7 +26212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>465</v>
       </c>
@@ -26358,7 +26358,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="103" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>479</v>
       </c>
@@ -26510,7 +26510,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>482</v>
       </c>
@@ -26653,7 +26653,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="105" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>486</v>
       </c>
@@ -26787,7 +26787,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>501</v>
       </c>
@@ -26930,7 +26930,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="107" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>524</v>
       </c>
@@ -27034,7 +27034,7 @@
         <v>1</v>
       </c>
       <c r="AJ107" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="AK107" s="2" t="s">
         <v>2675</v>
@@ -27082,7 +27082,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="108" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>553</v>
       </c>
@@ -27231,7 +27231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>557</v>
       </c>
@@ -27383,7 +27383,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="110" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>560</v>
       </c>
@@ -27529,7 +27529,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>561</v>
       </c>
@@ -27684,7 +27684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>600</v>
       </c>
@@ -27830,7 +27830,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="113" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>607</v>
       </c>
@@ -27976,7 +27976,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>607</v>
       </c>
@@ -28128,7 +28128,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>627</v>
       </c>
@@ -28274,7 +28274,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="116" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>636</v>
       </c>
@@ -28423,7 +28423,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>650</v>
       </c>
@@ -28575,7 +28575,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="118" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>659</v>
       </c>
@@ -28727,7 +28727,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>660</v>
       </c>
@@ -28879,7 +28879,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>675</v>
       </c>
@@ -29028,7 +29028,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="121" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>677</v>
       </c>
@@ -29180,7 +29180,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="122" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>686</v>
       </c>
@@ -29284,7 +29284,7 @@
         <v>1</v>
       </c>
       <c r="AJ122" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="AK122" s="2" t="s">
         <v>2136</v>
@@ -29332,7 +29332,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="123" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>687</v>
       </c>
@@ -29478,7 +29478,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="124" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>688</v>
       </c>
@@ -29582,7 +29582,7 @@
         <v>1</v>
       </c>
       <c r="AJ124" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="AK124" s="2" t="s">
         <v>2125</v>
@@ -29630,7 +29630,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="125" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>8</v>
       </c>
@@ -29782,7 +29782,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="126" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>26</v>
       </c>
@@ -29934,7 +29934,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="127" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>32</v>
       </c>
@@ -30086,7 +30086,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="128" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>43</v>
       </c>
@@ -30238,7 +30238,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="129" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>43</v>
       </c>
@@ -30390,7 +30390,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="130" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>43</v>
       </c>
@@ -30545,7 +30545,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="131" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>61</v>
       </c>
@@ -30697,7 +30697,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>81</v>
       </c>
@@ -30849,7 +30849,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="133" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>83</v>
       </c>
@@ -30995,7 +30995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>99</v>
       </c>
@@ -31150,7 +31150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -31308,7 +31308,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>146</v>
       </c>
@@ -31460,7 +31460,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="137" spans="1:54" ht="90" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:54" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>150</v>
       </c>
@@ -31609,7 +31609,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>166</v>
       </c>
@@ -31752,7 +31752,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="139" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:54" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>178</v>
       </c>
@@ -31895,7 +31895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>180</v>
       </c>
@@ -32047,7 +32047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>180</v>
       </c>
@@ -32199,7 +32199,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>180</v>
       </c>
@@ -32351,7 +32351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="143" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>193</v>
       </c>
@@ -32503,7 +32503,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>236</v>
       </c>
@@ -32610,7 +32610,7 @@
         <v>1</v>
       </c>
       <c r="AJ144" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="AK144" s="2" t="s">
         <v>2119</v>
@@ -32658,7 +32658,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>248</v>
       </c>
@@ -32744,7 +32744,7 @@
         <v>2645</v>
       </c>
       <c r="AE145" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="AF145" s="1" t="s">
         <v>2597</v>
@@ -32810,7 +32810,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>262</v>
       </c>
@@ -32962,7 +32962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>291</v>
       </c>
@@ -33114,7 +33114,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="148" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>302</v>
       </c>
@@ -33266,7 +33266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:54" ht="60" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:54" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>303</v>
       </c>
@@ -33373,10 +33373,10 @@
         <v>2058</v>
       </c>
       <c r="AK149" s="2" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="AL149" s="1" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="AM149" s="1">
         <v>0</v>
@@ -33415,7 +33415,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>324</v>
       </c>
@@ -33519,13 +33519,13 @@
         <v>1</v>
       </c>
       <c r="AJ150" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="AK150" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="AL150" s="1" t="s">
         <v>2682</v>
-      </c>
-      <c r="AL150" s="1" t="s">
-        <v>2683</v>
       </c>
       <c r="AM150" s="1">
         <v>0</v>
@@ -33564,7 +33564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="151" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>327</v>
       </c>
@@ -33716,7 +33716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>338</v>
       </c>
@@ -33868,7 +33868,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="153" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>342</v>
       </c>
@@ -33972,10 +33972,10 @@
         <v>1</v>
       </c>
       <c r="AJ153" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="AK153" s="2" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="AL153" s="1" t="s">
         <v>2614</v>
@@ -34020,7 +34020,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>347</v>
       </c>
@@ -34166,7 +34166,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>348</v>
       </c>
@@ -34306,7 +34306,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="156" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:54" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>349</v>
       </c>
@@ -34458,7 +34458,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>363</v>
       </c>
@@ -34562,13 +34562,13 @@
         <v>1</v>
       </c>
       <c r="AJ157" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="AK157" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="AL157" s="1" t="s">
         <v>2684</v>
-      </c>
-      <c r="AK157" s="2" t="s">
-        <v>2684</v>
-      </c>
-      <c r="AL157" s="1" t="s">
-        <v>2685</v>
       </c>
       <c r="AM157" s="1">
         <v>0</v>
@@ -34610,7 +34610,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>376</v>
       </c>
@@ -34762,7 +34762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="159" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>378</v>
       </c>
@@ -34914,7 +34914,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="160" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>381</v>
       </c>
@@ -35057,7 +35057,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="161" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>384</v>
       </c>
@@ -35203,7 +35203,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="162" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>400</v>
       </c>
@@ -35355,7 +35355,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="163" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>408</v>
       </c>
@@ -35507,7 +35507,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="164" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>408</v>
       </c>
@@ -35647,7 +35647,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>412</v>
       </c>
@@ -35799,7 +35799,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="166" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>430</v>
       </c>
@@ -35948,7 +35948,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="167" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>433</v>
       </c>
@@ -36100,7 +36100,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="168" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>438</v>
       </c>
@@ -36255,7 +36255,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="169" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>438</v>
       </c>
@@ -36392,7 +36392,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>441</v>
       </c>
@@ -36532,7 +36532,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="171" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>452</v>
       </c>
@@ -36645,7 +36645,7 @@
         <v>2591</v>
       </c>
       <c r="AL171" s="1" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="AM171" s="1">
         <v>0</v>
@@ -36678,7 +36678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>497</v>
       </c>
@@ -36827,7 +36827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>498</v>
       </c>
@@ -36976,7 +36976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>517</v>
       </c>
@@ -37128,7 +37128,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="175" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>545</v>
       </c>
@@ -37280,7 +37280,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="176" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>574</v>
       </c>
@@ -37438,7 +37438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="177" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>590</v>
       </c>
@@ -37581,7 +37581,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>626</v>
       </c>
@@ -37733,7 +37733,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="179" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>628</v>
       </c>
@@ -37837,10 +37837,10 @@
         <v>1</v>
       </c>
       <c r="AJ179" s="2" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="AK179" s="2" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="AL179" s="1" t="s">
         <v>2600</v>
@@ -37879,7 +37879,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="180" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>640</v>
       </c>
@@ -38031,7 +38031,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="181" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>648</v>
       </c>
@@ -38177,7 +38177,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="182" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>649</v>
       </c>
@@ -38278,7 +38278,7 @@
         <v>1</v>
       </c>
       <c r="AJ182" s="2" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="AK182" s="2" t="s">
         <v>2125</v>
@@ -38326,7 +38326,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="183" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>672</v>
       </c>
@@ -38418,7 +38418,7 @@
         <v>1782</v>
       </c>
       <c r="AE183" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="AF183" s="1" t="s">
         <v>2614</v>
@@ -38481,7 +38481,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="184" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>678</v>
       </c>
@@ -38633,7 +38633,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="185" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>684</v>
       </c>
@@ -38788,7 +38788,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="186" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>685</v>
       </c>
@@ -38943,7 +38943,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="187" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>689</v>
       </c>
@@ -39047,7 +39047,7 @@
         <v>1</v>
       </c>
       <c r="AJ187" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="AK187" s="2" t="s">
         <v>2137</v>
@@ -39109,45 +39109,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD30" sqref="AD30"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1"/>
-    <col min="8" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="43.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
-    <col min="15" max="15" width="43.28515625" customWidth="1"/>
-    <col min="16" max="17" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34.1796875" customWidth="1"/>
+    <col min="8" max="9" width="26.453125" customWidth="1"/>
+    <col min="10" max="10" width="43.54296875" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" customWidth="1"/>
+    <col min="12" max="12" width="15.26953125" customWidth="1"/>
+    <col min="14" max="14" width="21.81640625" customWidth="1"/>
+    <col min="15" max="15" width="43.26953125" customWidth="1"/>
+    <col min="16" max="17" width="17.54296875" customWidth="1"/>
     <col min="18" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" customWidth="1"/>
+    <col min="20" max="20" width="21.453125" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="37.28515625" customWidth="1"/>
+    <col min="23" max="23" width="37.26953125" customWidth="1"/>
     <col min="24" max="24" width="25" customWidth="1"/>
     <col min="25" max="25" width="30" customWidth="1"/>
-    <col min="26" max="26" width="64.42578125" customWidth="1"/>
-    <col min="27" max="27" width="35.85546875" customWidth="1"/>
-    <col min="28" max="28" width="37.140625" customWidth="1"/>
-    <col min="29" max="29" width="51.42578125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="46.7109375" style="3" customWidth="1"/>
-    <col min="31" max="31" width="38.85546875" customWidth="1"/>
-    <col min="32" max="32" width="35.85546875" style="3" customWidth="1"/>
-    <col min="33" max="33" width="46.140625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="64.453125" customWidth="1"/>
+    <col min="27" max="27" width="35.81640625" customWidth="1"/>
+    <col min="28" max="28" width="37.1796875" customWidth="1"/>
+    <col min="29" max="29" width="51.453125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="46.7265625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="38.81640625" customWidth="1"/>
+    <col min="32" max="32" width="35.81640625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="46.1796875" style="3" customWidth="1"/>
     <col min="34" max="34" width="21" customWidth="1"/>
-    <col min="35" max="35" width="21.42578125" customWidth="1"/>
+    <col min="35" max="35" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -39257,7 +39257,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -39338,7 +39338,7 @@
         <v>2521</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="AE2" s="1">
         <v>3</v>
@@ -39347,7 +39347,7 @@
         <v>2498</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>39</v>
@@ -39359,7 +39359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -39444,7 +39444,7 @@
         <v>2499</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1" t="s">
@@ -39461,7 +39461,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -39546,7 +39546,7 @@
         <v>2543</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="AE4" s="1">
         <v>5</v>
@@ -39555,7 +39555,7 @@
         <v>2544</v>
       </c>
       <c r="AG4" s="10" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>39</v>
@@ -39567,7 +39567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -39667,7 +39667,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>28</v>
       </c>
@@ -39752,7 +39752,7 @@
         <v>2538</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="AE6" s="1">
         <v>5</v>
@@ -39761,7 +39761,7 @@
         <v>2538</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>39</v>
@@ -39773,7 +39773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>34</v>
       </c>
@@ -39860,7 +39860,7 @@
         <v>2500</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="AE7" s="1">
         <v>0</v>
@@ -39869,7 +39869,7 @@
         <v>2501</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>39</v>
@@ -39881,7 +39881,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>42</v>
       </c>
@@ -39979,7 +39979,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>79</v>
       </c>
@@ -40068,7 +40068,7 @@
         <v>2502</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="AE9" s="1">
         <v>5</v>
@@ -40077,7 +40077,7 @@
         <v>638</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="AH9" s="1" t="s">
         <v>39</v>
@@ -40089,7 +40089,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>86</v>
       </c>
@@ -40170,7 +40170,7 @@
         <v>641</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="AE10" s="1">
         <v>3</v>
@@ -40179,7 +40179,7 @@
         <v>642</v>
       </c>
       <c r="AG10" s="10" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="AH10" s="1" t="s">
         <v>39</v>
@@ -40191,7 +40191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>95</v>
       </c>
@@ -40293,7 +40293,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>98</v>
       </c>
@@ -40395,7 +40395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>111</v>
       </c>
@@ -40480,7 +40480,7 @@
         <v>2524</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="AE13" s="1">
         <v>3</v>
@@ -40489,7 +40489,7 @@
         <v>2525</v>
       </c>
       <c r="AG13" s="10" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>39</v>
@@ -40501,7 +40501,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>123</v>
       </c>
@@ -40603,7 +40603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>136</v>
       </c>
@@ -40707,7 +40707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>157</v>
       </c>
@@ -40796,7 +40796,7 @@
         <v>2566</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="AE16" s="1">
         <v>3</v>
@@ -40805,7 +40805,7 @@
         <v>2567</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="AH16" s="1" t="s">
         <v>39</v>
@@ -40817,7 +40817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>162</v>
       </c>
@@ -40904,7 +40904,7 @@
         <v>2407</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="AE17" s="1">
         <v>4</v>
@@ -40913,7 +40913,7 @@
         <v>2408</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="AH17" s="1" t="s">
         <v>39</v>
@@ -40925,7 +40925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>164</v>
       </c>
@@ -41014,7 +41014,7 @@
         <v>2409</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="AE18" s="1">
         <v>3</v>
@@ -41023,7 +41023,7 @@
         <v>2410</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="AH18" s="1" t="s">
         <v>39</v>
@@ -41035,7 +41035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>173</v>
       </c>
@@ -41141,7 +41141,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>174</v>
       </c>
@@ -41245,7 +41245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>210</v>
       </c>
@@ -41345,7 +41345,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>214</v>
       </c>
@@ -41447,7 +41447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>216</v>
       </c>
@@ -41532,7 +41532,7 @@
         <v>2413</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="AE23" s="1">
         <v>2</v>
@@ -41541,7 +41541,7 @@
         <v>2413</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="AH23" s="1" t="s">
         <v>39</v>
@@ -41553,7 +41553,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>219</v>
       </c>
@@ -41655,7 +41655,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>220</v>
       </c>
@@ -41742,7 +41742,7 @@
         <v>695</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="AE25" s="1">
         <v>5</v>
@@ -41751,7 +41751,7 @@
         <v>2414</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="AH25" s="1" t="s">
         <v>39</v>
@@ -41763,7 +41763,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>233</v>
       </c>
@@ -41863,7 +41863,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>254</v>
       </c>
@@ -41963,7 +41963,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>263</v>
       </c>
@@ -42050,7 +42050,7 @@
         <v>2415</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="AE28" s="1">
         <v>5</v>
@@ -42059,7 +42059,7 @@
         <v>2416</v>
       </c>
       <c r="AG28" s="10" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="AH28" s="1" t="s">
         <v>39</v>
@@ -42071,7 +42071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>270</v>
       </c>
@@ -42158,7 +42158,7 @@
         <v>2417</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="AE29" s="1">
         <v>5</v>
@@ -42167,7 +42167,7 @@
         <v>2418</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="AH29" s="1" t="s">
         <v>39</v>
@@ -42179,7 +42179,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>279</v>
       </c>
@@ -42262,7 +42262,7 @@
         <v>709</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="AE30" s="1" t="s">
         <v>39</v>
@@ -42281,7 +42281,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>312</v>
       </c>
@@ -42383,7 +42383,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>346</v>
       </c>
@@ -42472,7 +42472,7 @@
         <v>2561</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="AE32" s="1">
         <v>5</v>
@@ -42481,7 +42481,7 @@
         <v>2562</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="AH32" s="1" t="s">
         <v>39</v>
@@ -42493,7 +42493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>352</v>
       </c>
@@ -42597,7 +42597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>355</v>
       </c>
@@ -42682,7 +42682,7 @@
         <v>2419</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="AE34" s="1">
         <v>3</v>
@@ -42691,7 +42691,7 @@
         <v>2420</v>
       </c>
       <c r="AG34" s="10" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="AH34" s="1" t="s">
         <v>39</v>
@@ -42703,7 +42703,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>362</v>
       </c>
@@ -42786,7 +42786,7 @@
         <v>2421</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="AE35" s="1">
         <v>3</v>
@@ -42795,7 +42795,7 @@
         <v>2422</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="AH35" s="1" t="s">
         <v>39</v>
@@ -42807,7 +42807,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>371</v>
       </c>
@@ -42913,7 +42913,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>372</v>
       </c>
@@ -43011,7 +43011,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>372</v>
       </c>
@@ -43109,7 +43109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>372</v>
       </c>
@@ -43211,7 +43211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>405</v>
       </c>
@@ -43296,7 +43296,7 @@
         <v>2425</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="AE40" s="1">
         <v>5</v>
@@ -43305,7 +43305,7 @@
         <v>2426</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="AH40" s="1" t="s">
         <v>39</v>
@@ -43317,7 +43317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>429</v>
       </c>
@@ -43400,7 +43400,7 @@
         <v>735</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="AE41" s="1">
         <v>4</v>
@@ -43409,7 +43409,7 @@
         <v>735</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="AH41" s="1" t="s">
         <v>39</v>
@@ -43421,7 +43421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>442</v>
       </c>
@@ -43523,7 +43523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>523</v>
       </c>
@@ -43610,7 +43610,7 @@
         <v>741</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="AE43" s="1">
         <v>2</v>
@@ -43619,7 +43619,7 @@
         <v>2427</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="AH43" s="1" t="s">
         <v>39</v>
@@ -43631,7 +43631,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>528</v>
       </c>
@@ -43716,7 +43716,7 @@
         <v>2428</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="AE44" s="1">
         <v>2</v>
@@ -43725,7 +43725,7 @@
         <v>2429</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="AH44" s="1" t="s">
         <v>39</v>
@@ -43737,7 +43737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>531</v>
       </c>
@@ -43839,7 +43839,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>533</v>
       </c>
@@ -43945,7 +43945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>536</v>
       </c>
@@ -44041,7 +44041,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>540</v>
       </c>
@@ -44151,7 +44151,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>550</v>
       </c>
@@ -44253,7 +44253,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>558</v>
       </c>
@@ -44359,7 +44359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>569</v>
       </c>
@@ -44444,7 +44444,7 @@
         <v>2539</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="AE51" s="1" t="s">
         <v>39</v>
@@ -44463,7 +44463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>573</v>
       </c>
@@ -44546,7 +44546,7 @@
         <v>2436</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="AE52" s="1">
         <v>5</v>
@@ -44555,7 +44555,7 @@
         <v>768</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="AH52" s="1" t="s">
         <v>39</v>
@@ -44567,7 +44567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>676</v>
       </c>
@@ -44656,7 +44656,7 @@
         <v>2437</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="AE53" s="1" t="s">
         <v>39</v>
@@ -44675,7 +44675,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>682</v>
       </c>
@@ -44758,7 +44758,7 @@
         <v>773</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="AE54" s="1">
         <v>4</v>
@@ -44767,7 +44767,7 @@
         <v>774</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="AH54" s="1" t="s">
         <v>39</v>
@@ -44779,7 +44779,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>690</v>
       </c>
@@ -44860,7 +44860,7 @@
         <v>2438</v>
       </c>
       <c r="AD55" s="2" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AE55" s="1" t="s">
         <v>39</v>
@@ -44879,7 +44879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -44979,7 +44979,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>11</v>
       </c>
@@ -45066,7 +45066,7 @@
         <v>2506</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="AE57" s="1" t="s">
         <v>219</v>
@@ -45075,7 +45075,7 @@
         <v>2368</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1" t="s">
@@ -45085,7 +45085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>25</v>
       </c>
@@ -45166,7 +45166,7 @@
         <v>2369</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="AE58" s="1">
         <v>5</v>
@@ -45175,7 +45175,7 @@
         <v>2369</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="AH58" s="1" t="s">
         <v>39</v>
@@ -45187,7 +45187,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>36</v>
       </c>
@@ -45295,7 +45295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="116" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -45384,7 +45384,7 @@
         <v>2555</v>
       </c>
       <c r="AD60" s="2" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="AE60" s="1">
         <v>5</v>
@@ -45393,7 +45393,7 @@
         <v>2556</v>
       </c>
       <c r="AG60" s="2" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1" t="s">
@@ -45403,7 +45403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" ht="116" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>56</v>
       </c>
@@ -45490,7 +45490,7 @@
         <v>2555</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="AE61" s="1">
         <v>5</v>
@@ -45499,7 +45499,7 @@
         <v>2557</v>
       </c>
       <c r="AG61" s="2" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1" t="s">
@@ -45509,7 +45509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="116" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>56</v>
       </c>
@@ -45596,7 +45596,7 @@
         <v>2555</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="AE62" s="1">
         <v>5</v>
@@ -45605,7 +45605,7 @@
         <v>2558</v>
       </c>
       <c r="AG62" s="2" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1" t="s">
@@ -45615,7 +45615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" ht="116" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>56</v>
       </c>
@@ -45702,7 +45702,7 @@
         <v>2555</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="AE63" s="1">
         <v>5</v>
@@ -45711,7 +45711,7 @@
         <v>2559</v>
       </c>
       <c r="AG63" s="2" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1" t="s">
@@ -45721,7 +45721,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -45819,7 +45819,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>82</v>
       </c>
@@ -45913,7 +45913,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>87</v>
       </c>
@@ -46011,7 +46011,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>94</v>
       </c>
@@ -46115,7 +46115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>94</v>
       </c>
@@ -46219,7 +46219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>94</v>
       </c>
@@ -46323,7 +46323,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>116</v>
       </c>
@@ -46425,7 +46425,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>128</v>
       </c>
@@ -46514,7 +46514,7 @@
         <v>2371</v>
       </c>
       <c r="AD71" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="AE71" s="1">
         <v>3</v>
@@ -46523,7 +46523,7 @@
         <v>2371</v>
       </c>
       <c r="AG71" s="10" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="AH71" s="1" t="s">
         <v>39</v>
@@ -46535,7 +46535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>129</v>
       </c>
@@ -46637,7 +46637,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>129</v>
       </c>
@@ -46739,7 +46739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>130</v>
       </c>
@@ -46841,7 +46841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>147</v>
       </c>
@@ -46941,7 +46941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>148</v>
       </c>
@@ -47026,7 +47026,7 @@
         <v>2027</v>
       </c>
       <c r="AD76" s="2" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="AE76" s="1">
         <v>5</v>
@@ -47035,7 +47035,7 @@
         <v>2028</v>
       </c>
       <c r="AG76" s="2" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1" t="s">
@@ -47045,7 +47045,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>155</v>
       </c>
@@ -47145,7 +47145,7 @@
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
     </row>
-    <row r="78" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>183</v>
       </c>
@@ -47233,7 +47233,7 @@
         <v>2440</v>
       </c>
       <c r="AG78" s="10" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1" t="s">
@@ -47243,7 +47243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>188</v>
       </c>
@@ -47343,7 +47343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>200</v>
       </c>
@@ -47449,7 +47449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>201</v>
       </c>
@@ -47547,7 +47547,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>234</v>
       </c>
@@ -47649,7 +47649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>242</v>
       </c>
@@ -47736,7 +47736,7 @@
         <v>2375</v>
       </c>
       <c r="AD83" s="2" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="AE83" s="1">
         <v>5</v>
@@ -47755,7 +47755,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>253</v>
       </c>
@@ -47853,7 +47853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>269</v>
       </c>
@@ -47951,7 +47951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>274</v>
       </c>
@@ -48036,7 +48036,7 @@
         <v>2522</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="AE86" s="1">
         <v>3</v>
@@ -48045,7 +48045,7 @@
         <v>2523</v>
       </c>
       <c r="AG86" s="2" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="AH86" s="1"/>
       <c r="AI86" s="1" t="s">
@@ -48055,7 +48055,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>280</v>
       </c>
@@ -48140,7 +48140,7 @@
         <v>2376</v>
       </c>
       <c r="AD87" s="2" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="AE87" s="1">
         <v>3</v>
@@ -48149,7 +48149,7 @@
         <v>2442</v>
       </c>
       <c r="AG87" s="10" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="AH87" s="1"/>
       <c r="AI87" s="1" t="s">
@@ -48159,7 +48159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>301</v>
       </c>
@@ -48257,7 +48257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="116" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>325</v>
       </c>
@@ -48346,7 +48346,7 @@
         <v>2444</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="AE89" s="1">
         <v>5</v>
@@ -48355,7 +48355,7 @@
         <v>2445</v>
       </c>
       <c r="AG89" s="2" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="AH89" s="1"/>
       <c r="AI89" s="1" t="s">
@@ -48365,7 +48365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>335</v>
       </c>
@@ -48452,7 +48452,7 @@
         <v>2446</v>
       </c>
       <c r="AD90" s="2" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="AE90" s="1">
         <v>5</v>
@@ -48461,7 +48461,7 @@
         <v>2446</v>
       </c>
       <c r="AG90" s="2" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="AH90" s="1"/>
       <c r="AI90" s="1" t="s">
@@ -48471,7 +48471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>337</v>
       </c>
@@ -48554,7 +48554,7 @@
         <v>2447</v>
       </c>
       <c r="AD91" s="2" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="AE91" s="1">
         <v>3</v>
@@ -48563,7 +48563,7 @@
         <v>2399</v>
       </c>
       <c r="AG91" s="2" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="AH91" s="1"/>
       <c r="AI91" s="1" t="s">
@@ -48573,7 +48573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>339</v>
       </c>
@@ -48679,7 +48679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>367</v>
       </c>
@@ -48783,7 +48783,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>418</v>
       </c>
@@ -48881,7 +48881,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>419</v>
       </c>
@@ -48983,7 +48983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>465</v>
       </c>
@@ -49066,7 +49066,7 @@
         <v>2450</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="AE96" s="1">
         <v>5</v>
@@ -49075,7 +49075,7 @@
         <v>2451</v>
       </c>
       <c r="AG96" s="2" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1" t="s">
@@ -49085,7 +49085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>479</v>
       </c>
@@ -49187,7 +49187,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" ht="87" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>482</v>
       </c>
@@ -49285,7 +49285,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>486</v>
       </c>
@@ -49385,7 +49385,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>501</v>
       </c>
@@ -49493,7 +49493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>524</v>
       </c>
@@ -49578,7 +49578,7 @@
         <v>2454</v>
       </c>
       <c r="AD101" s="2" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="AE101" s="1">
         <v>3</v>
@@ -49587,7 +49587,7 @@
         <v>2455</v>
       </c>
       <c r="AG101" s="2" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="AH101" s="1"/>
       <c r="AI101" s="1" t="s">
@@ -49597,7 +49597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>553</v>
       </c>
@@ -49699,7 +49699,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>557</v>
       </c>
@@ -49803,7 +49803,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>560</v>
       </c>
@@ -49907,7 +49907,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>561</v>
       </c>
@@ -50013,7 +50013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>600</v>
       </c>
@@ -50113,7 +50113,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>627</v>
       </c>
@@ -50202,7 +50202,7 @@
         <v>2458</v>
       </c>
       <c r="AD107" s="2" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="AE107" s="1">
         <v>5</v>
@@ -50211,7 +50211,7 @@
         <v>2459</v>
       </c>
       <c r="AG107" s="2" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="AH107" s="1"/>
       <c r="AI107" s="1" t="s">
@@ -50221,7 +50221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>636</v>
       </c>
@@ -50323,7 +50323,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>650</v>
       </c>
@@ -50421,7 +50421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>659</v>
       </c>
@@ -50519,7 +50519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>660</v>
       </c>
@@ -50623,7 +50623,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>675</v>
       </c>
@@ -50731,7 +50731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>677</v>
       </c>
@@ -50808,7 +50808,7 @@
         <v>2545</v>
       </c>
       <c r="AD113" s="2" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="AE113" s="1">
         <v>2</v>
@@ -50817,7 +50817,7 @@
         <v>2546</v>
       </c>
       <c r="AG113" s="2" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="AH113" s="1"/>
       <c r="AI113" s="1" t="s">
@@ -50827,7 +50827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>686</v>
       </c>
@@ -50910,7 +50910,7 @@
         <v>2465</v>
       </c>
       <c r="AD114" s="2" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="AE114" s="1">
         <v>5</v>
@@ -50919,7 +50919,7 @@
         <v>2465</v>
       </c>
       <c r="AG114" s="2" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="AH114" s="1"/>
       <c r="AI114" s="1" t="s">
@@ -50929,7 +50929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>687</v>
       </c>
@@ -51033,7 +51033,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>688</v>
       </c>
@@ -51141,7 +51141,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>8</v>
       </c>
@@ -51228,7 +51228,7 @@
         <v>2381</v>
       </c>
       <c r="AD117" s="2" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="AE117" s="1">
         <v>5</v>
@@ -51237,7 +51237,7 @@
         <v>2381</v>
       </c>
       <c r="AG117" s="2" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="AH117" s="1" t="s">
         <v>39</v>
@@ -51249,7 +51249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>26</v>
       </c>
@@ -51353,7 +51353,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>32</v>
       </c>
@@ -51459,7 +51459,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>43</v>
       </c>
@@ -51561,7 +51561,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>43</v>
       </c>
@@ -51663,7 +51663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>61</v>
       </c>
@@ -51752,7 +51752,7 @@
         <v>2468</v>
       </c>
       <c r="AD122" s="2" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="AE122" s="1">
         <v>5</v>
@@ -51761,7 +51761,7 @@
         <v>2565</v>
       </c>
       <c r="AG122" s="2" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="AH122" s="1" t="s">
         <v>39</v>
@@ -51773,7 +51773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>81</v>
       </c>
@@ -51860,7 +51860,7 @@
         <v>2469</v>
       </c>
       <c r="AD123" s="2" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="AE123" s="1">
         <v>5</v>
@@ -51869,7 +51869,7 @@
         <v>2469</v>
       </c>
       <c r="AG123" s="2" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="AH123" s="1" t="s">
         <v>39</v>
@@ -51881,7 +51881,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>83</v>
       </c>
@@ -51979,7 +51979,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>99</v>
       </c>
@@ -52067,7 +52067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>133</v>
       </c>
@@ -52169,7 +52169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>146</v>
       </c>
@@ -52256,7 +52256,7 @@
         <v>2382</v>
       </c>
       <c r="AD127" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AE127" s="1">
         <v>4</v>
@@ -52265,7 +52265,7 @@
         <v>2382</v>
       </c>
       <c r="AG127" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AH127" s="1" t="s">
         <v>39</v>
@@ -52277,7 +52277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>150</v>
       </c>
@@ -52383,7 +52383,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="165" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" ht="145" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>166</v>
       </c>
@@ -52472,7 +52472,7 @@
         <v>2384</v>
       </c>
       <c r="AD129" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="AE129" s="1">
         <v>5</v>
@@ -52481,7 +52481,7 @@
         <v>2400</v>
       </c>
       <c r="AG129" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="AH129" s="1" t="s">
         <v>39</v>
@@ -52493,7 +52493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>178</v>
       </c>
@@ -52574,7 +52574,7 @@
         <v>2385</v>
       </c>
       <c r="AD130" s="2" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="AE130" s="1">
         <v>5</v>
@@ -52583,7 +52583,7 @@
         <v>2401</v>
       </c>
       <c r="AG130" s="2" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="AH130" s="1" t="s">
         <v>39</v>
@@ -52595,7 +52595,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>180</v>
       </c>
@@ -52684,7 +52684,7 @@
         <v>2470</v>
       </c>
       <c r="AD131" s="2" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="AE131" s="1">
         <v>5</v>
@@ -52693,7 +52693,7 @@
         <v>2471</v>
       </c>
       <c r="AG131" s="2" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="AH131" s="1" t="s">
         <v>39</v>
@@ -52705,7 +52705,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>180</v>
       </c>
@@ -52794,7 +52794,7 @@
         <v>2472</v>
       </c>
       <c r="AD132" s="2" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="AE132" s="1">
         <v>5</v>
@@ -52803,7 +52803,7 @@
         <v>2473</v>
       </c>
       <c r="AG132" s="2" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="AH132" s="1" t="s">
         <v>39</v>
@@ -52815,7 +52815,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>180</v>
       </c>
@@ -52902,7 +52902,7 @@
         <v>2474</v>
       </c>
       <c r="AD133" s="2" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="AE133" s="1">
         <v>5</v>
@@ -52911,7 +52911,7 @@
         <v>2475</v>
       </c>
       <c r="AG133" s="2" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="AH133" s="1" t="s">
         <v>39</v>
@@ -52923,7 +52923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>193</v>
       </c>
@@ -53010,7 +53010,7 @@
         <v>2386</v>
       </c>
       <c r="AD134" s="2" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="AE134" s="1">
         <v>0</v>
@@ -53019,7 +53019,7 @@
         <v>2402</v>
       </c>
       <c r="AG134" s="2" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="AH134" s="1" t="s">
         <v>39</v>
@@ -53031,7 +53031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>236</v>
       </c>
@@ -53116,7 +53116,7 @@
         <v>2526</v>
       </c>
       <c r="AD135" s="2" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="AE135" s="1">
         <v>3</v>
@@ -53125,7 +53125,7 @@
         <v>2560</v>
       </c>
       <c r="AG135" s="2" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="AH135" s="1" t="s">
         <v>39</v>
@@ -53137,7 +53137,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>248</v>
       </c>
@@ -53235,7 +53235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>262</v>
       </c>
@@ -53343,7 +53343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>291</v>
       </c>
@@ -53430,7 +53430,7 @@
         <v>2477</v>
       </c>
       <c r="AD138" s="2" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="AE138" s="1">
         <v>3</v>
@@ -53439,7 +53439,7 @@
         <v>2478</v>
       </c>
       <c r="AG138" s="2" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="AH138" s="1" t="s">
         <v>39</v>
@@ -53451,7 +53451,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>302</v>
       </c>
@@ -53538,7 +53538,7 @@
         <v>2479</v>
       </c>
       <c r="AD139" s="2" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="AE139" s="1">
         <v>5</v>
@@ -53547,7 +53547,7 @@
         <v>2480</v>
       </c>
       <c r="AG139" s="2" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="AH139" s="1" t="s">
         <v>39</v>
@@ -53559,7 +53559,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>303</v>
       </c>
@@ -53661,7 +53661,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>324</v>
       </c>
@@ -53765,7 +53765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>327</v>
       </c>
@@ -53846,7 +53846,7 @@
         <v>2535</v>
       </c>
       <c r="AD142" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="AE142" s="1">
         <v>5</v>
@@ -53855,7 +53855,7 @@
         <v>2536</v>
       </c>
       <c r="AG142" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="AH142" s="1" t="s">
         <v>39</v>
@@ -53867,7 +53867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>338</v>
       </c>
@@ -53948,7 +53948,7 @@
         <v>2527</v>
       </c>
       <c r="AD143" s="2" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="AE143" s="1">
         <v>3</v>
@@ -53957,7 +53957,7 @@
         <v>2528</v>
       </c>
       <c r="AG143" s="2" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="AH143" s="1" t="s">
         <v>39</v>
@@ -53969,7 +53969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>342</v>
       </c>
@@ -54075,7 +54075,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>347</v>
       </c>
@@ -54167,7 +54167,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>348</v>
       </c>
@@ -54271,7 +54271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>349</v>
       </c>
@@ -54377,7 +54377,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>363</v>
       </c>
@@ -54485,7 +54485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>376</v>
       </c>
@@ -54589,7 +54589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="87" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>378</v>
       </c>
@@ -54676,7 +54676,7 @@
         <v>2529</v>
       </c>
       <c r="AD150" s="2" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="AE150" s="1">
         <v>3</v>
@@ -54685,7 +54685,7 @@
         <v>2530</v>
       </c>
       <c r="AG150" s="2" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="AH150" s="1" t="s">
         <v>39</v>
@@ -54697,7 +54697,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>381</v>
       </c>
@@ -54778,7 +54778,7 @@
         <v>2481</v>
       </c>
       <c r="AD151" s="2" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="AE151" s="1">
         <v>5</v>
@@ -54787,7 +54787,7 @@
         <v>2482</v>
       </c>
       <c r="AG151" s="2" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="AH151" s="1" t="s">
         <v>39</v>
@@ -54799,7 +54799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>384</v>
       </c>
@@ -54886,7 +54886,7 @@
         <v>2390</v>
       </c>
       <c r="AD152" s="2" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="AE152" s="1">
         <v>5</v>
@@ -54895,7 +54895,7 @@
         <v>2403</v>
       </c>
       <c r="AG152" s="2" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="AH152" s="1" t="s">
         <v>39</v>
@@ -54907,7 +54907,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:36" ht="120" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>400</v>
       </c>
@@ -54992,7 +54992,7 @@
         <v>2483</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="AE153" s="1">
         <v>3</v>
@@ -55001,7 +55001,7 @@
         <v>2484</v>
       </c>
       <c r="AG153" s="2" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="AH153" s="1" t="s">
         <v>39</v>
@@ -55013,7 +55013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>408</v>
       </c>
@@ -55119,7 +55119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>412</v>
       </c>
@@ -55204,7 +55204,7 @@
         <v>2537</v>
       </c>
       <c r="AD155" s="2" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="AE155" s="1">
         <v>3</v>
@@ -55213,7 +55213,7 @@
         <v>2485</v>
       </c>
       <c r="AG155" s="2" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="AH155" s="1" t="s">
         <v>39</v>
@@ -55225,7 +55225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>430</v>
       </c>
@@ -55327,7 +55327,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>433</v>
       </c>
@@ -55412,7 +55412,7 @@
         <v>2503</v>
       </c>
       <c r="AD157" s="2" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="AE157" s="1">
         <v>3</v>
@@ -55421,7 +55421,7 @@
         <v>2488</v>
       </c>
       <c r="AG157" s="2" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="AH157" s="1" t="s">
         <v>39</v>
@@ -55433,7 +55433,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:36" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>438</v>
       </c>
@@ -55522,7 +55522,7 @@
         <v>1936</v>
       </c>
       <c r="AD158" s="2" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="AE158" s="1">
         <v>5</v>
@@ -55531,7 +55531,7 @@
         <v>2489</v>
       </c>
       <c r="AG158" s="2" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="AH158" s="1" t="s">
         <v>39</v>
@@ -55543,7 +55543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>441</v>
       </c>
@@ -55604,7 +55604,7 @@
         <v>2547</v>
       </c>
       <c r="AD159" s="2" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="AE159" s="1">
         <v>5</v>
@@ -55613,13 +55613,13 @@
         <v>2548</v>
       </c>
       <c r="AG159" s="2" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="AH159" s="1"/>
       <c r="AI159" s="1"/>
       <c r="AJ159" s="1"/>
     </row>
-    <row r="160" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>452</v>
       </c>
@@ -55725,7 +55725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>497</v>
       </c>
@@ -55829,7 +55829,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>498</v>
       </c>
@@ -55937,7 +55937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>517</v>
       </c>
@@ -56026,7 +56026,7 @@
         <v>2493</v>
       </c>
       <c r="AD163" s="2" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="AE163" s="1">
         <v>3</v>
@@ -56035,7 +56035,7 @@
         <v>2494</v>
       </c>
       <c r="AG163" s="2" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="AH163" s="1" t="s">
         <v>39</v>
@@ -56047,7 +56047,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>545</v>
       </c>
@@ -56151,7 +56151,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>574</v>
       </c>
@@ -56255,7 +56255,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>590</v>
       </c>
@@ -56361,7 +56361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>626</v>
       </c>
@@ -56463,7 +56463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>628</v>
       </c>
@@ -56573,7 +56573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>640</v>
       </c>
@@ -56660,7 +56660,7 @@
         <v>2532</v>
       </c>
       <c r="AD169" s="2" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="AE169" s="1">
         <v>3</v>
@@ -56669,7 +56669,7 @@
         <v>2533</v>
       </c>
       <c r="AG169" s="2" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="AH169" s="1" t="s">
         <v>39</v>
@@ -56681,7 +56681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>672</v>
       </c>
@@ -56768,7 +56768,7 @@
         <v>2496</v>
       </c>
       <c r="AD170" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="AE170" s="1">
         <v>5</v>
@@ -56777,7 +56777,7 @@
         <v>2497</v>
       </c>
       <c r="AG170" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="AH170" s="1" t="s">
         <v>39</v>
@@ -56789,7 +56789,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>678</v>
       </c>
@@ -56874,7 +56874,7 @@
         <v>2504</v>
       </c>
       <c r="AD171" s="2" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="AE171" s="1">
         <v>2</v>
@@ -56883,7 +56883,7 @@
         <v>2505</v>
       </c>
       <c r="AG171" s="2" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="AH171" s="1" t="s">
         <v>39</v>
@@ -56895,7 +56895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>684</v>
       </c>
@@ -57001,7 +57001,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>685</v>
       </c>
@@ -57107,7 +57107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>689</v>
       </c>
@@ -57231,136 +57231,136 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="205.5703125" customWidth="1"/>
-    <col min="2" max="2" width="74.42578125" customWidth="1"/>
+    <col min="1" max="1" width="205.54296875" customWidth="1"/>
+    <col min="2" max="2" width="74.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2043</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2041</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2056</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2608</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2042</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>2039</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>2045</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>2088</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>2688</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>2689</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>2690</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>2118</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>2607</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>2157</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>2175</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>2327</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>2185</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>2241</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>2323</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>2359</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>2517</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
     </row>
   </sheetData>

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9D1112-2CAF-4E99-B1D7-2F33D6AD4848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D0720B-EC1E-4517-9560-3A36C6B809F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook 1" sheetId="1" r:id="rId1"/>
@@ -10744,13 +10744,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8C8C23E-B8AC-4554-A9ED-C1B262734E5B}" name="Tabelle1" displayName="Tabelle1" ref="A1:BB185" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
-  <autoFilter ref="A1:BB185" xr:uid="{B8C8C23E-B8AC-4554-A9ED-C1B262734E5B}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="43"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:BB185" xr:uid="{B8C8C23E-B8AC-4554-A9ED-C1B262734E5B}"/>
   <tableColumns count="54">
     <tableColumn id="1" xr3:uid="{D02BA947-3664-4909-B808-3612C7EA1856}" name="id" dataDxfId="96"/>
     <tableColumn id="2" xr3:uid="{617FAC16-622B-484B-9C9C-1413492D1A08}" name="publication_type" dataDxfId="95"/>
@@ -10813,13 +10807,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:AJ174" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
-  <autoFilter ref="A1:AJ174" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="43"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AJ174" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="36">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="40"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="authors" dataDxfId="39"/>
@@ -11171,7 +11159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K193" sqref="K193"/>
     </sheetView>
   </sheetViews>
@@ -11393,7 +11381,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -11545,7 +11533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -11703,7 +11691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -11855,7 +11843,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -12007,7 +11995,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>28</v>
       </c>
@@ -12159,7 +12147,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>34</v>
       </c>
@@ -12305,7 +12293,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42</v>
       </c>
@@ -12457,7 +12445,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>79</v>
       </c>
@@ -12609,7 +12597,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>86</v>
       </c>
@@ -12761,7 +12749,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>95</v>
       </c>
@@ -12904,7 +12892,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>98</v>
       </c>
@@ -13056,7 +13044,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>111</v>
       </c>
@@ -13208,7 +13196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>123</v>
       </c>
@@ -13360,7 +13348,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>124</v>
       </c>
@@ -13515,7 +13503,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>136</v>
       </c>
@@ -13667,7 +13655,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>157</v>
       </c>
@@ -13819,7 +13807,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>162</v>
       </c>
@@ -13974,7 +13962,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>164</v>
       </c>
@@ -14126,7 +14114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>173</v>
       </c>
@@ -14281,7 +14269,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>174</v>
       </c>
@@ -14436,7 +14424,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>210</v>
       </c>
@@ -14582,7 +14570,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>214</v>
       </c>
@@ -14734,7 +14722,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>216</v>
       </c>
@@ -14877,7 +14865,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>219</v>
       </c>
@@ -15029,7 +15017,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>220</v>
       </c>
@@ -15166,7 +15154,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>233</v>
       </c>
@@ -15318,7 +15306,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>254</v>
       </c>
@@ -15470,7 +15458,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>263</v>
       </c>
@@ -15613,7 +15601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>270</v>
       </c>
@@ -15765,7 +15753,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>279</v>
       </c>
@@ -15914,7 +15902,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>312</v>
       </c>
@@ -16057,7 +16045,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="33" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>346</v>
       </c>
@@ -16209,7 +16197,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="34" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>352</v>
       </c>
@@ -16367,7 +16355,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>355</v>
       </c>
@@ -16519,7 +16507,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>362</v>
       </c>
@@ -16671,7 +16659,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>371</v>
       </c>
@@ -16829,7 +16817,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>372</v>
       </c>
@@ -16972,7 +16960,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>372</v>
       </c>
@@ -17115,7 +17103,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>372</v>
       </c>
@@ -17267,7 +17255,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>390</v>
       </c>
@@ -17407,7 +17395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>405</v>
       </c>
@@ -17565,7 +17553,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:54" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>429</v>
       </c>
@@ -17717,7 +17705,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>442</v>
       </c>
@@ -17857,7 +17845,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>523</v>
       </c>
@@ -17997,7 +17985,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>527</v>
       </c>
@@ -18152,7 +18140,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="47" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>528</v>
       </c>
@@ -18301,7 +18289,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>531</v>
       </c>
@@ -18453,7 +18441,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>533</v>
       </c>
@@ -18605,7 +18593,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>536</v>
       </c>
@@ -18754,7 +18742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>540</v>
       </c>
@@ -18906,7 +18894,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>550</v>
       </c>
@@ -19052,7 +19040,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>558</v>
       </c>
@@ -19204,7 +19192,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="54" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>569</v>
       </c>
@@ -19356,7 +19344,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>569</v>
       </c>
@@ -19508,7 +19496,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>573</v>
       </c>
@@ -19660,7 +19648,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="57" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>612</v>
       </c>
@@ -19806,7 +19794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>676</v>
       </c>
@@ -19958,7 +19946,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="59" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>682</v>
       </c>
@@ -20110,7 +20098,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>690</v>
       </c>
@@ -20253,7 +20241,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="61" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -20393,7 +20381,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="62" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -20551,7 +20539,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>25</v>
       </c>
@@ -20703,7 +20691,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="64" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>36</v>
       </c>
@@ -20846,7 +20834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:54" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:54" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>56</v>
       </c>
@@ -20995,7 +20983,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>56</v>
       </c>
@@ -21126,7 +21114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>56</v>
       </c>
@@ -21257,7 +21245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>56</v>
       </c>
@@ -21388,7 +21376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>62</v>
       </c>
@@ -21534,7 +21522,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>82</v>
       </c>
@@ -21665,7 +21653,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>87</v>
       </c>
@@ -21814,7 +21802,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:54" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:54" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>94</v>
       </c>
@@ -21954,7 +21942,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="73" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>94</v>
       </c>
@@ -22094,7 +22082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>94</v>
       </c>
@@ -22234,7 +22222,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>116</v>
       </c>
@@ -22383,7 +22371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>128</v>
       </c>
@@ -22535,7 +22523,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="77" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>129</v>
       </c>
@@ -22672,7 +22660,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="78" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>129</v>
       </c>
@@ -22809,7 +22797,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>130</v>
       </c>
@@ -22958,7 +22946,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>147</v>
       </c>
@@ -23107,7 +23095,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="81" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>148</v>
       </c>
@@ -23250,7 +23238,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>155</v>
       </c>
@@ -23396,7 +23384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>183</v>
       </c>
@@ -23539,7 +23527,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="84" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>188</v>
       </c>
@@ -23682,7 +23670,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>200</v>
       </c>
@@ -23834,7 +23822,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="86" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>201</v>
       </c>
@@ -23986,7 +23974,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:54" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>234</v>
       </c>
@@ -24138,7 +24126,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="88" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>242</v>
       </c>
@@ -24290,7 +24278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>253</v>
       </c>
@@ -24442,7 +24430,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>269</v>
       </c>
@@ -24582,7 +24570,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>274</v>
       </c>
@@ -24734,7 +24722,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="92" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>280</v>
       </c>
@@ -24883,7 +24871,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="93" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>301</v>
       </c>
@@ -25026,7 +25014,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="94" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>325</v>
       </c>
@@ -25175,7 +25163,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="95" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>335</v>
       </c>
@@ -25312,7 +25300,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>337</v>
       </c>
@@ -25461,7 +25449,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="97" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>339</v>
       </c>
@@ -25613,7 +25601,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>367</v>
       </c>
@@ -25762,7 +25750,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="99" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>418</v>
       </c>
@@ -25917,7 +25905,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>419</v>
       </c>
@@ -26063,7 +26051,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>465</v>
       </c>
@@ -26209,7 +26197,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="102" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>479</v>
       </c>
@@ -26361,7 +26349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>482</v>
       </c>
@@ -26504,7 +26492,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="104" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>486</v>
       </c>
@@ -26638,7 +26626,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>501</v>
       </c>
@@ -26781,7 +26769,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="106" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>524</v>
       </c>
@@ -26933,7 +26921,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="107" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>553</v>
       </c>
@@ -27082,7 +27070,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>557</v>
       </c>
@@ -27234,7 +27222,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="109" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>560</v>
       </c>
@@ -27380,7 +27368,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>561</v>
       </c>
@@ -27535,7 +27523,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>600</v>
       </c>
@@ -27681,7 +27669,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="112" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>607</v>
       </c>
@@ -27827,7 +27815,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>607</v>
       </c>
@@ -27979,7 +27967,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>627</v>
       </c>
@@ -28125,7 +28113,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="115" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>636</v>
       </c>
@@ -28274,7 +28262,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>650</v>
       </c>
@@ -28426,7 +28414,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="117" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>659</v>
       </c>
@@ -28578,7 +28566,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>660</v>
       </c>
@@ -28730,7 +28718,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>675</v>
       </c>
@@ -28879,7 +28867,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="120" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>677</v>
       </c>
@@ -29031,7 +29019,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="121" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>686</v>
       </c>
@@ -29183,7 +29171,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="122" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>687</v>
       </c>
@@ -29329,7 +29317,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="123" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>688</v>
       </c>
@@ -29481,7 +29469,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="124" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>8</v>
       </c>
@@ -29633,7 +29621,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="125" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>26</v>
       </c>
@@ -29785,7 +29773,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="126" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>32</v>
       </c>
@@ -30229,7 +30217,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="129" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>61</v>
       </c>
@@ -30381,7 +30369,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>81</v>
       </c>
@@ -30533,7 +30521,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="131" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>83</v>
       </c>
@@ -30679,7 +30667,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>99</v>
       </c>
@@ -30834,7 +30822,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -30992,7 +30980,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>146</v>
       </c>
@@ -31144,7 +31132,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="135" spans="1:54" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:54" ht="90" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>150</v>
       </c>
@@ -31293,7 +31281,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>166</v>
       </c>
@@ -31436,7 +31424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:54" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>178</v>
       </c>
@@ -31579,7 +31567,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>180</v>
       </c>
@@ -31731,7 +31719,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>180</v>
       </c>
@@ -31883,7 +31871,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>180</v>
       </c>
@@ -32035,7 +32023,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>193</v>
       </c>
@@ -32187,7 +32175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>236</v>
       </c>
@@ -32342,7 +32330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="143" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>248</v>
       </c>
@@ -32494,7 +32482,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>262</v>
       </c>
@@ -32646,7 +32634,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>291</v>
       </c>
@@ -32798,7 +32786,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="146" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>302</v>
       </c>
@@ -32950,7 +32938,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>303</v>
       </c>
@@ -33099,7 +33087,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>324</v>
       </c>
@@ -33248,7 +33236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>327</v>
       </c>
@@ -33400,7 +33388,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>338</v>
       </c>
@@ -33552,7 +33540,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="151" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>342</v>
       </c>
@@ -33704,7 +33692,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>347</v>
       </c>
@@ -33850,7 +33838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>348</v>
       </c>
@@ -33990,7 +33978,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="154" spans="1:54" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>349</v>
       </c>
@@ -34142,7 +34130,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>363</v>
       </c>
@@ -34294,7 +34282,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>376</v>
       </c>
@@ -34446,7 +34434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>378</v>
       </c>
@@ -34598,7 +34586,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="158" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>381</v>
       </c>
@@ -34741,7 +34729,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="159" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>384</v>
       </c>
@@ -34887,7 +34875,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="160" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>400</v>
       </c>
@@ -35039,7 +35027,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="161" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>408</v>
       </c>
@@ -35191,7 +35179,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>408</v>
       </c>
@@ -35331,7 +35319,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>412</v>
       </c>
@@ -35483,7 +35471,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>430</v>
       </c>
@@ -35632,7 +35620,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="165" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>433</v>
       </c>
@@ -35784,7 +35772,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>438</v>
       </c>
@@ -35939,7 +35927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>438</v>
       </c>
@@ -36076,7 +36064,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>441</v>
       </c>
@@ -36216,7 +36204,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="169" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>452</v>
       </c>
@@ -36362,7 +36350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="170" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>497</v>
       </c>
@@ -36511,7 +36499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>498</v>
       </c>
@@ -36660,7 +36648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>517</v>
       </c>
@@ -36812,7 +36800,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="173" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>545</v>
       </c>
@@ -36964,7 +36952,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>574</v>
       </c>
@@ -37122,7 +37110,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>590</v>
       </c>
@@ -37265,7 +37253,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="176" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>626</v>
       </c>
@@ -37417,7 +37405,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="177" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>628</v>
       </c>
@@ -37563,7 +37551,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="178" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>640</v>
       </c>
@@ -37715,7 +37703,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="179" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>648</v>
       </c>
@@ -37861,7 +37849,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="180" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>649</v>
       </c>
@@ -38010,7 +37998,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="181" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>672</v>
       </c>
@@ -38165,7 +38153,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="182" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>678</v>
       </c>
@@ -38317,7 +38305,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="183" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>684</v>
       </c>
@@ -38472,7 +38460,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="184" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>685</v>
       </c>
@@ -38627,7 +38615,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="185" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>689</v>
       </c>
@@ -38793,7 +38781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="W182" sqref="W182"/>
     </sheetView>
@@ -38941,7 +38929,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -39043,7 +39031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -39145,7 +39133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -39251,7 +39239,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -39351,7 +39339,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>28</v>
       </c>
@@ -39457,7 +39445,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>34</v>
       </c>
@@ -39565,7 +39553,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42</v>
       </c>
@@ -39663,7 +39651,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>79</v>
       </c>
@@ -39773,7 +39761,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>86</v>
       </c>
@@ -39875,7 +39863,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>95</v>
       </c>
@@ -39977,7 +39965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>98</v>
       </c>
@@ -40079,7 +40067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>111</v>
       </c>
@@ -40185,7 +40173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>123</v>
       </c>
@@ -40287,7 +40275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>136</v>
       </c>
@@ -40391,7 +40379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>157</v>
       </c>
@@ -40501,7 +40489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>162</v>
       </c>
@@ -40609,7 +40597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>164</v>
       </c>
@@ -40719,7 +40707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>173</v>
       </c>
@@ -40825,7 +40813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>174</v>
       </c>
@@ -40929,7 +40917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>210</v>
       </c>
@@ -41029,7 +41017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>214</v>
       </c>
@@ -41131,7 +41119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>216</v>
       </c>
@@ -41237,7 +41225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>219</v>
       </c>
@@ -41339,7 +41327,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>220</v>
       </c>
@@ -41447,7 +41435,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>233</v>
       </c>
@@ -41547,7 +41535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>254</v>
       </c>
@@ -41647,7 +41635,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>263</v>
       </c>
@@ -41755,7 +41743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>270</v>
       </c>
@@ -41863,7 +41851,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>279</v>
       </c>
@@ -41965,7 +41953,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>312</v>
       </c>
@@ -42067,7 +42055,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>346</v>
       </c>
@@ -42177,7 +42165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>352</v>
       </c>
@@ -42281,7 +42269,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>355</v>
       </c>
@@ -42387,7 +42375,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>362</v>
       </c>
@@ -42491,7 +42479,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>371</v>
       </c>
@@ -42597,7 +42585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>372</v>
       </c>
@@ -42695,7 +42683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>372</v>
       </c>
@@ -42793,7 +42781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>372</v>
       </c>
@@ -42895,7 +42883,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>405</v>
       </c>
@@ -43001,7 +42989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>429</v>
       </c>
@@ -43105,7 +43093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>442</v>
       </c>
@@ -43207,7 +43195,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>523</v>
       </c>
@@ -43315,7 +43303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>528</v>
       </c>
@@ -43421,7 +43409,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>531</v>
       </c>
@@ -43523,7 +43511,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>533</v>
       </c>
@@ -43629,7 +43617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>536</v>
       </c>
@@ -43725,7 +43713,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>540</v>
       </c>
@@ -43835,7 +43823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>550</v>
       </c>
@@ -43937,7 +43925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>558</v>
       </c>
@@ -44043,7 +44031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>569</v>
       </c>
@@ -44147,7 +44135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>573</v>
       </c>
@@ -44251,7 +44239,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>676</v>
       </c>
@@ -44359,7 +44347,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>682</v>
       </c>
@@ -44463,7 +44451,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>690</v>
       </c>
@@ -44563,7 +44551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -44663,7 +44651,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>11</v>
       </c>
@@ -44769,7 +44757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>25</v>
       </c>
@@ -44871,7 +44859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>36</v>
       </c>
@@ -44979,7 +44967,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -45087,7 +45075,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>56</v>
       </c>
@@ -45193,7 +45181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>56</v>
       </c>
@@ -45299,7 +45287,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>56</v>
       </c>
@@ -45405,7 +45393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -45503,7 +45491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>82</v>
       </c>
@@ -45597,7 +45585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>87</v>
       </c>
@@ -45695,7 +45683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>94</v>
       </c>
@@ -45799,7 +45787,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>94</v>
       </c>
@@ -45903,7 +45891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>94</v>
       </c>
@@ -46007,7 +45995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>116</v>
       </c>
@@ -46109,7 +46097,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>128</v>
       </c>
@@ -46219,7 +46207,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>129</v>
       </c>
@@ -46321,7 +46309,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>129</v>
       </c>
@@ -46423,7 +46411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>130</v>
       </c>
@@ -46525,7 +46513,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>147</v>
       </c>
@@ -46625,7 +46613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>148</v>
       </c>
@@ -46729,7 +46717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>155</v>
       </c>
@@ -46829,7 +46817,7 @@
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
     </row>
-    <row r="78" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>183</v>
       </c>
@@ -46927,7 +46915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>188</v>
       </c>
@@ -47027,7 +47015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>200</v>
       </c>
@@ -47133,7 +47121,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>201</v>
       </c>
@@ -47231,7 +47219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>234</v>
       </c>
@@ -47333,7 +47321,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>242</v>
       </c>
@@ -47439,7 +47427,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>253</v>
       </c>
@@ -47537,7 +47525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>269</v>
       </c>
@@ -47635,7 +47623,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>274</v>
       </c>
@@ -47739,7 +47727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>280</v>
       </c>
@@ -47843,7 +47831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>301</v>
       </c>
@@ -47941,7 +47929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>325</v>
       </c>
@@ -48049,7 +48037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>335</v>
       </c>
@@ -48155,7 +48143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>337</v>
       </c>
@@ -48257,7 +48245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>339</v>
       </c>
@@ -48363,7 +48351,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>367</v>
       </c>
@@ -48467,7 +48455,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>418</v>
       </c>
@@ -48565,7 +48553,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>419</v>
       </c>
@@ -48667,7 +48655,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>465</v>
       </c>
@@ -48769,7 +48757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>479</v>
       </c>
@@ -48871,7 +48859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>482</v>
       </c>
@@ -48969,7 +48957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>486</v>
       </c>
@@ -49069,7 +49057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>501</v>
       </c>
@@ -49177,7 +49165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>524</v>
       </c>
@@ -49281,7 +49269,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>553</v>
       </c>
@@ -49383,7 +49371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>557</v>
       </c>
@@ -49487,7 +49475,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>560</v>
       </c>
@@ -49591,7 +49579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>561</v>
       </c>
@@ -49697,7 +49685,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>600</v>
       </c>
@@ -49797,7 +49785,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>627</v>
       </c>
@@ -49905,7 +49893,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>636</v>
       </c>
@@ -50007,7 +49995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>650</v>
       </c>
@@ -50105,7 +50093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>659</v>
       </c>
@@ -50203,7 +50191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>660</v>
       </c>
@@ -50307,7 +50295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>675</v>
       </c>
@@ -50415,7 +50403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>677</v>
       </c>
@@ -50511,7 +50499,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>686</v>
       </c>
@@ -50613,7 +50601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>687</v>
       </c>
@@ -50717,7 +50705,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>688</v>
       </c>
@@ -50825,7 +50813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>8</v>
       </c>
@@ -50933,7 +50921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>26</v>
       </c>
@@ -51037,7 +51025,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>32</v>
       </c>
@@ -51351,7 +51339,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>61</v>
       </c>
@@ -51461,7 +51449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>81</v>
       </c>
@@ -51569,7 +51557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>83</v>
       </c>
@@ -51667,7 +51655,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>99</v>
       </c>
@@ -51755,7 +51743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>133</v>
       </c>
@@ -51857,7 +51845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>146</v>
       </c>
@@ -51965,7 +51953,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>150</v>
       </c>
@@ -52071,7 +52059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" ht="165" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>166</v>
       </c>
@@ -52181,7 +52169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>178</v>
       </c>
@@ -52283,7 +52271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>180</v>
       </c>
@@ -52393,7 +52381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>180</v>
       </c>
@@ -52503,7 +52491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>180</v>
       </c>
@@ -52611,7 +52599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>193</v>
       </c>
@@ -52719,7 +52707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>236</v>
       </c>
@@ -52825,7 +52813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>248</v>
       </c>
@@ -52923,7 +52911,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>262</v>
       </c>
@@ -53031,7 +53019,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>291</v>
       </c>
@@ -53139,7 +53127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>302</v>
       </c>
@@ -53247,7 +53235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>303</v>
       </c>
@@ -53349,7 +53337,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>324</v>
       </c>
@@ -53453,7 +53441,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>327</v>
       </c>
@@ -53555,7 +53543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>338</v>
       </c>
@@ -53657,7 +53645,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>342</v>
       </c>
@@ -53763,7 +53751,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>347</v>
       </c>
@@ -53855,7 +53843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="146" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>348</v>
       </c>
@@ -53959,7 +53947,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>349</v>
       </c>
@@ -54065,7 +54053,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>363</v>
       </c>
@@ -54173,7 +54161,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>376</v>
       </c>
@@ -54277,7 +54265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>378</v>
       </c>
@@ -54385,7 +54373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>381</v>
       </c>
@@ -54487,7 +54475,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>384</v>
       </c>
@@ -54595,7 +54583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:36" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="120" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>400</v>
       </c>
@@ -54701,7 +54689,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>408</v>
       </c>
@@ -54807,7 +54795,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>412</v>
       </c>
@@ -54913,7 +54901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>430</v>
       </c>
@@ -55015,7 +55003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>433</v>
       </c>
@@ -55121,7 +55109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:36" s="3" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>438</v>
       </c>
@@ -55231,7 +55219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>441</v>
       </c>
@@ -55307,7 +55295,7 @@
       <c r="AI159" s="1"/>
       <c r="AJ159" s="1"/>
     </row>
-    <row r="160" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>452</v>
       </c>
@@ -55413,7 +55401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>497</v>
       </c>
@@ -55517,7 +55505,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>498</v>
       </c>
@@ -55625,7 +55613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>517</v>
       </c>
@@ -55735,7 +55723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>545</v>
       </c>
@@ -55839,7 +55827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>574</v>
       </c>
@@ -55943,7 +55931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>590</v>
       </c>
@@ -56049,7 +56037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>626</v>
       </c>
@@ -56151,7 +56139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>628</v>
       </c>
@@ -56261,7 +56249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>640</v>
       </c>
@@ -56369,7 +56357,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>672</v>
       </c>
@@ -56477,7 +56465,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>678</v>
       </c>
@@ -56583,7 +56571,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>684</v>
       </c>
@@ -56689,7 +56677,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>685</v>
       </c>
@@ -56795,7 +56783,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>689</v>
       </c>

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E58102-4CC0-4250-9A30-AA1AE6219F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6983E35-94E3-48BA-95B2-64A77BA3605C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook 1" sheetId="1" r:id="rId1"/>
@@ -10743,23 +10743,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8C8C23E-B8AC-4554-A9ED-C1B262734E5B}" name="Tabelle1" displayName="Tabelle1" ref="A1:BB185" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <autoFilter ref="A1:BB185" xr:uid="{B8C8C23E-B8AC-4554-A9ED-C1B262734E5B}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="408"/>
-        <filter val="438"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="14">
-      <filters>
-        <filter val="control group"/>
-        <filter val="experimental group"/>
-        <filter val="Hong Kong sample (wave 1)"/>
-        <filter val="India sample"/>
-        <filter val="other study samples were part of the paper, but not relevant for this review"/>
-        <filter val="treatment group"/>
-        <filter val="US sample"/>
-        <filter val="USA sample"/>
-      </filters>
+    <filterColumn colId="23">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="54">
@@ -10825,11 +10812,10 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:AJ174" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:AJ174" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="408"/>
-        <filter val="438"/>
-      </filters>
+    <filterColumn colId="15">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="36">
@@ -11183,8 +11169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BB187" sqref="BB187"/>
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X99" sqref="X99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12171,7 +12157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>34</v>
       </c>
@@ -13372,7 +13358,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>124</v>
       </c>
@@ -13986,7 +13972,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>164</v>
       </c>
@@ -14293,7 +14279,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>174</v>
       </c>
@@ -14448,7 +14434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>210</v>
       </c>
@@ -16221,7 +16207,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="34" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>352</v>
       </c>
@@ -18009,7 +17995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>527</v>
       </c>
@@ -25741,7 +25727,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="99" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>418</v>
       </c>
@@ -26617,7 +26603,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>501</v>
       </c>
@@ -27660,7 +27646,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="112" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>607</v>
       </c>
@@ -34976,7 +34962,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="161" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>408</v>
       </c>
@@ -35128,7 +35114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>408</v>
       </c>
@@ -35715,7 +35701,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>438</v>
       </c>
@@ -35870,7 +35856,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>438</v>
       </c>
@@ -36886,7 +36872,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>574</v>
       </c>
@@ -37637,7 +37623,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="179" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>648</v>
       </c>
@@ -37783,7 +37769,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="180" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>649</v>
       </c>
@@ -38715,9 +38701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG158" sqref="AG158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39068,7 +39054,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -39274,7 +39260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>28</v>
       </c>
@@ -39380,7 +39366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>34</v>
       </c>
@@ -39586,7 +39572,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>79</v>
       </c>
@@ -39696,7 +39682,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>86</v>
       </c>
@@ -39798,7 +39784,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>95</v>
       </c>
@@ -40002,7 +39988,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>111</v>
       </c>
@@ -40108,7 +40094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>123</v>
       </c>
@@ -40210,7 +40196,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>136</v>
       </c>
@@ -40314,7 +40300,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>157</v>
       </c>
@@ -40424,7 +40410,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>162</v>
       </c>
@@ -40532,7 +40518,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>164</v>
       </c>
@@ -40642,7 +40628,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>173</v>
       </c>
@@ -40748,7 +40734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>174</v>
       </c>
@@ -40852,7 +40838,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>210</v>
       </c>
@@ -40952,7 +40938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>214</v>
       </c>
@@ -41054,7 +41040,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>216</v>
       </c>
@@ -41160,7 +41146,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>219</v>
       </c>
@@ -41262,7 +41248,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>220</v>
       </c>
@@ -41470,7 +41456,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>254</v>
       </c>
@@ -41678,7 +41664,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>270</v>
       </c>
@@ -41888,7 +41874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>312</v>
       </c>
@@ -41990,7 +41976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>346</v>
       </c>
@@ -42100,7 +42086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>352</v>
       </c>
@@ -42310,7 +42296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>362</v>
       </c>
@@ -42414,7 +42400,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>371</v>
       </c>
@@ -42716,7 +42702,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>372</v>
       </c>
@@ -42818,7 +42804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>405</v>
       </c>
@@ -42924,7 +42910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>429</v>
       </c>
@@ -43028,7 +43014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>442</v>
       </c>
@@ -43238,7 +43224,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>528</v>
       </c>
@@ -43344,7 +43330,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>531</v>
       </c>
@@ -43446,7 +43432,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>533</v>
       </c>
@@ -43648,7 +43634,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>540</v>
       </c>
@@ -43758,7 +43744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>550</v>
       </c>
@@ -44070,7 +44056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>573</v>
       </c>
@@ -44174,7 +44160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>676</v>
       </c>
@@ -44486,7 +44472,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -44586,7 +44572,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>11</v>
       </c>
@@ -44692,7 +44678,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>25</v>
       </c>
@@ -44794,7 +44780,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>36</v>
       </c>
@@ -44902,7 +44888,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -45010,7 +44996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>56</v>
       </c>
@@ -45116,7 +45102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>56</v>
       </c>
@@ -45222,7 +45208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>56</v>
       </c>
@@ -45328,7 +45314,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -45618,7 +45604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>94</v>
       </c>
@@ -45722,7 +45708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>94</v>
       </c>
@@ -45826,7 +45812,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>94</v>
       </c>
@@ -45930,7 +45916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>116</v>
       </c>
@@ -46032,7 +46018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>128</v>
       </c>
@@ -46142,7 +46128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>129</v>
       </c>
@@ -46244,7 +46230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>129</v>
       </c>
@@ -46346,7 +46332,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>130</v>
       </c>
@@ -46448,7 +46434,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>147</v>
       </c>
@@ -46548,7 +46534,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>148</v>
       </c>
@@ -46652,7 +46638,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>155</v>
       </c>
@@ -46752,7 +46738,7 @@
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
     </row>
-    <row r="78" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>183</v>
       </c>
@@ -46950,7 +46936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>200</v>
       </c>
@@ -47154,7 +47140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>234</v>
       </c>
@@ -47256,7 +47242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>242</v>
       </c>
@@ -47460,7 +47446,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>269</v>
       </c>
@@ -47662,7 +47648,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>280</v>
       </c>
@@ -47864,7 +47850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>325</v>
       </c>
@@ -47972,7 +47958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>335</v>
       </c>
@@ -48180,7 +48166,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>339</v>
       </c>
@@ -48286,7 +48272,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>367</v>
       </c>
@@ -48390,7 +48376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>418</v>
       </c>
@@ -48488,7 +48474,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>419</v>
       </c>
@@ -48794,7 +48780,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>482</v>
       </c>
@@ -48892,7 +48878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>486</v>
       </c>
@@ -48992,7 +48978,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>501</v>
       </c>
@@ -49100,7 +49086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>524</v>
       </c>
@@ -49204,7 +49190,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>553</v>
       </c>
@@ -49306,7 +49292,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>557</v>
       </c>
@@ -49410,7 +49396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>560</v>
       </c>
@@ -49514,7 +49500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>561</v>
       </c>
@@ -49720,7 +49706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>627</v>
       </c>
@@ -50126,7 +50112,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>660</v>
       </c>
@@ -50230,7 +50216,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>675</v>
       </c>
@@ -50434,7 +50420,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>686</v>
       </c>
@@ -50536,7 +50522,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>687</v>
       </c>
@@ -50640,7 +50626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>688</v>
       </c>
@@ -50748,7 +50734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>8</v>
       </c>
@@ -50960,7 +50946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>32</v>
       </c>
@@ -51066,7 +51052,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43</v>
       </c>
@@ -51274,7 +51260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>61</v>
       </c>
@@ -51384,7 +51370,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>81</v>
       </c>
@@ -51780,7 +51766,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>146</v>
       </c>
@@ -51888,7 +51874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>150</v>
       </c>
@@ -51994,7 +51980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" ht="165" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>166</v>
       </c>
@@ -52104,7 +52090,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>178</v>
       </c>
@@ -52206,7 +52192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>180</v>
       </c>
@@ -52316,7 +52302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>180</v>
       </c>
@@ -52426,7 +52412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>180</v>
       </c>
@@ -52534,7 +52520,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>193</v>
       </c>
@@ -52642,7 +52628,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>236</v>
       </c>
@@ -52846,7 +52832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>262</v>
       </c>
@@ -53272,7 +53258,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>324</v>
       </c>
@@ -53376,7 +53362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>327</v>
       </c>
@@ -53580,7 +53566,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>342</v>
       </c>
@@ -53686,7 +53672,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>347</v>
       </c>
@@ -53778,7 +53764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="146" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>348</v>
       </c>
@@ -53882,7 +53868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>349</v>
       </c>
@@ -53988,7 +53974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>363</v>
       </c>
@@ -54096,7 +54082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>376</v>
       </c>
@@ -54200,7 +54186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>378</v>
       </c>
@@ -54518,7 +54504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:36" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="120" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>400</v>
       </c>
@@ -54730,7 +54716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>412</v>
       </c>
@@ -54938,7 +54924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>433</v>
       </c>
@@ -55154,7 +55140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>441</v>
       </c>
@@ -55230,7 +55216,7 @@
       <c r="AI159" s="1"/>
       <c r="AJ159" s="1"/>
     </row>
-    <row r="160" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>452</v>
       </c>
@@ -55336,7 +55322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>497</v>
       </c>
@@ -55440,7 +55426,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>498</v>
       </c>
@@ -55548,7 +55534,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>517</v>
       </c>
@@ -55762,7 +55748,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>574</v>
       </c>
@@ -55866,7 +55852,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>590</v>
       </c>
@@ -56074,7 +56060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>628</v>
       </c>
@@ -56184,7 +56170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>640</v>
       </c>
@@ -56292,7 +56278,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>672</v>
       </c>
@@ -56506,7 +56492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>684</v>
       </c>
@@ -56612,7 +56598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>685</v>
       </c>
@@ -56718,7 +56704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>689</v>
       </c>

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6983E35-94E3-48BA-95B2-64A77BA3605C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854091F7-EBBA-4F81-A2F3-E799A0B32C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook 1" sheetId="1" r:id="rId1"/>
@@ -10742,13 +10742,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8C8C23E-B8AC-4554-A9ED-C1B262734E5B}" name="Tabelle1" displayName="Tabelle1" ref="A1:BB185" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
-  <autoFilter ref="A1:BB185" xr:uid="{B8C8C23E-B8AC-4554-A9ED-C1B262734E5B}">
-    <filterColumn colId="23">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:BB185" xr:uid="{B8C8C23E-B8AC-4554-A9ED-C1B262734E5B}"/>
   <tableColumns count="54">
     <tableColumn id="1" xr3:uid="{D02BA947-3664-4909-B808-3612C7EA1856}" name="id" dataDxfId="96"/>
     <tableColumn id="2" xr3:uid="{617FAC16-622B-484B-9C9C-1413492D1A08}" name="publication_type" dataDxfId="95"/>
@@ -10811,13 +10805,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:AJ174" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
-  <autoFilter ref="A1:AJ174" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="15">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AJ174" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="36">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="40"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="authors" dataDxfId="39"/>
@@ -11169,8 +11157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB185"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X99" sqref="X99"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O81" sqref="O81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11391,7 +11379,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -11543,7 +11531,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -11701,7 +11689,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -11853,7 +11841,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -12005,7 +11993,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>28</v>
       </c>
@@ -12303,7 +12291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42</v>
       </c>
@@ -12455,7 +12443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>79</v>
       </c>
@@ -12607,7 +12595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>86</v>
       </c>
@@ -12759,7 +12747,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>95</v>
       </c>
@@ -12902,7 +12890,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>98</v>
       </c>
@@ -13054,7 +13042,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>111</v>
       </c>
@@ -13206,7 +13194,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>123</v>
       </c>
@@ -13513,7 +13501,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>136</v>
       </c>
@@ -13665,7 +13653,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>157</v>
       </c>
@@ -13817,7 +13805,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>162</v>
       </c>
@@ -14124,7 +14112,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>173</v>
       </c>
@@ -14580,7 +14568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>214</v>
       </c>
@@ -14732,7 +14720,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>216</v>
       </c>
@@ -14875,7 +14863,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>219</v>
       </c>
@@ -15027,7 +15015,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>220</v>
       </c>
@@ -15164,7 +15152,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>233</v>
       </c>
@@ -15316,7 +15304,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>254</v>
       </c>
@@ -15468,7 +15456,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>263</v>
       </c>
@@ -15611,7 +15599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>270</v>
       </c>
@@ -15763,7 +15751,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>279</v>
       </c>
@@ -15912,7 +15900,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>312</v>
       </c>
@@ -16055,7 +16043,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="33" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>346</v>
       </c>
@@ -16365,7 +16353,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>355</v>
       </c>
@@ -16517,7 +16505,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>362</v>
       </c>
@@ -16669,7 +16657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>371</v>
       </c>
@@ -16827,7 +16815,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>372</v>
       </c>
@@ -16970,7 +16958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>372</v>
       </c>
@@ -17113,7 +17101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>372</v>
       </c>
@@ -17265,7 +17253,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>390</v>
       </c>
@@ -17405,7 +17393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>405</v>
       </c>
@@ -17563,7 +17551,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:54" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>429</v>
       </c>
@@ -17715,7 +17703,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>442</v>
       </c>
@@ -17855,7 +17843,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>523</v>
       </c>
@@ -18150,7 +18138,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="47" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>528</v>
       </c>
@@ -18299,7 +18287,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>531</v>
       </c>
@@ -18451,7 +18439,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>533</v>
       </c>
@@ -18603,7 +18591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>536</v>
       </c>
@@ -18752,7 +18740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>540</v>
       </c>
@@ -18904,7 +18892,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>550</v>
       </c>
@@ -19050,7 +19038,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>558</v>
       </c>
@@ -19202,7 +19190,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="54" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>569</v>
       </c>
@@ -19354,7 +19342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>569</v>
       </c>
@@ -19473,7 +19461,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>573</v>
       </c>
@@ -19625,7 +19613,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="57" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>612</v>
       </c>
@@ -19771,7 +19759,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>676</v>
       </c>
@@ -19923,7 +19911,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="59" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>682</v>
       </c>
@@ -20075,7 +20063,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>690</v>
       </c>
@@ -20218,7 +20206,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="61" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -20358,7 +20346,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="62" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -20516,7 +20504,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>25</v>
       </c>
@@ -20668,7 +20656,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="64" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>36</v>
       </c>
@@ -20811,7 +20799,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:54" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:54" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>56</v>
       </c>
@@ -20960,7 +20948,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>56</v>
       </c>
@@ -21091,7 +21079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>56</v>
       </c>
@@ -21222,7 +21210,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>56</v>
       </c>
@@ -21353,7 +21341,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>62</v>
       </c>
@@ -21499,7 +21487,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>82</v>
       </c>
@@ -21630,7 +21618,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>87</v>
       </c>
@@ -21779,7 +21767,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:54" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:54" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>94</v>
       </c>
@@ -21919,7 +21907,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="73" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>94</v>
       </c>
@@ -22059,7 +22047,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>94</v>
       </c>
@@ -22199,7 +22187,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>116</v>
       </c>
@@ -22348,7 +22336,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>128</v>
       </c>
@@ -22500,7 +22488,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="77" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>129</v>
       </c>
@@ -22637,7 +22625,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="78" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>129</v>
       </c>
@@ -22774,7 +22762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>130</v>
       </c>
@@ -22923,7 +22911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>147</v>
       </c>
@@ -23072,7 +23060,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="81" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>148</v>
       </c>
@@ -23215,7 +23203,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>155</v>
       </c>
@@ -23361,7 +23349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>183</v>
       </c>
@@ -23504,7 +23492,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="84" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>188</v>
       </c>
@@ -23647,7 +23635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>200</v>
       </c>
@@ -23799,7 +23787,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="86" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>201</v>
       </c>
@@ -23951,7 +23939,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:54" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>234</v>
       </c>
@@ -24103,7 +24091,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="88" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>242</v>
       </c>
@@ -24255,7 +24243,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>253</v>
       </c>
@@ -24407,7 +24395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>269</v>
       </c>
@@ -24547,7 +24535,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>274</v>
       </c>
@@ -24699,7 +24687,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="92" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>280</v>
       </c>
@@ -24848,7 +24836,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="93" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>301</v>
       </c>
@@ -24991,7 +24979,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="94" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>325</v>
       </c>
@@ -25140,7 +25128,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="95" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>335</v>
       </c>
@@ -25277,7 +25265,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>337</v>
       </c>
@@ -25426,7 +25414,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="97" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>339</v>
       </c>
@@ -25578,7 +25566,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>367</v>
       </c>
@@ -25882,7 +25870,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>419</v>
       </c>
@@ -26028,7 +26016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>465</v>
       </c>
@@ -26174,7 +26162,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="102" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>479</v>
       </c>
@@ -26326,7 +26314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>482</v>
       </c>
@@ -26469,7 +26457,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="104" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>486</v>
       </c>
@@ -26746,7 +26734,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="106" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>524</v>
       </c>
@@ -26898,7 +26886,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="107" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>553</v>
       </c>
@@ -27047,7 +27035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>557</v>
       </c>
@@ -27199,7 +27187,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="109" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>560</v>
       </c>
@@ -27345,7 +27333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>561</v>
       </c>
@@ -27500,7 +27488,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>600</v>
       </c>
@@ -27792,7 +27780,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>607</v>
       </c>
@@ -27902,7 +27890,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>627</v>
       </c>
@@ -28048,7 +28036,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="115" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>636</v>
       </c>
@@ -28197,7 +28185,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>650</v>
       </c>
@@ -28349,7 +28337,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="117" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>659</v>
       </c>
@@ -28501,7 +28489,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>660</v>
       </c>
@@ -28653,7 +28641,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>675</v>
       </c>
@@ -28802,7 +28790,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="120" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>677</v>
       </c>
@@ -28954,7 +28942,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="121" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>686</v>
       </c>
@@ -29106,7 +29094,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="122" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>687</v>
       </c>
@@ -29252,7 +29240,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="123" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>688</v>
       </c>
@@ -29404,7 +29392,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="124" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>8</v>
       </c>
@@ -29556,7 +29544,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="125" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>26</v>
       </c>
@@ -29708,7 +29696,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="126" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>32</v>
       </c>
@@ -29860,7 +29848,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="127" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43</v>
       </c>
@@ -29997,7 +29985,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="128" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43</v>
       </c>
@@ -30152,7 +30140,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="129" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>61</v>
       </c>
@@ -30304,7 +30292,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>81</v>
       </c>
@@ -30456,7 +30444,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="131" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>83</v>
       </c>
@@ -30602,7 +30590,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>99</v>
       </c>
@@ -30757,7 +30745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -30915,7 +30903,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>146</v>
       </c>
@@ -31067,7 +31055,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="135" spans="1:54" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:54" ht="90" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>150</v>
       </c>
@@ -31216,7 +31204,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>166</v>
       </c>
@@ -31359,7 +31347,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:54" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>178</v>
       </c>
@@ -31502,7 +31490,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>180</v>
       </c>
@@ -31654,7 +31642,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>180</v>
       </c>
@@ -31806,7 +31794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>180</v>
       </c>
@@ -31958,7 +31946,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>193</v>
       </c>
@@ -32110,7 +32098,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>236</v>
       </c>
@@ -32265,7 +32253,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="143" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>248</v>
       </c>
@@ -32417,7 +32405,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>262</v>
       </c>
@@ -32569,7 +32557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>291</v>
       </c>
@@ -32721,7 +32709,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="146" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>302</v>
       </c>
@@ -32873,7 +32861,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>303</v>
       </c>
@@ -33022,7 +33010,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>324</v>
       </c>
@@ -33171,7 +33159,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>327</v>
       </c>
@@ -33323,7 +33311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>338</v>
       </c>
@@ -33475,7 +33463,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="151" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>342</v>
       </c>
@@ -33627,7 +33615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>347</v>
       </c>
@@ -33773,7 +33761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>348</v>
       </c>
@@ -33913,7 +33901,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="154" spans="1:54" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>349</v>
       </c>
@@ -34065,7 +34053,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>363</v>
       </c>
@@ -34217,7 +34205,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>376</v>
       </c>
@@ -34369,7 +34357,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>378</v>
       </c>
@@ -34521,7 +34509,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="158" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>381</v>
       </c>
@@ -34664,7 +34652,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="159" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>384</v>
       </c>
@@ -34810,7 +34798,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="160" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>400</v>
       </c>
@@ -34962,7 +34950,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="161" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>408</v>
       </c>
@@ -35114,7 +35102,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>408</v>
       </c>
@@ -35248,7 +35236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>412</v>
       </c>
@@ -35400,7 +35388,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>430</v>
       </c>
@@ -35549,7 +35537,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="165" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>433</v>
       </c>
@@ -35701,7 +35689,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>438</v>
       </c>
@@ -35856,7 +35844,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>438</v>
       </c>
@@ -35984,7 +35972,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="168" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>441</v>
       </c>
@@ -36124,7 +36112,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="169" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>452</v>
       </c>
@@ -36270,7 +36258,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="170" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>497</v>
       </c>
@@ -36419,7 +36407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>498</v>
       </c>
@@ -36568,7 +36556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>517</v>
       </c>
@@ -36720,7 +36708,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="173" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>545</v>
       </c>
@@ -37030,7 +37018,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>590</v>
       </c>
@@ -37173,7 +37161,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="176" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>626</v>
       </c>
@@ -37325,7 +37313,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="177" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>628</v>
       </c>
@@ -37471,7 +37459,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="178" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>640</v>
       </c>
@@ -37918,7 +37906,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="181" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>672</v>
       </c>
@@ -38073,7 +38061,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="182" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>678</v>
       </c>
@@ -38225,7 +38213,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="183" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>684</v>
       </c>
@@ -38380,7 +38368,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="184" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>685</v>
       </c>
@@ -38535,7 +38523,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="185" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>689</v>
       </c>
@@ -38702,8 +38690,8 @@
   <dimension ref="A1:AJ174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A17" sqref="A17:XFD17"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P94" sqref="P94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38850,7 +38838,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -38952,7 +38940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -39160,7 +39148,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -39474,7 +39462,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42</v>
       </c>
@@ -39886,7 +39874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>98</v>
       </c>
@@ -41356,7 +41344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>233</v>
       </c>
@@ -41556,7 +41544,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>263</v>
       </c>
@@ -41772,7 +41760,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>279</v>
       </c>
@@ -42190,7 +42178,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>355</v>
       </c>
@@ -42506,7 +42494,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>372</v>
       </c>
@@ -42604,7 +42592,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>372</v>
       </c>
@@ -43116,7 +43104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>523</v>
       </c>
@@ -43538,7 +43526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>536</v>
       </c>
@@ -43846,7 +43834,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>558</v>
       </c>
@@ -43952,7 +43940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>569</v>
       </c>
@@ -44268,7 +44256,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>682</v>
       </c>
@@ -44372,7 +44360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>690</v>
       </c>
@@ -45412,7 +45400,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>82</v>
       </c>
@@ -45506,7 +45494,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>87</v>
       </c>
@@ -46836,7 +46824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>188</v>
       </c>
@@ -47042,7 +47030,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>201</v>
       </c>
@@ -47348,7 +47336,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>253</v>
       </c>
@@ -47544,7 +47532,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>274</v>
       </c>
@@ -47752,7 +47740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>301</v>
       </c>
@@ -48064,7 +48052,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>337</v>
       </c>
@@ -48420,7 +48408,7 @@
         <v>1321</v>
       </c>
       <c r="Q94" s="6">
-        <v>0.92749999999999999</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="R94" s="1" t="s">
         <v>39</v>
@@ -48576,7 +48564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>465</v>
       </c>
@@ -48678,7 +48666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>479</v>
       </c>
@@ -49606,7 +49594,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>600</v>
       </c>
@@ -49814,7 +49802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>636</v>
       </c>
@@ -49916,7 +49904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>650</v>
       </c>
@@ -50014,7 +50002,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>659</v>
       </c>
@@ -50324,7 +50312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>677</v>
       </c>
@@ -50842,7 +50830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>26</v>
       </c>
@@ -51158,7 +51146,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43</v>
       </c>
@@ -51478,7 +51466,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>83</v>
       </c>
@@ -51576,7 +51564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>99</v>
       </c>
@@ -51664,7 +51652,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>133</v>
       </c>
@@ -52734,7 +52722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>248</v>
       </c>
@@ -52940,7 +52928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>291</v>
       </c>
@@ -53048,7 +53036,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>302</v>
       </c>
@@ -53156,7 +53144,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>303</v>
       </c>
@@ -53464,7 +53452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>338</v>
       </c>
@@ -54294,7 +54282,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>381</v>
       </c>
@@ -54396,7 +54384,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>384</v>
       </c>
@@ -54822,7 +54810,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>430</v>
       </c>
@@ -55644,7 +55632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>545</v>
       </c>
@@ -55958,7 +55946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>626</v>
       </c>
@@ -56386,7 +56374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>678</v>
       </c>

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD39F02-DE94-4CEE-8A42-910C130914A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F69F50-CEAE-479D-8395-853D6D10DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook 1" sheetId="1" r:id="rId1"/>
@@ -10739,13 +10739,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8C8C23E-B8AC-4554-A9ED-C1B262734E5B}" name="Tabelle1" displayName="Tabelle1" ref="A1:BB185" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
-  <autoFilter ref="A1:BB185" xr:uid="{B8C8C23E-B8AC-4554-A9ED-C1B262734E5B}">
-    <filterColumn colId="24">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:BB185" xr:uid="{B8C8C23E-B8AC-4554-A9ED-C1B262734E5B}"/>
   <tableColumns count="54">
     <tableColumn id="1" xr3:uid="{D02BA947-3664-4909-B808-3612C7EA1856}" name="id" dataDxfId="96"/>
     <tableColumn id="2" xr3:uid="{617FAC16-622B-484B-9C9C-1413492D1A08}" name="publication_type" dataDxfId="95"/>
@@ -10808,13 +10802,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:AJ174" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
-  <autoFilter ref="A1:AJ174" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="none"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AJ174" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="36">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="40"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="authors" dataDxfId="39"/>
@@ -11166,7 +11154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y186" sqref="Y186"/>
     </sheetView>
   </sheetViews>
@@ -11388,7 +11376,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -11540,7 +11528,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -11698,7 +11686,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -11850,7 +11838,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -12002,7 +11990,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>28</v>
       </c>
@@ -12300,7 +12288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42</v>
       </c>
@@ -12452,7 +12440,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>79</v>
       </c>
@@ -12604,7 +12592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>86</v>
       </c>
@@ -12756,7 +12744,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>95</v>
       </c>
@@ -12899,7 +12887,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>98</v>
       </c>
@@ -13051,7 +13039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>111</v>
       </c>
@@ -13203,7 +13191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>123</v>
       </c>
@@ -13510,7 +13498,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>136</v>
       </c>
@@ -13662,7 +13650,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>157</v>
       </c>
@@ -13814,7 +13802,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>162</v>
       </c>
@@ -14121,7 +14109,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>173</v>
       </c>
@@ -14431,7 +14419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>210</v>
       </c>
@@ -14577,7 +14565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>214</v>
       </c>
@@ -14729,7 +14717,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>216</v>
       </c>
@@ -14872,7 +14860,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>219</v>
       </c>
@@ -15024,7 +15012,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>220</v>
       </c>
@@ -15161,7 +15149,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>233</v>
       </c>
@@ -15313,7 +15301,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>254</v>
       </c>
@@ -15465,7 +15453,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>263</v>
       </c>
@@ -15608,7 +15596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>270</v>
       </c>
@@ -15760,7 +15748,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>279</v>
       </c>
@@ -15909,7 +15897,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>312</v>
       </c>
@@ -16052,7 +16040,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="33" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>346</v>
       </c>
@@ -16362,7 +16350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>355</v>
       </c>
@@ -16514,7 +16502,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>362</v>
       </c>
@@ -16666,7 +16654,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>371</v>
       </c>
@@ -16824,7 +16812,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>372</v>
       </c>
@@ -16967,7 +16955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>372</v>
       </c>
@@ -17110,7 +17098,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>372</v>
       </c>
@@ -17262,7 +17250,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>390</v>
       </c>
@@ -17402,7 +17390,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>405</v>
       </c>
@@ -17560,7 +17548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:54" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>429</v>
       </c>
@@ -17712,7 +17700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>442</v>
       </c>
@@ -17852,7 +17840,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>523</v>
       </c>
@@ -18147,7 +18135,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="47" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>528</v>
       </c>
@@ -18296,7 +18284,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>531</v>
       </c>
@@ -18448,7 +18436,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>533</v>
       </c>
@@ -18600,7 +18588,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>536</v>
       </c>
@@ -18749,7 +18737,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>540</v>
       </c>
@@ -18901,7 +18889,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>550</v>
       </c>
@@ -19047,7 +19035,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>558</v>
       </c>
@@ -19199,7 +19187,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="54" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>569</v>
       </c>
@@ -19351,7 +19339,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>569</v>
       </c>
@@ -19470,7 +19458,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>573</v>
       </c>
@@ -19622,7 +19610,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="57" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>612</v>
       </c>
@@ -19768,7 +19756,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>676</v>
       </c>
@@ -19920,7 +19908,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="59" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>682</v>
       </c>
@@ -20072,7 +20060,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>690</v>
       </c>
@@ -20215,7 +20203,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="61" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -20355,7 +20343,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="62" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -20513,7 +20501,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>25</v>
       </c>
@@ -20665,7 +20653,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="64" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>36</v>
       </c>
@@ -20808,7 +20796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:54" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:54" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>56</v>
       </c>
@@ -20957,7 +20945,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>56</v>
       </c>
@@ -21088,7 +21076,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>56</v>
       </c>
@@ -21219,7 +21207,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>56</v>
       </c>
@@ -21350,7 +21338,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>62</v>
       </c>
@@ -21496,7 +21484,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>82</v>
       </c>
@@ -21627,7 +21615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>87</v>
       </c>
@@ -21776,7 +21764,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:54" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:54" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>94</v>
       </c>
@@ -21916,7 +21904,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="73" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>94</v>
       </c>
@@ -22056,7 +22044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>94</v>
       </c>
@@ -22196,7 +22184,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>116</v>
       </c>
@@ -22345,7 +22333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>128</v>
       </c>
@@ -22497,7 +22485,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="77" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>129</v>
       </c>
@@ -22634,7 +22622,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="78" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>129</v>
       </c>
@@ -22771,7 +22759,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>130</v>
       </c>
@@ -22920,7 +22908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>147</v>
       </c>
@@ -23069,7 +23057,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="81" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>148</v>
       </c>
@@ -23212,7 +23200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>155</v>
       </c>
@@ -23358,7 +23346,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>183</v>
       </c>
@@ -23501,7 +23489,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="84" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>188</v>
       </c>
@@ -23644,7 +23632,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>200</v>
       </c>
@@ -23796,7 +23784,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="86" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>201</v>
       </c>
@@ -23948,7 +23936,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:54" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>234</v>
       </c>
@@ -24100,7 +24088,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="88" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>242</v>
       </c>
@@ -24252,7 +24240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>253</v>
       </c>
@@ -24404,7 +24392,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>269</v>
       </c>
@@ -24544,7 +24532,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>274</v>
       </c>
@@ -24696,7 +24684,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="92" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>280</v>
       </c>
@@ -24845,7 +24833,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="93" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>301</v>
       </c>
@@ -24988,7 +24976,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="94" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>325</v>
       </c>
@@ -25137,7 +25125,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="95" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>335</v>
       </c>
@@ -25274,7 +25262,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>337</v>
       </c>
@@ -25423,7 +25411,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="97" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>339</v>
       </c>
@@ -25575,7 +25563,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>367</v>
       </c>
@@ -25879,7 +25867,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>419</v>
       </c>
@@ -26025,7 +26013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>465</v>
       </c>
@@ -26171,7 +26159,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="102" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>479</v>
       </c>
@@ -26323,7 +26311,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>482</v>
       </c>
@@ -26466,7 +26454,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="104" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>486</v>
       </c>
@@ -26743,7 +26731,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="106" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>524</v>
       </c>
@@ -26895,7 +26883,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="107" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>553</v>
       </c>
@@ -27044,7 +27032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>557</v>
       </c>
@@ -27196,7 +27184,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="109" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>560</v>
       </c>
@@ -27342,7 +27330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>561</v>
       </c>
@@ -27497,7 +27485,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>600</v>
       </c>
@@ -27789,7 +27777,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>607</v>
       </c>
@@ -27899,7 +27887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>627</v>
       </c>
@@ -28045,7 +28033,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="115" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>636</v>
       </c>
@@ -28194,7 +28182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>650</v>
       </c>
@@ -28346,7 +28334,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="117" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>659</v>
       </c>
@@ -28498,7 +28486,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>660</v>
       </c>
@@ -28650,7 +28638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>675</v>
       </c>
@@ -28799,7 +28787,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="120" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>677</v>
       </c>
@@ -28951,7 +28939,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="121" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>686</v>
       </c>
@@ -29103,7 +29091,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="122" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>687</v>
       </c>
@@ -29249,7 +29237,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="123" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>688</v>
       </c>
@@ -29401,7 +29389,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="124" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>8</v>
       </c>
@@ -29553,7 +29541,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="125" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>26</v>
       </c>
@@ -29705,7 +29693,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="126" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>32</v>
       </c>
@@ -29857,7 +29845,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="127" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43</v>
       </c>
@@ -29994,7 +29982,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="128" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43</v>
       </c>
@@ -30149,7 +30137,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="129" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>61</v>
       </c>
@@ -30301,7 +30289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>81</v>
       </c>
@@ -30453,7 +30441,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="131" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>83</v>
       </c>
@@ -30599,7 +30587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>99</v>
       </c>
@@ -30754,7 +30742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -30912,7 +30900,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>146</v>
       </c>
@@ -31064,7 +31052,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="135" spans="1:54" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:54" ht="90" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>150</v>
       </c>
@@ -31213,7 +31201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>166</v>
       </c>
@@ -31356,7 +31344,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:54" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>178</v>
       </c>
@@ -31499,7 +31487,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>180</v>
       </c>
@@ -31651,7 +31639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>180</v>
       </c>
@@ -31803,7 +31791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>180</v>
       </c>
@@ -31955,7 +31943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>193</v>
       </c>
@@ -32107,7 +32095,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>236</v>
       </c>
@@ -32262,7 +32250,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="143" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>248</v>
       </c>
@@ -32414,7 +32402,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>262</v>
       </c>
@@ -32566,7 +32554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>291</v>
       </c>
@@ -32718,7 +32706,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="146" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>302</v>
       </c>
@@ -32870,7 +32858,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="1:54" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>303</v>
       </c>
@@ -33019,7 +33007,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>324</v>
       </c>
@@ -33168,7 +33156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>327</v>
       </c>
@@ -33320,7 +33308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>338</v>
       </c>
@@ -33472,7 +33460,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="151" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>342</v>
       </c>
@@ -33624,7 +33612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>347</v>
       </c>
@@ -33770,7 +33758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>348</v>
       </c>
@@ -33910,7 +33898,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="154" spans="1:54" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>349</v>
       </c>
@@ -34062,7 +34050,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>363</v>
       </c>
@@ -34214,7 +34202,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>376</v>
       </c>
@@ -34366,7 +34354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>378</v>
       </c>
@@ -34518,7 +34506,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="158" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>381</v>
       </c>
@@ -34661,7 +34649,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="159" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>384</v>
       </c>
@@ -34807,7 +34795,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="160" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>400</v>
       </c>
@@ -34959,7 +34947,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="161" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>408</v>
       </c>
@@ -35111,7 +35099,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>408</v>
       </c>
@@ -35245,7 +35233,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>412</v>
       </c>
@@ -35397,7 +35385,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>430</v>
       </c>
@@ -35546,7 +35534,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="165" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>433</v>
       </c>
@@ -35698,7 +35686,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>438</v>
       </c>
@@ -35853,7 +35841,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>438</v>
       </c>
@@ -35981,7 +35969,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="168" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>441</v>
       </c>
@@ -36121,7 +36109,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="169" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>452</v>
       </c>
@@ -36267,7 +36255,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="170" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>497</v>
       </c>
@@ -36416,7 +36404,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>498</v>
       </c>
@@ -36565,7 +36553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>517</v>
       </c>
@@ -36717,7 +36705,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="173" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>545</v>
       </c>
@@ -37027,7 +37015,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>590</v>
       </c>
@@ -37170,7 +37158,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="176" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>626</v>
       </c>
@@ -37322,7 +37310,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="177" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>628</v>
       </c>
@@ -37468,7 +37456,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="178" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>640</v>
       </c>
@@ -37620,7 +37608,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="179" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>648</v>
       </c>
@@ -37766,7 +37754,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="180" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>649</v>
       </c>
@@ -37915,7 +37903,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="181" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>672</v>
       </c>
@@ -38070,7 +38058,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="182" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>678</v>
       </c>
@@ -38222,7 +38210,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="183" spans="1:54" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>684</v>
       </c>
@@ -38377,7 +38365,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="184" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>685</v>
       </c>
@@ -38532,7 +38520,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="185" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>689</v>
       </c>
@@ -38698,9 +38686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S100" sqref="S100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38847,7 +38835,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -38949,7 +38937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -39051,7 +39039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -39157,7 +39145,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -39257,7 +39245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>28</v>
       </c>
@@ -39471,7 +39459,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42</v>
       </c>
@@ -39569,7 +39557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>79</v>
       </c>
@@ -39679,7 +39667,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>86</v>
       </c>
@@ -39883,7 +39871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>98</v>
       </c>
@@ -39985,7 +39973,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>111</v>
       </c>
@@ -40091,7 +40079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>123</v>
       </c>
@@ -40193,7 +40181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>136</v>
       </c>
@@ -40297,7 +40285,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>157</v>
       </c>
@@ -40407,7 +40395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>162</v>
       </c>
@@ -40625,7 +40613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>173</v>
       </c>
@@ -40935,7 +40923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>214</v>
       </c>
@@ -41037,7 +41025,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>216</v>
       </c>
@@ -41245,7 +41233,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>220</v>
       </c>
@@ -41353,7 +41341,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>233</v>
       </c>
@@ -41453,7 +41441,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>254</v>
       </c>
@@ -41553,7 +41541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>263</v>
       </c>
@@ -41661,7 +41649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>270</v>
       </c>
@@ -41769,7 +41757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>279</v>
       </c>
@@ -41871,7 +41859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>312</v>
       </c>
@@ -41973,7 +41961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>346</v>
       </c>
@@ -42187,7 +42175,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>355</v>
       </c>
@@ -42293,7 +42281,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>362</v>
       </c>
@@ -42397,7 +42385,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>371</v>
       </c>
@@ -42503,7 +42491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>372</v>
       </c>
@@ -42601,7 +42589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>372</v>
       </c>
@@ -42699,7 +42687,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>372</v>
       </c>
@@ -42801,7 +42789,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>405</v>
       </c>
@@ -42907,7 +42895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>429</v>
       </c>
@@ -43011,7 +42999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>442</v>
       </c>
@@ -43221,7 +43209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>528</v>
       </c>
@@ -43327,7 +43315,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>531</v>
       </c>
@@ -43429,7 +43417,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>533</v>
       </c>
@@ -43535,7 +43523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>536</v>
       </c>
@@ -43631,7 +43619,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>540</v>
       </c>
@@ -43741,7 +43729,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>550</v>
       </c>
@@ -43843,7 +43831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>558</v>
       </c>
@@ -43949,7 +43937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>569</v>
       </c>
@@ -44053,7 +44041,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>573</v>
       </c>
@@ -44157,7 +44145,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>676</v>
       </c>
@@ -44265,7 +44253,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>682</v>
       </c>
@@ -44369,7 +44357,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>690</v>
       </c>
@@ -44469,7 +44457,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -44569,7 +44557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>11</v>
       </c>
@@ -44675,7 +44663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>25</v>
       </c>
@@ -44777,7 +44765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>36</v>
       </c>
@@ -44885,7 +44873,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -44993,7 +44981,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>56</v>
       </c>
@@ -45099,7 +45087,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>56</v>
       </c>
@@ -45205,7 +45193,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>56</v>
       </c>
@@ -45311,7 +45299,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -45409,7 +45397,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>82</v>
       </c>
@@ -45601,7 +45589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>94</v>
       </c>
@@ -45705,7 +45693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>94</v>
       </c>
@@ -45809,7 +45797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>94</v>
       </c>
@@ -45913,7 +45901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>116</v>
       </c>
@@ -46015,7 +46003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>128</v>
       </c>
@@ -46125,7 +46113,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>129</v>
       </c>
@@ -46227,7 +46215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>129</v>
       </c>
@@ -46329,7 +46317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>130</v>
       </c>
@@ -46431,7 +46419,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>147</v>
       </c>
@@ -46531,7 +46519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>148</v>
       </c>
@@ -46635,7 +46623,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>155</v>
       </c>
@@ -46735,7 +46723,7 @@
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
     </row>
-    <row r="78" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>183</v>
       </c>
@@ -46833,7 +46821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>188</v>
       </c>
@@ -46933,7 +46921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>200</v>
       </c>
@@ -47039,7 +47027,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>201</v>
       </c>
@@ -47137,7 +47125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>234</v>
       </c>
@@ -47239,7 +47227,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>242</v>
       </c>
@@ -47345,7 +47333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>253</v>
       </c>
@@ -47443,7 +47431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>269</v>
       </c>
@@ -47541,7 +47529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>274</v>
       </c>
@@ -47645,7 +47633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>280</v>
       </c>
@@ -47749,7 +47737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>301</v>
       </c>
@@ -47847,7 +47835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>325</v>
       </c>
@@ -47955,7 +47943,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>335</v>
       </c>
@@ -48061,7 +48049,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>337</v>
       </c>
@@ -48163,7 +48151,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>339</v>
       </c>
@@ -48269,7 +48257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>367</v>
       </c>
@@ -48471,7 +48459,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>419</v>
       </c>
@@ -48573,7 +48561,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>465</v>
       </c>
@@ -48675,7 +48663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>479</v>
       </c>
@@ -48777,7 +48765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>482</v>
       </c>
@@ -48875,7 +48863,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>486</v>
       </c>
@@ -49083,7 +49071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>524</v>
       </c>
@@ -49187,7 +49175,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>553</v>
       </c>
@@ -49289,7 +49277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>557</v>
       </c>
@@ -49393,7 +49381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>560</v>
       </c>
@@ -49497,7 +49485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>561</v>
       </c>
@@ -49603,7 +49591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>600</v>
       </c>
@@ -49703,7 +49691,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>627</v>
       </c>
@@ -49811,7 +49799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>636</v>
       </c>
@@ -49913,7 +49901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>650</v>
       </c>
@@ -50011,7 +49999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>659</v>
       </c>
@@ -50109,7 +50097,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>660</v>
       </c>
@@ -50213,7 +50201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>675</v>
       </c>
@@ -50321,7 +50309,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>677</v>
       </c>
@@ -50417,7 +50405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>686</v>
       </c>
@@ -50519,7 +50507,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>687</v>
       </c>
@@ -50623,7 +50611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>688</v>
       </c>
@@ -50731,7 +50719,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>8</v>
       </c>
@@ -50839,7 +50827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>26</v>
       </c>
@@ -50943,7 +50931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>32</v>
       </c>
@@ -51049,7 +51037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43</v>
       </c>
@@ -51155,7 +51143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43</v>
       </c>
@@ -51257,7 +51245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>61</v>
       </c>
@@ -51367,7 +51355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>81</v>
       </c>
@@ -51475,7 +51463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>83</v>
       </c>
@@ -51573,7 +51561,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>99</v>
       </c>
@@ -51661,7 +51649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>133</v>
       </c>
@@ -51763,7 +51751,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>146</v>
       </c>
@@ -51871,7 +51859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>150</v>
       </c>
@@ -51977,7 +51965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" ht="165" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>166</v>
       </c>
@@ -52087,7 +52075,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>178</v>
       </c>
@@ -52189,7 +52177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>180</v>
       </c>
@@ -52299,7 +52287,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>180</v>
       </c>
@@ -52409,7 +52397,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>180</v>
       </c>
@@ -52517,7 +52505,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>193</v>
       </c>
@@ -52625,7 +52613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>236</v>
       </c>
@@ -52731,7 +52719,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>248</v>
       </c>
@@ -52829,7 +52817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>262</v>
       </c>
@@ -52937,7 +52925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>291</v>
       </c>
@@ -53045,7 +53033,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>302</v>
       </c>
@@ -53153,7 +53141,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>303</v>
       </c>
@@ -53255,7 +53243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>324</v>
       </c>
@@ -53359,7 +53347,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>327</v>
       </c>
@@ -53461,7 +53449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>338</v>
       </c>
@@ -53563,7 +53551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>342</v>
       </c>
@@ -53669,7 +53657,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>347</v>
       </c>
@@ -53761,7 +53749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="146" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>348</v>
       </c>
@@ -53865,7 +53853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>349</v>
       </c>
@@ -53971,7 +53959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>363</v>
       </c>
@@ -54079,7 +54067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>376</v>
       </c>
@@ -54183,7 +54171,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:36" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>378</v>
       </c>
@@ -54291,7 +54279,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>381</v>
       </c>
@@ -54393,7 +54381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>384</v>
       </c>
@@ -54501,7 +54489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:36" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="120" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>400</v>
       </c>
@@ -54607,7 +54595,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>408</v>
       </c>
@@ -54713,7 +54701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>412</v>
       </c>
@@ -54819,7 +54807,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>430</v>
       </c>
@@ -54921,7 +54909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>433</v>
       </c>
@@ -55027,7 +55015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:36" s="3" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>438</v>
       </c>
@@ -55137,7 +55125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>441</v>
       </c>
@@ -55213,7 +55201,7 @@
       <c r="AI159" s="1"/>
       <c r="AJ159" s="1"/>
     </row>
-    <row r="160" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>452</v>
       </c>
@@ -55319,7 +55307,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>497</v>
       </c>
@@ -55423,7 +55411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>498</v>
       </c>
@@ -55531,7 +55519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>517</v>
       </c>
@@ -55641,7 +55629,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>545</v>
       </c>
@@ -55849,7 +55837,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>590</v>
       </c>
@@ -55955,7 +55943,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>626</v>
       </c>
@@ -56057,7 +56045,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>628</v>
       </c>
@@ -56167,7 +56155,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>640</v>
       </c>
@@ -56275,7 +56263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>672</v>
       </c>
@@ -56383,7 +56371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:36" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>678</v>
       </c>
@@ -56489,7 +56477,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>684</v>
       </c>
@@ -56595,7 +56583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>685</v>
       </c>
@@ -56701,7 +56689,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>689</v>
       </c>

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F69F50-CEAE-479D-8395-853D6D10DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D158610-4497-4154-BC94-0CD0FF4D81A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9840" uniqueCount="2789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15414" uniqueCount="2788">
   <si>
     <t>id</t>
   </si>
@@ -8597,9 +8597,6 @@
   </si>
   <si>
     <t>profile visibility; disclosure behavior; friending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profile visibility; disclosure behavior friending </t>
   </si>
   <si>
     <t xml:space="preserve">profile visibility; disclosure behavior; friending </t>
@@ -11154,65 +11151,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB185"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y186" sqref="Y186"/>
+    <sheetView tabSelected="1" topLeftCell="AI73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK75" sqref="AK75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="6.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="1"/>
+    <col min="2" max="2" width="16.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="1"/>
+    <col min="5" max="5" width="6.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="6.26953125" style="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="1"/>
-    <col min="17" max="17" width="16.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.54296875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" style="1"/>
+    <col min="17" max="17" width="16.26953125" style="1" customWidth="1"/>
     <col min="18" max="18" width="13" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="28.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="30.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.26953125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7265625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.26953125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="28.54296875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="30.81640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="33" style="1" customWidth="1"/>
-    <col min="27" max="27" width="28.5703125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="63.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="28.54296875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="63.81640625" style="1" customWidth="1"/>
     <col min="29" max="29" width="22" style="1" customWidth="1"/>
-    <col min="30" max="30" width="63.28515625" style="2" customWidth="1"/>
-    <col min="31" max="31" width="31.7109375" style="1" customWidth="1"/>
-    <col min="32" max="34" width="21.28515625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="19.140625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="58.28515625" style="2" customWidth="1"/>
-    <col min="37" max="37" width="41.28515625" style="2" customWidth="1"/>
-    <col min="38" max="38" width="39.42578125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="63.26953125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="31.7265625" style="1" customWidth="1"/>
+    <col min="32" max="34" width="21.26953125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="19.1796875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="58.26953125" style="2" customWidth="1"/>
+    <col min="37" max="37" width="41.26953125" style="2" customWidth="1"/>
+    <col min="38" max="38" width="39.453125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="14.26953125" style="1" customWidth="1"/>
     <col min="40" max="40" width="26" style="1" customWidth="1"/>
     <col min="41" max="41" width="29" style="1" customWidth="1"/>
-    <col min="42" max="42" width="13.7109375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="17.42578125" style="1" customWidth="1"/>
-    <col min="44" max="44" width="35.140625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="17.28515625" style="6" customWidth="1"/>
-    <col min="46" max="46" width="30.28515625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="13.7265625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="17.453125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="35.1796875" style="1" customWidth="1"/>
+    <col min="45" max="45" width="17.26953125" style="6" customWidth="1"/>
+    <col min="46" max="46" width="30.26953125" style="1" customWidth="1"/>
     <col min="47" max="48" width="20" style="1" customWidth="1"/>
-    <col min="49" max="49" width="21.85546875" style="1" customWidth="1"/>
-    <col min="50" max="50" width="23.28515625" style="1" customWidth="1"/>
-    <col min="51" max="51" width="21.140625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="21.81640625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="23.26953125" style="1" customWidth="1"/>
+    <col min="51" max="51" width="21.1796875" style="1" customWidth="1"/>
     <col min="52" max="52" width="24" style="1" customWidth="1"/>
-    <col min="53" max="53" width="19.42578125" style="1" customWidth="1"/>
+    <col min="53" max="53" width="19.453125" style="1" customWidth="1"/>
     <col min="54" max="54" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11376,7 +11373,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -11528,7 +11525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -11686,7 +11683,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -11838,7 +11835,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -11990,7 +11987,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>28</v>
       </c>
@@ -12142,7 +12139,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>34</v>
       </c>
@@ -12288,7 +12285,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>42</v>
       </c>
@@ -12440,7 +12437,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>79</v>
       </c>
@@ -12592,7 +12589,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>86</v>
       </c>
@@ -12696,7 +12693,7 @@
         <v>1</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="AK10" s="2" t="s">
         <v>2105</v>
@@ -12744,7 +12741,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>95</v>
       </c>
@@ -12848,7 +12845,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="AK11" s="2" t="s">
         <v>2108</v>
@@ -12887,7 +12884,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>98</v>
       </c>
@@ -13039,7 +13036,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>111</v>
       </c>
@@ -13191,7 +13188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>123</v>
       </c>
@@ -13343,7 +13340,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>124</v>
       </c>
@@ -13498,7 +13495,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>136</v>
       </c>
@@ -13650,7 +13647,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:54" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>157</v>
       </c>
@@ -13802,7 +13799,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>162</v>
       </c>
@@ -13957,7 +13954,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>164</v>
       </c>
@@ -14109,7 +14106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>173</v>
       </c>
@@ -14264,7 +14261,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>174</v>
       </c>
@@ -14419,7 +14416,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>210</v>
       </c>
@@ -14565,7 +14562,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>214</v>
       </c>
@@ -14669,7 +14666,7 @@
         <v>1</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="AK23" s="2" t="s">
         <v>934</v>
@@ -14717,7 +14714,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>216</v>
       </c>
@@ -14860,7 +14857,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>219</v>
       </c>
@@ -15012,7 +15009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>220</v>
       </c>
@@ -15149,7 +15146,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>233</v>
       </c>
@@ -15301,7 +15298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>254</v>
       </c>
@@ -15453,7 +15450,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>263</v>
       </c>
@@ -15596,7 +15593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>270</v>
       </c>
@@ -15748,7 +15745,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>279</v>
       </c>
@@ -15897,7 +15894,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>312</v>
       </c>
@@ -16040,7 +16037,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>346</v>
       </c>
@@ -16192,7 +16189,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>352</v>
       </c>
@@ -16236,7 +16233,7 @@
         <v>357</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="P34" s="1">
         <v>1</v>
@@ -16350,7 +16347,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>355</v>
       </c>
@@ -16502,7 +16499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:54" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>362</v>
       </c>
@@ -16654,7 +16651,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>371</v>
       </c>
@@ -16812,7 +16809,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>372</v>
       </c>
@@ -16955,7 +16952,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>372</v>
       </c>
@@ -17098,7 +17095,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>372</v>
       </c>
@@ -17250,7 +17247,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>390</v>
       </c>
@@ -17390,7 +17387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>405</v>
       </c>
@@ -17548,7 +17545,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:54" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>429</v>
       </c>
@@ -17700,7 +17697,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>442</v>
       </c>
@@ -17840,7 +17837,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>523</v>
       </c>
@@ -17944,7 +17941,7 @@
         <v>443</v>
       </c>
       <c r="AK45" s="2" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="AL45" s="1" t="s">
         <v>2586</v>
@@ -17980,7 +17977,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>527</v>
       </c>
@@ -18135,7 +18132,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>528</v>
       </c>
@@ -18284,7 +18281,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>531</v>
       </c>
@@ -18436,7 +18433,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>533</v>
       </c>
@@ -18588,7 +18585,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>536</v>
       </c>
@@ -18695,7 +18692,7 @@
         <v>490</v>
       </c>
       <c r="AK50" s="2" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="AL50" s="1" t="s">
         <v>2578</v>
@@ -18737,7 +18734,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>540</v>
       </c>
@@ -18889,7 +18886,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>550</v>
       </c>
@@ -19035,7 +19032,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>558</v>
       </c>
@@ -19187,7 +19184,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>569</v>
       </c>
@@ -19291,7 +19288,7 @@
         <v>1</v>
       </c>
       <c r="AJ54" s="2" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="AK54" s="2" t="s">
         <v>1578</v>
@@ -19339,7 +19336,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>569</v>
       </c>
@@ -19458,7 +19455,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>573</v>
       </c>
@@ -19610,7 +19607,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>612</v>
       </c>
@@ -19756,7 +19753,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>676</v>
       </c>
@@ -19908,7 +19905,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="59" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>682</v>
       </c>
@@ -20060,7 +20057,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>690</v>
       </c>
@@ -20203,7 +20200,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -20343,7 +20340,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="62" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -20432,7 +20429,7 @@
         <v>1</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="AE62" s="1" t="s">
         <v>2673</v>
@@ -20501,7 +20498,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>25</v>
       </c>
@@ -20653,7 +20650,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>36</v>
       </c>
@@ -20796,7 +20793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:54" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:54" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>56</v>
       </c>
@@ -20945,7 +20942,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>56</v>
       </c>
@@ -21076,7 +21073,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>56</v>
       </c>
@@ -21207,7 +21204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>56</v>
       </c>
@@ -21338,7 +21335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>62</v>
       </c>
@@ -21484,7 +21481,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>82</v>
       </c>
@@ -21615,7 +21612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>87</v>
       </c>
@@ -21764,7 +21761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:54" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:54" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>94</v>
       </c>
@@ -21904,7 +21901,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>94</v>
       </c>
@@ -22044,7 +22041,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>94</v>
       </c>
@@ -22184,7 +22181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>116</v>
       </c>
@@ -22333,7 +22330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>128</v>
       </c>
@@ -22485,7 +22482,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="77" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>129</v>
       </c>
@@ -22589,7 +22586,7 @@
         <v>1</v>
       </c>
       <c r="AJ77" s="2" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="AK77" s="2" t="s">
         <v>2676</v>
@@ -22622,7 +22619,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="78" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>129</v>
       </c>
@@ -22726,7 +22723,7 @@
         <v>1</v>
       </c>
       <c r="AJ78" s="2" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="AK78" s="2" t="s">
         <v>2677</v>
@@ -22759,7 +22756,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>130</v>
       </c>
@@ -22863,10 +22860,10 @@
         <v>1</v>
       </c>
       <c r="AJ79" s="2" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="AK79" s="2" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="AL79" s="1" t="s">
         <v>2653</v>
@@ -22908,7 +22905,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>147</v>
       </c>
@@ -23009,7 +23006,7 @@
         <v>1</v>
       </c>
       <c r="AJ80" s="2" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="AK80" s="2" t="s">
         <v>2654</v>
@@ -23057,7 +23054,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>148</v>
       </c>
@@ -23101,7 +23098,7 @@
         <v>898</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="P81" s="1">
         <v>1</v>
@@ -23200,7 +23197,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>155</v>
       </c>
@@ -23346,7 +23343,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>183</v>
       </c>
@@ -23489,7 +23486,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="84" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>188</v>
       </c>
@@ -23632,7 +23629,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>200</v>
       </c>
@@ -23721,7 +23718,7 @@
         <v>1</v>
       </c>
       <c r="AD85" s="2" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="AE85" s="1" t="s">
         <v>2089</v>
@@ -23784,7 +23781,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>201</v>
       </c>
@@ -23936,7 +23933,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>234</v>
       </c>
@@ -24025,10 +24022,10 @@
         <v>1</v>
       </c>
       <c r="AD87" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="AE87" s="1" t="s">
         <v>2684</v>
-      </c>
-      <c r="AE87" s="1" t="s">
-        <v>2685</v>
       </c>
       <c r="AF87" s="1" t="s">
         <v>2612</v>
@@ -24088,7 +24085,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="88" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>242</v>
       </c>
@@ -24240,7 +24237,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>253</v>
       </c>
@@ -24392,7 +24389,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>269</v>
       </c>
@@ -24532,7 +24529,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>274</v>
       </c>
@@ -24684,7 +24681,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="92" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>280</v>
       </c>
@@ -24833,7 +24830,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="93" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>301</v>
       </c>
@@ -24919,7 +24916,7 @@
         <v>1</v>
       </c>
       <c r="AD93" s="2" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="AE93" s="1" t="s">
         <v>2614</v>
@@ -24976,7 +24973,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>325</v>
       </c>
@@ -25125,7 +25122,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="95" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>335</v>
       </c>
@@ -25226,10 +25223,10 @@
         <v>1</v>
       </c>
       <c r="AJ95" s="2" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="AK95" s="2" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="AL95" s="1" t="s">
         <v>2595</v>
@@ -25262,7 +25259,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>337</v>
       </c>
@@ -25411,7 +25408,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="97" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>339</v>
       </c>
@@ -25563,7 +25560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>367</v>
       </c>
@@ -25712,7 +25709,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="99" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>418</v>
       </c>
@@ -25867,7 +25864,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>419</v>
       </c>
@@ -26013,7 +26010,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>465</v>
       </c>
@@ -26159,7 +26156,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="102" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>479</v>
       </c>
@@ -26311,7 +26308,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>482</v>
       </c>
@@ -26454,7 +26451,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="104" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>486</v>
       </c>
@@ -26588,7 +26585,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>501</v>
       </c>
@@ -26731,7 +26728,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="106" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>524</v>
       </c>
@@ -26835,7 +26832,7 @@
         <v>1</v>
       </c>
       <c r="AJ106" s="2" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="AK106" s="2" t="s">
         <v>2656</v>
@@ -26883,7 +26880,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="107" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>553</v>
       </c>
@@ -27032,7 +27029,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>557</v>
       </c>
@@ -27184,7 +27181,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="109" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>560</v>
       </c>
@@ -27330,7 +27327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>561</v>
       </c>
@@ -27485,7 +27482,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>600</v>
       </c>
@@ -27631,7 +27628,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="112" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>607</v>
       </c>
@@ -27702,13 +27699,13 @@
         <v>2200</v>
       </c>
       <c r="X112" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="Y112" s="1" t="s">
         <v>1866</v>
       </c>
       <c r="Z112" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="AA112" s="1" t="s">
         <v>39</v>
@@ -27777,7 +27774,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>607</v>
       </c>
@@ -27887,7 +27884,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>627</v>
       </c>
@@ -28033,7 +28030,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="115" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>636</v>
       </c>
@@ -28182,7 +28179,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>650</v>
       </c>
@@ -28334,7 +28331,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="117" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>659</v>
       </c>
@@ -28486,7 +28483,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>660</v>
       </c>
@@ -28638,7 +28635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>675</v>
       </c>
@@ -28787,7 +28784,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="120" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>677</v>
       </c>
@@ -28939,7 +28936,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="121" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>686</v>
       </c>
@@ -29043,7 +29040,7 @@
         <v>1</v>
       </c>
       <c r="AJ121" s="2" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="AK121" s="2" t="s">
         <v>2120</v>
@@ -29091,7 +29088,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="122" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>687</v>
       </c>
@@ -29237,7 +29234,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="123" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>688</v>
       </c>
@@ -29341,7 +29338,7 @@
         <v>1</v>
       </c>
       <c r="AJ123" s="2" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="AK123" s="2" t="s">
         <v>2109</v>
@@ -29389,7 +29386,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="124" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>8</v>
       </c>
@@ -29541,7 +29538,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="125" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>26</v>
       </c>
@@ -29693,7 +29690,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="126" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>32</v>
       </c>
@@ -29845,7 +29842,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="127" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>43</v>
       </c>
@@ -29982,7 +29979,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="128" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>43</v>
       </c>
@@ -30137,7 +30134,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="129" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>61</v>
       </c>
@@ -30289,7 +30286,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>81</v>
       </c>
@@ -30441,7 +30438,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="131" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>83</v>
       </c>
@@ -30587,7 +30584,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>99</v>
       </c>
@@ -30742,7 +30739,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -30900,7 +30897,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>146</v>
       </c>
@@ -31052,7 +31049,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="135" spans="1:54" ht="90" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:54" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>150</v>
       </c>
@@ -31201,7 +31198,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>166</v>
       </c>
@@ -31344,7 +31341,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:54" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>178</v>
       </c>
@@ -31487,7 +31484,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>180</v>
       </c>
@@ -31639,7 +31636,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>180</v>
       </c>
@@ -31791,7 +31788,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>180</v>
       </c>
@@ -31943,7 +31940,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>193</v>
       </c>
@@ -32095,7 +32092,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>236</v>
       </c>
@@ -32202,7 +32199,7 @@
         <v>1</v>
       </c>
       <c r="AJ142" s="2" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="AK142" s="2" t="s">
         <v>2103</v>
@@ -32250,7 +32247,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="143" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>248</v>
       </c>
@@ -32402,7 +32399,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>262</v>
       </c>
@@ -32554,7 +32551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>291</v>
       </c>
@@ -32706,7 +32703,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="146" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>302</v>
       </c>
@@ -32858,7 +32855,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="1:54" ht="60" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:54" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>303</v>
       </c>
@@ -33007,7 +33004,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>324</v>
       </c>
@@ -33111,7 +33108,7 @@
         <v>1</v>
       </c>
       <c r="AJ148" s="2" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="AK148" s="2" t="s">
         <v>2662</v>
@@ -33156,7 +33153,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>327</v>
       </c>
@@ -33308,7 +33305,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>338</v>
       </c>
@@ -33460,7 +33457,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="151" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>342</v>
       </c>
@@ -33564,10 +33561,10 @@
         <v>1</v>
       </c>
       <c r="AJ151" s="2" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="AK151" s="2" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="AL151" s="1" t="s">
         <v>2595</v>
@@ -33612,7 +33609,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>347</v>
       </c>
@@ -33758,7 +33755,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>348</v>
       </c>
@@ -33898,7 +33895,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="154" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:54" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>349</v>
       </c>
@@ -34050,7 +34047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>363</v>
       </c>
@@ -34202,7 +34199,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>376</v>
       </c>
@@ -34354,7 +34351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>378</v>
       </c>
@@ -34506,7 +34503,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="158" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>381</v>
       </c>
@@ -34649,7 +34646,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="159" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>384</v>
       </c>
@@ -34795,7 +34792,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="160" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>400</v>
       </c>
@@ -34947,7 +34944,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="161" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>408</v>
       </c>
@@ -35099,7 +35096,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>408</v>
       </c>
@@ -35233,7 +35230,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>412</v>
       </c>
@@ -35385,7 +35382,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>430</v>
       </c>
@@ -35534,7 +35531,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="165" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>433</v>
       </c>
@@ -35686,7 +35683,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>438</v>
       </c>
@@ -35841,7 +35838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>438</v>
       </c>
@@ -35969,7 +35966,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="168" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>441</v>
       </c>
@@ -36109,7 +36106,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="169" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>452</v>
       </c>
@@ -36255,7 +36252,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="170" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>497</v>
       </c>
@@ -36404,7 +36401,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>498</v>
       </c>
@@ -36553,7 +36550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>517</v>
       </c>
@@ -36705,7 +36702,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="173" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>545</v>
       </c>
@@ -36857,7 +36854,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>574</v>
       </c>
@@ -37015,7 +37012,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>590</v>
       </c>
@@ -37158,7 +37155,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="176" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>626</v>
       </c>
@@ -37310,7 +37307,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="177" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>628</v>
       </c>
@@ -37456,7 +37453,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="178" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>640</v>
       </c>
@@ -37608,7 +37605,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="179" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>648</v>
       </c>
@@ -37754,7 +37751,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="180" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>649</v>
       </c>
@@ -37855,7 +37852,7 @@
         <v>1</v>
       </c>
       <c r="AJ180" s="2" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="AK180" s="2" t="s">
         <v>2109</v>
@@ -37903,7 +37900,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="181" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>672</v>
       </c>
@@ -37995,7 +37992,7 @@
         <v>1777</v>
       </c>
       <c r="AE181" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="AF181" s="1" t="s">
         <v>2595</v>
@@ -38058,7 +38055,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="182" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>678</v>
       </c>
@@ -38210,7 +38207,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="183" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>684</v>
       </c>
@@ -38365,7 +38362,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="184" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>685</v>
       </c>
@@ -38520,7 +38517,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="185" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>689</v>
       </c>
@@ -38624,7 +38621,7 @@
         <v>1</v>
       </c>
       <c r="AJ185" s="2" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="AK185" s="2" t="s">
         <v>2121</v>
@@ -38686,46 +38683,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S100" sqref="S100"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1"/>
-    <col min="8" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="43.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
-    <col min="15" max="15" width="43.28515625" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34.1796875" customWidth="1"/>
+    <col min="8" max="9" width="26.453125" customWidth="1"/>
+    <col min="10" max="10" width="43.54296875" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" customWidth="1"/>
+    <col min="12" max="12" width="15.26953125" customWidth="1"/>
+    <col min="14" max="14" width="21.81640625" customWidth="1"/>
+    <col min="15" max="15" width="43.26953125" customWidth="1"/>
+    <col min="16" max="16" width="21.7265625" customWidth="1"/>
+    <col min="17" max="17" width="17.54296875" customWidth="1"/>
     <col min="18" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" customWidth="1"/>
+    <col min="20" max="20" width="21.453125" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="37.28515625" customWidth="1"/>
+    <col min="23" max="23" width="37.26953125" customWidth="1"/>
     <col min="24" max="24" width="25" customWidth="1"/>
     <col min="25" max="25" width="30" customWidth="1"/>
-    <col min="26" max="26" width="64.42578125" customWidth="1"/>
-    <col min="27" max="27" width="35.85546875" customWidth="1"/>
-    <col min="28" max="28" width="37.140625" customWidth="1"/>
-    <col min="29" max="29" width="51.42578125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="46.7109375" style="3" customWidth="1"/>
-    <col min="31" max="31" width="38.85546875" customWidth="1"/>
-    <col min="32" max="32" width="35.85546875" style="3" customWidth="1"/>
-    <col min="33" max="33" width="46.140625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="64.453125" customWidth="1"/>
+    <col min="27" max="27" width="35.81640625" customWidth="1"/>
+    <col min="28" max="28" width="37.1796875" customWidth="1"/>
+    <col min="29" max="29" width="51.453125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="46.7265625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="38.81640625" customWidth="1"/>
+    <col min="32" max="32" width="35.81640625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="46.1796875" style="3" customWidth="1"/>
     <col min="34" max="34" width="21" customWidth="1"/>
-    <col min="35" max="35" width="21.42578125" customWidth="1"/>
+    <col min="35" max="35" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -38835,7 +38832,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -38916,7 +38913,7 @@
         <v>2502</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="AE2" s="1">
         <v>3</v>
@@ -38925,7 +38922,7 @@
         <v>2480</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>39</v>
@@ -38937,7 +38934,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -39022,7 +39019,7 @@
         <v>2481</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1" t="s">
@@ -39039,7 +39036,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -39124,7 +39121,7 @@
         <v>2524</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="AE4" s="1">
         <v>5</v>
@@ -39133,7 +39130,7 @@
         <v>2525</v>
       </c>
       <c r="AG4" s="10" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>39</v>
@@ -39145,7 +39142,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -39245,7 +39242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>28</v>
       </c>
@@ -39330,7 +39327,7 @@
         <v>2519</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="AE6" s="1">
         <v>5</v>
@@ -39339,7 +39336,7 @@
         <v>2519</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>39</v>
@@ -39351,7 +39348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>34</v>
       </c>
@@ -39438,7 +39435,7 @@
         <v>2482</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="AE7" s="1">
         <v>0</v>
@@ -39447,7 +39444,7 @@
         <v>2483</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>39</v>
@@ -39459,7 +39456,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>42</v>
       </c>
@@ -39557,7 +39554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>79</v>
       </c>
@@ -39646,7 +39643,7 @@
         <v>2484</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="AE9" s="1">
         <v>5</v>
@@ -39655,7 +39652,7 @@
         <v>637</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="AH9" s="1" t="s">
         <v>39</v>
@@ -39667,7 +39664,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>86</v>
       </c>
@@ -39748,7 +39745,7 @@
         <v>640</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="AE10" s="1">
         <v>3</v>
@@ -39757,7 +39754,7 @@
         <v>641</v>
       </c>
       <c r="AG10" s="10" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="AH10" s="1" t="s">
         <v>39</v>
@@ -39769,7 +39766,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>95</v>
       </c>
@@ -39871,7 +39868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>98</v>
       </c>
@@ -39973,7 +39970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>111</v>
       </c>
@@ -40058,7 +40055,7 @@
         <v>2505</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AE13" s="1">
         <v>3</v>
@@ -40067,7 +40064,7 @@
         <v>2506</v>
       </c>
       <c r="AG13" s="10" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>39</v>
@@ -40079,7 +40076,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>123</v>
       </c>
@@ -40181,7 +40178,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>136</v>
       </c>
@@ -40285,7 +40282,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>157</v>
       </c>
@@ -40374,7 +40371,7 @@
         <v>2547</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="AE16" s="1">
         <v>3</v>
@@ -40383,7 +40380,7 @@
         <v>2548</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="AH16" s="1" t="s">
         <v>39</v>
@@ -40395,7 +40392,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>162</v>
       </c>
@@ -40482,7 +40479,7 @@
         <v>2389</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="AE17" s="1">
         <v>4</v>
@@ -40491,7 +40488,7 @@
         <v>2390</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="AH17" s="1" t="s">
         <v>39</v>
@@ -40503,7 +40500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>164</v>
       </c>
@@ -40592,7 +40589,7 @@
         <v>2391</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="AE18" s="1">
         <v>3</v>
@@ -40601,7 +40598,7 @@
         <v>2392</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="AH18" s="1" t="s">
         <v>39</v>
@@ -40613,7 +40610,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>173</v>
       </c>
@@ -40719,7 +40716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>174</v>
       </c>
@@ -40823,7 +40820,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>210</v>
       </c>
@@ -40923,7 +40920,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>214</v>
       </c>
@@ -41025,7 +41022,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>216</v>
       </c>
@@ -41110,7 +41107,7 @@
         <v>2395</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="AE23" s="1">
         <v>2</v>
@@ -41119,7 +41116,7 @@
         <v>2395</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="AH23" s="1" t="s">
         <v>39</v>
@@ -41131,7 +41128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>219</v>
       </c>
@@ -41233,7 +41230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>220</v>
       </c>
@@ -41320,7 +41317,7 @@
         <v>694</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="AE25" s="1">
         <v>5</v>
@@ -41329,7 +41326,7 @@
         <v>2396</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="AH25" s="1" t="s">
         <v>39</v>
@@ -41341,7 +41338,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>233</v>
       </c>
@@ -41441,7 +41438,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>254</v>
       </c>
@@ -41541,7 +41538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>263</v>
       </c>
@@ -41628,7 +41625,7 @@
         <v>2397</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="AE28" s="1">
         <v>5</v>
@@ -41637,7 +41634,7 @@
         <v>2398</v>
       </c>
       <c r="AG28" s="10" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="AH28" s="1" t="s">
         <v>39</v>
@@ -41649,7 +41646,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>270</v>
       </c>
@@ -41736,7 +41733,7 @@
         <v>2399</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="AE29" s="1">
         <v>5</v>
@@ -41745,7 +41742,7 @@
         <v>2400</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="AH29" s="1" t="s">
         <v>39</v>
@@ -41757,7 +41754,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>279</v>
       </c>
@@ -41840,7 +41837,7 @@
         <v>708</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="AE30" s="1" t="s">
         <v>39</v>
@@ -41859,7 +41856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>312</v>
       </c>
@@ -41961,7 +41958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>346</v>
       </c>
@@ -42050,7 +42047,7 @@
         <v>2542</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="AE32" s="1">
         <v>5</v>
@@ -42059,7 +42056,7 @@
         <v>2543</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="AH32" s="1" t="s">
         <v>39</v>
@@ -42071,7 +42068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>352</v>
       </c>
@@ -42175,7 +42172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>355</v>
       </c>
@@ -42260,7 +42257,7 @@
         <v>2401</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="AE34" s="1">
         <v>3</v>
@@ -42269,7 +42266,7 @@
         <v>2402</v>
       </c>
       <c r="AG34" s="10" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="AH34" s="1" t="s">
         <v>39</v>
@@ -42281,7 +42278,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>362</v>
       </c>
@@ -42364,7 +42361,7 @@
         <v>2403</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="AE35" s="1">
         <v>3</v>
@@ -42373,7 +42370,7 @@
         <v>2404</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="AH35" s="1" t="s">
         <v>39</v>
@@ -42385,7 +42382,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>371</v>
       </c>
@@ -42491,7 +42488,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>372</v>
       </c>
@@ -42589,7 +42586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>372</v>
       </c>
@@ -42687,7 +42684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>372</v>
       </c>
@@ -42789,7 +42786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>405</v>
       </c>
@@ -42874,7 +42871,7 @@
         <v>2407</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="AE40" s="1">
         <v>5</v>
@@ -42883,7 +42880,7 @@
         <v>2408</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="AH40" s="1" t="s">
         <v>39</v>
@@ -42895,7 +42892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>429</v>
       </c>
@@ -42978,7 +42975,7 @@
         <v>734</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="AE41" s="1">
         <v>4</v>
@@ -42987,7 +42984,7 @@
         <v>734</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="AH41" s="1" t="s">
         <v>39</v>
@@ -42999,7 +42996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>442</v>
       </c>
@@ -43101,7 +43098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>523</v>
       </c>
@@ -43188,7 +43185,7 @@
         <v>740</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="AE43" s="1">
         <v>2</v>
@@ -43197,7 +43194,7 @@
         <v>2409</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="AH43" s="1" t="s">
         <v>39</v>
@@ -43209,7 +43206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>528</v>
       </c>
@@ -43294,7 +43291,7 @@
         <v>2410</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="AE44" s="1">
         <v>2</v>
@@ -43303,7 +43300,7 @@
         <v>2411</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="AH44" s="1" t="s">
         <v>39</v>
@@ -43315,7 +43312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>531</v>
       </c>
@@ -43417,7 +43414,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>533</v>
       </c>
@@ -43523,7 +43520,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>536</v>
       </c>
@@ -43619,7 +43616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>540</v>
       </c>
@@ -43729,7 +43726,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>550</v>
       </c>
@@ -43831,7 +43828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>558</v>
       </c>
@@ -43937,7 +43934,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>569</v>
       </c>
@@ -43986,7 +43983,7 @@
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="S51" s="1">
         <v>0.85199999999999998</v>
@@ -44022,7 +44019,7 @@
         <v>2520</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="AE51" s="1" t="s">
         <v>39</v>
@@ -44041,7 +44038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>573</v>
       </c>
@@ -44124,7 +44121,7 @@
         <v>2418</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="AE52" s="1">
         <v>5</v>
@@ -44133,7 +44130,7 @@
         <v>766</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="AH52" s="1" t="s">
         <v>39</v>
@@ -44145,7 +44142,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>676</v>
       </c>
@@ -44234,7 +44231,7 @@
         <v>2419</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="AE53" s="1" t="s">
         <v>39</v>
@@ -44253,7 +44250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>682</v>
       </c>
@@ -44336,7 +44333,7 @@
         <v>771</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="AE54" s="1">
         <v>4</v>
@@ -44345,7 +44342,7 @@
         <v>772</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="AH54" s="1" t="s">
         <v>39</v>
@@ -44357,7 +44354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>690</v>
       </c>
@@ -44438,7 +44435,7 @@
         <v>2420</v>
       </c>
       <c r="AD55" s="2" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="AE55" s="1" t="s">
         <v>39</v>
@@ -44457,7 +44454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -44557,7 +44554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>11</v>
       </c>
@@ -44644,7 +44641,7 @@
         <v>2488</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="AE57" s="1" t="s">
         <v>219</v>
@@ -44653,7 +44650,7 @@
         <v>2350</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1" t="s">
@@ -44663,7 +44660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>25</v>
       </c>
@@ -44744,7 +44741,7 @@
         <v>2351</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="AE58" s="1">
         <v>5</v>
@@ -44753,7 +44750,7 @@
         <v>2351</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="AH58" s="1" t="s">
         <v>39</v>
@@ -44765,7 +44762,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>36</v>
       </c>
@@ -44873,7 +44870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="116" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -44962,7 +44959,7 @@
         <v>2536</v>
       </c>
       <c r="AD60" s="2" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AE60" s="1">
         <v>5</v>
@@ -44971,7 +44968,7 @@
         <v>2537</v>
       </c>
       <c r="AG60" s="2" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1" t="s">
@@ -44981,7 +44978,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" ht="116" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>56</v>
       </c>
@@ -45068,7 +45065,7 @@
         <v>2536</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AE61" s="1">
         <v>5</v>
@@ -45077,7 +45074,7 @@
         <v>2538</v>
       </c>
       <c r="AG61" s="2" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1" t="s">
@@ -45087,7 +45084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="116" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>56</v>
       </c>
@@ -45174,7 +45171,7 @@
         <v>2536</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AE62" s="1">
         <v>5</v>
@@ -45183,7 +45180,7 @@
         <v>2539</v>
       </c>
       <c r="AG62" s="2" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1" t="s">
@@ -45193,7 +45190,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" ht="116" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>56</v>
       </c>
@@ -45280,7 +45277,7 @@
         <v>2536</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AE63" s="1">
         <v>5</v>
@@ -45289,7 +45286,7 @@
         <v>2540</v>
       </c>
       <c r="AG63" s="2" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1" t="s">
@@ -45299,7 +45296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -45397,7 +45394,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>82</v>
       </c>
@@ -45491,7 +45488,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>87</v>
       </c>
@@ -45589,7 +45586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>94</v>
       </c>
@@ -45693,7 +45690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>94</v>
       </c>
@@ -45797,7 +45794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>94</v>
       </c>
@@ -45901,7 +45898,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>116</v>
       </c>
@@ -46003,7 +46000,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>128</v>
       </c>
@@ -46092,7 +46089,7 @@
         <v>2353</v>
       </c>
       <c r="AD71" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="AE71" s="1">
         <v>3</v>
@@ -46101,7 +46098,7 @@
         <v>2353</v>
       </c>
       <c r="AG71" s="10" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="AH71" s="1" t="s">
         <v>39</v>
@@ -46113,7 +46110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>129</v>
       </c>
@@ -46215,7 +46212,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>129</v>
       </c>
@@ -46317,7 +46314,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>130</v>
       </c>
@@ -46419,7 +46416,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>147</v>
       </c>
@@ -46519,7 +46516,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>148</v>
       </c>
@@ -46604,7 +46601,7 @@
         <v>2016</v>
       </c>
       <c r="AD76" s="2" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="AE76" s="1">
         <v>5</v>
@@ -46613,7 +46610,7 @@
         <v>2017</v>
       </c>
       <c r="AG76" s="2" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1" t="s">
@@ -46623,7 +46620,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>155</v>
       </c>
@@ -46723,7 +46720,7 @@
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
     </row>
-    <row r="78" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>183</v>
       </c>
@@ -46811,7 +46808,7 @@
         <v>2422</v>
       </c>
       <c r="AG78" s="10" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1" t="s">
@@ -46821,7 +46818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>188</v>
       </c>
@@ -46921,7 +46918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>200</v>
       </c>
@@ -47027,7 +47024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>201</v>
       </c>
@@ -47125,7 +47122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>234</v>
       </c>
@@ -47227,7 +47224,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>242</v>
       </c>
@@ -47314,7 +47311,7 @@
         <v>2357</v>
       </c>
       <c r="AD83" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="AE83" s="1">
         <v>5</v>
@@ -47333,7 +47330,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>253</v>
       </c>
@@ -47431,7 +47428,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>269</v>
       </c>
@@ -47529,7 +47526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>274</v>
       </c>
@@ -47614,7 +47611,7 @@
         <v>2503</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="AE86" s="1">
         <v>3</v>
@@ -47623,7 +47620,7 @@
         <v>2504</v>
       </c>
       <c r="AG86" s="2" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="AH86" s="1"/>
       <c r="AI86" s="1" t="s">
@@ -47633,7 +47630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>280</v>
       </c>
@@ -47718,7 +47715,7 @@
         <v>2358</v>
       </c>
       <c r="AD87" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="AE87" s="1">
         <v>3</v>
@@ -47727,7 +47724,7 @@
         <v>2424</v>
       </c>
       <c r="AG87" s="10" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="AH87" s="1"/>
       <c r="AI87" s="1" t="s">
@@ -47737,7 +47734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>301</v>
       </c>
@@ -47835,7 +47832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="116" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>325</v>
       </c>
@@ -47924,7 +47921,7 @@
         <v>2426</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="AE89" s="1">
         <v>5</v>
@@ -47933,7 +47930,7 @@
         <v>2427</v>
       </c>
       <c r="AG89" s="2" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="AH89" s="1"/>
       <c r="AI89" s="1" t="s">
@@ -47943,7 +47940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>335</v>
       </c>
@@ -48030,7 +48027,7 @@
         <v>2428</v>
       </c>
       <c r="AD90" s="2" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="AE90" s="1">
         <v>5</v>
@@ -48039,7 +48036,7 @@
         <v>2428</v>
       </c>
       <c r="AG90" s="2" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="AH90" s="1"/>
       <c r="AI90" s="1" t="s">
@@ -48049,7 +48046,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>337</v>
       </c>
@@ -48132,7 +48129,7 @@
         <v>2429</v>
       </c>
       <c r="AD91" s="2" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="AE91" s="1">
         <v>3</v>
@@ -48141,7 +48138,7 @@
         <v>2381</v>
       </c>
       <c r="AG91" s="2" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="AH91" s="1"/>
       <c r="AI91" s="1" t="s">
@@ -48151,7 +48148,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>339</v>
       </c>
@@ -48257,7 +48254,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>367</v>
       </c>
@@ -48361,7 +48358,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>418</v>
       </c>
@@ -48459,7 +48456,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>419</v>
       </c>
@@ -48561,7 +48558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>465</v>
       </c>
@@ -48644,7 +48641,7 @@
         <v>2432</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="AE96" s="1">
         <v>5</v>
@@ -48653,7 +48650,7 @@
         <v>2433</v>
       </c>
       <c r="AG96" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1" t="s">
@@ -48663,7 +48660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>479</v>
       </c>
@@ -48765,7 +48762,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" ht="87" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>482</v>
       </c>
@@ -48863,7 +48860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>486</v>
       </c>
@@ -48963,7 +48960,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>501</v>
       </c>
@@ -49071,7 +49068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>524</v>
       </c>
@@ -49156,7 +49153,7 @@
         <v>2436</v>
       </c>
       <c r="AD101" s="2" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="AE101" s="1">
         <v>3</v>
@@ -49165,7 +49162,7 @@
         <v>2437</v>
       </c>
       <c r="AG101" s="2" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="AH101" s="1"/>
       <c r="AI101" s="1" t="s">
@@ -49175,7 +49172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>553</v>
       </c>
@@ -49277,7 +49274,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>557</v>
       </c>
@@ -49381,7 +49378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>560</v>
       </c>
@@ -49485,7 +49482,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>561</v>
       </c>
@@ -49591,7 +49588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>600</v>
       </c>
@@ -49691,7 +49688,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>627</v>
       </c>
@@ -49780,7 +49777,7 @@
         <v>2440</v>
       </c>
       <c r="AD107" s="2" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="AE107" s="1">
         <v>5</v>
@@ -49789,7 +49786,7 @@
         <v>2441</v>
       </c>
       <c r="AG107" s="2" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="AH107" s="1"/>
       <c r="AI107" s="1" t="s">
@@ -49799,7 +49796,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>636</v>
       </c>
@@ -49901,7 +49898,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>650</v>
       </c>
@@ -49999,7 +49996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>659</v>
       </c>
@@ -50097,7 +50094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>660</v>
       </c>
@@ -50201,7 +50198,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>675</v>
       </c>
@@ -50309,7 +50306,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>677</v>
       </c>
@@ -50386,7 +50383,7 @@
         <v>2526</v>
       </c>
       <c r="AD113" s="2" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="AE113" s="1">
         <v>2</v>
@@ -50395,7 +50392,7 @@
         <v>2527</v>
       </c>
       <c r="AG113" s="2" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="AH113" s="1"/>
       <c r="AI113" s="1" t="s">
@@ -50405,7 +50402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>686</v>
       </c>
@@ -50488,7 +50485,7 @@
         <v>2447</v>
       </c>
       <c r="AD114" s="2" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="AE114" s="1">
         <v>5</v>
@@ -50497,7 +50494,7 @@
         <v>2447</v>
       </c>
       <c r="AG114" s="2" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="AH114" s="1"/>
       <c r="AI114" s="1" t="s">
@@ -50507,7 +50504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>687</v>
       </c>
@@ -50611,7 +50608,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>688</v>
       </c>
@@ -50719,7 +50716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>8</v>
       </c>
@@ -50806,7 +50803,7 @@
         <v>2363</v>
       </c>
       <c r="AD117" s="2" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="AE117" s="1">
         <v>5</v>
@@ -50815,7 +50812,7 @@
         <v>2363</v>
       </c>
       <c r="AG117" s="2" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="AH117" s="1" t="s">
         <v>39</v>
@@ -50827,7 +50824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>26</v>
       </c>
@@ -50931,7 +50928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>32</v>
       </c>
@@ -51037,7 +51034,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>43</v>
       </c>
@@ -51103,7 +51100,7 @@
         <v>1</v>
       </c>
       <c r="W120" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="X120" s="1" t="s">
         <v>39</v>
@@ -51143,7 +51140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>43</v>
       </c>
@@ -51245,7 +51242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>61</v>
       </c>
@@ -51334,7 +51331,7 @@
         <v>2450</v>
       </c>
       <c r="AD122" s="2" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="AE122" s="1">
         <v>5</v>
@@ -51343,7 +51340,7 @@
         <v>2546</v>
       </c>
       <c r="AG122" s="2" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="AH122" s="1" t="s">
         <v>39</v>
@@ -51355,7 +51352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>81</v>
       </c>
@@ -51442,7 +51439,7 @@
         <v>2451</v>
       </c>
       <c r="AD123" s="2" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="AE123" s="1">
         <v>5</v>
@@ -51451,7 +51448,7 @@
         <v>2451</v>
       </c>
       <c r="AG123" s="2" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="AH123" s="1" t="s">
         <v>39</v>
@@ -51463,7 +51460,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>83</v>
       </c>
@@ -51561,7 +51558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>99</v>
       </c>
@@ -51649,7 +51646,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>133</v>
       </c>
@@ -51751,7 +51748,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>146</v>
       </c>
@@ -51838,7 +51835,7 @@
         <v>2364</v>
       </c>
       <c r="AD127" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="AE127" s="1">
         <v>4</v>
@@ -51847,7 +51844,7 @@
         <v>2364</v>
       </c>
       <c r="AG127" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="AH127" s="1" t="s">
         <v>39</v>
@@ -51859,7 +51856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>150</v>
       </c>
@@ -51965,7 +51962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="165" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" ht="145" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>166</v>
       </c>
@@ -52054,7 +52051,7 @@
         <v>2366</v>
       </c>
       <c r="AD129" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="AE129" s="1">
         <v>5</v>
@@ -52063,7 +52060,7 @@
         <v>2382</v>
       </c>
       <c r="AG129" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="AH129" s="1" t="s">
         <v>39</v>
@@ -52075,7 +52072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>178</v>
       </c>
@@ -52156,7 +52153,7 @@
         <v>2367</v>
       </c>
       <c r="AD130" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="AE130" s="1">
         <v>5</v>
@@ -52165,7 +52162,7 @@
         <v>2383</v>
       </c>
       <c r="AG130" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="AH130" s="1" t="s">
         <v>39</v>
@@ -52177,7 +52174,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>180</v>
       </c>
@@ -52266,7 +52263,7 @@
         <v>2452</v>
       </c>
       <c r="AD131" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="AE131" s="1">
         <v>5</v>
@@ -52275,7 +52272,7 @@
         <v>2453</v>
       </c>
       <c r="AG131" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="AH131" s="1" t="s">
         <v>39</v>
@@ -52287,7 +52284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>180</v>
       </c>
@@ -52376,7 +52373,7 @@
         <v>2454</v>
       </c>
       <c r="AD132" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="AE132" s="1">
         <v>5</v>
@@ -52385,7 +52382,7 @@
         <v>2455</v>
       </c>
       <c r="AG132" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="AH132" s="1" t="s">
         <v>39</v>
@@ -52397,7 +52394,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>180</v>
       </c>
@@ -52484,7 +52481,7 @@
         <v>2456</v>
       </c>
       <c r="AD133" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="AE133" s="1">
         <v>5</v>
@@ -52493,7 +52490,7 @@
         <v>2457</v>
       </c>
       <c r="AG133" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="AH133" s="1" t="s">
         <v>39</v>
@@ -52505,7 +52502,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>193</v>
       </c>
@@ -52592,7 +52589,7 @@
         <v>2368</v>
       </c>
       <c r="AD134" s="2" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="AE134" s="1">
         <v>0</v>
@@ -52601,7 +52598,7 @@
         <v>2384</v>
       </c>
       <c r="AG134" s="2" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="AH134" s="1" t="s">
         <v>39</v>
@@ -52613,7 +52610,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>236</v>
       </c>
@@ -52698,7 +52695,7 @@
         <v>2507</v>
       </c>
       <c r="AD135" s="2" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="AE135" s="1">
         <v>3</v>
@@ -52707,7 +52704,7 @@
         <v>2541</v>
       </c>
       <c r="AG135" s="2" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="AH135" s="1" t="s">
         <v>39</v>
@@ -52719,7 +52716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>248</v>
       </c>
@@ -52817,7 +52814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>262</v>
       </c>
@@ -52925,7 +52922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>291</v>
       </c>
@@ -53012,7 +53009,7 @@
         <v>2459</v>
       </c>
       <c r="AD138" s="2" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="AE138" s="1">
         <v>3</v>
@@ -53021,7 +53018,7 @@
         <v>2460</v>
       </c>
       <c r="AG138" s="2" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="AH138" s="1" t="s">
         <v>39</v>
@@ -53033,7 +53030,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>302</v>
       </c>
@@ -53120,7 +53117,7 @@
         <v>2461</v>
       </c>
       <c r="AD139" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="AE139" s="1">
         <v>5</v>
@@ -53129,7 +53126,7 @@
         <v>2462</v>
       </c>
       <c r="AG139" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="AH139" s="1" t="s">
         <v>39</v>
@@ -53141,7 +53138,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>303</v>
       </c>
@@ -53243,7 +53240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>324</v>
       </c>
@@ -53347,7 +53344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>327</v>
       </c>
@@ -53428,7 +53425,7 @@
         <v>2516</v>
       </c>
       <c r="AD142" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="AE142" s="1">
         <v>5</v>
@@ -53437,7 +53434,7 @@
         <v>2517</v>
       </c>
       <c r="AG142" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="AH142" s="1" t="s">
         <v>39</v>
@@ -53449,7 +53446,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>338</v>
       </c>
@@ -53530,7 +53527,7 @@
         <v>2508</v>
       </c>
       <c r="AD143" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="AE143" s="1">
         <v>3</v>
@@ -53539,7 +53536,7 @@
         <v>2509</v>
       </c>
       <c r="AG143" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="AH143" s="1" t="s">
         <v>39</v>
@@ -53551,7 +53548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>342</v>
       </c>
@@ -53657,7 +53654,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>347</v>
       </c>
@@ -53749,7 +53746,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>348</v>
       </c>
@@ -53853,7 +53850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>349</v>
       </c>
@@ -53959,7 +53956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>363</v>
       </c>
@@ -54067,7 +54064,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>376</v>
       </c>
@@ -54171,7 +54168,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="87" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>378</v>
       </c>
@@ -54258,7 +54255,7 @@
         <v>2510</v>
       </c>
       <c r="AD150" s="2" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="AE150" s="1">
         <v>3</v>
@@ -54267,7 +54264,7 @@
         <v>2511</v>
       </c>
       <c r="AG150" s="2" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="AH150" s="1" t="s">
         <v>39</v>
@@ -54279,7 +54276,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>381</v>
       </c>
@@ -54360,7 +54357,7 @@
         <v>2463</v>
       </c>
       <c r="AD151" s="2" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="AE151" s="1">
         <v>5</v>
@@ -54369,7 +54366,7 @@
         <v>2464</v>
       </c>
       <c r="AG151" s="2" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="AH151" s="1" t="s">
         <v>39</v>
@@ -54381,7 +54378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>384</v>
       </c>
@@ -54468,7 +54465,7 @@
         <v>2372</v>
       </c>
       <c r="AD152" s="2" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="AE152" s="1">
         <v>5</v>
@@ -54477,7 +54474,7 @@
         <v>2385</v>
       </c>
       <c r="AG152" s="2" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="AH152" s="1" t="s">
         <v>39</v>
@@ -54489,7 +54486,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:36" ht="120" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>400</v>
       </c>
@@ -54574,7 +54571,7 @@
         <v>2465</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="AE153" s="1">
         <v>3</v>
@@ -54583,7 +54580,7 @@
         <v>2466</v>
       </c>
       <c r="AG153" s="2" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="AH153" s="1" t="s">
         <v>39</v>
@@ -54595,7 +54592,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>408</v>
       </c>
@@ -54642,7 +54639,7 @@
         <v>1918</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="Q154" s="7">
         <v>0.92200000000000004</v>
@@ -54701,7 +54698,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>412</v>
       </c>
@@ -54786,7 +54783,7 @@
         <v>2518</v>
       </c>
       <c r="AD155" s="2" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="AE155" s="1">
         <v>3</v>
@@ -54795,7 +54792,7 @@
         <v>2467</v>
       </c>
       <c r="AG155" s="2" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="AH155" s="1" t="s">
         <v>39</v>
@@ -54807,7 +54804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>430</v>
       </c>
@@ -54909,7 +54906,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>433</v>
       </c>
@@ -54994,7 +54991,7 @@
         <v>2485</v>
       </c>
       <c r="AD157" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="AE157" s="1">
         <v>3</v>
@@ -55003,7 +55000,7 @@
         <v>2470</v>
       </c>
       <c r="AG157" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="AH157" s="1" t="s">
         <v>39</v>
@@ -55015,7 +55012,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:36" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>438</v>
       </c>
@@ -55062,13 +55059,13 @@
         <v>1927</v>
       </c>
       <c r="P158" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="Q158" s="7">
         <v>0.90100000000000002</v>
       </c>
       <c r="R158" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="S158" s="7">
         <v>0.89300000000000002</v>
@@ -55104,7 +55101,7 @@
         <v>1928</v>
       </c>
       <c r="AD158" s="2" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="AE158" s="1">
         <v>5</v>
@@ -55113,7 +55110,7 @@
         <v>2471</v>
       </c>
       <c r="AG158" s="2" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="AH158" s="1" t="s">
         <v>39</v>
@@ -55125,7 +55122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>441</v>
       </c>
@@ -55186,7 +55183,7 @@
         <v>2528</v>
       </c>
       <c r="AD159" s="2" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="AE159" s="1">
         <v>5</v>
@@ -55195,13 +55192,13 @@
         <v>2529</v>
       </c>
       <c r="AG159" s="2" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="AH159" s="1"/>
       <c r="AI159" s="1"/>
       <c r="AJ159" s="1"/>
     </row>
-    <row r="160" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>452</v>
       </c>
@@ -55307,7 +55304,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>497</v>
       </c>
@@ -55411,7 +55408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>498</v>
       </c>
@@ -55519,7 +55516,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>517</v>
       </c>
@@ -55608,7 +55605,7 @@
         <v>2475</v>
       </c>
       <c r="AD163" s="2" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="AE163" s="1">
         <v>3</v>
@@ -55617,7 +55614,7 @@
         <v>2476</v>
       </c>
       <c r="AG163" s="2" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="AH163" s="1" t="s">
         <v>39</v>
@@ -55629,7 +55626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>545</v>
       </c>
@@ -55733,7 +55730,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>574</v>
       </c>
@@ -55837,7 +55834,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>590</v>
       </c>
@@ -55943,7 +55940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>626</v>
       </c>
@@ -56045,7 +56042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>628</v>
       </c>
@@ -56155,7 +56152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>640</v>
       </c>
@@ -56242,7 +56239,7 @@
         <v>2513</v>
       </c>
       <c r="AD169" s="2" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="AE169" s="1">
         <v>3</v>
@@ -56251,7 +56248,7 @@
         <v>2514</v>
       </c>
       <c r="AG169" s="2" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="AH169" s="1" t="s">
         <v>39</v>
@@ -56263,7 +56260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>672</v>
       </c>
@@ -56350,7 +56347,7 @@
         <v>2478</v>
       </c>
       <c r="AD170" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="AE170" s="1">
         <v>5</v>
@@ -56359,7 +56356,7 @@
         <v>2479</v>
       </c>
       <c r="AG170" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="AH170" s="1" t="s">
         <v>39</v>
@@ -56371,7 +56368,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>678</v>
       </c>
@@ -56456,7 +56453,7 @@
         <v>2486</v>
       </c>
       <c r="AD171" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="AE171" s="1">
         <v>2</v>
@@ -56465,7 +56462,7 @@
         <v>2487</v>
       </c>
       <c r="AG171" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="AH171" s="1" t="s">
         <v>39</v>
@@ -56477,7 +56474,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>684</v>
       </c>
@@ -56583,7 +56580,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>685</v>
       </c>
@@ -56689,7 +56686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>689</v>
       </c>
@@ -56813,136 +56810,136 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="255.5703125" customWidth="1"/>
-    <col min="2" max="2" width="74.42578125" customWidth="1"/>
+    <col min="1" max="1" width="255.54296875" customWidth="1"/>
+    <col min="2" max="2" width="74.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>2028</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2029</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2040</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2589</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2030</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>2027</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>2072</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>2668</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>2669</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>2670</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>2102</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>2588</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>2141</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>2159</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>2309</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>2169</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>2225</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>2341</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>2499</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>2500</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
     </row>
   </sheetData>

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63781AD2-AAAE-47F7-9E51-6FC22BECEB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966510F5-E3AC-44BA-95BC-5A49ECA44BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9849" uniqueCount="2796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9845" uniqueCount="2794">
   <si>
     <t>id</t>
   </si>
@@ -8948,12 +8948,6 @@
   </si>
   <si>
     <t>validity_content_experts: coded by only one coder. 0 = no mention of expert consultation; 1 = experts consulted</t>
-  </si>
-  <si>
-    <t>1?</t>
-  </si>
-  <si>
-    <t>0?</t>
   </si>
 </sst>
 </file>
@@ -39369,7 +39363,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W3" sqref="W3"/>
+      <selection pane="topRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43105,7 +43099,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="390" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>111</v>
       </c>
@@ -43168,11 +43162,11 @@
       <c r="V36" s="1">
         <v>1</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="W36" s="2" t="s">
         <v>2310</v>
       </c>
-      <c r="X36" s="1" t="s">
-        <v>2794</v>
+      <c r="X36" s="1">
+        <v>1</v>
       </c>
       <c r="Y36" s="1">
         <v>2</v>
@@ -48203,7 +48197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>291</v>
       </c>
@@ -48268,11 +48262,11 @@
       <c r="V84" s="1">
         <v>1</v>
       </c>
-      <c r="W84" s="1" t="s">
+      <c r="W84" s="2" t="s">
         <v>2331</v>
       </c>
-      <c r="X84" s="1" t="s">
-        <v>2795</v>
+      <c r="X84" s="1">
+        <v>1</v>
       </c>
       <c r="Y84" s="1" t="s">
         <v>39</v>
@@ -53037,7 +53031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:37" ht="165" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>486</v>
       </c>
@@ -53100,11 +53094,11 @@
       <c r="V130" s="1">
         <v>1</v>
       </c>
-      <c r="W130" s="1" t="s">
+      <c r="W130" s="2" t="s">
         <v>2326</v>
       </c>
-      <c r="X130" s="1" t="s">
-        <v>2794</v>
+      <c r="X130" s="1">
+        <v>1</v>
       </c>
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
@@ -53140,7 +53134,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:37" ht="225" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>497</v>
       </c>
@@ -53201,11 +53195,11 @@
       <c r="V131" s="1">
         <v>1</v>
       </c>
-      <c r="W131" s="1" t="s">
+      <c r="W131" s="2" t="s">
         <v>1929</v>
       </c>
-      <c r="X131" s="1" t="s">
-        <v>2795</v>
+      <c r="X131" s="1">
+        <v>0</v>
       </c>
       <c r="Y131" s="1" t="s">
         <v>39</v>

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966510F5-E3AC-44BA-95BC-5A49ECA44BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B099E4A9-A0B5-4244-AD98-20FA30B88E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook 1" sheetId="1" r:id="rId1"/>
@@ -11213,7 +11213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC185"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
@@ -39361,9 +39361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X3" sqref="X3"/>
+      <selection pane="topRight" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B099E4A9-A0B5-4244-AD98-20FA30B88E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FA2914-34CF-4BA6-B0EA-3A189F812C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9845" uniqueCount="2794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9844" uniqueCount="2793">
   <si>
     <t>id</t>
   </si>
@@ -8921,9 +8921,6 @@
   </si>
   <si>
     <t>peer_reviewed</t>
-  </si>
-  <si>
-    <t>0 (peer review aber nur für proceedings, paper laut recherche in procedia computer science veröffentlicht?)</t>
   </si>
   <si>
     <t>peer_reviewed: coded by only one coder. 0 = no information; 1 = peer-reviewed; 2 = not peer-reviewed</t>
@@ -9052,42 +9049,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="101">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -9338,6 +9299,24 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -10468,6 +10447,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -10810,105 +10807,105 @@
     <tableColumn id="13" xr3:uid="{4C810761-9C54-407E-821C-910633F7EEDB}" name="isbn" dataDxfId="86"/>
     <tableColumn id="14" xr3:uid="{AE70B04B-F696-433B-8BC2-87D150C9E6DD}" name="citations" dataDxfId="85"/>
     <tableColumn id="15" xr3:uid="{F4571C45-C651-4D0E-AB71-D79FFC1C3C9A}" name="notes" dataDxfId="84"/>
-    <tableColumn id="55" xr3:uid="{7455F4EB-EEFA-42A3-84EE-E6CB28DD2AC8}" name="peer_reviewed" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{7D6D709F-18C4-46EC-8EC9-150B067D081A}" name="exclude" dataDxfId="83"/>
-    <tableColumn id="17" xr3:uid="{3496F9B5-7F32-4C27-97FC-9C8772B79FF4}" name="study_samples" dataDxfId="82"/>
-    <tableColumn id="18" xr3:uid="{AC3104B6-C5AD-4B41-86A6-DDD55B0701A0}" name="study_type" dataDxfId="81"/>
-    <tableColumn id="19" xr3:uid="{20BD7536-58E7-4945-ADAC-05DA8D961FD7}" name="study_setting" dataDxfId="80"/>
-    <tableColumn id="20" xr3:uid="{F96BABA1-11DD-4D97-B14A-14439B1FC6EF}" name="smarthome" dataDxfId="79"/>
-    <tableColumn id="21" xr3:uid="{104F9D3E-08C9-4B1A-B36D-566C520B7EF0}" name="scale_origin" dataDxfId="78"/>
-    <tableColumn id="22" xr3:uid="{3EC9FF84-EA0D-4AC1-9DB6-475CF4F58C71}" name="scale_number" dataDxfId="77"/>
-    <tableColumn id="23" xr3:uid="{3BCC1032-C23A-442E-A5FD-B6F161367FA7}" name="scale_number_new" dataDxfId="76"/>
-    <tableColumn id="24" xr3:uid="{3539CF97-B7F3-4EF9-9E1B-7F535977AA6D}" name="reliability_alpha_studypaper" dataDxfId="75"/>
-    <tableColumn id="25" xr3:uid="{28EBD272-748F-48D8-A1B9-F840AA051280}" name="reliability_alpha_studypaper_new" dataDxfId="74"/>
-    <tableColumn id="26" xr3:uid="{DAC8F819-9B93-42D5-95FC-2B79BBE6FA34}" name="reliability_composite_studypaper" dataDxfId="73"/>
-    <tableColumn id="27" xr3:uid="{42E070B1-262D-423B-ACD6-909449A671F5}" name="reliability_other_studypaper" dataDxfId="72"/>
-    <tableColumn id="28" xr3:uid="{87FF4DBF-0ABD-438C-97A8-5156E13146C3}" name="validity_information_studypaper" dataDxfId="71"/>
-    <tableColumn id="29" xr3:uid="{DD2BEF4E-7541-406E-B9FF-652C420A7A4D}" name="as_outcome_variable" dataDxfId="70"/>
-    <tableColumn id="30" xr3:uid="{552BADFA-87DD-45F0-9C1E-1DC6B1B3F790}" name="cause_variables" dataDxfId="69"/>
-    <tableColumn id="31" xr3:uid="{86019C60-30AD-456F-8A43-E9ABBA2909F7}" name="cause_variables_new" dataDxfId="68"/>
-    <tableColumn id="52" xr3:uid="{40329B49-416B-407B-B75D-F87C2A6B8124}" name="cause_variables_theory" dataDxfId="67"/>
-    <tableColumn id="54" xr3:uid="{DAEFBA89-68E8-4475-BB8D-520C38A319D4}" name="cause_variables_theory_other" dataDxfId="66"/>
-    <tableColumn id="53" xr3:uid="{E4EF916A-C11D-4465-A7C5-10136D29F161}" name="cause_variables_theory_certainty" dataDxfId="65"/>
-    <tableColumn id="32" xr3:uid="{E701C720-C404-4391-B8A5-D9C68D70A2A8}" name="as_cause_variable" dataDxfId="64"/>
-    <tableColumn id="33" xr3:uid="{B9997837-7A9D-4A7C-AB55-42AABCFD811D}" name="outcome_variables" dataDxfId="63"/>
-    <tableColumn id="34" xr3:uid="{CFE1E853-EE6D-4F54-AF02-1C96FB97265D}" name="outcome_variables_new" dataDxfId="62"/>
-    <tableColumn id="35" xr3:uid="{983B5AC6-01CB-430A-BFE9-47FB6C8A1A57}" name="outcome_variables_theory" dataDxfId="61"/>
-    <tableColumn id="36" xr3:uid="{4E2E13CE-F550-4BBD-9D43-D4DD2B7682C5}" name="intervention" dataDxfId="60"/>
-    <tableColumn id="37" xr3:uid="{301B9B6E-3055-4BD2-A785-5A89438E360A}" name=" intervention_description" dataDxfId="59"/>
-    <tableColumn id="38" xr3:uid="{967F2D4A-B38D-4733-AEBC-87F42E6372CA}" name="intervention_description_new" dataDxfId="58"/>
-    <tableColumn id="39" xr3:uid="{4A4637C3-0C9E-4AC6-A130-EC58C54AA78E}" name="sample_size" dataDxfId="57"/>
-    <tableColumn id="40" xr3:uid="{48C1563E-C36D-42F2-BAAC-D9258D9F7DDA}" name="sample_size_new" dataDxfId="56"/>
-    <tableColumn id="41" xr3:uid="{2197BFF1-80B6-45A4-A1DF-A26AFB19143E}" name="sample_age" dataDxfId="55"/>
-    <tableColumn id="42" xr3:uid="{9AA21FE9-EEA8-4B4D-B6A4-2B73876A3B34}" name="sample_age_new" dataDxfId="54"/>
-    <tableColumn id="43" xr3:uid="{E85023DE-EC6C-479B-9F2F-0428AFA9388F}" name="sample_sex" dataDxfId="53"/>
-    <tableColumn id="44" xr3:uid="{8DA8AEE4-D2C9-4991-81B1-9411D454D320}" name="sample_sex_male" dataDxfId="52"/>
-    <tableColumn id="45" xr3:uid="{B8B5E0FC-856F-4D00-A329-B6D961D92676}" name="sample_sex_female" dataDxfId="51"/>
-    <tableColumn id="46" xr3:uid="{3A87F76B-3DA3-4A54-93FC-DC8725B0608E}" name="sample_sex_nonbinary" dataDxfId="50"/>
-    <tableColumn id="47" xr3:uid="{A6957E5C-1E57-4297-A60F-C0D160A3DC1B}" name="sample_sex_noresponse" dataDxfId="49"/>
-    <tableColumn id="48" xr3:uid="{D76BE3F9-76C1-4B9F-855B-7FDC79B8FE2F}" name="sample_profession" dataDxfId="48"/>
-    <tableColumn id="49" xr3:uid="{520B4AA4-E8B0-4EF8-B82F-78D7563ADEAE}" name="sample_profession_new" dataDxfId="47"/>
-    <tableColumn id="50" xr3:uid="{B1845F5E-B0D1-44C7-9879-A514F7AB0082}" name="sample_recruitment" dataDxfId="46"/>
-    <tableColumn id="51" xr3:uid="{19AECBA3-1C73-4E2F-8F22-A9E94D2CD5E7}" name="sample_country" dataDxfId="45"/>
+    <tableColumn id="55" xr3:uid="{7455F4EB-EEFA-42A3-84EE-E6CB28DD2AC8}" name="peer_reviewed" dataDxfId="83"/>
+    <tableColumn id="16" xr3:uid="{7D6D709F-18C4-46EC-8EC9-150B067D081A}" name="exclude" dataDxfId="82"/>
+    <tableColumn id="17" xr3:uid="{3496F9B5-7F32-4C27-97FC-9C8772B79FF4}" name="study_samples" dataDxfId="81"/>
+    <tableColumn id="18" xr3:uid="{AC3104B6-C5AD-4B41-86A6-DDD55B0701A0}" name="study_type" dataDxfId="80"/>
+    <tableColumn id="19" xr3:uid="{20BD7536-58E7-4945-ADAC-05DA8D961FD7}" name="study_setting" dataDxfId="79"/>
+    <tableColumn id="20" xr3:uid="{F96BABA1-11DD-4D97-B14A-14439B1FC6EF}" name="smarthome" dataDxfId="78"/>
+    <tableColumn id="21" xr3:uid="{104F9D3E-08C9-4B1A-B36D-566C520B7EF0}" name="scale_origin" dataDxfId="77"/>
+    <tableColumn id="22" xr3:uid="{3EC9FF84-EA0D-4AC1-9DB6-475CF4F58C71}" name="scale_number" dataDxfId="76"/>
+    <tableColumn id="23" xr3:uid="{3BCC1032-C23A-442E-A5FD-B6F161367FA7}" name="scale_number_new" dataDxfId="75"/>
+    <tableColumn id="24" xr3:uid="{3539CF97-B7F3-4EF9-9E1B-7F535977AA6D}" name="reliability_alpha_studypaper" dataDxfId="74"/>
+    <tableColumn id="25" xr3:uid="{28EBD272-748F-48D8-A1B9-F840AA051280}" name="reliability_alpha_studypaper_new" dataDxfId="73"/>
+    <tableColumn id="26" xr3:uid="{DAC8F819-9B93-42D5-95FC-2B79BBE6FA34}" name="reliability_composite_studypaper" dataDxfId="72"/>
+    <tableColumn id="27" xr3:uid="{42E070B1-262D-423B-ACD6-909449A671F5}" name="reliability_other_studypaper" dataDxfId="71"/>
+    <tableColumn id="28" xr3:uid="{87FF4DBF-0ABD-438C-97A8-5156E13146C3}" name="validity_information_studypaper" dataDxfId="70"/>
+    <tableColumn id="29" xr3:uid="{DD2BEF4E-7541-406E-B9FF-652C420A7A4D}" name="as_outcome_variable" dataDxfId="69"/>
+    <tableColumn id="30" xr3:uid="{552BADFA-87DD-45F0-9C1E-1DC6B1B3F790}" name="cause_variables" dataDxfId="68"/>
+    <tableColumn id="31" xr3:uid="{86019C60-30AD-456F-8A43-E9ABBA2909F7}" name="cause_variables_new" dataDxfId="67"/>
+    <tableColumn id="52" xr3:uid="{40329B49-416B-407B-B75D-F87C2A6B8124}" name="cause_variables_theory" dataDxfId="66"/>
+    <tableColumn id="54" xr3:uid="{DAEFBA89-68E8-4475-BB8D-520C38A319D4}" name="cause_variables_theory_other" dataDxfId="65"/>
+    <tableColumn id="53" xr3:uid="{E4EF916A-C11D-4465-A7C5-10136D29F161}" name="cause_variables_theory_certainty" dataDxfId="64"/>
+    <tableColumn id="32" xr3:uid="{E701C720-C404-4391-B8A5-D9C68D70A2A8}" name="as_cause_variable" dataDxfId="63"/>
+    <tableColumn id="33" xr3:uid="{B9997837-7A9D-4A7C-AB55-42AABCFD811D}" name="outcome_variables" dataDxfId="62"/>
+    <tableColumn id="34" xr3:uid="{CFE1E853-EE6D-4F54-AF02-1C96FB97265D}" name="outcome_variables_new" dataDxfId="61"/>
+    <tableColumn id="35" xr3:uid="{983B5AC6-01CB-430A-BFE9-47FB6C8A1A57}" name="outcome_variables_theory" dataDxfId="60"/>
+    <tableColumn id="36" xr3:uid="{4E2E13CE-F550-4BBD-9D43-D4DD2B7682C5}" name="intervention" dataDxfId="59"/>
+    <tableColumn id="37" xr3:uid="{301B9B6E-3055-4BD2-A785-5A89438E360A}" name=" intervention_description" dataDxfId="58"/>
+    <tableColumn id="38" xr3:uid="{967F2D4A-B38D-4733-AEBC-87F42E6372CA}" name="intervention_description_new" dataDxfId="57"/>
+    <tableColumn id="39" xr3:uid="{4A4637C3-0C9E-4AC6-A130-EC58C54AA78E}" name="sample_size" dataDxfId="56"/>
+    <tableColumn id="40" xr3:uid="{48C1563E-C36D-42F2-BAAC-D9258D9F7DDA}" name="sample_size_new" dataDxfId="55"/>
+    <tableColumn id="41" xr3:uid="{2197BFF1-80B6-45A4-A1DF-A26AFB19143E}" name="sample_age" dataDxfId="54"/>
+    <tableColumn id="42" xr3:uid="{9AA21FE9-EEA8-4B4D-B6A4-2B73876A3B34}" name="sample_age_new" dataDxfId="53"/>
+    <tableColumn id="43" xr3:uid="{E85023DE-EC6C-479B-9F2F-0428AFA9388F}" name="sample_sex" dataDxfId="52"/>
+    <tableColumn id="44" xr3:uid="{8DA8AEE4-D2C9-4991-81B1-9411D454D320}" name="sample_sex_male" dataDxfId="51"/>
+    <tableColumn id="45" xr3:uid="{B8B5E0FC-856F-4D00-A329-B6D961D92676}" name="sample_sex_female" dataDxfId="50"/>
+    <tableColumn id="46" xr3:uid="{3A87F76B-3DA3-4A54-93FC-DC8725B0608E}" name="sample_sex_nonbinary" dataDxfId="49"/>
+    <tableColumn id="47" xr3:uid="{A6957E5C-1E57-4297-A60F-C0D160A3DC1B}" name="sample_sex_noresponse" dataDxfId="48"/>
+    <tableColumn id="48" xr3:uid="{D76BE3F9-76C1-4B9F-855B-7FDC79B8FE2F}" name="sample_profession" dataDxfId="47"/>
+    <tableColumn id="49" xr3:uid="{520B4AA4-E8B0-4EF8-B82F-78D7563ADEAE}" name="sample_profession_new" dataDxfId="46"/>
+    <tableColumn id="50" xr3:uid="{B1845F5E-B0D1-44C7-9879-A514F7AB0082}" name="sample_recruitment" dataDxfId="45"/>
+    <tableColumn id="51" xr3:uid="{19AECBA3-1C73-4E2F-8F22-A9E94D2CD5E7}" name="sample_country" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:AK174" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:AK174" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A1:AK174" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK174">
     <sortCondition ref="A1:A174"/>
   </sortState>
   <tableColumns count="37">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="authors" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="year" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="scale_number" dataDxfId="39"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="scale_number_new" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="scale_development " dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="scale_authors" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="scale_changes" dataDxfId="35"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="scale_changes_new" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="scale_name" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="scale_language" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="item_number" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="factors" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="facets" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="item_list" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="reliability_alpha" dataDxfId="27"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="reliability_alpha_new" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="reliability_composite" dataDxfId="25"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="reliability_composite_new" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="reliability_testretest" dataDxfId="23"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="reliability_splithalf" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="validity_content " dataDxfId="21"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="validity_content_description " dataDxfId="20"/>
-    <tableColumn id="37" xr3:uid="{1C3E89AE-785F-4464-97FC-941E35973DF3}" name="validity_content_experts" dataDxfId="0"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="validity_construct_factor" dataDxfId="19"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="validity_construct_factor_new" dataDxfId="18"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="validity_construct_factor_description" dataDxfId="17"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="validity_construct_factor_fitindices" dataDxfId="16"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="validity_construct_discriminant_type" dataDxfId="15"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="validity_construct_discriminant_description" dataDxfId="14"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="validity_construct_discriminant_description_new" dataDxfId="13"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="validity_construct_convergent_type" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="validity_construct_convergent_description" dataDxfId="11"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="validity_construct_convergent_description_new" dataDxfId="10"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="validity_criterion_type" dataDxfId="9"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="validity_criterion_results" dataDxfId="8"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="validity_incremental" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="authors" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="year" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="scale_number" dataDxfId="38"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="scale_number_new" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="scale_development " dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="scale_authors" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="scale_changes" dataDxfId="34"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="scale_changes_new" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="scale_name" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="scale_language" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="item_number" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="factors" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="facets" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="item_list" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="reliability_alpha" dataDxfId="26"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="reliability_alpha_new" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="reliability_composite" dataDxfId="24"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="reliability_composite_new" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="reliability_testretest" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="reliability_splithalf" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="validity_content " dataDxfId="20"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="validity_content_description " dataDxfId="19"/>
+    <tableColumn id="37" xr3:uid="{1C3E89AE-785F-4464-97FC-941E35973DF3}" name="validity_content_experts" dataDxfId="18"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="validity_construct_factor" dataDxfId="17"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="validity_construct_factor_new" dataDxfId="16"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="validity_construct_factor_description" dataDxfId="15"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="validity_construct_factor_fitindices" dataDxfId="14"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="validity_construct_discriminant_type" dataDxfId="13"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="validity_construct_discriminant_description" dataDxfId="12"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="validity_construct_discriminant_description_new" dataDxfId="11"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="validity_construct_convergent_type" dataDxfId="10"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="validity_construct_convergent_description" dataDxfId="9"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="validity_construct_convergent_description_new" dataDxfId="8"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="validity_criterion_type" dataDxfId="7"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="validity_criterion_results" dataDxfId="6"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="validity_incremental" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:A26" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:A26" totalsRowShown="0" headerRowDxfId="4" dataDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="1">
   <autoFilter ref="A1:A26" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Additional Coding Information:" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Additional Coding Information:" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11213,8 +11210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13313,7 +13310,7 @@
         <v>39</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>39</v>
@@ -17788,7 +17785,7 @@
         <v>39</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>39</v>
@@ -21004,7 +21001,7 @@
         <v>39</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="I65" s="1">
         <v>1</v>
@@ -22061,7 +22058,7 @@
         <v>39</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>39</v>
@@ -23778,8 +23775,8 @@
       <c r="O83" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P83" s="1" t="s">
-        <v>2785</v>
+      <c r="P83" s="1">
+        <v>1</v>
       </c>
       <c r="Q83" s="1">
         <v>1</v>
@@ -32370,7 +32367,7 @@
         <v>39</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="H140" s="1">
         <v>6</v>
@@ -39471,7 +39468,7 @@
         <v>593</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>594</v>
@@ -57976,12 +57973,12 @@
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FA2914-34CF-4BA6-B0EA-3A189F812C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6306F8B-B6F2-4F05-947F-BA5B1115102A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9844" uniqueCount="2793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9832" uniqueCount="2798">
   <si>
     <t>id</t>
   </si>
@@ -8945,6 +8945,21 @@
   </si>
   <si>
     <t>validity_content_experts: coded by only one coder. 0 = no mention of expert consultation; 1 = experts consulted</t>
+  </si>
+  <si>
+    <t>factor validity (CFA, unidimensional constructs)</t>
+  </si>
+  <si>
+    <t>X2 (136) = 1,767.65, p = .001</t>
+  </si>
+  <si>
+    <t>Construct Validity and Reliability: The 17 items used to measure the different constructs of the study were subjected to a principal component analysis; Kaiser-Meyer Olkin Measure of Sampling Adequacy was pegged at 82; Bartlett’s Test of Sphericity [X2 (136) = 1,767.65, p = .001] indicated that the correlations among the 17 items; Eigenvalues for the five components were higher than the Kaiser’s criterion of 1 (values ranging from 4.74 to 1.11) and in combination accounted for 65.83% of the variance; Table 2 shows the factor loadings of the 17 items</t>
+  </si>
+  <si>
+    <t>Exploratory factor analyses were used to assess convergent and discriminant validity: All eigenvalues associated with the factors exceeded the required level of 1.0, varying from 1.14 to 3.73; As shown in Table 1, the overall factor structural solution had an appropriate loading pattern and explained 68.94 percent of the variation.</t>
+  </si>
+  <si>
+    <t>no specific reporting</t>
   </si>
 </sst>
 </file>
@@ -9021,7 +9036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9044,6 +9059,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -10854,9 +10870,15 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:AK174" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:AK174" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK174">
-    <sortCondition ref="A1:A174"/>
+  <autoFilter ref="A1:AK174" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="12">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:AK163">
+    <sortCondition ref="Z1:Z174"/>
   </sortState>
   <tableColumns count="37">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="41"/>
@@ -11210,8 +11232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11243,7 +11265,7 @@
     <col min="26" max="26" width="33" style="1" customWidth="1"/>
     <col min="27" max="27" width="28.5703125" style="1" customWidth="1"/>
     <col min="28" max="28" width="63.85546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="22" style="1" customWidth="1"/>
+    <col min="29" max="29" width="71.28515625" style="1" customWidth="1"/>
     <col min="30" max="30" width="63.28515625" style="2" customWidth="1"/>
     <col min="31" max="31" width="31.7109375" style="1" customWidth="1"/>
     <col min="32" max="34" width="21.28515625" style="1" customWidth="1"/>
@@ -13141,7 +13163,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>34</v>
       </c>
@@ -13226,7 +13248,7 @@
       <c r="AB13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AC13" s="2" t="s">
         <v>2033</v>
       </c>
       <c r="AD13" s="1">
@@ -19149,7 +19171,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:55" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>164</v>
       </c>
@@ -19234,7 +19256,7 @@
       <c r="AB53" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AC53" s="1" t="s">
+      <c r="AC53" s="2" t="s">
         <v>2497</v>
       </c>
       <c r="AD53" s="1">
@@ -19693,7 +19715,7 @@
       <c r="AB56" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC56" s="1" t="s">
+      <c r="AC56" s="2" t="s">
         <v>2029</v>
       </c>
       <c r="AD56" s="1">
@@ -21136,7 +21158,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:55" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>210</v>
       </c>
@@ -21215,7 +21237,7 @@
       <c r="AB66" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC66" s="1" t="s">
+      <c r="AC66" s="2" t="s">
         <v>2030</v>
       </c>
       <c r="AD66" s="1">
@@ -21672,7 +21694,7 @@
       <c r="AB69" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC69" s="1" t="s">
+      <c r="AC69" s="2" t="s">
         <v>2031</v>
       </c>
       <c r="AD69" s="1">
@@ -31902,7 +31924,7 @@
       </c>
       <c r="BC136" s="1"/>
     </row>
-    <row r="137" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:55" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>501</v>
       </c>
@@ -31984,7 +32006,7 @@
       <c r="AB137" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC137" s="1" t="s">
+      <c r="AC137" s="2" t="s">
         <v>2032</v>
       </c>
       <c r="AD137" s="1">
@@ -32502,7 +32524,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="141" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:55" ht="165" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>527</v>
       </c>
@@ -32587,7 +32609,7 @@
       <c r="AB141" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC141" s="1" t="s">
+      <c r="AC141" s="2" t="s">
         <v>2034</v>
       </c>
       <c r="AD141" s="1">
@@ -35396,7 +35418,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="160" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:55" ht="75" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>607</v>
       </c>
@@ -35481,7 +35503,7 @@
       <c r="AB160" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC160" s="1" t="s">
+      <c r="AC160" s="2" t="s">
         <v>2035</v>
       </c>
       <c r="AD160" s="1">
@@ -39358,9 +39380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA163" sqref="AA163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39510,7 +39532,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -39613,7 +39635,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -39716,7 +39738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -39827,7 +39849,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -39932,7 +39954,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -40041,7 +40063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -40150,7 +40172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>19</v>
       </c>
@@ -40253,7 +40275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>25</v>
       </c>
@@ -40358,7 +40380,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>26</v>
       </c>
@@ -40465,7 +40487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>28</v>
       </c>
@@ -40574,7 +40596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>32</v>
       </c>
@@ -40683,7 +40705,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>34</v>
       </c>
@@ -40794,7 +40816,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>36</v>
       </c>
@@ -40903,7 +40925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42</v>
       </c>
@@ -41004,7 +41026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43</v>
       </c>
@@ -41113,7 +41135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43</v>
       </c>
@@ -41218,7 +41240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>56</v>
       </c>
@@ -41329,7 +41351,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="135" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>56</v>
       </c>
@@ -41436,7 +41458,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>56</v>
       </c>
@@ -41543,7 +41565,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>56</v>
       </c>
@@ -41650,7 +41672,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>61</v>
       </c>
@@ -41761,7 +41783,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>62</v>
       </c>
@@ -41860,7 +41882,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>79</v>
       </c>
@@ -41973,58 +41995,56 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1413</v>
+        <v>137</v>
       </c>
       <c r="C25" s="1">
-        <v>2016</v>
-      </c>
-      <c r="D25" s="1">
-        <v>7</v>
+        <v>2019</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E25" s="1">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1827</v>
+        <v>647</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1828</v>
+        <v>648</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>2229</v>
+        <v>2222</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>2251</v>
+        <v>649</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>727</v>
+        <v>605</v>
       </c>
       <c r="L25" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" s="1">
         <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>1829</v>
+        <v>39</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>1830</v>
+        <v>39</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>0.73</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="Q25" s="6"/>
       <c r="R25" s="1" t="s">
         <v>39</v>
       </c>
@@ -42036,44 +42056,38 @@
         <v>39</v>
       </c>
       <c r="V25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>1832</v>
-      </c>
-      <c r="X25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>39</v>
+        <v>39</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>2382</v>
       </c>
       <c r="AB25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC25" s="1">
-        <v>5</v>
+      <c r="AC25" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>2447</v>
-      </c>
-      <c r="AE25" s="2" t="s">
-        <v>2746</v>
-      </c>
-      <c r="AF25" s="1">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>2447</v>
-      </c>
-      <c r="AH25" s="2" t="s">
-        <v>2746</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AH25" s="10"/>
       <c r="AI25" s="1" t="s">
         <v>39</v>
       </c>
@@ -42084,7 +42098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>82</v>
       </c>
@@ -42181,7 +42195,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>83</v>
       </c>
@@ -42280,7 +42294,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>86</v>
       </c>
@@ -42385,7 +42399,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>87</v>
       </c>
@@ -42486,7 +42500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>94</v>
       </c>
@@ -42591,7 +42605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>94</v>
       </c>
@@ -42696,7 +42710,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>94</v>
       </c>
@@ -42801,7 +42815,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>95</v>
       </c>
@@ -42904,42 +42918,42 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="C34" s="1">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E34" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>647</v>
+        <v>668</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>648</v>
+        <v>669</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>2222</v>
+        <v>1906</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>605</v>
       </c>
       <c r="L34" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -42948,12 +42962,14 @@
         <v>39</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>39</v>
+        <v>670</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q34" s="6"/>
+        <v>671</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>0.79</v>
+      </c>
       <c r="R34" s="1" t="s">
         <v>39</v>
       </c>
@@ -42965,38 +42981,44 @@
         <v>39</v>
       </c>
       <c r="V34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X34" s="1"/>
+        <v>2311</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
       <c r="Y34" s="1">
         <v>0</v>
       </c>
       <c r="Z34" s="1">
         <v>0</v>
       </c>
-      <c r="AA34" s="1" t="s">
-        <v>2382</v>
+      <c r="AA34" s="2" t="s">
+        <v>2384</v>
       </c>
       <c r="AB34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC34" s="1" t="s">
-        <v>39</v>
+      <c r="AC34" s="1">
+        <v>5</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="1" t="s">
-        <v>39</v>
+        <v>2385</v>
+      </c>
+      <c r="AE34" s="2" t="s">
+        <v>2699</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>4</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH34" s="10"/>
+        <v>2386</v>
+      </c>
+      <c r="AH34" s="10" t="s">
+        <v>2699</v>
+      </c>
       <c r="AI34" s="1" t="s">
         <v>39</v>
       </c>
@@ -43007,7 +43029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>99</v>
       </c>
@@ -43096,59 +43118,61 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="390" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>111</v>
+        <v>501</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>148</v>
+        <v>1093</v>
       </c>
       <c r="C36" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>153</v>
+        <v>2020</v>
+      </c>
+      <c r="D36" s="1">
+        <v>39</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
+        <v>2198</v>
+      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>39</v>
+        <v>1331</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="1"/>
+        <v>626</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>626</v>
+      </c>
       <c r="J36" s="1" t="s">
-        <v>650</v>
+        <v>731</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>605</v>
       </c>
       <c r="L36" s="1">
-        <v>3</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>651</v>
+        <v>2285</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q36" s="6"/>
+        <v>1097</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0.79</v>
+      </c>
       <c r="R36" s="1" t="s">
-        <v>653</v>
+        <v>1097</v>
       </c>
       <c r="S36" s="1">
-        <v>0.98199999999999998</v>
+        <v>0.79</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>39</v>
@@ -43157,22 +43181,20 @@
         <v>39</v>
       </c>
       <c r="V36" s="1">
-        <v>1</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>2310</v>
-      </c>
-      <c r="X36" s="1">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X36" s="1"/>
       <c r="Y36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>2341</v>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2" t="s">
+        <v>1332</v>
       </c>
       <c r="AB36" s="1" t="s">
         <v>39</v>
@@ -43181,19 +43203,19 @@
         <v>5</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>2501</v>
+        <v>1333</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AF36" s="1">
-        <v>3</v>
+        <v>2357</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>2502</v>
-      </c>
-      <c r="AH36" s="10" t="s">
-        <v>2723</v>
+        <v>39</v>
+      </c>
+      <c r="AH36" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="AI36" s="1" t="s">
         <v>39</v>
@@ -43205,7 +43227,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>116</v>
       </c>
@@ -43308,60 +43330,64 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>123</v>
+        <v>540</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>157</v>
+        <v>492</v>
       </c>
       <c r="C38" s="1">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" s="1">
-        <v>13</v>
+        <v>497</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>2183</v>
       </c>
       <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="L38" s="1">
         <v>3</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1" t="s">
-        <v>2233</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L38" s="1">
-        <v>35</v>
-      </c>
       <c r="M38" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>654</v>
+        <v>39</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>655</v>
+        <v>754</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>656</v>
+        <v>755</v>
       </c>
       <c r="Q38" s="1">
-        <v>0.97499999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S38" s="1"/>
+        <v>756</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0.86</v>
+      </c>
       <c r="T38" s="1" t="s">
         <v>39</v>
       </c>
@@ -43372,7 +43398,7 @@
         <v>1</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>657</v>
+        <v>2319</v>
       </c>
       <c r="X38" s="1">
         <v>0</v>
@@ -43383,26 +43409,30 @@
       <c r="Z38" s="1">
         <v>0</v>
       </c>
-      <c r="AA38" s="1" t="s">
-        <v>2383</v>
+      <c r="AA38" s="2" t="s">
+        <v>2409</v>
       </c>
       <c r="AB38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC38" s="1" t="s">
-        <v>39</v>
+      <c r="AC38" s="1">
+        <v>5</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="1" t="s">
-        <v>39</v>
+        <v>2410</v>
+      </c>
+      <c r="AE38" s="2" t="s">
+        <v>2345</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>5</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH38" s="10"/>
+        <v>2411</v>
+      </c>
+      <c r="AH38" s="10" t="s">
+        <v>2345</v>
+      </c>
       <c r="AI38" s="1" t="s">
         <v>39</v>
       </c>
@@ -43413,7 +43443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>128</v>
       </c>
@@ -43526,7 +43556,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>129</v>
       </c>
@@ -43629,7 +43659,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>129</v>
       </c>
@@ -43732,7 +43762,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>130</v>
       </c>
@@ -43835,7 +43865,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>133</v>
       </c>
@@ -43938,7 +43968,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>136</v>
       </c>
@@ -44043,7 +44073,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>146</v>
       </c>
@@ -44152,7 +44182,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>147</v>
       </c>
@@ -44253,7 +44283,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>148</v>
       </c>
@@ -44360,24 +44390,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1449</v>
+        <v>157</v>
       </c>
       <c r="C48" s="1">
         <v>2016</v>
       </c>
-      <c r="D48" s="1">
-        <v>12</v>
+      <c r="D48" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="E48" s="1">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>39</v>
@@ -44387,28 +44417,28 @@
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>2252</v>
+        <v>2233</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>605</v>
+        <v>39</v>
       </c>
       <c r="L48" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M48" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>39</v>
+        <v>654</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>1839</v>
+        <v>655</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="Q48" s="6">
-        <v>0.91</v>
+        <v>656</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0.97499999999999998</v>
       </c>
       <c r="R48" s="1" t="s">
         <v>39</v>
@@ -44424,41 +44454,37 @@
         <v>1</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>2330</v>
+        <v>657</v>
       </c>
       <c r="X48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="1" t="s">
-        <v>1840</v>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="2" t="s">
+        <v>2383</v>
       </c>
       <c r="AB48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC48" s="1">
-        <v>0</v>
+      <c r="AC48" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>1841</v>
-      </c>
-      <c r="AE48" s="2" t="s">
-        <v>2361</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="AG48" s="1" t="s">
-        <v>1842</v>
-      </c>
-      <c r="AH48" s="2" t="s">
-        <v>2492</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AH48" s="10"/>
       <c r="AI48" s="1" t="s">
         <v>39</v>
       </c>
@@ -44469,7 +44495,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>155</v>
       </c>
@@ -44572,7 +44598,7 @@
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
     </row>
-    <row r="50" spans="1:37" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>157</v>
       </c>
@@ -44687,55 +44713,53 @@
     </row>
     <row r="51" spans="1:37" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>201</v>
+        <v>1449</v>
       </c>
       <c r="C51" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>207</v>
+        <v>2016</v>
+      </c>
+      <c r="D51" s="1">
+        <v>12</v>
       </c>
       <c r="E51" s="1">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="F51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>668</v>
+        <v>39</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>1906</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>644</v>
+        <v>2252</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>605</v>
       </c>
       <c r="L51" s="1">
-        <v>3</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>670</v>
+        <v>1839</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q51" s="7">
-        <v>0.79</v>
+        <v>687</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>0.91</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>39</v>
@@ -44751,40 +44775,40 @@
         <v>1</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>2311</v>
+        <v>2330</v>
       </c>
       <c r="X51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="1" t="s">
-        <v>2384</v>
+        <v>1</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>1840</v>
       </c>
       <c r="AB51" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AC51" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>2385</v>
+        <v>1841</v>
       </c>
       <c r="AE51" s="2" t="s">
-        <v>2699</v>
+        <v>2361</v>
       </c>
       <c r="AF51" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="1" t="s">
-        <v>2386</v>
-      </c>
-      <c r="AH51" s="10" t="s">
-        <v>2699</v>
+        <v>1842</v>
+      </c>
+      <c r="AH51" s="2" t="s">
+        <v>2492</v>
       </c>
       <c r="AI51" s="1" t="s">
         <v>39</v>
@@ -44833,8 +44857,8 @@
       <c r="L52" s="1">
         <v>3</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>39</v>
+      <c r="M52" s="1">
+        <v>1</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>39</v>
@@ -44869,14 +44893,14 @@
       <c r="X52" s="1">
         <v>0</v>
       </c>
-      <c r="Y52" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z52" s="1" t="s">
-        <v>39</v>
+      <c r="Y52" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>2</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>39</v>
+        <v>2793</v>
       </c>
       <c r="AB52" s="1" t="s">
         <v>39</v>
@@ -44909,7 +44933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="165" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>166</v>
       </c>
@@ -45022,7 +45046,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>173</v>
       </c>
@@ -45131,7 +45155,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>174</v>
       </c>
@@ -45238,7 +45262,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>178</v>
       </c>
@@ -45343,7 +45367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>180</v>
       </c>
@@ -45456,7 +45480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>180</v>
       </c>
@@ -45569,7 +45593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>180</v>
       </c>
@@ -45680,21 +45704,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>910</v>
+        <v>148</v>
       </c>
       <c r="C60" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D60" s="1">
-        <v>17</v>
-      </c>
-      <c r="E60" s="1">
-        <v>69</v>
+        <v>2010</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>877</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -45706,72 +45730,82 @@
         <v>39</v>
       </c>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="J60" s="1" t="s">
+        <v>650</v>
+      </c>
       <c r="K60" s="1" t="s">
         <v>605</v>
       </c>
       <c r="L60" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M60" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>2268</v>
+        <v>39</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>2296</v>
+        <v>651</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="Q60" s="6">
-        <v>0.86</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="Q60" s="6"/>
       <c r="R60" s="1" t="s">
-        <v>1277</v>
+        <v>653</v>
       </c>
       <c r="S60" s="1">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="T60" s="1"/>
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="U60" s="1" t="s">
         <v>39</v>
       </c>
       <c r="V60" s="1">
-        <v>0</v>
-      </c>
-      <c r="W60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA60" s="1" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="W60" s="12" t="s">
+        <v>2310</v>
+      </c>
+      <c r="X60" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA60" s="2" t="s">
+        <v>2341</v>
       </c>
       <c r="AB60" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="2"/>
+      <c r="AC60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD60" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AE60" s="2" t="s">
+        <v>2723</v>
+      </c>
       <c r="AF60" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG60" s="1" t="s">
-        <v>2418</v>
+        <v>2502</v>
       </c>
       <c r="AH60" s="10" t="s">
-        <v>2757</v>
-      </c>
-      <c r="AI60" s="1"/>
+        <v>2723</v>
+      </c>
+      <c r="AI60" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ60" s="1" t="s">
         <v>39</v>
       </c>
@@ -45779,7 +45813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>188</v>
       </c>
@@ -45880,7 +45914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>193</v>
       </c>
@@ -45991,7 +46025,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>200</v>
       </c>
@@ -46098,7 +46132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>201</v>
       </c>
@@ -46199,7 +46233,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>210</v>
       </c>
@@ -46300,7 +46334,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>214</v>
       </c>
@@ -46403,7 +46437,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>216</v>
       </c>
@@ -46512,7 +46546,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>219</v>
       </c>
@@ -46617,7 +46651,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>220</v>
       </c>
@@ -46728,7 +46762,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>233</v>
       </c>
@@ -46829,7 +46863,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>234</v>
       </c>
@@ -46932,7 +46966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>236</v>
       </c>
@@ -47039,7 +47073,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>242</v>
       </c>
@@ -47146,7 +47180,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>248</v>
       </c>
@@ -47245,7 +47279,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>253</v>
       </c>
@@ -47344,7 +47378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>254</v>
       </c>
@@ -47445,7 +47479,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>262</v>
       </c>
@@ -47554,7 +47588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>263</v>
       </c>
@@ -47665,7 +47699,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>269</v>
       </c>
@@ -47766,7 +47800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>270</v>
       </c>
@@ -47877,7 +47911,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>274</v>
       </c>
@@ -47984,7 +48018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>279</v>
       </c>
@@ -48087,7 +48121,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>280</v>
       </c>
@@ -48194,7 +48228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="90" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>291</v>
       </c>
@@ -48305,7 +48339,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>301</v>
       </c>
@@ -48406,7 +48440,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>302</v>
       </c>
@@ -48517,7 +48551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>303</v>
       </c>
@@ -48620,7 +48654,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>312</v>
       </c>
@@ -48723,7 +48757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>324</v>
       </c>
@@ -48828,7 +48862,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="135" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>325</v>
       </c>
@@ -48937,7 +48971,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>327</v>
       </c>
@@ -49040,7 +49074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>335</v>
       </c>
@@ -49149,7 +49183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>337</v>
       </c>
@@ -49287,8 +49321,8 @@
       <c r="L94" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M94" s="1" t="s">
-        <v>39</v>
+      <c r="M94" s="1">
+        <v>1</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>39</v>
@@ -49327,7 +49361,7 @@
       <c r="Z94" s="1">
         <v>2</v>
       </c>
-      <c r="AA94" s="1" t="s">
+      <c r="AA94" s="2" t="s">
         <v>1887</v>
       </c>
       <c r="AB94" s="1"/>
@@ -49359,7 +49393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>339</v>
       </c>
@@ -49466,7 +49500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>342</v>
       </c>
@@ -49573,7 +49607,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>346</v>
       </c>
@@ -49686,7 +49720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>347</v>
       </c>
@@ -49779,7 +49813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>348</v>
       </c>
@@ -49884,7 +49918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>349</v>
       </c>
@@ -49961,7 +49995,7 @@
       <c r="Z100" s="1">
         <v>2</v>
       </c>
-      <c r="AA100" s="1" t="s">
+      <c r="AA100" s="2" t="s">
         <v>1896</v>
       </c>
       <c r="AB100" s="1" t="s">
@@ -49993,7 +50027,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>352</v>
       </c>
@@ -50098,7 +50132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>355</v>
       </c>
@@ -50207,7 +50241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:37" ht="90" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>362</v>
       </c>
@@ -50312,7 +50346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>363</v>
       </c>
@@ -50421,7 +50455,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>367</v>
       </c>
@@ -50528,7 +50562,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>371</v>
       </c>
@@ -50637,7 +50671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>372</v>
       </c>
@@ -50736,7 +50770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>372</v>
       </c>
@@ -50835,7 +50869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>372</v>
       </c>
@@ -50938,7 +50972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>376</v>
       </c>
@@ -51043,7 +51077,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:37" ht="90" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>378</v>
       </c>
@@ -51154,61 +51188,63 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" ht="180" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>381</v>
+        <v>675</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1606</v>
+        <v>549</v>
       </c>
       <c r="C112" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D112" s="1">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E112" s="1">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="F112" s="1">
         <v>1</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>1905</v>
+        <v>672</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>1906</v>
+        <v>2263</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>1906</v>
+        <v>703</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>731</v>
+        <v>2250</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>39</v>
+        <v>767</v>
       </c>
       <c r="L112" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M112" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>1907</v>
+        <v>39</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>2292</v>
+        <v>1361</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q112" s="6"/>
+        <v>666</v>
+      </c>
+      <c r="Q112" s="6">
+        <v>0.89</v>
+      </c>
       <c r="R112" s="1" t="s">
-        <v>1908</v>
+        <v>661</v>
       </c>
       <c r="S112" s="1">
-        <v>0.69899999999999995</v>
+        <v>0.93</v>
       </c>
       <c r="T112" s="1" t="s">
         <v>39</v>
@@ -51217,39 +51253,45 @@
         <v>39</v>
       </c>
       <c r="V112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W112" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X112" s="1"/>
-      <c r="Y112" s="1"/>
-      <c r="Z112" s="1"/>
-      <c r="AA112" s="1"/>
+        <v>1362</v>
+      </c>
+      <c r="X112" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y112" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="Z112" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA112" s="2" t="s">
+        <v>2440</v>
+      </c>
       <c r="AB112" s="1" t="s">
-        <v>39</v>
+        <v>2340</v>
       </c>
       <c r="AC112" s="1">
         <v>5</v>
       </c>
       <c r="AD112" s="1" t="s">
-        <v>2459</v>
+        <v>2441</v>
       </c>
       <c r="AE112" s="2" t="s">
-        <v>2751</v>
+        <v>2062</v>
       </c>
       <c r="AF112" s="1">
         <v>5</v>
       </c>
       <c r="AG112" s="1" t="s">
-        <v>2460</v>
+        <v>2442</v>
       </c>
       <c r="AH112" s="2" t="s">
-        <v>2751</v>
-      </c>
-      <c r="AI112" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>2062</v>
+      </c>
+      <c r="AI112" s="1"/>
       <c r="AJ112" s="1" t="s">
         <v>39</v>
       </c>
@@ -51257,7 +51299,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:37" ht="75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>384</v>
       </c>
@@ -51368,7 +51410,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:37" ht="120" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>400</v>
       </c>
@@ -51477,7 +51519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>405</v>
       </c>
@@ -51584,7 +51626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>408</v>
       </c>
@@ -51691,7 +51733,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:37" ht="75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>412</v>
       </c>
@@ -51800,7 +51842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>418</v>
       </c>
@@ -51899,7 +51941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>419</v>
       </c>
@@ -52004,7 +52046,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>429</v>
       </c>
@@ -52111,7 +52153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>430</v>
       </c>
@@ -52214,7 +52256,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>433</v>
       </c>
@@ -52321,7 +52363,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>438</v>
       </c>
@@ -52432,7 +52474,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>441</v>
       </c>
@@ -52509,7 +52551,7 @@
       <c r="AJ124" s="1"/>
       <c r="AK124" s="1"/>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>442</v>
       </c>
@@ -52614,7 +52656,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>452</v>
       </c>
@@ -52721,7 +52763,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>465</v>
       </c>
@@ -52826,7 +52868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>479</v>
       </c>
@@ -52929,7 +52971,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:37" ht="90" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:37" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>482</v>
       </c>
@@ -53028,7 +53070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:37" ht="165" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:37" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>486</v>
       </c>
@@ -53131,7 +53173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:37" ht="225" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:37" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>497</v>
       </c>
@@ -53238,7 +53280,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:37" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>498</v>
       </c>
@@ -53349,62 +53391,62 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:37" ht="135" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1093</v>
+        <v>1413</v>
       </c>
       <c r="C133" s="1">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D133" s="1">
-        <v>39</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>2198</v>
-      </c>
-      <c r="F133" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E133" s="1">
+        <v>112</v>
+      </c>
+      <c r="F133" s="1">
+        <v>1</v>
+      </c>
       <c r="G133" s="1" t="s">
-        <v>1331</v>
+        <v>1827</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>626</v>
+        <v>1828</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>626</v>
+        <v>2229</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>731</v>
+        <v>2251</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>605</v>
+        <v>727</v>
       </c>
       <c r="L133" s="1">
-        <v>2</v>
-      </c>
-      <c r="M133" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="M133" s="1">
+        <v>1</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>39</v>
+        <v>1829</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>2285</v>
+        <v>1830</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>1097</v>
+        <v>1831</v>
       </c>
       <c r="Q133" s="6">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="R133" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="S133" s="1">
-        <v>0.79</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="S133" s="1"/>
       <c r="T133" s="1" t="s">
         <v>39</v>
       </c>
@@ -53412,41 +53454,43 @@
         <v>39</v>
       </c>
       <c r="V133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W133" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X133" s="1"/>
+        <v>1832</v>
+      </c>
+      <c r="X133" s="1">
+        <v>0</v>
+      </c>
       <c r="Y133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z133" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA133" s="1" t="s">
-        <v>1332</v>
+        <v>1</v>
+      </c>
+      <c r="AA133" s="2" t="s">
+        <v>2795</v>
       </c>
       <c r="AB133" s="1" t="s">
-        <v>39</v>
+        <v>2794</v>
       </c>
       <c r="AC133" s="1">
         <v>5</v>
       </c>
       <c r="AD133" s="1" t="s">
-        <v>1333</v>
+        <v>2447</v>
       </c>
       <c r="AE133" s="2" t="s">
-        <v>2357</v>
-      </c>
-      <c r="AF133" s="1" t="s">
-        <v>39</v>
+        <v>2746</v>
+      </c>
+      <c r="AF133" s="1">
+        <v>5</v>
       </c>
       <c r="AG133" s="1" t="s">
-        <v>39</v>
+        <v>2447</v>
       </c>
       <c r="AH133" s="2" t="s">
-        <v>39</v>
+        <v>2746</v>
       </c>
       <c r="AI133" s="1" t="s">
         <v>39</v>
@@ -53458,7 +53502,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:37" ht="75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:37" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>517</v>
       </c>
@@ -53571,7 +53615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>523</v>
       </c>
@@ -53682,7 +53726,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:37" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>524</v>
       </c>
@@ -53787,7 +53831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:37" ht="90" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:37" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>528</v>
       </c>
@@ -53896,7 +53940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>531</v>
       </c>
@@ -54001,7 +54045,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:37" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>533</v>
       </c>
@@ -54110,7 +54154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>536</v>
       </c>
@@ -54207,112 +54251,94 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:37" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>540</v>
+        <v>183</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>492</v>
+        <v>910</v>
       </c>
       <c r="C141" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>2183</v>
+        <v>2020</v>
+      </c>
+      <c r="D141" s="1">
+        <v>17</v>
+      </c>
+      <c r="E141" s="1">
+        <v>69</v>
       </c>
       <c r="F141" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>751</v>
+        <v>39</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>731</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
       <c r="K141" s="1" t="s">
-        <v>753</v>
+        <v>605</v>
       </c>
       <c r="L141" s="1">
-        <v>3</v>
-      </c>
-      <c r="M141" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="M141" s="1">
+        <v>4</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>39</v>
+        <v>2268</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>754</v>
+        <v>2296</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="Q141" s="1">
-        <v>0.85</v>
+        <v>1276</v>
+      </c>
+      <c r="Q141" s="6">
+        <v>0.86</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>756</v>
+        <v>1277</v>
       </c>
       <c r="S141" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="T141" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="T141" s="1"/>
       <c r="U141" s="1" t="s">
         <v>39</v>
       </c>
       <c r="V141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W141" s="1" t="s">
-        <v>2319</v>
-      </c>
-      <c r="X141" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y141" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z141" s="1">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="X141" s="1"/>
+      <c r="Y141" s="1"/>
+      <c r="Z141" s="1"/>
       <c r="AA141" s="1" t="s">
-        <v>2409</v>
+        <v>2797</v>
       </c>
       <c r="AB141" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC141" s="1">
-        <v>5</v>
-      </c>
-      <c r="AD141" s="1" t="s">
-        <v>2410</v>
-      </c>
-      <c r="AE141" s="2" t="s">
-        <v>2345</v>
-      </c>
+      <c r="AC141" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD141" s="1"/>
+      <c r="AE141" s="2"/>
       <c r="AF141" s="1">
         <v>5</v>
       </c>
       <c r="AG141" s="1" t="s">
-        <v>2411</v>
+        <v>2418</v>
       </c>
       <c r="AH141" s="10" t="s">
-        <v>2345</v>
-      </c>
-      <c r="AI141" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>2757</v>
+      </c>
+      <c r="AI141" s="1"/>
       <c r="AJ141" s="1" t="s">
         <v>39</v>
       </c>
@@ -54320,7 +54346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>545</v>
       </c>
@@ -54425,7 +54451,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>550</v>
       </c>
@@ -54530,7 +54556,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>553</v>
       </c>
@@ -54633,7 +54659,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>557</v>
       </c>
@@ -54740,7 +54766,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="146" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>558</v>
       </c>
@@ -54849,7 +54875,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>560</v>
       </c>
@@ -54954,7 +54980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>561</v>
       </c>
@@ -55061,7 +55087,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>569</v>
       </c>
@@ -55168,7 +55194,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:37" ht="75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:37" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>573</v>
       </c>
@@ -55275,7 +55301,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>574</v>
       </c>
@@ -55380,7 +55406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>590</v>
       </c>
@@ -55489,7 +55515,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>600</v>
       </c>
@@ -55592,7 +55618,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>626</v>
       </c>
@@ -55697,7 +55723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>627</v>
       </c>
@@ -55806,7 +55832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>628</v>
       </c>
@@ -55917,7 +55943,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:37" ht="90" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:37" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>636</v>
       </c>
@@ -56022,7 +56048,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:37" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:37" s="3" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>640</v>
       </c>
@@ -56131,7 +56157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>650</v>
       </c>
@@ -56230,7 +56256,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>659</v>
       </c>
@@ -56329,7 +56355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>660</v>
       </c>
@@ -56434,7 +56460,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>672</v>
       </c>
@@ -56543,63 +56569,61 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:37" ht="90" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>675</v>
+        <v>381</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>549</v>
+        <v>1606</v>
       </c>
       <c r="C163" s="1">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D163" s="1">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E163" s="1">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="F163" s="1">
         <v>1</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>672</v>
+        <v>1905</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>2263</v>
+        <v>1906</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>703</v>
+        <v>1906</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>2250</v>
+        <v>731</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>767</v>
+        <v>39</v>
       </c>
       <c r="L163" s="1">
-        <v>3</v>
-      </c>
-      <c r="M163" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
+      </c>
+      <c r="M163" s="1">
+        <v>2</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>39</v>
+        <v>1907</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>1361</v>
+        <v>2292</v>
       </c>
       <c r="P163" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="Q163" s="6">
-        <v>0.89</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="Q163" s="6"/>
       <c r="R163" s="1" t="s">
-        <v>661</v>
+        <v>1908</v>
       </c>
       <c r="S163" s="1">
-        <v>0.93</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="T163" s="1" t="s">
         <v>39</v>
@@ -56608,45 +56632,45 @@
         <v>39</v>
       </c>
       <c r="V163" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W163" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="X163" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y163" s="1" t="s">
-        <v>2336</v>
+        <v>39</v>
+      </c>
+      <c r="X163" s="1"/>
+      <c r="Y163" s="1">
+        <v>0</v>
       </c>
       <c r="Z163" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA163" s="1" t="s">
-        <v>2440</v>
+        <v>0</v>
+      </c>
+      <c r="AA163" s="2" t="s">
+        <v>2796</v>
       </c>
       <c r="AB163" s="1" t="s">
-        <v>2340</v>
+        <v>39</v>
       </c>
       <c r="AC163" s="1">
         <v>5</v>
       </c>
       <c r="AD163" s="1" t="s">
-        <v>2441</v>
+        <v>2459</v>
       </c>
       <c r="AE163" s="2" t="s">
-        <v>2062</v>
+        <v>2751</v>
       </c>
       <c r="AF163" s="1">
         <v>5</v>
       </c>
       <c r="AG163" s="1" t="s">
-        <v>2442</v>
+        <v>2460</v>
       </c>
       <c r="AH163" s="2" t="s">
-        <v>2062</v>
-      </c>
-      <c r="AI163" s="1"/>
+        <v>2751</v>
+      </c>
+      <c r="AI163" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ163" s="1" t="s">
         <v>39</v>
       </c>
@@ -56654,7 +56678,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:37" ht="90" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:37" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>676</v>
       </c>
@@ -56765,7 +56789,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:37" ht="75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:37" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>677</v>
       </c>
@@ -56862,7 +56886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:37" ht="75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:37" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>678</v>
       </c>
@@ -56971,7 +56995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:37" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>682</v>
       </c>
@@ -57078,7 +57102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>684</v>
       </c>
@@ -57185,7 +57209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>685</v>
       </c>
@@ -57294,7 +57318,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:37" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>686</v>
       </c>
@@ -57399,7 +57423,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:37" ht="75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:37" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>687</v>
       </c>
@@ -57506,7 +57530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:37" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>688</v>
       </c>
@@ -57617,7 +57641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>689</v>
       </c>
@@ -57724,7 +57748,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:37" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>690</v>
       </c>

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6306F8B-B6F2-4F05-947F-BA5B1115102A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB8B099-275A-4962-8684-BC18075E7834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9832" uniqueCount="2798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9831" uniqueCount="2797">
   <si>
     <t>id</t>
   </si>
@@ -8957,9 +8957,6 @@
   </si>
   <si>
     <t>Exploratory factor analyses were used to assess convergent and discriminant validity: All eigenvalues associated with the factors exceeded the required level of 1.0, varying from 1.14 to 3.73; As shown in Table 1, the overall factor structural solution had an appropriate loading pattern and explained 68.94 percent of the variation.</t>
-  </si>
-  <si>
-    <t>no specific reporting</t>
   </si>
 </sst>
 </file>
@@ -9036,7 +9033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9059,7 +9056,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -10803,7 +10799,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8C8C23E-B8AC-4554-A9ED-C1B262734E5B}" name="Tabelle1" displayName="Tabelle1" ref="A1:BC185" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
-  <autoFilter ref="A1:BC185" xr:uid="{B8C8C23E-B8AC-4554-A9ED-C1B262734E5B}"/>
+  <autoFilter ref="A1:BC185" xr:uid="{B8C8C23E-B8AC-4554-A9ED-C1B262734E5B}">
+    <filterColumn colId="28">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BC185">
     <sortCondition ref="A1:A185"/>
   </sortState>
@@ -11232,8 +11234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC185"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC53" activeCellId="2" sqref="AC1:AC1048576 AC13 AC53 AC56 AC66 AC69 AC137 AC141 AC160 AC186:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11457,7 +11459,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11601,7 +11603,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -11756,7 +11758,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -11911,7 +11913,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="5" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -12072,7 +12074,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -12233,7 +12235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -12388,7 +12390,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>19</v>
       </c>
@@ -12543,7 +12545,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>25</v>
       </c>
@@ -12698,7 +12700,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="10" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>26</v>
       </c>
@@ -12853,7 +12855,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>28</v>
       </c>
@@ -13008,7 +13010,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>32</v>
       </c>
@@ -13312,7 +13314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>36</v>
       </c>
@@ -13459,7 +13461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42</v>
       </c>
@@ -13614,7 +13616,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43</v>
       </c>
@@ -13754,7 +13756,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43</v>
       </c>
@@ -13912,7 +13914,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="18" spans="1:55" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>56</v>
       </c>
@@ -14065,7 +14067,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>56</v>
       </c>
@@ -14202,7 +14204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>56</v>
       </c>
@@ -14339,7 +14341,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>56</v>
       </c>
@@ -14476,7 +14478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>61</v>
       </c>
@@ -14631,7 +14633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>62</v>
       </c>
@@ -14780,7 +14782,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>79</v>
       </c>
@@ -14935,7 +14937,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>81</v>
       </c>
@@ -15090,7 +15092,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>82</v>
       </c>
@@ -15226,7 +15228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>83</v>
       </c>
@@ -15376,7 +15378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>86</v>
       </c>
@@ -15531,7 +15533,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>87</v>
       </c>
@@ -15683,7 +15685,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:55" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>94</v>
       </c>
@@ -15827,7 +15829,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>94</v>
       </c>
@@ -15971,7 +15973,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>94</v>
       </c>
@@ -16115,7 +16117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>95</v>
       </c>
@@ -16262,7 +16264,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>98</v>
       </c>
@@ -16417,7 +16419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>99</v>
       </c>
@@ -16575,7 +16577,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>111</v>
       </c>
@@ -16730,7 +16732,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>116</v>
       </c>
@@ -16882,7 +16884,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>123</v>
       </c>
@@ -17037,7 +17039,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>124</v>
       </c>
@@ -17195,7 +17197,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>128</v>
       </c>
@@ -17350,7 +17352,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="41" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>129</v>
       </c>
@@ -17492,7 +17494,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="42" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>129</v>
       </c>
@@ -17634,7 +17636,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>130</v>
       </c>
@@ -17787,7 +17789,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>133</v>
       </c>
@@ -17948,7 +17950,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>136</v>
       </c>
@@ -18103,7 +18105,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>146</v>
       </c>
@@ -18258,7 +18260,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>147</v>
       </c>
@@ -18410,7 +18412,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="48" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>148</v>
       </c>
@@ -18557,7 +18559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:55" ht="150" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:55" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>150</v>
       </c>
@@ -18709,7 +18711,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:55" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>155</v>
       </c>
@@ -18858,7 +18860,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:55" ht="120" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:55" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>157</v>
       </c>
@@ -19013,7 +19015,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>162</v>
       </c>
@@ -19326,7 +19328,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>166</v>
       </c>
@@ -19472,7 +19474,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>173</v>
       </c>
@@ -19788,7 +19790,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:55" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:55" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>178</v>
       </c>
@@ -19935,7 +19937,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>180</v>
       </c>
@@ -20090,7 +20092,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>180</v>
       </c>
@@ -20245,7 +20247,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>180</v>
       </c>
@@ -20400,7 +20402,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>183</v>
       </c>
@@ -20547,7 +20549,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="62" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>188</v>
       </c>
@@ -20693,7 +20695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>193</v>
       </c>
@@ -20848,7 +20850,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:55" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:55" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>200</v>
       </c>
@@ -21003,7 +21005,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>201</v>
       </c>
@@ -21307,7 +21309,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>214</v>
       </c>
@@ -21462,7 +21464,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>216</v>
       </c>
@@ -21764,7 +21766,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>220</v>
       </c>
@@ -21905,7 +21907,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>233</v>
       </c>
@@ -22060,7 +22062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:55" ht="90" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:55" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>234</v>
       </c>
@@ -22216,7 +22218,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>236</v>
       </c>
@@ -22374,7 +22376,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>242</v>
       </c>
@@ -22530,7 +22532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:55" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:55" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>248</v>
       </c>
@@ -22685,7 +22687,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>253</v>
       </c>
@@ -22840,7 +22842,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>254</v>
       </c>
@@ -22995,7 +22997,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="78" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>262</v>
       </c>
@@ -23150,7 +23152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>263</v>
       </c>
@@ -23297,7 +23299,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>269</v>
       </c>
@@ -23441,7 +23443,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>270</v>
       </c>
@@ -23596,7 +23598,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>274</v>
       </c>
@@ -23751,7 +23753,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="83" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>279</v>
       </c>
@@ -23903,7 +23905,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>280</v>
       </c>
@@ -24056,7 +24058,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="85" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>291</v>
       </c>
@@ -24211,7 +24213,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="86" spans="1:55" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:55" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>301</v>
       </c>
@@ -24359,7 +24361,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="87" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>302</v>
       </c>
@@ -24514,7 +24516,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:55" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:55" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>303</v>
       </c>
@@ -24667,7 +24669,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>312</v>
       </c>
@@ -24814,7 +24816,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="90" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>324</v>
       </c>
@@ -24966,7 +24968,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>325</v>
       </c>
@@ -25118,7 +25120,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="92" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>327</v>
       </c>
@@ -25273,7 +25275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>335</v>
       </c>
@@ -25414,7 +25416,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>337</v>
       </c>
@@ -25567,7 +25569,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="95" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>338</v>
       </c>
@@ -25722,7 +25724,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="96" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:55" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>339</v>
       </c>
@@ -25877,7 +25879,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:55" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>342</v>
       </c>
@@ -26032,7 +26034,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>346</v>
       </c>
@@ -26187,7 +26189,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:55" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>347</v>
       </c>
@@ -26336,7 +26338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>348</v>
       </c>
@@ -26479,7 +26481,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="101" spans="1:55" ht="60" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:55" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>349</v>
       </c>
@@ -26635,7 +26637,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>352</v>
       </c>
@@ -26796,7 +26798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>355</v>
       </c>
@@ -26951,7 +26953,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:55" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:55" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>362</v>
       </c>
@@ -27106,7 +27108,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>363</v>
       </c>
@@ -27261,7 +27263,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:55" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>367</v>
       </c>
@@ -27413,7 +27415,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="107" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>371</v>
       </c>
@@ -27574,7 +27576,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="108" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>372</v>
       </c>
@@ -27721,7 +27723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>372</v>
       </c>
@@ -27868,7 +27870,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>372</v>
       </c>
@@ -28023,7 +28025,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>376</v>
       </c>
@@ -28178,7 +28180,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>378</v>
       </c>
@@ -28333,7 +28335,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="113" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>381</v>
       </c>
@@ -28479,7 +28481,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="114" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>384</v>
       </c>
@@ -28628,7 +28630,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="115" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>390</v>
       </c>
@@ -28772,7 +28774,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>400</v>
       </c>
@@ -28927,7 +28929,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="117" spans="1:55" ht="60" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:55" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>405</v>
       </c>
@@ -29088,7 +29090,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>408</v>
       </c>
@@ -29243,7 +29245,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>408</v>
       </c>
@@ -29380,7 +29382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>412</v>
       </c>
@@ -29535,7 +29537,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>418</v>
       </c>
@@ -29694,7 +29696,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>419</v>
       </c>
@@ -29843,7 +29845,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="1:55" ht="105" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:55" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>429</v>
       </c>
@@ -29998,7 +30000,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>430</v>
       </c>
@@ -30151,7 +30153,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="125" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>433</v>
       </c>
@@ -30306,7 +30308,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>438</v>
       </c>
@@ -30464,7 +30466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>438</v>
       </c>
@@ -30595,7 +30597,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>441</v>
       </c>
@@ -30738,7 +30740,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:55" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>442</v>
       </c>
@@ -30882,7 +30884,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:55" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:55" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>452</v>
       </c>
@@ -31032,7 +31034,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>465</v>
       </c>
@@ -31181,7 +31183,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="132" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:55" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>479</v>
       </c>
@@ -31336,7 +31338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>482</v>
       </c>
@@ -31482,7 +31484,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="134" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>486</v>
       </c>
@@ -31619,7 +31621,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>497</v>
       </c>
@@ -31771,7 +31773,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>498</v>
       </c>
@@ -32070,7 +32072,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="138" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:55" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>517</v>
       </c>
@@ -32225,7 +32227,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="139" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>523</v>
       </c>
@@ -32369,7 +32371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>524</v>
       </c>
@@ -32682,7 +32684,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="142" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>528</v>
       </c>
@@ -32834,7 +32836,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="143" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>531</v>
       </c>
@@ -32989,7 +32991,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="144" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>533</v>
       </c>
@@ -33144,7 +33146,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>536</v>
       </c>
@@ -33297,7 +33299,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>540</v>
       </c>
@@ -33452,7 +33454,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="147" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>545</v>
       </c>
@@ -33607,7 +33609,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="148" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>550</v>
       </c>
@@ -33757,7 +33759,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="149" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>553</v>
       </c>
@@ -33909,7 +33911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>557</v>
       </c>
@@ -34064,7 +34066,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="151" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>558</v>
       </c>
@@ -34219,7 +34221,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="152" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>560</v>
       </c>
@@ -34368,7 +34370,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>561</v>
       </c>
@@ -34526,7 +34528,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>569</v>
       </c>
@@ -34681,7 +34683,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>569</v>
       </c>
@@ -34806,7 +34808,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>573</v>
       </c>
@@ -34962,7 +34964,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="157" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>574</v>
       </c>
@@ -35123,7 +35125,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>590</v>
       </c>
@@ -35269,7 +35271,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="159" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>600</v>
       </c>
@@ -35567,7 +35569,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="161" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>607</v>
       </c>
@@ -35683,7 +35685,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>612</v>
       </c>
@@ -35832,7 +35834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>626</v>
       </c>
@@ -35987,7 +35989,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>627</v>
       </c>
@@ -36136,7 +36138,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="165" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>628</v>
       </c>
@@ -36285,7 +36287,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="166" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>636</v>
       </c>
@@ -36437,7 +36439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>640</v>
       </c>
@@ -36592,7 +36594,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="168" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:55" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>648</v>
       </c>
@@ -36741,7 +36743,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="169" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>649</v>
       </c>
@@ -36893,7 +36895,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="170" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>650</v>
       </c>
@@ -37048,7 +37050,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="171" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>659</v>
       </c>
@@ -37203,7 +37205,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>660</v>
       </c>
@@ -37358,7 +37360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>672</v>
       </c>
@@ -37516,7 +37518,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="174" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:55" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>675</v>
       </c>
@@ -37669,7 +37671,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="175" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>676</v>
       </c>
@@ -37824,7 +37826,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="176" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>677</v>
       </c>
@@ -37979,7 +37981,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="177" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>678</v>
       </c>
@@ -38134,7 +38136,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="178" spans="1:55" ht="60" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:55" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>682</v>
       </c>
@@ -38289,7 +38291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="179" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>684</v>
       </c>
@@ -38447,7 +38449,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="180" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>685</v>
       </c>
@@ -38605,7 +38607,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="181" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>686</v>
       </c>
@@ -38760,7 +38762,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="182" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>687</v>
       </c>
@@ -38909,7 +38911,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="183" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>688</v>
       </c>
@@ -39064,7 +39066,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="184" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>689</v>
       </c>
@@ -39219,7 +39221,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="185" spans="1:55" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:55" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>690</v>
       </c>
@@ -39380,7 +39382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
       <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AA163" sqref="AA163"/>
     </sheetView>
@@ -39396,17 +39398,18 @@
     <col min="10" max="10" width="43.5703125" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
-    <col min="15" max="15" width="43.28515625" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" customWidth="1"/>
     <col min="18" max="19" width="22" customWidth="1"/>
     <col min="20" max="20" width="21.42578125" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="24" width="37.28515625" customWidth="1"/>
+    <col min="23" max="23" width="26.85546875" customWidth="1"/>
+    <col min="24" max="24" width="24.85546875" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="26" max="26" width="30" customWidth="1"/>
+    <col min="26" max="26" width="25.85546875" customWidth="1"/>
     <col min="27" max="27" width="64.42578125" customWidth="1"/>
     <col min="28" max="28" width="35.85546875" customWidth="1"/>
     <col min="29" max="29" width="37.140625" customWidth="1"/>
@@ -45767,7 +45770,7 @@
       <c r="V60" s="1">
         <v>1</v>
       </c>
-      <c r="W60" s="12" t="s">
+      <c r="W60" s="1" t="s">
         <v>2310</v>
       </c>
       <c r="X60" s="1">
@@ -54284,9 +54287,7 @@
       <c r="L141" s="1">
         <v>20</v>
       </c>
-      <c r="M141" s="1">
-        <v>4</v>
-      </c>
+      <c r="M141" s="1"/>
       <c r="N141" s="1" t="s">
         <v>2268</v>
       </c>
@@ -54318,9 +54319,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
-      <c r="AA141" s="1" t="s">
-        <v>2797</v>
-      </c>
+      <c r="AA141" s="1"/>
       <c r="AB141" s="1" t="s">
         <v>39</v>
       </c>

--- a/data/raw/Review_data_all_packages.xlsx
+++ b/data/raw/Review_data_all_packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neleb\Documents\GitHub\CSE-review\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F573F52D-6E39-40F1-BDA8-6802463AE903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2213437B-B1F8-4C8E-8540-9AEC103360AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10014" uniqueCount="2828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10014" uniqueCount="2827">
   <si>
     <t>id</t>
   </si>
@@ -8992,15 +8992,9 @@
     <t>not_specified; facebook</t>
   </si>
   <si>
-    <t>not specified; computer</t>
-  </si>
-  <si>
     <t>mobile_device; computer</t>
   </si>
   <si>
-    <t>computer; workplace IT</t>
-  </si>
-  <si>
     <t>not_specified; mobile_device</t>
   </si>
   <si>
@@ -9053,6 +9047,9 @@
   </si>
   <si>
     <t>smartphone; mobile_app</t>
+  </si>
+  <si>
+    <t>computer; workplace_IT</t>
   </si>
 </sst>
 </file>
@@ -11337,8 +11334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V181" sqref="V181"/>
+    <sheetView tabSelected="1" topLeftCell="R104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V115" sqref="V115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17164,7 +17161,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>2807</v>
+        <v>2800</v>
       </c>
       <c r="W38" s="1">
         <v>1</v>
@@ -18409,7 +18406,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="W46" s="1">
         <v>1</v>
@@ -18564,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>2807</v>
+        <v>2800</v>
       </c>
       <c r="W47" s="1">
         <v>1</v>
@@ -19498,7 +19495,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>2809</v>
+        <v>2826</v>
       </c>
       <c r="W53" s="1">
         <v>0</v>
@@ -20751,7 +20748,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="W61" s="1">
         <v>1</v>
@@ -21673,7 +21670,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>2807</v>
+        <v>2800</v>
       </c>
       <c r="W67" s="1">
         <v>1</v>
@@ -23696,7 +23693,7 @@
         <v>0</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
       <c r="W80" s="1">
         <v>1</v>
@@ -23846,7 +23843,7 @@
         <v>0</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="W81" s="1">
         <v>1</v>
@@ -24473,7 +24470,7 @@
         <v>0</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="W85" s="1">
         <v>1</v>
@@ -25246,7 +25243,7 @@
         <v>0</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="W90" s="1">
         <v>1</v>
@@ -25401,7 +25398,7 @@
         <v>0</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="W91" s="1">
         <v>1</v>
@@ -25711,7 +25708,7 @@
         <v>0</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="W93" s="1">
         <v>1</v>
@@ -26330,7 +26327,7 @@
         <v>0</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>2809</v>
+        <v>2826</v>
       </c>
       <c r="W97" s="1">
         <v>1</v>
@@ -26944,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="W101" s="1">
         <v>1</v>
@@ -27267,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>2807</v>
+        <v>2800</v>
       </c>
       <c r="W103" s="1">
         <v>1</v>
@@ -28210,7 +28207,7 @@
         <v>0</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
       <c r="W109" s="1">
         <v>1</v>
@@ -28360,7 +28357,7 @@
         <v>0</v>
       </c>
       <c r="V110" s="1" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
       <c r="W110" s="1">
         <v>1</v>
@@ -28676,7 +28673,7 @@
         <v>0</v>
       </c>
       <c r="V112" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="W112" s="1">
         <v>1</v>
@@ -28983,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="V114" s="1" t="s">
-        <v>2809</v>
+        <v>2826</v>
       </c>
       <c r="W114" s="1">
         <v>1</v>
@@ -29135,7 +29132,7 @@
         <v>39</v>
       </c>
       <c r="V115" s="1" t="s">
-        <v>2809</v>
+        <v>2826</v>
       </c>
       <c r="W115" s="1" t="s">
         <v>39</v>
@@ -29440,7 +29437,7 @@
         <v>0</v>
       </c>
       <c r="V117" s="1" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="W117" s="1">
         <v>1</v>
@@ -30060,7 +30057,7 @@
         <v>0</v>
       </c>
       <c r="V121" s="1" t="s">
-        <v>2807</v>
+        <v>2800</v>
       </c>
       <c r="W121" s="1">
         <v>0</v>
@@ -30222,7 +30219,7 @@
         <v>0</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="W122" s="1">
         <v>1</v>
@@ -30374,7 +30371,7 @@
         <v>1</v>
       </c>
       <c r="V123" s="1" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="W123" s="1">
         <v>1</v>
@@ -31141,7 +31138,7 @@
         <v>0</v>
       </c>
       <c r="V128" s="1" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="W128" s="1">
         <v>1</v>
@@ -31587,7 +31584,7 @@
         <v>0</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>2807</v>
+        <v>2800</v>
       </c>
       <c r="W131" s="1">
         <v>1</v>
@@ -31897,7 +31894,7 @@
         <v>0</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="W133" s="1">
         <v>1</v>
@@ -32494,7 +32491,7 @@
         <v>0</v>
       </c>
       <c r="V137" s="1" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
       <c r="W137" s="1">
         <v>0</v>
@@ -33106,7 +33103,7 @@
         <v>0</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
       <c r="W141" s="1">
         <v>0</v>
@@ -33580,7 +33577,7 @@
         <v>0</v>
       </c>
       <c r="V144" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="W144" s="1">
         <v>1</v>
@@ -34210,7 +34207,7 @@
         <v>0</v>
       </c>
       <c r="V148" s="1" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="W148" s="1">
         <v>1</v>
@@ -34986,7 +34983,7 @@
         <v>0</v>
       </c>
       <c r="V153" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="W153" s="1">
         <v>1</v>
@@ -36057,7 +36054,7 @@
         <v>0</v>
       </c>
       <c r="V160" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="W160" s="1">
         <v>0</v>
@@ -36200,7 +36197,7 @@
         <v>815</v>
       </c>
       <c r="V161" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="X161" s="1" t="s">
         <v>2018</v>
@@ -36790,7 +36787,7 @@
         <v>0</v>
       </c>
       <c r="V165" s="1" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="W165" s="1">
         <v>1</v>
@@ -37097,7 +37094,7 @@
         <v>0</v>
       </c>
       <c r="V167" s="1" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="W167" s="1">
         <v>1</v>
@@ -38827,7 +38824,7 @@
         <v>0</v>
       </c>
       <c r="V178" s="1" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="W178" s="1">
         <v>1</v>
@@ -39146,7 +39143,7 @@
         <v>0</v>
       </c>
       <c r="V180" s="1" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="W180" s="1">
         <v>1</v>
@@ -39465,7 +39462,7 @@
         <v>0</v>
       </c>
       <c r="V182" s="1" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="W182" s="1">
         <v>1</v>
@@ -39933,7 +39930,7 @@
         <v>0</v>
       </c>
       <c r="V185" s="1" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="W185" s="1">
         <v>1</v>
@@ -58656,7 +58653,7 @@
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
